--- a/database/checking.xlsx
+++ b/database/checking.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>values</t>
+          <t>v</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>done</t>
+          <t>do</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>region of origin</t>
+          <t>region_of_origin</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1356,8 +1356,12 @@
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
-      <c r="AU2" t="inlineStr"/>
-      <c r="AV2" t="inlineStr"/>
+      <c r="AU2" t="n">
+        <v>22</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>96</v>
+      </c>
       <c r="AW2" t="inlineStr">
         <is>
           <t>Myanmar</t>
@@ -1752,7 +1756,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1898,9 +1902,17 @@
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
-      <c r="AU3" t="inlineStr"/>
-      <c r="AV3" t="inlineStr"/>
-      <c r="AW3" t="inlineStr"/>
+      <c r="AU3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>76</v>
+      </c>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
       <c r="AX3" t="inlineStr">
         <is>
           <t>Asia</t>
@@ -2306,7 +2318,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -2460,9 +2472,17 @@
           <t>southern Asia</t>
         </is>
       </c>
-      <c r="AU4" t="inlineStr"/>
-      <c r="AV4" t="inlineStr"/>
-      <c r="AW4" t="inlineStr"/>
+      <c r="AU4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>77</v>
+      </c>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Kerala</t>
+        </is>
+      </c>
       <c r="AX4" t="inlineStr">
         <is>
           <t>Asia</t>
@@ -2824,7 +2844,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -2988,8 +3008,12 @@
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
-      <c r="AU5" t="inlineStr"/>
-      <c r="AV5" t="inlineStr"/>
+      <c r="AU5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>77</v>
+      </c>
       <c r="AW5" t="inlineStr">
         <is>
           <t>Jamaica</t>
@@ -3360,7 +3384,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -3516,8 +3540,12 @@
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
-      <c r="AU6" t="inlineStr"/>
-      <c r="AV6" t="inlineStr"/>
+      <c r="AU6" t="n">
+        <v>35</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>33</v>
+      </c>
       <c r="AW6" t="inlineStr">
         <is>
           <t>Cyprus</t>
@@ -3880,7 +3908,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -4032,8 +4060,12 @@
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
-      <c r="AU7" t="inlineStr"/>
-      <c r="AV7" t="inlineStr"/>
+      <c r="AU7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>68</v>
+      </c>
       <c r="AW7" t="inlineStr">
         <is>
           <t>Afghanistan</t>
@@ -4392,7 +4424,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -4544,11 +4576,15 @@
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
-      <c r="AU8" t="inlineStr"/>
-      <c r="AV8" t="inlineStr"/>
+      <c r="AU8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>79</v>
+      </c>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Kattappana</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
@@ -4928,7 +4964,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -5092,11 +5128,15 @@
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
-      <c r="AU9" t="inlineStr"/>
-      <c r="AV9" t="inlineStr"/>
+      <c r="AU9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>106</v>
+      </c>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Southeast China</t>
+          <t>Hanoi</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
@@ -5464,7 +5504,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -5612,11 +5652,15 @@
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
-      <c r="AU10" t="inlineStr"/>
-      <c r="AV10" t="inlineStr"/>
+      <c r="AU10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>127</v>
+      </c>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Ternate</t>
+          <t>Moluccas</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
@@ -5996,7 +6040,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -6136,8 +6180,12 @@
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
-      <c r="AU11" t="inlineStr"/>
-      <c r="AV11" t="inlineStr"/>
+      <c r="AU11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>45</v>
+      </c>
       <c r="AW11" t="inlineStr">
         <is>
           <t>Armenia</t>
@@ -6476,7 +6524,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -6620,11 +6668,15 @@
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
-      <c r="AU12" t="inlineStr"/>
-      <c r="AV12" t="inlineStr"/>
+      <c r="AU12" t="n">
+        <v>36</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>51</v>
+      </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Tehran</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
@@ -6940,7 +6992,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -7076,9 +7128,17 @@
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
-      <c r="AU13" t="inlineStr"/>
-      <c r="AV13" t="inlineStr"/>
-      <c r="AW13" t="inlineStr"/>
+      <c r="AU13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>39</v>
+      </c>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Syria</t>
+        </is>
+      </c>
       <c r="AX13" t="inlineStr">
         <is>
           <t>Med.; W. Asia</t>
@@ -7628,7 +7688,7 @@
       </c>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Banda Islands</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
@@ -8532,7 +8592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -8682,7 +8742,11 @@
       <c r="AV16" t="n">
         <v>106</v>
       </c>
-      <c r="AW16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Hainan</t>
+        </is>
+      </c>
       <c r="AX16" t="inlineStr">
         <is>
           <t>Asia</t>
@@ -11973,7 +12037,7 @@
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AU23" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="AV23" t="n">
         <v>130</v>
@@ -12712,7 +12776,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -12868,7 +12932,11 @@
       <c r="AV25" t="n">
         <v>-55</v>
       </c>
-      <c r="AW25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="AX25" t="inlineStr">
         <is>
           <t>Americas</t>
@@ -14038,7 +14106,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -14162,9 +14230,17 @@
         </is>
       </c>
       <c r="AT28" t="inlineStr"/>
-      <c r="AU28" t="inlineStr"/>
-      <c r="AV28" t="inlineStr"/>
-      <c r="AW28" t="inlineStr"/>
+      <c r="AU28" t="n">
+        <v>40</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Armenia</t>
+        </is>
+      </c>
       <c r="AX28" t="inlineStr"/>
       <c r="AY28" t="inlineStr">
         <is>
@@ -14416,7 +14492,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -14552,9 +14628,13 @@
         <v>33</v>
       </c>
       <c r="AV29" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW29" t="inlineStr"/>
+        <v>44</v>
+      </c>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Iraq</t>
+        </is>
+      </c>
       <c r="AX29" t="inlineStr">
         <is>
           <t>Asia</t>
@@ -14876,7 +14956,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -15019,12 +15099,16 @@
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AU30" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AV30" t="n">
-        <v>80</v>
-      </c>
-      <c r="AW30" t="inlineStr"/>
+        <v>82</v>
+      </c>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>Varanasi</t>
+        </is>
+      </c>
       <c r="AX30" t="inlineStr">
         <is>
           <t>Asia</t>
@@ -15370,7 +15454,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -15523,12 +15607,16 @@
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AU31" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="AV31" t="n">
-        <v>105</v>
-      </c>
-      <c r="AW31" t="inlineStr"/>
+        <v>104</v>
+      </c>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>Sichuan</t>
+        </is>
+      </c>
       <c r="AX31" t="inlineStr">
         <is>
           <t>Asia</t>
@@ -15850,7 +15938,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -15982,8 +16070,12 @@
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
-      <c r="AU32" t="inlineStr"/>
-      <c r="AV32" t="inlineStr"/>
+      <c r="AU32" t="n">
+        <v>16</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>101</v>
+      </c>
       <c r="AW32" t="inlineStr">
         <is>
           <t>Thailand</t>
@@ -16738,7 +16830,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -16849,12 +16941,16 @@
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AU34" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AV34" t="n">
-        <v>45</v>
-      </c>
-      <c r="AW34" t="inlineStr"/>
+        <v>47</v>
+      </c>
+      <c r="AW34" t="inlineStr">
+        <is>
+          <t>Azerbaijan</t>
+        </is>
+      </c>
       <c r="AX34" t="inlineStr">
         <is>
           <t>Eurasia</t>
@@ -18032,7 +18128,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -18150,9 +18246,17 @@
         </is>
       </c>
       <c r="AT37" t="inlineStr"/>
-      <c r="AU37" t="inlineStr"/>
-      <c r="AV37" t="inlineStr"/>
-      <c r="AW37" t="inlineStr"/>
+      <c r="AU37" t="n">
+        <v>44</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW37" t="inlineStr">
+        <is>
+          <t>Caucasus</t>
+        </is>
+      </c>
       <c r="AX37" t="inlineStr"/>
       <c r="AY37" t="inlineStr">
         <is>
@@ -18784,7 +18888,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -18908,8 +19012,12 @@
         </is>
       </c>
       <c r="AT39" t="inlineStr"/>
-      <c r="AU39" t="inlineStr"/>
-      <c r="AV39" t="inlineStr"/>
+      <c r="AU39" t="n">
+        <v>21</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>89</v>
+      </c>
       <c r="AW39" t="inlineStr">
         <is>
           <t>Yucatán</t>
@@ -19158,7 +19266,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -19175,7 +19283,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>diseased wood of Aquilaria malaccensis and A. sinensis</t>
+          <t>The diseased wood of Aquilaria malaccensis and A. sinensis</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -19282,11 +19390,15 @@
         </is>
       </c>
       <c r="AT40" t="inlineStr"/>
-      <c r="AU40" t="inlineStr"/>
-      <c r="AV40" t="inlineStr"/>
+      <c r="AU40" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>102</v>
+      </c>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Malacca</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
@@ -19548,7 +19660,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -19676,11 +19788,15 @@
           <t>west Africa</t>
         </is>
       </c>
-      <c r="AU41" t="inlineStr"/>
-      <c r="AV41" t="inlineStr"/>
+      <c r="AU41" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>2</v>
+      </c>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>west Africa</t>
+          <t>Benin</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
@@ -20296,7 +20412,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -20406,8 +20522,12 @@
           <t>Indian Ocean</t>
         </is>
       </c>
-      <c r="AU43" t="inlineStr"/>
-      <c r="AV43" t="inlineStr"/>
+      <c r="AU43" t="n">
+        <v>-33</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>82</v>
+      </c>
       <c r="AW43" t="inlineStr">
         <is>
           <t>Indian Ocean</t>
@@ -20592,11 +20712,11 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Basic</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
@@ -20604,33 +20724,45 @@
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>rough-leaved pepper</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr"/>
+          <t>safflower</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>The flower of Carthamus tinctorius</t>
+        </is>
+      </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
-          <t>anderson_history_2023</t>
+          <t>vanwyk_culinary_2014</t>
         </is>
       </c>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q44" t="inlineStr"/>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1</v>
+      </c>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="n">
+        <v>1</v>
+      </c>
       <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
+      <c r="S44" t="n">
+        <v>1</v>
+      </c>
       <c r="T44" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>Piper amalago</t>
+          <t>Carthamus tinctorius</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
@@ -20641,14 +20773,26 @@
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
       <c r="AA44" t="inlineStr"/>
       <c r="AB44" t="inlineStr"/>
       <c r="AC44" t="inlineStr"/>
       <c r="AD44" t="inlineStr"/>
       <c r="AE44" t="inlineStr"/>
-      <c r="AF44" t="inlineStr"/>
-      <c r="AG44" t="inlineStr"/>
+      <c r="AF44" t="inlineStr">
+        <is>
+          <t>safflower; false saffron; saffron thistle</t>
+        </is>
+      </c>
+      <c r="AG44" t="inlineStr">
+        <is>
+          <t>safflower</t>
+        </is>
+      </c>
       <c r="AH44" t="inlineStr"/>
       <c r="AI44" t="inlineStr"/>
       <c r="AJ44" t="inlineStr"/>
@@ -20657,24 +20801,76 @@
       <c r="AM44" t="inlineStr"/>
       <c r="AN44" t="inlineStr"/>
       <c r="AO44" t="inlineStr"/>
-      <c r="AP44" t="inlineStr"/>
-      <c r="AQ44" t="inlineStr"/>
-      <c r="AR44" t="inlineStr"/>
-      <c r="AS44" t="inlineStr"/>
-      <c r="AT44" t="inlineStr"/>
-      <c r="AU44" t="inlineStr"/>
-      <c r="AV44" t="inlineStr"/>
-      <c r="AW44" t="inlineStr"/>
-      <c r="AX44" t="inlineStr"/>
-      <c r="AY44" t="inlineStr"/>
-      <c r="AZ44" t="inlineStr"/>
-      <c r="BA44" t="inlineStr"/>
-      <c r="BB44" t="inlineStr"/>
+      <c r="AP44" t="inlineStr">
+        <is>
+          <t>Plantae</t>
+        </is>
+      </c>
+      <c r="AQ44" t="inlineStr">
+        <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="AR44" t="inlineStr">
+        <is>
+          <t>corollas</t>
+        </is>
+      </c>
+      <c r="AS44" t="inlineStr">
+        <is>
+          <t>N Afr; W As; Med</t>
+        </is>
+      </c>
+      <c r="AT44" t="inlineStr">
+        <is>
+          <t>Asia or Europe</t>
+        </is>
+      </c>
+      <c r="AU44" t="n">
+        <v>30</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>53</v>
+      </c>
+      <c r="AW44" t="inlineStr">
+        <is>
+          <t>Shiraz</t>
+        </is>
+      </c>
+      <c r="AX44" t="inlineStr">
+        <is>
+          <t>Med</t>
+        </is>
+      </c>
+      <c r="AY44" t="inlineStr">
+        <is>
+          <t>https://powo.science.kew.org/taxon/324467-2</t>
+        </is>
+      </c>
+      <c r="AZ44" t="inlineStr">
+        <is>
+          <t>Central &amp; E. Türkiye to Iran</t>
+        </is>
+      </c>
+      <c r="BA44" t="inlineStr">
+        <is>
+          <t>Iran, Turkey</t>
+        </is>
+      </c>
+      <c r="BB44" t="inlineStr">
+        <is>
+          <t>Afghanistan, Alberta, Algeria, Argentina Northeast, Argentina Northwest, Argentina South, Arizona, Assam, Austria, Baltic States, Bangladesh, Belgium, Borneo, British Columbia, Bulgaria, California, Cambodia, Canary Is., Central European Rus, Chile Central, Chile North, Chile South, China North-Central, China South-Central, China Southeast, Colombia, Colorado, Cuba, Czechoslovakia, East Aegean Is., East European Russia, East Himalaya, Egypt, El Salvador, Eritrea, Ethiopia, France, Germany, Great Britain, Greece, Gulf States, Hainan, Hungary, Idaho, Illinois, India, Inner Mongolia, Iowa, Iraq, Ireland, Italy, Japan, Jawa, Kansas, Kazakhstan, Korea, Krym, Kuwait, Laos, Lebanon-Syria, Lesser Sunda Is., Libya, Madeira, Malaya, Maluku, Manchuria, Massachusetts, Mauritius, Mexico Central, Mexico Gulf, Mexico Northeast, Mexico Northwest, Mexico Southeast, Mexico Southwest, Montana, Morocco, Mozambique, Myanmar, Nebraska, Nepal, Netherlands, New Mexico, New South Wales, New York, New Zealand North, New Zealand South, Nicaragua, North Caucasus, North Dakota, North European Russi, Northern Territory, Northwest European R, Ohio, Oman, Oregon, Pakistan, Palestine, Paraguay, Philippines, Poland, Portugal, Qinghai, Queensland, Romania, Saudi Arabia, Sicilia, South Australia, South European Russi, Spain, Sudan, Sulawesi, Sumatera, Switzerland, Tadzhikistan, Tasmania, Thailand, Tibet, Transcaucasus, Tunisia, Ukraine, Uruguay, Utah, Uzbekistan, Victoria, Vietnam, Washington, West Himalaya, Western Australia, Xinjiang, Yemen, Yugoslavia, Zimbabwe</t>
+        </is>
+      </c>
       <c r="BC44" t="inlineStr"/>
       <c r="BD44" t="inlineStr"/>
       <c r="BE44" t="inlineStr"/>
       <c r="BF44" t="inlineStr"/>
-      <c r="BG44" t="inlineStr"/>
+      <c r="BG44" t="inlineStr">
+        <is>
+          <t>dye; adulterant</t>
+        </is>
+      </c>
       <c r="BH44" t="inlineStr"/>
       <c r="BI44" t="inlineStr"/>
       <c r="BJ44" t="inlineStr"/>
@@ -20683,14 +20879,26 @@
       <c r="BM44" t="inlineStr"/>
       <c r="BN44" t="inlineStr"/>
       <c r="BO44" t="inlineStr"/>
-      <c r="BP44" t="inlineStr"/>
+      <c r="BP44" t="inlineStr">
+        <is>
+          <t>safflower</t>
+        </is>
+      </c>
       <c r="BQ44" t="inlineStr"/>
       <c r="BR44" t="inlineStr"/>
       <c r="BS44" t="inlineStr"/>
       <c r="BT44" t="inlineStr"/>
       <c r="BU44" t="inlineStr"/>
-      <c r="BV44" t="inlineStr"/>
-      <c r="BW44" t="inlineStr"/>
+      <c r="BV44" t="inlineStr">
+        <is>
+          <t>紅花</t>
+        </is>
+      </c>
+      <c r="BW44" t="inlineStr">
+        <is>
+          <t>hónghuā</t>
+        </is>
+      </c>
       <c r="BX44" t="inlineStr"/>
       <c r="BY44" t="inlineStr"/>
       <c r="BZ44" t="inlineStr"/>
@@ -20702,22 +20910,70 @@
       <c r="CF44" t="inlineStr"/>
       <c r="CG44" t="inlineStr"/>
       <c r="CH44" t="inlineStr"/>
-      <c r="CI44" t="inlineStr"/>
+      <c r="CI44" t="inlineStr">
+        <is>
+          <t>color, no flavour</t>
+        </is>
+      </c>
       <c r="CJ44" t="inlineStr"/>
-      <c r="CK44" t="inlineStr"/>
-      <c r="CL44" t="inlineStr"/>
-      <c r="CM44" t="inlineStr"/>
+      <c r="CK44" t="inlineStr">
+        <is>
+          <t>Carthami Flos</t>
+        </is>
+      </c>
+      <c r="CL44" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="CM44" t="inlineStr">
+        <is>
+          <t>polyu-tcm</t>
+        </is>
+      </c>
       <c r="CN44" t="inlineStr"/>
-      <c r="CO44" t="inlineStr"/>
-      <c r="CP44" t="inlineStr"/>
+      <c r="CO44" t="inlineStr">
+        <is>
+          <t>紅花</t>
+        </is>
+      </c>
+      <c r="CP44" t="inlineStr">
+        <is>
+          <t>hónghuā</t>
+        </is>
+      </c>
       <c r="CQ44" t="inlineStr"/>
-      <c r="CR44" t="inlineStr"/>
-      <c r="CS44" t="inlineStr"/>
-      <c r="CT44" t="inlineStr"/>
-      <c r="CU44" t="inlineStr"/>
+      <c r="CR44" t="inlineStr">
+        <is>
+          <t>Dried flower of Carthamus tinctorius L. (Fam. Compostiae)</t>
+        </is>
+      </c>
+      <c r="CS44" t="inlineStr">
+        <is>
+          <t>Blood-activating menstruation regulating medicinal</t>
+        </is>
+      </c>
+      <c r="CT44" t="inlineStr">
+        <is>
+          <t>pungent; warm</t>
+        </is>
+      </c>
+      <c r="CU44" t="inlineStr">
+        <is>
+          <t>Liver, Heart</t>
+        </is>
+      </c>
       <c r="CV44" t="inlineStr"/>
-      <c r="CW44" t="inlineStr"/>
-      <c r="CX44" t="inlineStr"/>
+      <c r="CW44" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="CX44" t="inlineStr">
+        <is>
+          <t>973</t>
+        </is>
+      </c>
       <c r="CY44" t="inlineStr"/>
       <c r="CZ44" t="inlineStr"/>
       <c r="DA44" t="inlineStr"/>
@@ -20732,22 +20988,22 @@
       <c r="DJ44" t="inlineStr"/>
       <c r="DK44" t="inlineStr">
         <is>
-          <t>rough-leaved_pepper</t>
+          <t>safflower</t>
         </is>
       </c>
       <c r="DL44" t="inlineStr">
         <is>
-          <t>https://partigabor.github.io/aromatica/items/rough-leaved_pepper</t>
+          <t>https://partigabor.github.io/aromatica/items/safflower</t>
         </is>
       </c>
       <c r="DM44" t="inlineStr">
         <is>
-          <t>2559492</t>
+          <t>2900984</t>
         </is>
       </c>
       <c r="DN44" t="inlineStr">
         <is>
-          <t>680359-1</t>
+          <t>324467-2</t>
         </is>
       </c>
       <c r="DO44" t="inlineStr">
@@ -20762,19 +21018,19 @@
       </c>
       <c r="DQ44" t="inlineStr">
         <is>
-          <t>Piperaceae</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="DR44" t="inlineStr"/>
       <c r="DS44" t="inlineStr">
         <is>
-          <t>Piper</t>
+          <t>Carthamus</t>
         </is>
       </c>
       <c r="DT44" t="inlineStr"/>
       <c r="DU44" t="inlineStr">
         <is>
-          <t>amalago</t>
+          <t>tinctorius</t>
         </is>
       </c>
       <c r="DV44" t="inlineStr"/>
@@ -20793,7 +21049,7 @@
       </c>
       <c r="EB44" t="inlineStr">
         <is>
-          <t>: 29</t>
+          <t>: 830</t>
         </is>
       </c>
       <c r="EC44" t="inlineStr">
@@ -20804,22 +21060,22 @@
       <c r="ED44" t="inlineStr"/>
       <c r="EE44" t="inlineStr">
         <is>
-          <t>Mexico, Caribbean to S. Trop. America</t>
+          <t>C. &amp; E. Türkiye to Iran</t>
         </is>
       </c>
       <c r="EF44" t="inlineStr">
         <is>
-          <t>shrub</t>
+          <t>annual</t>
         </is>
       </c>
       <c r="EG44" t="inlineStr">
         <is>
-          <t>wet tropical</t>
+          <t>temperate</t>
         </is>
       </c>
       <c r="EH44" t="inlineStr">
         <is>
-          <t>2559492</t>
+          <t>2900984</t>
         </is>
       </c>
       <c r="EI44" t="inlineStr"/>
@@ -20827,12 +21083,12 @@
       <c r="EK44" t="inlineStr"/>
       <c r="EL44" t="inlineStr">
         <is>
-          <t>2555110</t>
+          <t>3134274</t>
         </is>
       </c>
       <c r="EM44" t="inlineStr">
         <is>
-          <t>680359-1</t>
+          <t>324467-2</t>
         </is>
       </c>
       <c r="EN44" t="inlineStr"/>
@@ -20843,30 +21099,34 @@
       </c>
       <c r="EP44" t="inlineStr">
         <is>
-          <t>https://powo.science.kew.org/taxon/680359-1</t>
+          <t>https://powo.science.kew.org/taxon/324467-2</t>
         </is>
       </c>
       <c r="EQ44" t="inlineStr">
         <is>
-          <t>Mexico Central, Mexico Northeast, Mexico Gulf, Mexico Southwest, Mexico Southeast, Cayman Is., Cuba, Dominican Republic, Haiti, Jamaica, Leeward Is., Puerto Rico, Trinidad-Tobago, Windward Is., French Guiana, Guyana, Suriname, Venezuela, Bolivia, Colombia, Ecuador, Peru, Brazil West-Central, Brazil Northeast, Brazil Southeast, Brazil North, Brazil South, Argentina Northeast, Argentina Northwest, Paraguay</t>
-        </is>
-      </c>
-      <c r="ER44" t="inlineStr"/>
+          <t>Iran, Turkey</t>
+        </is>
+      </c>
+      <c r="ER44" t="inlineStr">
+        <is>
+          <t>Great Britain, Ireland, Austria, Belgium, Czechoslovakia, Germany, Hungary, Netherlands, Poland, Switzerland, France, Portugal, Spain, Bulgaria, Greece, Italy, Romania, Sicilia, Yugoslavia, Baltic States, Krym, Central European Rus, East European Russia, North European Russi, South European Russi, Northwest European R, Ukraine, Algeria, Egypt, Libya, Morocco, Tunisia, Canary Is., Madeira, Eritrea, Ethiopia, Sudan, Mozambique, Zimbabwe, Mauritius, Kazakhstan, Tadzhikistan, Uzbekistan, North Caucasus, Transcaucasus, Afghanistan, East Aegean Is., Iraq, Lebanon-Syria, Palestine, Gulf States, Kuwait, Oman, Saudi Arabia, Yemen, China South-Central, Hainan, Inner Mongolia, Manchuria, China North-Central, Qinghai, China Southeast, Tibet, Xinjiang, Japan, Korea, Assam, Bangladesh, East Himalaya, India, Nepal, Pakistan, West Himalaya, Cambodia, Laos, Myanmar, Thailand, Vietnam, Borneo, Jawa, Lesser Sunda Is., Malaya, Maluku, Philippines, Sulawesi, Sumatera, New South Wales, Northern Territory, Queensland, South Australia, Tasmania, Victoria, Western Australia, New Zealand North, New Zealand South, Alberta, British Columbia, Colorado, Idaho, Montana, Oregon, Washington, Illinois, Iowa, Kansas, North Dakota, Nebraska, Massachusetts, New York, Ohio, Arizona, California, Utah, New Mexico, Mexico Central, Mexico Northeast, Mexico Gulf, Mexico Northwest, Mexico Southwest, Mexico Southeast, El Salvador, Nicaragua, Cuba, Colombia, Argentina Northeast, Argentina South, Argentina Northwest, Chile Central, Chile North, Chile South, Paraguay, Uruguay</t>
+        </is>
+      </c>
       <c r="ES44" t="inlineStr">
         <is>
-          <t>Mexico, Caribbean, Northern South America, Western South America, Brazil, Southern South America</t>
+          <t>Western Asia</t>
         </is>
       </c>
       <c r="ET44" t="inlineStr">
         <is>
-          <t>NORTHERN AMERICA, SOUTHERN AMERICA</t>
+          <t>ASIA-TEMPERATE</t>
         </is>
       </c>
       <c r="EU44" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="EV44" t="n">
-        <v>1</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/database/checking.xlsx
+++ b/database/checking.xlsx
@@ -651,7 +651,7 @@
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>part_used</t>
+          <t>part</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
@@ -1756,7 +1756,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>pepper</t>
+          <t>black pepper</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>long pepper</t>
+          <t>long pepper; cubeb pepper</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -2170,12 +2170,12 @@
       <c r="DJ3" t="inlineStr"/>
       <c r="DK3" t="inlineStr">
         <is>
-          <t>pepper</t>
+          <t>black_pepper</t>
         </is>
       </c>
       <c r="DL3" t="inlineStr">
         <is>
-          <t>https://partigabor.github.io/aromatica/items/pepper</t>
+          <t>https://partigabor.github.io/aromatica/items/black_pepper</t>
         </is>
       </c>
       <c r="DM3" t="inlineStr">

--- a/database/checking.xlsx
+++ b/database/checking.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EP46"/>
+  <dimension ref="A1:EN46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1154,16 +1154,6 @@
           <t>continents</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
-        <is>
-          <t>n_of_native</t>
-        </is>
-      </c>
-      <c r="EP1" s="1" t="inlineStr">
-        <is>
-          <t>n_of_introduced</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1692,12 +1682,6 @@
           <t>ASIA-TEMPERATE, ASIA-TROPICAL</t>
         </is>
       </c>
-      <c r="EO2" t="n">
-        <v>4</v>
-      </c>
-      <c r="EP2" t="n">
-        <v>36</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2245,12 +2229,6 @@
         <is>
           <t>ASIA-TROPICAL</t>
         </is>
-      </c>
-      <c r="EO3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP3" t="n">
-        <v>38</v>
       </c>
     </row>
     <row r="4">
@@ -2779,12 +2757,6 @@
         <is>
           <t>ASIA-TROPICAL</t>
         </is>
-      </c>
-      <c r="EO4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP4" t="n">
-        <v>54</v>
       </c>
     </row>
     <row r="5">
@@ -3305,12 +3277,6 @@
         <is>
           <t>NORTHERN AMERICA, SOUTHERN AMERICA</t>
         </is>
-      </c>
-      <c r="EO5" t="n">
-        <v>13</v>
-      </c>
-      <c r="EP5" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -3804,12 +3770,6 @@
           <t>ASIA-TEMPERATE</t>
         </is>
       </c>
-      <c r="EO6" t="n">
-        <v>4</v>
-      </c>
-      <c r="EP6" t="n">
-        <v>42</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4297,12 +4257,6 @@
         <is>
           <t>ASIA-TEMPERATE, ASIA-TROPICAL</t>
         </is>
-      </c>
-      <c r="EO7" t="n">
-        <v>8</v>
-      </c>
-      <c r="EP7" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -4832,12 +4786,6 @@
           <t>ASIA-TROPICAL</t>
         </is>
       </c>
-      <c r="EO8" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP8" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5340,12 +5288,6 @@
           <t>ASIA-TEMPERATE, ASIA-TROPICAL</t>
         </is>
       </c>
-      <c r="EO9" t="n">
-        <v>2</v>
-      </c>
-      <c r="EP9" t="n">
-        <v>14</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5844,12 +5786,6 @@
           <t>ASIA-TROPICAL</t>
         </is>
       </c>
-      <c r="EO10" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP10" t="n">
-        <v>10</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6297,12 +6233,6 @@
         <is>
           <t>ASIA-TEMPERATE, ASIA-TROPICAL</t>
         </is>
-      </c>
-      <c r="EO11" t="n">
-        <v>10</v>
-      </c>
-      <c r="EP11" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="12">
@@ -6736,12 +6666,6 @@
           <t>ASIA-TEMPERATE</t>
         </is>
       </c>
-      <c r="EO12" t="n">
-        <v>3</v>
-      </c>
-      <c r="EP12" t="n">
-        <v>26</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7252,12 +7176,6 @@
           <t>EUROPE, AFRICA, ASIA-TEMPERATE, ASIA-TROPICAL</t>
         </is>
       </c>
-      <c r="EO13" t="n">
-        <v>41</v>
-      </c>
-      <c r="EP13" t="n">
-        <v>135</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -7736,12 +7654,6 @@
           <t>ASIA-TROPICAL</t>
         </is>
       </c>
-      <c r="EO14" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP14" t="n">
-        <v>15</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8240,12 +8152,6 @@
           <t>EUROPE</t>
         </is>
       </c>
-      <c r="EO15" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP15" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8739,12 +8645,6 @@
         <is>
           <t>ASIA-TEMPERATE, ASIA-TROPICAL</t>
         </is>
-      </c>
-      <c r="EO16" t="n">
-        <v>2</v>
-      </c>
-      <c r="EP16" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -9173,12 +9073,6 @@
         <is>
           <t>EUROPE, ASIA-TEMPERATE, ASIA-TROPICAL</t>
         </is>
-      </c>
-      <c r="EO17" t="n">
-        <v>67</v>
-      </c>
-      <c r="EP17" t="n">
-        <v>57</v>
       </c>
     </row>
     <row r="18">
@@ -9650,12 +9544,6 @@
           <t>NORTHERN AMERICA, SOUTHERN AMERICA</t>
         </is>
       </c>
-      <c r="EO18" t="n">
-        <v>39</v>
-      </c>
-      <c r="EP18" t="n">
-        <v>98</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -10121,12 +10009,6 @@
         <is>
           <t>ASIA-TROPICAL</t>
         </is>
-      </c>
-      <c r="EO19" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP19" t="n">
-        <v>27</v>
       </c>
     </row>
     <row r="20">
@@ -10548,12 +10430,6 @@
           <t>ASIA-TROPICAL</t>
         </is>
       </c>
-      <c r="EO20" t="n">
-        <v>9</v>
-      </c>
-      <c r="EP20" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -10967,12 +10843,6 @@
         <is>
           <t>AFRICA, ASIA-TEMPERATE</t>
         </is>
-      </c>
-      <c r="EO21" t="n">
-        <v>11</v>
-      </c>
-      <c r="EP21" t="n">
-        <v>135</v>
       </c>
     </row>
     <row r="22">
@@ -11334,12 +11204,6 @@
           <t>ASIA-TROPICAL</t>
         </is>
       </c>
-      <c r="EO22" t="n">
-        <v>2</v>
-      </c>
-      <c r="EP22" t="n">
-        <v>95</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -11781,12 +11645,6 @@
         <is>
           <t>ASIA-TROPICAL</t>
         </is>
-      </c>
-      <c r="EO23" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP23" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="24">
@@ -12156,12 +12014,6 @@
           <t>EUROPE, ASIA-TEMPERATE</t>
         </is>
       </c>
-      <c r="EO24" t="n">
-        <v>9</v>
-      </c>
-      <c r="EP24" t="n">
-        <v>29</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -12631,12 +12483,6 @@
         <is>
           <t>NORTHERN AMERICA, SOUTHERN AMERICA</t>
         </is>
-      </c>
-      <c r="EO25" t="n">
-        <v>14</v>
-      </c>
-      <c r="EP25" t="n">
-        <v>38</v>
       </c>
     </row>
     <row r="26">
@@ -12996,12 +12842,6 @@
           <t>ASIA-TEMPERATE, ASIA-TROPICAL</t>
         </is>
       </c>
-      <c r="EO26" t="n">
-        <v>11</v>
-      </c>
-      <c r="EP26" t="n">
-        <v>14</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -13395,12 +13235,6 @@
         <is>
           <t>NORTHERN AMERICA, SOUTHERN AMERICA</t>
         </is>
-      </c>
-      <c r="EO27" t="n">
-        <v>28</v>
-      </c>
-      <c r="EP27" t="n">
-        <v>54</v>
       </c>
     </row>
     <row r="28">
@@ -13752,12 +13586,6 @@
           <t>EUROPE, AFRICA, ASIA-TEMPERATE, ASIA-TROPICAL</t>
         </is>
       </c>
-      <c r="EO28" t="n">
-        <v>49</v>
-      </c>
-      <c r="EP28" t="n">
-        <v>110</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -14186,12 +14014,6 @@
           <t>ASIA-TEMPERATE, ASIA-TROPICAL</t>
         </is>
       </c>
-      <c r="EO29" t="n">
-        <v>4</v>
-      </c>
-      <c r="EP29" t="n">
-        <v>69</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -14651,12 +14473,6 @@
         <is>
           <t>ASIA-TEMPERATE, ASIA-TROPICAL</t>
         </is>
-      </c>
-      <c r="EO30" t="n">
-        <v>10</v>
-      </c>
-      <c r="EP30" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -15105,12 +14921,6 @@
         <is>
           <t>ASIA-TEMPERATE, ASIA-TROPICAL</t>
         </is>
-      </c>
-      <c r="EO31" t="n">
-        <v>10</v>
-      </c>
-      <c r="EP31" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -15506,12 +15316,6 @@
           <t>ASIA-TEMPERATE, ASIA-TROPICAL, AUSTRALASIA</t>
         </is>
       </c>
-      <c r="EO32" t="n">
-        <v>29</v>
-      </c>
-      <c r="EP32" t="n">
-        <v>99</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -15941,12 +15745,6 @@
         <is>
           <t>ASIA-TEMPERATE, ASIA-TROPICAL</t>
         </is>
-      </c>
-      <c r="EO33" t="n">
-        <v>9</v>
-      </c>
-      <c r="EP33" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -16311,12 +16109,6 @@
         <is>
           <t>EUROPE, AFRICA, ASIA-TEMPERATE, ASIA-TROPICAL</t>
         </is>
-      </c>
-      <c r="EO34" t="n">
-        <v>61</v>
-      </c>
-      <c r="EP34" t="n">
-        <v>85</v>
       </c>
     </row>
     <row r="35">
@@ -16729,12 +16521,6 @@
         <is>
           <t>EUROPE, ASIA-TEMPERATE, NORTHERN AMERICA</t>
         </is>
-      </c>
-      <c r="EO35" t="n">
-        <v>24</v>
-      </c>
-      <c r="EP35" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -17149,12 +16935,6 @@
         <is>
           <t>EUROPE, AFRICA, ASIA-TEMPERATE</t>
         </is>
-      </c>
-      <c r="EO36" t="n">
-        <v>19</v>
-      </c>
-      <c r="EP36" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="37">
@@ -17492,12 +17272,6 @@
           <t>ASIA-TEMPERATE</t>
         </is>
       </c>
-      <c r="EO37" t="n">
-        <v>2</v>
-      </c>
-      <c r="EP37" t="n">
-        <v>206</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -17849,12 +17623,6 @@
         <is>
           <t>ASIA-TEMPERATE, ASIA-TROPICAL</t>
         </is>
-      </c>
-      <c r="EO38" t="n">
-        <v>9</v>
-      </c>
-      <c r="EP38" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -18198,12 +17966,6 @@
           <t>NORTHERN AMERICA, SOUTHERN AMERICA</t>
         </is>
       </c>
-      <c r="EO39" t="n">
-        <v>18</v>
-      </c>
-      <c r="EP39" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -18563,12 +18325,6 @@
         <is>
           <t>ASIA-TROPICAL</t>
         </is>
-      </c>
-      <c r="EO40" t="n">
-        <v>10</v>
-      </c>
-      <c r="EP40" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -18904,12 +18660,6 @@
           <t>AFRICA</t>
         </is>
       </c>
-      <c r="EO41" t="n">
-        <v>27</v>
-      </c>
-      <c r="EP41" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -19260,12 +19010,6 @@
           <t>AFRICA</t>
         </is>
       </c>
-      <c r="EO42" t="n">
-        <v>28</v>
-      </c>
-      <c r="EP42" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -19516,7 +19260,11 @@
       <c r="DH43" t="inlineStr"/>
       <c r="DI43" t="inlineStr"/>
       <c r="DJ43" t="inlineStr"/>
-      <c r="DK43" t="inlineStr"/>
+      <c r="DK43" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
       <c r="DL43" t="inlineStr"/>
       <c r="DM43" t="inlineStr"/>
       <c r="DN43" t="inlineStr"/>
@@ -19546,12 +19294,6 @@
       <c r="EL43" t="inlineStr"/>
       <c r="EM43" t="inlineStr"/>
       <c r="EN43" t="inlineStr"/>
-      <c r="EO43" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP43" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -19938,12 +19680,6 @@
           <t>ASIA-TEMPERATE</t>
         </is>
       </c>
-      <c r="EO44" t="n">
-        <v>2</v>
-      </c>
-      <c r="EP44" t="n">
-        <v>132</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -19963,7 +19699,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>pink peppercorns</t>
+          <t>pink pepper</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -20220,12 +19956,12 @@
       <c r="DD45" t="inlineStr"/>
       <c r="DE45" t="inlineStr">
         <is>
-          <t>pink_peppercorns</t>
+          <t>pink_pepper</t>
         </is>
       </c>
       <c r="DF45" t="inlineStr">
         <is>
-          <t>https://partigabor.github.io/aromatica/items/pink_peppercorns</t>
+          <t>https://partigabor.github.io/aromatica/items/pink_pepper</t>
         </is>
       </c>
       <c r="DG45" t="inlineStr">
@@ -20353,12 +20089,6 @@
         <is>
           <t>SOUTHERN AMERICA</t>
         </is>
-      </c>
-      <c r="EO45" t="n">
-        <v>6</v>
-      </c>
-      <c r="EP45" t="n">
-        <v>42</v>
       </c>
     </row>
     <row r="46">
@@ -20674,12 +20404,6 @@
           <t>SOUTHERN AMERICA</t>
         </is>
       </c>
-      <c r="EO46" t="n">
-        <v>6</v>
-      </c>
-      <c r="EP46" t="n">
-        <v>53</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/database/checking.xlsx
+++ b/database/checking.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EM15"/>
+  <dimension ref="A1:EN17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +476,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>see also</t>
+          <t>also</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -581,7 +581,7 @@
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>common name</t>
+          <t>common_names</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
@@ -636,515 +636,520 @@
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
+          <t>wiktionary</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
           <t>kingdom</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>part</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>region_of_origin</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>origin dalby</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>lat</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>lon</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>location</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>macroarea</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>cultivation</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>color</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>taste_smell</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>heat</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>major_uses</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>ill_source</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>ill_page</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>ill_key</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>ill_link</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>other_links</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>wn_plant</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>wn</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>wn_comment</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>en_alt</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>Arabic</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>ar</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>ar_literal</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>ar_alt</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>Chinese</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>zh</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>zh_literal</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>zh_alt</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>zh_notes</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>Hungarian</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>hu_literal</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>hu_alt</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>hu_notes</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>Cantonese</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>yu</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>yu literal</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>notes</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>operative</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>pharmaceutical</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>tcm</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>tcm db</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>tcm link</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>tcm name</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>tcm pinyin</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>tcm en</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>tcm desc</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>medicinal group</t>
         </is>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>nature and flavors</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>meridian affinity</t>
         </is>
       </c>
-      <c r="CO1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>action</t>
         </is>
       </c>
-      <c r="CP1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>foc</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="inlineStr">
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>hu_history_1990</t>
         </is>
       </c>
-      <c r="CR1" s="1" t="inlineStr">
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>year recorded in TCM</t>
         </is>
       </c>
-      <c r="CS1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>ayurveda</t>
         </is>
       </c>
-      <c r="CT1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>gbif</t>
         </is>
       </c>
-      <c r="CU1" s="1" t="inlineStr">
+      <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>trop</t>
         </is>
       </c>
-      <c r="CV1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>eol</t>
         </is>
       </c>
-      <c r="CW1" s="1" t="inlineStr">
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>ncbi</t>
         </is>
       </c>
-      <c r="CX1" s="1" t="inlineStr">
+      <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>Hindi</t>
         </is>
       </c>
-      <c r="CY1" s="1" t="inlineStr">
+      <c r="CZ1" s="1" t="inlineStr">
         <is>
           <t>hi</t>
         </is>
       </c>
-      <c r="CZ1" s="1" t="inlineStr">
+      <c r="DA1" s="1" t="inlineStr">
         <is>
           <t>hi literal</t>
         </is>
       </c>
-      <c r="DA1" s="1" t="inlineStr">
+      <c r="DB1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Hi alt </t>
         </is>
       </c>
-      <c r="DB1" s="1" t="inlineStr">
+      <c r="DC1" s="1" t="inlineStr">
         <is>
           <t>Indonesian</t>
         </is>
       </c>
-      <c r="DC1" s="1" t="inlineStr">
+      <c r="DD1" s="1" t="inlineStr">
         <is>
           <t>Persian</t>
         </is>
       </c>
-      <c r="DD1" s="1" t="inlineStr">
+      <c r="DE1" s="1" t="inlineStr">
         <is>
           <t>key</t>
         </is>
       </c>
-      <c r="DE1" s="1" t="inlineStr">
+      <c r="DF1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="DF1" s="1" t="inlineStr">
+      <c r="DG1" s="1" t="inlineStr">
         <is>
           <t>plant_name_id</t>
         </is>
       </c>
-      <c r="DG1" s="1" t="inlineStr">
+      <c r="DH1" s="1" t="inlineStr">
         <is>
           <t>ipni_id</t>
         </is>
       </c>
-      <c r="DH1" s="1" t="inlineStr">
+      <c r="DI1" s="1" t="inlineStr">
         <is>
           <t>taxon_rank</t>
         </is>
       </c>
-      <c r="DI1" s="1" t="inlineStr">
+      <c r="DJ1" s="1" t="inlineStr">
         <is>
           <t>taxon_status</t>
         </is>
       </c>
-      <c r="DJ1" s="1" t="inlineStr">
+      <c r="DK1" s="1" t="inlineStr">
         <is>
           <t>family</t>
         </is>
       </c>
-      <c r="DK1" s="1" t="inlineStr">
+      <c r="DL1" s="1" t="inlineStr">
         <is>
           <t>genus_hybrid</t>
         </is>
       </c>
-      <c r="DL1" s="1" t="inlineStr">
+      <c r="DM1" s="1" t="inlineStr">
         <is>
           <t>genus</t>
         </is>
       </c>
-      <c r="DM1" s="1" t="inlineStr">
+      <c r="DN1" s="1" t="inlineStr">
         <is>
           <t>species_hybrid</t>
         </is>
       </c>
-      <c r="DN1" s="1" t="inlineStr">
+      <c r="DO1" s="1" t="inlineStr">
         <is>
           <t>species</t>
         </is>
       </c>
-      <c r="DO1" s="1" t="inlineStr">
+      <c r="DP1" s="1" t="inlineStr">
         <is>
           <t>infraspecific_rank</t>
         </is>
       </c>
-      <c r="DP1" s="1" t="inlineStr">
+      <c r="DQ1" s="1" t="inlineStr">
         <is>
           <t>infraspecies</t>
         </is>
       </c>
-      <c r="DQ1" s="1" t="inlineStr">
+      <c r="DR1" s="1" t="inlineStr">
         <is>
           <t>parenthetical_author</t>
         </is>
       </c>
-      <c r="DR1" s="1" t="inlineStr">
+      <c r="DS1" s="1" t="inlineStr">
         <is>
           <t>primary_author</t>
         </is>
       </c>
-      <c r="DS1" s="1" t="inlineStr">
+      <c r="DT1" s="1" t="inlineStr">
         <is>
           <t>publication_author</t>
         </is>
       </c>
-      <c r="DT1" s="1" t="inlineStr">
+      <c r="DU1" s="1" t="inlineStr">
         <is>
           <t>place_of_publication</t>
         </is>
       </c>
-      <c r="DU1" s="1" t="inlineStr">
+      <c r="DV1" s="1" t="inlineStr">
         <is>
           <t>volume_and_page</t>
         </is>
       </c>
-      <c r="DV1" s="1" t="inlineStr">
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>first_published</t>
         </is>
       </c>
-      <c r="DW1" s="1" t="inlineStr">
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>nomenclatural_remarks</t>
         </is>
       </c>
-      <c r="DX1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>geographic_area</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>lifeform_description</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>climate_description</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>accepted_plant_name_id</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>basionym_plant_name_id</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>replaced_synonym_author</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>homotypic_synonym</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>parent_plant_name_id</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>powo_id</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>hybrid_formula</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>reviewed</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>powo_url</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>native</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>introduced</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>regions</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>continents</t>
         </is>
@@ -1173,7 +1178,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>The aromatic rhizomes of the ginger plant, fresh or dried.</t>
+          <t>the aromatic rhizomes of the ginger plant, fresh or dried</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -1285,136 +1290,136 @@
           <t>ginger; zanjabil; jiang</t>
         </is>
       </c>
-      <c r="AO2" t="inlineStr">
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr">
         <is>
           <t>Plantae</t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>rhizome</t>
         </is>
       </c>
-      <c r="AQ2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>Southeast Asia; India (secondary)</t>
         </is>
       </c>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="n">
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2" t="n">
         <v>26</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AU2" t="n">
         <v>93</v>
       </c>
-      <c r="AU2" t="inlineStr">
+      <c r="AV2" t="inlineStr">
         <is>
           <t>Assam</t>
         </is>
       </c>
-      <c r="AV2" t="inlineStr">
+      <c r="AW2" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
       </c>
-      <c r="AW2" t="inlineStr">
+      <c r="AX2" t="inlineStr">
         <is>
           <t>India; Jamaica; Nigeria; Sierra Leone</t>
         </is>
       </c>
-      <c r="AX2" t="inlineStr">
+      <c r="AY2" t="inlineStr">
         <is>
           <t>light yellow when fresh, beige when powdered</t>
         </is>
       </c>
-      <c r="AY2" t="inlineStr">
+      <c r="AZ2" t="inlineStr">
         <is>
           <t>fiery, pungent</t>
         </is>
       </c>
-      <c r="AZ2" t="inlineStr">
+      <c r="BA2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="BA2" t="inlineStr">
+      <c r="BB2" t="inlineStr">
         <is>
           <t>Asian cooking; anti-emetic</t>
         </is>
       </c>
-      <c r="BB2" t="inlineStr">
+      <c r="BC2" t="inlineStr">
         <is>
           <t>Köhler's Medizinal-Pflanzen</t>
         </is>
       </c>
-      <c r="BC2" t="inlineStr">
+      <c r="BD2" t="inlineStr">
         <is>
           <t>II 172</t>
         </is>
       </c>
-      <c r="BD2" t="inlineStr">
+      <c r="BE2" t="inlineStr">
         <is>
           <t>koehler_1887_koehler</t>
         </is>
       </c>
-      <c r="BE2" t="inlineStr">
+      <c r="BF2" t="inlineStr">
         <is>
           <t>https://www.biodiversitylibrary.org/item/10837#page/693/mode/1up</t>
         </is>
       </c>
-      <c r="BF2" t="inlineStr"/>
-      <c r="BG2" t="inlineStr">
+      <c r="BG2" t="inlineStr"/>
+      <c r="BH2" t="inlineStr">
         <is>
           <t>ginger.n.01</t>
         </is>
       </c>
-      <c r="BH2" t="inlineStr">
+      <c r="BI2" t="inlineStr">
         <is>
           <t>ginger.n.02</t>
         </is>
       </c>
-      <c r="BI2" t="inlineStr">
+      <c r="BJ2" t="inlineStr">
         <is>
           <t>ginger.n.03</t>
         </is>
       </c>
-      <c r="BJ2" t="inlineStr">
+      <c r="BK2" t="inlineStr">
         <is>
           <t>ginger</t>
         </is>
       </c>
-      <c r="BK2" t="inlineStr"/>
-      <c r="BL2" t="inlineStr">
+      <c r="BL2" t="inlineStr"/>
+      <c r="BM2" t="inlineStr">
         <is>
           <t>زنجبيل</t>
         </is>
       </c>
-      <c r="BM2" t="inlineStr">
+      <c r="BN2" t="inlineStr">
         <is>
           <t>zanjabīl</t>
         </is>
       </c>
-      <c r="BN2" t="inlineStr"/>
       <c r="BO2" t="inlineStr"/>
-      <c r="BP2" t="inlineStr">
+      <c r="BP2" t="inlineStr"/>
+      <c r="BQ2" t="inlineStr">
         <is>
           <t>薑</t>
         </is>
       </c>
-      <c r="BQ2" t="inlineStr">
+      <c r="BR2" t="inlineStr">
         <is>
           <t>jiāng</t>
         </is>
       </c>
-      <c r="BR2" t="inlineStr"/>
       <c r="BS2" t="inlineStr"/>
       <c r="BT2" t="inlineStr"/>
-      <c r="BU2" t="inlineStr">
+      <c r="BU2" t="inlineStr"/>
+      <c r="BV2" t="inlineStr">
         <is>
           <t>gyömbér</t>
         </is>
       </c>
-      <c r="BV2" t="inlineStr"/>
       <c r="BW2" t="inlineStr"/>
       <c r="BX2" t="inlineStr"/>
       <c r="BY2" t="inlineStr"/>
@@ -1422,256 +1427,257 @@
       <c r="CA2" t="inlineStr"/>
       <c r="CB2" t="inlineStr"/>
       <c r="CC2" t="inlineStr"/>
-      <c r="CD2" t="inlineStr">
+      <c r="CD2" t="inlineStr"/>
+      <c r="CE2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhizoma Zingiberis </t>
         </is>
       </c>
-      <c r="CE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF2" t="inlineStr">
+      <c r="CF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG2" t="inlineStr">
         <is>
           <t>polyu-tcm</t>
         </is>
       </c>
-      <c r="CG2" t="inlineStr">
+      <c r="CH2" t="inlineStr">
         <is>
           <t>https://herbaltcm.sn.polyu.edu.hk/herbal/zingiber-dried-ginger; https://herbaltcm.sn.polyu.edu.hk/herbal/fresh-ginger</t>
         </is>
       </c>
-      <c r="CH2" t="inlineStr">
+      <c r="CI2" t="inlineStr">
         <is>
           <t>乾薑</t>
         </is>
       </c>
-      <c r="CI2" t="inlineStr">
+      <c r="CJ2" t="inlineStr">
         <is>
           <t>gānjiāng</t>
         </is>
       </c>
-      <c r="CJ2" t="inlineStr">
+      <c r="CK2" t="inlineStr">
         <is>
           <t>Zingiber (Dried Ginger)</t>
         </is>
       </c>
-      <c r="CK2" t="inlineStr">
+      <c r="CL2" t="inlineStr">
         <is>
           <t>Dried rhizome of Zingiber officinale (Willd.) Rosc. (Fam. Zingiberaceae)</t>
         </is>
       </c>
-      <c r="CL2" t="inlineStr">
+      <c r="CM2" t="inlineStr">
         <is>
           <t>Interior-warming medicinal</t>
         </is>
       </c>
-      <c r="CM2" t="inlineStr">
+      <c r="CN2" t="inlineStr">
         <is>
           <t>pungent; hot</t>
         </is>
       </c>
-      <c r="CN2" t="inlineStr">
+      <c r="CO2" t="inlineStr">
         <is>
           <t>Heart, Lung, Kidney, Stomach</t>
         </is>
       </c>
-      <c r="CO2" t="inlineStr">
+      <c r="CP2" t="inlineStr">
         <is>
           <t>To warm the middle and dissipate cold, promote recovery from collapse, and eliminate damp and resolve phlegm</t>
         </is>
       </c>
-      <c r="CP2" t="inlineStr"/>
       <c r="CQ2" t="inlineStr"/>
-      <c r="CR2" t="inlineStr">
+      <c r="CR2" t="inlineStr"/>
+      <c r="CS2" t="inlineStr">
         <is>
           <t>?</t>
         </is>
       </c>
-      <c r="CS2" t="inlineStr">
+      <c r="CT2" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="CT2" t="inlineStr">
+      <c r="CU2" t="inlineStr">
         <is>
           <t>https://www.gbif.org/species/2757280</t>
         </is>
       </c>
-      <c r="CU2" t="inlineStr">
+      <c r="CV2" t="inlineStr">
         <is>
           <t>https://tropicos.org/name/34500018</t>
         </is>
       </c>
-      <c r="CV2" t="inlineStr">
+      <c r="CW2" t="inlineStr">
         <is>
           <t>https://eol.org/pages/987032</t>
         </is>
       </c>
-      <c r="CW2" t="n">
+      <c r="CX2" t="n">
         <v>94328</v>
       </c>
-      <c r="CX2" t="inlineStr">
+      <c r="CY2" t="inlineStr">
         <is>
           <t xml:space="preserve">अदरक </t>
         </is>
       </c>
-      <c r="CY2" t="inlineStr">
+      <c r="CZ2" t="inlineStr">
         <is>
           <t>adrak</t>
         </is>
       </c>
-      <c r="CZ2" t="inlineStr"/>
       <c r="DA2" t="inlineStr"/>
-      <c r="DB2" t="inlineStr">
+      <c r="DB2" t="inlineStr"/>
+      <c r="DC2" t="inlineStr">
         <is>
           <t>jahe</t>
         </is>
       </c>
-      <c r="DC2" t="inlineStr">
+      <c r="DD2" t="inlineStr">
         <is>
           <t xml:space="preserve">زنجبیل </t>
         </is>
       </c>
-      <c r="DD2" t="inlineStr">
+      <c r="DE2" t="inlineStr">
         <is>
           <t>ginger</t>
         </is>
       </c>
-      <c r="DE2" t="inlineStr">
+      <c r="DF2" t="inlineStr">
         <is>
           <t>https://partigabor.github.io/aromatica/items/ginger</t>
         </is>
       </c>
-      <c r="DF2" t="inlineStr">
+      <c r="DG2" t="inlineStr">
         <is>
           <t>273361</t>
         </is>
       </c>
-      <c r="DG2" t="inlineStr">
+      <c r="DH2" t="inlineStr">
         <is>
           <t>798372-1</t>
         </is>
       </c>
-      <c r="DH2" t="inlineStr">
+      <c r="DI2" t="inlineStr">
         <is>
           <t>Species</t>
         </is>
       </c>
-      <c r="DI2" t="inlineStr">
+      <c r="DJ2" t="inlineStr">
         <is>
           <t>Accepted</t>
         </is>
       </c>
-      <c r="DJ2" t="inlineStr">
+      <c r="DK2" t="inlineStr">
         <is>
           <t>Zingiberaceae</t>
         </is>
       </c>
-      <c r="DK2" t="inlineStr"/>
-      <c r="DL2" t="inlineStr">
+      <c r="DL2" t="inlineStr"/>
+      <c r="DM2" t="inlineStr">
         <is>
           <t>Zingiber</t>
         </is>
       </c>
-      <c r="DM2" t="inlineStr"/>
-      <c r="DN2" t="inlineStr">
+      <c r="DN2" t="inlineStr"/>
+      <c r="DO2" t="inlineStr">
         <is>
           <t>officinale</t>
         </is>
       </c>
-      <c r="DO2" t="inlineStr"/>
       <c r="DP2" t="inlineStr"/>
       <c r="DQ2" t="inlineStr"/>
-      <c r="DR2" t="inlineStr">
+      <c r="DR2" t="inlineStr"/>
+      <c r="DS2" t="inlineStr">
         <is>
           <t>Roscoe</t>
         </is>
       </c>
-      <c r="DS2" t="inlineStr"/>
-      <c r="DT2" t="inlineStr">
+      <c r="DT2" t="inlineStr"/>
+      <c r="DU2" t="inlineStr">
         <is>
           <t>Trans. Linn. Soc. London</t>
         </is>
       </c>
-      <c r="DU2" t="inlineStr">
+      <c r="DV2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 8: 348</t>
         </is>
       </c>
-      <c r="DV2" t="inlineStr">
+      <c r="DW2" t="inlineStr">
         <is>
           <t>(1807)</t>
         </is>
       </c>
-      <c r="DW2" t="inlineStr"/>
-      <c r="DX2" t="inlineStr">
+      <c r="DX2" t="inlineStr"/>
+      <c r="DY2" t="inlineStr">
         <is>
           <t>India to SC. China</t>
         </is>
       </c>
-      <c r="DY2" t="inlineStr">
+      <c r="DZ2" t="inlineStr">
         <is>
           <t>perennial or rhizomatous geophyte</t>
         </is>
       </c>
-      <c r="DZ2" t="inlineStr">
+      <c r="EA2" t="inlineStr">
         <is>
           <t>seasonally dry tropical</t>
         </is>
       </c>
-      <c r="EA2" t="inlineStr">
+      <c r="EB2" t="inlineStr">
         <is>
           <t>273361</t>
         </is>
       </c>
-      <c r="EB2" t="inlineStr">
+      <c r="EC2" t="inlineStr">
         <is>
           <t>219561</t>
         </is>
       </c>
-      <c r="EC2" t="inlineStr">
+      <c r="ED2" t="inlineStr">
         <is>
           <t>L.</t>
         </is>
       </c>
-      <c r="ED2" t="inlineStr"/>
-      <c r="EE2" t="inlineStr">
+      <c r="EE2" t="inlineStr"/>
+      <c r="EF2" t="inlineStr">
         <is>
           <t>273208</t>
         </is>
       </c>
-      <c r="EF2" t="inlineStr">
+      <c r="EG2" t="inlineStr">
         <is>
           <t>798372-1</t>
         </is>
       </c>
-      <c r="EG2" t="inlineStr"/>
-      <c r="EH2" t="inlineStr">
+      <c r="EH2" t="inlineStr"/>
+      <c r="EI2" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="EI2" t="inlineStr">
+      <c r="EJ2" t="inlineStr">
         <is>
           <t>https://powo.science.kew.org/taxon/798372-1</t>
         </is>
       </c>
-      <c r="EJ2" t="inlineStr">
+      <c r="EK2" t="inlineStr">
         <is>
           <t>China South-Central, Assam, East Himalaya, India</t>
         </is>
       </c>
-      <c r="EK2" t="inlineStr">
+      <c r="EL2" t="inlineStr">
         <is>
           <t>Gulf of Guinea Is., Comoros, Mauritius, Madagascar, Réunion, Rodrigues, Hainan, China Southeast, Taiwan, Bangladesh, Sri Lanka, Andaman Is., Cambodia, Myanmar, Nicobar Is., Thailand, Vietnam, Borneo, Lesser Sunda Is., Malaya, Philippines, New Guinea, Solomon Is., Queensland, Vanuatu, Caroline Is., Mexico Southwest, Costa Rica, Honduras, Cuba, Dominican Republic, Haiti, Leeward Is., Puerto Rico, Trinidad-Tobago, Windward Is.</t>
         </is>
       </c>
-      <c r="EL2" t="inlineStr">
+      <c r="EM2" t="inlineStr">
         <is>
           <t>China, Indian Subcontinent</t>
         </is>
       </c>
-      <c r="EM2" t="inlineStr">
+      <c r="EN2" t="inlineStr">
         <is>
           <t>ASIA-TEMPERATE, ASIA-TROPICAL</t>
         </is>
@@ -1700,12 +1706,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>The dried fruits of an Indian vine</t>
+          <t>the dried fruits of an Indian vine</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>long pepper; cubeb pepper</t>
+          <t>long pepper; cubeb</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -1783,7 +1789,7 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>pepper; black pepper; peppercorns</t>
+          <t>black pepper; peppercorns</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
@@ -1808,421 +1814,422 @@
           <t>pepper; fulful; hujiao</t>
         </is>
       </c>
-      <c r="AO3" t="inlineStr">
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr">
         <is>
           <t>Plantae</t>
         </is>
       </c>
-      <c r="AP3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>fruit</t>
         </is>
       </c>
-      <c r="AQ3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>Malabar coast (South India)</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="n">
+      <c r="AS3" t="inlineStr"/>
+      <c r="AT3" t="n">
         <v>15</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AU3" t="n">
         <v>76</v>
       </c>
-      <c r="AU3" t="inlineStr">
+      <c r="AV3" t="inlineStr">
         <is>
           <t>Karnataka</t>
         </is>
       </c>
-      <c r="AV3" t="inlineStr">
+      <c r="AW3" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
       </c>
-      <c r="AW3" t="inlineStr">
+      <c r="AX3" t="inlineStr">
         <is>
           <t>Vietnam; Brazil; Indonesia; India; Sri Lanka; etc.</t>
         </is>
       </c>
-      <c r="AX3" t="inlineStr">
+      <c r="AY3" t="inlineStr">
         <is>
           <t>black; white; green</t>
         </is>
       </c>
-      <c r="AY3" t="inlineStr">
+      <c r="AZ3" t="inlineStr">
         <is>
           <t>pungent, hot</t>
         </is>
       </c>
-      <c r="AZ3" t="inlineStr">
+      <c r="BA3" t="inlineStr">
         <is>
           <t>3-8</t>
         </is>
       </c>
-      <c r="BA3" t="inlineStr">
+      <c r="BB3" t="inlineStr">
         <is>
           <t>flavors; colds; pepper steak; poivrade sauce; Pfefferkuchen</t>
         </is>
       </c>
-      <c r="BB3" t="inlineStr">
+      <c r="BC3" t="inlineStr">
         <is>
           <t>Köhler's Medizinal-Pflanzen</t>
         </is>
       </c>
-      <c r="BC3" t="inlineStr">
+      <c r="BD3" t="inlineStr">
         <is>
           <t>II 144</t>
         </is>
       </c>
-      <c r="BD3" t="inlineStr">
+      <c r="BE3" t="inlineStr">
         <is>
           <t>koehler_1887_koehler</t>
         </is>
       </c>
-      <c r="BE3" t="inlineStr">
+      <c r="BF3" t="inlineStr">
         <is>
           <t>https://www.biodiversitylibrary.org/item/10837#page/633/mode/1up</t>
         </is>
       </c>
-      <c r="BF3" t="inlineStr"/>
-      <c r="BG3" t="inlineStr">
+      <c r="BG3" t="inlineStr"/>
+      <c r="BH3" t="inlineStr">
         <is>
           <t>pepper.n.01</t>
         </is>
       </c>
-      <c r="BH3" t="inlineStr">
+      <c r="BI3" t="inlineStr">
         <is>
           <t>pepper.n.03</t>
         </is>
       </c>
-      <c r="BI3" t="inlineStr"/>
-      <c r="BJ3" t="inlineStr">
+      <c r="BJ3" t="inlineStr"/>
+      <c r="BK3" t="inlineStr">
         <is>
           <t>pepper</t>
         </is>
       </c>
-      <c r="BK3" t="inlineStr">
+      <c r="BL3" t="inlineStr">
         <is>
           <t>black pepper</t>
         </is>
       </c>
-      <c r="BL3" t="inlineStr">
+      <c r="BM3" t="inlineStr">
         <is>
           <t>فلفل</t>
         </is>
       </c>
-      <c r="BM3" t="inlineStr">
+      <c r="BN3" t="inlineStr">
         <is>
           <t>filfil, fulful</t>
         </is>
       </c>
-      <c r="BN3" t="inlineStr"/>
-      <c r="BO3" t="inlineStr">
+      <c r="BO3" t="inlineStr"/>
+      <c r="BP3" t="inlineStr">
         <is>
           <t>[black pepper] *fulful aswad* فلفل أسود</t>
         </is>
       </c>
-      <c r="BP3" t="inlineStr">
+      <c r="BQ3" t="inlineStr">
         <is>
           <t>胡椒</t>
         </is>
       </c>
-      <c r="BQ3" t="inlineStr">
+      <c r="BR3" t="inlineStr">
         <is>
           <t>hújiāo</t>
         </is>
       </c>
-      <c r="BR3" t="inlineStr">
+      <c r="BS3" t="inlineStr">
         <is>
           <t>barbarian-pepper</t>
         </is>
       </c>
-      <c r="BS3" t="inlineStr">
+      <c r="BT3" t="inlineStr">
         <is>
           <t>黑胡椒 *hēihújiāo* [black-barbarian-pepper]</t>
         </is>
       </c>
-      <c r="BT3" t="inlineStr"/>
-      <c r="BU3" t="inlineStr">
+      <c r="BU3" t="inlineStr"/>
+      <c r="BV3" t="inlineStr">
         <is>
           <t>bors</t>
         </is>
       </c>
-      <c r="BV3" t="inlineStr">
+      <c r="BW3" t="inlineStr">
         <is>
           <t>pepper</t>
         </is>
       </c>
-      <c r="BW3" t="inlineStr">
+      <c r="BX3" t="inlineStr">
         <is>
           <t>fekete bors [black pepper]</t>
         </is>
       </c>
-      <c r="BX3" t="inlineStr"/>
       <c r="BY3" t="inlineStr"/>
       <c r="BZ3" t="inlineStr"/>
       <c r="CA3" t="inlineStr"/>
-      <c r="CB3" t="inlineStr">
+      <c r="CB3" t="inlineStr"/>
+      <c r="CC3" t="inlineStr">
         <is>
           <t>pepper; peppercorn; biber; pepperwort; Malabar coast; Sri Lanka?; black gold</t>
         </is>
       </c>
-      <c r="CC3" t="inlineStr"/>
-      <c r="CD3" t="inlineStr">
+      <c r="CD3" t="inlineStr"/>
+      <c r="CE3" t="inlineStr">
         <is>
           <t>Fructus Piperis nigri/albi; Piperis Fructus</t>
         </is>
       </c>
-      <c r="CE3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF3" t="inlineStr">
+      <c r="CF3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG3" t="inlineStr">
         <is>
           <t>polyu-tcm</t>
         </is>
       </c>
-      <c r="CG3" t="inlineStr">
+      <c r="CH3" t="inlineStr">
         <is>
           <t>https://herbaltcm.sn.polyu.edu.hk/herbal/pepper-fruit</t>
         </is>
       </c>
-      <c r="CH3" t="inlineStr">
+      <c r="CI3" t="inlineStr">
         <is>
           <t>胡椒</t>
         </is>
       </c>
-      <c r="CI3" t="inlineStr">
+      <c r="CJ3" t="inlineStr">
         <is>
           <t>hújiāo</t>
         </is>
       </c>
-      <c r="CJ3" t="inlineStr">
+      <c r="CK3" t="inlineStr">
         <is>
           <t>Pepper Fruit</t>
         </is>
       </c>
-      <c r="CK3" t="inlineStr">
+      <c r="CL3" t="inlineStr">
         <is>
           <t>Dried ripe fruit-spike of Piper nigrum L. (Fam. Piperaceae)</t>
         </is>
       </c>
-      <c r="CL3" t="inlineStr">
+      <c r="CM3" t="inlineStr">
         <is>
           <t>Interior-warming medicinal</t>
         </is>
       </c>
-      <c r="CM3" t="inlineStr">
+      <c r="CN3" t="inlineStr">
         <is>
           <t>pungent; hot</t>
         </is>
       </c>
-      <c r="CN3" t="inlineStr">
+      <c r="CO3" t="inlineStr">
         <is>
           <t>Stomach, Large intestine</t>
         </is>
       </c>
-      <c r="CO3" t="inlineStr">
+      <c r="CP3" t="inlineStr">
         <is>
           <t>To warm the middle and dissipate cold, subdue upward qi flow and to eliminate phlegm</t>
         </is>
       </c>
-      <c r="CP3" t="inlineStr"/>
-      <c r="CQ3" t="inlineStr">
+      <c r="CQ3" t="inlineStr"/>
+      <c r="CR3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="CR3" t="inlineStr">
+      <c r="CS3" t="inlineStr">
         <is>
           <t>659</t>
         </is>
       </c>
-      <c r="CS3" t="inlineStr">
+      <c r="CT3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="CT3" t="inlineStr">
+      <c r="CU3" t="inlineStr">
         <is>
           <t>https://www.gbif.org/species/3086357</t>
         </is>
       </c>
-      <c r="CU3" t="inlineStr">
+      <c r="CV3" t="inlineStr">
         <is>
           <t>https://tropicos.org/name/25000013</t>
         </is>
       </c>
-      <c r="CV3" t="inlineStr">
+      <c r="CW3" t="inlineStr">
         <is>
           <t>https://eol.org/pages/596620</t>
         </is>
       </c>
-      <c r="CW3" t="n">
+      <c r="CX3" t="n">
         <v>13216</v>
       </c>
-      <c r="CX3" t="inlineStr">
+      <c r="CY3" t="inlineStr">
         <is>
           <t>काली मिर्च</t>
         </is>
       </c>
-      <c r="CY3" t="inlineStr">
+      <c r="CZ3" t="inlineStr">
         <is>
           <t>kālī mirch</t>
         </is>
       </c>
-      <c r="CZ3" t="inlineStr">
+      <c r="DA3" t="inlineStr">
         <is>
           <t>black pepper</t>
         </is>
       </c>
-      <c r="DA3" t="inlineStr">
+      <c r="DB3" t="inlineStr">
         <is>
           <t>सफेद काली मिर्च…</t>
         </is>
       </c>
-      <c r="DB3" t="inlineStr">
+      <c r="DC3" t="inlineStr">
         <is>
           <t>lada; lada hitam; lada putih; merica</t>
         </is>
       </c>
-      <c r="DC3" t="inlineStr">
+      <c r="DD3" t="inlineStr">
         <is>
           <t>فلفل سیاه</t>
         </is>
       </c>
-      <c r="DD3" t="inlineStr">
+      <c r="DE3" t="inlineStr">
         <is>
           <t>pepper</t>
         </is>
       </c>
-      <c r="DE3" t="inlineStr">
+      <c r="DF3" t="inlineStr">
         <is>
           <t>https://partigabor.github.io/aromatica/items/pepper</t>
         </is>
       </c>
-      <c r="DF3" t="inlineStr">
+      <c r="DG3" t="inlineStr">
         <is>
           <t>2569664</t>
         </is>
       </c>
-      <c r="DG3" t="inlineStr">
+      <c r="DH3" t="inlineStr">
         <is>
           <t>682369-1</t>
         </is>
       </c>
-      <c r="DH3" t="inlineStr">
+      <c r="DI3" t="inlineStr">
         <is>
           <t>Species</t>
         </is>
       </c>
-      <c r="DI3" t="inlineStr">
+      <c r="DJ3" t="inlineStr">
         <is>
           <t>Accepted</t>
         </is>
       </c>
-      <c r="DJ3" t="inlineStr">
+      <c r="DK3" t="inlineStr">
         <is>
           <t>Piperaceae</t>
         </is>
       </c>
-      <c r="DK3" t="inlineStr"/>
-      <c r="DL3" t="inlineStr">
+      <c r="DL3" t="inlineStr"/>
+      <c r="DM3" t="inlineStr">
         <is>
           <t>Piper</t>
         </is>
       </c>
-      <c r="DM3" t="inlineStr"/>
-      <c r="DN3" t="inlineStr">
+      <c r="DN3" t="inlineStr"/>
+      <c r="DO3" t="inlineStr">
         <is>
           <t>nigrum</t>
         </is>
       </c>
-      <c r="DO3" t="inlineStr"/>
       <c r="DP3" t="inlineStr"/>
       <c r="DQ3" t="inlineStr"/>
-      <c r="DR3" t="inlineStr">
+      <c r="DR3" t="inlineStr"/>
+      <c r="DS3" t="inlineStr">
         <is>
           <t>L.</t>
         </is>
       </c>
-      <c r="DS3" t="inlineStr"/>
-      <c r="DT3" t="inlineStr">
+      <c r="DT3" t="inlineStr"/>
+      <c r="DU3" t="inlineStr">
         <is>
           <t>Sp. Pl.</t>
         </is>
       </c>
-      <c r="DU3" t="inlineStr">
+      <c r="DV3" t="inlineStr">
         <is>
           <t>: 28</t>
         </is>
       </c>
-      <c r="DV3" t="inlineStr">
+      <c r="DW3" t="inlineStr">
         <is>
           <t>(1753)</t>
         </is>
       </c>
-      <c r="DW3" t="inlineStr"/>
-      <c r="DX3" t="inlineStr">
+      <c r="DX3" t="inlineStr"/>
+      <c r="DY3" t="inlineStr">
         <is>
           <t>SW. India</t>
         </is>
       </c>
-      <c r="DY3" t="inlineStr">
+      <c r="DZ3" t="inlineStr">
         <is>
           <t>climber</t>
         </is>
       </c>
-      <c r="DZ3" t="inlineStr">
+      <c r="EA3" t="inlineStr">
         <is>
           <t>wet tropical</t>
         </is>
       </c>
-      <c r="EA3" t="inlineStr">
+      <c r="EB3" t="inlineStr">
         <is>
           <t>2569664</t>
         </is>
       </c>
-      <c r="EB3" t="inlineStr"/>
       <c r="EC3" t="inlineStr"/>
       <c r="ED3" t="inlineStr"/>
-      <c r="EE3" t="inlineStr">
+      <c r="EE3" t="inlineStr"/>
+      <c r="EF3" t="inlineStr">
         <is>
           <t>2555110</t>
         </is>
       </c>
-      <c r="EF3" t="inlineStr">
+      <c r="EG3" t="inlineStr">
         <is>
           <t>682369-1</t>
         </is>
       </c>
-      <c r="EG3" t="inlineStr"/>
-      <c r="EH3" t="inlineStr">
+      <c r="EH3" t="inlineStr"/>
+      <c r="EI3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="EI3" t="inlineStr">
+      <c r="EJ3" t="inlineStr">
         <is>
           <t>https://powo.science.kew.org/taxon/682369-1</t>
         </is>
       </c>
-      <c r="EJ3" t="inlineStr">
+      <c r="EK3" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="EK3" t="inlineStr">
+      <c r="EL3" t="inlineStr">
         <is>
           <t>Benin, Guinea, Cameroon, Gulf of Guinea Is., Ethiopia, Comoros, Mauritius, Réunion, Seychelles, China South-Central, China Southeast, Assam, Bangladesh, East Himalaya, Sri Lanka, Andaman Is., Cambodia, Laos, Nicobar Is., Thailand, Vietnam, Philippines, Vanuatu, Cook Is., Caroline Is., Marianas, Mexico Gulf, Costa Rica, Honduras, Cuba, Dominican Republic, Haiti, Leeward Is., Puerto Rico, Trinidad-Tobago, Windward Is., French Guiana, Venezuela</t>
         </is>
       </c>
-      <c r="EL3" t="inlineStr">
+      <c r="EM3" t="inlineStr">
         <is>
           <t>Indian Subcontinent</t>
         </is>
       </c>
-      <c r="EM3" t="inlineStr">
+      <c r="EN3" t="inlineStr">
         <is>
           <t>ASIA-TROPICAL</t>
         </is>
@@ -2251,13 +2258,13 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>The bright yellow powder yielded from the rhizomes of Curcuma longa; root of Curcuma domestica</t>
+          <t>the bright yellow powder yielded from the rhizomes of Curcuma longa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Yellow zedoary</t>
+          <t>yellow zedoary</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -2363,144 +2370,144 @@
           <t>turmeric; kurkum</t>
         </is>
       </c>
-      <c r="AO4" t="inlineStr">
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr">
         <is>
           <t>Plantae</t>
         </is>
       </c>
-      <c r="AP4" t="inlineStr">
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>rhizome</t>
         </is>
       </c>
-      <c r="AQ4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr">
+      <c r="AS4" t="inlineStr">
         <is>
           <t>southern Asia</t>
         </is>
       </c>
-      <c r="AS4" t="n">
+      <c r="AT4" t="n">
         <v>11</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AU4" t="n">
         <v>79</v>
       </c>
-      <c r="AU4" t="inlineStr">
+      <c r="AV4" t="inlineStr">
         <is>
           <t>Tamil Nadu</t>
         </is>
       </c>
-      <c r="AV4" t="inlineStr">
+      <c r="AW4" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
       </c>
-      <c r="AW4" t="inlineStr">
+      <c r="AX4" t="inlineStr">
         <is>
           <t>China; Honduras; India; Indonesia; Jamaica</t>
         </is>
       </c>
-      <c r="AX4" t="inlineStr">
+      <c r="AY4" t="inlineStr">
         <is>
           <t>orange-yellow</t>
         </is>
       </c>
-      <c r="AY4" t="inlineStr">
+      <c r="AZ4" t="inlineStr">
         <is>
           <t>warm, acrid, bitter</t>
         </is>
       </c>
-      <c r="AZ4" t="inlineStr">
+      <c r="BA4" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="BA4" t="inlineStr">
+      <c r="BB4" t="inlineStr">
         <is>
           <t>curries, dye; antiseptic</t>
         </is>
       </c>
-      <c r="BB4" t="inlineStr">
+      <c r="BC4" t="inlineStr">
         <is>
           <t>Köhler's Medizinal-Pflanzen</t>
         </is>
       </c>
-      <c r="BC4" t="inlineStr">
+      <c r="BD4" t="inlineStr">
         <is>
           <t>II 178</t>
         </is>
       </c>
-      <c r="BD4" t="inlineStr">
+      <c r="BE4" t="inlineStr">
         <is>
           <t>koehler_1887_koehler</t>
         </is>
       </c>
-      <c r="BE4" t="inlineStr">
+      <c r="BF4" t="inlineStr">
         <is>
           <t>https://www.biodiversitylibrary.org/item/10837#page/705/mode/1up</t>
         </is>
       </c>
-      <c r="BF4" t="inlineStr"/>
-      <c r="BG4" t="inlineStr">
+      <c r="BG4" t="inlineStr"/>
+      <c r="BH4" t="inlineStr">
         <is>
           <t>turmeric.n.01</t>
         </is>
       </c>
-      <c r="BH4" t="inlineStr">
+      <c r="BI4" t="inlineStr">
         <is>
           <t>turmeric.n.02</t>
         </is>
       </c>
-      <c r="BI4" t="inlineStr"/>
-      <c r="BJ4" t="inlineStr">
+      <c r="BJ4" t="inlineStr"/>
+      <c r="BK4" t="inlineStr">
         <is>
           <t>turmeric</t>
         </is>
       </c>
-      <c r="BK4" t="inlineStr"/>
-      <c r="BL4" t="inlineStr">
+      <c r="BL4" t="inlineStr"/>
+      <c r="BM4" t="inlineStr">
         <is>
           <t>كركم</t>
         </is>
       </c>
-      <c r="BM4" t="inlineStr">
+      <c r="BN4" t="inlineStr">
         <is>
           <t>kurkum</t>
         </is>
       </c>
-      <c r="BN4" t="inlineStr"/>
       <c r="BO4" t="inlineStr"/>
-      <c r="BP4" t="inlineStr">
+      <c r="BP4" t="inlineStr"/>
+      <c r="BQ4" t="inlineStr">
         <is>
           <t>薑黃</t>
         </is>
       </c>
-      <c r="BQ4" t="inlineStr">
+      <c r="BR4" t="inlineStr">
         <is>
           <t>jiānghuáng</t>
         </is>
       </c>
-      <c r="BR4" t="inlineStr">
+      <c r="BS4" t="inlineStr">
         <is>
           <t>ginger-yellow</t>
         </is>
       </c>
-      <c r="BS4" t="inlineStr">
+      <c r="BT4" t="inlineStr">
         <is>
           <t>黃薑 *huángjiāng* [yellow-ginger]</t>
         </is>
       </c>
-      <c r="BT4" t="inlineStr"/>
-      <c r="BU4" t="inlineStr">
+      <c r="BU4" t="inlineStr"/>
+      <c r="BV4" t="inlineStr">
         <is>
           <t>kurkuma</t>
         </is>
       </c>
-      <c r="BV4" t="inlineStr"/>
       <c r="BW4" t="inlineStr"/>
       <c r="BX4" t="inlineStr"/>
       <c r="BY4" t="inlineStr"/>
@@ -2508,248 +2515,249 @@
       <c r="CA4" t="inlineStr"/>
       <c r="CB4" t="inlineStr"/>
       <c r="CC4" t="inlineStr"/>
-      <c r="CD4" t="inlineStr">
+      <c r="CD4" t="inlineStr"/>
+      <c r="CE4" t="inlineStr">
         <is>
           <t>Rhizoma Curcumae (Longae); Curcumae Longae Rhizoma</t>
         </is>
       </c>
-      <c r="CE4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF4" t="inlineStr">
+      <c r="CF4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG4" t="inlineStr">
         <is>
           <t>polyu-tcm</t>
         </is>
       </c>
-      <c r="CG4" t="inlineStr">
+      <c r="CH4" t="inlineStr">
         <is>
           <t>https://herbaltcm.sn.polyu.edu.hk/herbal/turmeric</t>
         </is>
       </c>
-      <c r="CH4" t="inlineStr">
+      <c r="CI4" t="inlineStr">
         <is>
           <t>薑黃</t>
         </is>
       </c>
-      <c r="CI4" t="inlineStr">
+      <c r="CJ4" t="inlineStr">
         <is>
           <t>jiānghuáng</t>
         </is>
       </c>
-      <c r="CJ4" t="inlineStr">
+      <c r="CK4" t="inlineStr">
         <is>
           <t>Turmeric</t>
         </is>
       </c>
-      <c r="CK4" t="inlineStr">
+      <c r="CL4" t="inlineStr">
         <is>
           <t>Dried rhizome of Curcuma longa L. (Fam. Zingiberaceae)</t>
         </is>
       </c>
-      <c r="CL4" t="inlineStr">
+      <c r="CM4" t="inlineStr">
         <is>
           <t>Blood-activating analgesic medicinal</t>
         </is>
       </c>
-      <c r="CM4" t="inlineStr">
+      <c r="CN4" t="inlineStr">
         <is>
           <t>pungent, bitter; warm</t>
         </is>
       </c>
-      <c r="CN4" t="inlineStr">
+      <c r="CO4" t="inlineStr">
         <is>
           <t>Liver, Spleen</t>
         </is>
       </c>
-      <c r="CO4" t="inlineStr">
+      <c r="CP4" t="inlineStr">
         <is>
           <t>To elimainate blood stasis, promote the flow of qi, stimulate mentrual discharge and relieve pain</t>
         </is>
       </c>
-      <c r="CP4" t="inlineStr"/>
       <c r="CQ4" t="inlineStr"/>
-      <c r="CR4" t="inlineStr">
+      <c r="CR4" t="inlineStr"/>
+      <c r="CS4" t="inlineStr">
         <is>
           <t>?</t>
         </is>
       </c>
-      <c r="CS4" t="inlineStr">
+      <c r="CT4" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="CT4" t="inlineStr">
+      <c r="CU4" t="inlineStr">
         <is>
           <t>https://www.gbif.org/species/2757624</t>
         </is>
       </c>
-      <c r="CU4" t="inlineStr">
+      <c r="CV4" t="inlineStr">
         <is>
           <t>https://tropicos.org/name/34500029</t>
         </is>
       </c>
-      <c r="CV4" t="inlineStr">
+      <c r="CW4" t="inlineStr">
         <is>
           <t>https://eol.org/pages/1122309</t>
         </is>
       </c>
-      <c r="CW4" t="n">
+      <c r="CX4" t="n">
         <v>136217</v>
       </c>
-      <c r="CX4" t="inlineStr">
+      <c r="CY4" t="inlineStr">
         <is>
           <t>हल्दी</t>
         </is>
       </c>
-      <c r="CY4" t="inlineStr">
+      <c r="CZ4" t="inlineStr">
         <is>
           <t>haldī</t>
         </is>
       </c>
-      <c r="CZ4" t="inlineStr"/>
       <c r="DA4" t="inlineStr"/>
-      <c r="DB4" t="inlineStr">
+      <c r="DB4" t="inlineStr"/>
+      <c r="DC4" t="inlineStr">
         <is>
           <t>kunyit</t>
         </is>
       </c>
-      <c r="DC4" t="inlineStr">
+      <c r="DD4" t="inlineStr">
         <is>
           <t>زردچوبه</t>
         </is>
       </c>
-      <c r="DD4" t="inlineStr">
+      <c r="DE4" t="inlineStr">
         <is>
           <t>turmeric</t>
         </is>
       </c>
-      <c r="DE4" t="inlineStr">
+      <c r="DF4" t="inlineStr">
         <is>
           <t>https://partigabor.github.io/aromatica/items/turmeric</t>
         </is>
       </c>
-      <c r="DF4" t="inlineStr">
+      <c r="DG4" t="inlineStr">
         <is>
           <t>235249</t>
         </is>
       </c>
-      <c r="DG4" t="inlineStr">
+      <c r="DH4" t="inlineStr">
         <is>
           <t>796451-1</t>
         </is>
       </c>
-      <c r="DH4" t="inlineStr">
+      <c r="DI4" t="inlineStr">
         <is>
           <t>Species</t>
         </is>
       </c>
-      <c r="DI4" t="inlineStr">
+      <c r="DJ4" t="inlineStr">
         <is>
           <t>Accepted</t>
         </is>
       </c>
-      <c r="DJ4" t="inlineStr">
+      <c r="DK4" t="inlineStr">
         <is>
           <t>Zingiberaceae</t>
         </is>
       </c>
-      <c r="DK4" t="inlineStr"/>
-      <c r="DL4" t="inlineStr">
+      <c r="DL4" t="inlineStr"/>
+      <c r="DM4" t="inlineStr">
         <is>
           <t>Curcuma</t>
         </is>
       </c>
-      <c r="DM4" t="inlineStr"/>
-      <c r="DN4" t="inlineStr">
+      <c r="DN4" t="inlineStr"/>
+      <c r="DO4" t="inlineStr">
         <is>
           <t>longa</t>
         </is>
       </c>
-      <c r="DO4" t="inlineStr"/>
       <c r="DP4" t="inlineStr"/>
       <c r="DQ4" t="inlineStr"/>
-      <c r="DR4" t="inlineStr">
+      <c r="DR4" t="inlineStr"/>
+      <c r="DS4" t="inlineStr">
         <is>
           <t>L.</t>
         </is>
       </c>
-      <c r="DS4" t="inlineStr"/>
-      <c r="DT4" t="inlineStr">
+      <c r="DT4" t="inlineStr"/>
+      <c r="DU4" t="inlineStr">
         <is>
           <t>Sp. Pl.</t>
         </is>
       </c>
-      <c r="DU4" t="inlineStr">
+      <c r="DV4" t="inlineStr">
         <is>
           <t>: 2</t>
         </is>
       </c>
-      <c r="DV4" t="inlineStr">
+      <c r="DW4" t="inlineStr">
         <is>
           <t>(1753)</t>
         </is>
       </c>
-      <c r="DW4" t="inlineStr"/>
-      <c r="DX4" t="inlineStr">
+      <c r="DX4" t="inlineStr"/>
+      <c r="DY4" t="inlineStr">
         <is>
           <t>a cultigen from SW. India</t>
         </is>
       </c>
-      <c r="DY4" t="inlineStr">
+      <c r="DZ4" t="inlineStr">
         <is>
           <t>rhizomatous geophyte</t>
         </is>
       </c>
-      <c r="DZ4" t="inlineStr">
+      <c r="EA4" t="inlineStr">
         <is>
           <t>seasonally dry tropical</t>
         </is>
       </c>
-      <c r="EA4" t="inlineStr">
+      <c r="EB4" t="inlineStr">
         <is>
           <t>235249</t>
         </is>
       </c>
-      <c r="EB4" t="inlineStr"/>
       <c r="EC4" t="inlineStr"/>
       <c r="ED4" t="inlineStr"/>
-      <c r="EE4" t="inlineStr">
+      <c r="EE4" t="inlineStr"/>
+      <c r="EF4" t="inlineStr">
         <is>
           <t>235183</t>
         </is>
       </c>
-      <c r="EF4" t="inlineStr">
+      <c r="EG4" t="inlineStr">
         <is>
           <t>796451-1</t>
         </is>
       </c>
-      <c r="EG4" t="inlineStr"/>
-      <c r="EH4" t="inlineStr">
+      <c r="EH4" t="inlineStr"/>
+      <c r="EI4" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="EI4" t="inlineStr">
+      <c r="EJ4" t="inlineStr">
         <is>
           <t>https://powo.science.kew.org/taxon/796451-1</t>
         </is>
       </c>
-      <c r="EJ4" t="inlineStr">
+      <c r="EK4" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="EK4" t="inlineStr">
+      <c r="EL4" t="inlineStr">
         <is>
           <t>Guinea-Bissau, Ivory Coast, Congo, Gulf of Guinea Is., Comoros, Mauritius, Réunion, China South-Central, China Southeast, Tibet, Taiwan, Assam, Bangladesh, East Himalaya, Sri Lanka, Andaman Is., Cambodia, Myanmar, Nicobar Is., Thailand, Vietnam, Borneo, Jawa, Lesser Sunda Is., Malaya, Philippines, Sumatera, New Guinea, Solomon Is., Queensland, Fiji, Gilbert Is., New Caledonia, Samoa, Tonga, Vanuatu, Cook Is., Easter Is., Marquesas, Pitcairn Is., Society Is., Tuamotu, Tubuai Is., Caroline Is., Hawaii, Belize, Costa Rica, Cuba, Dominican Republic, Haiti, Leeward Is., Puerto Rico, Trinidad-Tobago, Windward Is.</t>
         </is>
       </c>
-      <c r="EL4" t="inlineStr">
+      <c r="EM4" t="inlineStr">
         <is>
           <t>Indian Subcontinent</t>
         </is>
       </c>
-      <c r="EM4" t="inlineStr">
+      <c r="EN4" t="inlineStr">
         <is>
           <t>ASIA-TROPICAL</t>
         </is>
@@ -2778,7 +2786,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>The dried unripe berries of a small Caribbean tree</t>
+          <t>the dried unripe berries of a small Caribbean tree</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -2902,180 +2910,180 @@
           <t>allspice; pimento; fulful ifranji; duoxiangguo</t>
         </is>
       </c>
-      <c r="AO5" t="inlineStr">
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr">
         <is>
           <t>Plantae</t>
         </is>
       </c>
-      <c r="AP5" t="inlineStr">
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>unripe fruit; leaf; wood</t>
         </is>
       </c>
-      <c r="AQ5" t="inlineStr">
+      <c r="AR5" t="inlineStr">
         <is>
           <t>S. Mexico to C. America; Caribbean</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr"/>
-      <c r="AS5" t="n">
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="n">
         <v>18</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AU5" t="n">
         <v>-77</v>
       </c>
-      <c r="AU5" t="inlineStr">
+      <c r="AV5" t="inlineStr">
         <is>
           <t>Jamaica</t>
         </is>
       </c>
-      <c r="AV5" t="inlineStr">
+      <c r="AW5" t="inlineStr">
         <is>
           <t>Americas</t>
         </is>
       </c>
-      <c r="AW5" t="inlineStr">
+      <c r="AX5" t="inlineStr">
         <is>
           <t>Jamaica; Mexico; Honduras</t>
         </is>
       </c>
-      <c r="AX5" t="inlineStr">
+      <c r="AY5" t="inlineStr">
         <is>
           <t>dark brown</t>
         </is>
       </c>
-      <c r="AY5" t="inlineStr">
+      <c r="AZ5" t="inlineStr">
         <is>
           <t>pungent, mixed, spicy</t>
         </is>
       </c>
-      <c r="AZ5" t="inlineStr">
+      <c r="BA5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="BA5" t="inlineStr">
+      <c r="BB5" t="inlineStr">
         <is>
           <t>pickles, wines, desserts, liquors; spice for jerking meat; leaf oil for flavouring rum; wood to smoke and grill meat</t>
         </is>
       </c>
-      <c r="BB5" t="inlineStr">
+      <c r="BC5" t="inlineStr">
         <is>
           <t>Köhler's Medizinal-Pflanzen</t>
         </is>
       </c>
-      <c r="BC5" t="inlineStr">
+      <c r="BD5" t="inlineStr">
         <is>
           <t>II 174</t>
         </is>
       </c>
-      <c r="BD5" t="inlineStr">
+      <c r="BE5" t="inlineStr">
         <is>
           <t>koehler_1887_koehler</t>
         </is>
       </c>
-      <c r="BE5" t="inlineStr">
+      <c r="BF5" t="inlineStr">
         <is>
           <t>https://www.biodiversitylibrary.org/item/10837#page/697/mode/1up</t>
         </is>
       </c>
-      <c r="BF5" t="inlineStr"/>
-      <c r="BG5" t="inlineStr">
+      <c r="BG5" t="inlineStr"/>
+      <c r="BH5" t="inlineStr">
         <is>
           <t>allspice.n.01</t>
         </is>
       </c>
-      <c r="BH5" t="inlineStr">
+      <c r="BI5" t="inlineStr">
         <is>
           <t>allspice.n.03</t>
         </is>
       </c>
-      <c r="BI5" t="inlineStr"/>
-      <c r="BJ5" t="inlineStr">
+      <c r="BJ5" t="inlineStr"/>
+      <c r="BK5" t="inlineStr">
         <is>
           <t>allspice</t>
         </is>
       </c>
-      <c r="BK5" t="inlineStr">
+      <c r="BL5" t="inlineStr">
         <is>
           <t>pimento; Jamaica pepper</t>
         </is>
       </c>
-      <c r="BL5" t="inlineStr">
+      <c r="BM5" t="inlineStr">
         <is>
           <t>فلفل إفرنجي</t>
         </is>
       </c>
-      <c r="BM5" t="inlineStr">
+      <c r="BN5" t="inlineStr">
         <is>
           <t>fulful ifranjī</t>
         </is>
       </c>
-      <c r="BN5" t="inlineStr">
+      <c r="BO5" t="inlineStr">
         <is>
           <t>Frankish pepper</t>
         </is>
       </c>
-      <c r="BO5" t="inlineStr"/>
-      <c r="BP5" t="inlineStr">
+      <c r="BP5" t="inlineStr"/>
+      <c r="BQ5" t="inlineStr">
         <is>
           <t>多香果</t>
         </is>
       </c>
-      <c r="BQ5" t="inlineStr">
+      <c r="BR5" t="inlineStr">
         <is>
           <t>duōxiāngguǒ</t>
         </is>
       </c>
-      <c r="BR5" t="inlineStr">
+      <c r="BS5" t="inlineStr">
         <is>
           <t>many-spice-fruit</t>
         </is>
       </c>
-      <c r="BS5" t="inlineStr"/>
       <c r="BT5" t="inlineStr"/>
-      <c r="BU5" t="inlineStr">
+      <c r="BU5" t="inlineStr"/>
+      <c r="BV5" t="inlineStr">
         <is>
           <t>szegfűbors</t>
         </is>
       </c>
-      <c r="BV5" t="inlineStr">
+      <c r="BW5" t="inlineStr">
         <is>
           <t>clove-pepper</t>
         </is>
       </c>
-      <c r="BW5" t="inlineStr">
+      <c r="BX5" t="inlineStr">
         <is>
           <t>jamaicaibors [Jamaican-pepper]; amomummag [amomum-seed]</t>
         </is>
       </c>
-      <c r="BX5" t="inlineStr">
+      <c r="BY5" t="inlineStr">
         <is>
           <t>vegyesfűszer</t>
         </is>
       </c>
-      <c r="BY5" t="inlineStr"/>
       <c r="BZ5" t="inlineStr"/>
       <c r="CA5" t="inlineStr"/>
-      <c r="CB5" t="inlineStr">
+      <c r="CB5" t="inlineStr"/>
+      <c r="CC5" t="inlineStr">
         <is>
           <t>West Indies; Greater Antilles;  fruit of Pimenta dioica</t>
         </is>
       </c>
-      <c r="CC5" t="inlineStr">
+      <c r="CD5" t="inlineStr">
         <is>
           <t>look for similar spices on wikipedia article</t>
         </is>
       </c>
-      <c r="CD5" t="inlineStr">
+      <c r="CE5" t="inlineStr">
         <is>
           <t>Fructus Amomi; Fructus Pimentae</t>
         </is>
       </c>
-      <c r="CE5" t="n">
+      <c r="CF5" t="n">
         <v>0</v>
       </c>
-      <c r="CF5" t="inlineStr"/>
       <c r="CG5" t="inlineStr"/>
       <c r="CH5" t="inlineStr"/>
       <c r="CI5" t="inlineStr"/>
@@ -3089,186 +3097,187 @@
       <c r="CQ5" t="inlineStr"/>
       <c r="CR5" t="inlineStr"/>
       <c r="CS5" t="inlineStr"/>
-      <c r="CT5" t="inlineStr">
+      <c r="CT5" t="inlineStr"/>
+      <c r="CU5" t="inlineStr">
         <is>
           <t>https://www.gbif.org/species/3186061</t>
         </is>
       </c>
-      <c r="CU5" t="inlineStr">
+      <c r="CV5" t="inlineStr">
         <is>
           <t>https://tropicos.org/name/22101787</t>
         </is>
       </c>
-      <c r="CV5" t="inlineStr">
+      <c r="CW5" t="inlineStr">
         <is>
           <t>https://eol.org/pages/2508608</t>
         </is>
       </c>
-      <c r="CW5" t="n">
+      <c r="CX5" t="n">
         <v>375272</v>
       </c>
-      <c r="CX5" t="inlineStr">
+      <c r="CY5" t="inlineStr">
         <is>
           <t>गंधद्रव्य?</t>
         </is>
       </c>
-      <c r="CY5" t="inlineStr">
+      <c r="CZ5" t="inlineStr">
         <is>
           <t>gandhadravya?</t>
         </is>
       </c>
-      <c r="CZ5" t="inlineStr"/>
       <c r="DA5" t="inlineStr"/>
-      <c r="DB5" t="inlineStr">
+      <c r="DB5" t="inlineStr"/>
+      <c r="DC5" t="inlineStr">
         <is>
           <t>Merica Jamaika</t>
         </is>
       </c>
-      <c r="DC5" t="inlineStr">
+      <c r="DD5" t="inlineStr">
         <is>
           <t>فلفل فرنگی</t>
         </is>
       </c>
-      <c r="DD5" t="inlineStr">
+      <c r="DE5" t="inlineStr">
         <is>
           <t>allspice</t>
         </is>
       </c>
-      <c r="DE5" t="inlineStr">
+      <c r="DF5" t="inlineStr">
         <is>
           <t>https://partigabor.github.io/aromatica/items/allspice</t>
         </is>
       </c>
-      <c r="DF5" t="inlineStr">
+      <c r="DG5" t="inlineStr">
         <is>
           <t>156136</t>
         </is>
       </c>
-      <c r="DG5" t="inlineStr">
+      <c r="DH5" t="inlineStr">
         <is>
           <t>196799-2</t>
         </is>
       </c>
-      <c r="DH5" t="inlineStr">
+      <c r="DI5" t="inlineStr">
         <is>
           <t>Species</t>
         </is>
       </c>
-      <c r="DI5" t="inlineStr">
+      <c r="DJ5" t="inlineStr">
         <is>
           <t>Accepted</t>
         </is>
       </c>
-      <c r="DJ5" t="inlineStr">
+      <c r="DK5" t="inlineStr">
         <is>
           <t>Myrtaceae</t>
         </is>
       </c>
-      <c r="DK5" t="inlineStr"/>
-      <c r="DL5" t="inlineStr">
+      <c r="DL5" t="inlineStr"/>
+      <c r="DM5" t="inlineStr">
         <is>
           <t>Pimenta</t>
         </is>
       </c>
-      <c r="DM5" t="inlineStr"/>
-      <c r="DN5" t="inlineStr">
+      <c r="DN5" t="inlineStr"/>
+      <c r="DO5" t="inlineStr">
         <is>
           <t>dioica</t>
         </is>
       </c>
-      <c r="DO5" t="inlineStr"/>
       <c r="DP5" t="inlineStr"/>
-      <c r="DQ5" t="inlineStr">
+      <c r="DQ5" t="inlineStr"/>
+      <c r="DR5" t="inlineStr">
         <is>
           <t>L.</t>
         </is>
       </c>
-      <c r="DR5" t="inlineStr">
+      <c r="DS5" t="inlineStr">
         <is>
           <t>Merr.</t>
         </is>
       </c>
-      <c r="DS5" t="inlineStr"/>
-      <c r="DT5" t="inlineStr">
+      <c r="DT5" t="inlineStr"/>
+      <c r="DU5" t="inlineStr">
         <is>
           <t>Contr. Gray Herb.</t>
         </is>
       </c>
-      <c r="DU5" t="inlineStr">
+      <c r="DV5" t="inlineStr">
         <is>
           <t>, n.s., 165: 337</t>
         </is>
       </c>
-      <c r="DV5" t="inlineStr">
+      <c r="DW5" t="inlineStr">
         <is>
           <t>(1947)</t>
         </is>
       </c>
-      <c r="DW5" t="inlineStr"/>
-      <c r="DX5" t="inlineStr">
+      <c r="DX5" t="inlineStr"/>
+      <c r="DY5" t="inlineStr">
         <is>
           <t>S. Mexico to C. America, Caribbean</t>
         </is>
       </c>
-      <c r="DY5" t="inlineStr">
+      <c r="DZ5" t="inlineStr">
         <is>
           <t>tree</t>
         </is>
       </c>
-      <c r="DZ5" t="inlineStr">
+      <c r="EA5" t="inlineStr">
         <is>
           <t>seasonally dry tropical</t>
         </is>
       </c>
-      <c r="EA5" t="inlineStr">
+      <c r="EB5" t="inlineStr">
         <is>
           <t>156136</t>
         </is>
       </c>
-      <c r="EB5" t="inlineStr">
+      <c r="EC5" t="inlineStr">
         <is>
           <t>132459</t>
         </is>
       </c>
-      <c r="EC5" t="inlineStr"/>
       <c r="ED5" t="inlineStr"/>
-      <c r="EE5" t="inlineStr">
+      <c r="EE5" t="inlineStr"/>
+      <c r="EF5" t="inlineStr">
         <is>
           <t>156124</t>
         </is>
       </c>
-      <c r="EF5" t="inlineStr">
+      <c r="EG5" t="inlineStr">
         <is>
           <t>196799-2</t>
         </is>
       </c>
-      <c r="EG5" t="inlineStr"/>
-      <c r="EH5" t="inlineStr">
+      <c r="EH5" t="inlineStr"/>
+      <c r="EI5" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="EI5" t="inlineStr">
+      <c r="EJ5" t="inlineStr">
         <is>
           <t>https://powo.science.kew.org/taxon/196799-2</t>
         </is>
       </c>
-      <c r="EJ5" t="inlineStr">
+      <c r="EK5" t="inlineStr">
         <is>
           <t>Mexico Gulf, Mexico Southwest, Mexico Southeast, Belize, Costa Rica, Guatemala, Honduras, Nicaragua, Bahamas, Cayman Is., Cuba, Dominican Republic, Jamaica</t>
         </is>
       </c>
-      <c r="EK5" t="inlineStr">
+      <c r="EL5" t="inlineStr">
         <is>
           <t>Society Is., Caroline Is., Hawaii, Florida, El Salvador, Bermuda, Puerto Rico, Southwest Caribbean, Trinidad-Tobago, Venezuela, Colombia</t>
         </is>
       </c>
-      <c r="EL5" t="inlineStr">
+      <c r="EM5" t="inlineStr">
         <is>
           <t>Mexico, Central America, Caribbean</t>
         </is>
       </c>
-      <c r="EM5" t="inlineStr">
+      <c r="EN5" t="inlineStr">
         <is>
           <t>NORTHERN AMERICA, SOUTHERN AMERICA</t>
         </is>
@@ -3297,7 +3306,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>The seed-like fruits of a Mediterranean herb</t>
+          <t>the seed-like fruits of a Mediterranean herb</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -3413,176 +3422,176 @@
           <t>anise; anisun; huiqin</t>
         </is>
       </c>
-      <c r="AO6" t="inlineStr">
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr">
         <is>
           <t>Plantae</t>
         </is>
       </c>
-      <c r="AP6" t="inlineStr">
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>fruit; oil; leaf</t>
         </is>
       </c>
-      <c r="AQ6" t="inlineStr">
+      <c r="AR6" t="inlineStr">
         <is>
           <t>E. Mediterranean; W. Asia; Asia Minor</t>
         </is>
       </c>
-      <c r="AR6" t="inlineStr"/>
-      <c r="AS6" t="n">
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="n">
         <v>35</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AU6" t="n">
         <v>33</v>
       </c>
-      <c r="AU6" t="inlineStr">
+      <c r="AV6" t="inlineStr">
         <is>
           <t>Cyprus</t>
         </is>
       </c>
-      <c r="AV6" t="inlineStr">
+      <c r="AW6" t="inlineStr">
         <is>
           <t>Mediterranean</t>
         </is>
       </c>
-      <c r="AW6" t="inlineStr">
+      <c r="AX6" t="inlineStr">
         <is>
           <t>Turkey; Egypt; Spain; Russia; Italy; etc.</t>
         </is>
       </c>
-      <c r="AX6" t="inlineStr">
+      <c r="AY6" t="inlineStr">
         <is>
           <t>light brown</t>
         </is>
       </c>
-      <c r="AY6" t="inlineStr">
+      <c r="AZ6" t="inlineStr">
         <is>
           <t>licorice-like, sweet</t>
         </is>
       </c>
-      <c r="AZ6" t="inlineStr">
+      <c r="BA6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="BA6" t="inlineStr">
+      <c r="BB6" t="inlineStr">
         <is>
           <t>pastries, candies, liquors</t>
         </is>
       </c>
-      <c r="BB6" t="inlineStr">
+      <c r="BC6" t="inlineStr">
         <is>
           <t>Köhler's Medizinal-Pflanzen</t>
         </is>
       </c>
-      <c r="BC6" t="inlineStr">
+      <c r="BD6" t="inlineStr">
         <is>
           <t>II 93</t>
         </is>
       </c>
-      <c r="BD6" t="inlineStr">
+      <c r="BE6" t="inlineStr">
         <is>
           <t>koehler_1887_koehler</t>
         </is>
       </c>
-      <c r="BE6" t="inlineStr">
+      <c r="BF6" t="inlineStr">
         <is>
           <t>https://www.biodiversitylibrary.org/item/10837#page/529/mode/1up</t>
         </is>
       </c>
-      <c r="BF6" t="inlineStr">
+      <c r="BG6" t="inlineStr">
         <is>
           <t>https://www.calabrianfood.com/black-anise-seed</t>
         </is>
       </c>
-      <c r="BG6" t="inlineStr">
+      <c r="BH6" t="inlineStr">
         <is>
           <t>anise.n.01</t>
         </is>
       </c>
-      <c r="BH6" t="inlineStr">
+      <c r="BI6" t="inlineStr">
         <is>
           <t>anise.n.02</t>
         </is>
       </c>
-      <c r="BI6" t="inlineStr"/>
-      <c r="BJ6" t="inlineStr">
+      <c r="BJ6" t="inlineStr"/>
+      <c r="BK6" t="inlineStr">
         <is>
           <t>anise</t>
         </is>
       </c>
-      <c r="BK6" t="inlineStr">
+      <c r="BL6" t="inlineStr">
         <is>
           <t>aniseed</t>
         </is>
       </c>
-      <c r="BL6" t="inlineStr">
+      <c r="BM6" t="inlineStr">
         <is>
           <t>أنيسون</t>
         </is>
       </c>
-      <c r="BM6" t="inlineStr">
+      <c r="BN6" t="inlineStr">
         <is>
           <t>anīsūn</t>
         </is>
       </c>
-      <c r="BN6" t="inlineStr"/>
-      <c r="BO6" t="inlineStr">
+      <c r="BO6" t="inlineStr"/>
+      <c r="BP6" t="inlineStr">
         <is>
           <t>يانسون *yānsūn*</t>
         </is>
       </c>
-      <c r="BP6" t="inlineStr">
+      <c r="BQ6" t="inlineStr">
         <is>
           <t>茴芹</t>
         </is>
       </c>
-      <c r="BQ6" t="inlineStr">
+      <c r="BR6" t="inlineStr">
         <is>
           <t>huíqín</t>
         </is>
       </c>
-      <c r="BR6" t="inlineStr">
+      <c r="BS6" t="inlineStr">
         <is>
           <t>anise-celery</t>
         </is>
       </c>
-      <c r="BS6" t="inlineStr">
+      <c r="BT6" t="inlineStr">
         <is>
           <t>西洋茴香 xīyáng huíxiāng [Western-ocean-hui-spice] 'western anise', 洋茴香, 大茴香 'big anise'*, 歐洲大茴香 'European anise'</t>
         </is>
       </c>
-      <c r="BT6" t="inlineStr"/>
-      <c r="BU6" t="inlineStr">
+      <c r="BU6" t="inlineStr"/>
+      <c r="BV6" t="inlineStr">
         <is>
           <t>ánizs</t>
         </is>
       </c>
-      <c r="BV6" t="inlineStr"/>
-      <c r="BW6" t="inlineStr">
+      <c r="BW6" t="inlineStr"/>
+      <c r="BX6" t="inlineStr">
         <is>
           <t>közönséges ánizs; illatos ánizs; fűszeránizs</t>
         </is>
       </c>
-      <c r="BX6" t="inlineStr"/>
       <c r="BY6" t="inlineStr"/>
       <c r="BZ6" t="inlineStr"/>
       <c r="CA6" t="inlineStr"/>
-      <c r="CB6" t="inlineStr">
+      <c r="CB6" t="inlineStr"/>
+      <c r="CC6" t="inlineStr">
         <is>
           <t>Cult: Turkey, Egypt, Spain, Russia, Italy, India, Greece, Northern Africa, Argentina, Malta, Romania, Syria</t>
         </is>
       </c>
-      <c r="CC6" t="inlineStr"/>
-      <c r="CD6" t="inlineStr">
+      <c r="CD6" t="inlineStr"/>
+      <c r="CE6" t="inlineStr">
         <is>
           <t>Fructus Anisi</t>
         </is>
       </c>
-      <c r="CE6" t="n">
+      <c r="CF6" t="n">
         <v>0</v>
       </c>
-      <c r="CF6" t="inlineStr"/>
       <c r="CG6" t="inlineStr"/>
       <c r="CH6" t="inlineStr"/>
       <c r="CI6" t="inlineStr"/>
@@ -3599,167 +3608,168 @@
       <c r="CT6" t="inlineStr"/>
       <c r="CU6" t="inlineStr"/>
       <c r="CV6" t="inlineStr"/>
-      <c r="CW6" t="n">
+      <c r="CW6" t="inlineStr"/>
+      <c r="CX6" t="n">
         <v>271192</v>
       </c>
-      <c r="CX6" t="inlineStr">
+      <c r="CY6" t="inlineStr">
         <is>
           <t>मोटी सौंफ़</t>
         </is>
       </c>
-      <c r="CY6" t="inlineStr">
+      <c r="CZ6" t="inlineStr">
         <is>
           <t>motī saunf</t>
         </is>
       </c>
-      <c r="CZ6" t="inlineStr">
+      <c r="DA6" t="inlineStr">
         <is>
           <t>fat fennel</t>
         </is>
       </c>
-      <c r="DA6" t="inlineStr"/>
-      <c r="DB6" t="inlineStr">
+      <c r="DB6" t="inlineStr"/>
+      <c r="DC6" t="inlineStr">
         <is>
           <t>adas manis</t>
         </is>
       </c>
-      <c r="DC6" t="inlineStr">
+      <c r="DD6" t="inlineStr">
         <is>
           <t>بادیان رومی، انیسون</t>
         </is>
       </c>
-      <c r="DD6" t="inlineStr">
+      <c r="DE6" t="inlineStr">
         <is>
           <t>anise</t>
         </is>
       </c>
-      <c r="DE6" t="inlineStr">
+      <c r="DF6" t="inlineStr">
         <is>
           <t>https://partigabor.github.io/aromatica/items/anise</t>
         </is>
       </c>
-      <c r="DF6" t="inlineStr">
+      <c r="DG6" t="inlineStr">
         <is>
           <t>2402426</t>
         </is>
       </c>
-      <c r="DG6" t="inlineStr">
+      <c r="DH6" t="inlineStr">
         <is>
           <t>846658-1</t>
         </is>
       </c>
-      <c r="DH6" t="inlineStr">
+      <c r="DI6" t="inlineStr">
         <is>
           <t>Species</t>
         </is>
       </c>
-      <c r="DI6" t="inlineStr">
+      <c r="DJ6" t="inlineStr">
         <is>
           <t>Accepted</t>
         </is>
       </c>
-      <c r="DJ6" t="inlineStr">
+      <c r="DK6" t="inlineStr">
         <is>
           <t>Apiaceae</t>
         </is>
       </c>
-      <c r="DK6" t="inlineStr"/>
-      <c r="DL6" t="inlineStr">
+      <c r="DL6" t="inlineStr"/>
+      <c r="DM6" t="inlineStr">
         <is>
           <t>Pimpinella</t>
         </is>
       </c>
-      <c r="DM6" t="inlineStr"/>
-      <c r="DN6" t="inlineStr">
+      <c r="DN6" t="inlineStr"/>
+      <c r="DO6" t="inlineStr">
         <is>
           <t>anisum</t>
         </is>
       </c>
-      <c r="DO6" t="inlineStr"/>
       <c r="DP6" t="inlineStr"/>
       <c r="DQ6" t="inlineStr"/>
-      <c r="DR6" t="inlineStr">
+      <c r="DR6" t="inlineStr"/>
+      <c r="DS6" t="inlineStr">
         <is>
           <t>L.</t>
         </is>
       </c>
-      <c r="DS6" t="inlineStr"/>
-      <c r="DT6" t="inlineStr">
+      <c r="DT6" t="inlineStr"/>
+      <c r="DU6" t="inlineStr">
         <is>
           <t>Sp. Pl.</t>
         </is>
       </c>
-      <c r="DU6" t="inlineStr">
+      <c r="DV6" t="inlineStr">
         <is>
           <t>: 264</t>
         </is>
       </c>
-      <c r="DV6" t="inlineStr">
+      <c r="DW6" t="inlineStr">
         <is>
           <t>(1753)</t>
         </is>
       </c>
-      <c r="DW6" t="inlineStr"/>
-      <c r="DX6" t="inlineStr">
+      <c r="DX6" t="inlineStr"/>
+      <c r="DY6" t="inlineStr">
         <is>
           <t>SE. Türkiye to C. Israel, Cyprus</t>
         </is>
       </c>
-      <c r="DY6" t="inlineStr">
+      <c r="DZ6" t="inlineStr">
         <is>
           <t>annual</t>
         </is>
       </c>
-      <c r="DZ6" t="inlineStr">
+      <c r="EA6" t="inlineStr">
         <is>
           <t>temperate</t>
         </is>
       </c>
-      <c r="EA6" t="inlineStr">
+      <c r="EB6" t="inlineStr">
         <is>
           <t>2402426</t>
         </is>
       </c>
-      <c r="EB6" t="inlineStr"/>
       <c r="EC6" t="inlineStr"/>
       <c r="ED6" t="inlineStr"/>
-      <c r="EE6" t="inlineStr">
+      <c r="EE6" t="inlineStr"/>
+      <c r="EF6" t="inlineStr">
         <is>
           <t>2402470</t>
         </is>
       </c>
-      <c r="EF6" t="inlineStr">
+      <c r="EG6" t="inlineStr">
         <is>
           <t>846658-1</t>
         </is>
       </c>
-      <c r="EG6" t="inlineStr"/>
-      <c r="EH6" t="inlineStr">
+      <c r="EH6" t="inlineStr"/>
+      <c r="EI6" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="EI6" t="inlineStr">
+      <c r="EJ6" t="inlineStr">
         <is>
           <t>https://powo.science.kew.org/taxon/846658-1</t>
         </is>
       </c>
-      <c r="EJ6" t="inlineStr">
+      <c r="EK6" t="inlineStr">
         <is>
           <t>Cyprus, Lebanon-Syria, Palestine, Turkey</t>
         </is>
       </c>
-      <c r="EK6" t="inlineStr">
+      <c r="EL6" t="inlineStr">
         <is>
           <t>Denmark, Norway, Sweden, Austria, Czechoslovakia, Germany, Hungary, Poland, France, Portugal, Spain, Bulgaria, Greece, Italy, Kriti, Romania, Yugoslavia, Belarus, South European Russi, Ukraine, Morocco, Tunisia, Kazakhstan, Turkmenistan, Tadzhikistan, Uzbekistan, East Aegean Is., Iraq, Oman, Xinjiang, Bangladesh, India, Laos, Massachusetts, Michigan, Guatemala, Leeward Is., Trinidad-Tobago, Venezuela, Brazil South, Argentina Northeast, Argentina Northwest</t>
         </is>
       </c>
-      <c r="EL6" t="inlineStr">
+      <c r="EM6" t="inlineStr">
         <is>
           <t>Western Asia</t>
         </is>
       </c>
-      <c r="EM6" t="inlineStr">
+      <c r="EN6" t="inlineStr">
         <is>
           <t>ASIA-TEMPERATE</t>
         </is>
@@ -3788,7 +3798,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>The dried resin of Ferula foetida and F. assa-foetida</t>
+          <t>the dried resin of Ferula foetida and F. assa-foetida</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -3900,353 +3910,354 @@
           <t>asafoetida; hing; hiltit; anjudan; awei; xingqu</t>
         </is>
       </c>
-      <c r="AO7" t="inlineStr">
+      <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr">
         <is>
           <t>Plantae</t>
         </is>
       </c>
-      <c r="AP7" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>gum-resin (latex)</t>
         </is>
       </c>
-      <c r="AQ7" t="inlineStr">
+      <c r="AR7" t="inlineStr">
         <is>
           <t>Iran; W. and C. Asia</t>
         </is>
       </c>
-      <c r="AR7" t="inlineStr"/>
-      <c r="AS7" t="n">
+      <c r="AS7" t="inlineStr"/>
+      <c r="AT7" t="n">
         <v>34</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AU7" t="n">
         <v>68</v>
       </c>
-      <c r="AU7" t="inlineStr">
+      <c r="AV7" t="inlineStr">
         <is>
           <t>Afghanistan</t>
         </is>
       </c>
-      <c r="AV7" t="inlineStr">
+      <c r="AW7" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
       </c>
-      <c r="AW7" t="inlineStr">
+      <c r="AX7" t="inlineStr">
         <is>
           <t>Iran; Afghanistan</t>
         </is>
       </c>
-      <c r="AX7" t="inlineStr">
+      <c r="AY7" t="inlineStr">
         <is>
           <t>from pale yellow to brown</t>
         </is>
       </c>
-      <c r="AY7" t="inlineStr">
+      <c r="AZ7" t="inlineStr">
         <is>
           <t>pungent, rotten</t>
         </is>
       </c>
-      <c r="AZ7" t="inlineStr">
+      <c r="BA7" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="BA7" t="inlineStr">
+      <c r="BB7" t="inlineStr">
         <is>
           <t>curries; expectorant</t>
         </is>
       </c>
-      <c r="BB7" t="inlineStr">
+      <c r="BC7" t="inlineStr">
         <is>
           <t>Köhler's Medizinal-Pflanzen</t>
         </is>
       </c>
-      <c r="BC7" t="inlineStr">
+      <c r="BD7" t="inlineStr">
         <is>
           <t>II 147</t>
         </is>
       </c>
-      <c r="BD7" t="inlineStr">
+      <c r="BE7" t="inlineStr">
         <is>
           <t>koehler_1887_koehler</t>
         </is>
       </c>
-      <c r="BE7" t="inlineStr">
+      <c r="BF7" t="inlineStr">
         <is>
           <t>https://www.biodiversitylibrary.org/item/10837#page/639/mode/1up</t>
         </is>
       </c>
-      <c r="BF7" t="inlineStr"/>
       <c r="BG7" t="inlineStr"/>
-      <c r="BH7" t="inlineStr">
+      <c r="BH7" t="inlineStr"/>
+      <c r="BI7" t="inlineStr">
         <is>
           <t>asafetida.n.01</t>
         </is>
       </c>
-      <c r="BI7" t="inlineStr"/>
-      <c r="BJ7" t="inlineStr">
+      <c r="BJ7" t="inlineStr"/>
+      <c r="BK7" t="inlineStr">
         <is>
           <t>asafoetida</t>
         </is>
       </c>
-      <c r="BK7" t="inlineStr">
+      <c r="BL7" t="inlineStr">
         <is>
           <t>hing; devil's dung</t>
         </is>
       </c>
-      <c r="BL7" t="inlineStr">
+      <c r="BM7" t="inlineStr">
         <is>
           <t>حلتیت</t>
         </is>
       </c>
-      <c r="BM7" t="inlineStr">
+      <c r="BN7" t="inlineStr">
         <is>
           <t>ḥiltīt</t>
         </is>
       </c>
-      <c r="BN7" t="inlineStr"/>
       <c r="BO7" t="inlineStr"/>
-      <c r="BP7" t="inlineStr">
+      <c r="BP7" t="inlineStr"/>
+      <c r="BQ7" t="inlineStr">
         <is>
           <t>阿魏</t>
         </is>
       </c>
-      <c r="BQ7" t="inlineStr">
+      <c r="BR7" t="inlineStr">
         <is>
           <t>āwèi</t>
         </is>
       </c>
-      <c r="BR7" t="inlineStr"/>
       <c r="BS7" t="inlineStr"/>
       <c r="BT7" t="inlineStr"/>
-      <c r="BU7" t="inlineStr">
+      <c r="BU7" t="inlineStr"/>
+      <c r="BV7" t="inlineStr">
         <is>
           <t>ördöggyökér</t>
         </is>
       </c>
-      <c r="BV7" t="inlineStr">
+      <c r="BW7" t="inlineStr">
         <is>
           <t>devil's root</t>
         </is>
       </c>
-      <c r="BW7" t="inlineStr">
+      <c r="BX7" t="inlineStr">
         <is>
           <t>aszatgyanta [asat resin]; bűzös aszat [stinking asat]</t>
         </is>
       </c>
-      <c r="BX7" t="inlineStr">
+      <c r="BY7" t="inlineStr">
         <is>
           <t>büdös gyantagyökér; bűzös husáng, bűzös aszat; ördögszar, aszatgyanta, aszandkórógyanta, pálcakórógyanta, aszafetida, bűzaszat , Aszandkóró (növény wiki)!</t>
         </is>
       </c>
-      <c r="BY7" t="inlineStr"/>
       <c r="BZ7" t="inlineStr"/>
       <c r="CA7" t="inlineStr"/>
-      <c r="CB7" t="inlineStr">
+      <c r="CB7" t="inlineStr"/>
+      <c r="CC7" t="inlineStr">
         <is>
           <t>Tamil perungayam. There is a saying in Kannada 'ಇಂಗು ತೆಂಗು ಇದ್ದರೆ ಮಂಗನೂ ಅಡಿಗೆ ಮಾಡತ್ತೆ'. This means even a monkey can cook if Asafoetida and coconut is available. Hing is must in Kannada and Marathi brahmin cuisine for sure.</t>
         </is>
       </c>
-      <c r="CC7" t="inlineStr"/>
-      <c r="CD7" t="inlineStr">
+      <c r="CD7" t="inlineStr"/>
+      <c r="CE7" t="inlineStr">
         <is>
           <t>Asafetida; Resina Ferulae</t>
         </is>
       </c>
-      <c r="CE7" t="n">
+      <c r="CF7" t="n">
         <v>0</v>
       </c>
-      <c r="CF7" t="inlineStr"/>
       <c r="CG7" t="inlineStr"/>
-      <c r="CH7" t="inlineStr">
+      <c r="CH7" t="inlineStr"/>
+      <c r="CI7" t="inlineStr">
         <is>
           <t>阿魏</t>
         </is>
       </c>
-      <c r="CI7" t="inlineStr">
+      <c r="CJ7" t="inlineStr">
         <is>
           <t>āwèi</t>
         </is>
       </c>
-      <c r="CJ7" t="inlineStr">
+      <c r="CK7" t="inlineStr">
         <is>
           <t>Ferula Resin</t>
         </is>
       </c>
-      <c r="CK7" t="inlineStr"/>
       <c r="CL7" t="inlineStr"/>
       <c r="CM7" t="inlineStr"/>
       <c r="CN7" t="inlineStr"/>
       <c r="CO7" t="inlineStr"/>
       <c r="CP7" t="inlineStr"/>
-      <c r="CQ7" t="inlineStr">
+      <c r="CQ7" t="inlineStr"/>
+      <c r="CR7" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="CR7" t="inlineStr">
+      <c r="CS7" t="inlineStr">
         <is>
           <t>659</t>
         </is>
       </c>
-      <c r="CS7" t="inlineStr"/>
       <c r="CT7" t="inlineStr"/>
       <c r="CU7" t="inlineStr"/>
       <c r="CV7" t="inlineStr"/>
-      <c r="CW7" t="n">
+      <c r="CW7" t="inlineStr"/>
+      <c r="CX7" t="n">
         <v>371345</v>
       </c>
-      <c r="CX7" t="inlineStr">
+      <c r="CY7" t="inlineStr">
         <is>
           <t>हींग</t>
         </is>
       </c>
-      <c r="CY7" t="inlineStr">
+      <c r="CZ7" t="inlineStr">
         <is>
           <t>hīng</t>
         </is>
       </c>
-      <c r="CZ7" t="inlineStr"/>
       <c r="DA7" t="inlineStr"/>
       <c r="DB7" t="inlineStr"/>
       <c r="DC7" t="inlineStr"/>
-      <c r="DD7" t="inlineStr">
+      <c r="DD7" t="inlineStr"/>
+      <c r="DE7" t="inlineStr">
         <is>
           <t>asafoetida</t>
         </is>
       </c>
-      <c r="DE7" t="inlineStr">
+      <c r="DF7" t="inlineStr">
         <is>
           <t>https://partigabor.github.io/aromatica/items/asafoetida</t>
         </is>
       </c>
-      <c r="DF7" t="inlineStr">
+      <c r="DG7" t="inlineStr">
         <is>
           <t>2808419</t>
         </is>
       </c>
-      <c r="DG7" t="inlineStr">
+      <c r="DH7" t="inlineStr">
         <is>
           <t>842277-1</t>
         </is>
       </c>
-      <c r="DH7" t="inlineStr">
+      <c r="DI7" t="inlineStr">
         <is>
           <t>Species</t>
         </is>
       </c>
-      <c r="DI7" t="inlineStr">
+      <c r="DJ7" t="inlineStr">
         <is>
           <t>Accepted</t>
         </is>
       </c>
-      <c r="DJ7" t="inlineStr">
+      <c r="DK7" t="inlineStr">
         <is>
           <t>Apiaceae</t>
         </is>
       </c>
-      <c r="DK7" t="inlineStr"/>
-      <c r="DL7" t="inlineStr">
+      <c r="DL7" t="inlineStr"/>
+      <c r="DM7" t="inlineStr">
         <is>
           <t>Ferula</t>
         </is>
       </c>
-      <c r="DM7" t="inlineStr"/>
-      <c r="DN7" t="inlineStr">
+      <c r="DN7" t="inlineStr"/>
+      <c r="DO7" t="inlineStr">
         <is>
           <t>foetida</t>
         </is>
       </c>
-      <c r="DO7" t="inlineStr"/>
       <c r="DP7" t="inlineStr"/>
-      <c r="DQ7" t="inlineStr">
+      <c r="DQ7" t="inlineStr"/>
+      <c r="DR7" t="inlineStr">
         <is>
           <t>Bunge</t>
         </is>
       </c>
-      <c r="DR7" t="inlineStr">
+      <c r="DS7" t="inlineStr">
         <is>
           <t>Regel</t>
         </is>
       </c>
-      <c r="DS7" t="inlineStr"/>
-      <c r="DT7" t="inlineStr">
+      <c r="DT7" t="inlineStr"/>
+      <c r="DU7" t="inlineStr">
         <is>
           <t>Trudy Imp. S.-Peterburgsk. Bot. Sada</t>
         </is>
       </c>
-      <c r="DU7" t="inlineStr">
+      <c r="DV7" t="inlineStr">
         <is>
           <t xml:space="preserve"> 5: 592</t>
         </is>
       </c>
-      <c r="DV7" t="inlineStr">
+      <c r="DW7" t="inlineStr">
         <is>
           <t>(1877)</t>
         </is>
       </c>
-      <c r="DW7" t="inlineStr"/>
-      <c r="DX7" t="inlineStr">
+      <c r="DX7" t="inlineStr"/>
+      <c r="DY7" t="inlineStr">
         <is>
           <t>Iran to C. Asia and W. Pakistan</t>
         </is>
       </c>
-      <c r="DY7" t="inlineStr">
+      <c r="DZ7" t="inlineStr">
         <is>
           <t>perennial</t>
         </is>
       </c>
-      <c r="DZ7" t="inlineStr">
+      <c r="EA7" t="inlineStr">
         <is>
           <t>temperate</t>
         </is>
       </c>
-      <c r="EA7" t="inlineStr">
+      <c r="EB7" t="inlineStr">
         <is>
           <t>2808419</t>
         </is>
       </c>
-      <c r="EB7" t="inlineStr">
+      <c r="EC7" t="inlineStr">
         <is>
           <t>2479171</t>
         </is>
       </c>
-      <c r="EC7" t="inlineStr"/>
       <c r="ED7" t="inlineStr"/>
-      <c r="EE7" t="inlineStr">
+      <c r="EE7" t="inlineStr"/>
+      <c r="EF7" t="inlineStr">
         <is>
           <t>2808299</t>
         </is>
       </c>
-      <c r="EF7" t="inlineStr">
+      <c r="EG7" t="inlineStr">
         <is>
           <t>842277-1</t>
         </is>
       </c>
-      <c r="EG7" t="inlineStr"/>
-      <c r="EH7" t="inlineStr">
+      <c r="EH7" t="inlineStr"/>
+      <c r="EI7" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="EI7" t="inlineStr">
+      <c r="EJ7" t="inlineStr">
         <is>
           <t>https://powo.science.kew.org/taxon/842277-1</t>
         </is>
       </c>
-      <c r="EJ7" t="inlineStr">
+      <c r="EK7" t="inlineStr">
         <is>
           <t>Kazakhstan, Kirgizstan, Turkmenistan, Tadzhikistan, Uzbekistan, Afghanistan, Iran, Pakistan</t>
         </is>
       </c>
-      <c r="EK7" t="inlineStr"/>
-      <c r="EL7" t="inlineStr">
+      <c r="EL7" t="inlineStr"/>
+      <c r="EM7" t="inlineStr">
         <is>
           <t>Middle Asia, Western Asia, Indian Subcontinent</t>
         </is>
       </c>
-      <c r="EM7" t="inlineStr">
+      <c r="EN7" t="inlineStr">
         <is>
           <t>ASIA-TEMPERATE, ASIA-TROPICAL</t>
         </is>
@@ -4279,7 +4290,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>The bright-green seed pods of an Indian plant; fruit of Elettaria cardamomum</t>
+          <t>the bright-green seed pods of an Indian plant; fruit of Elettaria cardamomum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -4391,201 +4402,201 @@
           <t>cardamom; amomum; hal; qaqulla; doukou</t>
         </is>
       </c>
-      <c r="AO8" t="inlineStr">
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr">
         <is>
           <t>Plantae</t>
         </is>
       </c>
-      <c r="AP8" t="inlineStr">
+      <c r="AQ8" t="inlineStr">
         <is>
           <t>fruit (seed pod)</t>
         </is>
       </c>
-      <c r="AQ8" t="inlineStr">
+      <c r="AR8" t="inlineStr">
         <is>
           <t>Kerala, S. India; southern Asia</t>
         </is>
       </c>
-      <c r="AR8" t="inlineStr"/>
-      <c r="AS8" t="n">
+      <c r="AS8" t="inlineStr"/>
+      <c r="AT8" t="n">
         <v>10</v>
       </c>
-      <c r="AT8" t="n">
+      <c r="AU8" t="n">
         <v>77</v>
       </c>
-      <c r="AU8" t="inlineStr">
+      <c r="AV8" t="inlineStr">
         <is>
           <t>Kerala</t>
         </is>
       </c>
-      <c r="AV8" t="inlineStr">
+      <c r="AW8" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
       </c>
-      <c r="AW8" t="inlineStr">
+      <c r="AX8" t="inlineStr">
         <is>
           <t>Guatemala; India; Sri Lanka; Tanzania; Papua New Guinea</t>
         </is>
       </c>
-      <c r="AX8" t="inlineStr">
+      <c r="AY8" t="inlineStr">
         <is>
           <t>green seed pods, brown seeds</t>
         </is>
       </c>
-      <c r="AY8" t="inlineStr">
+      <c r="AZ8" t="inlineStr">
         <is>
           <t>pungent, eucalyptus-like</t>
         </is>
       </c>
-      <c r="AZ8" t="inlineStr">
+      <c r="BA8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="BA8" t="inlineStr">
+      <c r="BB8" t="inlineStr">
         <is>
           <t>desserts, coffees, curries</t>
         </is>
       </c>
-      <c r="BB8" t="inlineStr">
+      <c r="BC8" t="inlineStr">
         <is>
           <t>Köhler's Medizinal-Pflanzen</t>
         </is>
       </c>
-      <c r="BC8" t="inlineStr">
+      <c r="BD8" t="inlineStr">
         <is>
           <t>II 186</t>
         </is>
       </c>
-      <c r="BD8" t="inlineStr">
+      <c r="BE8" t="inlineStr">
         <is>
           <t>koehler_1887_koehler</t>
         </is>
       </c>
-      <c r="BE8" t="inlineStr">
+      <c r="BF8" t="inlineStr">
         <is>
           <t>https://www.biodiversitylibrary.org/item/10837#page/721/mode/1up</t>
         </is>
       </c>
-      <c r="BF8" t="inlineStr"/>
-      <c r="BG8" t="inlineStr">
+      <c r="BG8" t="inlineStr"/>
+      <c r="BH8" t="inlineStr">
         <is>
           <t>cardamom.n.01</t>
         </is>
       </c>
-      <c r="BH8" t="inlineStr">
+      <c r="BI8" t="inlineStr">
         <is>
           <t>cardamom.n.02</t>
         </is>
       </c>
-      <c r="BI8" t="inlineStr"/>
-      <c r="BJ8" t="inlineStr">
+      <c r="BJ8" t="inlineStr"/>
+      <c r="BK8" t="inlineStr">
         <is>
           <t>cardamom</t>
         </is>
       </c>
-      <c r="BK8" t="inlineStr">
+      <c r="BL8" t="inlineStr">
         <is>
           <t>true cardamom; green cardamom</t>
         </is>
       </c>
-      <c r="BL8" t="inlineStr">
+      <c r="BM8" t="inlineStr">
         <is>
           <t>هال</t>
         </is>
       </c>
-      <c r="BM8" t="inlineStr">
+      <c r="BN8" t="inlineStr">
         <is>
           <t>hāl</t>
         </is>
       </c>
-      <c r="BN8" t="inlineStr"/>
-      <c r="BO8" t="inlineStr">
+      <c r="BO8" t="inlineStr"/>
+      <c r="BP8" t="inlineStr">
         <is>
           <t>هيل *hayl*</t>
         </is>
       </c>
-      <c r="BP8" t="inlineStr">
+      <c r="BQ8" t="inlineStr">
         <is>
           <t>小豆蔻</t>
         </is>
       </c>
-      <c r="BQ8" t="inlineStr">
+      <c r="BR8" t="inlineStr">
         <is>
           <t>xiǎodòukòu</t>
         </is>
       </c>
-      <c r="BR8" t="inlineStr">
+      <c r="BS8" t="inlineStr">
         <is>
           <t>little-bean-cardamom</t>
         </is>
       </c>
-      <c r="BS8" t="inlineStr">
+      <c r="BT8" t="inlineStr">
         <is>
           <t>豆蔻 [bean-cardamom]; 綠豆蔻 [green-bean-cardamom]</t>
         </is>
       </c>
-      <c r="BT8" t="inlineStr">
+      <c r="BU8" t="inlineStr">
         <is>
           <t>荳蔻</t>
         </is>
       </c>
-      <c r="BU8" t="inlineStr">
+      <c r="BV8" t="inlineStr">
         <is>
           <t>kardamom</t>
         </is>
       </c>
-      <c r="BV8" t="inlineStr"/>
       <c r="BW8" t="inlineStr"/>
       <c r="BX8" t="inlineStr"/>
-      <c r="BY8" t="inlineStr">
+      <c r="BY8" t="inlineStr"/>
+      <c r="BZ8" t="inlineStr">
         <is>
           <t>綠荳蔻</t>
         </is>
       </c>
-      <c r="BZ8" t="inlineStr">
+      <c r="CA8" t="inlineStr">
         <is>
           <t>luk6 dau6 kau3</t>
         </is>
       </c>
-      <c r="CA8" t="inlineStr">
+      <c r="CB8" t="inlineStr">
         <is>
           <t>green-cardamom</t>
         </is>
       </c>
-      <c r="CB8" t="inlineStr"/>
       <c r="CC8" t="inlineStr"/>
-      <c r="CD8" t="inlineStr">
+      <c r="CD8" t="inlineStr"/>
+      <c r="CE8" t="inlineStr">
         <is>
           <t>Fructus Cardamomi</t>
         </is>
       </c>
-      <c r="CE8" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF8" t="inlineStr">
+      <c r="CF8" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG8" t="inlineStr">
         <is>
           <t>?</t>
         </is>
       </c>
-      <c r="CG8" t="inlineStr"/>
-      <c r="CH8" t="inlineStr">
+      <c r="CH8" t="inlineStr"/>
+      <c r="CI8" t="inlineStr">
         <is>
           <t>小豆蔻</t>
         </is>
       </c>
-      <c r="CI8" t="inlineStr">
+      <c r="CJ8" t="inlineStr">
         <is>
           <t>xiǎo​dòu​kòu</t>
         </is>
       </c>
-      <c r="CJ8" t="inlineStr">
+      <c r="CK8" t="inlineStr">
         <is>
           <t>Cardamom</t>
         </is>
       </c>
-      <c r="CK8" t="inlineStr"/>
       <c r="CL8" t="inlineStr"/>
       <c r="CM8" t="inlineStr"/>
       <c r="CN8" t="inlineStr"/>
@@ -4594,186 +4605,187 @@
       <c r="CQ8" t="inlineStr"/>
       <c r="CR8" t="inlineStr"/>
       <c r="CS8" t="inlineStr"/>
-      <c r="CT8" t="inlineStr">
+      <c r="CT8" t="inlineStr"/>
+      <c r="CU8" t="inlineStr">
         <is>
           <t>https://www.gbif.org/species/2759871</t>
         </is>
       </c>
-      <c r="CU8" t="inlineStr">
+      <c r="CV8" t="inlineStr">
         <is>
           <t>https://tropicos.org/name/34500572</t>
         </is>
       </c>
-      <c r="CV8" t="inlineStr">
+      <c r="CW8" t="inlineStr">
         <is>
           <t>https://eol.org/pages/1120064</t>
         </is>
       </c>
-      <c r="CW8" t="n">
+      <c r="CX8" t="n">
         <v>105181</v>
       </c>
-      <c r="CX8" t="inlineStr">
+      <c r="CY8" t="inlineStr">
         <is>
           <t xml:space="preserve">इलायची </t>
         </is>
       </c>
-      <c r="CY8" t="inlineStr">
+      <c r="CZ8" t="inlineStr">
         <is>
           <t>ilāychī</t>
         </is>
       </c>
-      <c r="CZ8" t="inlineStr"/>
       <c r="DA8" t="inlineStr"/>
-      <c r="DB8" t="inlineStr">
+      <c r="DB8" t="inlineStr"/>
+      <c r="DC8" t="inlineStr">
         <is>
           <t>kapulaga seberang</t>
         </is>
       </c>
-      <c r="DC8" t="inlineStr">
+      <c r="DD8" t="inlineStr">
         <is>
           <t>هل سبز</t>
         </is>
       </c>
-      <c r="DD8" t="inlineStr">
+      <c r="DE8" t="inlineStr">
         <is>
           <t>cardamom</t>
         </is>
       </c>
-      <c r="DE8" t="inlineStr">
+      <c r="DF8" t="inlineStr">
         <is>
           <t>https://partigabor.github.io/aromatica/items/cardamom</t>
         </is>
       </c>
-      <c r="DF8" t="inlineStr">
+      <c r="DG8" t="inlineStr">
         <is>
           <t>243056</t>
         </is>
       </c>
-      <c r="DG8" t="inlineStr">
+      <c r="DH8" t="inlineStr">
         <is>
           <t>796556-1</t>
         </is>
       </c>
-      <c r="DH8" t="inlineStr">
+      <c r="DI8" t="inlineStr">
         <is>
           <t>Species</t>
         </is>
       </c>
-      <c r="DI8" t="inlineStr">
+      <c r="DJ8" t="inlineStr">
         <is>
           <t>Accepted</t>
         </is>
       </c>
-      <c r="DJ8" t="inlineStr">
+      <c r="DK8" t="inlineStr">
         <is>
           <t>Zingiberaceae</t>
         </is>
       </c>
-      <c r="DK8" t="inlineStr"/>
-      <c r="DL8" t="inlineStr">
+      <c r="DL8" t="inlineStr"/>
+      <c r="DM8" t="inlineStr">
         <is>
           <t>Elettaria</t>
         </is>
       </c>
-      <c r="DM8" t="inlineStr"/>
-      <c r="DN8" t="inlineStr">
+      <c r="DN8" t="inlineStr"/>
+      <c r="DO8" t="inlineStr">
         <is>
           <t>cardamomum</t>
         </is>
       </c>
-      <c r="DO8" t="inlineStr"/>
       <c r="DP8" t="inlineStr"/>
-      <c r="DQ8" t="inlineStr">
+      <c r="DQ8" t="inlineStr"/>
+      <c r="DR8" t="inlineStr">
         <is>
           <t>L.</t>
         </is>
       </c>
-      <c r="DR8" t="inlineStr">
+      <c r="DS8" t="inlineStr">
         <is>
           <t>Maton</t>
         </is>
       </c>
-      <c r="DS8" t="inlineStr"/>
-      <c r="DT8" t="inlineStr">
+      <c r="DT8" t="inlineStr"/>
+      <c r="DU8" t="inlineStr">
         <is>
           <t>Trans. Linn. Soc. London</t>
         </is>
       </c>
-      <c r="DU8" t="inlineStr">
+      <c r="DV8" t="inlineStr">
         <is>
           <t xml:space="preserve"> 10: 254</t>
         </is>
       </c>
-      <c r="DV8" t="inlineStr">
+      <c r="DW8" t="inlineStr">
         <is>
           <t>(1811)</t>
         </is>
       </c>
-      <c r="DW8" t="inlineStr"/>
-      <c r="DX8" t="inlineStr">
+      <c r="DX8" t="inlineStr"/>
+      <c r="DY8" t="inlineStr">
         <is>
           <t>SW. India</t>
         </is>
       </c>
-      <c r="DY8" t="inlineStr">
+      <c r="DZ8" t="inlineStr">
         <is>
           <t>rhizomatous geophyte</t>
         </is>
       </c>
-      <c r="DZ8" t="inlineStr">
+      <c r="EA8" t="inlineStr">
         <is>
           <t>seasonally dry tropical</t>
         </is>
       </c>
-      <c r="EA8" t="inlineStr">
+      <c r="EB8" t="inlineStr">
         <is>
           <t>243056</t>
         </is>
       </c>
-      <c r="EB8" t="inlineStr">
+      <c r="EC8" t="inlineStr">
         <is>
           <t>219209</t>
         </is>
       </c>
-      <c r="EC8" t="inlineStr"/>
       <c r="ED8" t="inlineStr"/>
-      <c r="EE8" t="inlineStr">
+      <c r="EE8" t="inlineStr"/>
+      <c r="EF8" t="inlineStr">
         <is>
           <t>243049</t>
         </is>
       </c>
-      <c r="EF8" t="inlineStr">
+      <c r="EG8" t="inlineStr">
         <is>
           <t>796556-1</t>
         </is>
       </c>
-      <c r="EG8" t="inlineStr"/>
-      <c r="EH8" t="inlineStr">
+      <c r="EH8" t="inlineStr"/>
+      <c r="EI8" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="EI8" t="inlineStr">
+      <c r="EJ8" t="inlineStr">
         <is>
           <t>https://powo.science.kew.org/taxon/796556-1</t>
         </is>
       </c>
-      <c r="EJ8" t="inlineStr">
+      <c r="EK8" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="EK8" t="inlineStr">
+      <c r="EL8" t="inlineStr">
         <is>
           <t>Réunion, Bangladesh, Cambodia, Thailand, Vietnam, Lesser Sunda Is., Costa Rica, Trinidad-Tobago</t>
         </is>
       </c>
-      <c r="EL8" t="inlineStr">
+      <c r="EM8" t="inlineStr">
         <is>
           <t>Indian Subcontinent</t>
         </is>
       </c>
-      <c r="EM8" t="inlineStr">
+      <c r="EN8" t="inlineStr">
         <is>
           <t>ASIA-TROPICAL</t>
         </is>
@@ -4806,7 +4818,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>The inner bark of Southeast Asian trees</t>
+          <t>the inner bark of Southeast Asian trees</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -4816,7 +4828,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Chinese cinnamon; Padang cinnamon; Saigon cinnamon; cinnamon</t>
+          <t>Padang cinnamon; Saigon cinnamon</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -4930,397 +4942,398 @@
           <t>cassia; salikha; rougui</t>
         </is>
       </c>
-      <c r="AO9" t="inlineStr">
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr">
         <is>
           <t>Plantae</t>
         </is>
       </c>
-      <c r="AP9" t="inlineStr">
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>bark; fruit</t>
         </is>
       </c>
-      <c r="AQ9" t="inlineStr">
+      <c r="AR9" t="inlineStr">
         <is>
           <t>Southeast China</t>
         </is>
       </c>
-      <c r="AR9" t="inlineStr"/>
-      <c r="AS9" t="n">
+      <c r="AS9" t="inlineStr"/>
+      <c r="AT9" t="n">
         <v>23</v>
       </c>
-      <c r="AT9" t="n">
+      <c r="AU9" t="n">
         <v>108</v>
       </c>
-      <c r="AU9" t="inlineStr">
+      <c r="AV9" t="inlineStr">
         <is>
           <t>Guangxi</t>
         </is>
       </c>
-      <c r="AV9" t="inlineStr">
+      <c r="AW9" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
       </c>
-      <c r="AW9" t="inlineStr">
+      <c r="AX9" t="inlineStr">
         <is>
           <t>Indonesia; China; Vietnam; Timor-Leste; etc.</t>
         </is>
       </c>
-      <c r="AX9" t="inlineStr">
+      <c r="AY9" t="inlineStr">
         <is>
           <t>reddish brown</t>
         </is>
       </c>
-      <c r="AY9" t="inlineStr">
+      <c r="AZ9" t="inlineStr">
         <is>
           <t>pungent, cinnamon-like</t>
         </is>
       </c>
-      <c r="AZ9" t="inlineStr">
+      <c r="BA9" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="BA9" t="inlineStr">
+      <c r="BB9" t="inlineStr">
         <is>
           <t>flavor; diarrhea</t>
         </is>
       </c>
-      <c r="BB9" t="inlineStr">
+      <c r="BC9" t="inlineStr">
         <is>
           <t>Köhler's Medizinal-Pflanzen</t>
         </is>
       </c>
-      <c r="BC9" t="inlineStr">
+      <c r="BD9" t="inlineStr">
         <is>
           <t>I 77</t>
         </is>
       </c>
-      <c r="BD9" t="inlineStr">
+      <c r="BE9" t="inlineStr">
         <is>
           <t>koehler_1887_koehler</t>
         </is>
       </c>
-      <c r="BE9" t="inlineStr">
+      <c r="BF9" t="inlineStr">
         <is>
           <t>https://www.biodiversitylibrary.org/item/10836#page/391/mode/1up</t>
         </is>
       </c>
-      <c r="BF9" t="inlineStr"/>
-      <c r="BG9" t="inlineStr">
+      <c r="BG9" t="inlineStr"/>
+      <c r="BH9" t="inlineStr">
         <is>
           <t>cassia.n.03</t>
         </is>
       </c>
-      <c r="BH9" t="inlineStr"/>
       <c r="BI9" t="inlineStr"/>
-      <c r="BJ9" t="inlineStr">
+      <c r="BJ9" t="inlineStr"/>
+      <c r="BK9" t="inlineStr">
         <is>
           <t>cassia</t>
         </is>
       </c>
-      <c r="BK9" t="inlineStr">
+      <c r="BL9" t="inlineStr">
         <is>
           <t>Chinese cinnamon</t>
         </is>
       </c>
-      <c r="BL9" t="inlineStr">
+      <c r="BM9" t="inlineStr">
         <is>
           <t>سليخة</t>
         </is>
       </c>
-      <c r="BM9" t="inlineStr">
+      <c r="BN9" t="inlineStr">
         <is>
           <t>salīkha</t>
         </is>
       </c>
-      <c r="BN9" t="inlineStr">
+      <c r="BO9" t="inlineStr">
         <is>
           <t>peel; bark</t>
         </is>
       </c>
-      <c r="BO9" t="inlineStr"/>
-      <c r="BP9" t="inlineStr">
+      <c r="BP9" t="inlineStr"/>
+      <c r="BQ9" t="inlineStr">
         <is>
           <t>肉桂</t>
         </is>
       </c>
-      <c r="BQ9" t="inlineStr">
+      <c r="BR9" t="inlineStr">
         <is>
           <t>ròuguì</t>
         </is>
       </c>
-      <c r="BR9" t="inlineStr">
+      <c r="BS9" t="inlineStr">
         <is>
           <t>flesh-cinnamon</t>
         </is>
       </c>
-      <c r="BS9" t="inlineStr"/>
-      <c r="BT9" t="inlineStr">
+      <c r="BT9" t="inlineStr"/>
+      <c r="BU9" t="inlineStr">
         <is>
           <t>桂 guì can either refer to Cinnamomum species or to Osmanthus flowers</t>
         </is>
       </c>
-      <c r="BU9" t="inlineStr">
+      <c r="BV9" t="inlineStr">
         <is>
           <t>kasszia (fahéj)</t>
         </is>
       </c>
-      <c r="BV9" t="inlineStr">
+      <c r="BW9" t="inlineStr">
         <is>
           <t>cassia (tree-bark)</t>
         </is>
       </c>
-      <c r="BW9" t="inlineStr"/>
       <c r="BX9" t="inlineStr"/>
       <c r="BY9" t="inlineStr"/>
       <c r="BZ9" t="inlineStr"/>
       <c r="CA9" t="inlineStr"/>
       <c r="CB9" t="inlineStr"/>
       <c r="CC9" t="inlineStr"/>
-      <c r="CD9" t="inlineStr">
+      <c r="CD9" t="inlineStr"/>
+      <c r="CE9" t="inlineStr">
         <is>
           <t>Cortex Cassiae/Cinnamomi Cortex; Ramulus Cinnamomi</t>
         </is>
       </c>
-      <c r="CE9" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF9" t="inlineStr">
+      <c r="CF9" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG9" t="inlineStr">
         <is>
           <t>polyu-tcm</t>
         </is>
       </c>
-      <c r="CG9" t="inlineStr">
+      <c r="CH9" t="inlineStr">
         <is>
           <t>https://herbaltcm.sn.polyu.edu.hk/herbal/cassia-bark</t>
         </is>
       </c>
-      <c r="CH9" t="inlineStr">
+      <c r="CI9" t="inlineStr">
         <is>
           <t>肉桂</t>
         </is>
       </c>
-      <c r="CI9" t="inlineStr">
+      <c r="CJ9" t="inlineStr">
         <is>
           <t>ròuguì</t>
         </is>
       </c>
-      <c r="CJ9" t="inlineStr">
+      <c r="CK9" t="inlineStr">
         <is>
           <t>Cassia bark</t>
         </is>
       </c>
-      <c r="CK9" t="inlineStr">
+      <c r="CL9" t="inlineStr">
         <is>
           <t>Dried stem bark of Cinnamomum cassia Presl (Fam. Lauraceae)</t>
         </is>
       </c>
-      <c r="CL9" t="inlineStr">
+      <c r="CM9" t="inlineStr">
         <is>
           <t>Interior-warming medicinal</t>
         </is>
       </c>
-      <c r="CM9" t="inlineStr">
+      <c r="CN9" t="inlineStr">
         <is>
           <t>pungent, sweet; strongly hot</t>
         </is>
       </c>
-      <c r="CN9" t="inlineStr">
+      <c r="CO9" t="inlineStr">
         <is>
           <t>Liver, Heart, Spleen, Kidney</t>
         </is>
       </c>
-      <c r="CO9" t="inlineStr">
+      <c r="CP9" t="inlineStr">
         <is>
           <t>To tonify fire and assist yang, and lead the fire back to the kidney, dispel cold and relieve pain, and activate blood circulation and stimulate menstrual dischange</t>
         </is>
       </c>
-      <c r="CP9" t="inlineStr"/>
       <c r="CQ9" t="inlineStr"/>
-      <c r="CR9" t="inlineStr">
+      <c r="CR9" t="inlineStr"/>
+      <c r="CS9" t="inlineStr">
         <is>
           <t>?</t>
         </is>
       </c>
-      <c r="CS9" t="inlineStr"/>
-      <c r="CT9" t="inlineStr">
+      <c r="CT9" t="inlineStr"/>
+      <c r="CU9" t="inlineStr">
         <is>
           <t>https://www.gbif.org/species/3033982</t>
         </is>
       </c>
-      <c r="CU9" t="inlineStr">
+      <c r="CV9" t="inlineStr">
         <is>
           <t>https://tropicos.org/name/17805773</t>
         </is>
       </c>
-      <c r="CV9" t="inlineStr">
+      <c r="CW9" t="inlineStr">
         <is>
           <t>https://eol.org/pages/483593</t>
         </is>
       </c>
-      <c r="CW9" t="n">
+      <c r="CX9" t="n">
         <v>119260</v>
       </c>
-      <c r="CX9" t="inlineStr">
+      <c r="CY9" t="inlineStr">
         <is>
           <t>दालचीनी</t>
         </is>
       </c>
-      <c r="CY9" t="inlineStr">
+      <c r="CZ9" t="inlineStr">
         <is>
           <t>dālchīnī</t>
         </is>
       </c>
-      <c r="CZ9" t="inlineStr"/>
-      <c r="DA9" t="inlineStr">
+      <c r="DA9" t="inlineStr"/>
+      <c r="DB9" t="inlineStr">
         <is>
           <t>दारचीनी</t>
         </is>
       </c>
-      <c r="DB9" t="inlineStr">
+      <c r="DC9" t="inlineStr">
         <is>
           <t>kayu manis</t>
         </is>
       </c>
-      <c r="DC9" t="inlineStr"/>
-      <c r="DD9" t="inlineStr">
+      <c r="DD9" t="inlineStr"/>
+      <c r="DE9" t="inlineStr">
         <is>
           <t>cassia</t>
         </is>
       </c>
-      <c r="DE9" t="inlineStr">
+      <c r="DF9" t="inlineStr">
         <is>
           <t>https://partigabor.github.io/aromatica/items/cassia</t>
         </is>
       </c>
-      <c r="DF9" t="inlineStr">
+      <c r="DG9" t="inlineStr">
         <is>
           <t>2721121</t>
         </is>
       </c>
-      <c r="DG9" t="inlineStr">
+      <c r="DH9" t="inlineStr">
         <is>
           <t>463288-1</t>
         </is>
       </c>
-      <c r="DH9" t="inlineStr">
+      <c r="DI9" t="inlineStr">
         <is>
           <t>Species</t>
         </is>
       </c>
-      <c r="DI9" t="inlineStr">
+      <c r="DJ9" t="inlineStr">
         <is>
           <t>Accepted</t>
         </is>
       </c>
-      <c r="DJ9" t="inlineStr">
+      <c r="DK9" t="inlineStr">
         <is>
           <t>Lauraceae</t>
         </is>
       </c>
-      <c r="DK9" t="inlineStr"/>
-      <c r="DL9" t="inlineStr">
+      <c r="DL9" t="inlineStr"/>
+      <c r="DM9" t="inlineStr">
         <is>
           <t>Cinnamomum</t>
         </is>
       </c>
-      <c r="DM9" t="inlineStr"/>
-      <c r="DN9" t="inlineStr">
+      <c r="DN9" t="inlineStr"/>
+      <c r="DO9" t="inlineStr">
         <is>
           <t>aromaticum</t>
         </is>
       </c>
-      <c r="DO9" t="inlineStr"/>
       <c r="DP9" t="inlineStr"/>
       <c r="DQ9" t="inlineStr"/>
-      <c r="DR9" t="inlineStr">
+      <c r="DR9" t="inlineStr"/>
+      <c r="DS9" t="inlineStr">
         <is>
           <t>Nees</t>
         </is>
       </c>
-      <c r="DS9" t="inlineStr">
+      <c r="DT9" t="inlineStr">
         <is>
           <t>N.Wallich</t>
         </is>
       </c>
-      <c r="DT9" t="inlineStr">
+      <c r="DU9" t="inlineStr">
         <is>
           <t>Pl. Asiat. Rar.</t>
         </is>
       </c>
-      <c r="DU9" t="inlineStr">
+      <c r="DV9" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2: 74</t>
         </is>
       </c>
-      <c r="DV9" t="inlineStr">
+      <c r="DW9" t="inlineStr">
         <is>
           <t>(1831)</t>
         </is>
       </c>
-      <c r="DW9" t="inlineStr"/>
-      <c r="DX9" t="inlineStr">
+      <c r="DX9" t="inlineStr"/>
+      <c r="DY9" t="inlineStr">
         <is>
           <t>SE. China to Vietnam</t>
         </is>
       </c>
-      <c r="DY9" t="inlineStr">
+      <c r="DZ9" t="inlineStr">
         <is>
           <t>tree</t>
         </is>
       </c>
-      <c r="DZ9" t="inlineStr">
+      <c r="EA9" t="inlineStr">
         <is>
           <t>subtropical</t>
         </is>
       </c>
-      <c r="EA9" t="inlineStr">
+      <c r="EB9" t="inlineStr">
         <is>
           <t>2721121</t>
         </is>
       </c>
-      <c r="EB9" t="inlineStr"/>
       <c r="EC9" t="inlineStr"/>
       <c r="ED9" t="inlineStr"/>
-      <c r="EE9" t="inlineStr">
+      <c r="EE9" t="inlineStr"/>
+      <c r="EF9" t="inlineStr">
         <is>
           <t>2721087</t>
         </is>
       </c>
-      <c r="EF9" t="inlineStr">
+      <c r="EG9" t="inlineStr">
         <is>
           <t>463288-1</t>
         </is>
       </c>
-      <c r="EG9" t="inlineStr"/>
-      <c r="EH9" t="inlineStr">
+      <c r="EH9" t="inlineStr"/>
+      <c r="EI9" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="EI9" t="inlineStr">
+      <c r="EJ9" t="inlineStr">
         <is>
           <t>https://powo.science.kew.org/taxon/463288-1</t>
         </is>
       </c>
-      <c r="EJ9" t="inlineStr">
+      <c r="EK9" t="inlineStr">
         <is>
           <t>China Southeast, Vietnam</t>
         </is>
       </c>
-      <c r="EK9" t="inlineStr">
+      <c r="EL9" t="inlineStr">
         <is>
           <t>China South-Central, Hainan, Taiwan, Bangladesh, India, Cambodia, Laos, Myanmar, Thailand, Malaya, Sumatera, Guatemala, Honduras, Trinidad-Tobago</t>
         </is>
       </c>
-      <c r="EL9" t="inlineStr">
+      <c r="EM9" t="inlineStr">
         <is>
           <t>China, Indo-China</t>
         </is>
       </c>
-      <c r="EM9" t="inlineStr">
+      <c r="EN9" t="inlineStr">
         <is>
           <t>ASIA-TEMPERATE, ASIA-TROPICAL</t>
         </is>
@@ -5349,7 +5362,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>The dried flower-buds of a tropical tree from the Moluccas, Indonesia; bud of Syzygium aromaticum</t>
+          <t>the dried flower-buds of a tropical tree from the Moluccas, Indonesia; bud of Syzygium aromaticum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -5461,405 +5474,406 @@
           <t>clove; qaranful; dingxiang</t>
         </is>
       </c>
-      <c r="AO10" t="inlineStr">
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr">
         <is>
           <t>Plantae</t>
         </is>
       </c>
-      <c r="AP10" t="inlineStr">
+      <c r="AQ10" t="inlineStr">
         <is>
           <t>flower buds</t>
         </is>
       </c>
-      <c r="AQ10" t="inlineStr">
+      <c r="AR10" t="inlineStr">
         <is>
           <t>N. Moluccas, Indonesia</t>
         </is>
       </c>
-      <c r="AR10" t="inlineStr"/>
-      <c r="AS10" t="n">
-        <v>1</v>
-      </c>
+      <c r="AS10" t="inlineStr"/>
       <c r="AT10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU10" t="n">
         <v>127</v>
       </c>
-      <c r="AU10" t="inlineStr">
+      <c r="AV10" t="inlineStr">
         <is>
           <t>Moluccas</t>
         </is>
       </c>
-      <c r="AV10" t="inlineStr">
+      <c r="AW10" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
       </c>
-      <c r="AW10" t="inlineStr">
+      <c r="AX10" t="inlineStr">
         <is>
           <t>Indonesia; Malaysia; Tanzania</t>
         </is>
       </c>
-      <c r="AX10" t="inlineStr">
+      <c r="AY10" t="inlineStr">
         <is>
           <t>rich, reddish brown</t>
         </is>
       </c>
-      <c r="AY10" t="inlineStr">
+      <c r="AZ10" t="inlineStr">
         <is>
           <t>sweet, pungent, astringent</t>
         </is>
       </c>
-      <c r="AZ10" t="inlineStr">
+      <c r="BA10" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="BA10" t="inlineStr">
+      <c r="BB10" t="inlineStr">
         <is>
           <t>meats, sauces; anesthetic</t>
         </is>
       </c>
-      <c r="BB10" t="inlineStr">
+      <c r="BC10" t="inlineStr">
         <is>
           <t>Köhler's Medizinal-Pflanzen</t>
         </is>
       </c>
-      <c r="BC10" t="inlineStr">
+      <c r="BD10" t="inlineStr">
         <is>
           <t>II 125</t>
         </is>
       </c>
-      <c r="BD10" t="inlineStr">
+      <c r="BE10" t="inlineStr">
         <is>
           <t>koehler_1887_koehler</t>
         </is>
       </c>
-      <c r="BE10" t="inlineStr">
+      <c r="BF10" t="inlineStr">
         <is>
           <t>https://www.biodiversitylibrary.org/item/10837#page/595/mode/1up</t>
         </is>
       </c>
-      <c r="BF10" t="inlineStr"/>
-      <c r="BG10" t="inlineStr">
+      <c r="BG10" t="inlineStr"/>
+      <c r="BH10" t="inlineStr">
         <is>
           <t>clove.n.02</t>
         </is>
       </c>
-      <c r="BH10" t="inlineStr">
+      <c r="BI10" t="inlineStr">
         <is>
           <t>clove.n.04</t>
         </is>
       </c>
-      <c r="BI10" t="inlineStr"/>
-      <c r="BJ10" t="inlineStr">
+      <c r="BJ10" t="inlineStr"/>
+      <c r="BK10" t="inlineStr">
         <is>
           <t>clove</t>
         </is>
       </c>
-      <c r="BK10" t="inlineStr"/>
-      <c r="BL10" t="inlineStr">
+      <c r="BL10" t="inlineStr"/>
+      <c r="BM10" t="inlineStr">
         <is>
           <t>قرنفل</t>
         </is>
       </c>
-      <c r="BM10" t="inlineStr">
+      <c r="BN10" t="inlineStr">
         <is>
           <t>qaranful</t>
         </is>
       </c>
-      <c r="BN10" t="inlineStr"/>
       <c r="BO10" t="inlineStr"/>
-      <c r="BP10" t="inlineStr">
+      <c r="BP10" t="inlineStr"/>
+      <c r="BQ10" t="inlineStr">
         <is>
           <t>丁香</t>
         </is>
       </c>
-      <c r="BQ10" t="inlineStr">
+      <c r="BR10" t="inlineStr">
         <is>
           <t>dīngxiāng</t>
         </is>
       </c>
-      <c r="BR10" t="inlineStr">
+      <c r="BS10" t="inlineStr">
         <is>
           <t>nail-spice</t>
         </is>
       </c>
-      <c r="BS10" t="inlineStr"/>
-      <c r="BT10" t="inlineStr">
+      <c r="BT10" t="inlineStr"/>
+      <c r="BU10" t="inlineStr">
         <is>
           <t>Hu: 母丁香; 丁香 (雄丁香)</t>
         </is>
       </c>
-      <c r="BU10" t="inlineStr">
+      <c r="BV10" t="inlineStr">
         <is>
           <t>szegfűszeg</t>
         </is>
       </c>
-      <c r="BV10" t="inlineStr">
+      <c r="BW10" t="inlineStr">
         <is>
           <t>nail-grass-nail</t>
         </is>
       </c>
-      <c r="BW10" t="inlineStr"/>
-      <c r="BX10" t="inlineStr">
+      <c r="BX10" t="inlineStr"/>
+      <c r="BY10" t="inlineStr">
         <is>
           <t>Originally *szegfűszer*, where *fűszer* is the standard Hungarian word for 'spice'</t>
         </is>
       </c>
-      <c r="BY10" t="inlineStr"/>
       <c r="BZ10" t="inlineStr"/>
       <c r="CA10" t="inlineStr"/>
       <c r="CB10" t="inlineStr"/>
       <c r="CC10" t="inlineStr"/>
-      <c r="CD10" t="inlineStr">
+      <c r="CD10" t="inlineStr"/>
+      <c r="CE10" t="inlineStr">
         <is>
           <t>Caryophylli Flos</t>
         </is>
       </c>
-      <c r="CE10" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF10" t="inlineStr">
+      <c r="CF10" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG10" t="inlineStr">
         <is>
           <t>polyu-tcm</t>
         </is>
       </c>
-      <c r="CG10" t="inlineStr">
+      <c r="CH10" t="inlineStr">
         <is>
           <t>https://herbaltcm.sn.polyu.edu.hk/herbal/clove</t>
         </is>
       </c>
-      <c r="CH10" t="inlineStr">
+      <c r="CI10" t="inlineStr">
         <is>
           <t>丁香</t>
         </is>
       </c>
-      <c r="CI10" t="inlineStr">
+      <c r="CJ10" t="inlineStr">
         <is>
           <t>dīngxiāng</t>
         </is>
       </c>
-      <c r="CJ10" t="inlineStr">
+      <c r="CK10" t="inlineStr">
         <is>
           <t>Clove</t>
         </is>
       </c>
-      <c r="CK10" t="inlineStr">
+      <c r="CL10" t="inlineStr">
         <is>
           <t>Dried flower bud of Eugenia cayophyllata Thunb. (Fam. Myrtaceae)</t>
         </is>
       </c>
-      <c r="CL10" t="inlineStr">
+      <c r="CM10" t="inlineStr">
         <is>
           <t>Interior-warming medicina</t>
         </is>
       </c>
-      <c r="CM10" t="inlineStr">
+      <c r="CN10" t="inlineStr">
         <is>
           <t>pungent; warm</t>
         </is>
       </c>
-      <c r="CN10" t="inlineStr">
+      <c r="CO10" t="inlineStr">
         <is>
           <t>Spleen, Stomach, Lung, Kidney</t>
         </is>
       </c>
-      <c r="CO10" t="inlineStr">
+      <c r="CP10" t="inlineStr">
         <is>
           <t>To warm the middle-energizer, check adverse rise of the stomach-qi, and restore the kidney yang</t>
         </is>
       </c>
-      <c r="CP10" t="inlineStr"/>
-      <c r="CQ10" t="inlineStr">
+      <c r="CQ10" t="inlineStr"/>
+      <c r="CR10" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="CR10" t="inlineStr">
+      <c r="CS10" t="inlineStr">
         <is>
           <t>973</t>
         </is>
       </c>
-      <c r="CS10" t="inlineStr"/>
-      <c r="CT10" t="inlineStr">
+      <c r="CT10" t="inlineStr"/>
+      <c r="CU10" t="inlineStr">
         <is>
           <t>https://www.gbif.org/species/3183002</t>
         </is>
       </c>
-      <c r="CU10" t="inlineStr">
+      <c r="CV10" t="inlineStr">
         <is>
           <t>https://tropicos.org/name/22102278</t>
         </is>
       </c>
-      <c r="CV10" t="inlineStr">
+      <c r="CW10" t="inlineStr">
         <is>
           <t>https://eol.org/pages/2508665</t>
         </is>
       </c>
-      <c r="CW10" t="n">
+      <c r="CX10" t="n">
         <v>219868</v>
       </c>
-      <c r="CX10" t="inlineStr">
+      <c r="CY10" t="inlineStr">
         <is>
           <t>लौंग</t>
         </is>
       </c>
-      <c r="CY10" t="inlineStr">
+      <c r="CZ10" t="inlineStr">
         <is>
           <t>laung</t>
         </is>
       </c>
-      <c r="CZ10" t="inlineStr"/>
       <c r="DA10" t="inlineStr"/>
-      <c r="DB10" t="inlineStr">
+      <c r="DB10" t="inlineStr"/>
+      <c r="DC10" t="inlineStr">
         <is>
           <t>cengkih</t>
         </is>
       </c>
-      <c r="DC10" t="inlineStr">
+      <c r="DD10" t="inlineStr">
         <is>
           <t>میخک صدپر</t>
         </is>
       </c>
-      <c r="DD10" t="inlineStr">
+      <c r="DE10" t="inlineStr">
         <is>
           <t>clove</t>
         </is>
       </c>
-      <c r="DE10" t="inlineStr">
+      <c r="DF10" t="inlineStr">
         <is>
           <t>https://partigabor.github.io/aromatica/items/clove</t>
         </is>
       </c>
-      <c r="DF10" t="inlineStr">
+      <c r="DG10" t="inlineStr">
         <is>
           <t>199236</t>
         </is>
       </c>
-      <c r="DG10" t="inlineStr">
+      <c r="DH10" t="inlineStr">
         <is>
           <t>601421-1</t>
         </is>
       </c>
-      <c r="DH10" t="inlineStr">
+      <c r="DI10" t="inlineStr">
         <is>
           <t>Species</t>
         </is>
       </c>
-      <c r="DI10" t="inlineStr">
+      <c r="DJ10" t="inlineStr">
         <is>
           <t>Accepted</t>
         </is>
       </c>
-      <c r="DJ10" t="inlineStr">
+      <c r="DK10" t="inlineStr">
         <is>
           <t>Myrtaceae</t>
         </is>
       </c>
-      <c r="DK10" t="inlineStr"/>
-      <c r="DL10" t="inlineStr">
+      <c r="DL10" t="inlineStr"/>
+      <c r="DM10" t="inlineStr">
         <is>
           <t>Syzygium</t>
         </is>
       </c>
-      <c r="DM10" t="inlineStr"/>
-      <c r="DN10" t="inlineStr">
+      <c r="DN10" t="inlineStr"/>
+      <c r="DO10" t="inlineStr">
         <is>
           <t>aromaticum</t>
         </is>
       </c>
-      <c r="DO10" t="inlineStr"/>
       <c r="DP10" t="inlineStr"/>
-      <c r="DQ10" t="inlineStr">
+      <c r="DQ10" t="inlineStr"/>
+      <c r="DR10" t="inlineStr">
         <is>
           <t>L.</t>
         </is>
       </c>
-      <c r="DR10" t="inlineStr">
+      <c r="DS10" t="inlineStr">
         <is>
           <t>Merr. &amp; L.M.Perry</t>
         </is>
       </c>
-      <c r="DS10" t="inlineStr"/>
-      <c r="DT10" t="inlineStr">
+      <c r="DT10" t="inlineStr"/>
+      <c r="DU10" t="inlineStr">
         <is>
           <t>Mem. Amer. Acad. Arts</t>
         </is>
       </c>
-      <c r="DU10" t="inlineStr">
+      <c r="DV10" t="inlineStr">
         <is>
           <t>, n.s., 18: 196</t>
         </is>
       </c>
-      <c r="DV10" t="inlineStr">
+      <c r="DW10" t="inlineStr">
         <is>
           <t>(1939)</t>
         </is>
       </c>
-      <c r="DW10" t="inlineStr"/>
-      <c r="DX10" t="inlineStr">
+      <c r="DX10" t="inlineStr"/>
+      <c r="DY10" t="inlineStr">
         <is>
           <t>Maluku</t>
         </is>
       </c>
-      <c r="DY10" t="inlineStr">
+      <c r="DZ10" t="inlineStr">
         <is>
           <t>shrub or tree</t>
         </is>
       </c>
-      <c r="DZ10" t="inlineStr">
+      <c r="EA10" t="inlineStr">
         <is>
           <t>wet tropical</t>
         </is>
       </c>
-      <c r="EA10" t="inlineStr">
+      <c r="EB10" t="inlineStr">
         <is>
           <t>199236</t>
         </is>
       </c>
-      <c r="EB10" t="inlineStr">
+      <c r="EC10" t="inlineStr">
         <is>
           <t>34675</t>
         </is>
       </c>
-      <c r="EC10" t="inlineStr"/>
       <c r="ED10" t="inlineStr"/>
-      <c r="EE10" t="inlineStr">
+      <c r="EE10" t="inlineStr"/>
+      <c r="EF10" t="inlineStr">
         <is>
           <t>199154</t>
         </is>
       </c>
-      <c r="EF10" t="inlineStr">
+      <c r="EG10" t="inlineStr">
         <is>
           <t>601421-1</t>
         </is>
       </c>
-      <c r="EG10" t="inlineStr"/>
-      <c r="EH10" t="inlineStr">
+      <c r="EH10" t="inlineStr"/>
+      <c r="EI10" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="EI10" t="inlineStr">
+      <c r="EJ10" t="inlineStr">
         <is>
           <t>https://powo.science.kew.org/taxon/601421-1</t>
         </is>
       </c>
-      <c r="EJ10" t="inlineStr">
+      <c r="EK10" t="inlineStr">
         <is>
           <t>Maluku</t>
         </is>
       </c>
-      <c r="EK10" t="inlineStr">
+      <c r="EL10" t="inlineStr">
         <is>
           <t>Gulf of Guinea Is., Tanzania, Comoros, Madagascar, Seychelles, India, Nicobar Is., Borneo, Caroline Is., Trinidad-Tobago</t>
         </is>
       </c>
-      <c r="EL10" t="inlineStr">
+      <c r="EM10" t="inlineStr">
         <is>
           <t>Malesia</t>
         </is>
       </c>
-      <c r="EM10" t="inlineStr">
+      <c r="EN10" t="inlineStr">
         <is>
           <t>ASIA-TROPICAL</t>
         </is>
@@ -5888,7 +5902,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>The dried fruits of an annual herb, also known as cilantro</t>
+          <t>the dried fruits of an annual herb, also known as cilantro</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
@@ -5992,359 +6006,360 @@
           <t>coriander; kuzbura; yansui; husui</t>
         </is>
       </c>
-      <c r="AO11" t="inlineStr">
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr">
         <is>
           <t>Plantae</t>
         </is>
       </c>
-      <c r="AP11" t="inlineStr">
+      <c r="AQ11" t="inlineStr">
         <is>
           <t>fruit</t>
         </is>
       </c>
-      <c r="AQ11" t="inlineStr">
+      <c r="AR11" t="inlineStr">
         <is>
           <t>E. Mediterranean; W. Asia</t>
         </is>
       </c>
-      <c r="AR11" t="inlineStr"/>
-      <c r="AS11" t="n">
+      <c r="AS11" t="inlineStr"/>
+      <c r="AT11" t="n">
         <v>40</v>
       </c>
-      <c r="AT11" t="n">
+      <c r="AU11" t="n">
         <v>45</v>
       </c>
-      <c r="AU11" t="inlineStr">
+      <c r="AV11" t="inlineStr">
         <is>
           <t>Armenia</t>
         </is>
       </c>
-      <c r="AV11" t="inlineStr">
+      <c r="AW11" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
       </c>
-      <c r="AW11" t="inlineStr">
+      <c r="AX11" t="inlineStr">
         <is>
           <t>Argentina; India; Morocco; Romania; Spain; Yugoslavia</t>
         </is>
       </c>
-      <c r="AX11" t="inlineStr">
+      <c r="AY11" t="inlineStr">
         <is>
           <t>light yellow</t>
         </is>
       </c>
-      <c r="AY11" t="inlineStr">
+      <c r="AZ11" t="inlineStr">
         <is>
           <t>warm, aromatic, sweet</t>
         </is>
       </c>
-      <c r="AZ11" t="inlineStr">
+      <c r="BA11" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="BA11" t="inlineStr">
+      <c r="BB11" t="inlineStr">
         <is>
           <t>curries; anti-microbial</t>
         </is>
       </c>
-      <c r="BB11" t="inlineStr">
+      <c r="BC11" t="inlineStr">
         <is>
           <t>Köhler's Medizinal-Pflanzen</t>
         </is>
       </c>
-      <c r="BC11" t="inlineStr">
+      <c r="BD11" t="inlineStr">
         <is>
           <t>II 145</t>
         </is>
       </c>
-      <c r="BD11" t="inlineStr">
+      <c r="BE11" t="inlineStr">
         <is>
           <t>koehler_1887_koehler</t>
         </is>
       </c>
-      <c r="BE11" t="inlineStr">
+      <c r="BF11" t="inlineStr">
         <is>
           <t>https://www.biodiversitylibrary.org/item/10837#page/635/mode/1up</t>
         </is>
       </c>
-      <c r="BF11" t="inlineStr"/>
-      <c r="BG11" t="inlineStr">
+      <c r="BG11" t="inlineStr"/>
+      <c r="BH11" t="inlineStr">
         <is>
           <t>coriander.n.01</t>
         </is>
       </c>
-      <c r="BH11" t="inlineStr">
+      <c r="BI11" t="inlineStr">
         <is>
           <t>coriander.n.02</t>
         </is>
       </c>
-      <c r="BI11" t="inlineStr"/>
-      <c r="BJ11" t="inlineStr">
+      <c r="BJ11" t="inlineStr"/>
+      <c r="BK11" t="inlineStr">
         <is>
           <t>coriander</t>
         </is>
       </c>
-      <c r="BK11" t="inlineStr"/>
-      <c r="BL11" t="inlineStr">
+      <c r="BL11" t="inlineStr"/>
+      <c r="BM11" t="inlineStr">
         <is>
           <t>كزبرة</t>
         </is>
       </c>
-      <c r="BM11" t="inlineStr">
+      <c r="BN11" t="inlineStr">
         <is>
           <t>kuzbara</t>
         </is>
       </c>
-      <c r="BN11" t="inlineStr"/>
       <c r="BO11" t="inlineStr"/>
-      <c r="BP11" t="inlineStr">
+      <c r="BP11" t="inlineStr"/>
+      <c r="BQ11" t="inlineStr">
         <is>
           <t>芫荽</t>
         </is>
       </c>
-      <c r="BQ11" t="inlineStr">
+      <c r="BR11" t="inlineStr">
         <is>
           <t>yán​sui</t>
         </is>
       </c>
-      <c r="BR11" t="inlineStr">
+      <c r="BS11" t="inlineStr">
         <is>
           <t>lilac-coriander</t>
         </is>
       </c>
-      <c r="BS11" t="inlineStr"/>
-      <c r="BT11" t="inlineStr">
+      <c r="BT11" t="inlineStr"/>
+      <c r="BU11" t="inlineStr">
         <is>
           <t>胡荽 (芫荽); 芫荽仁 (芫荽子)</t>
         </is>
       </c>
-      <c r="BU11" t="inlineStr">
+      <c r="BV11" t="inlineStr">
         <is>
           <t>koriander</t>
         </is>
       </c>
-      <c r="BV11" t="inlineStr"/>
-      <c r="BW11" t="inlineStr">
+      <c r="BW11" t="inlineStr"/>
+      <c r="BX11" t="inlineStr">
         <is>
           <t>cigánypetrezselyem [gipsy-parsley]</t>
         </is>
       </c>
-      <c r="BX11" t="inlineStr"/>
       <c r="BY11" t="inlineStr"/>
       <c r="BZ11" t="inlineStr"/>
       <c r="CA11" t="inlineStr"/>
       <c r="CB11" t="inlineStr"/>
       <c r="CC11" t="inlineStr"/>
-      <c r="CD11" t="inlineStr">
+      <c r="CD11" t="inlineStr"/>
+      <c r="CE11" t="inlineStr">
         <is>
           <t>Fructus Coriandri; Semen Coriandri</t>
         </is>
       </c>
-      <c r="CE11" t="inlineStr"/>
       <c r="CF11" t="inlineStr"/>
       <c r="CG11" t="inlineStr"/>
-      <c r="CH11" t="inlineStr">
+      <c r="CH11" t="inlineStr"/>
+      <c r="CI11" t="inlineStr">
         <is>
           <t>芫荽子</t>
         </is>
       </c>
-      <c r="CI11" t="inlineStr">
+      <c r="CJ11" t="inlineStr">
         <is>
           <t>yán​suizǐ</t>
         </is>
       </c>
-      <c r="CJ11" t="inlineStr"/>
       <c r="CK11" t="inlineStr"/>
       <c r="CL11" t="inlineStr"/>
       <c r="CM11" t="inlineStr"/>
       <c r="CN11" t="inlineStr"/>
       <c r="CO11" t="inlineStr"/>
       <c r="CP11" t="inlineStr"/>
-      <c r="CQ11" t="inlineStr">
+      <c r="CQ11" t="inlineStr"/>
+      <c r="CR11" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="CR11" t="inlineStr">
+      <c r="CS11" t="inlineStr">
         <is>
           <t>1061</t>
         </is>
       </c>
-      <c r="CS11" t="inlineStr"/>
-      <c r="CT11" t="inlineStr">
+      <c r="CT11" t="inlineStr"/>
+      <c r="CU11" t="inlineStr">
         <is>
           <t>https://www.gbif.org/species/3034871</t>
         </is>
       </c>
-      <c r="CU11" t="inlineStr">
+      <c r="CV11" t="inlineStr">
         <is>
           <t>https://tropicos.org/name/1700064</t>
         </is>
       </c>
-      <c r="CV11" t="inlineStr">
+      <c r="CW11" t="inlineStr">
         <is>
           <t>https://eol.org/pages/581687</t>
         </is>
       </c>
-      <c r="CW11" t="n">
+      <c r="CX11" t="n">
         <v>4047</v>
       </c>
-      <c r="CX11" t="inlineStr">
+      <c r="CY11" t="inlineStr">
         <is>
           <t xml:space="preserve">धनिया </t>
         </is>
       </c>
-      <c r="CY11" t="inlineStr">
+      <c r="CZ11" t="inlineStr">
         <is>
           <t>dhaniyā</t>
         </is>
       </c>
-      <c r="CZ11" t="inlineStr"/>
       <c r="DA11" t="inlineStr"/>
-      <c r="DB11" t="inlineStr">
+      <c r="DB11" t="inlineStr"/>
+      <c r="DC11" t="inlineStr">
         <is>
           <t>ketumbar</t>
         </is>
       </c>
-      <c r="DC11" t="inlineStr">
+      <c r="DD11" t="inlineStr">
         <is>
           <t xml:space="preserve">گشنیز </t>
         </is>
       </c>
-      <c r="DD11" t="inlineStr">
+      <c r="DE11" t="inlineStr">
         <is>
           <t>coriander</t>
         </is>
       </c>
-      <c r="DE11" t="inlineStr">
+      <c r="DF11" t="inlineStr">
         <is>
           <t>https://partigabor.github.io/aromatica/items/coriander</t>
         </is>
       </c>
-      <c r="DF11" t="inlineStr">
+      <c r="DG11" t="inlineStr">
         <is>
           <t>2737546</t>
         </is>
       </c>
-      <c r="DG11" t="inlineStr">
+      <c r="DH11" t="inlineStr">
         <is>
           <t>840760-1</t>
         </is>
       </c>
-      <c r="DH11" t="inlineStr">
+      <c r="DI11" t="inlineStr">
         <is>
           <t>Species</t>
         </is>
       </c>
-      <c r="DI11" t="inlineStr">
+      <c r="DJ11" t="inlineStr">
         <is>
           <t>Accepted</t>
         </is>
       </c>
-      <c r="DJ11" t="inlineStr">
+      <c r="DK11" t="inlineStr">
         <is>
           <t>Apiaceae</t>
         </is>
       </c>
-      <c r="DK11" t="inlineStr"/>
-      <c r="DL11" t="inlineStr">
+      <c r="DL11" t="inlineStr"/>
+      <c r="DM11" t="inlineStr">
         <is>
           <t>Coriandrum</t>
         </is>
       </c>
-      <c r="DM11" t="inlineStr"/>
-      <c r="DN11" t="inlineStr">
+      <c r="DN11" t="inlineStr"/>
+      <c r="DO11" t="inlineStr">
         <is>
           <t>sativum</t>
         </is>
       </c>
-      <c r="DO11" t="inlineStr"/>
       <c r="DP11" t="inlineStr"/>
       <c r="DQ11" t="inlineStr"/>
-      <c r="DR11" t="inlineStr">
+      <c r="DR11" t="inlineStr"/>
+      <c r="DS11" t="inlineStr">
         <is>
           <t>L.</t>
         </is>
       </c>
-      <c r="DS11" t="inlineStr"/>
-      <c r="DT11" t="inlineStr">
+      <c r="DT11" t="inlineStr"/>
+      <c r="DU11" t="inlineStr">
         <is>
           <t>Sp. Pl.</t>
         </is>
       </c>
-      <c r="DU11" t="inlineStr">
+      <c r="DV11" t="inlineStr">
         <is>
           <t>: 256</t>
         </is>
       </c>
-      <c r="DV11" t="inlineStr">
+      <c r="DW11" t="inlineStr">
         <is>
           <t>(1753)</t>
         </is>
       </c>
-      <c r="DW11" t="inlineStr"/>
-      <c r="DX11" t="inlineStr">
+      <c r="DX11" t="inlineStr"/>
+      <c r="DY11" t="inlineStr">
         <is>
           <t>E. Medit. to Pakistan</t>
         </is>
       </c>
-      <c r="DY11" t="inlineStr">
+      <c r="DZ11" t="inlineStr">
         <is>
           <t>annual</t>
         </is>
       </c>
-      <c r="DZ11" t="inlineStr">
+      <c r="EA11" t="inlineStr">
         <is>
           <t>subtropical</t>
         </is>
       </c>
-      <c r="EA11" t="inlineStr">
+      <c r="EB11" t="inlineStr">
         <is>
           <t>2737546</t>
         </is>
       </c>
-      <c r="EB11" t="inlineStr"/>
       <c r="EC11" t="inlineStr"/>
       <c r="ED11" t="inlineStr"/>
-      <c r="EE11" t="inlineStr">
+      <c r="EE11" t="inlineStr"/>
+      <c r="EF11" t="inlineStr">
         <is>
           <t>2737532</t>
         </is>
       </c>
-      <c r="EF11" t="inlineStr">
+      <c r="EG11" t="inlineStr">
         <is>
           <t>840760-1</t>
         </is>
       </c>
-      <c r="EG11" t="inlineStr"/>
-      <c r="EH11" t="inlineStr">
+      <c r="EH11" t="inlineStr"/>
+      <c r="EI11" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="EI11" t="inlineStr">
+      <c r="EJ11" t="inlineStr">
         <is>
           <t>https://powo.science.kew.org/taxon/840760-1</t>
         </is>
       </c>
-      <c r="EJ11" t="inlineStr">
+      <c r="EK11" t="inlineStr">
         <is>
           <t>North Caucasus, Transcaucasus, Afghanistan, Iran, Lebanon-Syria, Palestine, Sinai, Turkey, Saudi Arabia, Pakistan</t>
         </is>
       </c>
-      <c r="EK11" t="inlineStr">
+      <c r="EL11" t="inlineStr">
         <is>
           <t>Denmark, Finland, Great Britain, Norway, Sweden, Austria, Belgium, Czechoslovakia, Germany, Hungary, Poland, Switzerland, France, Portugal, Spain, Bulgaria, Greece, Italy, Kriti, Romania, Sicilia, Turkey-in-Europe, Yugoslavia, Belarus, Baltic States, Krym, Central European Rus, East European Russia, South European Russi, Ukraine, Algeria, Egypt, Libya, Morocco, Tunisia, Azores, Canary Is., Cape Verde, Madeira, Cameroon, Chad, Eritrea, Ethiopia, Somalia, Sudan, Kenya, Tanzania, Uganda, Angola, Mozambique, Zimbabwe, Cape Provinces, KwaZulu-Natal, Free State, Northern Provinces, Mauritius, Réunion, Rodrigues, West Siberia, Amur, Khabarovsk, Primorye, Kazakhstan, Turkmenistan, Tadzhikistan, Uzbekistan, Cyprus, Iraq, China South-Central, Inner Mongolia, China North-Central, China Southeast, Mongolia, Japan, Korea, Assam, Bangladesh, East Himalaya, India, Nepal, Sri Lanka, Andaman Is., Cambodia, Laos, Nicobar Is., Thailand, Vietnam, Borneo, Jawa, Lesser Sunda Is., Malaya, Maluku, Philippines, Sulawesi, Sumatera, New Guinea, Norfolk Is., New Zealand North, New Zealand South, Fiji, Hawaii, Nova Scotia, Ontario, Québec, Montana, Oregon, Washington, Illinois, Missouri, North Dakota, Oklahoma, South Dakota, Connecticut, Massachusetts, Michigan, New Jersey, New York, Ohio, Pennsylvania, Rhode I., Arizona, California, Nevada, New Mexico, Texas, Delaware, Florida, Louisiana, Maryland, North Carolina, South Carolina, Virginia, Mexico Central, Mexico Northwest, Costa Rica, El Salvador, Guatemala, Cuba, Dominican Republic, Haiti, Puerto Rico, Trinidad-Tobago, Colombia, Ecuador, Peru, Brazil South, Argentina Northeast, Argentina South, Argentina Northwest, Juan Fernández Is., Paraguay</t>
         </is>
       </c>
-      <c r="EL11" t="inlineStr">
+      <c r="EM11" t="inlineStr">
         <is>
           <t>Caucasus, Western Asia, Arabian Peninsula, Indian Subcontinent</t>
         </is>
       </c>
-      <c r="EM11" t="inlineStr">
+      <c r="EN11" t="inlineStr">
         <is>
           <t>ASIA-TEMPERATE, ASIA-TROPICAL</t>
         </is>
@@ -6373,7 +6388,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>The seed of a peach-like fruit of the nutmeg tree of the Moluccas, Indonesia</t>
+          <t>the seed of a peach-like fruit of the nutmeg tree of the Moluccas, Indonesia</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -6477,397 +6492,398 @@
           <t>nutmeg; jawz al-tib; roudoukou</t>
         </is>
       </c>
-      <c r="AO12" t="inlineStr">
+      <c r="AO12" t="inlineStr"/>
+      <c r="AP12" t="inlineStr">
         <is>
           <t>Plantae</t>
         </is>
       </c>
-      <c r="AP12" t="inlineStr">
+      <c r="AQ12" t="inlineStr">
         <is>
           <t>seed</t>
         </is>
       </c>
-      <c r="AQ12" t="inlineStr">
+      <c r="AR12" t="inlineStr">
         <is>
           <t>Moluccas (Indonesia)</t>
         </is>
       </c>
-      <c r="AR12" t="inlineStr"/>
-      <c r="AS12" t="n">
+      <c r="AS12" t="inlineStr"/>
+      <c r="AT12" t="n">
         <v>-4</v>
       </c>
-      <c r="AT12" t="n">
+      <c r="AU12" t="n">
         <v>129</v>
       </c>
-      <c r="AU12" t="inlineStr">
+      <c r="AV12" t="inlineStr">
         <is>
           <t>Run</t>
         </is>
       </c>
-      <c r="AV12" t="inlineStr">
+      <c r="AW12" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
       </c>
-      <c r="AW12" t="inlineStr">
+      <c r="AX12" t="inlineStr">
         <is>
           <t>Grenada; Indonesia</t>
         </is>
       </c>
-      <c r="AX12" t="inlineStr">
+      <c r="AY12" t="inlineStr">
         <is>
           <t>pale brown nut, dark when powdered</t>
         </is>
       </c>
-      <c r="AY12" t="inlineStr">
+      <c r="AZ12" t="inlineStr">
         <is>
           <t>sweet, warm, nutty</t>
         </is>
       </c>
-      <c r="AZ12" t="inlineStr">
+      <c r="BA12" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="BA12" t="inlineStr">
+      <c r="BB12" t="inlineStr">
         <is>
           <t>desserts, eggnog; diahrrhea</t>
         </is>
       </c>
-      <c r="BB12" t="inlineStr">
+      <c r="BC12" t="inlineStr">
         <is>
           <t>Köhler's Medizinal-Pflanzen</t>
         </is>
       </c>
-      <c r="BC12" t="inlineStr">
+      <c r="BD12" t="inlineStr">
         <is>
           <t>II 132</t>
         </is>
       </c>
-      <c r="BD12" t="inlineStr">
+      <c r="BE12" t="inlineStr">
         <is>
           <t>koehler_1887_koehler</t>
         </is>
       </c>
-      <c r="BE12" t="inlineStr">
+      <c r="BF12" t="inlineStr">
         <is>
           <t>https://www.biodiversitylibrary.org/item/10837#page/609/mode/1up</t>
         </is>
       </c>
-      <c r="BF12" t="inlineStr"/>
-      <c r="BG12" t="inlineStr">
+      <c r="BG12" t="inlineStr"/>
+      <c r="BH12" t="inlineStr">
         <is>
           <t>nutmeg.n.01</t>
         </is>
       </c>
-      <c r="BH12" t="inlineStr">
+      <c r="BI12" t="inlineStr">
         <is>
           <t>nutmeg.n.02</t>
         </is>
       </c>
-      <c r="BI12" t="inlineStr"/>
-      <c r="BJ12" t="inlineStr">
+      <c r="BJ12" t="inlineStr"/>
+      <c r="BK12" t="inlineStr">
         <is>
           <t>nutmeg</t>
         </is>
       </c>
-      <c r="BK12" t="inlineStr"/>
-      <c r="BL12" t="inlineStr">
+      <c r="BL12" t="inlineStr"/>
+      <c r="BM12" t="inlineStr">
         <is>
           <t>جوز الطيب</t>
         </is>
       </c>
-      <c r="BM12" t="inlineStr">
+      <c r="BN12" t="inlineStr">
         <is>
           <t>jawz al-ṭīb</t>
         </is>
       </c>
-      <c r="BN12" t="inlineStr">
+      <c r="BO12" t="inlineStr">
         <is>
           <t>fragrant nut</t>
         </is>
       </c>
-      <c r="BO12" t="inlineStr"/>
-      <c r="BP12" t="inlineStr">
+      <c r="BP12" t="inlineStr"/>
+      <c r="BQ12" t="inlineStr">
         <is>
           <t>肉豆蔻</t>
         </is>
       </c>
-      <c r="BQ12" t="inlineStr">
+      <c r="BR12" t="inlineStr">
         <is>
           <t>ròudòukòu</t>
         </is>
       </c>
-      <c r="BR12" t="inlineStr">
+      <c r="BS12" t="inlineStr">
         <is>
           <t>flesh-bean-cardamom</t>
         </is>
       </c>
-      <c r="BS12" t="inlineStr"/>
       <c r="BT12" t="inlineStr"/>
-      <c r="BU12" t="inlineStr">
+      <c r="BU12" t="inlineStr"/>
+      <c r="BV12" t="inlineStr">
         <is>
           <t>szerecsendió</t>
         </is>
       </c>
-      <c r="BV12" t="inlineStr">
+      <c r="BW12" t="inlineStr">
         <is>
           <t>Saracen nut</t>
         </is>
       </c>
-      <c r="BW12" t="inlineStr">
+      <c r="BX12" t="inlineStr">
         <is>
           <t>muskátdió [musk-nut]; mácisdió [mace-nut]</t>
         </is>
       </c>
-      <c r="BX12" t="inlineStr"/>
       <c r="BY12" t="inlineStr"/>
       <c r="BZ12" t="inlineStr"/>
       <c r="CA12" t="inlineStr"/>
       <c r="CB12" t="inlineStr"/>
       <c r="CC12" t="inlineStr"/>
-      <c r="CD12" t="inlineStr">
+      <c r="CD12" t="inlineStr"/>
+      <c r="CE12" t="inlineStr">
         <is>
           <t>Semen Myristicae; Myristicae Semen</t>
         </is>
       </c>
-      <c r="CE12" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF12" t="inlineStr">
+      <c r="CF12" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG12" t="inlineStr">
         <is>
           <t>polyu-tcm</t>
         </is>
       </c>
-      <c r="CG12" t="inlineStr">
+      <c r="CH12" t="inlineStr">
         <is>
           <t>https://herbaltcm.sn.polyu.edu.hk/herbal/nutmeg</t>
         </is>
       </c>
-      <c r="CH12" t="inlineStr">
+      <c r="CI12" t="inlineStr">
         <is>
           <t>肉豆蔻</t>
         </is>
       </c>
-      <c r="CI12" t="inlineStr">
+      <c r="CJ12" t="inlineStr">
         <is>
           <t>ròudòukòu</t>
         </is>
       </c>
-      <c r="CJ12" t="inlineStr">
+      <c r="CK12" t="inlineStr">
         <is>
           <t>Nutmeg</t>
         </is>
       </c>
-      <c r="CK12" t="inlineStr">
+      <c r="CL12" t="inlineStr">
         <is>
           <t>Dried kernel of Myristica fragrans Houtt. (Fam. Myrisyicaceae)</t>
         </is>
       </c>
-      <c r="CL12" t="inlineStr">
+      <c r="CM12" t="inlineStr">
         <is>
           <t>Astringent medicinal</t>
         </is>
       </c>
-      <c r="CM12" t="inlineStr">
+      <c r="CN12" t="inlineStr">
         <is>
           <t>pungent; warm</t>
         </is>
       </c>
-      <c r="CN12" t="inlineStr">
+      <c r="CO12" t="inlineStr">
         <is>
           <t>Spleen, Stomach, Large intestine</t>
         </is>
       </c>
-      <c r="CO12" t="inlineStr">
+      <c r="CP12" t="inlineStr">
         <is>
           <t>To warm the middle and promote the flow of qi, and astringe the intestines and check diarrhea</t>
         </is>
       </c>
-      <c r="CP12" t="inlineStr"/>
-      <c r="CQ12" t="inlineStr">
+      <c r="CQ12" t="inlineStr"/>
+      <c r="CR12" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="CR12" t="inlineStr">
+      <c r="CS12" t="inlineStr">
         <is>
           <t>973</t>
         </is>
       </c>
-      <c r="CS12" t="inlineStr"/>
-      <c r="CT12" t="inlineStr">
+      <c r="CT12" t="inlineStr"/>
+      <c r="CU12" t="inlineStr">
         <is>
           <t>https://www.gbif.org/species/5406817</t>
         </is>
       </c>
-      <c r="CU12" t="inlineStr">
+      <c r="CV12" t="inlineStr">
         <is>
           <t>https://tropicos.org/name/21800077</t>
         </is>
       </c>
-      <c r="CV12" t="inlineStr">
+      <c r="CW12" t="inlineStr">
         <is>
           <t>https://eol.org/pages/596922</t>
         </is>
       </c>
-      <c r="CW12" t="n">
+      <c r="CX12" t="n">
         <v>51089</v>
       </c>
-      <c r="CX12" t="inlineStr">
+      <c r="CY12" t="inlineStr">
         <is>
           <t>जायफल</t>
         </is>
       </c>
-      <c r="CY12" t="inlineStr">
+      <c r="CZ12" t="inlineStr">
         <is>
           <t>jāyaphal</t>
         </is>
       </c>
-      <c r="CZ12" t="inlineStr"/>
       <c r="DA12" t="inlineStr"/>
-      <c r="DB12" t="inlineStr">
+      <c r="DB12" t="inlineStr"/>
+      <c r="DC12" t="inlineStr">
         <is>
           <t>pala</t>
         </is>
       </c>
-      <c r="DC12" t="inlineStr">
+      <c r="DD12" t="inlineStr">
         <is>
           <t>گردوی بویا</t>
         </is>
       </c>
-      <c r="DD12" t="inlineStr">
+      <c r="DE12" t="inlineStr">
         <is>
           <t>nutmeg</t>
         </is>
       </c>
-      <c r="DE12" t="inlineStr">
+      <c r="DF12" t="inlineStr">
         <is>
           <t>https://partigabor.github.io/aromatica/items/nutmeg</t>
         </is>
       </c>
-      <c r="DF12" t="inlineStr">
+      <c r="DG12" t="inlineStr">
         <is>
           <t>2500629</t>
         </is>
       </c>
-      <c r="DG12" t="inlineStr">
+      <c r="DH12" t="inlineStr">
         <is>
           <t>586076-1</t>
         </is>
       </c>
-      <c r="DH12" t="inlineStr">
+      <c r="DI12" t="inlineStr">
         <is>
           <t>Species</t>
         </is>
       </c>
-      <c r="DI12" t="inlineStr">
+      <c r="DJ12" t="inlineStr">
         <is>
           <t>Accepted</t>
         </is>
       </c>
-      <c r="DJ12" t="inlineStr">
+      <c r="DK12" t="inlineStr">
         <is>
           <t>Myristicaceae</t>
         </is>
       </c>
-      <c r="DK12" t="inlineStr"/>
-      <c r="DL12" t="inlineStr">
+      <c r="DL12" t="inlineStr"/>
+      <c r="DM12" t="inlineStr">
         <is>
           <t>Myristica</t>
         </is>
       </c>
-      <c r="DM12" t="inlineStr"/>
-      <c r="DN12" t="inlineStr">
+      <c r="DN12" t="inlineStr"/>
+      <c r="DO12" t="inlineStr">
         <is>
           <t>fragrans</t>
         </is>
       </c>
-      <c r="DO12" t="inlineStr"/>
       <c r="DP12" t="inlineStr"/>
       <c r="DQ12" t="inlineStr"/>
-      <c r="DR12" t="inlineStr">
+      <c r="DR12" t="inlineStr"/>
+      <c r="DS12" t="inlineStr">
         <is>
           <t>Houtt.</t>
         </is>
       </c>
-      <c r="DS12" t="inlineStr"/>
-      <c r="DT12" t="inlineStr">
+      <c r="DT12" t="inlineStr"/>
+      <c r="DU12" t="inlineStr">
         <is>
           <t>Nat. Hist.</t>
         </is>
       </c>
-      <c r="DU12" t="inlineStr">
+      <c r="DV12" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2(3): 333</t>
         </is>
       </c>
-      <c r="DV12" t="inlineStr">
+      <c r="DW12" t="inlineStr">
         <is>
           <t>(1774)</t>
         </is>
       </c>
-      <c r="DW12" t="inlineStr"/>
-      <c r="DX12" t="inlineStr">
+      <c r="DX12" t="inlineStr"/>
+      <c r="DY12" t="inlineStr">
         <is>
           <t>Maluku (Banda Is.)</t>
         </is>
       </c>
-      <c r="DY12" t="inlineStr">
+      <c r="DZ12" t="inlineStr">
         <is>
           <t>tree</t>
         </is>
       </c>
-      <c r="DZ12" t="inlineStr">
+      <c r="EA12" t="inlineStr">
         <is>
           <t>wet tropical</t>
         </is>
       </c>
-      <c r="EA12" t="inlineStr">
+      <c r="EB12" t="inlineStr">
         <is>
           <t>2500629</t>
         </is>
       </c>
-      <c r="EB12" t="inlineStr"/>
       <c r="EC12" t="inlineStr"/>
       <c r="ED12" t="inlineStr"/>
-      <c r="EE12" t="inlineStr">
+      <c r="EE12" t="inlineStr"/>
+      <c r="EF12" t="inlineStr">
         <is>
           <t>2500594</t>
         </is>
       </c>
-      <c r="EF12" t="inlineStr">
+      <c r="EG12" t="inlineStr">
         <is>
           <t>586076-1</t>
         </is>
       </c>
-      <c r="EG12" t="inlineStr"/>
-      <c r="EH12" t="inlineStr">
+      <c r="EH12" t="inlineStr"/>
+      <c r="EI12" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="EI12" t="inlineStr">
+      <c r="EJ12" t="inlineStr">
         <is>
           <t>https://powo.science.kew.org/taxon/586076-1</t>
         </is>
       </c>
-      <c r="EJ12" t="inlineStr">
+      <c r="EK12" t="inlineStr">
         <is>
           <t>Maluku</t>
         </is>
       </c>
-      <c r="EK12" t="inlineStr">
+      <c r="EL12" t="inlineStr">
         <is>
           <t>Gulf of Guinea Is., Comoros, Mauritius, Réunion, China South-Central, China Southeast, Taiwan, Assam, Bangladesh, Laos, Thailand, Vietnam, Jawa, Philippines, Samoa</t>
         </is>
       </c>
-      <c r="EL12" t="inlineStr">
+      <c r="EM12" t="inlineStr">
         <is>
           <t>Malesia</t>
         </is>
       </c>
-      <c r="EM12" t="inlineStr">
+      <c r="EN12" t="inlineStr">
         <is>
           <t>ASIA-TROPICAL</t>
         </is>
@@ -6896,7 +6912,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>The stigmas or styles of the saffron crocus flower; stamen of Crocus sativus</t>
+          <t>the stigmas or styles of the saffron crocus flower; stamen of Crocus sativus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -7000,405 +7016,406 @@
           <t>saffron; zafaran; fanhonghua</t>
         </is>
       </c>
-      <c r="AO13" t="inlineStr">
+      <c r="AO13" t="inlineStr"/>
+      <c r="AP13" t="inlineStr">
         <is>
           <t>Plantae</t>
         </is>
       </c>
-      <c r="AP13" t="inlineStr">
+      <c r="AQ13" t="inlineStr">
         <is>
           <t>stigma (style)</t>
         </is>
       </c>
-      <c r="AQ13" t="inlineStr">
+      <c r="AR13" t="inlineStr">
         <is>
           <t>Greece; Near East</t>
         </is>
       </c>
-      <c r="AR13" t="inlineStr"/>
-      <c r="AS13" t="n">
+      <c r="AS13" t="inlineStr"/>
+      <c r="AT13" t="n">
         <v>36</v>
       </c>
-      <c r="AT13" t="n">
+      <c r="AU13" t="n">
         <v>25</v>
       </c>
-      <c r="AU13" t="inlineStr">
+      <c r="AV13" t="inlineStr">
         <is>
           <t>Santorini</t>
         </is>
       </c>
-      <c r="AV13" t="inlineStr">
+      <c r="AW13" t="inlineStr">
         <is>
           <t>Mediterranean</t>
         </is>
       </c>
-      <c r="AW13" t="inlineStr">
+      <c r="AX13" t="inlineStr">
         <is>
           <t>Iran; Spain; Kashmir; etc.</t>
         </is>
       </c>
-      <c r="AX13" t="inlineStr">
+      <c r="AY13" t="inlineStr">
         <is>
           <t>deep red; dyes in orange</t>
         </is>
       </c>
-      <c r="AY13" t="inlineStr">
+      <c r="AZ13" t="inlineStr">
         <is>
           <t>pungent, bitter</t>
         </is>
       </c>
-      <c r="AZ13" t="inlineStr">
+      <c r="BA13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="BA13" t="inlineStr">
+      <c r="BB13" t="inlineStr">
         <is>
           <t>paella, bouillabaise, rice, tagine, fevers</t>
         </is>
       </c>
-      <c r="BB13" t="inlineStr">
+      <c r="BC13" t="inlineStr">
         <is>
           <t>Köhler's Medizinal-Pflanzen</t>
         </is>
       </c>
-      <c r="BC13" t="inlineStr">
+      <c r="BD13" t="inlineStr">
         <is>
           <t>II 164</t>
         </is>
       </c>
-      <c r="BD13" t="inlineStr">
+      <c r="BE13" t="inlineStr">
         <is>
           <t>koehler_1887_koehler</t>
         </is>
       </c>
-      <c r="BE13" t="inlineStr">
+      <c r="BF13" t="inlineStr">
         <is>
           <t>https://www.biodiversitylibrary.org/item/10837#page/675/mode/1up</t>
         </is>
       </c>
-      <c r="BF13" t="inlineStr"/>
-      <c r="BG13" t="inlineStr">
+      <c r="BG13" t="inlineStr"/>
+      <c r="BH13" t="inlineStr">
         <is>
           <t>saffron.n.01</t>
         </is>
       </c>
-      <c r="BH13" t="inlineStr">
+      <c r="BI13" t="inlineStr">
         <is>
           <t>saffron.n.02</t>
         </is>
       </c>
-      <c r="BI13" t="inlineStr"/>
-      <c r="BJ13" t="inlineStr">
+      <c r="BJ13" t="inlineStr"/>
+      <c r="BK13" t="inlineStr">
         <is>
           <t>saffron</t>
         </is>
       </c>
-      <c r="BK13" t="inlineStr"/>
-      <c r="BL13" t="inlineStr">
+      <c r="BL13" t="inlineStr"/>
+      <c r="BM13" t="inlineStr">
         <is>
           <t>زعفران</t>
         </is>
       </c>
-      <c r="BM13" t="inlineStr">
+      <c r="BN13" t="inlineStr">
         <is>
           <t>zaʿfarān</t>
         </is>
       </c>
-      <c r="BN13" t="inlineStr"/>
       <c r="BO13" t="inlineStr"/>
-      <c r="BP13" t="inlineStr">
+      <c r="BP13" t="inlineStr"/>
+      <c r="BQ13" t="inlineStr">
         <is>
           <t>藏紅花</t>
         </is>
       </c>
-      <c r="BQ13" t="inlineStr">
+      <c r="BR13" t="inlineStr">
         <is>
           <t>zànghónghuā</t>
         </is>
       </c>
-      <c r="BR13" t="inlineStr">
+      <c r="BS13" t="inlineStr">
         <is>
           <t>Tibetan-red-flower</t>
         </is>
       </c>
-      <c r="BS13" t="inlineStr">
+      <c r="BT13" t="inlineStr">
         <is>
           <t>西紅花 *xīhónghuā* [western-red-flower]; 番紅花 *fān​hóng​huā* [foreign-red-flower]</t>
         </is>
       </c>
-      <c r="BT13" t="inlineStr">
+      <c r="BU13" t="inlineStr">
         <is>
           <t>藏紅花</t>
         </is>
       </c>
-      <c r="BU13" t="inlineStr">
+      <c r="BV13" t="inlineStr">
         <is>
           <t>sáfrány</t>
         </is>
       </c>
-      <c r="BV13" t="inlineStr"/>
       <c r="BW13" t="inlineStr"/>
       <c r="BX13" t="inlineStr"/>
       <c r="BY13" t="inlineStr"/>
       <c r="BZ13" t="inlineStr"/>
       <c r="CA13" t="inlineStr"/>
-      <c r="CB13" t="inlineStr">
+      <c r="CB13" t="inlineStr"/>
+      <c r="CC13" t="inlineStr">
         <is>
           <t>Greece or Asia Minor</t>
         </is>
       </c>
-      <c r="CC13" t="inlineStr"/>
-      <c r="CD13" t="inlineStr">
+      <c r="CD13" t="inlineStr"/>
+      <c r="CE13" t="inlineStr">
         <is>
           <t xml:space="preserve">Stigmata Croci; Stylus Croci; Croci Stigma; </t>
         </is>
       </c>
-      <c r="CE13" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF13" t="inlineStr">
+      <c r="CF13" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG13" t="inlineStr">
         <is>
           <t>polyu-tcm</t>
         </is>
       </c>
-      <c r="CG13" t="inlineStr">
+      <c r="CH13" t="inlineStr">
         <is>
           <t>https://herbaltcm.sn.polyu.edu.hk/herbal/saffron</t>
         </is>
       </c>
-      <c r="CH13" t="inlineStr">
+      <c r="CI13" t="inlineStr">
         <is>
           <t>西紅花</t>
         </is>
       </c>
-      <c r="CI13" t="inlineStr">
+      <c r="CJ13" t="inlineStr">
         <is>
           <t>xīhónghuā</t>
         </is>
       </c>
-      <c r="CJ13" t="inlineStr">
+      <c r="CK13" t="inlineStr">
         <is>
           <t>Saffron</t>
         </is>
       </c>
-      <c r="CK13" t="inlineStr">
+      <c r="CL13" t="inlineStr">
         <is>
           <t>Dried stigma of Crocus sativus L. (Fam. Iridaceae)</t>
         </is>
       </c>
-      <c r="CL13" t="inlineStr">
+      <c r="CM13" t="inlineStr">
         <is>
           <t>Blood-activating menstruation regulating medicinal</t>
         </is>
       </c>
-      <c r="CM13" t="inlineStr">
+      <c r="CN13" t="inlineStr">
         <is>
           <t>sweet; neutral</t>
         </is>
       </c>
-      <c r="CN13" t="inlineStr">
+      <c r="CO13" t="inlineStr">
         <is>
           <t>Liver, Heart</t>
         </is>
       </c>
-      <c r="CO13" t="inlineStr">
+      <c r="CP13" t="inlineStr">
         <is>
           <t>To activate blood circulation and eliminate blood stasis, cool the blood and detoxify, and tranquilize</t>
         </is>
       </c>
-      <c r="CP13" t="inlineStr"/>
-      <c r="CQ13" t="inlineStr">
+      <c r="CQ13" t="inlineStr"/>
+      <c r="CR13" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="CR13" t="inlineStr">
+      <c r="CS13" t="inlineStr">
         <is>
           <t>1596</t>
         </is>
       </c>
-      <c r="CS13" t="inlineStr"/>
-      <c r="CT13" t="inlineStr">
+      <c r="CT13" t="inlineStr"/>
+      <c r="CU13" t="inlineStr">
         <is>
           <t>https://www.gbif.org/species/2747430</t>
         </is>
       </c>
-      <c r="CU13" t="inlineStr">
+      <c r="CV13" t="inlineStr">
         <is>
           <t>https://tropicos.org/name/16600120</t>
         </is>
       </c>
-      <c r="CV13" t="inlineStr">
+      <c r="CW13" t="inlineStr">
         <is>
           <t>https://eol.org/pages/488247</t>
         </is>
       </c>
-      <c r="CW13" t="n">
+      <c r="CX13" t="n">
         <v>82528</v>
       </c>
-      <c r="CX13" t="inlineStr">
+      <c r="CY13" t="inlineStr">
         <is>
           <t>केसर</t>
         </is>
       </c>
-      <c r="CY13" t="inlineStr">
+      <c r="CZ13" t="inlineStr">
         <is>
           <t>kesar</t>
         </is>
       </c>
-      <c r="CZ13" t="inlineStr">
+      <c r="DA13" t="inlineStr">
         <is>
           <t>hair, mane</t>
         </is>
       </c>
-      <c r="DA13" t="inlineStr">
+      <c r="DB13" t="inlineStr">
         <is>
           <t>कुंकुम; जाफरान; सैफ्रन</t>
         </is>
       </c>
-      <c r="DB13" t="inlineStr">
+      <c r="DC13" t="inlineStr">
         <is>
           <t>kuma-kuma; safron</t>
         </is>
       </c>
-      <c r="DC13" t="inlineStr">
+      <c r="DD13" t="inlineStr">
         <is>
           <t xml:space="preserve">زعفران </t>
         </is>
       </c>
-      <c r="DD13" t="inlineStr">
+      <c r="DE13" t="inlineStr">
         <is>
           <t>saffron</t>
         </is>
       </c>
-      <c r="DE13" t="inlineStr">
+      <c r="DF13" t="inlineStr">
         <is>
           <t>https://partigabor.github.io/aromatica/items/saffron</t>
         </is>
       </c>
-      <c r="DF13" t="inlineStr">
+      <c r="DG13" t="inlineStr">
         <is>
           <t>327454</t>
         </is>
       </c>
-      <c r="DG13" t="inlineStr">
+      <c r="DH13" t="inlineStr">
         <is>
           <t>436688-1</t>
         </is>
       </c>
-      <c r="DH13" t="inlineStr">
+      <c r="DI13" t="inlineStr">
         <is>
           <t>Species</t>
         </is>
       </c>
-      <c r="DI13" t="inlineStr">
+      <c r="DJ13" t="inlineStr">
         <is>
           <t>Accepted</t>
         </is>
       </c>
-      <c r="DJ13" t="inlineStr">
+      <c r="DK13" t="inlineStr">
         <is>
           <t>Iridaceae</t>
         </is>
       </c>
-      <c r="DK13" t="inlineStr"/>
-      <c r="DL13" t="inlineStr">
+      <c r="DL13" t="inlineStr"/>
+      <c r="DM13" t="inlineStr">
         <is>
           <t>Crocus</t>
         </is>
       </c>
-      <c r="DM13" t="inlineStr"/>
-      <c r="DN13" t="inlineStr">
+      <c r="DN13" t="inlineStr"/>
+      <c r="DO13" t="inlineStr">
         <is>
           <t>sativus</t>
         </is>
       </c>
-      <c r="DO13" t="inlineStr"/>
       <c r="DP13" t="inlineStr"/>
       <c r="DQ13" t="inlineStr"/>
-      <c r="DR13" t="inlineStr">
+      <c r="DR13" t="inlineStr"/>
+      <c r="DS13" t="inlineStr">
         <is>
           <t>L.</t>
         </is>
       </c>
-      <c r="DS13" t="inlineStr"/>
-      <c r="DT13" t="inlineStr">
+      <c r="DT13" t="inlineStr"/>
+      <c r="DU13" t="inlineStr">
         <is>
           <t>Sp. Pl.</t>
         </is>
       </c>
-      <c r="DU13" t="inlineStr">
+      <c r="DV13" t="inlineStr">
         <is>
           <t>: 36</t>
         </is>
       </c>
-      <c r="DV13" t="inlineStr">
+      <c r="DW13" t="inlineStr">
         <is>
           <t>(1753)</t>
         </is>
       </c>
-      <c r="DW13" t="inlineStr"/>
-      <c r="DX13" t="inlineStr">
+      <c r="DX13" t="inlineStr"/>
+      <c r="DY13" t="inlineStr">
         <is>
           <t>a cultigen from Greece</t>
         </is>
       </c>
-      <c r="DY13" t="inlineStr">
+      <c r="DZ13" t="inlineStr">
         <is>
           <t>tuberous geophyte</t>
         </is>
       </c>
-      <c r="DZ13" t="inlineStr">
+      <c r="EA13" t="inlineStr">
         <is>
           <t>subtropical</t>
         </is>
       </c>
-      <c r="EA13" t="inlineStr">
+      <c r="EB13" t="inlineStr">
         <is>
           <t>327454</t>
         </is>
       </c>
-      <c r="EB13" t="inlineStr"/>
       <c r="EC13" t="inlineStr"/>
       <c r="ED13" t="inlineStr"/>
-      <c r="EE13" t="inlineStr">
+      <c r="EE13" t="inlineStr"/>
+      <c r="EF13" t="inlineStr">
         <is>
           <t>327117</t>
         </is>
       </c>
-      <c r="EF13" t="inlineStr">
+      <c r="EG13" t="inlineStr">
         <is>
           <t>436688-1</t>
         </is>
       </c>
-      <c r="EG13" t="inlineStr"/>
-      <c r="EH13" t="inlineStr">
+      <c r="EH13" t="inlineStr"/>
+      <c r="EI13" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="EI13" t="inlineStr">
+      <c r="EJ13" t="inlineStr">
         <is>
           <t>https://powo.science.kew.org/taxon/436688-1</t>
         </is>
       </c>
-      <c r="EJ13" t="inlineStr">
+      <c r="EK13" t="inlineStr">
         <is>
           <t>Greece</t>
         </is>
       </c>
-      <c r="EK13" t="inlineStr">
+      <c r="EL13" t="inlineStr">
         <is>
           <t>Czechoslovakia, Spain, Italy, Morocco, Iran, Turkey, Pakistan, West Himalaya</t>
         </is>
       </c>
-      <c r="EL13" t="inlineStr">
+      <c r="EM13" t="inlineStr">
         <is>
           <t>Southeastern Europe</t>
         </is>
       </c>
-      <c r="EM13" t="inlineStr">
+      <c r="EN13" t="inlineStr">
         <is>
           <t>EUROPE</t>
         </is>
@@ -7431,7 +7448,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>The inner bark of the cinnamon tree (Cinnamomum zeylanicum) from Sri Lanka</t>
+          <t>the inner bark of the cinnamon tree (Cinnamomum zeylanicum) from Sri Lanka</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -7549,161 +7566,161 @@
           <t>cinnamon; darsini; qirfa</t>
         </is>
       </c>
-      <c r="AO14" t="inlineStr">
+      <c r="AO14" t="inlineStr"/>
+      <c r="AP14" t="inlineStr">
         <is>
           <t>Plantae</t>
         </is>
       </c>
-      <c r="AP14" t="inlineStr">
+      <c r="AQ14" t="inlineStr">
         <is>
           <t>bark; leaf</t>
         </is>
       </c>
-      <c r="AQ14" t="inlineStr">
+      <c r="AR14" t="inlineStr">
         <is>
           <t>Sri Lanka; SW. India</t>
         </is>
       </c>
-      <c r="AR14" t="inlineStr"/>
-      <c r="AS14" t="n">
+      <c r="AS14" t="inlineStr"/>
+      <c r="AT14" t="n">
         <v>7</v>
       </c>
-      <c r="AT14" t="n">
+      <c r="AU14" t="n">
         <v>81</v>
       </c>
-      <c r="AU14" t="inlineStr">
+      <c r="AV14" t="inlineStr">
         <is>
           <t>Sri Lanka</t>
         </is>
       </c>
-      <c r="AV14" t="inlineStr">
+      <c r="AW14" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
       </c>
-      <c r="AW14" t="inlineStr">
+      <c r="AX14" t="inlineStr">
         <is>
           <t>Sri Lanka; Seychelles; Madagascar; India</t>
         </is>
       </c>
-      <c r="AX14" t="inlineStr">
+      <c r="AY14" t="inlineStr">
         <is>
           <t>warm yellowish-brown, cinnamon</t>
         </is>
       </c>
-      <c r="AY14" t="inlineStr">
+      <c r="AZ14" t="inlineStr">
         <is>
           <t>sweet, fragrant, pungent</t>
         </is>
       </c>
-      <c r="AZ14" t="inlineStr">
+      <c r="BA14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="BA14" t="inlineStr">
+      <c r="BB14" t="inlineStr">
         <is>
           <t>flavor; anti-microbial</t>
         </is>
       </c>
-      <c r="BB14" t="inlineStr">
+      <c r="BC14" t="inlineStr">
         <is>
           <t>Köhler's Medizinal-Pflanzen</t>
         </is>
       </c>
-      <c r="BC14" t="inlineStr">
+      <c r="BD14" t="inlineStr">
         <is>
           <t>I 78</t>
         </is>
       </c>
-      <c r="BD14" t="inlineStr">
+      <c r="BE14" t="inlineStr">
         <is>
           <t>koehler_1887_koehler</t>
         </is>
       </c>
-      <c r="BE14" t="inlineStr">
+      <c r="BF14" t="inlineStr">
         <is>
           <t>https://www.biodiversitylibrary.org/item/10836#page/393/mode/1up</t>
         </is>
       </c>
-      <c r="BF14" t="inlineStr"/>
-      <c r="BG14" t="inlineStr">
+      <c r="BG14" t="inlineStr"/>
+      <c r="BH14" t="inlineStr">
         <is>
           <t>cinnamon.n.02</t>
         </is>
       </c>
-      <c r="BH14" t="inlineStr">
+      <c r="BI14" t="inlineStr">
         <is>
           <t>cinnamon.n.03</t>
         </is>
       </c>
-      <c r="BI14" t="inlineStr"/>
-      <c r="BJ14" t="inlineStr">
+      <c r="BJ14" t="inlineStr"/>
+      <c r="BK14" t="inlineStr">
         <is>
           <t>cinnamon</t>
         </is>
       </c>
-      <c r="BK14" t="inlineStr"/>
-      <c r="BL14" t="inlineStr">
+      <c r="BL14" t="inlineStr"/>
+      <c r="BM14" t="inlineStr">
         <is>
           <t>قرفة</t>
         </is>
       </c>
-      <c r="BM14" t="inlineStr">
+      <c r="BN14" t="inlineStr">
         <is>
           <t>qirfa</t>
         </is>
       </c>
-      <c r="BN14" t="inlineStr">
+      <c r="BO14" t="inlineStr">
         <is>
           <t>rind; bark</t>
         </is>
       </c>
-      <c r="BO14" t="inlineStr">
+      <c r="BP14" t="inlineStr">
         <is>
           <t>*dārsīnī* دارصيني</t>
         </is>
       </c>
-      <c r="BP14" t="inlineStr">
+      <c r="BQ14" t="inlineStr">
         <is>
           <t>錫蘭肉桂</t>
         </is>
       </c>
-      <c r="BQ14" t="inlineStr">
+      <c r="BR14" t="inlineStr">
         <is>
           <t>xīlánròuguì</t>
         </is>
       </c>
-      <c r="BR14" t="inlineStr">
+      <c r="BS14" t="inlineStr">
         <is>
           <t>Ceylon-flesh-cinnamon</t>
         </is>
       </c>
-      <c r="BS14" t="inlineStr"/>
       <c r="BT14" t="inlineStr"/>
-      <c r="BU14" t="inlineStr">
+      <c r="BU14" t="inlineStr"/>
+      <c r="BV14" t="inlineStr">
         <is>
           <t>fahéj</t>
         </is>
       </c>
-      <c r="BV14" t="inlineStr">
+      <c r="BW14" t="inlineStr">
         <is>
           <t>tree-bark</t>
         </is>
       </c>
-      <c r="BW14" t="inlineStr"/>
       <c r="BX14" t="inlineStr"/>
       <c r="BY14" t="inlineStr"/>
       <c r="BZ14" t="inlineStr"/>
       <c r="CA14" t="inlineStr"/>
       <c r="CB14" t="inlineStr"/>
       <c r="CC14" t="inlineStr"/>
-      <c r="CD14" t="inlineStr">
+      <c r="CD14" t="inlineStr"/>
+      <c r="CE14" t="inlineStr">
         <is>
           <t>Cortex Cinnamoni</t>
         </is>
       </c>
-      <c r="CE14" t="inlineStr"/>
       <c r="CF14" t="inlineStr"/>
       <c r="CG14" t="inlineStr"/>
       <c r="CH14" t="inlineStr"/>
@@ -7718,194 +7735,195 @@
       <c r="CQ14" t="inlineStr"/>
       <c r="CR14" t="inlineStr"/>
       <c r="CS14" t="inlineStr"/>
-      <c r="CT14" t="inlineStr">
+      <c r="CT14" t="inlineStr"/>
+      <c r="CU14" t="inlineStr">
         <is>
           <t>https://www.gbif.org/species/3033987</t>
         </is>
       </c>
-      <c r="CU14" t="inlineStr">
+      <c r="CV14" t="inlineStr">
         <is>
           <t>https://tropicos.org/name/17800682</t>
         </is>
       </c>
-      <c r="CV14" t="inlineStr">
+      <c r="CW14" t="inlineStr">
         <is>
           <t>https://eol.org/pages/490672</t>
         </is>
       </c>
-      <c r="CW14" t="n">
+      <c r="CX14" t="n">
         <v>128608</v>
       </c>
-      <c r="CX14" t="inlineStr">
+      <c r="CY14" t="inlineStr">
         <is>
           <t>दालचीनी</t>
         </is>
       </c>
-      <c r="CY14" t="inlineStr">
+      <c r="CZ14" t="inlineStr">
         <is>
           <t>dālchīnī</t>
         </is>
       </c>
-      <c r="CZ14" t="inlineStr"/>
-      <c r="DA14" t="inlineStr">
-        <is>
-          <t>दारचीनी</t>
-        </is>
-      </c>
+      <c r="DA14" t="inlineStr"/>
       <c r="DB14" t="inlineStr">
         <is>
+          <t>दारचीनी darchini</t>
+        </is>
+      </c>
+      <c r="DC14" t="inlineStr">
+        <is>
           <t>kayu manis</t>
         </is>
       </c>
-      <c r="DC14" t="inlineStr">
+      <c r="DD14" t="inlineStr">
         <is>
           <t xml:space="preserve">دارچین </t>
         </is>
       </c>
-      <c r="DD14" t="inlineStr">
+      <c r="DE14" t="inlineStr">
         <is>
           <t>cinnamon</t>
         </is>
       </c>
-      <c r="DE14" t="inlineStr">
+      <c r="DF14" t="inlineStr">
         <is>
           <t>https://partigabor.github.io/aromatica/items/cinnamon</t>
         </is>
       </c>
-      <c r="DF14" t="inlineStr">
+      <c r="DG14" t="inlineStr">
         <is>
           <t>2721692</t>
         </is>
       </c>
-      <c r="DG14" t="inlineStr">
+      <c r="DH14" t="inlineStr">
         <is>
           <t>463752-1</t>
         </is>
       </c>
-      <c r="DH14" t="inlineStr">
+      <c r="DI14" t="inlineStr">
         <is>
           <t>Species</t>
         </is>
       </c>
-      <c r="DI14" t="inlineStr">
+      <c r="DJ14" t="inlineStr">
         <is>
           <t>Accepted</t>
         </is>
       </c>
-      <c r="DJ14" t="inlineStr">
+      <c r="DK14" t="inlineStr">
         <is>
           <t>Lauraceae</t>
         </is>
       </c>
-      <c r="DK14" t="inlineStr"/>
-      <c r="DL14" t="inlineStr">
+      <c r="DL14" t="inlineStr"/>
+      <c r="DM14" t="inlineStr">
         <is>
           <t>Cinnamomum</t>
         </is>
       </c>
-      <c r="DM14" t="inlineStr"/>
-      <c r="DN14" t="inlineStr">
+      <c r="DN14" t="inlineStr"/>
+      <c r="DO14" t="inlineStr">
         <is>
           <t>verum</t>
         </is>
       </c>
-      <c r="DO14" t="inlineStr"/>
       <c r="DP14" t="inlineStr"/>
       <c r="DQ14" t="inlineStr"/>
-      <c r="DR14" t="inlineStr">
+      <c r="DR14" t="inlineStr"/>
+      <c r="DS14" t="inlineStr">
         <is>
           <t>J.Presl</t>
         </is>
       </c>
-      <c r="DS14" t="inlineStr">
+      <c r="DT14" t="inlineStr">
         <is>
           <t>F.Berchtold &amp; J.S.Presl</t>
         </is>
       </c>
-      <c r="DT14" t="inlineStr">
+      <c r="DU14" t="inlineStr">
         <is>
           <t>Přir. Rostlin Aneb. Rostl.</t>
         </is>
       </c>
-      <c r="DU14" t="inlineStr">
+      <c r="DV14" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2: 36</t>
         </is>
       </c>
-      <c r="DV14" t="inlineStr">
+      <c r="DW14" t="inlineStr">
         <is>
           <t>(1823)</t>
         </is>
       </c>
-      <c r="DW14" t="inlineStr"/>
-      <c r="DX14" t="inlineStr">
+      <c r="DX14" t="inlineStr"/>
+      <c r="DY14" t="inlineStr">
         <is>
           <t>Sri Lanka</t>
         </is>
       </c>
-      <c r="DY14" t="inlineStr">
+      <c r="DZ14" t="inlineStr">
         <is>
           <t>tree</t>
         </is>
       </c>
-      <c r="DZ14" t="inlineStr">
+      <c r="EA14" t="inlineStr">
         <is>
           <t>wet tropical</t>
         </is>
       </c>
-      <c r="EA14" t="inlineStr">
+      <c r="EB14" t="inlineStr">
         <is>
           <t>2721692</t>
         </is>
       </c>
-      <c r="EB14" t="inlineStr">
+      <c r="EC14" t="inlineStr">
         <is>
           <t>2349499</t>
         </is>
       </c>
-      <c r="EC14" t="inlineStr">
+      <c r="ED14" t="inlineStr">
         <is>
           <t>L.</t>
         </is>
       </c>
-      <c r="ED14" t="inlineStr"/>
-      <c r="EE14" t="inlineStr">
+      <c r="EE14" t="inlineStr"/>
+      <c r="EF14" t="inlineStr">
         <is>
           <t>2721087</t>
         </is>
       </c>
-      <c r="EF14" t="inlineStr">
+      <c r="EG14" t="inlineStr">
         <is>
           <t>463752-1</t>
         </is>
       </c>
-      <c r="EG14" t="inlineStr"/>
-      <c r="EH14" t="inlineStr">
+      <c r="EH14" t="inlineStr"/>
+      <c r="EI14" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="EI14" t="inlineStr">
+      <c r="EJ14" t="inlineStr">
         <is>
           <t>https://powo.science.kew.org/taxon/463752-1</t>
         </is>
       </c>
-      <c r="EJ14" t="inlineStr">
+      <c r="EK14" t="inlineStr">
         <is>
           <t>Sri Lanka</t>
         </is>
       </c>
-      <c r="EK14" t="inlineStr">
+      <c r="EL14" t="inlineStr">
         <is>
           <t>Gulf of Guinea Is., Tanzania, Angola, Comoros, Mauritius, Seychelles, China Southeast, Taiwan, Assam, Bangladesh, India, Cambodia, Myanmar, Vietnam, Borneo, Jawa, Philippines, Fiji, Samoa, Cook Is., Society Is., Caroline Is., Hawaii, Leeward Is., Windward Is., Brazil Southeast, Argentina Northeast</t>
         </is>
       </c>
-      <c r="EL14" t="inlineStr">
+      <c r="EM14" t="inlineStr">
         <is>
           <t>Indian Subcontinent</t>
         </is>
       </c>
-      <c r="EM14" t="inlineStr">
+      <c r="EN14" t="inlineStr">
         <is>
           <t>ASIA-TROPICAL</t>
         </is>
@@ -7918,7 +7936,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -7926,31 +7944,37 @@
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>false peppers</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>mace</t>
+          <t>cubeb</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>The aril (seed-covering) of the nutmeg</t>
+          <t>the dried berries of a Southeast Asian plant resembling black pepper, but with a small stalk attached</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>nutmeg</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>pepper</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Ashanti pepper</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr">
         <is>
           <t>vanwyk_culinary_2014</t>
         </is>
       </c>
-      <c r="K15" t="n">
-        <v>1</v>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -7960,7 +7984,9 @@
       <c r="N15" t="n">
         <v>1</v>
       </c>
-      <c r="O15" t="inlineStr"/>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
       <c r="P15" t="n">
         <v>1</v>
       </c>
@@ -7969,22 +7995,28 @@
           <t>1</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
       <c r="S15" t="n">
         <v>6</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>Myristica fragrans</t>
+          <t>Piper cubeba</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>Houtt.</t>
+          <t>L.f.</t>
         </is>
       </c>
       <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Cubeba officinalis Miq.</t>
+        </is>
+      </c>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr">
         <is>
@@ -7993,37 +8025,33 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>culinary</t>
+          <t>culinary; distillery; medicinal; perfumery</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>https://en.wikipedia.org/wiki/Nutmeg</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>https://www.britannica.com/topic/mace-spice</t>
-        </is>
-      </c>
+          <t>https://en.wikipedia.org/wiki/Piper_cubeba</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>nutmeg tree</t>
+          <t>cubeb; tailed pepper</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>mace</t>
+          <t>cubeb pepper; tailed pepper; Java pepper</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>mace</t>
+          <t>cubeb pepper; tailed pepper; Java pepper</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>Mace</t>
+          <t>Cubebs</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr"/>
@@ -8032,172 +8060,176 @@
       <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
       <c r="AL15" t="inlineStr"/>
-      <c r="AM15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr">
+        <is>
+          <t>cubeb</t>
+        </is>
+      </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>mace; basbas; roudoukoupi</t>
+          <t>cubeb</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
+          <t>https://en.wiktionary.org/wiki/cubeb</t>
+        </is>
+      </c>
+      <c r="AP15" t="inlineStr">
+        <is>
           <t>Plantae</t>
         </is>
       </c>
-      <c r="AP15" t="inlineStr">
-        <is>
-          <t>aril</t>
-        </is>
-      </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>Moluccas (Indonesia)</t>
-        </is>
-      </c>
-      <c r="AR15" t="inlineStr"/>
-      <c r="AS15" t="n">
-        <v>-5</v>
-      </c>
+          <t>unripe fruit</t>
+        </is>
+      </c>
+      <c r="AR15" t="inlineStr">
+        <is>
+          <t>Southeast Asia</t>
+        </is>
+      </c>
+      <c r="AS15" t="inlineStr"/>
       <c r="AT15" t="n">
-        <v>130</v>
-      </c>
-      <c r="AU15" t="inlineStr">
-        <is>
-          <t>Banda Islands</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>101</v>
       </c>
       <c r="AV15" t="inlineStr">
         <is>
+          <t>Sumatra</t>
+        </is>
+      </c>
+      <c r="AW15" t="inlineStr">
+        <is>
           <t>Asia</t>
         </is>
       </c>
-      <c r="AW15" t="inlineStr">
-        <is>
-          <t>Grenada; Indonesia</t>
-        </is>
-      </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>crimson red aril whn fresh, pale yellow when dried</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr">
         <is>
-          <t>sweet, bitter, salty</t>
+          <t>dark brown to black</t>
         </is>
       </c>
       <c r="AZ15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>pungent, camphor-like, peppery</t>
         </is>
       </c>
       <c r="BA15" t="inlineStr">
         <is>
-          <t>confectionary; peptic ulcers</t>
+          <t>3</t>
         </is>
       </c>
       <c r="BB15" t="inlineStr">
         <is>
-          <t>Köhler's Medizinal-Pflanzen</t>
+          <t>gins; cooking; anti-asthma, diuretic</t>
         </is>
       </c>
       <c r="BC15" t="inlineStr">
         <is>
-          <t>II 132</t>
+          <t>Köhler's Medizinal-Pflanzen (1887)</t>
         </is>
       </c>
       <c r="BD15" t="inlineStr">
         <is>
+          <t>II 103</t>
+        </is>
+      </c>
+      <c r="BE15" t="inlineStr">
+        <is>
           <t>koehler_1887_koehler</t>
         </is>
       </c>
-      <c r="BE15" t="inlineStr">
-        <is>
-          <t>https://www.biodiversitylibrary.org/item/10837#page/609/mode/1up</t>
-        </is>
-      </c>
-      <c r="BF15" t="inlineStr"/>
-      <c r="BG15" t="inlineStr">
-        <is>
-          <t>nutmeg.n.01</t>
-        </is>
-      </c>
+      <c r="BF15" t="inlineStr">
+        <is>
+          <t>https://www.biodiversitylibrary.org/item/10837#page/549/mode/1up</t>
+        </is>
+      </c>
+      <c r="BG15" t="inlineStr"/>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>mace.n.03</t>
-        </is>
-      </c>
-      <c r="BI15" t="inlineStr"/>
-      <c r="BJ15" t="inlineStr">
-        <is>
-          <t>mace</t>
-        </is>
-      </c>
-      <c r="BK15" t="inlineStr"/>
-      <c r="BL15" t="inlineStr">
-        <is>
-          <t>بسباسة</t>
-        </is>
-      </c>
+          <t>cubeb.n.02</t>
+        </is>
+      </c>
+      <c r="BI15" t="inlineStr">
+        <is>
+          <t>cubeb.n.01</t>
+        </is>
+      </c>
+      <c r="BJ15" t="inlineStr"/>
+      <c r="BK15" t="inlineStr">
+        <is>
+          <t>cubeb</t>
+        </is>
+      </c>
+      <c r="BL15" t="inlineStr"/>
       <c r="BM15" t="inlineStr">
         <is>
-          <t>basbāsa</t>
-        </is>
-      </c>
-      <c r="BN15" t="inlineStr"/>
-      <c r="BO15" t="inlineStr">
-        <is>
-          <t>*qishrat jawz al-ṭīb* [the peel of the fragrant nut] قشرة جوز الطيب</t>
-        </is>
-      </c>
-      <c r="BP15" t="inlineStr">
-        <is>
-          <t>肉豆蔻皮</t>
-        </is>
-      </c>
+          <t>كبابة</t>
+        </is>
+      </c>
+      <c r="BN15" t="inlineStr">
+        <is>
+          <t>kabāba, kubāba</t>
+        </is>
+      </c>
+      <c r="BO15" t="inlineStr"/>
+      <c r="BP15" t="inlineStr"/>
       <c r="BQ15" t="inlineStr">
         <is>
-          <t>ròudòukòupí</t>
+          <t>蓽澄茄</t>
         </is>
       </c>
       <c r="BR15" t="inlineStr">
         <is>
-          <t>flesh-bean-cardamom-skin</t>
+          <t>bìchéngqié</t>
         </is>
       </c>
       <c r="BS15" t="inlineStr"/>
-      <c r="BT15" t="inlineStr"/>
+      <c r="BT15" t="inlineStr">
+        <is>
+          <t>尾胡椒</t>
+        </is>
+      </c>
       <c r="BU15" t="inlineStr">
         <is>
-          <t>szerecsendió-virág</t>
+          <t>https://en.wiktionary.org/wiki/%E8%93%BD%E6%BE%84%E8%8C%84</t>
         </is>
       </c>
       <c r="BV15" t="inlineStr">
         <is>
-          <t>Saracen nut flower</t>
-        </is>
-      </c>
-      <c r="BW15" t="inlineStr"/>
-      <c r="BX15" t="inlineStr"/>
+          <t>kubébabors</t>
+        </is>
+      </c>
+      <c r="BW15" t="inlineStr">
+        <is>
+          <t>cubeba-pepper</t>
+        </is>
+      </c>
+      <c r="BX15" t="inlineStr">
+        <is>
+          <t>jávai bors [Javanese pepper]</t>
+        </is>
+      </c>
       <c r="BY15" t="inlineStr"/>
       <c r="BZ15" t="inlineStr"/>
       <c r="CA15" t="inlineStr"/>
       <c r="CB15" t="inlineStr"/>
       <c r="CC15" t="inlineStr"/>
-      <c r="CD15" t="inlineStr">
-        <is>
-          <t>Arillus Myristicae</t>
-        </is>
-      </c>
+      <c r="CD15" t="inlineStr"/>
       <c r="CE15" t="inlineStr"/>
       <c r="CF15" t="inlineStr"/>
       <c r="CG15" t="inlineStr"/>
       <c r="CH15" t="inlineStr"/>
       <c r="CI15" t="inlineStr"/>
-      <c r="CJ15" t="inlineStr">
-        <is>
-          <t>Nutmeg</t>
-        </is>
-      </c>
+      <c r="CJ15" t="inlineStr"/>
       <c r="CK15" t="inlineStr"/>
       <c r="CL15" t="inlineStr"/>
       <c r="CM15" t="inlineStr"/>
@@ -8205,178 +8237,1111 @@
       <c r="CO15" t="inlineStr"/>
       <c r="CP15" t="inlineStr"/>
       <c r="CQ15" t="inlineStr"/>
-      <c r="CR15" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
+      <c r="CR15" t="inlineStr"/>
       <c r="CS15" t="inlineStr"/>
-      <c r="CT15" t="inlineStr">
-        <is>
-          <t>https://www.gbif.org/species/5406817</t>
-        </is>
-      </c>
+      <c r="CT15" t="inlineStr"/>
       <c r="CU15" t="inlineStr">
         <is>
-          <t>https://tropicos.org/name/21800077</t>
+          <t>https://www.gbif.org/species/7606629</t>
         </is>
       </c>
       <c r="CV15" t="inlineStr">
         <is>
-          <t>https://eol.org/pages/596922</t>
-        </is>
-      </c>
-      <c r="CW15" t="n">
-        <v>51089</v>
-      </c>
-      <c r="CX15" t="inlineStr">
-        <is>
-          <t>जावित्री</t>
-        </is>
-      </c>
+          <t>http://legacy.tropicos.org/Name/25002639</t>
+        </is>
+      </c>
+      <c r="CW15" t="inlineStr">
+        <is>
+          <t>https://eol.org/pages/51845162</t>
+        </is>
+      </c>
+      <c r="CX15" t="inlineStr"/>
       <c r="CY15" t="inlineStr">
         <is>
-          <t>jāvitrī</t>
-        </is>
-      </c>
-      <c r="CZ15" t="inlineStr"/>
-      <c r="DA15" t="inlineStr"/>
+          <t xml:space="preserve">कबाबचीनी </t>
+        </is>
+      </c>
+      <c r="CZ15" t="inlineStr">
+        <is>
+          <t>kabābchīnī</t>
+        </is>
+      </c>
+      <c r="DA15" t="inlineStr">
+        <is>
+          <t>Chinese-cubeb</t>
+        </is>
+      </c>
       <c r="DB15" t="inlineStr"/>
-      <c r="DC15" t="inlineStr"/>
+      <c r="DC15" t="inlineStr">
+        <is>
+          <t>kemukus</t>
+        </is>
+      </c>
       <c r="DD15" t="inlineStr">
         <is>
-          <t>mace</t>
+          <t>کبابهٔ چینی‎</t>
         </is>
       </c>
       <c r="DE15" t="inlineStr">
         <is>
-          <t>https://partigabor.github.io/aromatica/items/mace</t>
+          <t>cubeb</t>
         </is>
       </c>
       <c r="DF15" t="inlineStr">
         <is>
-          <t>2500629</t>
+          <t>https://partigabor.github.io/aromatica/items/cubeb</t>
         </is>
       </c>
       <c r="DG15" t="inlineStr">
         <is>
-          <t>586076-1</t>
+          <t>2557647</t>
         </is>
       </c>
       <c r="DH15" t="inlineStr">
         <is>
+          <t>681071-1</t>
+        </is>
+      </c>
+      <c r="DI15" t="inlineStr">
+        <is>
           <t>Species</t>
         </is>
       </c>
-      <c r="DI15" t="inlineStr">
+      <c r="DJ15" t="inlineStr">
         <is>
           <t>Accepted</t>
         </is>
       </c>
-      <c r="DJ15" t="inlineStr">
-        <is>
-          <t>Myristicaceae</t>
-        </is>
-      </c>
-      <c r="DK15" t="inlineStr"/>
-      <c r="DL15" t="inlineStr">
-        <is>
-          <t>Myristica</t>
-        </is>
-      </c>
-      <c r="DM15" t="inlineStr"/>
-      <c r="DN15" t="inlineStr">
-        <is>
-          <t>fragrans</t>
-        </is>
-      </c>
-      <c r="DO15" t="inlineStr"/>
+      <c r="DK15" t="inlineStr">
+        <is>
+          <t>Piperaceae</t>
+        </is>
+      </c>
+      <c r="DL15" t="inlineStr"/>
+      <c r="DM15" t="inlineStr">
+        <is>
+          <t>Piper</t>
+        </is>
+      </c>
+      <c r="DN15" t="inlineStr"/>
+      <c r="DO15" t="inlineStr">
+        <is>
+          <t>cubeba</t>
+        </is>
+      </c>
       <c r="DP15" t="inlineStr"/>
       <c r="DQ15" t="inlineStr"/>
-      <c r="DR15" t="inlineStr">
-        <is>
-          <t>Houtt.</t>
-        </is>
-      </c>
-      <c r="DS15" t="inlineStr"/>
-      <c r="DT15" t="inlineStr">
-        <is>
-          <t>Nat. Hist.</t>
-        </is>
-      </c>
+      <c r="DR15" t="inlineStr"/>
+      <c r="DS15" t="inlineStr">
+        <is>
+          <t>L.f.</t>
+        </is>
+      </c>
+      <c r="DT15" t="inlineStr"/>
       <c r="DU15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2(3): 333</t>
+          <t>Suppl. Pl.</t>
         </is>
       </c>
       <c r="DV15" t="inlineStr">
         <is>
-          <t>(1774)</t>
-        </is>
-      </c>
-      <c r="DW15" t="inlineStr"/>
-      <c r="DX15" t="inlineStr">
-        <is>
-          <t>Maluku (Banda Is.)</t>
-        </is>
-      </c>
+          <t>: 90</t>
+        </is>
+      </c>
+      <c r="DW15" t="inlineStr">
+        <is>
+          <t>(1782)</t>
+        </is>
+      </c>
+      <c r="DX15" t="inlineStr"/>
       <c r="DY15" t="inlineStr">
         <is>
-          <t>tree</t>
-        </is>
-      </c>
-      <c r="DZ15" t="inlineStr">
+          <t>Indo-China to Malesia</t>
+        </is>
+      </c>
+      <c r="DZ15" t="inlineStr"/>
+      <c r="EA15" t="inlineStr">
         <is>
           <t>wet tropical</t>
         </is>
       </c>
-      <c r="EA15" t="inlineStr">
-        <is>
-          <t>2500629</t>
-        </is>
-      </c>
-      <c r="EB15" t="inlineStr"/>
+      <c r="EB15" t="inlineStr">
+        <is>
+          <t>2557647</t>
+        </is>
+      </c>
       <c r="EC15" t="inlineStr"/>
       <c r="ED15" t="inlineStr"/>
-      <c r="EE15" t="inlineStr">
+      <c r="EE15" t="inlineStr"/>
+      <c r="EF15" t="inlineStr">
+        <is>
+          <t>2555110</t>
+        </is>
+      </c>
+      <c r="EG15" t="inlineStr">
+        <is>
+          <t>681071-1</t>
+        </is>
+      </c>
+      <c r="EH15" t="inlineStr"/>
+      <c r="EI15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="EJ15" t="inlineStr">
+        <is>
+          <t>https://powo.science.kew.org/taxon/681071-1</t>
+        </is>
+      </c>
+      <c r="EK15" t="inlineStr">
+        <is>
+          <t>Cambodia, Myanmar, Vietnam, Borneo, Lesser Sunda Is., Malaya, Maluku, Sulawesi, Sumatera</t>
+        </is>
+      </c>
+      <c r="EL15" t="inlineStr"/>
+      <c r="EM15" t="inlineStr">
+        <is>
+          <t>Indo-China, Malesia</t>
+        </is>
+      </c>
+      <c r="EN15" t="inlineStr">
+        <is>
+          <t>ASIA-TROPICAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>58</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>mace</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>the aril (seed-covering) of the nutmeg</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>nutmeg</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>vanwyk_culinary_2014</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="n">
+        <v>6</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Myristica fragrans</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Houtt.</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>culinary</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Nutmeg</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>https://www.britannica.com/topic/mace-spice</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>nutmeg tree</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>mace</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>mace</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>Mace</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>mace; basbas; roudoukoupi</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr"/>
+      <c r="AP16" t="inlineStr">
+        <is>
+          <t>Plantae</t>
+        </is>
+      </c>
+      <c r="AQ16" t="inlineStr">
+        <is>
+          <t>aril</t>
+        </is>
+      </c>
+      <c r="AR16" t="inlineStr">
+        <is>
+          <t>Moluccas (Indonesia)</t>
+        </is>
+      </c>
+      <c r="AS16" t="inlineStr"/>
+      <c r="AT16" t="n">
+        <v>-5</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>130</v>
+      </c>
+      <c r="AV16" t="inlineStr">
+        <is>
+          <t>Banda Islands</t>
+        </is>
+      </c>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Grenada; Indonesia</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr">
+        <is>
+          <t>crimson red aril whn fresh, pale yellow when dried</t>
+        </is>
+      </c>
+      <c r="AZ16" t="inlineStr">
+        <is>
+          <t>sweet, bitter, salty</t>
+        </is>
+      </c>
+      <c r="BA16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BB16" t="inlineStr">
+        <is>
+          <t>confectionary; peptic ulcers</t>
+        </is>
+      </c>
+      <c r="BC16" t="inlineStr">
+        <is>
+          <t>Köhler's Medizinal-Pflanzen</t>
+        </is>
+      </c>
+      <c r="BD16" t="inlineStr">
+        <is>
+          <t>II 132</t>
+        </is>
+      </c>
+      <c r="BE16" t="inlineStr">
+        <is>
+          <t>koehler_1887_koehler</t>
+        </is>
+      </c>
+      <c r="BF16" t="inlineStr">
+        <is>
+          <t>https://www.biodiversitylibrary.org/item/10837#page/609/mode/1up</t>
+        </is>
+      </c>
+      <c r="BG16" t="inlineStr"/>
+      <c r="BH16" t="inlineStr">
+        <is>
+          <t>nutmeg.n.01</t>
+        </is>
+      </c>
+      <c r="BI16" t="inlineStr">
+        <is>
+          <t>mace.n.03</t>
+        </is>
+      </c>
+      <c r="BJ16" t="inlineStr"/>
+      <c r="BK16" t="inlineStr">
+        <is>
+          <t>mace</t>
+        </is>
+      </c>
+      <c r="BL16" t="inlineStr"/>
+      <c r="BM16" t="inlineStr">
+        <is>
+          <t>بسباسة</t>
+        </is>
+      </c>
+      <c r="BN16" t="inlineStr">
+        <is>
+          <t>basbāsa</t>
+        </is>
+      </c>
+      <c r="BO16" t="inlineStr"/>
+      <c r="BP16" t="inlineStr">
+        <is>
+          <t>*qishrat jawz al-ṭīb* [the peel of the fragrant nut] قشرة جوز الطيب</t>
+        </is>
+      </c>
+      <c r="BQ16" t="inlineStr">
+        <is>
+          <t>肉豆蔻皮</t>
+        </is>
+      </c>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>ròudòukòupí</t>
+        </is>
+      </c>
+      <c r="BS16" t="inlineStr">
+        <is>
+          <t>flesh-bean-cardamom-skin</t>
+        </is>
+      </c>
+      <c r="BT16" t="inlineStr"/>
+      <c r="BU16" t="inlineStr"/>
+      <c r="BV16" t="inlineStr">
+        <is>
+          <t>szerecsendió-virág</t>
+        </is>
+      </c>
+      <c r="BW16" t="inlineStr">
+        <is>
+          <t>Saracen nut flower</t>
+        </is>
+      </c>
+      <c r="BX16" t="inlineStr"/>
+      <c r="BY16" t="inlineStr"/>
+      <c r="BZ16" t="inlineStr"/>
+      <c r="CA16" t="inlineStr"/>
+      <c r="CB16" t="inlineStr"/>
+      <c r="CC16" t="inlineStr"/>
+      <c r="CD16" t="inlineStr"/>
+      <c r="CE16" t="inlineStr">
+        <is>
+          <t>Arillus Myristicae</t>
+        </is>
+      </c>
+      <c r="CF16" t="inlineStr"/>
+      <c r="CG16" t="inlineStr"/>
+      <c r="CH16" t="inlineStr"/>
+      <c r="CI16" t="inlineStr"/>
+      <c r="CJ16" t="inlineStr"/>
+      <c r="CK16" t="inlineStr">
+        <is>
+          <t>Nutmeg</t>
+        </is>
+      </c>
+      <c r="CL16" t="inlineStr"/>
+      <c r="CM16" t="inlineStr"/>
+      <c r="CN16" t="inlineStr"/>
+      <c r="CO16" t="inlineStr"/>
+      <c r="CP16" t="inlineStr"/>
+      <c r="CQ16" t="inlineStr"/>
+      <c r="CR16" t="inlineStr"/>
+      <c r="CS16" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="CT16" t="inlineStr"/>
+      <c r="CU16" t="inlineStr">
+        <is>
+          <t>https://www.gbif.org/species/5406817</t>
+        </is>
+      </c>
+      <c r="CV16" t="inlineStr">
+        <is>
+          <t>https://tropicos.org/name/21800077</t>
+        </is>
+      </c>
+      <c r="CW16" t="inlineStr">
+        <is>
+          <t>https://eol.org/pages/596922</t>
+        </is>
+      </c>
+      <c r="CX16" t="n">
+        <v>51089</v>
+      </c>
+      <c r="CY16" t="inlineStr">
+        <is>
+          <t>जावित्री</t>
+        </is>
+      </c>
+      <c r="CZ16" t="inlineStr">
+        <is>
+          <t>jāvitrī</t>
+        </is>
+      </c>
+      <c r="DA16" t="inlineStr"/>
+      <c r="DB16" t="inlineStr"/>
+      <c r="DC16" t="inlineStr"/>
+      <c r="DD16" t="inlineStr"/>
+      <c r="DE16" t="inlineStr">
+        <is>
+          <t>mace</t>
+        </is>
+      </c>
+      <c r="DF16" t="inlineStr">
+        <is>
+          <t>https://partigabor.github.io/aromatica/items/mace</t>
+        </is>
+      </c>
+      <c r="DG16" t="inlineStr">
+        <is>
+          <t>2500629</t>
+        </is>
+      </c>
+      <c r="DH16" t="inlineStr">
+        <is>
+          <t>586076-1</t>
+        </is>
+      </c>
+      <c r="DI16" t="inlineStr">
+        <is>
+          <t>Species</t>
+        </is>
+      </c>
+      <c r="DJ16" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="DK16" t="inlineStr">
+        <is>
+          <t>Myristicaceae</t>
+        </is>
+      </c>
+      <c r="DL16" t="inlineStr"/>
+      <c r="DM16" t="inlineStr">
+        <is>
+          <t>Myristica</t>
+        </is>
+      </c>
+      <c r="DN16" t="inlineStr"/>
+      <c r="DO16" t="inlineStr">
+        <is>
+          <t>fragrans</t>
+        </is>
+      </c>
+      <c r="DP16" t="inlineStr"/>
+      <c r="DQ16" t="inlineStr"/>
+      <c r="DR16" t="inlineStr"/>
+      <c r="DS16" t="inlineStr">
+        <is>
+          <t>Houtt.</t>
+        </is>
+      </c>
+      <c r="DT16" t="inlineStr"/>
+      <c r="DU16" t="inlineStr">
+        <is>
+          <t>Nat. Hist.</t>
+        </is>
+      </c>
+      <c r="DV16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2(3): 333</t>
+        </is>
+      </c>
+      <c r="DW16" t="inlineStr">
+        <is>
+          <t>(1774)</t>
+        </is>
+      </c>
+      <c r="DX16" t="inlineStr"/>
+      <c r="DY16" t="inlineStr">
+        <is>
+          <t>Maluku (Banda Is.)</t>
+        </is>
+      </c>
+      <c r="DZ16" t="inlineStr">
+        <is>
+          <t>tree</t>
+        </is>
+      </c>
+      <c r="EA16" t="inlineStr">
+        <is>
+          <t>wet tropical</t>
+        </is>
+      </c>
+      <c r="EB16" t="inlineStr">
+        <is>
+          <t>2500629</t>
+        </is>
+      </c>
+      <c r="EC16" t="inlineStr"/>
+      <c r="ED16" t="inlineStr"/>
+      <c r="EE16" t="inlineStr"/>
+      <c r="EF16" t="inlineStr">
         <is>
           <t>2500594</t>
         </is>
       </c>
-      <c r="EF15" t="inlineStr">
+      <c r="EG16" t="inlineStr">
         <is>
           <t>586076-1</t>
         </is>
       </c>
-      <c r="EG15" t="inlineStr"/>
-      <c r="EH15" t="inlineStr">
+      <c r="EH16" t="inlineStr"/>
+      <c r="EI16" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="EI15" t="inlineStr">
+      <c r="EJ16" t="inlineStr">
         <is>
           <t>https://powo.science.kew.org/taxon/586076-1</t>
         </is>
       </c>
-      <c r="EJ15" t="inlineStr">
+      <c r="EK16" t="inlineStr">
         <is>
           <t>Maluku</t>
         </is>
       </c>
-      <c r="EK15" t="inlineStr">
+      <c r="EL16" t="inlineStr">
         <is>
           <t>Gulf of Guinea Is., Comoros, Mauritius, Réunion, China South-Central, China Southeast, Taiwan, Assam, Bangladesh, Laos, Thailand, Vietnam, Jawa, Philippines, Samoa</t>
         </is>
       </c>
-      <c r="EL15" t="inlineStr">
+      <c r="EM16" t="inlineStr">
         <is>
           <t>Malesia</t>
         </is>
       </c>
-      <c r="EM15" t="inlineStr">
+      <c r="EN16" t="inlineStr">
         <is>
           <t>ASIA-TROPICAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>61</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>false peppers</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>long pepper</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>the spike-like cluster of fruits of Piper longum</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>pepper; cubeb</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Java long pepper</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>vanwyk_culinary_2014</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Piper longum</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>P. retrofactum Vahl</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>culinary; medicinal</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Long_pepper</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>long pepper plant</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>Indian long pepper; pippali; pipalli</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>Indian long pepper; pippali; pipalli</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>Long pepper</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr"/>
+      <c r="AH17" t="inlineStr"/>
+      <c r="AI17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="inlineStr"/>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>long pepper; darfilfil; biba</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr"/>
+      <c r="AP17" t="inlineStr">
+        <is>
+          <t>Plantae</t>
+        </is>
+      </c>
+      <c r="AQ17" t="inlineStr">
+        <is>
+          <t>fruit</t>
+        </is>
+      </c>
+      <c r="AR17" t="inlineStr">
+        <is>
+          <t>E. Himalaya to S. China; Indo-China; India</t>
+        </is>
+      </c>
+      <c r="AS17" t="inlineStr"/>
+      <c r="AT17" t="n">
+        <v>25</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>82</v>
+      </c>
+      <c r="AV17" t="inlineStr">
+        <is>
+          <t>Varanasi</t>
+        </is>
+      </c>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>India; Indonesia; Thailand</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr">
+        <is>
+          <t>green to red when ripe, dark brown when dried</t>
+        </is>
+      </c>
+      <c r="AZ17" t="inlineStr">
+        <is>
+          <t>pungent, peppery</t>
+        </is>
+      </c>
+      <c r="BA17" t="inlineStr">
+        <is>
+          <t>4-9</t>
+        </is>
+      </c>
+      <c r="BB17" t="inlineStr">
+        <is>
+          <t>South and Souteast Asian cuisine; Ayurveda and TCM</t>
+        </is>
+      </c>
+      <c r="BC17" t="inlineStr"/>
+      <c r="BD17" t="inlineStr"/>
+      <c r="BE17" t="inlineStr"/>
+      <c r="BF17" t="inlineStr"/>
+      <c r="BG17" t="inlineStr"/>
+      <c r="BH17" t="inlineStr">
+        <is>
+          <t>long_pepper.n.01</t>
+        </is>
+      </c>
+      <c r="BI17" t="inlineStr"/>
+      <c r="BJ17" t="inlineStr"/>
+      <c r="BK17" t="inlineStr">
+        <is>
+          <t>long pepper</t>
+        </is>
+      </c>
+      <c r="BL17" t="inlineStr"/>
+      <c r="BM17" t="inlineStr">
+        <is>
+          <t>دارفلفل</t>
+        </is>
+      </c>
+      <c r="BN17" t="inlineStr">
+        <is>
+          <t>dārfilfil</t>
+        </is>
+      </c>
+      <c r="BO17" t="inlineStr"/>
+      <c r="BP17" t="inlineStr"/>
+      <c r="BQ17" t="inlineStr">
+        <is>
+          <t>蓽撥</t>
+        </is>
+      </c>
+      <c r="BR17" t="inlineStr">
+        <is>
+          <t>bìbō</t>
+        </is>
+      </c>
+      <c r="BS17" t="inlineStr"/>
+      <c r="BT17" t="inlineStr"/>
+      <c r="BU17" t="inlineStr"/>
+      <c r="BV17" t="inlineStr">
+        <is>
+          <t>hosszú bors</t>
+        </is>
+      </c>
+      <c r="BW17" t="inlineStr">
+        <is>
+          <t>long-pepper</t>
+        </is>
+      </c>
+      <c r="BX17" t="inlineStr"/>
+      <c r="BY17" t="inlineStr"/>
+      <c r="BZ17" t="inlineStr"/>
+      <c r="CA17" t="inlineStr"/>
+      <c r="CB17" t="inlineStr"/>
+      <c r="CC17" t="inlineStr"/>
+      <c r="CD17" t="inlineStr"/>
+      <c r="CE17" t="inlineStr">
+        <is>
+          <t>Fructus Piperis Longi; Piperis Longi Fructus</t>
+        </is>
+      </c>
+      <c r="CF17" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG17" t="inlineStr">
+        <is>
+          <t>polyu-tcm</t>
+        </is>
+      </c>
+      <c r="CH17" t="inlineStr"/>
+      <c r="CI17" t="inlineStr">
+        <is>
+          <t>蓽苃</t>
+        </is>
+      </c>
+      <c r="CJ17" t="inlineStr">
+        <is>
+          <t>bìbá</t>
+        </is>
+      </c>
+      <c r="CK17" t="inlineStr">
+        <is>
+          <t>Long Pepper</t>
+        </is>
+      </c>
+      <c r="CL17" t="inlineStr">
+        <is>
+          <t>Dried nearly ripe fruit-spike of Piper longum L. (Fam. Piperaceae)</t>
+        </is>
+      </c>
+      <c r="CM17" t="inlineStr">
+        <is>
+          <t>Interior-warming medicinal</t>
+        </is>
+      </c>
+      <c r="CN17" t="inlineStr">
+        <is>
+          <t>bitter; hot</t>
+        </is>
+      </c>
+      <c r="CO17" t="inlineStr">
+        <is>
+          <t>Stomach, Large intestine</t>
+        </is>
+      </c>
+      <c r="CP17" t="inlineStr"/>
+      <c r="CQ17" t="inlineStr"/>
+      <c r="CR17" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="CS17" t="inlineStr">
+        <is>
+          <t>973</t>
+        </is>
+      </c>
+      <c r="CT17" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="CU17" t="inlineStr"/>
+      <c r="CV17" t="inlineStr"/>
+      <c r="CW17" t="inlineStr"/>
+      <c r="CX17" t="n">
+        <v>49511</v>
+      </c>
+      <c r="CY17" t="inlineStr"/>
+      <c r="CZ17" t="inlineStr"/>
+      <c r="DA17" t="inlineStr"/>
+      <c r="DB17" t="inlineStr"/>
+      <c r="DC17" t="inlineStr"/>
+      <c r="DD17" t="inlineStr"/>
+      <c r="DE17" t="inlineStr">
+        <is>
+          <t>long_pepper</t>
+        </is>
+      </c>
+      <c r="DF17" t="inlineStr">
+        <is>
+          <t>https://partigabor.github.io/aromatica/items/long_pepper</t>
+        </is>
+      </c>
+      <c r="DG17" t="inlineStr">
+        <is>
+          <t>2568895</t>
+        </is>
+      </c>
+      <c r="DH17" t="inlineStr">
+        <is>
+          <t>682031-1</t>
+        </is>
+      </c>
+      <c r="DI17" t="inlineStr">
+        <is>
+          <t>Species</t>
+        </is>
+      </c>
+      <c r="DJ17" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="DK17" t="inlineStr">
+        <is>
+          <t>Piperaceae</t>
+        </is>
+      </c>
+      <c r="DL17" t="inlineStr"/>
+      <c r="DM17" t="inlineStr">
+        <is>
+          <t>Piper</t>
+        </is>
+      </c>
+      <c r="DN17" t="inlineStr"/>
+      <c r="DO17" t="inlineStr">
+        <is>
+          <t>longum</t>
+        </is>
+      </c>
+      <c r="DP17" t="inlineStr"/>
+      <c r="DQ17" t="inlineStr"/>
+      <c r="DR17" t="inlineStr"/>
+      <c r="DS17" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="DT17" t="inlineStr"/>
+      <c r="DU17" t="inlineStr">
+        <is>
+          <t>Sp. Pl.</t>
+        </is>
+      </c>
+      <c r="DV17" t="inlineStr">
+        <is>
+          <t>: 29</t>
+        </is>
+      </c>
+      <c r="DW17" t="inlineStr">
+        <is>
+          <t>(1753)</t>
+        </is>
+      </c>
+      <c r="DX17" t="inlineStr"/>
+      <c r="DY17" t="inlineStr">
+        <is>
+          <t>E. Himalaya to China (S. Yunnan) and Indo-China</t>
+        </is>
+      </c>
+      <c r="DZ17" t="inlineStr">
+        <is>
+          <t>climbing perennial or subshrub</t>
+        </is>
+      </c>
+      <c r="EA17" t="inlineStr">
+        <is>
+          <t>temperate</t>
+        </is>
+      </c>
+      <c r="EB17" t="inlineStr">
+        <is>
+          <t>2568895</t>
+        </is>
+      </c>
+      <c r="EC17" t="inlineStr"/>
+      <c r="ED17" t="inlineStr"/>
+      <c r="EE17" t="inlineStr"/>
+      <c r="EF17" t="inlineStr">
+        <is>
+          <t>2555110</t>
+        </is>
+      </c>
+      <c r="EG17" t="inlineStr">
+        <is>
+          <t>682031-1</t>
+        </is>
+      </c>
+      <c r="EH17" t="inlineStr"/>
+      <c r="EI17" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="EJ17" t="inlineStr">
+        <is>
+          <t>https://powo.science.kew.org/taxon/682031-1</t>
+        </is>
+      </c>
+      <c r="EK17" t="inlineStr">
+        <is>
+          <t>China South-Central, Assam, Bangladesh, East Himalaya, Cambodia, Laos, Myanmar, Nicobar Is., Thailand, Vietnam</t>
+        </is>
+      </c>
+      <c r="EL17" t="inlineStr">
+        <is>
+          <t>Hainan, China Southeast, India, Nepal, Sri Lanka, Malaya, Philippines</t>
+        </is>
+      </c>
+      <c r="EM17" t="inlineStr">
+        <is>
+          <t>China, Indian Subcontinent, Indo-China</t>
+        </is>
+      </c>
+      <c r="EN17" t="inlineStr">
+        <is>
+          <t>ASIA-TEMPERATE, ASIA-TROPICAL</t>
         </is>
       </c>
     </row>

--- a/database/checking.xlsx
+++ b/database/checking.xlsx
@@ -2791,7 +2791,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Bay rum tree</t>
+          <t>bay rum tree</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">

--- a/database/checking.xlsx
+++ b/database/checking.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EN17"/>
+  <dimension ref="A1:EN18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1170,25 +1170,29 @@
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>cinnamon</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ginger</t>
+          <t>cassia</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>the aromatic rhizomes of the ginger plant, fresh or dried</t>
+          <t>the inner bark of Southeast Asian trees</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>turmeric</t>
+          <t>cinnamon</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>wild ginger</t>
+          <t>Padang cinnamon; Saigon cinnamon</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -1227,17 +1231,25 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>Zingiber officinale</t>
+          <t>Cinnamomum aromaticum</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>Roscoe</t>
+          <t>Nees</t>
         </is>
       </c>
       <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Cinnamomum cassia (L.) J.Presl.</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>et al.</t>
+        </is>
+      </c>
       <c r="Y2" t="inlineStr">
         <is>
           <t>spice</t>
@@ -1250,35 +1262,39 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>https://en.wikipedia.org/wiki/Ginger</t>
+          <t>https://en.wikipedia.org/wiki/Cinnamomum_cassia</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>https://www.britannica.com/plant/ginger</t>
+          <t>https://www.britannica.com/topic/cassia-spice</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>common ginger</t>
+          <t>cassia tree</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>ginger; common ginger</t>
+          <t>cassia bark; Chinese cinnamon; cassia cinnamon; Chinese cassia</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>ginger; common ginger</t>
+          <t>cassia; Chinese cinnamon; Chinese cassia</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>Ginger</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr"/>
+          <t>cassia</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>Cassia-Cinnamon, Indonesian and Chinese</t>
+        </is>
+      </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr"/>
@@ -1287,7 +1303,7 @@
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>ginger; zanjabil; jiang</t>
+          <t>cassia; salikha; rougui</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr"/>
@@ -1298,24 +1314,24 @@
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>rhizome</t>
+          <t>bark; fruit</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>Southeast Asia; India (secondary)</t>
+          <t>Southeast China</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr"/>
       <c r="AT2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AU2" t="n">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>Assam</t>
+          <t>Guangxi</t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
@@ -1325,27 +1341,27 @@
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>India; Jamaica; Nigeria; Sierra Leone</t>
+          <t>Indonesia; China; Vietnam; Timor-Leste; etc.</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>light yellow when fresh, beige when powdered</t>
+          <t>reddish brown</t>
         </is>
       </c>
       <c r="AZ2" t="inlineStr">
         <is>
-          <t>fiery, pungent</t>
+          <t>pungent, cinnamon-like</t>
         </is>
       </c>
       <c r="BA2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="BB2" t="inlineStr">
         <is>
-          <t>Asian cooking; anti-emetic</t>
+          <t>flavor; diarrhea</t>
         </is>
       </c>
       <c r="BC2" t="inlineStr">
@@ -1355,7 +1371,7 @@
       </c>
       <c r="BD2" t="inlineStr">
         <is>
-          <t>II 172</t>
+          <t>I 77</t>
         </is>
       </c>
       <c r="BE2" t="inlineStr">
@@ -1365,62 +1381,74 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>https://www.biodiversitylibrary.org/item/10837#page/693/mode/1up</t>
+          <t>https://www.biodiversitylibrary.org/item/10836#page/391/mode/1up</t>
         </is>
       </c>
       <c r="BG2" t="inlineStr"/>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>ginger.n.01</t>
-        </is>
-      </c>
-      <c r="BI2" t="inlineStr">
-        <is>
-          <t>ginger.n.02</t>
-        </is>
-      </c>
-      <c r="BJ2" t="inlineStr">
-        <is>
-          <t>ginger.n.03</t>
-        </is>
-      </c>
+          <t>cassia.n.03</t>
+        </is>
+      </c>
+      <c r="BI2" t="inlineStr"/>
+      <c r="BJ2" t="inlineStr"/>
       <c r="BK2" t="inlineStr">
         <is>
-          <t>ginger</t>
-        </is>
-      </c>
-      <c r="BL2" t="inlineStr"/>
+          <t>cassia</t>
+        </is>
+      </c>
+      <c r="BL2" t="inlineStr">
+        <is>
+          <t>Chinese cinnamon</t>
+        </is>
+      </c>
       <c r="BM2" t="inlineStr">
         <is>
-          <t>زنجبيل</t>
+          <t>سليخة</t>
         </is>
       </c>
       <c r="BN2" t="inlineStr">
         <is>
-          <t>zanjabīl</t>
-        </is>
-      </c>
-      <c r="BO2" t="inlineStr"/>
+          <t>salīkha</t>
+        </is>
+      </c>
+      <c r="BO2" t="inlineStr">
+        <is>
+          <t>peel; bark</t>
+        </is>
+      </c>
       <c r="BP2" t="inlineStr"/>
       <c r="BQ2" t="inlineStr">
         <is>
-          <t>薑</t>
+          <t>肉桂</t>
         </is>
       </c>
       <c r="BR2" t="inlineStr">
         <is>
-          <t>jiāng</t>
-        </is>
-      </c>
-      <c r="BS2" t="inlineStr"/>
+          <t>ròuguì</t>
+        </is>
+      </c>
+      <c r="BS2" t="inlineStr">
+        <is>
+          <t>flesh-cinnamon</t>
+        </is>
+      </c>
       <c r="BT2" t="inlineStr"/>
-      <c r="BU2" t="inlineStr"/>
+      <c r="BU2" t="inlineStr">
+        <is>
+          <t>桂 guì can either refer to Cinnamomum species or to Osmanthus flowers</t>
+        </is>
+      </c>
       <c r="BV2" t="inlineStr">
         <is>
-          <t>gyömbér</t>
-        </is>
-      </c>
-      <c r="BW2" t="inlineStr"/>
+          <t>kasszia (fahéj)</t>
+        </is>
+      </c>
+      <c r="BW2" t="inlineStr">
+        <is>
+          <t>cassia (tree-bark)</t>
+        </is>
+      </c>
       <c r="BX2" t="inlineStr"/>
       <c r="BY2" t="inlineStr"/>
       <c r="BZ2" t="inlineStr"/>
@@ -1430,7 +1458,7 @@
       <c r="CD2" t="inlineStr"/>
       <c r="CE2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rhizoma Zingiberis </t>
+          <t>Cortex Cassiae/Cinnamomi Cortex; Ramulus Cinnamomi</t>
         </is>
       </c>
       <c r="CF2" t="n">
@@ -1443,27 +1471,27 @@
       </c>
       <c r="CH2" t="inlineStr">
         <is>
-          <t>https://herbaltcm.sn.polyu.edu.hk/herbal/zingiber-dried-ginger; https://herbaltcm.sn.polyu.edu.hk/herbal/fresh-ginger</t>
+          <t>https://herbaltcm.sn.polyu.edu.hk/herbal/cassia-bark</t>
         </is>
       </c>
       <c r="CI2" t="inlineStr">
         <is>
-          <t>乾薑</t>
+          <t>肉桂</t>
         </is>
       </c>
       <c r="CJ2" t="inlineStr">
         <is>
-          <t>gānjiāng</t>
+          <t>ròuguì</t>
         </is>
       </c>
       <c r="CK2" t="inlineStr">
         <is>
-          <t>Zingiber (Dried Ginger)</t>
+          <t>Cassia bark</t>
         </is>
       </c>
       <c r="CL2" t="inlineStr">
         <is>
-          <t>Dried rhizome of Zingiber officinale (Willd.) Rosc. (Fam. Zingiberaceae)</t>
+          <t>Dried stem bark of Cinnamomum cassia Presl (Fam. Lauraceae)</t>
         </is>
       </c>
       <c r="CM2" t="inlineStr">
@@ -1473,17 +1501,17 @@
       </c>
       <c r="CN2" t="inlineStr">
         <is>
-          <t>pungent; hot</t>
+          <t>pungent, sweet; strongly hot</t>
         </is>
       </c>
       <c r="CO2" t="inlineStr">
         <is>
-          <t>Heart, Lung, Kidney, Stomach</t>
+          <t>Liver, Heart, Spleen, Kidney</t>
         </is>
       </c>
       <c r="CP2" t="inlineStr">
         <is>
-          <t>To warm the middle and dissipate cold, promote recovery from collapse, and eliminate damp and resolve phlegm</t>
+          <t>To tonify fire and assist yang, and lead the fire back to the kidney, dispel cold and relieve pain, and activate blood circulation and stimulate menstrual dischange</t>
         </is>
       </c>
       <c r="CQ2" t="inlineStr"/>
@@ -1493,69 +1521,65 @@
           <t>?</t>
         </is>
       </c>
-      <c r="CT2" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
+      <c r="CT2" t="inlineStr"/>
       <c r="CU2" t="inlineStr">
         <is>
-          <t>https://www.gbif.org/species/2757280</t>
+          <t>https://www.gbif.org/species/3033982</t>
         </is>
       </c>
       <c r="CV2" t="inlineStr">
         <is>
-          <t>https://tropicos.org/name/34500018</t>
+          <t>https://tropicos.org/name/17805773</t>
         </is>
       </c>
       <c r="CW2" t="inlineStr">
         <is>
-          <t>https://eol.org/pages/987032</t>
+          <t>https://eol.org/pages/483593</t>
         </is>
       </c>
       <c r="CX2" t="n">
-        <v>94328</v>
+        <v>119260</v>
       </c>
       <c r="CY2" t="inlineStr">
         <is>
-          <t xml:space="preserve">अदरक </t>
+          <t>दालचीनी</t>
         </is>
       </c>
       <c r="CZ2" t="inlineStr">
         <is>
-          <t>adrak</t>
+          <t>dālchīnī</t>
         </is>
       </c>
       <c r="DA2" t="inlineStr"/>
-      <c r="DB2" t="inlineStr"/>
+      <c r="DB2" t="inlineStr">
+        <is>
+          <t>दारचीनी</t>
+        </is>
+      </c>
       <c r="DC2" t="inlineStr">
         <is>
-          <t>jahe</t>
-        </is>
-      </c>
-      <c r="DD2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">زنجبیل </t>
-        </is>
-      </c>
+          <t>kayu manis</t>
+        </is>
+      </c>
+      <c r="DD2" t="inlineStr"/>
       <c r="DE2" t="inlineStr">
         <is>
-          <t>ginger</t>
+          <t>cassia</t>
         </is>
       </c>
       <c r="DF2" t="inlineStr">
         <is>
-          <t>https://partigabor.github.io/aromatica/items/ginger</t>
+          <t>https://partigabor.github.io/aromatica/items/cassia</t>
         </is>
       </c>
       <c r="DG2" t="inlineStr">
         <is>
-          <t>273361</t>
+          <t>2721121</t>
         </is>
       </c>
       <c r="DH2" t="inlineStr">
         <is>
-          <t>798372-1</t>
+          <t>463288-1</t>
         </is>
       </c>
       <c r="DI2" t="inlineStr">
@@ -1570,19 +1594,19 @@
       </c>
       <c r="DK2" t="inlineStr">
         <is>
-          <t>Zingiberaceae</t>
+          <t>Lauraceae</t>
         </is>
       </c>
       <c r="DL2" t="inlineStr"/>
       <c r="DM2" t="inlineStr">
         <is>
-          <t>Zingiber</t>
+          <t>Cinnamomum</t>
         </is>
       </c>
       <c r="DN2" t="inlineStr"/>
       <c r="DO2" t="inlineStr">
         <is>
-          <t>officinale</t>
+          <t>aromaticum</t>
         </is>
       </c>
       <c r="DP2" t="inlineStr"/>
@@ -1590,91 +1614,87 @@
       <c r="DR2" t="inlineStr"/>
       <c r="DS2" t="inlineStr">
         <is>
-          <t>Roscoe</t>
-        </is>
-      </c>
-      <c r="DT2" t="inlineStr"/>
+          <t>Nees</t>
+        </is>
+      </c>
+      <c r="DT2" t="inlineStr">
+        <is>
+          <t>N.Wallich</t>
+        </is>
+      </c>
       <c r="DU2" t="inlineStr">
         <is>
-          <t>Trans. Linn. Soc. London</t>
+          <t>Pl. Asiat. Rar.</t>
         </is>
       </c>
       <c r="DV2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8: 348</t>
+          <t xml:space="preserve"> 2: 74</t>
         </is>
       </c>
       <c r="DW2" t="inlineStr">
         <is>
-          <t>(1807)</t>
+          <t>(1831)</t>
         </is>
       </c>
       <c r="DX2" t="inlineStr"/>
       <c r="DY2" t="inlineStr">
         <is>
-          <t>India to SC. China</t>
+          <t>SE. China to Vietnam</t>
         </is>
       </c>
       <c r="DZ2" t="inlineStr">
         <is>
-          <t>perennial or rhizomatous geophyte</t>
+          <t>tree</t>
         </is>
       </c>
       <c r="EA2" t="inlineStr">
         <is>
-          <t>seasonally dry tropical</t>
+          <t>subtropical</t>
         </is>
       </c>
       <c r="EB2" t="inlineStr">
         <is>
-          <t>273361</t>
-        </is>
-      </c>
-      <c r="EC2" t="inlineStr">
-        <is>
-          <t>219561</t>
-        </is>
-      </c>
-      <c r="ED2" t="inlineStr">
-        <is>
-          <t>L.</t>
-        </is>
-      </c>
+          <t>2721121</t>
+        </is>
+      </c>
+      <c r="EC2" t="inlineStr"/>
+      <c r="ED2" t="inlineStr"/>
       <c r="EE2" t="inlineStr"/>
       <c r="EF2" t="inlineStr">
         <is>
-          <t>273208</t>
+          <t>2721087</t>
         </is>
       </c>
       <c r="EG2" t="inlineStr">
         <is>
-          <t>798372-1</t>
+          <t>463288-1</t>
         </is>
       </c>
       <c r="EH2" t="inlineStr"/>
       <c r="EI2" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="EJ2" t="inlineStr">
         <is>
-          <t>https://powo.science.kew.org/taxon/798372-1</t>
+          <t>https://powo.science.kew.org/taxon/463288-1</t>
         </is>
       </c>
       <c r="EK2" t="inlineStr">
         <is>
-          <t>China South-Central, Assam, East Himalaya, India</t>
+          <t>China Southeast, Vietnam</t>
         </is>
       </c>
       <c r="EL2" t="inlineStr">
         <is>
-          <t>Gulf of Guinea Is., Comoros, Mauritius, Madagascar, Réunion, Rodrigues, Hainan, China Southeast, Taiwan, Bangladesh, Sri Lanka, Andaman Is., Cambodia, Myanmar, Nicobar Is., Thailand, Vietnam, Borneo, Lesser Sunda Is., Malaya, Philippines, New Guinea, Solomon Is., Queensland, Vanuatu, Caroline Is., Mexico Southwest, Costa Rica, Honduras, Cuba, Dominican Republic, Haiti, Leeward Is., Puerto Rico, Trinidad-Tobago, Windward Is.</t>
+          <t>China South-Central, Hainan, Taiwan, Bangladesh, India, Cambodia, Laos, Myanmar, Thailand, Malaya, Sumatera, Guatemala, Honduras, Trinidad-Tobago</t>
         </is>
       </c>
       <c r="EM2" t="inlineStr">
         <is>
-          <t>China, Indian Subcontinent</t>
+          <t>China, Indo-China</t>
         </is>
       </c>
       <c r="EN2" t="inlineStr">
@@ -1690,7 +1710,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1701,20 +1721,20 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>pepper</t>
+          <t>clove</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>the dried fruits of an Indian vine</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>long pepper; cubeb</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>the dried flower-buds of a tropical tree from the Moluccas, Indonesia; bud of Syzygium aromaticum</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>nutmeg; mace</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr">
         <is>
           <t>vanwyk_culinary_2014</t>
@@ -1751,16 +1771,20 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>Piper nigrum</t>
+          <t>Syzygium aromaticum</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Merr. &amp; L.M.Perry</t>
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Eugenia aromatica (L.) Baill.; Eugenia cayophyllata Thunb.</t>
+        </is>
+      </c>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr">
         <is>
@@ -1774,44 +1798,44 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>https://en.wikipedia.org/wiki/Black_pepper</t>
+          <t>https://en.wikipedia.org/wiki/Clove</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>https://www.britannica.com/plant/black-pepper-plant</t>
+          <t>https://www.britannica.com/plant/clove</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>pepper plant</t>
+          <t>clove tree</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>black pepper; peppercorns</t>
+          <t>clove; cloves</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>pepper; black pepper</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr"/>
+          <t>clove(s)</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>Cloves</t>
+        </is>
+      </c>
       <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="inlineStr"/>
       <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
       <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>peppercorns</t>
-        </is>
-      </c>
+      <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>pepper; fulful; hujiao</t>
+          <t>clove; qaranful; dingxiang</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr"/>
@@ -1822,24 +1846,24 @@
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>fruit</t>
+          <t>flower buds</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>Malabar coast (South India)</t>
+          <t>N. Moluccas, Indonesia</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr"/>
       <c r="AT3" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AU3" t="n">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>Karnataka</t>
+          <t>Moluccas</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
@@ -1849,27 +1873,27 @@
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Vietnam; Brazil; Indonesia; India; Sri Lanka; etc.</t>
+          <t>Indonesia; Malaysia; Tanzania</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>black; white; green</t>
+          <t>rich, reddish brown</t>
         </is>
       </c>
       <c r="AZ3" t="inlineStr">
         <is>
-          <t>pungent, hot</t>
+          <t>sweet, pungent, astringent</t>
         </is>
       </c>
       <c r="BA3" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="BB3" t="inlineStr">
         <is>
-          <t>flavors; colds; pepper steak; poivrade sauce; Pfefferkuchen</t>
+          <t>meats, sauces; anesthetic</t>
         </is>
       </c>
       <c r="BC3" t="inlineStr">
@@ -1879,7 +1903,7 @@
       </c>
       <c r="BD3" t="inlineStr">
         <is>
-          <t>II 144</t>
+          <t>II 125</t>
         </is>
       </c>
       <c r="BE3" t="inlineStr">
@@ -1889,96 +1913,84 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>https://www.biodiversitylibrary.org/item/10837#page/633/mode/1up</t>
+          <t>https://www.biodiversitylibrary.org/item/10837#page/595/mode/1up</t>
         </is>
       </c>
       <c r="BG3" t="inlineStr"/>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>pepper.n.01</t>
+          <t>clove.n.02</t>
         </is>
       </c>
       <c r="BI3" t="inlineStr">
         <is>
-          <t>pepper.n.03</t>
+          <t>clove.n.04</t>
         </is>
       </c>
       <c r="BJ3" t="inlineStr"/>
       <c r="BK3" t="inlineStr">
         <is>
-          <t>pepper</t>
-        </is>
-      </c>
-      <c r="BL3" t="inlineStr">
-        <is>
-          <t>black pepper</t>
-        </is>
-      </c>
+          <t>clove</t>
+        </is>
+      </c>
+      <c r="BL3" t="inlineStr"/>
       <c r="BM3" t="inlineStr">
         <is>
-          <t>فلفل</t>
+          <t>قرنفل</t>
         </is>
       </c>
       <c r="BN3" t="inlineStr">
         <is>
-          <t>filfil, fulful</t>
+          <t>qaranful</t>
         </is>
       </c>
       <c r="BO3" t="inlineStr"/>
-      <c r="BP3" t="inlineStr">
-        <is>
-          <t>[black pepper] *fulful aswad* فلفل أسود</t>
-        </is>
-      </c>
+      <c r="BP3" t="inlineStr"/>
       <c r="BQ3" t="inlineStr">
         <is>
-          <t>胡椒</t>
+          <t>丁香</t>
         </is>
       </c>
       <c r="BR3" t="inlineStr">
         <is>
-          <t>hújiāo</t>
+          <t>dīngxiāng</t>
         </is>
       </c>
       <c r="BS3" t="inlineStr">
         <is>
-          <t>barbarian-pepper</t>
-        </is>
-      </c>
-      <c r="BT3" t="inlineStr">
-        <is>
-          <t>黑胡椒 *hēihújiāo* [black-barbarian-pepper]</t>
-        </is>
-      </c>
-      <c r="BU3" t="inlineStr"/>
+          <t>nail-spice</t>
+        </is>
+      </c>
+      <c r="BT3" t="inlineStr"/>
+      <c r="BU3" t="inlineStr">
+        <is>
+          <t>Hu: 母丁香; 丁香 (雄丁香)</t>
+        </is>
+      </c>
       <c r="BV3" t="inlineStr">
         <is>
-          <t>bors</t>
+          <t>szegfűszeg</t>
         </is>
       </c>
       <c r="BW3" t="inlineStr">
         <is>
-          <t>pepper</t>
-        </is>
-      </c>
-      <c r="BX3" t="inlineStr">
-        <is>
-          <t>fekete bors [black pepper]</t>
-        </is>
-      </c>
-      <c r="BY3" t="inlineStr"/>
+          <t>nail-grass-nail</t>
+        </is>
+      </c>
+      <c r="BX3" t="inlineStr"/>
+      <c r="BY3" t="inlineStr">
+        <is>
+          <t>Originally *szegfűszer*, where *fűszer* is the standard Hungarian word for 'spice'</t>
+        </is>
+      </c>
       <c r="BZ3" t="inlineStr"/>
       <c r="CA3" t="inlineStr"/>
       <c r="CB3" t="inlineStr"/>
-      <c r="CC3" t="inlineStr">
-        <is>
-          <t>pepper; peppercorn; biber; pepperwort; Malabar coast; Sri Lanka?; black gold</t>
-        </is>
-      </c>
+      <c r="CC3" t="inlineStr"/>
       <c r="CD3" t="inlineStr"/>
       <c r="CE3" t="inlineStr">
         <is>
-          <t>Fructus Piperis nigri/albi; Piperis Fructus</t>
+          <t>Caryophylli Flos</t>
         </is>
       </c>
       <c r="CF3" t="n">
@@ -1991,47 +2003,47 @@
       </c>
       <c r="CH3" t="inlineStr">
         <is>
-          <t>https://herbaltcm.sn.polyu.edu.hk/herbal/pepper-fruit</t>
+          <t>https://herbaltcm.sn.polyu.edu.hk/herbal/clove</t>
         </is>
       </c>
       <c r="CI3" t="inlineStr">
         <is>
-          <t>胡椒</t>
+          <t>丁香</t>
         </is>
       </c>
       <c r="CJ3" t="inlineStr">
         <is>
-          <t>hújiāo</t>
+          <t>dīngxiāng</t>
         </is>
       </c>
       <c r="CK3" t="inlineStr">
         <is>
-          <t>Pepper Fruit</t>
+          <t>Clove</t>
         </is>
       </c>
       <c r="CL3" t="inlineStr">
         <is>
-          <t>Dried ripe fruit-spike of Piper nigrum L. (Fam. Piperaceae)</t>
+          <t>Dried flower bud of Eugenia cayophyllata Thunb. (Fam. Myrtaceae)</t>
         </is>
       </c>
       <c r="CM3" t="inlineStr">
         <is>
-          <t>Interior-warming medicinal</t>
+          <t>Interior-warming medicina</t>
         </is>
       </c>
       <c r="CN3" t="inlineStr">
         <is>
-          <t>pungent; hot</t>
+          <t>pungent; warm</t>
         </is>
       </c>
       <c r="CO3" t="inlineStr">
         <is>
-          <t>Stomach, Large intestine</t>
+          <t>Spleen, Stomach, Lung, Kidney</t>
         </is>
       </c>
       <c r="CP3" t="inlineStr">
         <is>
-          <t>To warm the middle and dissipate cold, subdue upward qi flow and to eliminate phlegm</t>
+          <t>To warm the middle-energizer, check adverse rise of the stomach-qi, and restore the kidney yang</t>
         </is>
       </c>
       <c r="CQ3" t="inlineStr"/>
@@ -2042,80 +2054,68 @@
       </c>
       <c r="CS3" t="inlineStr">
         <is>
-          <t>659</t>
-        </is>
-      </c>
-      <c r="CT3" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
+          <t>973</t>
+        </is>
+      </c>
+      <c r="CT3" t="inlineStr"/>
       <c r="CU3" t="inlineStr">
         <is>
-          <t>https://www.gbif.org/species/3086357</t>
+          <t>https://www.gbif.org/species/3183002</t>
         </is>
       </c>
       <c r="CV3" t="inlineStr">
         <is>
-          <t>https://tropicos.org/name/25000013</t>
+          <t>https://tropicos.org/name/22102278</t>
         </is>
       </c>
       <c r="CW3" t="inlineStr">
         <is>
-          <t>https://eol.org/pages/596620</t>
+          <t>https://eol.org/pages/2508665</t>
         </is>
       </c>
       <c r="CX3" t="n">
-        <v>13216</v>
+        <v>219868</v>
       </c>
       <c r="CY3" t="inlineStr">
         <is>
-          <t>काली मिर्च</t>
+          <t>लौंग</t>
         </is>
       </c>
       <c r="CZ3" t="inlineStr">
         <is>
-          <t>kālī mirch</t>
-        </is>
-      </c>
-      <c r="DA3" t="inlineStr">
-        <is>
-          <t>black pepper</t>
-        </is>
-      </c>
-      <c r="DB3" t="inlineStr">
-        <is>
-          <t>सफेद काली मिर्च…</t>
-        </is>
-      </c>
+          <t>laung</t>
+        </is>
+      </c>
+      <c r="DA3" t="inlineStr"/>
+      <c r="DB3" t="inlineStr"/>
       <c r="DC3" t="inlineStr">
         <is>
-          <t>lada; lada hitam; lada putih; merica</t>
+          <t>cengkih</t>
         </is>
       </c>
       <c r="DD3" t="inlineStr">
         <is>
-          <t>فلفل سیاه</t>
+          <t>میخک صدپر</t>
         </is>
       </c>
       <c r="DE3" t="inlineStr">
         <is>
-          <t>pepper</t>
+          <t>clove</t>
         </is>
       </c>
       <c r="DF3" t="inlineStr">
         <is>
-          <t>https://partigabor.github.io/aromatica/items/pepper</t>
+          <t>https://partigabor.github.io/aromatica/items/clove</t>
         </is>
       </c>
       <c r="DG3" t="inlineStr">
         <is>
-          <t>2569664</t>
+          <t>199236</t>
         </is>
       </c>
       <c r="DH3" t="inlineStr">
         <is>
-          <t>682369-1</t>
+          <t>601421-1</t>
         </is>
       </c>
       <c r="DI3" t="inlineStr">
@@ -2130,54 +2130,58 @@
       </c>
       <c r="DK3" t="inlineStr">
         <is>
-          <t>Piperaceae</t>
+          <t>Myrtaceae</t>
         </is>
       </c>
       <c r="DL3" t="inlineStr"/>
       <c r="DM3" t="inlineStr">
         <is>
-          <t>Piper</t>
+          <t>Syzygium</t>
         </is>
       </c>
       <c r="DN3" t="inlineStr"/>
       <c r="DO3" t="inlineStr">
         <is>
-          <t>nigrum</t>
+          <t>aromaticum</t>
         </is>
       </c>
       <c r="DP3" t="inlineStr"/>
       <c r="DQ3" t="inlineStr"/>
-      <c r="DR3" t="inlineStr"/>
+      <c r="DR3" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
       <c r="DS3" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Merr. &amp; L.M.Perry</t>
         </is>
       </c>
       <c r="DT3" t="inlineStr"/>
       <c r="DU3" t="inlineStr">
         <is>
-          <t>Sp. Pl.</t>
+          <t>Mem. Amer. Acad. Arts</t>
         </is>
       </c>
       <c r="DV3" t="inlineStr">
         <is>
-          <t>: 28</t>
+          <t>, n.s., 18: 196</t>
         </is>
       </c>
       <c r="DW3" t="inlineStr">
         <is>
-          <t>(1753)</t>
+          <t>(1939)</t>
         </is>
       </c>
       <c r="DX3" t="inlineStr"/>
       <c r="DY3" t="inlineStr">
         <is>
-          <t>SW. India</t>
+          <t>Maluku</t>
         </is>
       </c>
       <c r="DZ3" t="inlineStr">
         <is>
-          <t>climber</t>
+          <t>shrub or tree</t>
         </is>
       </c>
       <c r="EA3" t="inlineStr">
@@ -2187,46 +2191,50 @@
       </c>
       <c r="EB3" t="inlineStr">
         <is>
-          <t>2569664</t>
-        </is>
-      </c>
-      <c r="EC3" t="inlineStr"/>
+          <t>199236</t>
+        </is>
+      </c>
+      <c r="EC3" t="inlineStr">
+        <is>
+          <t>34675</t>
+        </is>
+      </c>
       <c r="ED3" t="inlineStr"/>
       <c r="EE3" t="inlineStr"/>
       <c r="EF3" t="inlineStr">
         <is>
-          <t>2555110</t>
+          <t>199154</t>
         </is>
       </c>
       <c r="EG3" t="inlineStr">
         <is>
-          <t>682369-1</t>
+          <t>601421-1</t>
         </is>
       </c>
       <c r="EH3" t="inlineStr"/>
       <c r="EI3" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="EJ3" t="inlineStr">
         <is>
-          <t>https://powo.science.kew.org/taxon/682369-1</t>
+          <t>https://powo.science.kew.org/taxon/601421-1</t>
         </is>
       </c>
       <c r="EK3" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Maluku</t>
         </is>
       </c>
       <c r="EL3" t="inlineStr">
         <is>
-          <t>Benin, Guinea, Cameroon, Gulf of Guinea Is., Ethiopia, Comoros, Mauritius, Réunion, Seychelles, China South-Central, China Southeast, Assam, Bangladesh, East Himalaya, Sri Lanka, Andaman Is., Cambodia, Laos, Nicobar Is., Thailand, Vietnam, Philippines, Vanuatu, Cook Is., Caroline Is., Marianas, Mexico Gulf, Costa Rica, Honduras, Cuba, Dominican Republic, Haiti, Leeward Is., Puerto Rico, Trinidad-Tobago, Windward Is., French Guiana, Venezuela</t>
+          <t>Gulf of Guinea Is., Tanzania, Comoros, Madagascar, Seychelles, India, Nicobar Is., Borneo, Caroline Is., Trinidad-Tobago</t>
         </is>
       </c>
       <c r="EM3" t="inlineStr">
         <is>
-          <t>Indian Subcontinent</t>
+          <t>Malesia</t>
         </is>
       </c>
       <c r="EN3" t="inlineStr">
@@ -2242,7 +2250,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -2253,18 +2261,22 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
+          <t>ginger</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>the aromatic rhizomes of the ginger plant, fresh or dried</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>turmeric</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>the bright yellow powder yielded from the rhizomes of Curcuma longa</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>yellow zedoary</t>
+          <t>wild ginger</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -2303,59 +2315,55 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>Curcuma longa</t>
+          <t>Zingiber officinale</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Roscoe</t>
         </is>
       </c>
       <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>Curcuma domestica Valeton</t>
-        </is>
-      </c>
+      <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>spice; dye</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>culinary; medicinal; ritualistic</t>
+          <t>culinary; medicinal</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>https://en.wikipedia.org/wiki/Turmeric</t>
+          <t>https://en.wikipedia.org/wiki/Ginger</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>https://www.britannica.com/plant/turmeric</t>
+          <t>https://www.britannica.com/plant/ginger</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>turmeric</t>
+          <t>common ginger</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>turmeric</t>
+          <t>ginger; common ginger</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>turmeric</t>
+          <t>ginger; common ginger</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>Turmeric</t>
+          <t>Ginger</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr"/>
@@ -2367,7 +2375,7 @@
       <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>turmeric; kurkum</t>
+          <t>ginger; zanjabil; jiang</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr"/>
@@ -2383,23 +2391,19 @@
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="AS4" t="inlineStr">
-        <is>
-          <t>southern Asia</t>
-        </is>
-      </c>
+          <t>Southeast Asia; India (secondary)</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr"/>
       <c r="AT4" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="AU4" t="n">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>Assam</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
@@ -2409,27 +2413,27 @@
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>China; Honduras; India; Indonesia; Jamaica</t>
+          <t>India; Jamaica; Nigeria; Sierra Leone</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>orange-yellow</t>
+          <t>light yellow when fresh, beige when powdered</t>
         </is>
       </c>
       <c r="AZ4" t="inlineStr">
         <is>
-          <t>warm, acrid, bitter</t>
+          <t>fiery, pungent</t>
         </is>
       </c>
       <c r="BA4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="BB4" t="inlineStr">
         <is>
-          <t>curries, dye; antiseptic</t>
+          <t>Asian cooking; anti-emetic</t>
         </is>
       </c>
       <c r="BC4" t="inlineStr">
@@ -2439,7 +2443,7 @@
       </c>
       <c r="BD4" t="inlineStr">
         <is>
-          <t>II 178</t>
+          <t>II 172</t>
         </is>
       </c>
       <c r="BE4" t="inlineStr">
@@ -2449,63 +2453,59 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>https://www.biodiversitylibrary.org/item/10837#page/705/mode/1up</t>
+          <t>https://www.biodiversitylibrary.org/item/10837#page/693/mode/1up</t>
         </is>
       </c>
       <c r="BG4" t="inlineStr"/>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>turmeric.n.01</t>
+          <t>ginger.n.01</t>
         </is>
       </c>
       <c r="BI4" t="inlineStr">
         <is>
-          <t>turmeric.n.02</t>
-        </is>
-      </c>
-      <c r="BJ4" t="inlineStr"/>
+          <t>ginger.n.02</t>
+        </is>
+      </c>
+      <c r="BJ4" t="inlineStr">
+        <is>
+          <t>ginger.n.03</t>
+        </is>
+      </c>
       <c r="BK4" t="inlineStr">
         <is>
-          <t>turmeric</t>
+          <t>ginger</t>
         </is>
       </c>
       <c r="BL4" t="inlineStr"/>
       <c r="BM4" t="inlineStr">
         <is>
-          <t>كركم</t>
+          <t>زنجبيل</t>
         </is>
       </c>
       <c r="BN4" t="inlineStr">
         <is>
-          <t>kurkum</t>
+          <t>zanjabīl</t>
         </is>
       </c>
       <c r="BO4" t="inlineStr"/>
       <c r="BP4" t="inlineStr"/>
       <c r="BQ4" t="inlineStr">
         <is>
-          <t>薑黃</t>
+          <t>薑</t>
         </is>
       </c>
       <c r="BR4" t="inlineStr">
         <is>
-          <t>jiānghuáng</t>
-        </is>
-      </c>
-      <c r="BS4" t="inlineStr">
-        <is>
-          <t>ginger-yellow</t>
-        </is>
-      </c>
-      <c r="BT4" t="inlineStr">
-        <is>
-          <t>黃薑 *huángjiāng* [yellow-ginger]</t>
-        </is>
-      </c>
+          <t>jiāng</t>
+        </is>
+      </c>
+      <c r="BS4" t="inlineStr"/>
+      <c r="BT4" t="inlineStr"/>
       <c r="BU4" t="inlineStr"/>
       <c r="BV4" t="inlineStr">
         <is>
-          <t>kurkuma</t>
+          <t>gyömbér</t>
         </is>
       </c>
       <c r="BW4" t="inlineStr"/>
@@ -2518,7 +2518,7 @@
       <c r="CD4" t="inlineStr"/>
       <c r="CE4" t="inlineStr">
         <is>
-          <t>Rhizoma Curcumae (Longae); Curcumae Longae Rhizoma</t>
+          <t xml:space="preserve">Rhizoma Zingiberis </t>
         </is>
       </c>
       <c r="CF4" t="n">
@@ -2531,47 +2531,47 @@
       </c>
       <c r="CH4" t="inlineStr">
         <is>
-          <t>https://herbaltcm.sn.polyu.edu.hk/herbal/turmeric</t>
+          <t>https://herbaltcm.sn.polyu.edu.hk/herbal/zingiber-dried-ginger; https://herbaltcm.sn.polyu.edu.hk/herbal/fresh-ginger</t>
         </is>
       </c>
       <c r="CI4" t="inlineStr">
         <is>
-          <t>薑黃</t>
+          <t>乾薑</t>
         </is>
       </c>
       <c r="CJ4" t="inlineStr">
         <is>
-          <t>jiānghuáng</t>
+          <t>gānjiāng</t>
         </is>
       </c>
       <c r="CK4" t="inlineStr">
         <is>
-          <t>Turmeric</t>
+          <t>Zingiber (Dried Ginger)</t>
         </is>
       </c>
       <c r="CL4" t="inlineStr">
         <is>
-          <t>Dried rhizome of Curcuma longa L. (Fam. Zingiberaceae)</t>
+          <t>Dried rhizome of Zingiber officinale (Willd.) Rosc. (Fam. Zingiberaceae)</t>
         </is>
       </c>
       <c r="CM4" t="inlineStr">
         <is>
-          <t>Blood-activating analgesic medicinal</t>
+          <t>Interior-warming medicinal</t>
         </is>
       </c>
       <c r="CN4" t="inlineStr">
         <is>
-          <t>pungent, bitter; warm</t>
+          <t>pungent; hot</t>
         </is>
       </c>
       <c r="CO4" t="inlineStr">
         <is>
-          <t>Liver, Spleen</t>
+          <t>Heart, Lung, Kidney, Stomach</t>
         </is>
       </c>
       <c r="CP4" t="inlineStr">
         <is>
-          <t>To elimainate blood stasis, promote the flow of qi, stimulate mentrual discharge and relieve pain</t>
+          <t>To warm the middle and dissipate cold, promote recovery from collapse, and eliminate damp and resolve phlegm</t>
         </is>
       </c>
       <c r="CQ4" t="inlineStr"/>
@@ -2588,62 +2588,62 @@
       </c>
       <c r="CU4" t="inlineStr">
         <is>
-          <t>https://www.gbif.org/species/2757624</t>
+          <t>https://www.gbif.org/species/2757280</t>
         </is>
       </c>
       <c r="CV4" t="inlineStr">
         <is>
-          <t>https://tropicos.org/name/34500029</t>
+          <t>https://tropicos.org/name/34500018</t>
         </is>
       </c>
       <c r="CW4" t="inlineStr">
         <is>
-          <t>https://eol.org/pages/1122309</t>
+          <t>https://eol.org/pages/987032</t>
         </is>
       </c>
       <c r="CX4" t="n">
-        <v>136217</v>
+        <v>94328</v>
       </c>
       <c r="CY4" t="inlineStr">
         <is>
-          <t>हल्दी</t>
+          <t xml:space="preserve">अदरक </t>
         </is>
       </c>
       <c r="CZ4" t="inlineStr">
         <is>
-          <t>haldī</t>
+          <t>adrak</t>
         </is>
       </c>
       <c r="DA4" t="inlineStr"/>
       <c r="DB4" t="inlineStr"/>
       <c r="DC4" t="inlineStr">
         <is>
-          <t>kunyit</t>
+          <t>jahe</t>
         </is>
       </c>
       <c r="DD4" t="inlineStr">
         <is>
-          <t>زردچوبه</t>
+          <t xml:space="preserve">زنجبیل </t>
         </is>
       </c>
       <c r="DE4" t="inlineStr">
         <is>
-          <t>turmeric</t>
+          <t>ginger</t>
         </is>
       </c>
       <c r="DF4" t="inlineStr">
         <is>
-          <t>https://partigabor.github.io/aromatica/items/turmeric</t>
+          <t>https://partigabor.github.io/aromatica/items/ginger</t>
         </is>
       </c>
       <c r="DG4" t="inlineStr">
         <is>
-          <t>235249</t>
+          <t>273361</t>
         </is>
       </c>
       <c r="DH4" t="inlineStr">
         <is>
-          <t>796451-1</t>
+          <t>798372-1</t>
         </is>
       </c>
       <c r="DI4" t="inlineStr">
@@ -2664,13 +2664,13 @@
       <c r="DL4" t="inlineStr"/>
       <c r="DM4" t="inlineStr">
         <is>
-          <t>Curcuma</t>
+          <t>Zingiber</t>
         </is>
       </c>
       <c r="DN4" t="inlineStr"/>
       <c r="DO4" t="inlineStr">
         <is>
-          <t>longa</t>
+          <t>officinale</t>
         </is>
       </c>
       <c r="DP4" t="inlineStr"/>
@@ -2678,34 +2678,34 @@
       <c r="DR4" t="inlineStr"/>
       <c r="DS4" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Roscoe</t>
         </is>
       </c>
       <c r="DT4" t="inlineStr"/>
       <c r="DU4" t="inlineStr">
         <is>
-          <t>Sp. Pl.</t>
+          <t>Trans. Linn. Soc. London</t>
         </is>
       </c>
       <c r="DV4" t="inlineStr">
         <is>
-          <t>: 2</t>
+          <t xml:space="preserve"> 8: 348</t>
         </is>
       </c>
       <c r="DW4" t="inlineStr">
         <is>
-          <t>(1753)</t>
+          <t>(1807)</t>
         </is>
       </c>
       <c r="DX4" t="inlineStr"/>
       <c r="DY4" t="inlineStr">
         <is>
-          <t>a cultigen from SW. India</t>
+          <t>India to SC. China</t>
         </is>
       </c>
       <c r="DZ4" t="inlineStr">
         <is>
-          <t>rhizomatous geophyte</t>
+          <t>perennial or rhizomatous geophyte</t>
         </is>
       </c>
       <c r="EA4" t="inlineStr">
@@ -2715,20 +2715,28 @@
       </c>
       <c r="EB4" t="inlineStr">
         <is>
-          <t>235249</t>
-        </is>
-      </c>
-      <c r="EC4" t="inlineStr"/>
-      <c r="ED4" t="inlineStr"/>
+          <t>273361</t>
+        </is>
+      </c>
+      <c r="EC4" t="inlineStr">
+        <is>
+          <t>219561</t>
+        </is>
+      </c>
+      <c r="ED4" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
       <c r="EE4" t="inlineStr"/>
       <c r="EF4" t="inlineStr">
         <is>
-          <t>235183</t>
+          <t>273208</t>
         </is>
       </c>
       <c r="EG4" t="inlineStr">
         <is>
-          <t>796451-1</t>
+          <t>798372-1</t>
         </is>
       </c>
       <c r="EH4" t="inlineStr"/>
@@ -2739,27 +2747,27 @@
       </c>
       <c r="EJ4" t="inlineStr">
         <is>
-          <t>https://powo.science.kew.org/taxon/796451-1</t>
+          <t>https://powo.science.kew.org/taxon/798372-1</t>
         </is>
       </c>
       <c r="EK4" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>China South-Central, Assam, East Himalaya, India</t>
         </is>
       </c>
       <c r="EL4" t="inlineStr">
         <is>
-          <t>Guinea-Bissau, Ivory Coast, Congo, Gulf of Guinea Is., Comoros, Mauritius, Réunion, China South-Central, China Southeast, Tibet, Taiwan, Assam, Bangladesh, East Himalaya, Sri Lanka, Andaman Is., Cambodia, Myanmar, Nicobar Is., Thailand, Vietnam, Borneo, Jawa, Lesser Sunda Is., Malaya, Philippines, Sumatera, New Guinea, Solomon Is., Queensland, Fiji, Gilbert Is., New Caledonia, Samoa, Tonga, Vanuatu, Cook Is., Easter Is., Marquesas, Pitcairn Is., Society Is., Tuamotu, Tubuai Is., Caroline Is., Hawaii, Belize, Costa Rica, Cuba, Dominican Republic, Haiti, Leeward Is., Puerto Rico, Trinidad-Tobago, Windward Is.</t>
+          <t>Gulf of Guinea Is., Comoros, Mauritius, Madagascar, Réunion, Rodrigues, Hainan, China Southeast, Taiwan, Bangladesh, Sri Lanka, Andaman Is., Cambodia, Myanmar, Nicobar Is., Thailand, Vietnam, Borneo, Lesser Sunda Is., Malaya, Philippines, New Guinea, Solomon Is., Queensland, Vanuatu, Caroline Is., Mexico Southwest, Costa Rica, Honduras, Cuba, Dominican Republic, Haiti, Leeward Is., Puerto Rico, Trinidad-Tobago, Windward Is.</t>
         </is>
       </c>
       <c r="EM4" t="inlineStr">
         <is>
-          <t>Indian Subcontinent</t>
+          <t>China, Indian Subcontinent</t>
         </is>
       </c>
       <c r="EN4" t="inlineStr">
         <is>
-          <t>ASIA-TROPICAL</t>
+          <t>ASIA-TEMPERATE, ASIA-TROPICAL</t>
         </is>
       </c>
     </row>
@@ -2770,7 +2778,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -2781,24 +2789,20 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>allspice</t>
+          <t>nutmeg</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>the dried unripe berries of a small Caribbean tree</t>
+          <t>the seed of a peach-like fruit of the nutmeg tree of the Moluccas, Indonesia</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>bay rum tree</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>wild allspice</t>
-        </is>
-      </c>
+          <t>mace</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
           <t>vanwyk_culinary_2014</t>
@@ -2828,27 +2832,23 @@
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>Pimenta dioica</t>
+          <t>Myristica fragrans</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>(L.) Merr.</t>
+          <t>Houtt.</t>
         </is>
       </c>
       <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>Pimenta officinalis Lindl.</t>
-        </is>
-      </c>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr">
         <is>
@@ -2857,57 +2857,45 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>culinary; medicinal; perfumery; distillery</t>
+          <t>culinary; medicinal</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>https://en.wikipedia.org/wiki/Allspice</t>
+          <t>https://en.wikipedia.org/wiki/Nutmeg#Mace</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>https://www.britannica.com/plant/allspice</t>
+          <t>https://www.britannica.com/topic/nutmeg</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>allspice tree</t>
+          <t>nutmeg tree</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>allspice; Jamaica pepper; pimento; myrtle pepper; newspice</t>
+          <t>nutmeg</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>allspice; pimento; Jamaican pepper</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>Allspice, Jamaica pepper, *pimento</t>
-        </is>
-      </c>
+          <t>nutmeg</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>allspice</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>Jamaica pepper, Myrtle pepper, Pimento, Newspice</t>
-        </is>
-      </c>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="inlineStr"/>
       <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>allspice; pimento; fulful ifranji; duoxiangguo</t>
+          <t>nutmeg; jawz al-tib; roudoukou</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr"/>
@@ -2918,54 +2906,54 @@
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>unripe fruit; leaf; wood</t>
+          <t>seed</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>S. Mexico to C. America; Caribbean</t>
+          <t>Moluccas (Indonesia)</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr"/>
       <c r="AT5" t="n">
-        <v>18</v>
+        <v>-4</v>
       </c>
       <c r="AU5" t="n">
-        <v>-77</v>
+        <v>129</v>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Americas</t>
+          <t>Asia</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Jamaica; Mexico; Honduras</t>
+          <t>Grenada; Indonesia</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
         <is>
-          <t>dark brown</t>
+          <t>pale brown nut, dark when powdered</t>
         </is>
       </c>
       <c r="AZ5" t="inlineStr">
         <is>
-          <t>pungent, mixed, spicy</t>
+          <t>sweet, warm, nutty</t>
         </is>
       </c>
       <c r="BA5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="BB5" t="inlineStr">
         <is>
-          <t>pickles, wines, desserts, liquors; spice for jerking meat; leaf oil for flavouring rum; wood to smoke and grill meat</t>
+          <t>desserts, eggnog; diahrrhea</t>
         </is>
       </c>
       <c r="BC5" t="inlineStr">
@@ -2975,7 +2963,7 @@
       </c>
       <c r="BD5" t="inlineStr">
         <is>
-          <t>II 174</t>
+          <t>II 132</t>
         </is>
       </c>
       <c r="BE5" t="inlineStr">
@@ -2985,177 +2973,209 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>https://www.biodiversitylibrary.org/item/10837#page/697/mode/1up</t>
+          <t>https://www.biodiversitylibrary.org/item/10837#page/609/mode/1up</t>
         </is>
       </c>
       <c r="BG5" t="inlineStr"/>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>allspice.n.01</t>
+          <t>nutmeg.n.01</t>
         </is>
       </c>
       <c r="BI5" t="inlineStr">
         <is>
-          <t>allspice.n.03</t>
+          <t>nutmeg.n.02</t>
         </is>
       </c>
       <c r="BJ5" t="inlineStr"/>
       <c r="BK5" t="inlineStr">
         <is>
-          <t>allspice</t>
-        </is>
-      </c>
-      <c r="BL5" t="inlineStr">
-        <is>
-          <t>pimento; Jamaica pepper</t>
-        </is>
-      </c>
+          <t>nutmeg</t>
+        </is>
+      </c>
+      <c r="BL5" t="inlineStr"/>
       <c r="BM5" t="inlineStr">
         <is>
-          <t>فلفل إفرنجي</t>
+          <t>جوز الطيب</t>
         </is>
       </c>
       <c r="BN5" t="inlineStr">
         <is>
-          <t>fulful ifranjī</t>
+          <t>jawz al-ṭīb</t>
         </is>
       </c>
       <c r="BO5" t="inlineStr">
         <is>
-          <t>Frankish pepper</t>
+          <t>fragrant nut</t>
         </is>
       </c>
       <c r="BP5" t="inlineStr"/>
       <c r="BQ5" t="inlineStr">
         <is>
-          <t>多香果</t>
+          <t>肉豆蔻</t>
         </is>
       </c>
       <c r="BR5" t="inlineStr">
         <is>
-          <t>duōxiāngguǒ</t>
+          <t>ròudòukòu</t>
         </is>
       </c>
       <c r="BS5" t="inlineStr">
         <is>
-          <t>many-spice-fruit</t>
+          <t>flesh-bean-cardamom</t>
         </is>
       </c>
       <c r="BT5" t="inlineStr"/>
       <c r="BU5" t="inlineStr"/>
       <c r="BV5" t="inlineStr">
         <is>
-          <t>szegfűbors</t>
+          <t>szerecsendió</t>
         </is>
       </c>
       <c r="BW5" t="inlineStr">
         <is>
-          <t>clove-pepper</t>
+          <t>Saracen nut</t>
         </is>
       </c>
       <c r="BX5" t="inlineStr">
         <is>
-          <t>jamaicaibors [Jamaican-pepper]; amomummag [amomum-seed]</t>
-        </is>
-      </c>
-      <c r="BY5" t="inlineStr">
-        <is>
-          <t>vegyesfűszer</t>
-        </is>
-      </c>
+          <t>muskátdió [musk-nut]; mácisdió [mace-nut]</t>
+        </is>
+      </c>
+      <c r="BY5" t="inlineStr"/>
       <c r="BZ5" t="inlineStr"/>
       <c r="CA5" t="inlineStr"/>
       <c r="CB5" t="inlineStr"/>
-      <c r="CC5" t="inlineStr">
-        <is>
-          <t>West Indies; Greater Antilles;  fruit of Pimenta dioica</t>
-        </is>
-      </c>
-      <c r="CD5" t="inlineStr">
-        <is>
-          <t>look for similar spices on wikipedia article</t>
-        </is>
-      </c>
+      <c r="CC5" t="inlineStr"/>
+      <c r="CD5" t="inlineStr"/>
       <c r="CE5" t="inlineStr">
         <is>
-          <t>Fructus Amomi; Fructus Pimentae</t>
+          <t>Semen Myristicae; Myristicae Semen</t>
         </is>
       </c>
       <c r="CF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG5" t="inlineStr"/>
-      <c r="CH5" t="inlineStr"/>
-      <c r="CI5" t="inlineStr"/>
-      <c r="CJ5" t="inlineStr"/>
-      <c r="CK5" t="inlineStr"/>
-      <c r="CL5" t="inlineStr"/>
-      <c r="CM5" t="inlineStr"/>
-      <c r="CN5" t="inlineStr"/>
-      <c r="CO5" t="inlineStr"/>
-      <c r="CP5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="CG5" t="inlineStr">
+        <is>
+          <t>polyu-tcm</t>
+        </is>
+      </c>
+      <c r="CH5" t="inlineStr">
+        <is>
+          <t>https://herbaltcm.sn.polyu.edu.hk/herbal/nutmeg</t>
+        </is>
+      </c>
+      <c r="CI5" t="inlineStr">
+        <is>
+          <t>肉豆蔻</t>
+        </is>
+      </c>
+      <c r="CJ5" t="inlineStr">
+        <is>
+          <t>ròudòukòu</t>
+        </is>
+      </c>
+      <c r="CK5" t="inlineStr">
+        <is>
+          <t>Nutmeg</t>
+        </is>
+      </c>
+      <c r="CL5" t="inlineStr">
+        <is>
+          <t>Dried kernel of Myristica fragrans Houtt. (Fam. Myrisyicaceae)</t>
+        </is>
+      </c>
+      <c r="CM5" t="inlineStr">
+        <is>
+          <t>Astringent medicinal</t>
+        </is>
+      </c>
+      <c r="CN5" t="inlineStr">
+        <is>
+          <t>pungent; warm</t>
+        </is>
+      </c>
+      <c r="CO5" t="inlineStr">
+        <is>
+          <t>Spleen, Stomach, Large intestine</t>
+        </is>
+      </c>
+      <c r="CP5" t="inlineStr">
+        <is>
+          <t>To warm the middle and promote the flow of qi, and astringe the intestines and check diarrhea</t>
+        </is>
+      </c>
       <c r="CQ5" t="inlineStr"/>
-      <c r="CR5" t="inlineStr"/>
-      <c r="CS5" t="inlineStr"/>
+      <c r="CR5" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="CS5" t="inlineStr">
+        <is>
+          <t>973</t>
+        </is>
+      </c>
       <c r="CT5" t="inlineStr"/>
       <c r="CU5" t="inlineStr">
         <is>
-          <t>https://www.gbif.org/species/3186061</t>
+          <t>https://www.gbif.org/species/5406817</t>
         </is>
       </c>
       <c r="CV5" t="inlineStr">
         <is>
-          <t>https://tropicos.org/name/22101787</t>
+          <t>https://tropicos.org/name/21800077</t>
         </is>
       </c>
       <c r="CW5" t="inlineStr">
         <is>
-          <t>https://eol.org/pages/2508608</t>
+          <t>https://eol.org/pages/596922</t>
         </is>
       </c>
       <c r="CX5" t="n">
-        <v>375272</v>
+        <v>51089</v>
       </c>
       <c r="CY5" t="inlineStr">
         <is>
-          <t>गंधद्रव्य?</t>
+          <t>जायफल</t>
         </is>
       </c>
       <c r="CZ5" t="inlineStr">
         <is>
-          <t>gandhadravya?</t>
+          <t>jāyaphal</t>
         </is>
       </c>
       <c r="DA5" t="inlineStr"/>
       <c r="DB5" t="inlineStr"/>
       <c r="DC5" t="inlineStr">
         <is>
-          <t>Merica Jamaika</t>
+          <t>pala</t>
         </is>
       </c>
       <c r="DD5" t="inlineStr">
         <is>
-          <t>فلفل فرنگی</t>
+          <t>گردوی بویا</t>
         </is>
       </c>
       <c r="DE5" t="inlineStr">
         <is>
-          <t>allspice</t>
+          <t>nutmeg</t>
         </is>
       </c>
       <c r="DF5" t="inlineStr">
         <is>
-          <t>https://partigabor.github.io/aromatica/items/allspice</t>
+          <t>https://partigabor.github.io/aromatica/items/nutmeg</t>
         </is>
       </c>
       <c r="DG5" t="inlineStr">
         <is>
-          <t>156136</t>
+          <t>2500629</t>
         </is>
       </c>
       <c r="DH5" t="inlineStr">
         <is>
-          <t>196799-2</t>
+          <t>586076-1</t>
         </is>
       </c>
       <c r="DI5" t="inlineStr">
@@ -3170,53 +3190,49 @@
       </c>
       <c r="DK5" t="inlineStr">
         <is>
-          <t>Myrtaceae</t>
+          <t>Myristicaceae</t>
         </is>
       </c>
       <c r="DL5" t="inlineStr"/>
       <c r="DM5" t="inlineStr">
         <is>
-          <t>Pimenta</t>
+          <t>Myristica</t>
         </is>
       </c>
       <c r="DN5" t="inlineStr"/>
       <c r="DO5" t="inlineStr">
         <is>
-          <t>dioica</t>
+          <t>fragrans</t>
         </is>
       </c>
       <c r="DP5" t="inlineStr"/>
       <c r="DQ5" t="inlineStr"/>
-      <c r="DR5" t="inlineStr">
-        <is>
-          <t>L.</t>
-        </is>
-      </c>
+      <c r="DR5" t="inlineStr"/>
       <c r="DS5" t="inlineStr">
         <is>
-          <t>Merr.</t>
+          <t>Houtt.</t>
         </is>
       </c>
       <c r="DT5" t="inlineStr"/>
       <c r="DU5" t="inlineStr">
         <is>
-          <t>Contr. Gray Herb.</t>
+          <t>Nat. Hist.</t>
         </is>
       </c>
       <c r="DV5" t="inlineStr">
         <is>
-          <t>, n.s., 165: 337</t>
+          <t xml:space="preserve"> 2(3): 333</t>
         </is>
       </c>
       <c r="DW5" t="inlineStr">
         <is>
-          <t>(1947)</t>
+          <t>(1774)</t>
         </is>
       </c>
       <c r="DX5" t="inlineStr"/>
       <c r="DY5" t="inlineStr">
         <is>
-          <t>S. Mexico to C. America, Caribbean</t>
+          <t>Maluku (Banda Is.)</t>
         </is>
       </c>
       <c r="DZ5" t="inlineStr">
@@ -3226,60 +3242,56 @@
       </c>
       <c r="EA5" t="inlineStr">
         <is>
-          <t>seasonally dry tropical</t>
+          <t>wet tropical</t>
         </is>
       </c>
       <c r="EB5" t="inlineStr">
         <is>
-          <t>156136</t>
-        </is>
-      </c>
-      <c r="EC5" t="inlineStr">
-        <is>
-          <t>132459</t>
-        </is>
-      </c>
+          <t>2500629</t>
+        </is>
+      </c>
+      <c r="EC5" t="inlineStr"/>
       <c r="ED5" t="inlineStr"/>
       <c r="EE5" t="inlineStr"/>
       <c r="EF5" t="inlineStr">
         <is>
-          <t>156124</t>
+          <t>2500594</t>
         </is>
       </c>
       <c r="EG5" t="inlineStr">
         <is>
-          <t>196799-2</t>
+          <t>586076-1</t>
         </is>
       </c>
       <c r="EH5" t="inlineStr"/>
       <c r="EI5" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="EJ5" t="inlineStr">
         <is>
-          <t>https://powo.science.kew.org/taxon/196799-2</t>
+          <t>https://powo.science.kew.org/taxon/586076-1</t>
         </is>
       </c>
       <c r="EK5" t="inlineStr">
         <is>
-          <t>Mexico Gulf, Mexico Southwest, Mexico Southeast, Belize, Costa Rica, Guatemala, Honduras, Nicaragua, Bahamas, Cayman Is., Cuba, Dominican Republic, Jamaica</t>
+          <t>Maluku</t>
         </is>
       </c>
       <c r="EL5" t="inlineStr">
         <is>
-          <t>Society Is., Caroline Is., Hawaii, Florida, El Salvador, Bermuda, Puerto Rico, Southwest Caribbean, Trinidad-Tobago, Venezuela, Colombia</t>
+          <t>Gulf of Guinea Is., Comoros, Mauritius, Réunion, China South-Central, China Southeast, Taiwan, Assam, Bangladesh, Laos, Thailand, Vietnam, Jawa, Philippines, Samoa</t>
         </is>
       </c>
       <c r="EM5" t="inlineStr">
         <is>
-          <t>Mexico, Central America, Caribbean</t>
+          <t>Malesia</t>
         </is>
       </c>
       <c r="EN5" t="inlineStr">
         <is>
-          <t>NORTHERN AMERICA, SOUTHERN AMERICA</t>
+          <t>ASIA-TROPICAL</t>
         </is>
       </c>
     </row>
@@ -3290,7 +3302,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -3301,24 +3313,20 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>anise</t>
+          <t>pepper</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>the seed-like fruits of a Mediterranean herb</t>
+          <t>the dried fruits of an Indian vine</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>fennel</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>star anise</t>
-        </is>
-      </c>
+          <t>long pepper; cubeb</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
           <t>vanwyk_culinary_2014</t>
@@ -3348,14 +3356,14 @@
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>Pimpinella anisum</t>
+          <t>Piper nigrum</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -3373,53 +3381,49 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>culinary; distillery</t>
+          <t>culinary; medicinal</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>https://en.wikipedia.org/wiki/Anise</t>
+          <t>https://en.wikipedia.org/wiki/Black_pepper</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>https://www.britannica.com/plant/anise</t>
+          <t>https://www.britannica.com/plant/black-pepper-plant</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>anise</t>
+          <t>pepper plant</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>anise; aniseed; anise seed; brown anise; white anise</t>
+          <t>black pepper; peppercorns</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>anise; aniseed</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>Anise</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>brown anise; white anise</t>
-        </is>
-      </c>
+          <t>pepper; black pepper</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr"/>
       <c r="AI6" t="inlineStr"/>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="inlineStr"/>
-      <c r="AM6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>peppercorns</t>
+        </is>
+      </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>anise; anisun; huiqin</t>
+          <t>pepper; fulful; hujiao</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr"/>
@@ -3430,54 +3434,54 @@
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>fruit; oil; leaf</t>
+          <t>fruit</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>E. Mediterranean; W. Asia; Asia Minor</t>
+          <t>Malabar coast (South India)</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr"/>
       <c r="AT6" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="AU6" t="n">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Karnataka</t>
         </is>
       </c>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Mediterranean</t>
+          <t>Asia</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Turkey; Egypt; Spain; Russia; Italy; etc.</t>
+          <t>Vietnam; Brazil; Indonesia; India; Sri Lanka; etc.</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
-          <t>light brown</t>
+          <t>black; white; green</t>
         </is>
       </c>
       <c r="AZ6" t="inlineStr">
         <is>
-          <t>licorice-like, sweet</t>
+          <t>pungent, hot</t>
         </is>
       </c>
       <c r="BA6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="BB6" t="inlineStr">
         <is>
-          <t>pastries, candies, liquors</t>
+          <t>flavors; colds; pepper steak; poivrade sauce; Pfefferkuchen</t>
         </is>
       </c>
       <c r="BC6" t="inlineStr">
@@ -3487,7 +3491,7 @@
       </c>
       <c r="BD6" t="inlineStr">
         <is>
-          <t>II 93</t>
+          <t>II 144</t>
         </is>
       </c>
       <c r="BE6" t="inlineStr">
@@ -3497,81 +3501,81 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>https://www.biodiversitylibrary.org/item/10837#page/529/mode/1up</t>
-        </is>
-      </c>
-      <c r="BG6" t="inlineStr">
-        <is>
-          <t>https://www.calabrianfood.com/black-anise-seed</t>
-        </is>
-      </c>
+          <t>https://www.biodiversitylibrary.org/item/10837#page/633/mode/1up</t>
+        </is>
+      </c>
+      <c r="BG6" t="inlineStr"/>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>anise.n.01</t>
+          <t>pepper.n.01</t>
         </is>
       </c>
       <c r="BI6" t="inlineStr">
         <is>
-          <t>anise.n.02</t>
+          <t>pepper.n.03</t>
         </is>
       </c>
       <c r="BJ6" t="inlineStr"/>
       <c r="BK6" t="inlineStr">
         <is>
-          <t>anise</t>
+          <t>pepper</t>
         </is>
       </c>
       <c r="BL6" t="inlineStr">
         <is>
-          <t>aniseed</t>
+          <t>black pepper</t>
         </is>
       </c>
       <c r="BM6" t="inlineStr">
         <is>
-          <t>أنيسون</t>
+          <t>فلفل</t>
         </is>
       </c>
       <c r="BN6" t="inlineStr">
         <is>
-          <t>anīsūn</t>
+          <t>filfil, fulful</t>
         </is>
       </c>
       <c r="BO6" t="inlineStr"/>
       <c r="BP6" t="inlineStr">
         <is>
-          <t>يانسون *yānsūn*</t>
+          <t>[black pepper] *fulful aswad* فلفل أسود</t>
         </is>
       </c>
       <c r="BQ6" t="inlineStr">
         <is>
-          <t>茴芹</t>
+          <t>胡椒</t>
         </is>
       </c>
       <c r="BR6" t="inlineStr">
         <is>
-          <t>huíqín</t>
+          <t>hújiāo</t>
         </is>
       </c>
       <c r="BS6" t="inlineStr">
         <is>
-          <t>anise-celery</t>
+          <t>barbarian-pepper</t>
         </is>
       </c>
       <c r="BT6" t="inlineStr">
         <is>
-          <t>西洋茴香 xīyáng huíxiāng [Western-ocean-hui-spice] 'western anise', 洋茴香, 大茴香 'big anise'*, 歐洲大茴香 'European anise'</t>
+          <t>黑胡椒 *hēihújiāo* [black-barbarian-pepper]</t>
         </is>
       </c>
       <c r="BU6" t="inlineStr"/>
       <c r="BV6" t="inlineStr">
         <is>
-          <t>ánizs</t>
-        </is>
-      </c>
-      <c r="BW6" t="inlineStr"/>
+          <t>bors</t>
+        </is>
+      </c>
+      <c r="BW6" t="inlineStr">
+        <is>
+          <t>pepper</t>
+        </is>
+      </c>
       <c r="BX6" t="inlineStr">
         <is>
-          <t>közönséges ánizs; illatos ánizs; fűszeránizs</t>
+          <t>fekete bors [black pepper]</t>
         </is>
       </c>
       <c r="BY6" t="inlineStr"/>
@@ -3580,82 +3584,150 @@
       <c r="CB6" t="inlineStr"/>
       <c r="CC6" t="inlineStr">
         <is>
-          <t>Cult: Turkey, Egypt, Spain, Russia, Italy, India, Greece, Northern Africa, Argentina, Malta, Romania, Syria</t>
+          <t>pepper; peppercorn; biber; pepperwort; Malabar coast; Sri Lanka?; black gold</t>
         </is>
       </c>
       <c r="CD6" t="inlineStr"/>
       <c r="CE6" t="inlineStr">
         <is>
-          <t>Fructus Anisi</t>
+          <t>Fructus Piperis nigri/albi; Piperis Fructus</t>
         </is>
       </c>
       <c r="CF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG6" t="inlineStr"/>
-      <c r="CH6" t="inlineStr"/>
-      <c r="CI6" t="inlineStr"/>
-      <c r="CJ6" t="inlineStr"/>
-      <c r="CK6" t="inlineStr"/>
-      <c r="CL6" t="inlineStr"/>
-      <c r="CM6" t="inlineStr"/>
-      <c r="CN6" t="inlineStr"/>
-      <c r="CO6" t="inlineStr"/>
-      <c r="CP6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="CG6" t="inlineStr">
+        <is>
+          <t>polyu-tcm</t>
+        </is>
+      </c>
+      <c r="CH6" t="inlineStr">
+        <is>
+          <t>https://herbaltcm.sn.polyu.edu.hk/herbal/pepper-fruit</t>
+        </is>
+      </c>
+      <c r="CI6" t="inlineStr">
+        <is>
+          <t>胡椒</t>
+        </is>
+      </c>
+      <c r="CJ6" t="inlineStr">
+        <is>
+          <t>hújiāo</t>
+        </is>
+      </c>
+      <c r="CK6" t="inlineStr">
+        <is>
+          <t>Pepper Fruit</t>
+        </is>
+      </c>
+      <c r="CL6" t="inlineStr">
+        <is>
+          <t>Dried ripe fruit-spike of Piper nigrum L. (Fam. Piperaceae)</t>
+        </is>
+      </c>
+      <c r="CM6" t="inlineStr">
+        <is>
+          <t>Interior-warming medicinal</t>
+        </is>
+      </c>
+      <c r="CN6" t="inlineStr">
+        <is>
+          <t>pungent; hot</t>
+        </is>
+      </c>
+      <c r="CO6" t="inlineStr">
+        <is>
+          <t>Stomach, Large intestine</t>
+        </is>
+      </c>
+      <c r="CP6" t="inlineStr">
+        <is>
+          <t>To warm the middle and dissipate cold, subdue upward qi flow and to eliminate phlegm</t>
+        </is>
+      </c>
       <c r="CQ6" t="inlineStr"/>
-      <c r="CR6" t="inlineStr"/>
-      <c r="CS6" t="inlineStr"/>
-      <c r="CT6" t="inlineStr"/>
-      <c r="CU6" t="inlineStr"/>
-      <c r="CV6" t="inlineStr"/>
-      <c r="CW6" t="inlineStr"/>
+      <c r="CR6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="CS6" t="inlineStr">
+        <is>
+          <t>659</t>
+        </is>
+      </c>
+      <c r="CT6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="CU6" t="inlineStr">
+        <is>
+          <t>https://www.gbif.org/species/3086357</t>
+        </is>
+      </c>
+      <c r="CV6" t="inlineStr">
+        <is>
+          <t>https://tropicos.org/name/25000013</t>
+        </is>
+      </c>
+      <c r="CW6" t="inlineStr">
+        <is>
+          <t>https://eol.org/pages/596620</t>
+        </is>
+      </c>
       <c r="CX6" t="n">
-        <v>271192</v>
+        <v>13216</v>
       </c>
       <c r="CY6" t="inlineStr">
         <is>
-          <t>मोटी सौंफ़</t>
+          <t>काली मिर्च</t>
         </is>
       </c>
       <c r="CZ6" t="inlineStr">
         <is>
-          <t>motī saunf</t>
+          <t>kālī mirch</t>
         </is>
       </c>
       <c r="DA6" t="inlineStr">
         <is>
-          <t>fat fennel</t>
-        </is>
-      </c>
-      <c r="DB6" t="inlineStr"/>
+          <t>black pepper</t>
+        </is>
+      </c>
+      <c r="DB6" t="inlineStr">
+        <is>
+          <t>सफेद काली मिर्च…</t>
+        </is>
+      </c>
       <c r="DC6" t="inlineStr">
         <is>
-          <t>adas manis</t>
+          <t>lada; lada hitam; lada putih; merica</t>
         </is>
       </c>
       <c r="DD6" t="inlineStr">
         <is>
-          <t>بادیان رومی، انیسون</t>
+          <t>فلفل سیاه</t>
         </is>
       </c>
       <c r="DE6" t="inlineStr">
         <is>
-          <t>anise</t>
+          <t>pepper</t>
         </is>
       </c>
       <c r="DF6" t="inlineStr">
         <is>
-          <t>https://partigabor.github.io/aromatica/items/anise</t>
+          <t>https://partigabor.github.io/aromatica/items/pepper</t>
         </is>
       </c>
       <c r="DG6" t="inlineStr">
         <is>
-          <t>2402426</t>
+          <t>2569664</t>
         </is>
       </c>
       <c r="DH6" t="inlineStr">
         <is>
-          <t>846658-1</t>
+          <t>682369-1</t>
         </is>
       </c>
       <c r="DI6" t="inlineStr">
@@ -3670,19 +3742,19 @@
       </c>
       <c r="DK6" t="inlineStr">
         <is>
-          <t>Apiaceae</t>
+          <t>Piperaceae</t>
         </is>
       </c>
       <c r="DL6" t="inlineStr"/>
       <c r="DM6" t="inlineStr">
         <is>
-          <t>Pimpinella</t>
+          <t>Piper</t>
         </is>
       </c>
       <c r="DN6" t="inlineStr"/>
       <c r="DO6" t="inlineStr">
         <is>
-          <t>anisum</t>
+          <t>nigrum</t>
         </is>
       </c>
       <c r="DP6" t="inlineStr"/>
@@ -3701,7 +3773,7 @@
       </c>
       <c r="DV6" t="inlineStr">
         <is>
-          <t>: 264</t>
+          <t>: 28</t>
         </is>
       </c>
       <c r="DW6" t="inlineStr">
@@ -3712,22 +3784,22 @@
       <c r="DX6" t="inlineStr"/>
       <c r="DY6" t="inlineStr">
         <is>
-          <t>SE. Türkiye to C. Israel, Cyprus</t>
+          <t>SW. India</t>
         </is>
       </c>
       <c r="DZ6" t="inlineStr">
         <is>
-          <t>annual</t>
+          <t>climber</t>
         </is>
       </c>
       <c r="EA6" t="inlineStr">
         <is>
-          <t>temperate</t>
+          <t>wet tropical</t>
         </is>
       </c>
       <c r="EB6" t="inlineStr">
         <is>
-          <t>2402426</t>
+          <t>2569664</t>
         </is>
       </c>
       <c r="EC6" t="inlineStr"/>
@@ -3735,12 +3807,12 @@
       <c r="EE6" t="inlineStr"/>
       <c r="EF6" t="inlineStr">
         <is>
-          <t>2402470</t>
+          <t>2555110</t>
         </is>
       </c>
       <c r="EG6" t="inlineStr">
         <is>
-          <t>846658-1</t>
+          <t>682369-1</t>
         </is>
       </c>
       <c r="EH6" t="inlineStr"/>
@@ -3751,27 +3823,27 @@
       </c>
       <c r="EJ6" t="inlineStr">
         <is>
-          <t>https://powo.science.kew.org/taxon/846658-1</t>
+          <t>https://powo.science.kew.org/taxon/682369-1</t>
         </is>
       </c>
       <c r="EK6" t="inlineStr">
         <is>
-          <t>Cyprus, Lebanon-Syria, Palestine, Turkey</t>
+          <t>India</t>
         </is>
       </c>
       <c r="EL6" t="inlineStr">
         <is>
-          <t>Denmark, Norway, Sweden, Austria, Czechoslovakia, Germany, Hungary, Poland, France, Portugal, Spain, Bulgaria, Greece, Italy, Kriti, Romania, Yugoslavia, Belarus, South European Russi, Ukraine, Morocco, Tunisia, Kazakhstan, Turkmenistan, Tadzhikistan, Uzbekistan, East Aegean Is., Iraq, Oman, Xinjiang, Bangladesh, India, Laos, Massachusetts, Michigan, Guatemala, Leeward Is., Trinidad-Tobago, Venezuela, Brazil South, Argentina Northeast, Argentina Northwest</t>
+          <t>Benin, Guinea, Cameroon, Gulf of Guinea Is., Ethiopia, Comoros, Mauritius, Réunion, Seychelles, China South-Central, China Southeast, Assam, Bangladesh, East Himalaya, Sri Lanka, Andaman Is., Cambodia, Laos, Nicobar Is., Thailand, Vietnam, Philippines, Vanuatu, Cook Is., Caroline Is., Marianas, Mexico Gulf, Costa Rica, Honduras, Cuba, Dominican Republic, Haiti, Leeward Is., Puerto Rico, Trinidad-Tobago, Windward Is., French Guiana, Venezuela</t>
         </is>
       </c>
       <c r="EM6" t="inlineStr">
         <is>
-          <t>Western Asia</t>
+          <t>Indian Subcontinent</t>
         </is>
       </c>
       <c r="EN6" t="inlineStr">
         <is>
-          <t>ASIA-TEMPERATE</t>
+          <t>ASIA-TROPICAL</t>
         </is>
       </c>
     </row>
@@ -3782,7 +3854,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -3793,12 +3865,12 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>asafoetida</t>
+          <t>saffron</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>the dried resin of Ferula foetida and F. assa-foetida</t>
+          <t>the stigmas or styles of the saffron crocus flower; stamen of Crocus sativus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -3832,82 +3904,74 @@
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>Ferula foetida</t>
+          <t>Crocus sativus</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>(Bunge) Regel</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>Ferula assa-foetida L.; Ferula narthex; et al.</t>
-        </is>
-      </c>
+      <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>spice; dye</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>culinary; medicinal</t>
+          <t>culinary</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>https://en.wikipedia.org/wiki/Asafoetida</t>
+          <t>https://en.wikipedia.org/wiki/Saffron</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>https://www.britannica.com/topic/asafetida</t>
+          <t>https://www.britannica.com/topic/saffron</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>ferula plant</t>
+          <t>saffron crocus; autumn crocus</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>asafoetida; hing, devil’s dung, asant; fetida</t>
+          <t>saffron</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>hing, devil’s dung, asant; fetida</t>
+          <t>saffron</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>Asafoetida, hing</t>
+          <t>Saffron</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="inlineStr"/>
       <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>asafetida</t>
-        </is>
-      </c>
+      <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="inlineStr"/>
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>asafoetida; hing; hiltit; anjudan; awei; xingqu</t>
+          <t>saffron; zafaran; fanhonghua</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr"/>
@@ -3918,54 +3982,54 @@
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>gum-resin (latex)</t>
+          <t>stigma (style)</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>Iran; W. and C. Asia</t>
+          <t>Greece; Near East</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr"/>
       <c r="AT7" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AU7" t="n">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Santorini</t>
         </is>
       </c>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Asia</t>
+          <t>Mediterranean</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Iran; Afghanistan</t>
+          <t>Iran; Spain; Kashmir; etc.</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>from pale yellow to brown</t>
+          <t>deep red; dyes in orange</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
         <is>
-          <t>pungent, rotten</t>
+          <t>pungent, bitter</t>
         </is>
       </c>
       <c r="BA7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BB7" t="inlineStr">
         <is>
-          <t>curries; expectorant</t>
+          <t>paella, bouillabaise, rice, tagine, fevers</t>
         </is>
       </c>
       <c r="BC7" t="inlineStr">
@@ -3975,7 +4039,7 @@
       </c>
       <c r="BD7" t="inlineStr">
         <is>
-          <t>II 147</t>
+          <t>II 164</t>
         </is>
       </c>
       <c r="BE7" t="inlineStr">
@@ -3985,111 +4049,139 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>https://www.biodiversitylibrary.org/item/10837#page/639/mode/1up</t>
+          <t>https://www.biodiversitylibrary.org/item/10837#page/675/mode/1up</t>
         </is>
       </c>
       <c r="BG7" t="inlineStr"/>
-      <c r="BH7" t="inlineStr"/>
+      <c r="BH7" t="inlineStr">
+        <is>
+          <t>saffron.n.01</t>
+        </is>
+      </c>
       <c r="BI7" t="inlineStr">
         <is>
-          <t>asafetida.n.01</t>
+          <t>saffron.n.02</t>
         </is>
       </c>
       <c r="BJ7" t="inlineStr"/>
       <c r="BK7" t="inlineStr">
         <is>
-          <t>asafoetida</t>
-        </is>
-      </c>
-      <c r="BL7" t="inlineStr">
-        <is>
-          <t>hing; devil's dung</t>
-        </is>
-      </c>
+          <t>saffron</t>
+        </is>
+      </c>
+      <c r="BL7" t="inlineStr"/>
       <c r="BM7" t="inlineStr">
         <is>
-          <t>حلتیت</t>
+          <t>زعفران</t>
         </is>
       </c>
       <c r="BN7" t="inlineStr">
         <is>
-          <t>ḥiltīt</t>
+          <t>zaʿfarān</t>
         </is>
       </c>
       <c r="BO7" t="inlineStr"/>
       <c r="BP7" t="inlineStr"/>
       <c r="BQ7" t="inlineStr">
         <is>
-          <t>阿魏</t>
+          <t>藏紅花</t>
         </is>
       </c>
       <c r="BR7" t="inlineStr">
         <is>
-          <t>āwèi</t>
-        </is>
-      </c>
-      <c r="BS7" t="inlineStr"/>
-      <c r="BT7" t="inlineStr"/>
-      <c r="BU7" t="inlineStr"/>
+          <t>zànghónghuā</t>
+        </is>
+      </c>
+      <c r="BS7" t="inlineStr">
+        <is>
+          <t>Tibetan-red-flower</t>
+        </is>
+      </c>
+      <c r="BT7" t="inlineStr">
+        <is>
+          <t>西紅花 *xīhónghuā* [western-red-flower]; 番紅花 *fān​hóng​huā* [foreign-red-flower]</t>
+        </is>
+      </c>
+      <c r="BU7" t="inlineStr">
+        <is>
+          <t>藏紅花</t>
+        </is>
+      </c>
       <c r="BV7" t="inlineStr">
         <is>
-          <t>ördöggyökér</t>
-        </is>
-      </c>
-      <c r="BW7" t="inlineStr">
-        <is>
-          <t>devil's root</t>
-        </is>
-      </c>
-      <c r="BX7" t="inlineStr">
-        <is>
-          <t>aszatgyanta [asat resin]; bűzös aszat [stinking asat]</t>
-        </is>
-      </c>
-      <c r="BY7" t="inlineStr">
-        <is>
-          <t>büdös gyantagyökér; bűzös husáng, bűzös aszat; ördögszar, aszatgyanta, aszandkórógyanta, pálcakórógyanta, aszafetida, bűzaszat , Aszandkóró (növény wiki)!</t>
-        </is>
-      </c>
+          <t>sáfrány</t>
+        </is>
+      </c>
+      <c r="BW7" t="inlineStr"/>
+      <c r="BX7" t="inlineStr"/>
+      <c r="BY7" t="inlineStr"/>
       <c r="BZ7" t="inlineStr"/>
       <c r="CA7" t="inlineStr"/>
       <c r="CB7" t="inlineStr"/>
       <c r="CC7" t="inlineStr">
         <is>
-          <t>Tamil perungayam. There is a saying in Kannada 'ಇಂಗು ತೆಂಗು ಇದ್ದರೆ ಮಂಗನೂ ಅಡಿಗೆ ಮಾಡತ್ತೆ'. This means even a monkey can cook if Asafoetida and coconut is available. Hing is must in Kannada and Marathi brahmin cuisine for sure.</t>
+          <t>Greece or Asia Minor</t>
         </is>
       </c>
       <c r="CD7" t="inlineStr"/>
       <c r="CE7" t="inlineStr">
         <is>
-          <t>Asafetida; Resina Ferulae</t>
+          <t xml:space="preserve">Stigmata Croci; Stylus Croci; Croci Stigma; </t>
         </is>
       </c>
       <c r="CF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG7" t="inlineStr"/>
-      <c r="CH7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="CG7" t="inlineStr">
+        <is>
+          <t>polyu-tcm</t>
+        </is>
+      </c>
+      <c r="CH7" t="inlineStr">
+        <is>
+          <t>https://herbaltcm.sn.polyu.edu.hk/herbal/saffron</t>
+        </is>
+      </c>
       <c r="CI7" t="inlineStr">
         <is>
-          <t>阿魏</t>
+          <t>西紅花</t>
         </is>
       </c>
       <c r="CJ7" t="inlineStr">
         <is>
-          <t>āwèi</t>
+          <t>xīhónghuā</t>
         </is>
       </c>
       <c r="CK7" t="inlineStr">
         <is>
-          <t>Ferula Resin</t>
-        </is>
-      </c>
-      <c r="CL7" t="inlineStr"/>
-      <c r="CM7" t="inlineStr"/>
-      <c r="CN7" t="inlineStr"/>
-      <c r="CO7" t="inlineStr"/>
-      <c r="CP7" t="inlineStr"/>
+          <t>Saffron</t>
+        </is>
+      </c>
+      <c r="CL7" t="inlineStr">
+        <is>
+          <t>Dried stigma of Crocus sativus L. (Fam. Iridaceae)</t>
+        </is>
+      </c>
+      <c r="CM7" t="inlineStr">
+        <is>
+          <t>Blood-activating menstruation regulating medicinal</t>
+        </is>
+      </c>
+      <c r="CN7" t="inlineStr">
+        <is>
+          <t>sweet; neutral</t>
+        </is>
+      </c>
+      <c r="CO7" t="inlineStr">
+        <is>
+          <t>Liver, Heart</t>
+        </is>
+      </c>
+      <c r="CP7" t="inlineStr">
+        <is>
+          <t>To activate blood circulation and eliminate blood stasis, cool the blood and detoxify, and tranquilize</t>
+        </is>
+      </c>
       <c r="CQ7" t="inlineStr"/>
       <c r="CR7" t="inlineStr">
         <is>
@@ -4098,48 +4190,76 @@
       </c>
       <c r="CS7" t="inlineStr">
         <is>
-          <t>659</t>
+          <t>1596</t>
         </is>
       </c>
       <c r="CT7" t="inlineStr"/>
-      <c r="CU7" t="inlineStr"/>
-      <c r="CV7" t="inlineStr"/>
-      <c r="CW7" t="inlineStr"/>
+      <c r="CU7" t="inlineStr">
+        <is>
+          <t>https://www.gbif.org/species/2747430</t>
+        </is>
+      </c>
+      <c r="CV7" t="inlineStr">
+        <is>
+          <t>https://tropicos.org/name/16600120</t>
+        </is>
+      </c>
+      <c r="CW7" t="inlineStr">
+        <is>
+          <t>https://eol.org/pages/488247</t>
+        </is>
+      </c>
       <c r="CX7" t="n">
-        <v>371345</v>
+        <v>82528</v>
       </c>
       <c r="CY7" t="inlineStr">
         <is>
-          <t>हींग</t>
+          <t>केसर</t>
         </is>
       </c>
       <c r="CZ7" t="inlineStr">
         <is>
-          <t>hīng</t>
-        </is>
-      </c>
-      <c r="DA7" t="inlineStr"/>
-      <c r="DB7" t="inlineStr"/>
-      <c r="DC7" t="inlineStr"/>
-      <c r="DD7" t="inlineStr"/>
+          <t>kesar</t>
+        </is>
+      </c>
+      <c r="DA7" t="inlineStr">
+        <is>
+          <t>hair, mane</t>
+        </is>
+      </c>
+      <c r="DB7" t="inlineStr">
+        <is>
+          <t>कुंकुम; जाफरान; सैफ्रन</t>
+        </is>
+      </c>
+      <c r="DC7" t="inlineStr">
+        <is>
+          <t>kuma-kuma; safron</t>
+        </is>
+      </c>
+      <c r="DD7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">زعفران </t>
+        </is>
+      </c>
       <c r="DE7" t="inlineStr">
         <is>
-          <t>asafoetida</t>
+          <t>saffron</t>
         </is>
       </c>
       <c r="DF7" t="inlineStr">
         <is>
-          <t>https://partigabor.github.io/aromatica/items/asafoetida</t>
+          <t>https://partigabor.github.io/aromatica/items/saffron</t>
         </is>
       </c>
       <c r="DG7" t="inlineStr">
         <is>
-          <t>2808419</t>
+          <t>327454</t>
         </is>
       </c>
       <c r="DH7" t="inlineStr">
         <is>
-          <t>842277-1</t>
+          <t>436688-1</t>
         </is>
       </c>
       <c r="DI7" t="inlineStr">
@@ -4154,112 +4274,108 @@
       </c>
       <c r="DK7" t="inlineStr">
         <is>
-          <t>Apiaceae</t>
+          <t>Iridaceae</t>
         </is>
       </c>
       <c r="DL7" t="inlineStr"/>
       <c r="DM7" t="inlineStr">
         <is>
-          <t>Ferula</t>
+          <t>Crocus</t>
         </is>
       </c>
       <c r="DN7" t="inlineStr"/>
       <c r="DO7" t="inlineStr">
         <is>
-          <t>foetida</t>
+          <t>sativus</t>
         </is>
       </c>
       <c r="DP7" t="inlineStr"/>
       <c r="DQ7" t="inlineStr"/>
-      <c r="DR7" t="inlineStr">
-        <is>
-          <t>Bunge</t>
-        </is>
-      </c>
+      <c r="DR7" t="inlineStr"/>
       <c r="DS7" t="inlineStr">
         <is>
-          <t>Regel</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="DT7" t="inlineStr"/>
       <c r="DU7" t="inlineStr">
         <is>
-          <t>Trudy Imp. S.-Peterburgsk. Bot. Sada</t>
+          <t>Sp. Pl.</t>
         </is>
       </c>
       <c r="DV7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5: 592</t>
+          <t>: 36</t>
         </is>
       </c>
       <c r="DW7" t="inlineStr">
         <is>
-          <t>(1877)</t>
+          <t>(1753)</t>
         </is>
       </c>
       <c r="DX7" t="inlineStr"/>
       <c r="DY7" t="inlineStr">
         <is>
-          <t>Iran to C. Asia and W. Pakistan</t>
+          <t>a cultigen from Greece</t>
         </is>
       </c>
       <c r="DZ7" t="inlineStr">
         <is>
-          <t>perennial</t>
+          <t>tuberous geophyte</t>
         </is>
       </c>
       <c r="EA7" t="inlineStr">
         <is>
-          <t>temperate</t>
+          <t>subtropical</t>
         </is>
       </c>
       <c r="EB7" t="inlineStr">
         <is>
-          <t>2808419</t>
-        </is>
-      </c>
-      <c r="EC7" t="inlineStr">
-        <is>
-          <t>2479171</t>
-        </is>
-      </c>
+          <t>327454</t>
+        </is>
+      </c>
+      <c r="EC7" t="inlineStr"/>
       <c r="ED7" t="inlineStr"/>
       <c r="EE7" t="inlineStr"/>
       <c r="EF7" t="inlineStr">
         <is>
-          <t>2808299</t>
+          <t>327117</t>
         </is>
       </c>
       <c r="EG7" t="inlineStr">
         <is>
-          <t>842277-1</t>
+          <t>436688-1</t>
         </is>
       </c>
       <c r="EH7" t="inlineStr"/>
       <c r="EI7" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="EJ7" t="inlineStr">
         <is>
-          <t>https://powo.science.kew.org/taxon/842277-1</t>
+          <t>https://powo.science.kew.org/taxon/436688-1</t>
         </is>
       </c>
       <c r="EK7" t="inlineStr">
         <is>
-          <t>Kazakhstan, Kirgizstan, Turkmenistan, Tadzhikistan, Uzbekistan, Afghanistan, Iran, Pakistan</t>
-        </is>
-      </c>
-      <c r="EL7" t="inlineStr"/>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="EL7" t="inlineStr">
+        <is>
+          <t>Czechoslovakia, Spain, Italy, Morocco, Iran, Turkey, Pakistan, West Himalaya</t>
+        </is>
+      </c>
       <c r="EM7" t="inlineStr">
         <is>
-          <t>Middle Asia, Western Asia, Indian Subcontinent</t>
+          <t>Southeastern Europe</t>
         </is>
       </c>
       <c r="EN7" t="inlineStr">
         <is>
-          <t>ASIA-TEMPERATE, ASIA-TROPICAL</t>
+          <t>EUROPE</t>
         </is>
       </c>
     </row>
@@ -4270,7 +4386,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -4278,25 +4394,21 @@
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>cardamoms</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>cardamom</t>
+          <t>turmeric</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>the bright-green seed pods of an Indian plant; fruit of Elettaria cardamomum</t>
+          <t>the bright yellow powder yielded from the rhizomes of Curcuma longa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Bastard cardamom; Bengal cardamom; Cambodian cardamom; Cameroon cardamom; Ethiopian cardamom; Kepulaga; Madagascar cardamom; Nepaul cardamom</t>
+          <t>yellow zedoary</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -4328,66 +4440,66 @@
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>Elettaria cardamomum</t>
+          <t>Curcuma longa</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>(L.) Maton</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr">
         <is>
-          <t>Amomum cardamomum L.</t>
+          <t>Curcuma domestica Valeton</t>
         </is>
       </c>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>spice; dye</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>culinary; medicinal</t>
+          <t>culinary; medicinal; ritualistic</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>https://en.wikipedia.org/wiki/Cardamom</t>
+          <t>https://en.wikipedia.org/wiki/Turmeric</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>https://www.britannica.com/plant/cardamom</t>
+          <t>https://www.britannica.com/plant/turmeric</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>true cardamom</t>
+          <t>turmeric</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t xml:space="preserve">cardamom, -mon, -mum; green cardamom; true cardamom </t>
+          <t>turmeric</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>cardamom</t>
+          <t>turmeric</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>Cardamom</t>
+          <t>Turmeric</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr"/>
@@ -4399,7 +4511,7 @@
       <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>cardamom; amomum; hal; qaqulla; doukou</t>
+          <t>turmeric; kurkum</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr"/>
@@ -4410,24 +4522,28 @@
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>fruit (seed pod)</t>
+          <t>rhizome</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>Kerala, S. India; southern Asia</t>
-        </is>
-      </c>
-      <c r="AS8" t="inlineStr"/>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t>southern Asia</t>
+        </is>
+      </c>
       <c r="AT8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU8" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>Kerala</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="AW8" t="inlineStr">
@@ -4437,27 +4553,27 @@
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Guatemala; India; Sri Lanka; Tanzania; Papua New Guinea</t>
+          <t>China; Honduras; India; Indonesia; Jamaica</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
-          <t>green seed pods, brown seeds</t>
+          <t>orange-yellow</t>
         </is>
       </c>
       <c r="AZ8" t="inlineStr">
         <is>
-          <t>pungent, eucalyptus-like</t>
+          <t>warm, acrid, bitter</t>
         </is>
       </c>
       <c r="BA8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="BB8" t="inlineStr">
         <is>
-          <t>desserts, coffees, curries</t>
+          <t>curries, dye; antiseptic</t>
         </is>
       </c>
       <c r="BC8" t="inlineStr">
@@ -4467,7 +4583,7 @@
       </c>
       <c r="BD8" t="inlineStr">
         <is>
-          <t>II 186</t>
+          <t>II 178</t>
         </is>
       </c>
       <c r="BE8" t="inlineStr">
@@ -4477,100 +4593,76 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>https://www.biodiversitylibrary.org/item/10837#page/721/mode/1up</t>
+          <t>https://www.biodiversitylibrary.org/item/10837#page/705/mode/1up</t>
         </is>
       </c>
       <c r="BG8" t="inlineStr"/>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>cardamom.n.01</t>
+          <t>turmeric.n.01</t>
         </is>
       </c>
       <c r="BI8" t="inlineStr">
         <is>
-          <t>cardamom.n.02</t>
+          <t>turmeric.n.02</t>
         </is>
       </c>
       <c r="BJ8" t="inlineStr"/>
       <c r="BK8" t="inlineStr">
         <is>
-          <t>cardamom</t>
-        </is>
-      </c>
-      <c r="BL8" t="inlineStr">
-        <is>
-          <t>true cardamom; green cardamom</t>
-        </is>
-      </c>
+          <t>turmeric</t>
+        </is>
+      </c>
+      <c r="BL8" t="inlineStr"/>
       <c r="BM8" t="inlineStr">
         <is>
-          <t>هال</t>
+          <t>كركم</t>
         </is>
       </c>
       <c r="BN8" t="inlineStr">
         <is>
-          <t>hāl</t>
+          <t>kurkum</t>
         </is>
       </c>
       <c r="BO8" t="inlineStr"/>
-      <c r="BP8" t="inlineStr">
-        <is>
-          <t>هيل *hayl*</t>
-        </is>
-      </c>
+      <c r="BP8" t="inlineStr"/>
       <c r="BQ8" t="inlineStr">
         <is>
-          <t>小豆蔻</t>
+          <t>薑黃</t>
         </is>
       </c>
       <c r="BR8" t="inlineStr">
         <is>
-          <t>xiǎodòukòu</t>
+          <t>jiānghuáng</t>
         </is>
       </c>
       <c r="BS8" t="inlineStr">
         <is>
-          <t>little-bean-cardamom</t>
+          <t>ginger-yellow</t>
         </is>
       </c>
       <c r="BT8" t="inlineStr">
         <is>
-          <t>豆蔻 [bean-cardamom]; 綠豆蔻 [green-bean-cardamom]</t>
-        </is>
-      </c>
-      <c r="BU8" t="inlineStr">
-        <is>
-          <t>荳蔻</t>
-        </is>
-      </c>
+          <t>黃薑 *huángjiāng* [yellow-ginger]</t>
+        </is>
+      </c>
+      <c r="BU8" t="inlineStr"/>
       <c r="BV8" t="inlineStr">
         <is>
-          <t>kardamom</t>
+          <t>kurkuma</t>
         </is>
       </c>
       <c r="BW8" t="inlineStr"/>
       <c r="BX8" t="inlineStr"/>
       <c r="BY8" t="inlineStr"/>
-      <c r="BZ8" t="inlineStr">
-        <is>
-          <t>綠荳蔻</t>
-        </is>
-      </c>
-      <c r="CA8" t="inlineStr">
-        <is>
-          <t>luk6 dau6 kau3</t>
-        </is>
-      </c>
-      <c r="CB8" t="inlineStr">
-        <is>
-          <t>green-cardamom</t>
-        </is>
-      </c>
+      <c r="BZ8" t="inlineStr"/>
+      <c r="CA8" t="inlineStr"/>
+      <c r="CB8" t="inlineStr"/>
       <c r="CC8" t="inlineStr"/>
       <c r="CD8" t="inlineStr"/>
       <c r="CE8" t="inlineStr">
         <is>
-          <t>Fructus Cardamomi</t>
+          <t>Rhizoma Curcumae (Longae); Curcumae Longae Rhizoma</t>
         </is>
       </c>
       <c r="CF8" t="n">
@@ -4578,92 +4670,124 @@
       </c>
       <c r="CG8" t="inlineStr">
         <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="CH8" t="inlineStr"/>
+          <t>polyu-tcm</t>
+        </is>
+      </c>
+      <c r="CH8" t="inlineStr">
+        <is>
+          <t>https://herbaltcm.sn.polyu.edu.hk/herbal/turmeric</t>
+        </is>
+      </c>
       <c r="CI8" t="inlineStr">
         <is>
-          <t>小豆蔻</t>
+          <t>薑黃</t>
         </is>
       </c>
       <c r="CJ8" t="inlineStr">
         <is>
-          <t>xiǎo​dòu​kòu</t>
+          <t>jiānghuáng</t>
         </is>
       </c>
       <c r="CK8" t="inlineStr">
         <is>
-          <t>Cardamom</t>
-        </is>
-      </c>
-      <c r="CL8" t="inlineStr"/>
-      <c r="CM8" t="inlineStr"/>
-      <c r="CN8" t="inlineStr"/>
-      <c r="CO8" t="inlineStr"/>
-      <c r="CP8" t="inlineStr"/>
+          <t>Turmeric</t>
+        </is>
+      </c>
+      <c r="CL8" t="inlineStr">
+        <is>
+          <t>Dried rhizome of Curcuma longa L. (Fam. Zingiberaceae)</t>
+        </is>
+      </c>
+      <c r="CM8" t="inlineStr">
+        <is>
+          <t>Blood-activating analgesic medicinal</t>
+        </is>
+      </c>
+      <c r="CN8" t="inlineStr">
+        <is>
+          <t>pungent, bitter; warm</t>
+        </is>
+      </c>
+      <c r="CO8" t="inlineStr">
+        <is>
+          <t>Liver, Spleen</t>
+        </is>
+      </c>
+      <c r="CP8" t="inlineStr">
+        <is>
+          <t>To elimainate blood stasis, promote the flow of qi, stimulate mentrual discharge and relieve pain</t>
+        </is>
+      </c>
       <c r="CQ8" t="inlineStr"/>
       <c r="CR8" t="inlineStr"/>
-      <c r="CS8" t="inlineStr"/>
-      <c r="CT8" t="inlineStr"/>
+      <c r="CS8" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="CT8" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
       <c r="CU8" t="inlineStr">
         <is>
-          <t>https://www.gbif.org/species/2759871</t>
+          <t>https://www.gbif.org/species/2757624</t>
         </is>
       </c>
       <c r="CV8" t="inlineStr">
         <is>
-          <t>https://tropicos.org/name/34500572</t>
+          <t>https://tropicos.org/name/34500029</t>
         </is>
       </c>
       <c r="CW8" t="inlineStr">
         <is>
-          <t>https://eol.org/pages/1120064</t>
+          <t>https://eol.org/pages/1122309</t>
         </is>
       </c>
       <c r="CX8" t="n">
-        <v>105181</v>
+        <v>136217</v>
       </c>
       <c r="CY8" t="inlineStr">
         <is>
-          <t xml:space="preserve">इलायची </t>
+          <t>हल्दी</t>
         </is>
       </c>
       <c r="CZ8" t="inlineStr">
         <is>
-          <t>ilāychī</t>
+          <t>haldī</t>
         </is>
       </c>
       <c r="DA8" t="inlineStr"/>
       <c r="DB8" t="inlineStr"/>
       <c r="DC8" t="inlineStr">
         <is>
-          <t>kapulaga seberang</t>
+          <t>kunyit</t>
         </is>
       </c>
       <c r="DD8" t="inlineStr">
         <is>
-          <t>هل سبز</t>
+          <t>زردچوبه</t>
         </is>
       </c>
       <c r="DE8" t="inlineStr">
         <is>
-          <t>cardamom</t>
+          <t>turmeric</t>
         </is>
       </c>
       <c r="DF8" t="inlineStr">
         <is>
-          <t>https://partigabor.github.io/aromatica/items/cardamom</t>
+          <t>https://partigabor.github.io/aromatica/items/turmeric</t>
         </is>
       </c>
       <c r="DG8" t="inlineStr">
         <is>
-          <t>243056</t>
+          <t>235249</t>
         </is>
       </c>
       <c r="DH8" t="inlineStr">
         <is>
-          <t>796556-1</t>
+          <t>796451-1</t>
         </is>
       </c>
       <c r="DI8" t="inlineStr">
@@ -4684,47 +4808,43 @@
       <c r="DL8" t="inlineStr"/>
       <c r="DM8" t="inlineStr">
         <is>
-          <t>Elettaria</t>
+          <t>Curcuma</t>
         </is>
       </c>
       <c r="DN8" t="inlineStr"/>
       <c r="DO8" t="inlineStr">
         <is>
-          <t>cardamomum</t>
+          <t>longa</t>
         </is>
       </c>
       <c r="DP8" t="inlineStr"/>
       <c r="DQ8" t="inlineStr"/>
-      <c r="DR8" t="inlineStr">
+      <c r="DR8" t="inlineStr"/>
+      <c r="DS8" t="inlineStr">
         <is>
           <t>L.</t>
-        </is>
-      </c>
-      <c r="DS8" t="inlineStr">
-        <is>
-          <t>Maton</t>
         </is>
       </c>
       <c r="DT8" t="inlineStr"/>
       <c r="DU8" t="inlineStr">
         <is>
-          <t>Trans. Linn. Soc. London</t>
+          <t>Sp. Pl.</t>
         </is>
       </c>
       <c r="DV8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10: 254</t>
+          <t>: 2</t>
         </is>
       </c>
       <c r="DW8" t="inlineStr">
         <is>
-          <t>(1811)</t>
+          <t>(1753)</t>
         </is>
       </c>
       <c r="DX8" t="inlineStr"/>
       <c r="DY8" t="inlineStr">
         <is>
-          <t>SW. India</t>
+          <t>a cultigen from SW. India</t>
         </is>
       </c>
       <c r="DZ8" t="inlineStr">
@@ -4739,24 +4859,20 @@
       </c>
       <c r="EB8" t="inlineStr">
         <is>
-          <t>243056</t>
-        </is>
-      </c>
-      <c r="EC8" t="inlineStr">
-        <is>
-          <t>219209</t>
-        </is>
-      </c>
+          <t>235249</t>
+        </is>
+      </c>
+      <c r="EC8" t="inlineStr"/>
       <c r="ED8" t="inlineStr"/>
       <c r="EE8" t="inlineStr"/>
       <c r="EF8" t="inlineStr">
         <is>
-          <t>243049</t>
+          <t>235183</t>
         </is>
       </c>
       <c r="EG8" t="inlineStr">
         <is>
-          <t>796556-1</t>
+          <t>796451-1</t>
         </is>
       </c>
       <c r="EH8" t="inlineStr"/>
@@ -4767,7 +4883,7 @@
       </c>
       <c r="EJ8" t="inlineStr">
         <is>
-          <t>https://powo.science.kew.org/taxon/796556-1</t>
+          <t>https://powo.science.kew.org/taxon/796451-1</t>
         </is>
       </c>
       <c r="EK8" t="inlineStr">
@@ -4777,7 +4893,7 @@
       </c>
       <c r="EL8" t="inlineStr">
         <is>
-          <t>Réunion, Bangladesh, Cambodia, Thailand, Vietnam, Lesser Sunda Is., Costa Rica, Trinidad-Tobago</t>
+          <t>Guinea-Bissau, Ivory Coast, Congo, Gulf of Guinea Is., Comoros, Mauritius, Réunion, China South-Central, China Southeast, Tibet, Taiwan, Assam, Bangladesh, East Himalaya, Sri Lanka, Andaman Is., Cambodia, Myanmar, Nicobar Is., Thailand, Vietnam, Borneo, Jawa, Lesser Sunda Is., Malaya, Philippines, Sumatera, New Guinea, Solomon Is., Queensland, Fiji, Gilbert Is., New Caledonia, Samoa, Tonga, Vanuatu, Cook Is., Easter Is., Marquesas, Pitcairn Is., Society Is., Tuamotu, Tubuai Is., Caroline Is., Hawaii, Belize, Costa Rica, Cuba, Dominican Republic, Haiti, Leeward Is., Puerto Rico, Trinidad-Tobago, Windward Is.</t>
         </is>
       </c>
       <c r="EM8" t="inlineStr">
@@ -4798,7 +4914,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -4806,29 +4922,25 @@
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>cinnamon</t>
-        </is>
-      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>cassia</t>
+          <t>allspice</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>the inner bark of Southeast Asian trees</t>
+          <t>the dried unripe berries of a small Caribbean tree</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>cinnamon</t>
+          <t>bay rum tree</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Padang cinnamon; Saigon cinnamon</t>
+          <t>wild allspice</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -4860,32 +4972,28 @@
         </is>
       </c>
       <c r="R9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>Cinnamomum aromaticum</t>
+          <t>Pimenta dioica</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>Nees</t>
+          <t>(L.) Merr.</t>
         </is>
       </c>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr">
         <is>
-          <t>Cinnamomum cassia (L.) J.Presl.</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>et al.</t>
-        </is>
-      </c>
+          <t>Pimenta officinalis Lindl.</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr">
         <is>
           <t>spice</t>
@@ -4893,53 +5001,57 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>culinary; medicinal</t>
+          <t>culinary; medicinal; perfumery; distillery</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>https://en.wikipedia.org/wiki/Cinnamomum_cassia</t>
+          <t>https://en.wikipedia.org/wiki/Allspice</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>https://www.britannica.com/topic/cassia-spice</t>
+          <t>https://www.britannica.com/plant/allspice</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>cassia tree</t>
+          <t>allspice tree</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>cassia bark; Chinese cinnamon; cassia cinnamon; Chinese cassia</t>
+          <t>allspice; Jamaica pepper; pimento; myrtle pepper; newspice</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>cassia; Chinese cinnamon; Chinese cassia</t>
+          <t>allspice; pimento; Jamaican pepper</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>cassia</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>Cassia-Cinnamon, Indonesian and Chinese</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="inlineStr"/>
+          <t>Allspice, Jamaica pepper, *pimento</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>allspice</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>Jamaica pepper, Myrtle pepper, Pimento, Newspice</t>
+        </is>
+      </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="inlineStr"/>
       <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>cassia; salikha; rougui</t>
+          <t>allspice; pimento; fulful ifranji; duoxiangguo</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr"/>
@@ -4950,54 +5062,54 @@
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>bark; fruit</t>
+          <t>unripe fruit; leaf; wood</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>Southeast China</t>
+          <t>S. Mexico to C. America; Caribbean</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr"/>
       <c r="AT9" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AU9" t="n">
-        <v>108</v>
+        <v>-77</v>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>Guangxi</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Asia</t>
+          <t>Americas</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Indonesia; China; Vietnam; Timor-Leste; etc.</t>
+          <t>Jamaica; Mexico; Honduras</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>reddish brown</t>
+          <t>dark brown</t>
         </is>
       </c>
       <c r="AZ9" t="inlineStr">
         <is>
-          <t>pungent, cinnamon-like</t>
+          <t>pungent, mixed, spicy</t>
         </is>
       </c>
       <c r="BA9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="BB9" t="inlineStr">
         <is>
-          <t>flavor; diarrhea</t>
+          <t>pickles, wines, desserts, liquors; spice for jerking meat; leaf oil for flavouring rum; wood to smoke and grill meat</t>
         </is>
       </c>
       <c r="BC9" t="inlineStr">
@@ -5007,7 +5119,7 @@
       </c>
       <c r="BD9" t="inlineStr">
         <is>
-          <t>I 77</t>
+          <t>II 174</t>
         </is>
       </c>
       <c r="BE9" t="inlineStr">
@@ -5017,205 +5129,177 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>https://www.biodiversitylibrary.org/item/10836#page/391/mode/1up</t>
+          <t>https://www.biodiversitylibrary.org/item/10837#page/697/mode/1up</t>
         </is>
       </c>
       <c r="BG9" t="inlineStr"/>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>cassia.n.03</t>
-        </is>
-      </c>
-      <c r="BI9" t="inlineStr"/>
+          <t>allspice.n.01</t>
+        </is>
+      </c>
+      <c r="BI9" t="inlineStr">
+        <is>
+          <t>allspice.n.03</t>
+        </is>
+      </c>
       <c r="BJ9" t="inlineStr"/>
       <c r="BK9" t="inlineStr">
         <is>
-          <t>cassia</t>
+          <t>allspice</t>
         </is>
       </c>
       <c r="BL9" t="inlineStr">
         <is>
-          <t>Chinese cinnamon</t>
+          <t>pimento; Jamaica pepper</t>
         </is>
       </c>
       <c r="BM9" t="inlineStr">
         <is>
-          <t>سليخة</t>
+          <t>فلفل إفرنجي</t>
         </is>
       </c>
       <c r="BN9" t="inlineStr">
         <is>
-          <t>salīkha</t>
+          <t>fulful ifranjī</t>
         </is>
       </c>
       <c r="BO9" t="inlineStr">
         <is>
-          <t>peel; bark</t>
+          <t>Frankish pepper</t>
         </is>
       </c>
       <c r="BP9" t="inlineStr"/>
       <c r="BQ9" t="inlineStr">
         <is>
-          <t>肉桂</t>
+          <t>多香果</t>
         </is>
       </c>
       <c r="BR9" t="inlineStr">
         <is>
-          <t>ròuguì</t>
+          <t>duōxiāngguǒ</t>
         </is>
       </c>
       <c r="BS9" t="inlineStr">
         <is>
-          <t>flesh-cinnamon</t>
+          <t>many-spice-fruit</t>
         </is>
       </c>
       <c r="BT9" t="inlineStr"/>
-      <c r="BU9" t="inlineStr">
-        <is>
-          <t>桂 guì can either refer to Cinnamomum species or to Osmanthus flowers</t>
-        </is>
-      </c>
+      <c r="BU9" t="inlineStr"/>
       <c r="BV9" t="inlineStr">
         <is>
-          <t>kasszia (fahéj)</t>
+          <t>szegfűbors</t>
         </is>
       </c>
       <c r="BW9" t="inlineStr">
         <is>
-          <t>cassia (tree-bark)</t>
-        </is>
-      </c>
-      <c r="BX9" t="inlineStr"/>
-      <c r="BY9" t="inlineStr"/>
+          <t>clove-pepper</t>
+        </is>
+      </c>
+      <c r="BX9" t="inlineStr">
+        <is>
+          <t>jamaicaibors [Jamaican-pepper]; amomummag [amomum-seed]</t>
+        </is>
+      </c>
+      <c r="BY9" t="inlineStr">
+        <is>
+          <t>vegyesfűszer</t>
+        </is>
+      </c>
       <c r="BZ9" t="inlineStr"/>
       <c r="CA9" t="inlineStr"/>
       <c r="CB9" t="inlineStr"/>
-      <c r="CC9" t="inlineStr"/>
-      <c r="CD9" t="inlineStr"/>
+      <c r="CC9" t="inlineStr">
+        <is>
+          <t>West Indies; Greater Antilles;  fruit of Pimenta dioica</t>
+        </is>
+      </c>
+      <c r="CD9" t="inlineStr">
+        <is>
+          <t>look for similar spices on wikipedia article</t>
+        </is>
+      </c>
       <c r="CE9" t="inlineStr">
         <is>
-          <t>Cortex Cassiae/Cinnamomi Cortex; Ramulus Cinnamomi</t>
+          <t>Fructus Amomi; Fructus Pimentae</t>
         </is>
       </c>
       <c r="CF9" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG9" t="inlineStr">
-        <is>
-          <t>polyu-tcm</t>
-        </is>
-      </c>
-      <c r="CH9" t="inlineStr">
-        <is>
-          <t>https://herbaltcm.sn.polyu.edu.hk/herbal/cassia-bark</t>
-        </is>
-      </c>
-      <c r="CI9" t="inlineStr">
-        <is>
-          <t>肉桂</t>
-        </is>
-      </c>
-      <c r="CJ9" t="inlineStr">
-        <is>
-          <t>ròuguì</t>
-        </is>
-      </c>
-      <c r="CK9" t="inlineStr">
-        <is>
-          <t>Cassia bark</t>
-        </is>
-      </c>
-      <c r="CL9" t="inlineStr">
-        <is>
-          <t>Dried stem bark of Cinnamomum cassia Presl (Fam. Lauraceae)</t>
-        </is>
-      </c>
-      <c r="CM9" t="inlineStr">
-        <is>
-          <t>Interior-warming medicinal</t>
-        </is>
-      </c>
-      <c r="CN9" t="inlineStr">
-        <is>
-          <t>pungent, sweet; strongly hot</t>
-        </is>
-      </c>
-      <c r="CO9" t="inlineStr">
-        <is>
-          <t>Liver, Heart, Spleen, Kidney</t>
-        </is>
-      </c>
-      <c r="CP9" t="inlineStr">
-        <is>
-          <t>To tonify fire and assist yang, and lead the fire back to the kidney, dispel cold and relieve pain, and activate blood circulation and stimulate menstrual dischange</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="CG9" t="inlineStr"/>
+      <c r="CH9" t="inlineStr"/>
+      <c r="CI9" t="inlineStr"/>
+      <c r="CJ9" t="inlineStr"/>
+      <c r="CK9" t="inlineStr"/>
+      <c r="CL9" t="inlineStr"/>
+      <c r="CM9" t="inlineStr"/>
+      <c r="CN9" t="inlineStr"/>
+      <c r="CO9" t="inlineStr"/>
+      <c r="CP9" t="inlineStr"/>
       <c r="CQ9" t="inlineStr"/>
       <c r="CR9" t="inlineStr"/>
-      <c r="CS9" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
+      <c r="CS9" t="inlineStr"/>
       <c r="CT9" t="inlineStr"/>
       <c r="CU9" t="inlineStr">
         <is>
-          <t>https://www.gbif.org/species/3033982</t>
+          <t>https://www.gbif.org/species/3186061</t>
         </is>
       </c>
       <c r="CV9" t="inlineStr">
         <is>
-          <t>https://tropicos.org/name/17805773</t>
+          <t>https://tropicos.org/name/22101787</t>
         </is>
       </c>
       <c r="CW9" t="inlineStr">
         <is>
-          <t>https://eol.org/pages/483593</t>
+          <t>https://eol.org/pages/2508608</t>
         </is>
       </c>
       <c r="CX9" t="n">
-        <v>119260</v>
+        <v>375272</v>
       </c>
       <c r="CY9" t="inlineStr">
         <is>
-          <t>दालचीनी</t>
+          <t>गंधद्रव्य?</t>
         </is>
       </c>
       <c r="CZ9" t="inlineStr">
         <is>
-          <t>dālchīnī</t>
+          <t>gandhadravya?</t>
         </is>
       </c>
       <c r="DA9" t="inlineStr"/>
-      <c r="DB9" t="inlineStr">
-        <is>
-          <t>दारचीनी</t>
-        </is>
-      </c>
+      <c r="DB9" t="inlineStr"/>
       <c r="DC9" t="inlineStr">
         <is>
-          <t>kayu manis</t>
-        </is>
-      </c>
-      <c r="DD9" t="inlineStr"/>
+          <t>Merica Jamaika</t>
+        </is>
+      </c>
+      <c r="DD9" t="inlineStr">
+        <is>
+          <t>فلفل فرنگی</t>
+        </is>
+      </c>
       <c r="DE9" t="inlineStr">
         <is>
-          <t>cassia</t>
+          <t>allspice</t>
         </is>
       </c>
       <c r="DF9" t="inlineStr">
         <is>
-          <t>https://partigabor.github.io/aromatica/items/cassia</t>
+          <t>https://partigabor.github.io/aromatica/items/allspice</t>
         </is>
       </c>
       <c r="DG9" t="inlineStr">
         <is>
-          <t>2721121</t>
+          <t>156136</t>
         </is>
       </c>
       <c r="DH9" t="inlineStr">
         <is>
-          <t>463288-1</t>
+          <t>196799-2</t>
         </is>
       </c>
       <c r="DI9" t="inlineStr">
@@ -5230,53 +5314,53 @@
       </c>
       <c r="DK9" t="inlineStr">
         <is>
-          <t>Lauraceae</t>
+          <t>Myrtaceae</t>
         </is>
       </c>
       <c r="DL9" t="inlineStr"/>
       <c r="DM9" t="inlineStr">
         <is>
-          <t>Cinnamomum</t>
+          <t>Pimenta</t>
         </is>
       </c>
       <c r="DN9" t="inlineStr"/>
       <c r="DO9" t="inlineStr">
         <is>
-          <t>aromaticum</t>
+          <t>dioica</t>
         </is>
       </c>
       <c r="DP9" t="inlineStr"/>
       <c r="DQ9" t="inlineStr"/>
-      <c r="DR9" t="inlineStr"/>
+      <c r="DR9" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
       <c r="DS9" t="inlineStr">
         <is>
-          <t>Nees</t>
-        </is>
-      </c>
-      <c r="DT9" t="inlineStr">
-        <is>
-          <t>N.Wallich</t>
-        </is>
-      </c>
+          <t>Merr.</t>
+        </is>
+      </c>
+      <c r="DT9" t="inlineStr"/>
       <c r="DU9" t="inlineStr">
         <is>
-          <t>Pl. Asiat. Rar.</t>
+          <t>Contr. Gray Herb.</t>
         </is>
       </c>
       <c r="DV9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2: 74</t>
+          <t>, n.s., 165: 337</t>
         </is>
       </c>
       <c r="DW9" t="inlineStr">
         <is>
-          <t>(1831)</t>
+          <t>(1947)</t>
         </is>
       </c>
       <c r="DX9" t="inlineStr"/>
       <c r="DY9" t="inlineStr">
         <is>
-          <t>SE. China to Vietnam</t>
+          <t>S. Mexico to C. America, Caribbean</t>
         </is>
       </c>
       <c r="DZ9" t="inlineStr">
@@ -5286,56 +5370,60 @@
       </c>
       <c r="EA9" t="inlineStr">
         <is>
-          <t>subtropical</t>
+          <t>seasonally dry tropical</t>
         </is>
       </c>
       <c r="EB9" t="inlineStr">
         <is>
-          <t>2721121</t>
-        </is>
-      </c>
-      <c r="EC9" t="inlineStr"/>
+          <t>156136</t>
+        </is>
+      </c>
+      <c r="EC9" t="inlineStr">
+        <is>
+          <t>132459</t>
+        </is>
+      </c>
       <c r="ED9" t="inlineStr"/>
       <c r="EE9" t="inlineStr"/>
       <c r="EF9" t="inlineStr">
         <is>
-          <t>2721087</t>
+          <t>156124</t>
         </is>
       </c>
       <c r="EG9" t="inlineStr">
         <is>
-          <t>463288-1</t>
+          <t>196799-2</t>
         </is>
       </c>
       <c r="EH9" t="inlineStr"/>
       <c r="EI9" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="EJ9" t="inlineStr">
         <is>
-          <t>https://powo.science.kew.org/taxon/463288-1</t>
+          <t>https://powo.science.kew.org/taxon/196799-2</t>
         </is>
       </c>
       <c r="EK9" t="inlineStr">
         <is>
-          <t>China Southeast, Vietnam</t>
+          <t>Mexico Gulf, Mexico Southwest, Mexico Southeast, Belize, Costa Rica, Guatemala, Honduras, Nicaragua, Bahamas, Cayman Is., Cuba, Dominican Republic, Jamaica</t>
         </is>
       </c>
       <c r="EL9" t="inlineStr">
         <is>
-          <t>China South-Central, Hainan, Taiwan, Bangladesh, India, Cambodia, Laos, Myanmar, Thailand, Malaya, Sumatera, Guatemala, Honduras, Trinidad-Tobago</t>
+          <t>Society Is., Caroline Is., Hawaii, Florida, El Salvador, Bermuda, Puerto Rico, Southwest Caribbean, Trinidad-Tobago, Venezuela, Colombia</t>
         </is>
       </c>
       <c r="EM9" t="inlineStr">
         <is>
-          <t>China, Indo-China</t>
+          <t>Mexico, Central America, Caribbean</t>
         </is>
       </c>
       <c r="EN9" t="inlineStr">
         <is>
-          <t>ASIA-TEMPERATE, ASIA-TROPICAL</t>
+          <t>NORTHERN AMERICA, SOUTHERN AMERICA</t>
         </is>
       </c>
     </row>
@@ -5346,7 +5434,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -5357,18 +5445,22 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>clove</t>
+          <t>anise</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>the dried flower-buds of a tropical tree from the Moluccas, Indonesia; bud of Syzygium aromaticum</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>the seed-like fruits of a Mediterranean herb</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>fennel</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>nutmeg; mace</t>
+          <t>star anise</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -5400,27 +5492,23 @@
         </is>
       </c>
       <c r="R10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>Syzygium aromaticum</t>
+          <t>Pimpinella anisum</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>(L.) Merr. &amp; L.M.Perry</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>Eugenia aromatica (L.) Baill.; Eugenia cayophyllata Thunb.</t>
-        </is>
-      </c>
+      <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr">
         <is>
@@ -5429,40 +5517,44 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>culinary; medicinal</t>
+          <t>culinary; distillery</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>https://en.wikipedia.org/wiki/Clove</t>
+          <t>https://en.wikipedia.org/wiki/Anise</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>https://www.britannica.com/plant/clove</t>
+          <t>https://www.britannica.com/plant/anise</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>clove tree</t>
+          <t>anise</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>clove; cloves</t>
+          <t>anise; aniseed; anise seed; brown anise; white anise</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>clove(s)</t>
+          <t>anise; aniseed</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>Cloves</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr"/>
+          <t>Anise</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>brown anise; white anise</t>
+        </is>
+      </c>
       <c r="AH10" t="inlineStr"/>
       <c r="AI10" t="inlineStr"/>
       <c r="AJ10" t="inlineStr"/>
@@ -5471,7 +5563,7 @@
       <c r="AM10" t="inlineStr"/>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>clove; qaranful; dingxiang</t>
+          <t>anise; anisun; huiqin</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr"/>
@@ -5482,54 +5574,54 @@
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>flower buds</t>
+          <t>fruit; oil; leaf</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>N. Moluccas, Indonesia</t>
+          <t>E. Mediterranean; W. Asia; Asia Minor</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr"/>
       <c r="AT10" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="AU10" t="n">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>Moluccas</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Asia</t>
+          <t>Mediterranean</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Indonesia; Malaysia; Tanzania</t>
+          <t>Turkey; Egypt; Spain; Russia; Italy; etc.</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
         <is>
-          <t>rich, reddish brown</t>
+          <t>light brown</t>
         </is>
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
-          <t>sweet, pungent, astringent</t>
+          <t>licorice-like, sweet</t>
         </is>
       </c>
       <c r="BA10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="BB10" t="inlineStr">
         <is>
-          <t>meats, sauces; anesthetic</t>
+          <t>pastries, candies, liquors</t>
         </is>
       </c>
       <c r="BC10" t="inlineStr">
@@ -5539,7 +5631,7 @@
       </c>
       <c r="BD10" t="inlineStr">
         <is>
-          <t>II 125</t>
+          <t>II 93</t>
         </is>
       </c>
       <c r="BE10" t="inlineStr">
@@ -5549,209 +5641,165 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>https://www.biodiversitylibrary.org/item/10837#page/595/mode/1up</t>
-        </is>
-      </c>
-      <c r="BG10" t="inlineStr"/>
+          <t>https://www.biodiversitylibrary.org/item/10837#page/529/mode/1up</t>
+        </is>
+      </c>
+      <c r="BG10" t="inlineStr">
+        <is>
+          <t>https://www.calabrianfood.com/black-anise-seed</t>
+        </is>
+      </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>clove.n.02</t>
+          <t>anise.n.01</t>
         </is>
       </c>
       <c r="BI10" t="inlineStr">
         <is>
-          <t>clove.n.04</t>
+          <t>anise.n.02</t>
         </is>
       </c>
       <c r="BJ10" t="inlineStr"/>
       <c r="BK10" t="inlineStr">
         <is>
-          <t>clove</t>
-        </is>
-      </c>
-      <c r="BL10" t="inlineStr"/>
+          <t>anise</t>
+        </is>
+      </c>
+      <c r="BL10" t="inlineStr">
+        <is>
+          <t>aniseed</t>
+        </is>
+      </c>
       <c r="BM10" t="inlineStr">
         <is>
-          <t>قرنفل</t>
+          <t>أنيسون</t>
         </is>
       </c>
       <c r="BN10" t="inlineStr">
         <is>
-          <t>qaranful</t>
+          <t>anīsūn</t>
         </is>
       </c>
       <c r="BO10" t="inlineStr"/>
-      <c r="BP10" t="inlineStr"/>
+      <c r="BP10" t="inlineStr">
+        <is>
+          <t>يانسون *yānsūn*</t>
+        </is>
+      </c>
       <c r="BQ10" t="inlineStr">
         <is>
-          <t>丁香</t>
+          <t>茴芹</t>
         </is>
       </c>
       <c r="BR10" t="inlineStr">
         <is>
-          <t>dīngxiāng</t>
+          <t>huíqín</t>
         </is>
       </c>
       <c r="BS10" t="inlineStr">
         <is>
-          <t>nail-spice</t>
-        </is>
-      </c>
-      <c r="BT10" t="inlineStr"/>
-      <c r="BU10" t="inlineStr">
-        <is>
-          <t>Hu: 母丁香; 丁香 (雄丁香)</t>
-        </is>
-      </c>
+          <t>anise-celery</t>
+        </is>
+      </c>
+      <c r="BT10" t="inlineStr">
+        <is>
+          <t>西洋茴香 xīyáng huíxiāng [Western-ocean-hui-spice] 'western anise', 洋茴香, 大茴香 'big anise'*, 歐洲大茴香 'European anise'</t>
+        </is>
+      </c>
+      <c r="BU10" t="inlineStr"/>
       <c r="BV10" t="inlineStr">
         <is>
-          <t>szegfűszeg</t>
-        </is>
-      </c>
-      <c r="BW10" t="inlineStr">
-        <is>
-          <t>nail-grass-nail</t>
-        </is>
-      </c>
-      <c r="BX10" t="inlineStr"/>
-      <c r="BY10" t="inlineStr">
-        <is>
-          <t>Originally *szegfűszer*, where *fűszer* is the standard Hungarian word for 'spice'</t>
-        </is>
-      </c>
+          <t>ánizs</t>
+        </is>
+      </c>
+      <c r="BW10" t="inlineStr"/>
+      <c r="BX10" t="inlineStr">
+        <is>
+          <t>közönséges ánizs; illatos ánizs; fűszeránizs</t>
+        </is>
+      </c>
+      <c r="BY10" t="inlineStr"/>
       <c r="BZ10" t="inlineStr"/>
       <c r="CA10" t="inlineStr"/>
       <c r="CB10" t="inlineStr"/>
-      <c r="CC10" t="inlineStr"/>
+      <c r="CC10" t="inlineStr">
+        <is>
+          <t>Cult: Turkey, Egypt, Spain, Russia, Italy, India, Greece, Northern Africa, Argentina, Malta, Romania, Syria</t>
+        </is>
+      </c>
       <c r="CD10" t="inlineStr"/>
       <c r="CE10" t="inlineStr">
         <is>
-          <t>Caryophylli Flos</t>
+          <t>Fructus Anisi</t>
         </is>
       </c>
       <c r="CF10" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG10" t="inlineStr">
-        <is>
-          <t>polyu-tcm</t>
-        </is>
-      </c>
-      <c r="CH10" t="inlineStr">
-        <is>
-          <t>https://herbaltcm.sn.polyu.edu.hk/herbal/clove</t>
-        </is>
-      </c>
-      <c r="CI10" t="inlineStr">
-        <is>
-          <t>丁香</t>
-        </is>
-      </c>
-      <c r="CJ10" t="inlineStr">
-        <is>
-          <t>dīngxiāng</t>
-        </is>
-      </c>
-      <c r="CK10" t="inlineStr">
-        <is>
-          <t>Clove</t>
-        </is>
-      </c>
-      <c r="CL10" t="inlineStr">
-        <is>
-          <t>Dried flower bud of Eugenia cayophyllata Thunb. (Fam. Myrtaceae)</t>
-        </is>
-      </c>
-      <c r="CM10" t="inlineStr">
-        <is>
-          <t>Interior-warming medicina</t>
-        </is>
-      </c>
-      <c r="CN10" t="inlineStr">
-        <is>
-          <t>pungent; warm</t>
-        </is>
-      </c>
-      <c r="CO10" t="inlineStr">
-        <is>
-          <t>Spleen, Stomach, Lung, Kidney</t>
-        </is>
-      </c>
-      <c r="CP10" t="inlineStr">
-        <is>
-          <t>To warm the middle-energizer, check adverse rise of the stomach-qi, and restore the kidney yang</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="CG10" t="inlineStr"/>
+      <c r="CH10" t="inlineStr"/>
+      <c r="CI10" t="inlineStr"/>
+      <c r="CJ10" t="inlineStr"/>
+      <c r="CK10" t="inlineStr"/>
+      <c r="CL10" t="inlineStr"/>
+      <c r="CM10" t="inlineStr"/>
+      <c r="CN10" t="inlineStr"/>
+      <c r="CO10" t="inlineStr"/>
+      <c r="CP10" t="inlineStr"/>
       <c r="CQ10" t="inlineStr"/>
-      <c r="CR10" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="CS10" t="inlineStr">
-        <is>
-          <t>973</t>
-        </is>
-      </c>
+      <c r="CR10" t="inlineStr"/>
+      <c r="CS10" t="inlineStr"/>
       <c r="CT10" t="inlineStr"/>
-      <c r="CU10" t="inlineStr">
-        <is>
-          <t>https://www.gbif.org/species/3183002</t>
-        </is>
-      </c>
-      <c r="CV10" t="inlineStr">
-        <is>
-          <t>https://tropicos.org/name/22102278</t>
-        </is>
-      </c>
-      <c r="CW10" t="inlineStr">
-        <is>
-          <t>https://eol.org/pages/2508665</t>
-        </is>
-      </c>
+      <c r="CU10" t="inlineStr"/>
+      <c r="CV10" t="inlineStr"/>
+      <c r="CW10" t="inlineStr"/>
       <c r="CX10" t="n">
-        <v>219868</v>
+        <v>271192</v>
       </c>
       <c r="CY10" t="inlineStr">
         <is>
-          <t>लौंग</t>
+          <t>मोटी सौंफ़</t>
         </is>
       </c>
       <c r="CZ10" t="inlineStr">
         <is>
-          <t>laung</t>
-        </is>
-      </c>
-      <c r="DA10" t="inlineStr"/>
+          <t>motī saunf</t>
+        </is>
+      </c>
+      <c r="DA10" t="inlineStr">
+        <is>
+          <t>fat fennel</t>
+        </is>
+      </c>
       <c r="DB10" t="inlineStr"/>
       <c r="DC10" t="inlineStr">
         <is>
-          <t>cengkih</t>
+          <t>adas manis</t>
         </is>
       </c>
       <c r="DD10" t="inlineStr">
         <is>
-          <t>میخک صدپر</t>
+          <t>بادیان رومی، انیسون</t>
         </is>
       </c>
       <c r="DE10" t="inlineStr">
         <is>
-          <t>clove</t>
+          <t>anise</t>
         </is>
       </c>
       <c r="DF10" t="inlineStr">
         <is>
-          <t>https://partigabor.github.io/aromatica/items/clove</t>
+          <t>https://partigabor.github.io/aromatica/items/anise</t>
         </is>
       </c>
       <c r="DG10" t="inlineStr">
         <is>
-          <t>199236</t>
+          <t>2402426</t>
         </is>
       </c>
       <c r="DH10" t="inlineStr">
         <is>
-          <t>601421-1</t>
+          <t>846658-1</t>
         </is>
       </c>
       <c r="DI10" t="inlineStr">
@@ -5766,116 +5814,108 @@
       </c>
       <c r="DK10" t="inlineStr">
         <is>
-          <t>Myrtaceae</t>
+          <t>Apiaceae</t>
         </is>
       </c>
       <c r="DL10" t="inlineStr"/>
       <c r="DM10" t="inlineStr">
         <is>
-          <t>Syzygium</t>
+          <t>Pimpinella</t>
         </is>
       </c>
       <c r="DN10" t="inlineStr"/>
       <c r="DO10" t="inlineStr">
         <is>
-          <t>aromaticum</t>
+          <t>anisum</t>
         </is>
       </c>
       <c r="DP10" t="inlineStr"/>
       <c r="DQ10" t="inlineStr"/>
-      <c r="DR10" t="inlineStr">
+      <c r="DR10" t="inlineStr"/>
+      <c r="DS10" t="inlineStr">
         <is>
           <t>L.</t>
-        </is>
-      </c>
-      <c r="DS10" t="inlineStr">
-        <is>
-          <t>Merr. &amp; L.M.Perry</t>
         </is>
       </c>
       <c r="DT10" t="inlineStr"/>
       <c r="DU10" t="inlineStr">
         <is>
-          <t>Mem. Amer. Acad. Arts</t>
+          <t>Sp. Pl.</t>
         </is>
       </c>
       <c r="DV10" t="inlineStr">
         <is>
-          <t>, n.s., 18: 196</t>
+          <t>: 264</t>
         </is>
       </c>
       <c r="DW10" t="inlineStr">
         <is>
-          <t>(1939)</t>
+          <t>(1753)</t>
         </is>
       </c>
       <c r="DX10" t="inlineStr"/>
       <c r="DY10" t="inlineStr">
         <is>
-          <t>Maluku</t>
+          <t>SE. Türkiye to C. Israel, Cyprus</t>
         </is>
       </c>
       <c r="DZ10" t="inlineStr">
         <is>
-          <t>shrub or tree</t>
+          <t>annual</t>
         </is>
       </c>
       <c r="EA10" t="inlineStr">
         <is>
-          <t>wet tropical</t>
+          <t>temperate</t>
         </is>
       </c>
       <c r="EB10" t="inlineStr">
         <is>
-          <t>199236</t>
-        </is>
-      </c>
-      <c r="EC10" t="inlineStr">
-        <is>
-          <t>34675</t>
-        </is>
-      </c>
+          <t>2402426</t>
+        </is>
+      </c>
+      <c r="EC10" t="inlineStr"/>
       <c r="ED10" t="inlineStr"/>
       <c r="EE10" t="inlineStr"/>
       <c r="EF10" t="inlineStr">
         <is>
-          <t>199154</t>
+          <t>2402470</t>
         </is>
       </c>
       <c r="EG10" t="inlineStr">
         <is>
-          <t>601421-1</t>
+          <t>846658-1</t>
         </is>
       </c>
       <c r="EH10" t="inlineStr"/>
       <c r="EI10" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="EJ10" t="inlineStr">
         <is>
-          <t>https://powo.science.kew.org/taxon/601421-1</t>
+          <t>https://powo.science.kew.org/taxon/846658-1</t>
         </is>
       </c>
       <c r="EK10" t="inlineStr">
         <is>
-          <t>Maluku</t>
+          <t>Cyprus, Lebanon-Syria, Palestine, Turkey</t>
         </is>
       </c>
       <c r="EL10" t="inlineStr">
         <is>
-          <t>Gulf of Guinea Is., Tanzania, Comoros, Madagascar, Seychelles, India, Nicobar Is., Borneo, Caroline Is., Trinidad-Tobago</t>
+          <t>Denmark, Norway, Sweden, Austria, Czechoslovakia, Germany, Hungary, Poland, France, Portugal, Spain, Bulgaria, Greece, Italy, Kriti, Romania, Yugoslavia, Belarus, South European Russi, Ukraine, Morocco, Tunisia, Kazakhstan, Turkmenistan, Tadzhikistan, Uzbekistan, East Aegean Is., Iraq, Oman, Xinjiang, Bangladesh, India, Laos, Massachusetts, Michigan, Guatemala, Leeward Is., Trinidad-Tobago, Venezuela, Brazil South, Argentina Northeast, Argentina Northwest</t>
         </is>
       </c>
       <c r="EM10" t="inlineStr">
         <is>
-          <t>Malesia</t>
+          <t>Western Asia</t>
         </is>
       </c>
       <c r="EN10" t="inlineStr">
         <is>
-          <t>ASIA-TROPICAL</t>
+          <t>ASIA-TEMPERATE</t>
         </is>
       </c>
     </row>
@@ -5897,12 +5937,12 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>coriander</t>
+          <t>asafoetida</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>the dried fruits of an annual herb, also known as cilantro</t>
+          <t>the dried resin of Ferula foetida and F. assa-foetida</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
@@ -5943,17 +5983,21 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>Coriandrum sativum</t>
+          <t>Ferula foetida</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Bunge) Regel</t>
         </is>
       </c>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Ferula assa-foetida L.; Ferula narthex; et al.</t>
+        </is>
+      </c>
       <c r="Y11" t="inlineStr">
         <is>
           <t>spice</t>
@@ -5961,49 +6005,53 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>culinary</t>
+          <t>culinary; medicinal</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>https://en.wikipedia.org/wiki/Coriander</t>
+          <t>https://en.wikipedia.org/wiki/Asafoetida</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>https://www.britannica.com/plant/coriander</t>
+          <t>https://www.britannica.com/topic/asafetida</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>coriander</t>
+          <t>ferula plant</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>coriander seeds; cilantro; Chinese parsley</t>
+          <t>asafoetida; hing, devil’s dung, asant; fetida</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>coriander; cilantro; Chinese parsley</t>
+          <t>hing, devil’s dung, asant; fetida</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>Coriander, cilantro</t>
+          <t>Asafoetida, hing</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr"/>
       <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="inlineStr"/>
       <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>asafetida</t>
+        </is>
+      </c>
       <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>coriander; kuzbura; yansui; husui</t>
+          <t>asafoetida; hing; hiltit; anjudan; awei; xingqu</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr"/>
@@ -6014,24 +6062,24 @@
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>fruit</t>
+          <t>gum-resin (latex)</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>E. Mediterranean; W. Asia</t>
+          <t>Iran; W. and C. Asia</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr"/>
       <c r="AT11" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AU11" t="n">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>Armenia</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="AW11" t="inlineStr">
@@ -6041,17 +6089,17 @@
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Argentina; India; Morocco; Romania; Spain; Yugoslavia</t>
+          <t>Iran; Afghanistan</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
         <is>
-          <t>light yellow</t>
+          <t>from pale yellow to brown</t>
         </is>
       </c>
       <c r="AZ11" t="inlineStr">
         <is>
-          <t>warm, aromatic, sweet</t>
+          <t>pungent, rotten</t>
         </is>
       </c>
       <c r="BA11" t="inlineStr">
@@ -6061,7 +6109,7 @@
       </c>
       <c r="BB11" t="inlineStr">
         <is>
-          <t>curries; anti-microbial</t>
+          <t>curries; expectorant</t>
         </is>
       </c>
       <c r="BC11" t="inlineStr">
@@ -6071,7 +6119,7 @@
       </c>
       <c r="BD11" t="inlineStr">
         <is>
-          <t>II 145</t>
+          <t>II 147</t>
         </is>
       </c>
       <c r="BE11" t="inlineStr">
@@ -6081,96 +6129,106 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>https://www.biodiversitylibrary.org/item/10837#page/635/mode/1up</t>
+          <t>https://www.biodiversitylibrary.org/item/10837#page/639/mode/1up</t>
         </is>
       </c>
       <c r="BG11" t="inlineStr"/>
-      <c r="BH11" t="inlineStr">
-        <is>
-          <t>coriander.n.01</t>
-        </is>
-      </c>
+      <c r="BH11" t="inlineStr"/>
       <c r="BI11" t="inlineStr">
         <is>
-          <t>coriander.n.02</t>
+          <t>asafetida.n.01</t>
         </is>
       </c>
       <c r="BJ11" t="inlineStr"/>
       <c r="BK11" t="inlineStr">
         <is>
-          <t>coriander</t>
-        </is>
-      </c>
-      <c r="BL11" t="inlineStr"/>
+          <t>asafoetida</t>
+        </is>
+      </c>
+      <c r="BL11" t="inlineStr">
+        <is>
+          <t>hing; devil's dung</t>
+        </is>
+      </c>
       <c r="BM11" t="inlineStr">
         <is>
-          <t>كزبرة</t>
+          <t>حلتیت</t>
         </is>
       </c>
       <c r="BN11" t="inlineStr">
         <is>
-          <t>kuzbara</t>
+          <t>ḥiltīt</t>
         </is>
       </c>
       <c r="BO11" t="inlineStr"/>
       <c r="BP11" t="inlineStr"/>
       <c r="BQ11" t="inlineStr">
         <is>
-          <t>芫荽</t>
+          <t>阿魏</t>
         </is>
       </c>
       <c r="BR11" t="inlineStr">
         <is>
-          <t>yán​sui</t>
-        </is>
-      </c>
-      <c r="BS11" t="inlineStr">
-        <is>
-          <t>lilac-coriander</t>
-        </is>
-      </c>
+          <t>āwèi</t>
+        </is>
+      </c>
+      <c r="BS11" t="inlineStr"/>
       <c r="BT11" t="inlineStr"/>
-      <c r="BU11" t="inlineStr">
-        <is>
-          <t>胡荽 (芫荽); 芫荽仁 (芫荽子)</t>
-        </is>
-      </c>
+      <c r="BU11" t="inlineStr"/>
       <c r="BV11" t="inlineStr">
         <is>
-          <t>koriander</t>
-        </is>
-      </c>
-      <c r="BW11" t="inlineStr"/>
+          <t>ördöggyökér</t>
+        </is>
+      </c>
+      <c r="BW11" t="inlineStr">
+        <is>
+          <t>devil's root</t>
+        </is>
+      </c>
       <c r="BX11" t="inlineStr">
         <is>
-          <t>cigánypetrezselyem [gipsy-parsley]</t>
-        </is>
-      </c>
-      <c r="BY11" t="inlineStr"/>
+          <t>aszatgyanta [asat resin]; bűzös aszat [stinking asat]</t>
+        </is>
+      </c>
+      <c r="BY11" t="inlineStr">
+        <is>
+          <t>büdös gyantagyökér; bűzös husáng, bűzös aszat; ördögszar, aszatgyanta, aszandkórógyanta, pálcakórógyanta, aszafetida, bűzaszat , Aszandkóró (növény wiki)!</t>
+        </is>
+      </c>
       <c r="BZ11" t="inlineStr"/>
       <c r="CA11" t="inlineStr"/>
       <c r="CB11" t="inlineStr"/>
-      <c r="CC11" t="inlineStr"/>
+      <c r="CC11" t="inlineStr">
+        <is>
+          <t>Tamil perungayam. There is a saying in Kannada 'ಇಂಗು ತೆಂಗು ಇದ್ದರೆ ಮಂಗನೂ ಅಡಿಗೆ ಮಾಡತ್ತೆ'. This means even a monkey can cook if Asafoetida and coconut is available. Hing is must in Kannada and Marathi brahmin cuisine for sure.</t>
+        </is>
+      </c>
       <c r="CD11" t="inlineStr"/>
       <c r="CE11" t="inlineStr">
         <is>
-          <t>Fructus Coriandri; Semen Coriandri</t>
-        </is>
-      </c>
-      <c r="CF11" t="inlineStr"/>
+          <t>Asafetida; Resina Ferulae</t>
+        </is>
+      </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
       <c r="CG11" t="inlineStr"/>
       <c r="CH11" t="inlineStr"/>
       <c r="CI11" t="inlineStr">
         <is>
-          <t>芫荽子</t>
+          <t>阿魏</t>
         </is>
       </c>
       <c r="CJ11" t="inlineStr">
         <is>
-          <t>yán​suizǐ</t>
-        </is>
-      </c>
-      <c r="CK11" t="inlineStr"/>
+          <t>āwèi</t>
+        </is>
+      </c>
+      <c r="CK11" t="inlineStr">
+        <is>
+          <t>Ferula Resin</t>
+        </is>
+      </c>
       <c r="CL11" t="inlineStr"/>
       <c r="CM11" t="inlineStr"/>
       <c r="CN11" t="inlineStr"/>
@@ -6184,68 +6242,48 @@
       </c>
       <c r="CS11" t="inlineStr">
         <is>
-          <t>1061</t>
+          <t>659</t>
         </is>
       </c>
       <c r="CT11" t="inlineStr"/>
-      <c r="CU11" t="inlineStr">
-        <is>
-          <t>https://www.gbif.org/species/3034871</t>
-        </is>
-      </c>
-      <c r="CV11" t="inlineStr">
-        <is>
-          <t>https://tropicos.org/name/1700064</t>
-        </is>
-      </c>
-      <c r="CW11" t="inlineStr">
-        <is>
-          <t>https://eol.org/pages/581687</t>
-        </is>
-      </c>
+      <c r="CU11" t="inlineStr"/>
+      <c r="CV11" t="inlineStr"/>
+      <c r="CW11" t="inlineStr"/>
       <c r="CX11" t="n">
-        <v>4047</v>
+        <v>371345</v>
       </c>
       <c r="CY11" t="inlineStr">
         <is>
-          <t xml:space="preserve">धनिया </t>
+          <t>हींग</t>
         </is>
       </c>
       <c r="CZ11" t="inlineStr">
         <is>
-          <t>dhaniyā</t>
+          <t>hīng</t>
         </is>
       </c>
       <c r="DA11" t="inlineStr"/>
       <c r="DB11" t="inlineStr"/>
-      <c r="DC11" t="inlineStr">
-        <is>
-          <t>ketumbar</t>
-        </is>
-      </c>
-      <c r="DD11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">گشنیز </t>
-        </is>
-      </c>
+      <c r="DC11" t="inlineStr"/>
+      <c r="DD11" t="inlineStr"/>
       <c r="DE11" t="inlineStr">
         <is>
-          <t>coriander</t>
+          <t>asafoetida</t>
         </is>
       </c>
       <c r="DF11" t="inlineStr">
         <is>
-          <t>https://partigabor.github.io/aromatica/items/coriander</t>
+          <t>https://partigabor.github.io/aromatica/items/asafoetida</t>
         </is>
       </c>
       <c r="DG11" t="inlineStr">
         <is>
-          <t>2737546</t>
+          <t>2808419</t>
         </is>
       </c>
       <c r="DH11" t="inlineStr">
         <is>
-          <t>840760-1</t>
+          <t>842277-1</t>
         </is>
       </c>
       <c r="DI11" t="inlineStr">
@@ -6266,71 +6304,79 @@
       <c r="DL11" t="inlineStr"/>
       <c r="DM11" t="inlineStr">
         <is>
-          <t>Coriandrum</t>
+          <t>Ferula</t>
         </is>
       </c>
       <c r="DN11" t="inlineStr"/>
       <c r="DO11" t="inlineStr">
         <is>
-          <t>sativum</t>
+          <t>foetida</t>
         </is>
       </c>
       <c r="DP11" t="inlineStr"/>
       <c r="DQ11" t="inlineStr"/>
-      <c r="DR11" t="inlineStr"/>
+      <c r="DR11" t="inlineStr">
+        <is>
+          <t>Bunge</t>
+        </is>
+      </c>
       <c r="DS11" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Regel</t>
         </is>
       </c>
       <c r="DT11" t="inlineStr"/>
       <c r="DU11" t="inlineStr">
         <is>
-          <t>Sp. Pl.</t>
+          <t>Trudy Imp. S.-Peterburgsk. Bot. Sada</t>
         </is>
       </c>
       <c r="DV11" t="inlineStr">
         <is>
-          <t>: 256</t>
+          <t xml:space="preserve"> 5: 592</t>
         </is>
       </c>
       <c r="DW11" t="inlineStr">
         <is>
-          <t>(1753)</t>
+          <t>(1877)</t>
         </is>
       </c>
       <c r="DX11" t="inlineStr"/>
       <c r="DY11" t="inlineStr">
         <is>
-          <t>E. Medit. to Pakistan</t>
+          <t>Iran to C. Asia and W. Pakistan</t>
         </is>
       </c>
       <c r="DZ11" t="inlineStr">
         <is>
-          <t>annual</t>
+          <t>perennial</t>
         </is>
       </c>
       <c r="EA11" t="inlineStr">
         <is>
-          <t>subtropical</t>
+          <t>temperate</t>
         </is>
       </c>
       <c r="EB11" t="inlineStr">
         <is>
-          <t>2737546</t>
-        </is>
-      </c>
-      <c r="EC11" t="inlineStr"/>
+          <t>2808419</t>
+        </is>
+      </c>
+      <c r="EC11" t="inlineStr">
+        <is>
+          <t>2479171</t>
+        </is>
+      </c>
       <c r="ED11" t="inlineStr"/>
       <c r="EE11" t="inlineStr"/>
       <c r="EF11" t="inlineStr">
         <is>
-          <t>2737532</t>
+          <t>2808299</t>
         </is>
       </c>
       <c r="EG11" t="inlineStr">
         <is>
-          <t>840760-1</t>
+          <t>842277-1</t>
         </is>
       </c>
       <c r="EH11" t="inlineStr"/>
@@ -6341,22 +6387,18 @@
       </c>
       <c r="EJ11" t="inlineStr">
         <is>
-          <t>https://powo.science.kew.org/taxon/840760-1</t>
+          <t>https://powo.science.kew.org/taxon/842277-1</t>
         </is>
       </c>
       <c r="EK11" t="inlineStr">
         <is>
-          <t>North Caucasus, Transcaucasus, Afghanistan, Iran, Lebanon-Syria, Palestine, Sinai, Turkey, Saudi Arabia, Pakistan</t>
-        </is>
-      </c>
-      <c r="EL11" t="inlineStr">
-        <is>
-          <t>Denmark, Finland, Great Britain, Norway, Sweden, Austria, Belgium, Czechoslovakia, Germany, Hungary, Poland, Switzerland, France, Portugal, Spain, Bulgaria, Greece, Italy, Kriti, Romania, Sicilia, Turkey-in-Europe, Yugoslavia, Belarus, Baltic States, Krym, Central European Rus, East European Russia, South European Russi, Ukraine, Algeria, Egypt, Libya, Morocco, Tunisia, Azores, Canary Is., Cape Verde, Madeira, Cameroon, Chad, Eritrea, Ethiopia, Somalia, Sudan, Kenya, Tanzania, Uganda, Angola, Mozambique, Zimbabwe, Cape Provinces, KwaZulu-Natal, Free State, Northern Provinces, Mauritius, Réunion, Rodrigues, West Siberia, Amur, Khabarovsk, Primorye, Kazakhstan, Turkmenistan, Tadzhikistan, Uzbekistan, Cyprus, Iraq, China South-Central, Inner Mongolia, China North-Central, China Southeast, Mongolia, Japan, Korea, Assam, Bangladesh, East Himalaya, India, Nepal, Sri Lanka, Andaman Is., Cambodia, Laos, Nicobar Is., Thailand, Vietnam, Borneo, Jawa, Lesser Sunda Is., Malaya, Maluku, Philippines, Sulawesi, Sumatera, New Guinea, Norfolk Is., New Zealand North, New Zealand South, Fiji, Hawaii, Nova Scotia, Ontario, Québec, Montana, Oregon, Washington, Illinois, Missouri, North Dakota, Oklahoma, South Dakota, Connecticut, Massachusetts, Michigan, New Jersey, New York, Ohio, Pennsylvania, Rhode I., Arizona, California, Nevada, New Mexico, Texas, Delaware, Florida, Louisiana, Maryland, North Carolina, South Carolina, Virginia, Mexico Central, Mexico Northwest, Costa Rica, El Salvador, Guatemala, Cuba, Dominican Republic, Haiti, Puerto Rico, Trinidad-Tobago, Colombia, Ecuador, Peru, Brazil South, Argentina Northeast, Argentina South, Argentina Northwest, Juan Fernández Is., Paraguay</t>
-        </is>
-      </c>
+          <t>Kazakhstan, Kirgizstan, Turkmenistan, Tadzhikistan, Uzbekistan, Afghanistan, Iran, Pakistan</t>
+        </is>
+      </c>
+      <c r="EL11" t="inlineStr"/>
       <c r="EM11" t="inlineStr">
         <is>
-          <t>Caucasus, Western Asia, Arabian Peninsula, Indian Subcontinent</t>
+          <t>Middle Asia, Western Asia, Indian Subcontinent</t>
         </is>
       </c>
       <c r="EN11" t="inlineStr">
@@ -6372,7 +6414,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -6380,23 +6422,27 @@
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>cardamoms</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>nutmeg</t>
+          <t>cardamom</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>the seed of a peach-like fruit of the nutmeg tree of the Moluccas, Indonesia</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>mace</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>the bright-green seed pods of an Indian plant; fruit of Elettaria cardamomum</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Bastard cardamom; Bengal cardamom; Cambodian cardamom; Cameroon cardamom; Ethiopian cardamom; Kepulaga; Madagascar cardamom; Nepaul cardamom</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr">
         <is>
           <t>vanwyk_culinary_2014</t>
@@ -6426,23 +6472,27 @@
         </is>
       </c>
       <c r="R12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>Myristica fragrans</t>
+          <t>Elettaria cardamomum</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>Houtt.</t>
+          <t>(L.) Maton</t>
         </is>
       </c>
       <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Amomum cardamomum L.</t>
+        </is>
+      </c>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr">
         <is>
@@ -6456,30 +6506,34 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>https://en.wikipedia.org/wiki/Nutmeg#Mace</t>
+          <t>https://en.wikipedia.org/wiki/Cardamom</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>https://www.britannica.com/topic/nutmeg</t>
+          <t>https://www.britannica.com/plant/cardamom</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>nutmeg tree</t>
+          <t>true cardamom</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>nutmeg</t>
+          <t xml:space="preserve">cardamom, -mon, -mum; green cardamom; true cardamom </t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>nutmeg</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr"/>
+          <t>cardamom</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>Cardamom</t>
+        </is>
+      </c>
       <c r="AG12" t="inlineStr"/>
       <c r="AH12" t="inlineStr"/>
       <c r="AI12" t="inlineStr"/>
@@ -6489,7 +6543,7 @@
       <c r="AM12" t="inlineStr"/>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>nutmeg; jawz al-tib; roudoukou</t>
+          <t>cardamom; amomum; hal; qaqulla; doukou</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr"/>
@@ -6500,24 +6554,24 @@
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>seed</t>
+          <t>fruit (seed pod)</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>Moluccas (Indonesia)</t>
+          <t>Kerala, S. India; southern Asia</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr"/>
       <c r="AT12" t="n">
-        <v>-4</v>
+        <v>10</v>
       </c>
       <c r="AU12" t="n">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Kerala</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
@@ -6527,27 +6581,27 @@
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Grenada; Indonesia</t>
+          <t>Guatemala; India; Sri Lanka; Tanzania; Papua New Guinea</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>pale brown nut, dark when powdered</t>
+          <t>green seed pods, brown seeds</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>sweet, warm, nutty</t>
+          <t>pungent, eucalyptus-like</t>
         </is>
       </c>
       <c r="BA12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="BB12" t="inlineStr">
         <is>
-          <t>desserts, eggnog; diahrrhea</t>
+          <t>desserts, coffees, curries</t>
         </is>
       </c>
       <c r="BC12" t="inlineStr">
@@ -6557,7 +6611,7 @@
       </c>
       <c r="BD12" t="inlineStr">
         <is>
-          <t>II 132</t>
+          <t>II 186</t>
         </is>
       </c>
       <c r="BE12" t="inlineStr">
@@ -6567,84 +6621,100 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>https://www.biodiversitylibrary.org/item/10837#page/609/mode/1up</t>
+          <t>https://www.biodiversitylibrary.org/item/10837#page/721/mode/1up</t>
         </is>
       </c>
       <c r="BG12" t="inlineStr"/>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>nutmeg.n.01</t>
+          <t>cardamom.n.01</t>
         </is>
       </c>
       <c r="BI12" t="inlineStr">
         <is>
-          <t>nutmeg.n.02</t>
+          <t>cardamom.n.02</t>
         </is>
       </c>
       <c r="BJ12" t="inlineStr"/>
       <c r="BK12" t="inlineStr">
         <is>
-          <t>nutmeg</t>
-        </is>
-      </c>
-      <c r="BL12" t="inlineStr"/>
+          <t>cardamom</t>
+        </is>
+      </c>
+      <c r="BL12" t="inlineStr">
+        <is>
+          <t>true cardamom; green cardamom</t>
+        </is>
+      </c>
       <c r="BM12" t="inlineStr">
         <is>
-          <t>جوز الطيب</t>
+          <t>هال</t>
         </is>
       </c>
       <c r="BN12" t="inlineStr">
         <is>
-          <t>jawz al-ṭīb</t>
-        </is>
-      </c>
-      <c r="BO12" t="inlineStr">
-        <is>
-          <t>fragrant nut</t>
-        </is>
-      </c>
-      <c r="BP12" t="inlineStr"/>
+          <t>hāl</t>
+        </is>
+      </c>
+      <c r="BO12" t="inlineStr"/>
+      <c r="BP12" t="inlineStr">
+        <is>
+          <t>هيل *hayl*</t>
+        </is>
+      </c>
       <c r="BQ12" t="inlineStr">
         <is>
-          <t>肉豆蔻</t>
+          <t>小豆蔻</t>
         </is>
       </c>
       <c r="BR12" t="inlineStr">
         <is>
-          <t>ròudòukòu</t>
+          <t>xiǎodòukòu</t>
         </is>
       </c>
       <c r="BS12" t="inlineStr">
         <is>
-          <t>flesh-bean-cardamom</t>
-        </is>
-      </c>
-      <c r="BT12" t="inlineStr"/>
-      <c r="BU12" t="inlineStr"/>
+          <t>little-bean-cardamom</t>
+        </is>
+      </c>
+      <c r="BT12" t="inlineStr">
+        <is>
+          <t>豆蔻 [bean-cardamom]; 綠豆蔻 [green-bean-cardamom]</t>
+        </is>
+      </c>
+      <c r="BU12" t="inlineStr">
+        <is>
+          <t>荳蔻</t>
+        </is>
+      </c>
       <c r="BV12" t="inlineStr">
         <is>
-          <t>szerecsendió</t>
-        </is>
-      </c>
-      <c r="BW12" t="inlineStr">
-        <is>
-          <t>Saracen nut</t>
-        </is>
-      </c>
-      <c r="BX12" t="inlineStr">
-        <is>
-          <t>muskátdió [musk-nut]; mácisdió [mace-nut]</t>
-        </is>
-      </c>
+          <t>kardamom</t>
+        </is>
+      </c>
+      <c r="BW12" t="inlineStr"/>
+      <c r="BX12" t="inlineStr"/>
       <c r="BY12" t="inlineStr"/>
-      <c r="BZ12" t="inlineStr"/>
-      <c r="CA12" t="inlineStr"/>
-      <c r="CB12" t="inlineStr"/>
+      <c r="BZ12" t="inlineStr">
+        <is>
+          <t>綠荳蔻</t>
+        </is>
+      </c>
+      <c r="CA12" t="inlineStr">
+        <is>
+          <t>luk6 dau6 kau3</t>
+        </is>
+      </c>
+      <c r="CB12" t="inlineStr">
+        <is>
+          <t>green-cardamom</t>
+        </is>
+      </c>
       <c r="CC12" t="inlineStr"/>
       <c r="CD12" t="inlineStr"/>
       <c r="CE12" t="inlineStr">
         <is>
-          <t>Semen Myristicae; Myristicae Semen</t>
+          <t>Fructus Cardamomi</t>
         </is>
       </c>
       <c r="CF12" t="n">
@@ -6652,124 +6722,92 @@
       </c>
       <c r="CG12" t="inlineStr">
         <is>
-          <t>polyu-tcm</t>
-        </is>
-      </c>
-      <c r="CH12" t="inlineStr">
-        <is>
-          <t>https://herbaltcm.sn.polyu.edu.hk/herbal/nutmeg</t>
-        </is>
-      </c>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="CH12" t="inlineStr"/>
       <c r="CI12" t="inlineStr">
         <is>
-          <t>肉豆蔻</t>
+          <t>小豆蔻</t>
         </is>
       </c>
       <c r="CJ12" t="inlineStr">
         <is>
-          <t>ròudòukòu</t>
+          <t>xiǎo​dòu​kòu</t>
         </is>
       </c>
       <c r="CK12" t="inlineStr">
         <is>
-          <t>Nutmeg</t>
-        </is>
-      </c>
-      <c r="CL12" t="inlineStr">
-        <is>
-          <t>Dried kernel of Myristica fragrans Houtt. (Fam. Myrisyicaceae)</t>
-        </is>
-      </c>
-      <c r="CM12" t="inlineStr">
-        <is>
-          <t>Astringent medicinal</t>
-        </is>
-      </c>
-      <c r="CN12" t="inlineStr">
-        <is>
-          <t>pungent; warm</t>
-        </is>
-      </c>
-      <c r="CO12" t="inlineStr">
-        <is>
-          <t>Spleen, Stomach, Large intestine</t>
-        </is>
-      </c>
-      <c r="CP12" t="inlineStr">
-        <is>
-          <t>To warm the middle and promote the flow of qi, and astringe the intestines and check diarrhea</t>
-        </is>
-      </c>
+          <t>Cardamom</t>
+        </is>
+      </c>
+      <c r="CL12" t="inlineStr"/>
+      <c r="CM12" t="inlineStr"/>
+      <c r="CN12" t="inlineStr"/>
+      <c r="CO12" t="inlineStr"/>
+      <c r="CP12" t="inlineStr"/>
       <c r="CQ12" t="inlineStr"/>
-      <c r="CR12" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="CS12" t="inlineStr">
-        <is>
-          <t>973</t>
-        </is>
-      </c>
+      <c r="CR12" t="inlineStr"/>
+      <c r="CS12" t="inlineStr"/>
       <c r="CT12" t="inlineStr"/>
       <c r="CU12" t="inlineStr">
         <is>
-          <t>https://www.gbif.org/species/5406817</t>
+          <t>https://www.gbif.org/species/2759871</t>
         </is>
       </c>
       <c r="CV12" t="inlineStr">
         <is>
-          <t>https://tropicos.org/name/21800077</t>
+          <t>https://tropicos.org/name/34500572</t>
         </is>
       </c>
       <c r="CW12" t="inlineStr">
         <is>
-          <t>https://eol.org/pages/596922</t>
+          <t>https://eol.org/pages/1120064</t>
         </is>
       </c>
       <c r="CX12" t="n">
-        <v>51089</v>
+        <v>105181</v>
       </c>
       <c r="CY12" t="inlineStr">
         <is>
-          <t>जायफल</t>
+          <t xml:space="preserve">इलायची </t>
         </is>
       </c>
       <c r="CZ12" t="inlineStr">
         <is>
-          <t>jāyaphal</t>
+          <t>ilāychī</t>
         </is>
       </c>
       <c r="DA12" t="inlineStr"/>
       <c r="DB12" t="inlineStr"/>
       <c r="DC12" t="inlineStr">
         <is>
-          <t>pala</t>
+          <t>kapulaga seberang</t>
         </is>
       </c>
       <c r="DD12" t="inlineStr">
         <is>
-          <t>گردوی بویا</t>
+          <t>هل سبز</t>
         </is>
       </c>
       <c r="DE12" t="inlineStr">
         <is>
-          <t>nutmeg</t>
+          <t>cardamom</t>
         </is>
       </c>
       <c r="DF12" t="inlineStr">
         <is>
-          <t>https://partigabor.github.io/aromatica/items/nutmeg</t>
+          <t>https://partigabor.github.io/aromatica/items/cardamom</t>
         </is>
       </c>
       <c r="DG12" t="inlineStr">
         <is>
-          <t>2500629</t>
+          <t>243056</t>
         </is>
       </c>
       <c r="DH12" t="inlineStr">
         <is>
-          <t>586076-1</t>
+          <t>796556-1</t>
         </is>
       </c>
       <c r="DI12" t="inlineStr">
@@ -6784,103 +6822,111 @@
       </c>
       <c r="DK12" t="inlineStr">
         <is>
-          <t>Myristicaceae</t>
+          <t>Zingiberaceae</t>
         </is>
       </c>
       <c r="DL12" t="inlineStr"/>
       <c r="DM12" t="inlineStr">
         <is>
-          <t>Myristica</t>
+          <t>Elettaria</t>
         </is>
       </c>
       <c r="DN12" t="inlineStr"/>
       <c r="DO12" t="inlineStr">
         <is>
-          <t>fragrans</t>
+          <t>cardamomum</t>
         </is>
       </c>
       <c r="DP12" t="inlineStr"/>
       <c r="DQ12" t="inlineStr"/>
-      <c r="DR12" t="inlineStr"/>
+      <c r="DR12" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
       <c r="DS12" t="inlineStr">
         <is>
-          <t>Houtt.</t>
+          <t>Maton</t>
         </is>
       </c>
       <c r="DT12" t="inlineStr"/>
       <c r="DU12" t="inlineStr">
         <is>
-          <t>Nat. Hist.</t>
+          <t>Trans. Linn. Soc. London</t>
         </is>
       </c>
       <c r="DV12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2(3): 333</t>
+          <t xml:space="preserve"> 10: 254</t>
         </is>
       </c>
       <c r="DW12" t="inlineStr">
         <is>
-          <t>(1774)</t>
+          <t>(1811)</t>
         </is>
       </c>
       <c r="DX12" t="inlineStr"/>
       <c r="DY12" t="inlineStr">
         <is>
-          <t>Maluku (Banda Is.)</t>
+          <t>SW. India</t>
         </is>
       </c>
       <c r="DZ12" t="inlineStr">
         <is>
-          <t>tree</t>
+          <t>rhizomatous geophyte</t>
         </is>
       </c>
       <c r="EA12" t="inlineStr">
         <is>
-          <t>wet tropical</t>
+          <t>seasonally dry tropical</t>
         </is>
       </c>
       <c r="EB12" t="inlineStr">
         <is>
-          <t>2500629</t>
-        </is>
-      </c>
-      <c r="EC12" t="inlineStr"/>
+          <t>243056</t>
+        </is>
+      </c>
+      <c r="EC12" t="inlineStr">
+        <is>
+          <t>219209</t>
+        </is>
+      </c>
       <c r="ED12" t="inlineStr"/>
       <c r="EE12" t="inlineStr"/>
       <c r="EF12" t="inlineStr">
         <is>
-          <t>2500594</t>
+          <t>243049</t>
         </is>
       </c>
       <c r="EG12" t="inlineStr">
         <is>
-          <t>586076-1</t>
+          <t>796556-1</t>
         </is>
       </c>
       <c r="EH12" t="inlineStr"/>
       <c r="EI12" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="EJ12" t="inlineStr">
         <is>
-          <t>https://powo.science.kew.org/taxon/586076-1</t>
+          <t>https://powo.science.kew.org/taxon/796556-1</t>
         </is>
       </c>
       <c r="EK12" t="inlineStr">
         <is>
-          <t>Maluku</t>
+          <t>India</t>
         </is>
       </c>
       <c r="EL12" t="inlineStr">
         <is>
-          <t>Gulf of Guinea Is., Comoros, Mauritius, Réunion, China South-Central, China Southeast, Taiwan, Assam, Bangladesh, Laos, Thailand, Vietnam, Jawa, Philippines, Samoa</t>
+          <t>Réunion, Bangladesh, Cambodia, Thailand, Vietnam, Lesser Sunda Is., Costa Rica, Trinidad-Tobago</t>
         </is>
       </c>
       <c r="EM12" t="inlineStr">
         <is>
-          <t>Malesia</t>
+          <t>Indian Subcontinent</t>
         </is>
       </c>
       <c r="EN12" t="inlineStr">
@@ -6896,7 +6942,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -6904,19 +6950,31 @@
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>cinnamon</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>saffron</t>
+          <t>cinnamon</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>the stigmas or styles of the saffron crocus flower; stamen of Crocus sativus</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+          <t>the inner bark of the cinnamon tree (Cinnamomum zeylanicum) from Sri Lanka</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>cassia</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Canela; Canella; Chinese cinnamon; Padang cinnamon: Saigon cinnamon</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr">
         <is>
           <t>vanwyk_culinary_2014</t>
@@ -6945,63 +7003,65 @@
           <t>1</t>
         </is>
       </c>
-      <c r="R13" t="n">
-        <v>1</v>
-      </c>
+      <c r="R13" t="inlineStr"/>
       <c r="S13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>Crocus sativus</t>
+          <t>Cinnamomum verum</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>J.Presl</t>
         </is>
       </c>
       <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Cinnamomum zeylanicum Blume</t>
+        </is>
+      </c>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>spice; dye</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>culinary</t>
+          <t>culinary; medicinal</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>https://en.wikipedia.org/wiki/Saffron</t>
+          <t>https://en.wikipedia.org/wiki/Cinnamon</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>https://www.britannica.com/topic/saffron</t>
+          <t>https://www.britannica.com/plant/cinnamon</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>saffron crocus; autumn crocus</t>
+          <t>cinnamon tree</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>saffron</t>
+          <t>cinnamon; Ceylon cinnamon</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>saffron</t>
+          <t>cinnamon; Ceylon cinnamon</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>Saffron</t>
+          <t>Cinnamon, Ceylon cinnamon</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr"/>
@@ -7010,10 +7070,14 @@
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
       <c r="AL13" t="inlineStr"/>
-      <c r="AM13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>Ceylon cinnamon</t>
+        </is>
+      </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>saffron; zafaran; fanhonghua</t>
+          <t>cinnamon; darsini; qirfa</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr"/>
@@ -7024,54 +7088,54 @@
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>stigma (style)</t>
+          <t>bark; leaf</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>Greece; Near East</t>
+          <t>Sri Lanka; SW. India</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr"/>
       <c r="AT13" t="n">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="AU13" t="n">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>Santorini</t>
+          <t>Sri Lanka</t>
         </is>
       </c>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Mediterranean</t>
+          <t>Asia</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Iran; Spain; Kashmir; etc.</t>
+          <t>Sri Lanka; Seychelles; Madagascar; India</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
         <is>
-          <t>deep red; dyes in orange</t>
+          <t>warm yellowish-brown, cinnamon</t>
         </is>
       </c>
       <c r="AZ13" t="inlineStr">
         <is>
-          <t>pungent, bitter</t>
+          <t>sweet, fragrant, pungent</t>
         </is>
       </c>
       <c r="BA13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="BB13" t="inlineStr">
         <is>
-          <t>paella, bouillabaise, rice, tagine, fevers</t>
+          <t>flavor; anti-microbial</t>
         </is>
       </c>
       <c r="BC13" t="inlineStr">
@@ -7081,7 +7145,7 @@
       </c>
       <c r="BD13" t="inlineStr">
         <is>
-          <t>II 164</t>
+          <t>I 78</t>
         </is>
       </c>
       <c r="BE13" t="inlineStr">
@@ -7091,217 +7155,163 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>https://www.biodiversitylibrary.org/item/10837#page/675/mode/1up</t>
+          <t>https://www.biodiversitylibrary.org/item/10836#page/393/mode/1up</t>
         </is>
       </c>
       <c r="BG13" t="inlineStr"/>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>saffron.n.01</t>
+          <t>cinnamon.n.02</t>
         </is>
       </c>
       <c r="BI13" t="inlineStr">
         <is>
-          <t>saffron.n.02</t>
+          <t>cinnamon.n.03</t>
         </is>
       </c>
       <c r="BJ13" t="inlineStr"/>
       <c r="BK13" t="inlineStr">
         <is>
-          <t>saffron</t>
+          <t>cinnamon</t>
         </is>
       </c>
       <c r="BL13" t="inlineStr"/>
       <c r="BM13" t="inlineStr">
         <is>
-          <t>زعفران</t>
+          <t>قرفة</t>
         </is>
       </c>
       <c r="BN13" t="inlineStr">
         <is>
-          <t>zaʿfarān</t>
-        </is>
-      </c>
-      <c r="BO13" t="inlineStr"/>
-      <c r="BP13" t="inlineStr"/>
+          <t>qirfa</t>
+        </is>
+      </c>
+      <c r="BO13" t="inlineStr">
+        <is>
+          <t>rind; bark</t>
+        </is>
+      </c>
+      <c r="BP13" t="inlineStr">
+        <is>
+          <t>*dārsīnī* دارصيني</t>
+        </is>
+      </c>
       <c r="BQ13" t="inlineStr">
         <is>
-          <t>藏紅花</t>
+          <t>錫蘭肉桂</t>
         </is>
       </c>
       <c r="BR13" t="inlineStr">
         <is>
-          <t>zànghónghuā</t>
+          <t>xīlánròuguì</t>
         </is>
       </c>
       <c r="BS13" t="inlineStr">
         <is>
-          <t>Tibetan-red-flower</t>
-        </is>
-      </c>
-      <c r="BT13" t="inlineStr">
-        <is>
-          <t>西紅花 *xīhónghuā* [western-red-flower]; 番紅花 *fān​hóng​huā* [foreign-red-flower]</t>
-        </is>
-      </c>
-      <c r="BU13" t="inlineStr">
-        <is>
-          <t>藏紅花</t>
-        </is>
-      </c>
+          <t>Ceylon-flesh-cinnamon</t>
+        </is>
+      </c>
+      <c r="BT13" t="inlineStr"/>
+      <c r="BU13" t="inlineStr"/>
       <c r="BV13" t="inlineStr">
         <is>
-          <t>sáfrány</t>
-        </is>
-      </c>
-      <c r="BW13" t="inlineStr"/>
+          <t>fahéj</t>
+        </is>
+      </c>
+      <c r="BW13" t="inlineStr">
+        <is>
+          <t>tree-bark</t>
+        </is>
+      </c>
       <c r="BX13" t="inlineStr"/>
       <c r="BY13" t="inlineStr"/>
       <c r="BZ13" t="inlineStr"/>
       <c r="CA13" t="inlineStr"/>
       <c r="CB13" t="inlineStr"/>
-      <c r="CC13" t="inlineStr">
-        <is>
-          <t>Greece or Asia Minor</t>
-        </is>
-      </c>
+      <c r="CC13" t="inlineStr"/>
       <c r="CD13" t="inlineStr"/>
       <c r="CE13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Stigmata Croci; Stylus Croci; Croci Stigma; </t>
-        </is>
-      </c>
-      <c r="CF13" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG13" t="inlineStr">
-        <is>
-          <t>polyu-tcm</t>
-        </is>
-      </c>
-      <c r="CH13" t="inlineStr">
-        <is>
-          <t>https://herbaltcm.sn.polyu.edu.hk/herbal/saffron</t>
-        </is>
-      </c>
-      <c r="CI13" t="inlineStr">
-        <is>
-          <t>西紅花</t>
-        </is>
-      </c>
-      <c r="CJ13" t="inlineStr">
-        <is>
-          <t>xīhónghuā</t>
-        </is>
-      </c>
-      <c r="CK13" t="inlineStr">
-        <is>
-          <t>Saffron</t>
-        </is>
-      </c>
-      <c r="CL13" t="inlineStr">
-        <is>
-          <t>Dried stigma of Crocus sativus L. (Fam. Iridaceae)</t>
-        </is>
-      </c>
-      <c r="CM13" t="inlineStr">
-        <is>
-          <t>Blood-activating menstruation regulating medicinal</t>
-        </is>
-      </c>
-      <c r="CN13" t="inlineStr">
-        <is>
-          <t>sweet; neutral</t>
-        </is>
-      </c>
-      <c r="CO13" t="inlineStr">
-        <is>
-          <t>Liver, Heart</t>
-        </is>
-      </c>
-      <c r="CP13" t="inlineStr">
-        <is>
-          <t>To activate blood circulation and eliminate blood stasis, cool the blood and detoxify, and tranquilize</t>
-        </is>
-      </c>
+          <t>Cortex Cinnamoni</t>
+        </is>
+      </c>
+      <c r="CF13" t="inlineStr"/>
+      <c r="CG13" t="inlineStr"/>
+      <c r="CH13" t="inlineStr"/>
+      <c r="CI13" t="inlineStr"/>
+      <c r="CJ13" t="inlineStr"/>
+      <c r="CK13" t="inlineStr"/>
+      <c r="CL13" t="inlineStr"/>
+      <c r="CM13" t="inlineStr"/>
+      <c r="CN13" t="inlineStr"/>
+      <c r="CO13" t="inlineStr"/>
+      <c r="CP13" t="inlineStr"/>
       <c r="CQ13" t="inlineStr"/>
-      <c r="CR13" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="CS13" t="inlineStr">
-        <is>
-          <t>1596</t>
-        </is>
-      </c>
+      <c r="CR13" t="inlineStr"/>
+      <c r="CS13" t="inlineStr"/>
       <c r="CT13" t="inlineStr"/>
       <c r="CU13" t="inlineStr">
         <is>
-          <t>https://www.gbif.org/species/2747430</t>
+          <t>https://www.gbif.org/species/3033987</t>
         </is>
       </c>
       <c r="CV13" t="inlineStr">
         <is>
-          <t>https://tropicos.org/name/16600120</t>
+          <t>https://tropicos.org/name/17800682</t>
         </is>
       </c>
       <c r="CW13" t="inlineStr">
         <is>
-          <t>https://eol.org/pages/488247</t>
+          <t>https://eol.org/pages/490672</t>
         </is>
       </c>
       <c r="CX13" t="n">
-        <v>82528</v>
+        <v>128608</v>
       </c>
       <c r="CY13" t="inlineStr">
         <is>
-          <t>केसर</t>
+          <t>दालचीनी</t>
         </is>
       </c>
       <c r="CZ13" t="inlineStr">
         <is>
-          <t>kesar</t>
-        </is>
-      </c>
-      <c r="DA13" t="inlineStr">
-        <is>
-          <t>hair, mane</t>
-        </is>
-      </c>
+          <t>dālchīnī</t>
+        </is>
+      </c>
+      <c r="DA13" t="inlineStr"/>
       <c r="DB13" t="inlineStr">
         <is>
-          <t>कुंकुम; जाफरान; सैफ्रन</t>
+          <t>दारचीनी darchini</t>
         </is>
       </c>
       <c r="DC13" t="inlineStr">
         <is>
-          <t>kuma-kuma; safron</t>
+          <t>kayu manis</t>
         </is>
       </c>
       <c r="DD13" t="inlineStr">
         <is>
-          <t xml:space="preserve">زعفران </t>
+          <t xml:space="preserve">دارچین </t>
         </is>
       </c>
       <c r="DE13" t="inlineStr">
         <is>
-          <t>saffron</t>
+          <t>cinnamon</t>
         </is>
       </c>
       <c r="DF13" t="inlineStr">
         <is>
-          <t>https://partigabor.github.io/aromatica/items/saffron</t>
+          <t>https://partigabor.github.io/aromatica/items/cinnamon</t>
         </is>
       </c>
       <c r="DG13" t="inlineStr">
         <is>
-          <t>327454</t>
+          <t>2721692</t>
         </is>
       </c>
       <c r="DH13" t="inlineStr">
         <is>
-          <t>436688-1</t>
+          <t>463752-1</t>
         </is>
       </c>
       <c r="DI13" t="inlineStr">
@@ -7316,19 +7326,19 @@
       </c>
       <c r="DK13" t="inlineStr">
         <is>
-          <t>Iridaceae</t>
+          <t>Lauraceae</t>
         </is>
       </c>
       <c r="DL13" t="inlineStr"/>
       <c r="DM13" t="inlineStr">
         <is>
-          <t>Crocus</t>
+          <t>Cinnamomum</t>
         </is>
       </c>
       <c r="DN13" t="inlineStr"/>
       <c r="DO13" t="inlineStr">
         <is>
-          <t>sativus</t>
+          <t>verum</t>
         </is>
       </c>
       <c r="DP13" t="inlineStr"/>
@@ -7336,88 +7346,100 @@
       <c r="DR13" t="inlineStr"/>
       <c r="DS13" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="DT13" t="inlineStr"/>
+          <t>J.Presl</t>
+        </is>
+      </c>
+      <c r="DT13" t="inlineStr">
+        <is>
+          <t>F.Berchtold &amp; J.S.Presl</t>
+        </is>
+      </c>
       <c r="DU13" t="inlineStr">
         <is>
-          <t>Sp. Pl.</t>
+          <t>Přir. Rostlin Aneb. Rostl.</t>
         </is>
       </c>
       <c r="DV13" t="inlineStr">
         <is>
-          <t>: 36</t>
+          <t xml:space="preserve"> 2: 36</t>
         </is>
       </c>
       <c r="DW13" t="inlineStr">
         <is>
-          <t>(1753)</t>
+          <t>(1823)</t>
         </is>
       </c>
       <c r="DX13" t="inlineStr"/>
       <c r="DY13" t="inlineStr">
         <is>
-          <t>a cultigen from Greece</t>
+          <t>Sri Lanka</t>
         </is>
       </c>
       <c r="DZ13" t="inlineStr">
         <is>
-          <t>tuberous geophyte</t>
+          <t>tree</t>
         </is>
       </c>
       <c r="EA13" t="inlineStr">
         <is>
-          <t>subtropical</t>
+          <t>wet tropical</t>
         </is>
       </c>
       <c r="EB13" t="inlineStr">
         <is>
-          <t>327454</t>
-        </is>
-      </c>
-      <c r="EC13" t="inlineStr"/>
-      <c r="ED13" t="inlineStr"/>
+          <t>2721692</t>
+        </is>
+      </c>
+      <c r="EC13" t="inlineStr">
+        <is>
+          <t>2349499</t>
+        </is>
+      </c>
+      <c r="ED13" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
       <c r="EE13" t="inlineStr"/>
       <c r="EF13" t="inlineStr">
         <is>
-          <t>327117</t>
+          <t>2721087</t>
         </is>
       </c>
       <c r="EG13" t="inlineStr">
         <is>
-          <t>436688-1</t>
+          <t>463752-1</t>
         </is>
       </c>
       <c r="EH13" t="inlineStr"/>
       <c r="EI13" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="EJ13" t="inlineStr">
         <is>
-          <t>https://powo.science.kew.org/taxon/436688-1</t>
+          <t>https://powo.science.kew.org/taxon/463752-1</t>
         </is>
       </c>
       <c r="EK13" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Sri Lanka</t>
         </is>
       </c>
       <c r="EL13" t="inlineStr">
         <is>
-          <t>Czechoslovakia, Spain, Italy, Morocco, Iran, Turkey, Pakistan, West Himalaya</t>
+          <t>Gulf of Guinea Is., Tanzania, Angola, Comoros, Mauritius, Seychelles, China Southeast, Taiwan, Assam, Bangladesh, India, Cambodia, Myanmar, Vietnam, Borneo, Jawa, Philippines, Fiji, Samoa, Cook Is., Society Is., Caroline Is., Hawaii, Leeward Is., Windward Is., Brazil Southeast, Argentina Northeast</t>
         </is>
       </c>
       <c r="EM13" t="inlineStr">
         <is>
-          <t>Southeastern Europe</t>
+          <t>Indian Subcontinent</t>
         </is>
       </c>
       <c r="EN13" t="inlineStr">
         <is>
-          <t>EUROPE</t>
+          <t>ASIA-TROPICAL</t>
         </is>
       </c>
     </row>
@@ -7428,7 +7450,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -7436,31 +7458,19 @@
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>cinnamon</t>
-        </is>
-      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>cinnamon</t>
+          <t>coriander</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>the inner bark of the cinnamon tree (Cinnamomum zeylanicum) from Sri Lanka</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>cassia</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Canela; Canella; Chinese cinnamon; Padang cinnamon: Saigon cinnamon</t>
-        </is>
-      </c>
+          <t>the dried fruits of an annual herb, also known as cilantro</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
           <t>vanwyk_culinary_2014</t>
@@ -7489,26 +7499,24 @@
           <t>1</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
       <c r="S14" t="n">
         <v>7</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>Cinnamomum verum</t>
+          <t>Coriandrum sativum</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>J.Presl</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>Cinnamomum zeylanicum Blume</t>
-        </is>
-      </c>
+      <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr">
         <is>
@@ -7517,37 +7525,37 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>culinary; medicinal</t>
+          <t>culinary</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>https://en.wikipedia.org/wiki/Cinnamon</t>
+          <t>https://en.wikipedia.org/wiki/Coriander</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>https://www.britannica.com/plant/cinnamon</t>
+          <t>https://www.britannica.com/plant/coriander</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>cinnamon tree</t>
+          <t>coriander</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>cinnamon; Ceylon cinnamon</t>
+          <t>coriander seeds; cilantro; Chinese parsley</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>cinnamon; Ceylon cinnamon</t>
+          <t>coriander; cilantro; Chinese parsley</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>Cinnamon, Ceylon cinnamon</t>
+          <t>Coriander, cilantro</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr"/>
@@ -7556,14 +7564,10 @@
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
       <c r="AL14" t="inlineStr"/>
-      <c r="AM14" t="inlineStr">
-        <is>
-          <t>Ceylon cinnamon</t>
-        </is>
-      </c>
+      <c r="AM14" t="inlineStr"/>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>cinnamon; darsini; qirfa</t>
+          <t>coriander; kuzbura; yansui; husui</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr"/>
@@ -7574,24 +7578,24 @@
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>bark; leaf</t>
+          <t>fruit</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>Sri Lanka; SW. India</t>
+          <t>E. Mediterranean; W. Asia</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr"/>
       <c r="AT14" t="n">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="AU14" t="n">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>Sri Lanka</t>
+          <t>Armenia</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr">
@@ -7601,27 +7605,27 @@
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Sri Lanka; Seychelles; Madagascar; India</t>
+          <t>Argentina; India; Morocco; Romania; Spain; Yugoslavia</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
         <is>
-          <t>warm yellowish-brown, cinnamon</t>
+          <t>light yellow</t>
         </is>
       </c>
       <c r="AZ14" t="inlineStr">
         <is>
-          <t>sweet, fragrant, pungent</t>
+          <t>warm, aromatic, sweet</t>
         </is>
       </c>
       <c r="BA14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="BB14" t="inlineStr">
         <is>
-          <t>flavor; anti-microbial</t>
+          <t>curries; anti-microbial</t>
         </is>
       </c>
       <c r="BC14" t="inlineStr">
@@ -7631,7 +7635,7 @@
       </c>
       <c r="BD14" t="inlineStr">
         <is>
-          <t>I 78</t>
+          <t>II 145</t>
         </is>
       </c>
       <c r="BE14" t="inlineStr">
@@ -7641,75 +7645,71 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>https://www.biodiversitylibrary.org/item/10836#page/393/mode/1up</t>
+          <t>https://www.biodiversitylibrary.org/item/10837#page/635/mode/1up</t>
         </is>
       </c>
       <c r="BG14" t="inlineStr"/>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>cinnamon.n.02</t>
+          <t>coriander.n.01</t>
         </is>
       </c>
       <c r="BI14" t="inlineStr">
         <is>
-          <t>cinnamon.n.03</t>
+          <t>coriander.n.02</t>
         </is>
       </c>
       <c r="BJ14" t="inlineStr"/>
       <c r="BK14" t="inlineStr">
         <is>
-          <t>cinnamon</t>
+          <t>coriander</t>
         </is>
       </c>
       <c r="BL14" t="inlineStr"/>
       <c r="BM14" t="inlineStr">
         <is>
-          <t>قرفة</t>
+          <t>كزبرة</t>
         </is>
       </c>
       <c r="BN14" t="inlineStr">
         <is>
-          <t>qirfa</t>
-        </is>
-      </c>
-      <c r="BO14" t="inlineStr">
-        <is>
-          <t>rind; bark</t>
-        </is>
-      </c>
-      <c r="BP14" t="inlineStr">
-        <is>
-          <t>*dārsīnī* دارصيني</t>
-        </is>
-      </c>
+          <t>kuzbara</t>
+        </is>
+      </c>
+      <c r="BO14" t="inlineStr"/>
+      <c r="BP14" t="inlineStr"/>
       <c r="BQ14" t="inlineStr">
         <is>
-          <t>錫蘭肉桂</t>
+          <t>芫荽</t>
         </is>
       </c>
       <c r="BR14" t="inlineStr">
         <is>
-          <t>xīlánròuguì</t>
+          <t>yán​sui</t>
         </is>
       </c>
       <c r="BS14" t="inlineStr">
         <is>
-          <t>Ceylon-flesh-cinnamon</t>
+          <t>lilac-coriander</t>
         </is>
       </c>
       <c r="BT14" t="inlineStr"/>
-      <c r="BU14" t="inlineStr"/>
+      <c r="BU14" t="inlineStr">
+        <is>
+          <t>胡荽 (芫荽); 芫荽仁 (芫荽子)</t>
+        </is>
+      </c>
       <c r="BV14" t="inlineStr">
         <is>
-          <t>fahéj</t>
-        </is>
-      </c>
-      <c r="BW14" t="inlineStr">
-        <is>
-          <t>tree-bark</t>
-        </is>
-      </c>
-      <c r="BX14" t="inlineStr"/>
+          <t>koriander</t>
+        </is>
+      </c>
+      <c r="BW14" t="inlineStr"/>
+      <c r="BX14" t="inlineStr">
+        <is>
+          <t>cigánypetrezselyem [gipsy-parsley]</t>
+        </is>
+      </c>
       <c r="BY14" t="inlineStr"/>
       <c r="BZ14" t="inlineStr"/>
       <c r="CA14" t="inlineStr"/>
@@ -7718,14 +7718,22 @@
       <c r="CD14" t="inlineStr"/>
       <c r="CE14" t="inlineStr">
         <is>
-          <t>Cortex Cinnamoni</t>
+          <t>Fructus Coriandri; Semen Coriandri</t>
         </is>
       </c>
       <c r="CF14" t="inlineStr"/>
       <c r="CG14" t="inlineStr"/>
       <c r="CH14" t="inlineStr"/>
-      <c r="CI14" t="inlineStr"/>
-      <c r="CJ14" t="inlineStr"/>
+      <c r="CI14" t="inlineStr">
+        <is>
+          <t>芫荽子</t>
+        </is>
+      </c>
+      <c r="CJ14" t="inlineStr">
+        <is>
+          <t>yán​suizǐ</t>
+        </is>
+      </c>
       <c r="CK14" t="inlineStr"/>
       <c r="CL14" t="inlineStr"/>
       <c r="CM14" t="inlineStr"/>
@@ -7733,71 +7741,75 @@
       <c r="CO14" t="inlineStr"/>
       <c r="CP14" t="inlineStr"/>
       <c r="CQ14" t="inlineStr"/>
-      <c r="CR14" t="inlineStr"/>
-      <c r="CS14" t="inlineStr"/>
+      <c r="CR14" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="CS14" t="inlineStr">
+        <is>
+          <t>1061</t>
+        </is>
+      </c>
       <c r="CT14" t="inlineStr"/>
       <c r="CU14" t="inlineStr">
         <is>
-          <t>https://www.gbif.org/species/3033987</t>
+          <t>https://www.gbif.org/species/3034871</t>
         </is>
       </c>
       <c r="CV14" t="inlineStr">
         <is>
-          <t>https://tropicos.org/name/17800682</t>
+          <t>https://tropicos.org/name/1700064</t>
         </is>
       </c>
       <c r="CW14" t="inlineStr">
         <is>
-          <t>https://eol.org/pages/490672</t>
+          <t>https://eol.org/pages/581687</t>
         </is>
       </c>
       <c r="CX14" t="n">
-        <v>128608</v>
+        <v>4047</v>
       </c>
       <c r="CY14" t="inlineStr">
         <is>
-          <t>दालचीनी</t>
+          <t xml:space="preserve">धनिया </t>
         </is>
       </c>
       <c r="CZ14" t="inlineStr">
         <is>
-          <t>dālchīnī</t>
+          <t>dhaniyā</t>
         </is>
       </c>
       <c r="DA14" t="inlineStr"/>
-      <c r="DB14" t="inlineStr">
-        <is>
-          <t>दारचीनी darchini</t>
-        </is>
-      </c>
+      <c r="DB14" t="inlineStr"/>
       <c r="DC14" t="inlineStr">
         <is>
-          <t>kayu manis</t>
+          <t>ketumbar</t>
         </is>
       </c>
       <c r="DD14" t="inlineStr">
         <is>
-          <t xml:space="preserve">دارچین </t>
+          <t xml:space="preserve">گشنیز </t>
         </is>
       </c>
       <c r="DE14" t="inlineStr">
         <is>
-          <t>cinnamon</t>
+          <t>coriander</t>
         </is>
       </c>
       <c r="DF14" t="inlineStr">
         <is>
-          <t>https://partigabor.github.io/aromatica/items/cinnamon</t>
+          <t>https://partigabor.github.io/aromatica/items/coriander</t>
         </is>
       </c>
       <c r="DG14" t="inlineStr">
         <is>
-          <t>2721692</t>
+          <t>2737546</t>
         </is>
       </c>
       <c r="DH14" t="inlineStr">
         <is>
-          <t>463752-1</t>
+          <t>840760-1</t>
         </is>
       </c>
       <c r="DI14" t="inlineStr">
@@ -7812,19 +7824,19 @@
       </c>
       <c r="DK14" t="inlineStr">
         <is>
-          <t>Lauraceae</t>
+          <t>Apiaceae</t>
         </is>
       </c>
       <c r="DL14" t="inlineStr"/>
       <c r="DM14" t="inlineStr">
         <is>
-          <t>Cinnamomum</t>
+          <t>Coriandrum</t>
         </is>
       </c>
       <c r="DN14" t="inlineStr"/>
       <c r="DO14" t="inlineStr">
         <is>
-          <t>verum</t>
+          <t>sativum</t>
         </is>
       </c>
       <c r="DP14" t="inlineStr"/>
@@ -7832,69 +7844,57 @@
       <c r="DR14" t="inlineStr"/>
       <c r="DS14" t="inlineStr">
         <is>
-          <t>J.Presl</t>
-        </is>
-      </c>
-      <c r="DT14" t="inlineStr">
-        <is>
-          <t>F.Berchtold &amp; J.S.Presl</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="DT14" t="inlineStr"/>
       <c r="DU14" t="inlineStr">
         <is>
-          <t>Přir. Rostlin Aneb. Rostl.</t>
+          <t>Sp. Pl.</t>
         </is>
       </c>
       <c r="DV14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2: 36</t>
+          <t>: 256</t>
         </is>
       </c>
       <c r="DW14" t="inlineStr">
         <is>
-          <t>(1823)</t>
+          <t>(1753)</t>
         </is>
       </c>
       <c r="DX14" t="inlineStr"/>
       <c r="DY14" t="inlineStr">
         <is>
-          <t>Sri Lanka</t>
+          <t>E. Medit. to Pakistan</t>
         </is>
       </c>
       <c r="DZ14" t="inlineStr">
         <is>
-          <t>tree</t>
+          <t>annual</t>
         </is>
       </c>
       <c r="EA14" t="inlineStr">
         <is>
-          <t>wet tropical</t>
+          <t>subtropical</t>
         </is>
       </c>
       <c r="EB14" t="inlineStr">
         <is>
-          <t>2721692</t>
-        </is>
-      </c>
-      <c r="EC14" t="inlineStr">
-        <is>
-          <t>2349499</t>
-        </is>
-      </c>
-      <c r="ED14" t="inlineStr">
-        <is>
-          <t>L.</t>
-        </is>
-      </c>
+          <t>2737546</t>
+        </is>
+      </c>
+      <c r="EC14" t="inlineStr"/>
+      <c r="ED14" t="inlineStr"/>
       <c r="EE14" t="inlineStr"/>
       <c r="EF14" t="inlineStr">
         <is>
-          <t>2721087</t>
+          <t>2737532</t>
         </is>
       </c>
       <c r="EG14" t="inlineStr">
         <is>
-          <t>463752-1</t>
+          <t>840760-1</t>
         </is>
       </c>
       <c r="EH14" t="inlineStr"/>
@@ -7905,27 +7905,27 @@
       </c>
       <c r="EJ14" t="inlineStr">
         <is>
-          <t>https://powo.science.kew.org/taxon/463752-1</t>
+          <t>https://powo.science.kew.org/taxon/840760-1</t>
         </is>
       </c>
       <c r="EK14" t="inlineStr">
         <is>
-          <t>Sri Lanka</t>
+          <t>North Caucasus, Transcaucasus, Afghanistan, Iran, Lebanon-Syria, Palestine, Sinai, Turkey, Saudi Arabia, Pakistan</t>
         </is>
       </c>
       <c r="EL14" t="inlineStr">
         <is>
-          <t>Gulf of Guinea Is., Tanzania, Angola, Comoros, Mauritius, Seychelles, China Southeast, Taiwan, Assam, Bangladesh, India, Cambodia, Myanmar, Vietnam, Borneo, Jawa, Philippines, Fiji, Samoa, Cook Is., Society Is., Caroline Is., Hawaii, Leeward Is., Windward Is., Brazil Southeast, Argentina Northeast</t>
+          <t>Denmark, Finland, Great Britain, Norway, Sweden, Austria, Belgium, Czechoslovakia, Germany, Hungary, Poland, Switzerland, France, Portugal, Spain, Bulgaria, Greece, Italy, Kriti, Romania, Sicilia, Turkey-in-Europe, Yugoslavia, Belarus, Baltic States, Krym, Central European Rus, East European Russia, South European Russi, Ukraine, Algeria, Egypt, Libya, Morocco, Tunisia, Azores, Canary Is., Cape Verde, Madeira, Cameroon, Chad, Eritrea, Ethiopia, Somalia, Sudan, Kenya, Tanzania, Uganda, Angola, Mozambique, Zimbabwe, Cape Provinces, KwaZulu-Natal, Free State, Northern Provinces, Mauritius, Réunion, Rodrigues, West Siberia, Amur, Khabarovsk, Primorye, Kazakhstan, Turkmenistan, Tadzhikistan, Uzbekistan, Cyprus, Iraq, China South-Central, Inner Mongolia, China North-Central, China Southeast, Mongolia, Japan, Korea, Assam, Bangladesh, East Himalaya, India, Nepal, Sri Lanka, Andaman Is., Cambodia, Laos, Nicobar Is., Thailand, Vietnam, Borneo, Jawa, Lesser Sunda Is., Malaya, Maluku, Philippines, Sulawesi, Sumatera, New Guinea, Norfolk Is., New Zealand North, New Zealand South, Fiji, Hawaii, Nova Scotia, Ontario, Québec, Montana, Oregon, Washington, Illinois, Missouri, North Dakota, Oklahoma, South Dakota, Connecticut, Massachusetts, Michigan, New Jersey, New York, Ohio, Pennsylvania, Rhode I., Arizona, California, Nevada, New Mexico, Texas, Delaware, Florida, Louisiana, Maryland, North Carolina, South Carolina, Virginia, Mexico Central, Mexico Northwest, Costa Rica, El Salvador, Guatemala, Cuba, Dominican Republic, Haiti, Puerto Rico, Trinidad-Tobago, Colombia, Ecuador, Peru, Brazil South, Argentina Northeast, Argentina South, Argentina Northwest, Juan Fernández Is., Paraguay</t>
         </is>
       </c>
       <c r="EM14" t="inlineStr">
         <is>
-          <t>Indian Subcontinent</t>
+          <t>Caucasus, Western Asia, Arabian Peninsula, Indian Subcontinent</t>
         </is>
       </c>
       <c r="EN14" t="inlineStr">
         <is>
-          <t>ASIA-TROPICAL</t>
+          <t>ASIA-TEMPERATE, ASIA-TROPICAL</t>
         </is>
       </c>
     </row>
@@ -9345,6 +9345,410 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>41</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>commodities</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>coffee</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>The roasted seeds -- called coffee beans -- of African shrubs, most typically Coffea arabica and Coffea robusta, used to prepare beverages.</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>vanwyk_culinary_2014</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Coffea arabica</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>C. canephora var. robusta</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>commodity</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>beverage</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Coffee</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>https://www.britannica.com/topic/coffee</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>coffee plant</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>coffee beans; Arabian coffee</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>coffee; Arabian coffee</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="inlineStr"/>
+      <c r="AI18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="inlineStr"/>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>coffee</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>https://en.wiktionary.org/wiki/coffee</t>
+        </is>
+      </c>
+      <c r="AP18" t="inlineStr">
+        <is>
+          <t>Plantae</t>
+        </is>
+      </c>
+      <c r="AQ18" t="inlineStr">
+        <is>
+          <t>seed</t>
+        </is>
+      </c>
+      <c r="AR18" t="inlineStr">
+        <is>
+          <t>NE Afr (Ethiopia)</t>
+        </is>
+      </c>
+      <c r="AS18" t="inlineStr"/>
+      <c r="AT18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>40</v>
+      </c>
+      <c r="AV18" t="inlineStr">
+        <is>
+          <t>Ethiopia</t>
+        </is>
+      </c>
+      <c r="AW18" t="inlineStr"/>
+      <c r="AX18" t="inlineStr"/>
+      <c r="AY18" t="inlineStr">
+        <is>
+          <t>brown</t>
+        </is>
+      </c>
+      <c r="AZ18" t="inlineStr"/>
+      <c r="BA18" t="inlineStr"/>
+      <c r="BB18" t="inlineStr"/>
+      <c r="BC18" t="inlineStr">
+        <is>
+          <t>Köhler's Medizinal-Pflanzen</t>
+        </is>
+      </c>
+      <c r="BD18" t="inlineStr">
+        <is>
+          <t>II 106</t>
+        </is>
+      </c>
+      <c r="BE18" t="inlineStr">
+        <is>
+          <t>koehler_1887_koehler</t>
+        </is>
+      </c>
+      <c r="BF18" t="inlineStr">
+        <is>
+          <t>https://www.biodiversitylibrary.org/item/10837#page/555/mode/1up</t>
+        </is>
+      </c>
+      <c r="BG18" t="inlineStr"/>
+      <c r="BH18" t="inlineStr">
+        <is>
+          <t>coffee.n.02</t>
+        </is>
+      </c>
+      <c r="BI18" t="inlineStr">
+        <is>
+          <t>coffee.n.03</t>
+        </is>
+      </c>
+      <c r="BJ18" t="inlineStr">
+        <is>
+          <t>coffee.n.01</t>
+        </is>
+      </c>
+      <c r="BK18" t="inlineStr">
+        <is>
+          <t>coffee</t>
+        </is>
+      </c>
+      <c r="BL18" t="inlineStr"/>
+      <c r="BM18" t="inlineStr">
+        <is>
+          <t>قهوة</t>
+        </is>
+      </c>
+      <c r="BN18" t="inlineStr">
+        <is>
+          <t>qahwa</t>
+        </is>
+      </c>
+      <c r="BO18" t="inlineStr"/>
+      <c r="BP18" t="inlineStr">
+        <is>
+          <t>*bunn* بن</t>
+        </is>
+      </c>
+      <c r="BQ18" t="inlineStr">
+        <is>
+          <t>咖啡</t>
+        </is>
+      </c>
+      <c r="BR18" t="inlineStr">
+        <is>
+          <t>kāfēi</t>
+        </is>
+      </c>
+      <c r="BS18" t="inlineStr"/>
+      <c r="BT18" t="inlineStr">
+        <is>
+          <t>咖啡豆 kāfēidòu [coffee-bean]</t>
+        </is>
+      </c>
+      <c r="BU18" t="inlineStr"/>
+      <c r="BV18" t="inlineStr">
+        <is>
+          <t>kávé</t>
+        </is>
+      </c>
+      <c r="BW18" t="inlineStr"/>
+      <c r="BX18" t="inlineStr"/>
+      <c r="BY18" t="inlineStr"/>
+      <c r="BZ18" t="inlineStr"/>
+      <c r="CA18" t="inlineStr"/>
+      <c r="CB18" t="inlineStr"/>
+      <c r="CC18" t="inlineStr"/>
+      <c r="CD18" t="inlineStr"/>
+      <c r="CE18" t="inlineStr"/>
+      <c r="CF18" t="inlineStr"/>
+      <c r="CG18" t="inlineStr"/>
+      <c r="CH18" t="inlineStr"/>
+      <c r="CI18" t="inlineStr"/>
+      <c r="CJ18" t="inlineStr"/>
+      <c r="CK18" t="inlineStr"/>
+      <c r="CL18" t="inlineStr"/>
+      <c r="CM18" t="inlineStr"/>
+      <c r="CN18" t="inlineStr"/>
+      <c r="CO18" t="inlineStr"/>
+      <c r="CP18" t="inlineStr"/>
+      <c r="CQ18" t="inlineStr"/>
+      <c r="CR18" t="inlineStr"/>
+      <c r="CS18" t="inlineStr"/>
+      <c r="CT18" t="inlineStr"/>
+      <c r="CU18" t="inlineStr"/>
+      <c r="CV18" t="inlineStr"/>
+      <c r="CW18" t="inlineStr"/>
+      <c r="CX18" t="inlineStr"/>
+      <c r="CY18" t="inlineStr"/>
+      <c r="CZ18" t="inlineStr"/>
+      <c r="DA18" t="inlineStr"/>
+      <c r="DB18" t="inlineStr"/>
+      <c r="DC18" t="inlineStr"/>
+      <c r="DD18" t="inlineStr"/>
+      <c r="DE18" t="inlineStr">
+        <is>
+          <t>coffee</t>
+        </is>
+      </c>
+      <c r="DF18" t="inlineStr">
+        <is>
+          <t>https://partigabor.github.io/aromatica/items/coffee</t>
+        </is>
+      </c>
+      <c r="DG18" t="inlineStr">
+        <is>
+          <t>45400</t>
+        </is>
+      </c>
+      <c r="DH18" t="inlineStr">
+        <is>
+          <t>747038-1</t>
+        </is>
+      </c>
+      <c r="DI18" t="inlineStr">
+        <is>
+          <t>Species</t>
+        </is>
+      </c>
+      <c r="DJ18" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="DK18" t="inlineStr">
+        <is>
+          <t>Rubiaceae</t>
+        </is>
+      </c>
+      <c r="DL18" t="inlineStr"/>
+      <c r="DM18" t="inlineStr">
+        <is>
+          <t>Coffea</t>
+        </is>
+      </c>
+      <c r="DN18" t="inlineStr"/>
+      <c r="DO18" t="inlineStr">
+        <is>
+          <t>arabica</t>
+        </is>
+      </c>
+      <c r="DP18" t="inlineStr"/>
+      <c r="DQ18" t="inlineStr"/>
+      <c r="DR18" t="inlineStr"/>
+      <c r="DS18" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="DT18" t="inlineStr"/>
+      <c r="DU18" t="inlineStr">
+        <is>
+          <t>Sp. Pl.</t>
+        </is>
+      </c>
+      <c r="DV18" t="inlineStr">
+        <is>
+          <t>: 172</t>
+        </is>
+      </c>
+      <c r="DW18" t="inlineStr">
+        <is>
+          <t>(1753)</t>
+        </is>
+      </c>
+      <c r="DX18" t="inlineStr"/>
+      <c r="DY18" t="inlineStr">
+        <is>
+          <t>E. South Sudan, SW. Ethiopia, N. Kenya (Mt. Marsibit)</t>
+        </is>
+      </c>
+      <c r="DZ18" t="inlineStr">
+        <is>
+          <t>shrub or tree</t>
+        </is>
+      </c>
+      <c r="EA18" t="inlineStr">
+        <is>
+          <t>seasonally dry tropical</t>
+        </is>
+      </c>
+      <c r="EB18" t="inlineStr">
+        <is>
+          <t>45400</t>
+        </is>
+      </c>
+      <c r="EC18" t="inlineStr"/>
+      <c r="ED18" t="inlineStr"/>
+      <c r="EE18" t="inlineStr"/>
+      <c r="EF18" t="inlineStr">
+        <is>
+          <t>45380</t>
+        </is>
+      </c>
+      <c r="EG18" t="inlineStr">
+        <is>
+          <t>747038-1</t>
+        </is>
+      </c>
+      <c r="EH18" t="inlineStr"/>
+      <c r="EI18" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="EJ18" t="inlineStr">
+        <is>
+          <t>https://powo.science.kew.org/taxon/747038-1</t>
+        </is>
+      </c>
+      <c r="EK18" t="inlineStr">
+        <is>
+          <t>Ethiopia, Sudan, Kenya</t>
+        </is>
+      </c>
+      <c r="EL18" t="inlineStr">
+        <is>
+          <t>Guinea-Bissau, Guinea, Congo, Gabon, Gulf of Guinea Is., Rwanda, Malawi, Ascension, St.Helena, Comoros, China South-Central, Hainan, China Southeast, Ogasawara-shoto, Taiwan, Bangladesh, Andaman Is., Myanmar, Borneo, Lesser Sunda Is., Bismarck Archipelago, Norfolk Is., Fiji, New Caledonia, Samoa, Vanuatu, Cook Is., Easter Is., Marquesas, Society Is., Tuamotu, Tubuai Is., Caroline Is., Marianas, Marshall Is., Hawaii, Mexico Central, Mexico Southwest, Mexico Southeast, Belize, Costa Rica, Central American Pac, El Salvador, Guatemala, Honduras, Nicaragua, Panamá, Bermuda, Cuba, Dominican Republic, Haiti, Jamaica, Leeward Is., Puerto Rico, Trinidad-Tobago, Windward Is., Venezuela, Bolivia, Colombia, Ecuador, Galápagos, Peru, Brazil West-Central, Brazil Northeast, Brazil Southeast, Brazil North, Brazil South</t>
+        </is>
+      </c>
+      <c r="EM18" t="inlineStr">
+        <is>
+          <t>Northeast Tropical Africa, East Tropical Africa</t>
+        </is>
+      </c>
+      <c r="EN18" t="inlineStr">
+        <is>
+          <t>AFRICA</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/checking.xlsx
+++ b/database/checking.xlsx
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1561,7 +1561,11 @@
           <t>kayu manis</t>
         </is>
       </c>
-      <c r="DD2" t="inlineStr"/>
+      <c r="DD2" t="inlineStr">
+        <is>
+          <t>دارچین چینی</t>
+        </is>
+      </c>
       <c r="DE2" t="inlineStr">
         <is>
           <t>cassia</t>
@@ -1699,7 +1703,7 @@
       </c>
       <c r="EN2" t="inlineStr">
         <is>
-          <t>ASIA-TEMPERATE, ASIA-TROPICAL</t>
+          <t>Asia-Temperate, Asia-Tropical</t>
         </is>
       </c>
     </row>
@@ -2239,7 +2243,7 @@
       </c>
       <c r="EN3" t="inlineStr">
         <is>
-          <t>ASIA-TROPICAL</t>
+          <t>Asia-Tropical</t>
         </is>
       </c>
     </row>
@@ -2250,7 +2254,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -2767,7 +2771,7 @@
       </c>
       <c r="EN4" t="inlineStr">
         <is>
-          <t>ASIA-TEMPERATE, ASIA-TROPICAL</t>
+          <t>Asia-Temperate, Asia-Tropical</t>
         </is>
       </c>
     </row>
@@ -2778,7 +2782,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -3146,7 +3150,11 @@
           <t>jāyaphal</t>
         </is>
       </c>
-      <c r="DA5" t="inlineStr"/>
+      <c r="DA5" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
       <c r="DB5" t="inlineStr"/>
       <c r="DC5" t="inlineStr">
         <is>
@@ -3155,7 +3163,7 @@
       </c>
       <c r="DD5" t="inlineStr">
         <is>
-          <t>گردوی بویا</t>
+          <t>جوز هندی</t>
         </is>
       </c>
       <c r="DE5" t="inlineStr">
@@ -3291,7 +3299,7 @@
       </c>
       <c r="EN5" t="inlineStr">
         <is>
-          <t>ASIA-TROPICAL</t>
+          <t>Asia-Tropical</t>
         </is>
       </c>
     </row>
@@ -3302,7 +3310,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -3843,7 +3851,7 @@
       </c>
       <c r="EN6" t="inlineStr">
         <is>
-          <t>ASIA-TROPICAL</t>
+          <t>Asia-Tropical</t>
         </is>
       </c>
     </row>
@@ -3854,7 +3862,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -4375,7 +4383,7 @@
       </c>
       <c r="EN7" t="inlineStr">
         <is>
-          <t>EUROPE</t>
+          <t>Europe</t>
         </is>
       </c>
     </row>
@@ -4903,7 +4911,7 @@
       </c>
       <c r="EN8" t="inlineStr">
         <is>
-          <t>ASIA-TROPICAL</t>
+          <t>Asia-Tropical</t>
         </is>
       </c>
     </row>
@@ -5274,7 +5282,7 @@
       <c r="DB9" t="inlineStr"/>
       <c r="DC9" t="inlineStr">
         <is>
-          <t>Merica Jamaika</t>
+          <t>merica Jamaika</t>
         </is>
       </c>
       <c r="DD9" t="inlineStr">
@@ -5423,7 +5431,7 @@
       </c>
       <c r="EN9" t="inlineStr">
         <is>
-          <t>NORTHERN AMERICA, SOUTHERN AMERICA</t>
+          <t>Northern America, Southern America</t>
         </is>
       </c>
     </row>
@@ -5434,7 +5442,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -5750,9 +5758,21 @@
       <c r="CR10" t="inlineStr"/>
       <c r="CS10" t="inlineStr"/>
       <c r="CT10" t="inlineStr"/>
-      <c r="CU10" t="inlineStr"/>
-      <c r="CV10" t="inlineStr"/>
-      <c r="CW10" t="inlineStr"/>
+      <c r="CU10" t="inlineStr">
+        <is>
+          <t>https://www.gbif.org/species/8080300</t>
+        </is>
+      </c>
+      <c r="CV10" t="inlineStr">
+        <is>
+          <t>https://tropicos.org/name/1700194</t>
+        </is>
+      </c>
+      <c r="CW10" t="inlineStr">
+        <is>
+          <t>https://eol.org/pages/581422</t>
+        </is>
+      </c>
       <c r="CX10" t="n">
         <v>271192</v>
       </c>
@@ -5915,7 +5935,7 @@
       </c>
       <c r="EN10" t="inlineStr">
         <is>
-          <t>ASIA-TEMPERATE</t>
+          <t>Asia-Temperate</t>
         </is>
       </c>
     </row>
@@ -5926,7 +5946,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -5934,19 +5954,27 @@
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>cardamoms</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>asafoetida</t>
+          <t>cardamom</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>the dried resin of Ferula foetida and F. assa-foetida</t>
+          <t>the bright-green seed pods of an Indian plant; fruit of Elettaria cardamomum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Bastard cardamom; Bengal cardamom; Cambodian cardamom; Cameroon cardamom; Ethiopian cardamom; Kepulaga; Madagascar cardamom; Nepaul cardamom</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr">
         <is>
           <t>vanwyk_culinary_2014</t>
@@ -5983,21 +6011,21 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>Ferula foetida</t>
+          <t>Elettaria cardamomum</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>(Bunge) Regel</t>
+          <t>(L.) Maton</t>
         </is>
       </c>
       <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>Ferula assa-foetida L.; Ferula narthex; et al.</t>
-        </is>
-      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Amomum cardamomum L.</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr">
         <is>
           <t>spice</t>
@@ -6010,48 +6038,44 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>https://en.wikipedia.org/wiki/Asafoetida</t>
+          <t>https://en.wikipedia.org/wiki/Cardamom</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>https://www.britannica.com/topic/asafetida</t>
+          <t>https://www.britannica.com/plant/cardamom</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>ferula plant</t>
+          <t>true cardamom</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>asafoetida; hing, devil’s dung, asant; fetida</t>
+          <t xml:space="preserve">cardamom, -mon, -mum; green cardamom; true cardamom </t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>hing, devil’s dung, asant; fetida</t>
+          <t>cardamom</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>Asafoetida, hing</t>
+          <t>Cardamom</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr"/>
       <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="inlineStr"/>
       <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>asafetida</t>
-        </is>
-      </c>
+      <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>asafoetida; hing; hiltit; anjudan; awei; xingqu</t>
+          <t>cardamom; amomum; hal; qaqulla; doukou</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr"/>
@@ -6062,24 +6086,24 @@
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>gum-resin (latex)</t>
+          <t>fruit (seed pod)</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>Iran; W. and C. Asia</t>
+          <t>Kerala, S. India; southern Asia</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr"/>
       <c r="AT11" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="AU11" t="n">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Kerala</t>
         </is>
       </c>
       <c r="AW11" t="inlineStr">
@@ -6089,27 +6113,27 @@
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Iran; Afghanistan</t>
+          <t>Guatemala; India; Sri Lanka; Tanzania; Papua New Guinea</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
         <is>
-          <t>from pale yellow to brown</t>
+          <t>green seed pods, brown seeds</t>
         </is>
       </c>
       <c r="AZ11" t="inlineStr">
         <is>
-          <t>pungent, rotten</t>
+          <t>pungent, eucalyptus-like</t>
         </is>
       </c>
       <c r="BA11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="BB11" t="inlineStr">
         <is>
-          <t>curries; expectorant</t>
+          <t>desserts, coffees, curries</t>
         </is>
       </c>
       <c r="BC11" t="inlineStr">
@@ -6119,7 +6143,7 @@
       </c>
       <c r="BD11" t="inlineStr">
         <is>
-          <t>II 147</t>
+          <t>II 186</t>
         </is>
       </c>
       <c r="BE11" t="inlineStr">
@@ -6129,104 +6153,124 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>https://www.biodiversitylibrary.org/item/10837#page/639/mode/1up</t>
+          <t>https://www.biodiversitylibrary.org/item/10837#page/721/mode/1up</t>
         </is>
       </c>
       <c r="BG11" t="inlineStr"/>
-      <c r="BH11" t="inlineStr"/>
+      <c r="BH11" t="inlineStr">
+        <is>
+          <t>cardamom.n.01</t>
+        </is>
+      </c>
       <c r="BI11" t="inlineStr">
         <is>
-          <t>asafetida.n.01</t>
+          <t>cardamom.n.02</t>
         </is>
       </c>
       <c r="BJ11" t="inlineStr"/>
       <c r="BK11" t="inlineStr">
         <is>
-          <t>asafoetida</t>
+          <t>cardamom</t>
         </is>
       </c>
       <c r="BL11" t="inlineStr">
         <is>
-          <t>hing; devil's dung</t>
+          <t>true cardamom; green cardamom</t>
         </is>
       </c>
       <c r="BM11" t="inlineStr">
         <is>
-          <t>حلتیت</t>
+          <t>هال</t>
         </is>
       </c>
       <c r="BN11" t="inlineStr">
         <is>
-          <t>ḥiltīt</t>
+          <t>hāl</t>
         </is>
       </c>
       <c r="BO11" t="inlineStr"/>
-      <c r="BP11" t="inlineStr"/>
+      <c r="BP11" t="inlineStr">
+        <is>
+          <t>هيل *hayl*</t>
+        </is>
+      </c>
       <c r="BQ11" t="inlineStr">
         <is>
-          <t>阿魏</t>
+          <t>小豆蔻</t>
         </is>
       </c>
       <c r="BR11" t="inlineStr">
         <is>
-          <t>āwèi</t>
-        </is>
-      </c>
-      <c r="BS11" t="inlineStr"/>
-      <c r="BT11" t="inlineStr"/>
-      <c r="BU11" t="inlineStr"/>
+          <t>xiǎodòukòu</t>
+        </is>
+      </c>
+      <c r="BS11" t="inlineStr">
+        <is>
+          <t>little-bean-cardamom</t>
+        </is>
+      </c>
+      <c r="BT11" t="inlineStr">
+        <is>
+          <t>豆蔻 [bean-cardamom]; 綠豆蔻 [green-bean-cardamom]</t>
+        </is>
+      </c>
+      <c r="BU11" t="inlineStr">
+        <is>
+          <t>荳蔻</t>
+        </is>
+      </c>
       <c r="BV11" t="inlineStr">
         <is>
-          <t>ördöggyökér</t>
-        </is>
-      </c>
-      <c r="BW11" t="inlineStr">
-        <is>
-          <t>devil's root</t>
-        </is>
-      </c>
-      <c r="BX11" t="inlineStr">
-        <is>
-          <t>aszatgyanta [asat resin]; bűzös aszat [stinking asat]</t>
-        </is>
-      </c>
-      <c r="BY11" t="inlineStr">
-        <is>
-          <t>büdös gyantagyökér; bűzös husáng, bűzös aszat; ördögszar, aszatgyanta, aszandkórógyanta, pálcakórógyanta, aszafetida, bűzaszat , Aszandkóró (növény wiki)!</t>
-        </is>
-      </c>
-      <c r="BZ11" t="inlineStr"/>
-      <c r="CA11" t="inlineStr"/>
-      <c r="CB11" t="inlineStr"/>
-      <c r="CC11" t="inlineStr">
-        <is>
-          <t>Tamil perungayam. There is a saying in Kannada 'ಇಂಗು ತೆಂಗು ಇದ್ದರೆ ಮಂಗನೂ ಅಡಿಗೆ ಮಾಡತ್ತೆ'. This means even a monkey can cook if Asafoetida and coconut is available. Hing is must in Kannada and Marathi brahmin cuisine for sure.</t>
-        </is>
-      </c>
+          <t>kardamom</t>
+        </is>
+      </c>
+      <c r="BW11" t="inlineStr"/>
+      <c r="BX11" t="inlineStr"/>
+      <c r="BY11" t="inlineStr"/>
+      <c r="BZ11" t="inlineStr">
+        <is>
+          <t>綠荳蔻</t>
+        </is>
+      </c>
+      <c r="CA11" t="inlineStr">
+        <is>
+          <t>luk6 dau6 kau3</t>
+        </is>
+      </c>
+      <c r="CB11" t="inlineStr">
+        <is>
+          <t>green-cardamom</t>
+        </is>
+      </c>
+      <c r="CC11" t="inlineStr"/>
       <c r="CD11" t="inlineStr"/>
       <c r="CE11" t="inlineStr">
         <is>
-          <t>Asafetida; Resina Ferulae</t>
+          <t>Fructus Cardamomi</t>
         </is>
       </c>
       <c r="CF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="CG11" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
       <c r="CH11" t="inlineStr"/>
       <c r="CI11" t="inlineStr">
         <is>
-          <t>阿魏</t>
+          <t>小豆蔻</t>
         </is>
       </c>
       <c r="CJ11" t="inlineStr">
         <is>
-          <t>āwèi</t>
+          <t>xiǎo​dòu​kòu</t>
         </is>
       </c>
       <c r="CK11" t="inlineStr">
         <is>
-          <t>Ferula Resin</t>
+          <t>Cardamom</t>
         </is>
       </c>
       <c r="CL11" t="inlineStr"/>
@@ -6235,55 +6279,67 @@
       <c r="CO11" t="inlineStr"/>
       <c r="CP11" t="inlineStr"/>
       <c r="CQ11" t="inlineStr"/>
-      <c r="CR11" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="CS11" t="inlineStr">
-        <is>
-          <t>659</t>
-        </is>
-      </c>
+      <c r="CR11" t="inlineStr"/>
+      <c r="CS11" t="inlineStr"/>
       <c r="CT11" t="inlineStr"/>
-      <c r="CU11" t="inlineStr"/>
-      <c r="CV11" t="inlineStr"/>
-      <c r="CW11" t="inlineStr"/>
+      <c r="CU11" t="inlineStr">
+        <is>
+          <t>https://www.gbif.org/species/2759871</t>
+        </is>
+      </c>
+      <c r="CV11" t="inlineStr">
+        <is>
+          <t>https://tropicos.org/name/34500572</t>
+        </is>
+      </c>
+      <c r="CW11" t="inlineStr">
+        <is>
+          <t>https://eol.org/pages/1120064</t>
+        </is>
+      </c>
       <c r="CX11" t="n">
-        <v>371345</v>
+        <v>105181</v>
       </c>
       <c r="CY11" t="inlineStr">
         <is>
-          <t>हींग</t>
+          <t xml:space="preserve">इलायची </t>
         </is>
       </c>
       <c r="CZ11" t="inlineStr">
         <is>
-          <t>hīng</t>
+          <t>ilāychī</t>
         </is>
       </c>
       <c r="DA11" t="inlineStr"/>
       <c r="DB11" t="inlineStr"/>
-      <c r="DC11" t="inlineStr"/>
-      <c r="DD11" t="inlineStr"/>
+      <c r="DC11" t="inlineStr">
+        <is>
+          <t>kapulaga seberang</t>
+        </is>
+      </c>
+      <c r="DD11" t="inlineStr">
+        <is>
+          <t>هل سبز</t>
+        </is>
+      </c>
       <c r="DE11" t="inlineStr">
         <is>
-          <t>asafoetida</t>
+          <t>cardamom</t>
         </is>
       </c>
       <c r="DF11" t="inlineStr">
         <is>
-          <t>https://partigabor.github.io/aromatica/items/asafoetida</t>
+          <t>https://partigabor.github.io/aromatica/items/cardamom</t>
         </is>
       </c>
       <c r="DG11" t="inlineStr">
         <is>
-          <t>2808419</t>
+          <t>243056</t>
         </is>
       </c>
       <c r="DH11" t="inlineStr">
         <is>
-          <t>842277-1</t>
+          <t>796556-1</t>
         </is>
       </c>
       <c r="DI11" t="inlineStr">
@@ -6298,112 +6354,116 @@
       </c>
       <c r="DK11" t="inlineStr">
         <is>
-          <t>Apiaceae</t>
+          <t>Zingiberaceae</t>
         </is>
       </c>
       <c r="DL11" t="inlineStr"/>
       <c r="DM11" t="inlineStr">
         <is>
-          <t>Ferula</t>
+          <t>Elettaria</t>
         </is>
       </c>
       <c r="DN11" t="inlineStr"/>
       <c r="DO11" t="inlineStr">
         <is>
-          <t>foetida</t>
+          <t>cardamomum</t>
         </is>
       </c>
       <c r="DP11" t="inlineStr"/>
       <c r="DQ11" t="inlineStr"/>
       <c r="DR11" t="inlineStr">
         <is>
-          <t>Bunge</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="DS11" t="inlineStr">
         <is>
-          <t>Regel</t>
+          <t>Maton</t>
         </is>
       </c>
       <c r="DT11" t="inlineStr"/>
       <c r="DU11" t="inlineStr">
         <is>
-          <t>Trudy Imp. S.-Peterburgsk. Bot. Sada</t>
+          <t>Trans. Linn. Soc. London</t>
         </is>
       </c>
       <c r="DV11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5: 592</t>
+          <t xml:space="preserve"> 10: 254</t>
         </is>
       </c>
       <c r="DW11" t="inlineStr">
         <is>
-          <t>(1877)</t>
+          <t>(1811)</t>
         </is>
       </c>
       <c r="DX11" t="inlineStr"/>
       <c r="DY11" t="inlineStr">
         <is>
-          <t>Iran to C. Asia and W. Pakistan</t>
+          <t>SW. India</t>
         </is>
       </c>
       <c r="DZ11" t="inlineStr">
         <is>
-          <t>perennial</t>
+          <t>rhizomatous geophyte</t>
         </is>
       </c>
       <c r="EA11" t="inlineStr">
         <is>
-          <t>temperate</t>
+          <t>seasonally dry tropical</t>
         </is>
       </c>
       <c r="EB11" t="inlineStr">
         <is>
-          <t>2808419</t>
+          <t>243056</t>
         </is>
       </c>
       <c r="EC11" t="inlineStr">
         <is>
-          <t>2479171</t>
+          <t>219209</t>
         </is>
       </c>
       <c r="ED11" t="inlineStr"/>
       <c r="EE11" t="inlineStr"/>
       <c r="EF11" t="inlineStr">
         <is>
-          <t>2808299</t>
+          <t>243049</t>
         </is>
       </c>
       <c r="EG11" t="inlineStr">
         <is>
-          <t>842277-1</t>
+          <t>796556-1</t>
         </is>
       </c>
       <c r="EH11" t="inlineStr"/>
       <c r="EI11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="EJ11" t="inlineStr">
         <is>
-          <t>https://powo.science.kew.org/taxon/842277-1</t>
+          <t>https://powo.science.kew.org/taxon/796556-1</t>
         </is>
       </c>
       <c r="EK11" t="inlineStr">
         <is>
-          <t>Kazakhstan, Kirgizstan, Turkmenistan, Tadzhikistan, Uzbekistan, Afghanistan, Iran, Pakistan</t>
-        </is>
-      </c>
-      <c r="EL11" t="inlineStr"/>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="EL11" t="inlineStr">
+        <is>
+          <t>Réunion, Bangladesh, Cambodia, Thailand, Vietnam, Lesser Sunda Is., Costa Rica, Trinidad-Tobago</t>
+        </is>
+      </c>
       <c r="EM11" t="inlineStr">
         <is>
-          <t>Middle Asia, Western Asia, Indian Subcontinent</t>
+          <t>Indian Subcontinent</t>
         </is>
       </c>
       <c r="EN11" t="inlineStr">
         <is>
-          <t>ASIA-TEMPERATE, ASIA-TROPICAL</t>
+          <t>Asia-Tropical</t>
         </is>
       </c>
     </row>
@@ -6414,7 +6474,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -6424,23 +6484,27 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>cardamoms</t>
+          <t>cinnamon</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>cardamom</t>
+          <t>cinnamon</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>the bright-green seed pods of an Indian plant; fruit of Elettaria cardamomum</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>the inner bark of the cinnamon tree (Cinnamomum zeylanicum) from Sri Lanka</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>cassia</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Bastard cardamom; Bengal cardamom; Cambodian cardamom; Cameroon cardamom; Ethiopian cardamom; Kepulaga; Madagascar cardamom; Nepaul cardamom</t>
+          <t>Canela; Canella; Chinese cinnamon; Padang cinnamon: Saigon cinnamon</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -6479,18 +6543,18 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>Elettaria cardamomum</t>
+          <t>Cinnamomum verum</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>(L.) Maton</t>
+          <t>J.Presl</t>
         </is>
       </c>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr">
         <is>
-          <t>Amomum cardamomum L.</t>
+          <t>Cinnamomum zeylanicum Blume</t>
         </is>
       </c>
       <c r="X12" t="inlineStr"/>
@@ -6506,32 +6570,32 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>https://en.wikipedia.org/wiki/Cardamom</t>
+          <t>https://en.wikipedia.org/wiki/Cinnamon</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>https://www.britannica.com/plant/cardamom</t>
+          <t>https://www.britannica.com/plant/cinnamon</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>true cardamom</t>
+          <t>cinnamon tree</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t xml:space="preserve">cardamom, -mon, -mum; green cardamom; true cardamom </t>
+          <t>cinnamon; Ceylon cinnamon</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>cardamom</t>
+          <t>cinnamon; Ceylon cinnamon</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>Cardamom</t>
+          <t>Cinnamon, Ceylon cinnamon</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr"/>
@@ -6540,10 +6604,14 @@
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
       <c r="AL12" t="inlineStr"/>
-      <c r="AM12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>Ceylon cinnamon</t>
+        </is>
+      </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>cardamom; amomum; hal; qaqulla; doukou</t>
+          <t>cinnamon; darsini; qirfa</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr"/>
@@ -6554,24 +6622,24 @@
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>fruit (seed pod)</t>
+          <t>bark; leaf</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>Kerala, S. India; southern Asia</t>
+          <t>Sri Lanka; SW. India</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr"/>
       <c r="AT12" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AU12" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>Kerala</t>
+          <t>Sri Lanka</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
@@ -6581,27 +6649,27 @@
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Guatemala; India; Sri Lanka; Tanzania; Papua New Guinea</t>
+          <t>Sri Lanka; Seychelles; Madagascar; India</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>green seed pods, brown seeds</t>
+          <t>warm yellowish-brown, cinnamon</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>pungent, eucalyptus-like</t>
+          <t>sweet, fragrant, pungent</t>
         </is>
       </c>
       <c r="BA12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="BB12" t="inlineStr">
         <is>
-          <t>desserts, coffees, curries</t>
+          <t>flavor; anti-microbial</t>
         </is>
       </c>
       <c r="BC12" t="inlineStr">
@@ -6611,7 +6679,7 @@
       </c>
       <c r="BD12" t="inlineStr">
         <is>
-          <t>II 186</t>
+          <t>I 78</t>
         </is>
       </c>
       <c r="BE12" t="inlineStr">
@@ -6621,126 +6689,92 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>https://www.biodiversitylibrary.org/item/10837#page/721/mode/1up</t>
+          <t>https://www.biodiversitylibrary.org/item/10836#page/393/mode/1up</t>
         </is>
       </c>
       <c r="BG12" t="inlineStr"/>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>cardamom.n.01</t>
+          <t>cinnamon.n.02</t>
         </is>
       </c>
       <c r="BI12" t="inlineStr">
         <is>
-          <t>cardamom.n.02</t>
+          <t>cinnamon.n.03</t>
         </is>
       </c>
       <c r="BJ12" t="inlineStr"/>
       <c r="BK12" t="inlineStr">
         <is>
-          <t>cardamom</t>
-        </is>
-      </c>
-      <c r="BL12" t="inlineStr">
-        <is>
-          <t>true cardamom; green cardamom</t>
-        </is>
-      </c>
+          <t>cinnamon</t>
+        </is>
+      </c>
+      <c r="BL12" t="inlineStr"/>
       <c r="BM12" t="inlineStr">
         <is>
-          <t>هال</t>
+          <t>قرفة</t>
         </is>
       </c>
       <c r="BN12" t="inlineStr">
         <is>
-          <t>hāl</t>
-        </is>
-      </c>
-      <c r="BO12" t="inlineStr"/>
+          <t>qirfa</t>
+        </is>
+      </c>
+      <c r="BO12" t="inlineStr">
+        <is>
+          <t>rind; bark</t>
+        </is>
+      </c>
       <c r="BP12" t="inlineStr">
         <is>
-          <t>هيل *hayl*</t>
+          <t>*dārsīnī* دارصيني</t>
         </is>
       </c>
       <c r="BQ12" t="inlineStr">
         <is>
-          <t>小豆蔻</t>
+          <t>錫蘭肉桂</t>
         </is>
       </c>
       <c r="BR12" t="inlineStr">
         <is>
-          <t>xiǎodòukòu</t>
+          <t>xīlánròuguì</t>
         </is>
       </c>
       <c r="BS12" t="inlineStr">
         <is>
-          <t>little-bean-cardamom</t>
-        </is>
-      </c>
-      <c r="BT12" t="inlineStr">
-        <is>
-          <t>豆蔻 [bean-cardamom]; 綠豆蔻 [green-bean-cardamom]</t>
-        </is>
-      </c>
-      <c r="BU12" t="inlineStr">
-        <is>
-          <t>荳蔻</t>
-        </is>
-      </c>
+          <t>Ceylon-flesh-cinnamon</t>
+        </is>
+      </c>
+      <c r="BT12" t="inlineStr"/>
+      <c r="BU12" t="inlineStr"/>
       <c r="BV12" t="inlineStr">
         <is>
-          <t>kardamom</t>
-        </is>
-      </c>
-      <c r="BW12" t="inlineStr"/>
+          <t>fahéj</t>
+        </is>
+      </c>
+      <c r="BW12" t="inlineStr">
+        <is>
+          <t>tree-bark</t>
+        </is>
+      </c>
       <c r="BX12" t="inlineStr"/>
       <c r="BY12" t="inlineStr"/>
-      <c r="BZ12" t="inlineStr">
-        <is>
-          <t>綠荳蔻</t>
-        </is>
-      </c>
-      <c r="CA12" t="inlineStr">
-        <is>
-          <t>luk6 dau6 kau3</t>
-        </is>
-      </c>
-      <c r="CB12" t="inlineStr">
-        <is>
-          <t>green-cardamom</t>
-        </is>
-      </c>
+      <c r="BZ12" t="inlineStr"/>
+      <c r="CA12" t="inlineStr"/>
+      <c r="CB12" t="inlineStr"/>
       <c r="CC12" t="inlineStr"/>
       <c r="CD12" t="inlineStr"/>
       <c r="CE12" t="inlineStr">
         <is>
-          <t>Fructus Cardamomi</t>
-        </is>
-      </c>
-      <c r="CF12" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG12" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
+          <t>Cortex Cinnamoni</t>
+        </is>
+      </c>
+      <c r="CF12" t="inlineStr"/>
+      <c r="CG12" t="inlineStr"/>
       <c r="CH12" t="inlineStr"/>
-      <c r="CI12" t="inlineStr">
-        <is>
-          <t>小豆蔻</t>
-        </is>
-      </c>
-      <c r="CJ12" t="inlineStr">
-        <is>
-          <t>xiǎo​dòu​kòu</t>
-        </is>
-      </c>
-      <c r="CK12" t="inlineStr">
-        <is>
-          <t>Cardamom</t>
-        </is>
-      </c>
+      <c r="CI12" t="inlineStr"/>
+      <c r="CJ12" t="inlineStr"/>
+      <c r="CK12" t="inlineStr"/>
       <c r="CL12" t="inlineStr"/>
       <c r="CM12" t="inlineStr"/>
       <c r="CN12" t="inlineStr"/>
@@ -6752,62 +6786,70 @@
       <c r="CT12" t="inlineStr"/>
       <c r="CU12" t="inlineStr">
         <is>
-          <t>https://www.gbif.org/species/2759871</t>
+          <t>https://www.gbif.org/species/3033987</t>
         </is>
       </c>
       <c r="CV12" t="inlineStr">
         <is>
-          <t>https://tropicos.org/name/34500572</t>
+          <t>https://tropicos.org/name/17800682</t>
         </is>
       </c>
       <c r="CW12" t="inlineStr">
         <is>
-          <t>https://eol.org/pages/1120064</t>
+          <t>https://eol.org/pages/490672</t>
         </is>
       </c>
       <c r="CX12" t="n">
-        <v>105181</v>
+        <v>128608</v>
       </c>
       <c r="CY12" t="inlineStr">
         <is>
-          <t xml:space="preserve">इलायची </t>
+          <t>दालचीनी</t>
         </is>
       </c>
       <c r="CZ12" t="inlineStr">
         <is>
-          <t>ilāychī</t>
-        </is>
-      </c>
-      <c r="DA12" t="inlineStr"/>
-      <c r="DB12" t="inlineStr"/>
+          <t>dālchīnī</t>
+        </is>
+      </c>
+      <c r="DA12" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="DB12" t="inlineStr">
+        <is>
+          <t>दारचीनी darchini</t>
+        </is>
+      </c>
       <c r="DC12" t="inlineStr">
         <is>
-          <t>kapulaga seberang</t>
+          <t>kayu manis</t>
         </is>
       </c>
       <c r="DD12" t="inlineStr">
         <is>
-          <t>هل سبز</t>
+          <t xml:space="preserve">دارچین </t>
         </is>
       </c>
       <c r="DE12" t="inlineStr">
         <is>
-          <t>cardamom</t>
+          <t>cinnamon</t>
         </is>
       </c>
       <c r="DF12" t="inlineStr">
         <is>
-          <t>https://partigabor.github.io/aromatica/items/cardamom</t>
+          <t>https://partigabor.github.io/aromatica/items/cinnamon</t>
         </is>
       </c>
       <c r="DG12" t="inlineStr">
         <is>
-          <t>243056</t>
+          <t>2721692</t>
         </is>
       </c>
       <c r="DH12" t="inlineStr">
         <is>
-          <t>796556-1</t>
+          <t>463752-1</t>
         </is>
       </c>
       <c r="DI12" t="inlineStr">
@@ -6822,106 +6864,110 @@
       </c>
       <c r="DK12" t="inlineStr">
         <is>
-          <t>Zingiberaceae</t>
+          <t>Lauraceae</t>
         </is>
       </c>
       <c r="DL12" t="inlineStr"/>
       <c r="DM12" t="inlineStr">
         <is>
-          <t>Elettaria</t>
+          <t>Cinnamomum</t>
         </is>
       </c>
       <c r="DN12" t="inlineStr"/>
       <c r="DO12" t="inlineStr">
         <is>
-          <t>cardamomum</t>
+          <t>verum</t>
         </is>
       </c>
       <c r="DP12" t="inlineStr"/>
       <c r="DQ12" t="inlineStr"/>
-      <c r="DR12" t="inlineStr">
-        <is>
-          <t>L.</t>
-        </is>
-      </c>
+      <c r="DR12" t="inlineStr"/>
       <c r="DS12" t="inlineStr">
         <is>
-          <t>Maton</t>
-        </is>
-      </c>
-      <c r="DT12" t="inlineStr"/>
+          <t>J.Presl</t>
+        </is>
+      </c>
+      <c r="DT12" t="inlineStr">
+        <is>
+          <t>F.Berchtold &amp; J.S.Presl</t>
+        </is>
+      </c>
       <c r="DU12" t="inlineStr">
         <is>
-          <t>Trans. Linn. Soc. London</t>
+          <t>Přir. Rostlin Aneb. Rostl.</t>
         </is>
       </c>
       <c r="DV12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10: 254</t>
+          <t xml:space="preserve"> 2: 36</t>
         </is>
       </c>
       <c r="DW12" t="inlineStr">
         <is>
-          <t>(1811)</t>
+          <t>(1823)</t>
         </is>
       </c>
       <c r="DX12" t="inlineStr"/>
       <c r="DY12" t="inlineStr">
         <is>
-          <t>SW. India</t>
+          <t>Sri Lanka</t>
         </is>
       </c>
       <c r="DZ12" t="inlineStr">
         <is>
-          <t>rhizomatous geophyte</t>
+          <t>tree</t>
         </is>
       </c>
       <c r="EA12" t="inlineStr">
         <is>
-          <t>seasonally dry tropical</t>
+          <t>wet tropical</t>
         </is>
       </c>
       <c r="EB12" t="inlineStr">
         <is>
-          <t>243056</t>
+          <t>2721692</t>
         </is>
       </c>
       <c r="EC12" t="inlineStr">
         <is>
-          <t>219209</t>
-        </is>
-      </c>
-      <c r="ED12" t="inlineStr"/>
+          <t>2349499</t>
+        </is>
+      </c>
+      <c r="ED12" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
       <c r="EE12" t="inlineStr"/>
       <c r="EF12" t="inlineStr">
         <is>
-          <t>243049</t>
+          <t>2721087</t>
         </is>
       </c>
       <c r="EG12" t="inlineStr">
         <is>
-          <t>796556-1</t>
+          <t>463752-1</t>
         </is>
       </c>
       <c r="EH12" t="inlineStr"/>
       <c r="EI12" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="EJ12" t="inlineStr">
         <is>
-          <t>https://powo.science.kew.org/taxon/796556-1</t>
+          <t>https://powo.science.kew.org/taxon/463752-1</t>
         </is>
       </c>
       <c r="EK12" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Sri Lanka</t>
         </is>
       </c>
       <c r="EL12" t="inlineStr">
         <is>
-          <t>Réunion, Bangladesh, Cambodia, Thailand, Vietnam, Lesser Sunda Is., Costa Rica, Trinidad-Tobago</t>
+          <t>Gulf of Guinea Is., Tanzania, Angola, Comoros, Mauritius, Seychelles, China Southeast, Taiwan, Assam, Bangladesh, India, Cambodia, Myanmar, Vietnam, Borneo, Jawa, Philippines, Fiji, Samoa, Cook Is., Society Is., Caroline Is., Hawaii, Leeward Is., Windward Is., Brazil Southeast, Argentina Northeast</t>
         </is>
       </c>
       <c r="EM12" t="inlineStr">
@@ -6931,7 +6977,7 @@
       </c>
       <c r="EN12" t="inlineStr">
         <is>
-          <t>ASIA-TROPICAL</t>
+          <t>Asia-Tropical</t>
         </is>
       </c>
     </row>
@@ -6942,7 +6988,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -6950,31 +6996,19 @@
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>cinnamon</t>
-        </is>
-      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>cinnamon</t>
+          <t>coriander</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>the inner bark of the cinnamon tree (Cinnamomum zeylanicum) from Sri Lanka</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>cassia</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Canela; Canella; Chinese cinnamon; Padang cinnamon: Saigon cinnamon</t>
-        </is>
-      </c>
+          <t>the dried fruits of an annual herb, also known as cilantro</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
           <t>vanwyk_culinary_2014</t>
@@ -7003,26 +7037,24 @@
           <t>1</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
       <c r="S13" t="n">
         <v>7</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>Cinnamomum verum</t>
+          <t>Coriandrum sativum</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>J.Presl</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>Cinnamomum zeylanicum Blume</t>
-        </is>
-      </c>
+      <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr">
         <is>
@@ -7031,37 +7063,37 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>culinary; medicinal</t>
+          <t>culinary</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>https://en.wikipedia.org/wiki/Cinnamon</t>
+          <t>https://en.wikipedia.org/wiki/Coriander</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>https://www.britannica.com/plant/cinnamon</t>
+          <t>https://www.britannica.com/plant/coriander</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>cinnamon tree</t>
+          <t>coriander</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>cinnamon; Ceylon cinnamon</t>
+          <t>coriander seeds; cilantro; Chinese parsley</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>cinnamon; Ceylon cinnamon</t>
+          <t>coriander; cilantro; Chinese parsley</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>Cinnamon, Ceylon cinnamon</t>
+          <t>Coriander, cilantro</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr"/>
@@ -7070,14 +7102,10 @@
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
       <c r="AL13" t="inlineStr"/>
-      <c r="AM13" t="inlineStr">
-        <is>
-          <t>Ceylon cinnamon</t>
-        </is>
-      </c>
+      <c r="AM13" t="inlineStr"/>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>cinnamon; darsini; qirfa</t>
+          <t>coriander; kuzbura; yansui; husui</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr"/>
@@ -7088,24 +7116,24 @@
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>bark; leaf</t>
+          <t>fruit</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>Sri Lanka; SW. India</t>
+          <t>E. Mediterranean; W. Asia</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr"/>
       <c r="AT13" t="n">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="AU13" t="n">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>Sri Lanka</t>
+          <t>Armenia</t>
         </is>
       </c>
       <c r="AW13" t="inlineStr">
@@ -7115,27 +7143,27 @@
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Sri Lanka; Seychelles; Madagascar; India</t>
+          <t>Argentina; India; Morocco; Romania; Spain; Yugoslavia</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
         <is>
-          <t>warm yellowish-brown, cinnamon</t>
+          <t>light yellow</t>
         </is>
       </c>
       <c r="AZ13" t="inlineStr">
         <is>
-          <t>sweet, fragrant, pungent</t>
+          <t>warm, aromatic, sweet</t>
         </is>
       </c>
       <c r="BA13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="BB13" t="inlineStr">
         <is>
-          <t>flavor; anti-microbial</t>
+          <t>curries; anti-microbial</t>
         </is>
       </c>
       <c r="BC13" t="inlineStr">
@@ -7145,7 +7173,7 @@
       </c>
       <c r="BD13" t="inlineStr">
         <is>
-          <t>I 78</t>
+          <t>II 145</t>
         </is>
       </c>
       <c r="BE13" t="inlineStr">
@@ -7155,75 +7183,71 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>https://www.biodiversitylibrary.org/item/10836#page/393/mode/1up</t>
+          <t>https://www.biodiversitylibrary.org/item/10837#page/635/mode/1up</t>
         </is>
       </c>
       <c r="BG13" t="inlineStr"/>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>cinnamon.n.02</t>
+          <t>coriander.n.01</t>
         </is>
       </c>
       <c r="BI13" t="inlineStr">
         <is>
-          <t>cinnamon.n.03</t>
+          <t>coriander.n.02</t>
         </is>
       </c>
       <c r="BJ13" t="inlineStr"/>
       <c r="BK13" t="inlineStr">
         <is>
-          <t>cinnamon</t>
+          <t>coriander</t>
         </is>
       </c>
       <c r="BL13" t="inlineStr"/>
       <c r="BM13" t="inlineStr">
         <is>
-          <t>قرفة</t>
+          <t>كزبرة</t>
         </is>
       </c>
       <c r="BN13" t="inlineStr">
         <is>
-          <t>qirfa</t>
-        </is>
-      </c>
-      <c r="BO13" t="inlineStr">
-        <is>
-          <t>rind; bark</t>
-        </is>
-      </c>
-      <c r="BP13" t="inlineStr">
-        <is>
-          <t>*dārsīnī* دارصيني</t>
-        </is>
-      </c>
+          <t>kuzbara</t>
+        </is>
+      </c>
+      <c r="BO13" t="inlineStr"/>
+      <c r="BP13" t="inlineStr"/>
       <c r="BQ13" t="inlineStr">
         <is>
-          <t>錫蘭肉桂</t>
+          <t>芫荽</t>
         </is>
       </c>
       <c r="BR13" t="inlineStr">
         <is>
-          <t>xīlánròuguì</t>
+          <t>yán​sui</t>
         </is>
       </c>
       <c r="BS13" t="inlineStr">
         <is>
-          <t>Ceylon-flesh-cinnamon</t>
+          <t>lilac-coriander</t>
         </is>
       </c>
       <c r="BT13" t="inlineStr"/>
-      <c r="BU13" t="inlineStr"/>
+      <c r="BU13" t="inlineStr">
+        <is>
+          <t>胡荽 (芫荽); 芫荽仁 (芫荽子)</t>
+        </is>
+      </c>
       <c r="BV13" t="inlineStr">
         <is>
-          <t>fahéj</t>
-        </is>
-      </c>
-      <c r="BW13" t="inlineStr">
-        <is>
-          <t>tree-bark</t>
-        </is>
-      </c>
-      <c r="BX13" t="inlineStr"/>
+          <t>koriander</t>
+        </is>
+      </c>
+      <c r="BW13" t="inlineStr"/>
+      <c r="BX13" t="inlineStr">
+        <is>
+          <t>cigánypetrezselyem [gipsy-parsley]</t>
+        </is>
+      </c>
       <c r="BY13" t="inlineStr"/>
       <c r="BZ13" t="inlineStr"/>
       <c r="CA13" t="inlineStr"/>
@@ -7232,14 +7256,22 @@
       <c r="CD13" t="inlineStr"/>
       <c r="CE13" t="inlineStr">
         <is>
-          <t>Cortex Cinnamoni</t>
+          <t>Fructus Coriandri; Semen Coriandri</t>
         </is>
       </c>
       <c r="CF13" t="inlineStr"/>
       <c r="CG13" t="inlineStr"/>
       <c r="CH13" t="inlineStr"/>
-      <c r="CI13" t="inlineStr"/>
-      <c r="CJ13" t="inlineStr"/>
+      <c r="CI13" t="inlineStr">
+        <is>
+          <t>芫荽子</t>
+        </is>
+      </c>
+      <c r="CJ13" t="inlineStr">
+        <is>
+          <t>yán​suizǐ</t>
+        </is>
+      </c>
       <c r="CK13" t="inlineStr"/>
       <c r="CL13" t="inlineStr"/>
       <c r="CM13" t="inlineStr"/>
@@ -7247,71 +7279,75 @@
       <c r="CO13" t="inlineStr"/>
       <c r="CP13" t="inlineStr"/>
       <c r="CQ13" t="inlineStr"/>
-      <c r="CR13" t="inlineStr"/>
-      <c r="CS13" t="inlineStr"/>
+      <c r="CR13" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="CS13" t="inlineStr">
+        <is>
+          <t>1061</t>
+        </is>
+      </c>
       <c r="CT13" t="inlineStr"/>
       <c r="CU13" t="inlineStr">
         <is>
-          <t>https://www.gbif.org/species/3033987</t>
+          <t>https://www.gbif.org/species/3034871</t>
         </is>
       </c>
       <c r="CV13" t="inlineStr">
         <is>
-          <t>https://tropicos.org/name/17800682</t>
+          <t>https://tropicos.org/name/1700064</t>
         </is>
       </c>
       <c r="CW13" t="inlineStr">
         <is>
-          <t>https://eol.org/pages/490672</t>
+          <t>https://eol.org/pages/581687</t>
         </is>
       </c>
       <c r="CX13" t="n">
-        <v>128608</v>
+        <v>4047</v>
       </c>
       <c r="CY13" t="inlineStr">
         <is>
-          <t>दालचीनी</t>
+          <t xml:space="preserve">धनिया </t>
         </is>
       </c>
       <c r="CZ13" t="inlineStr">
         <is>
-          <t>dālchīnī</t>
+          <t>dhaniyā</t>
         </is>
       </c>
       <c r="DA13" t="inlineStr"/>
-      <c r="DB13" t="inlineStr">
-        <is>
-          <t>दारचीनी darchini</t>
-        </is>
-      </c>
+      <c r="DB13" t="inlineStr"/>
       <c r="DC13" t="inlineStr">
         <is>
-          <t>kayu manis</t>
+          <t>ketumbar</t>
         </is>
       </c>
       <c r="DD13" t="inlineStr">
         <is>
-          <t xml:space="preserve">دارچین </t>
+          <t xml:space="preserve">گشنیز </t>
         </is>
       </c>
       <c r="DE13" t="inlineStr">
         <is>
-          <t>cinnamon</t>
+          <t>coriander</t>
         </is>
       </c>
       <c r="DF13" t="inlineStr">
         <is>
-          <t>https://partigabor.github.io/aromatica/items/cinnamon</t>
+          <t>https://partigabor.github.io/aromatica/items/coriander</t>
         </is>
       </c>
       <c r="DG13" t="inlineStr">
         <is>
-          <t>2721692</t>
+          <t>2737546</t>
         </is>
       </c>
       <c r="DH13" t="inlineStr">
         <is>
-          <t>463752-1</t>
+          <t>840760-1</t>
         </is>
       </c>
       <c r="DI13" t="inlineStr">
@@ -7326,19 +7362,19 @@
       </c>
       <c r="DK13" t="inlineStr">
         <is>
-          <t>Lauraceae</t>
+          <t>Apiaceae</t>
         </is>
       </c>
       <c r="DL13" t="inlineStr"/>
       <c r="DM13" t="inlineStr">
         <is>
-          <t>Cinnamomum</t>
+          <t>Coriandrum</t>
         </is>
       </c>
       <c r="DN13" t="inlineStr"/>
       <c r="DO13" t="inlineStr">
         <is>
-          <t>verum</t>
+          <t>sativum</t>
         </is>
       </c>
       <c r="DP13" t="inlineStr"/>
@@ -7346,69 +7382,57 @@
       <c r="DR13" t="inlineStr"/>
       <c r="DS13" t="inlineStr">
         <is>
-          <t>J.Presl</t>
-        </is>
-      </c>
-      <c r="DT13" t="inlineStr">
-        <is>
-          <t>F.Berchtold &amp; J.S.Presl</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="DT13" t="inlineStr"/>
       <c r="DU13" t="inlineStr">
         <is>
-          <t>Přir. Rostlin Aneb. Rostl.</t>
+          <t>Sp. Pl.</t>
         </is>
       </c>
       <c r="DV13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2: 36</t>
+          <t>: 256</t>
         </is>
       </c>
       <c r="DW13" t="inlineStr">
         <is>
-          <t>(1823)</t>
+          <t>(1753)</t>
         </is>
       </c>
       <c r="DX13" t="inlineStr"/>
       <c r="DY13" t="inlineStr">
         <is>
-          <t>Sri Lanka</t>
+          <t>E. Medit. to Pakistan</t>
         </is>
       </c>
       <c r="DZ13" t="inlineStr">
         <is>
-          <t>tree</t>
+          <t>annual</t>
         </is>
       </c>
       <c r="EA13" t="inlineStr">
         <is>
-          <t>wet tropical</t>
+          <t>subtropical</t>
         </is>
       </c>
       <c r="EB13" t="inlineStr">
         <is>
-          <t>2721692</t>
-        </is>
-      </c>
-      <c r="EC13" t="inlineStr">
-        <is>
-          <t>2349499</t>
-        </is>
-      </c>
-      <c r="ED13" t="inlineStr">
-        <is>
-          <t>L.</t>
-        </is>
-      </c>
+          <t>2737546</t>
+        </is>
+      </c>
+      <c r="EC13" t="inlineStr"/>
+      <c r="ED13" t="inlineStr"/>
       <c r="EE13" t="inlineStr"/>
       <c r="EF13" t="inlineStr">
         <is>
-          <t>2721087</t>
+          <t>2737532</t>
         </is>
       </c>
       <c r="EG13" t="inlineStr">
         <is>
-          <t>463752-1</t>
+          <t>840760-1</t>
         </is>
       </c>
       <c r="EH13" t="inlineStr"/>
@@ -7419,27 +7443,27 @@
       </c>
       <c r="EJ13" t="inlineStr">
         <is>
-          <t>https://powo.science.kew.org/taxon/463752-1</t>
+          <t>https://powo.science.kew.org/taxon/840760-1</t>
         </is>
       </c>
       <c r="EK13" t="inlineStr">
         <is>
-          <t>Sri Lanka</t>
+          <t>North Caucasus, Transcaucasus, Afghanistan, Iran, Lebanon-Syria, Palestine, Sinai, Turkey, Saudi Arabia, Pakistan</t>
         </is>
       </c>
       <c r="EL13" t="inlineStr">
         <is>
-          <t>Gulf of Guinea Is., Tanzania, Angola, Comoros, Mauritius, Seychelles, China Southeast, Taiwan, Assam, Bangladesh, India, Cambodia, Myanmar, Vietnam, Borneo, Jawa, Philippines, Fiji, Samoa, Cook Is., Society Is., Caroline Is., Hawaii, Leeward Is., Windward Is., Brazil Southeast, Argentina Northeast</t>
+          <t>Denmark, Finland, Great Britain, Norway, Sweden, Austria, Belgium, Czechoslovakia, Germany, Hungary, Poland, Switzerland, France, Portugal, Spain, Bulgaria, Greece, Italy, Kriti, Romania, Sicilia, Turkey-in-Europe, Yugoslavia, Belarus, Baltic States, Krym, Central European Rus, East European Russia, South European Russi, Ukraine, Algeria, Egypt, Libya, Morocco, Tunisia, Azores, Canary Is., Cape Verde, Madeira, Cameroon, Chad, Eritrea, Ethiopia, Somalia, Sudan, Kenya, Tanzania, Uganda, Angola, Mozambique, Zimbabwe, Cape Provinces, KwaZulu-Natal, Free State, Northern Provinces, Mauritius, Réunion, Rodrigues, West Siberia, Amur, Khabarovsk, Primorye, Kazakhstan, Turkmenistan, Tadzhikistan, Uzbekistan, Cyprus, Iraq, China South-Central, Inner Mongolia, China North-Central, China Southeast, Mongolia, Japan, Korea, Assam, Bangladesh, East Himalaya, India, Nepal, Sri Lanka, Andaman Is., Cambodia, Laos, Nicobar Is., Thailand, Vietnam, Borneo, Jawa, Lesser Sunda Is., Malaya, Maluku, Philippines, Sulawesi, Sumatera, New Guinea, Norfolk Is., New Zealand North, New Zealand South, Fiji, Hawaii, Nova Scotia, Ontario, Québec, Montana, Oregon, Washington, Illinois, Missouri, North Dakota, Oklahoma, South Dakota, Connecticut, Massachusetts, Michigan, New Jersey, New York, Ohio, Pennsylvania, Rhode I., Arizona, California, Nevada, New Mexico, Texas, Delaware, Florida, Louisiana, Maryland, North Carolina, South Carolina, Virginia, Mexico Central, Mexico Northwest, Costa Rica, El Salvador, Guatemala, Cuba, Dominican Republic, Haiti, Puerto Rico, Trinidad-Tobago, Colombia, Ecuador, Peru, Brazil South, Argentina Northeast, Argentina South, Argentina Northwest, Juan Fernández Is., Paraguay</t>
         </is>
       </c>
       <c r="EM13" t="inlineStr">
         <is>
-          <t>Indian Subcontinent</t>
+          <t>Caucasus, Western Asia, Arabian Peninsula, Indian Subcontinent</t>
         </is>
       </c>
       <c r="EN13" t="inlineStr">
         <is>
-          <t>ASIA-TROPICAL</t>
+          <t>Asia-Temperate, Asia-Tropical</t>
         </is>
       </c>
     </row>
@@ -7450,7 +7474,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -7458,26 +7482,38 @@
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>false peppers</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>coriander</t>
+          <t>cubeb</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>the dried fruits of an annual herb, also known as cilantro</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>the dried berries of a Southeast Asian plant resembling black pepper, but with a small stalk attached</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>pepper</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Ashanti pepper</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr">
         <is>
           <t>vanwyk_culinary_2014</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>1</v>
@@ -7503,20 +7539,24 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>Coriandrum sativum</t>
+          <t>Piper cubeba</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>L.f.</t>
         </is>
       </c>
       <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Cubeba officinalis Miq.</t>
+        </is>
+      </c>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr">
         <is>
@@ -7525,37 +7565,33 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>culinary</t>
+          <t>culinary; distillery; medicinal; perfumery</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>https://en.wikipedia.org/wiki/Coriander</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>https://www.britannica.com/plant/coriander</t>
-        </is>
-      </c>
+          <t>https://en.wikipedia.org/wiki/Piper_cubeba</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>coriander</t>
+          <t>cubeb; tailed pepper</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>coriander seeds; cilantro; Chinese parsley</t>
+          <t>cubeb pepper; tailed pepper; Java pepper</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>coriander; cilantro; Chinese parsley</t>
+          <t>cubeb pepper; tailed pepper; Java pepper</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>Coriander, cilantro</t>
+          <t>Cubebs</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr"/>
@@ -7564,13 +7600,21 @@
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
       <c r="AL14" t="inlineStr"/>
-      <c r="AM14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>cubeb</t>
+        </is>
+      </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>coriander; kuzbura; yansui; husui</t>
-        </is>
-      </c>
-      <c r="AO14" t="inlineStr"/>
+          <t>cubeb</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>https://en.wiktionary.org/wiki/cubeb</t>
+        </is>
+      </c>
       <c r="AP14" t="inlineStr">
         <is>
           <t>Plantae</t>
@@ -7578,24 +7622,24 @@
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>fruit</t>
+          <t>unripe fruit</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>E. Mediterranean; W. Asia</t>
+          <t>Southeast Asia</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr"/>
       <c r="AT14" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AU14" t="n">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>Armenia</t>
+          <t>Sumatra</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr">
@@ -7605,37 +7649,37 @@
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Argentina; India; Morocco; Romania; Spain; Yugoslavia</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
         <is>
-          <t>light yellow</t>
+          <t>dark brown to black</t>
         </is>
       </c>
       <c r="AZ14" t="inlineStr">
         <is>
-          <t>warm, aromatic, sweet</t>
+          <t>pungent, camphor-like, peppery</t>
         </is>
       </c>
       <c r="BA14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="BB14" t="inlineStr">
         <is>
-          <t>curries; anti-microbial</t>
+          <t>gins; cooking; anti-asthma, diuretic</t>
         </is>
       </c>
       <c r="BC14" t="inlineStr">
         <is>
-          <t>Köhler's Medizinal-Pflanzen</t>
+          <t>Köhler's Medizinal-Pflanzen (1887)</t>
         </is>
       </c>
       <c r="BD14" t="inlineStr">
         <is>
-          <t>II 145</t>
+          <t>II 103</t>
         </is>
       </c>
       <c r="BE14" t="inlineStr">
@@ -7645,69 +7689,73 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>https://www.biodiversitylibrary.org/item/10837#page/635/mode/1up</t>
+          <t>https://www.biodiversitylibrary.org/item/10837#page/549/mode/1up</t>
         </is>
       </c>
       <c r="BG14" t="inlineStr"/>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>coriander.n.01</t>
+          <t>cubeb.n.02</t>
         </is>
       </c>
       <c r="BI14" t="inlineStr">
         <is>
-          <t>coriander.n.02</t>
+          <t>cubeb.n.01</t>
         </is>
       </c>
       <c r="BJ14" t="inlineStr"/>
       <c r="BK14" t="inlineStr">
         <is>
-          <t>coriander</t>
+          <t>cubeb</t>
         </is>
       </c>
       <c r="BL14" t="inlineStr"/>
       <c r="BM14" t="inlineStr">
         <is>
-          <t>كزبرة</t>
+          <t>كبابة</t>
         </is>
       </c>
       <c r="BN14" t="inlineStr">
         <is>
-          <t>kuzbara</t>
+          <t>kabāba, kubāba</t>
         </is>
       </c>
       <c r="BO14" t="inlineStr"/>
       <c r="BP14" t="inlineStr"/>
       <c r="BQ14" t="inlineStr">
         <is>
-          <t>芫荽</t>
+          <t>蓽澄茄</t>
         </is>
       </c>
       <c r="BR14" t="inlineStr">
         <is>
-          <t>yán​sui</t>
-        </is>
-      </c>
-      <c r="BS14" t="inlineStr">
-        <is>
-          <t>lilac-coriander</t>
-        </is>
-      </c>
-      <c r="BT14" t="inlineStr"/>
+          <t>bìchéngqié</t>
+        </is>
+      </c>
+      <c r="BS14" t="inlineStr"/>
+      <c r="BT14" t="inlineStr">
+        <is>
+          <t>尾胡椒</t>
+        </is>
+      </c>
       <c r="BU14" t="inlineStr">
         <is>
-          <t>胡荽 (芫荽); 芫荽仁 (芫荽子)</t>
+          <t>https://en.wiktionary.org/wiki/%E8%93%BD%E6%BE%84%E8%8C%84</t>
         </is>
       </c>
       <c r="BV14" t="inlineStr">
         <is>
-          <t>koriander</t>
-        </is>
-      </c>
-      <c r="BW14" t="inlineStr"/>
+          <t>kubébabors</t>
+        </is>
+      </c>
+      <c r="BW14" t="inlineStr">
+        <is>
+          <t>cubeba-pepper</t>
+        </is>
+      </c>
       <c r="BX14" t="inlineStr">
         <is>
-          <t>cigánypetrezselyem [gipsy-parsley]</t>
+          <t>jávai bors [Javanese pepper]</t>
         </is>
       </c>
       <c r="BY14" t="inlineStr"/>
@@ -7716,24 +7764,12 @@
       <c r="CB14" t="inlineStr"/>
       <c r="CC14" t="inlineStr"/>
       <c r="CD14" t="inlineStr"/>
-      <c r="CE14" t="inlineStr">
-        <is>
-          <t>Fructus Coriandri; Semen Coriandri</t>
-        </is>
-      </c>
+      <c r="CE14" t="inlineStr"/>
       <c r="CF14" t="inlineStr"/>
       <c r="CG14" t="inlineStr"/>
       <c r="CH14" t="inlineStr"/>
-      <c r="CI14" t="inlineStr">
-        <is>
-          <t>芫荽子</t>
-        </is>
-      </c>
-      <c r="CJ14" t="inlineStr">
-        <is>
-          <t>yán​suizǐ</t>
-        </is>
-      </c>
+      <c r="CI14" t="inlineStr"/>
+      <c r="CJ14" t="inlineStr"/>
       <c r="CK14" t="inlineStr"/>
       <c r="CL14" t="inlineStr"/>
       <c r="CM14" t="inlineStr"/>
@@ -7741,75 +7777,69 @@
       <c r="CO14" t="inlineStr"/>
       <c r="CP14" t="inlineStr"/>
       <c r="CQ14" t="inlineStr"/>
-      <c r="CR14" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="CS14" t="inlineStr">
-        <is>
-          <t>1061</t>
-        </is>
-      </c>
+      <c r="CR14" t="inlineStr"/>
+      <c r="CS14" t="inlineStr"/>
       <c r="CT14" t="inlineStr"/>
       <c r="CU14" t="inlineStr">
         <is>
-          <t>https://www.gbif.org/species/3034871</t>
+          <t>https://www.gbif.org/species/7606629</t>
         </is>
       </c>
       <c r="CV14" t="inlineStr">
         <is>
-          <t>https://tropicos.org/name/1700064</t>
+          <t>http://legacy.tropicos.org/Name/25002639</t>
         </is>
       </c>
       <c r="CW14" t="inlineStr">
         <is>
-          <t>https://eol.org/pages/581687</t>
-        </is>
-      </c>
-      <c r="CX14" t="n">
-        <v>4047</v>
-      </c>
+          <t>https://eol.org/pages/51845162</t>
+        </is>
+      </c>
+      <c r="CX14" t="inlineStr"/>
       <c r="CY14" t="inlineStr">
         <is>
-          <t xml:space="preserve">धनिया </t>
+          <t xml:space="preserve">कबाबचीनी </t>
         </is>
       </c>
       <c r="CZ14" t="inlineStr">
         <is>
-          <t>dhaniyā</t>
-        </is>
-      </c>
-      <c r="DA14" t="inlineStr"/>
+          <t>kabābchīnī</t>
+        </is>
+      </c>
+      <c r="DA14" t="inlineStr">
+        <is>
+          <t>Chinese-cubeb</t>
+        </is>
+      </c>
       <c r="DB14" t="inlineStr"/>
       <c r="DC14" t="inlineStr">
         <is>
-          <t>ketumbar</t>
+          <t>kemukus</t>
         </is>
       </c>
       <c r="DD14" t="inlineStr">
         <is>
-          <t xml:space="preserve">گشنیز </t>
+          <t>کبابهٔ چینی‎</t>
         </is>
       </c>
       <c r="DE14" t="inlineStr">
         <is>
-          <t>coriander</t>
+          <t>cubeb</t>
         </is>
       </c>
       <c r="DF14" t="inlineStr">
         <is>
-          <t>https://partigabor.github.io/aromatica/items/coriander</t>
+          <t>https://partigabor.github.io/aromatica/items/cubeb</t>
         </is>
       </c>
       <c r="DG14" t="inlineStr">
         <is>
-          <t>2737546</t>
+          <t>2557647</t>
         </is>
       </c>
       <c r="DH14" t="inlineStr">
         <is>
-          <t>840760-1</t>
+          <t>681071-1</t>
         </is>
       </c>
       <c r="DI14" t="inlineStr">
@@ -7824,19 +7854,19 @@
       </c>
       <c r="DK14" t="inlineStr">
         <is>
-          <t>Apiaceae</t>
+          <t>Piperaceae</t>
         </is>
       </c>
       <c r="DL14" t="inlineStr"/>
       <c r="DM14" t="inlineStr">
         <is>
-          <t>Coriandrum</t>
+          <t>Piper</t>
         </is>
       </c>
       <c r="DN14" t="inlineStr"/>
       <c r="DO14" t="inlineStr">
         <is>
-          <t>sativum</t>
+          <t>cubeba</t>
         </is>
       </c>
       <c r="DP14" t="inlineStr"/>
@@ -7844,44 +7874,40 @@
       <c r="DR14" t="inlineStr"/>
       <c r="DS14" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>L.f.</t>
         </is>
       </c>
       <c r="DT14" t="inlineStr"/>
       <c r="DU14" t="inlineStr">
         <is>
-          <t>Sp. Pl.</t>
+          <t>Suppl. Pl.</t>
         </is>
       </c>
       <c r="DV14" t="inlineStr">
         <is>
-          <t>: 256</t>
+          <t>: 90</t>
         </is>
       </c>
       <c r="DW14" t="inlineStr">
         <is>
-          <t>(1753)</t>
+          <t>(1782)</t>
         </is>
       </c>
       <c r="DX14" t="inlineStr"/>
       <c r="DY14" t="inlineStr">
         <is>
-          <t>E. Medit. to Pakistan</t>
-        </is>
-      </c>
-      <c r="DZ14" t="inlineStr">
-        <is>
-          <t>annual</t>
-        </is>
-      </c>
+          <t>Indo-China to Malesia</t>
+        </is>
+      </c>
+      <c r="DZ14" t="inlineStr"/>
       <c r="EA14" t="inlineStr">
         <is>
-          <t>subtropical</t>
+          <t>wet tropical</t>
         </is>
       </c>
       <c r="EB14" t="inlineStr">
         <is>
-          <t>2737546</t>
+          <t>2557647</t>
         </is>
       </c>
       <c r="EC14" t="inlineStr"/>
@@ -7889,12 +7915,12 @@
       <c r="EE14" t="inlineStr"/>
       <c r="EF14" t="inlineStr">
         <is>
-          <t>2737532</t>
+          <t>2555110</t>
         </is>
       </c>
       <c r="EG14" t="inlineStr">
         <is>
-          <t>840760-1</t>
+          <t>681071-1</t>
         </is>
       </c>
       <c r="EH14" t="inlineStr"/>
@@ -7905,27 +7931,23 @@
       </c>
       <c r="EJ14" t="inlineStr">
         <is>
-          <t>https://powo.science.kew.org/taxon/840760-1</t>
+          <t>https://powo.science.kew.org/taxon/681071-1</t>
         </is>
       </c>
       <c r="EK14" t="inlineStr">
         <is>
-          <t>North Caucasus, Transcaucasus, Afghanistan, Iran, Lebanon-Syria, Palestine, Sinai, Turkey, Saudi Arabia, Pakistan</t>
-        </is>
-      </c>
-      <c r="EL14" t="inlineStr">
-        <is>
-          <t>Denmark, Finland, Great Britain, Norway, Sweden, Austria, Belgium, Czechoslovakia, Germany, Hungary, Poland, Switzerland, France, Portugal, Spain, Bulgaria, Greece, Italy, Kriti, Romania, Sicilia, Turkey-in-Europe, Yugoslavia, Belarus, Baltic States, Krym, Central European Rus, East European Russia, South European Russi, Ukraine, Algeria, Egypt, Libya, Morocco, Tunisia, Azores, Canary Is., Cape Verde, Madeira, Cameroon, Chad, Eritrea, Ethiopia, Somalia, Sudan, Kenya, Tanzania, Uganda, Angola, Mozambique, Zimbabwe, Cape Provinces, KwaZulu-Natal, Free State, Northern Provinces, Mauritius, Réunion, Rodrigues, West Siberia, Amur, Khabarovsk, Primorye, Kazakhstan, Turkmenistan, Tadzhikistan, Uzbekistan, Cyprus, Iraq, China South-Central, Inner Mongolia, China North-Central, China Southeast, Mongolia, Japan, Korea, Assam, Bangladesh, East Himalaya, India, Nepal, Sri Lanka, Andaman Is., Cambodia, Laos, Nicobar Is., Thailand, Vietnam, Borneo, Jawa, Lesser Sunda Is., Malaya, Maluku, Philippines, Sulawesi, Sumatera, New Guinea, Norfolk Is., New Zealand North, New Zealand South, Fiji, Hawaii, Nova Scotia, Ontario, Québec, Montana, Oregon, Washington, Illinois, Missouri, North Dakota, Oklahoma, South Dakota, Connecticut, Massachusetts, Michigan, New Jersey, New York, Ohio, Pennsylvania, Rhode I., Arizona, California, Nevada, New Mexico, Texas, Delaware, Florida, Louisiana, Maryland, North Carolina, South Carolina, Virginia, Mexico Central, Mexico Northwest, Costa Rica, El Salvador, Guatemala, Cuba, Dominican Republic, Haiti, Puerto Rico, Trinidad-Tobago, Colombia, Ecuador, Peru, Brazil South, Argentina Northeast, Argentina South, Argentina Northwest, Juan Fernández Is., Paraguay</t>
-        </is>
-      </c>
+          <t>Cambodia, Myanmar, Vietnam, Borneo, Lesser Sunda Is., Malaya, Maluku, Sulawesi, Sumatera</t>
+        </is>
+      </c>
+      <c r="EL14" t="inlineStr"/>
       <c r="EM14" t="inlineStr">
         <is>
-          <t>Caucasus, Western Asia, Arabian Peninsula, Indian Subcontinent</t>
+          <t>Indo-China, Malesia</t>
         </is>
       </c>
       <c r="EN14" t="inlineStr">
         <is>
-          <t>ASIA-TEMPERATE, ASIA-TROPICAL</t>
+          <t>Asia-Tropical</t>
         </is>
       </c>
     </row>
@@ -7944,37 +7966,31 @@
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>false peppers</t>
-        </is>
-      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>cubeb</t>
+          <t>mace</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>the dried berries of a Southeast Asian plant resembling black pepper, but with a small stalk attached</t>
+          <t>the aril (seed-covering) of the nutmeg</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>pepper</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Ashanti pepper</t>
-        </is>
-      </c>
+          <t>nutmeg</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
           <t>vanwyk_culinary_2014</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -7999,24 +8015,20 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>Piper cubeba</t>
+          <t>Myristica fragrans</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>L.f.</t>
+          <t>Houtt.</t>
         </is>
       </c>
       <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>Cubeba officinalis Miq.</t>
-        </is>
-      </c>
+      <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr">
         <is>
@@ -8025,33 +8037,37 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>culinary; distillery; medicinal; perfumery</t>
+          <t>culinary</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>https://en.wikipedia.org/wiki/Piper_cubeba</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr"/>
+          <t>https://en.wikipedia.org/wiki/Nutmeg</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>https://www.britannica.com/topic/mace-spice</t>
+        </is>
+      </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>cubeb; tailed pepper</t>
+          <t>nutmeg tree</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>cubeb pepper; tailed pepper; Java pepper</t>
+          <t>mace</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>cubeb pepper; tailed pepper; Java pepper</t>
+          <t>mace</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>Cubebs</t>
+          <t>Mace</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr"/>
@@ -8060,21 +8076,13 @@
       <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
       <c r="AL15" t="inlineStr"/>
-      <c r="AM15" t="inlineStr">
-        <is>
-          <t>cubeb</t>
-        </is>
-      </c>
+      <c r="AM15" t="inlineStr"/>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>cubeb</t>
-        </is>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>https://en.wiktionary.org/wiki/cubeb</t>
-        </is>
-      </c>
+          <t>mace; basbas; roudoukoupi</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr"/>
       <c r="AP15" t="inlineStr">
         <is>
           <t>Plantae</t>
@@ -8082,24 +8090,24 @@
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>unripe fruit</t>
+          <t>aril</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>Southeast Asia</t>
+          <t>Moluccas (Indonesia)</t>
         </is>
       </c>
       <c r="AS15" t="inlineStr"/>
       <c r="AT15" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="AU15" t="n">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="AV15" t="inlineStr">
         <is>
-          <t>Sumatra</t>
+          <t>Banda Islands</t>
         </is>
       </c>
       <c r="AW15" t="inlineStr">
@@ -8109,37 +8117,37 @@
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Grenada; Indonesia</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr">
         <is>
-          <t>dark brown to black</t>
+          <t>crimson red aril whn fresh, pale yellow when dried</t>
         </is>
       </c>
       <c r="AZ15" t="inlineStr">
         <is>
-          <t>pungent, camphor-like, peppery</t>
+          <t>sweet, bitter, salty</t>
         </is>
       </c>
       <c r="BA15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="BB15" t="inlineStr">
         <is>
-          <t>gins; cooking; anti-asthma, diuretic</t>
+          <t>confectionary; peptic ulcers</t>
         </is>
       </c>
       <c r="BC15" t="inlineStr">
         <is>
-          <t>Köhler's Medizinal-Pflanzen (1887)</t>
+          <t>Köhler's Medizinal-Pflanzen</t>
         </is>
       </c>
       <c r="BD15" t="inlineStr">
         <is>
-          <t>II 103</t>
+          <t>II 132</t>
         </is>
       </c>
       <c r="BE15" t="inlineStr">
@@ -8149,88 +8157,92 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>https://www.biodiversitylibrary.org/item/10837#page/549/mode/1up</t>
+          <t>https://www.biodiversitylibrary.org/item/10837#page/609/mode/1up</t>
         </is>
       </c>
       <c r="BG15" t="inlineStr"/>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>cubeb.n.02</t>
+          <t>nutmeg.n.01</t>
         </is>
       </c>
       <c r="BI15" t="inlineStr">
         <is>
-          <t>cubeb.n.01</t>
+          <t>mace.n.03</t>
         </is>
       </c>
       <c r="BJ15" t="inlineStr"/>
       <c r="BK15" t="inlineStr">
         <is>
-          <t>cubeb</t>
+          <t>mace</t>
         </is>
       </c>
       <c r="BL15" t="inlineStr"/>
       <c r="BM15" t="inlineStr">
         <is>
-          <t>كبابة</t>
+          <t>بسباسة</t>
         </is>
       </c>
       <c r="BN15" t="inlineStr">
         <is>
-          <t>kabāba, kubāba</t>
+          <t>basbāsa</t>
         </is>
       </c>
       <c r="BO15" t="inlineStr"/>
-      <c r="BP15" t="inlineStr"/>
+      <c r="BP15" t="inlineStr">
+        <is>
+          <t>*qishrat jawz al-ṭīb* [the peel of the fragrant nut] قشرة جوز الطيب</t>
+        </is>
+      </c>
       <c r="BQ15" t="inlineStr">
         <is>
-          <t>蓽澄茄</t>
+          <t>肉豆蔻皮</t>
         </is>
       </c>
       <c r="BR15" t="inlineStr">
         <is>
-          <t>bìchéngqié</t>
-        </is>
-      </c>
-      <c r="BS15" t="inlineStr"/>
-      <c r="BT15" t="inlineStr">
-        <is>
-          <t>尾胡椒</t>
-        </is>
-      </c>
-      <c r="BU15" t="inlineStr">
-        <is>
-          <t>https://en.wiktionary.org/wiki/%E8%93%BD%E6%BE%84%E8%8C%84</t>
-        </is>
-      </c>
+          <t>ròudòukòupí</t>
+        </is>
+      </c>
+      <c r="BS15" t="inlineStr">
+        <is>
+          <t>flesh-bean-cardamom-skin</t>
+        </is>
+      </c>
+      <c r="BT15" t="inlineStr"/>
+      <c r="BU15" t="inlineStr"/>
       <c r="BV15" t="inlineStr">
         <is>
-          <t>kubébabors</t>
+          <t>szerecsendió-virág</t>
         </is>
       </c>
       <c r="BW15" t="inlineStr">
         <is>
-          <t>cubeba-pepper</t>
-        </is>
-      </c>
-      <c r="BX15" t="inlineStr">
-        <is>
-          <t>jávai bors [Javanese pepper]</t>
-        </is>
-      </c>
+          <t>Saracen nut flower</t>
+        </is>
+      </c>
+      <c r="BX15" t="inlineStr"/>
       <c r="BY15" t="inlineStr"/>
       <c r="BZ15" t="inlineStr"/>
       <c r="CA15" t="inlineStr"/>
       <c r="CB15" t="inlineStr"/>
       <c r="CC15" t="inlineStr"/>
       <c r="CD15" t="inlineStr"/>
-      <c r="CE15" t="inlineStr"/>
+      <c r="CE15" t="inlineStr">
+        <is>
+          <t>Arillus Myristicae</t>
+        </is>
+      </c>
       <c r="CF15" t="inlineStr"/>
       <c r="CG15" t="inlineStr"/>
       <c r="CH15" t="inlineStr"/>
       <c r="CI15" t="inlineStr"/>
       <c r="CJ15" t="inlineStr"/>
-      <c r="CK15" t="inlineStr"/>
+      <c r="CK15" t="inlineStr">
+        <is>
+          <t>Nutmeg</t>
+        </is>
+      </c>
       <c r="CL15" t="inlineStr"/>
       <c r="CM15" t="inlineStr"/>
       <c r="CN15" t="inlineStr"/>
@@ -8238,68 +8250,74 @@
       <c r="CP15" t="inlineStr"/>
       <c r="CQ15" t="inlineStr"/>
       <c r="CR15" t="inlineStr"/>
-      <c r="CS15" t="inlineStr"/>
+      <c r="CS15" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
       <c r="CT15" t="inlineStr"/>
       <c r="CU15" t="inlineStr">
         <is>
-          <t>https://www.gbif.org/species/7606629</t>
+          <t>https://www.gbif.org/species/5406817</t>
         </is>
       </c>
       <c r="CV15" t="inlineStr">
         <is>
-          <t>http://legacy.tropicos.org/Name/25002639</t>
+          <t>https://tropicos.org/name/21800077</t>
         </is>
       </c>
       <c r="CW15" t="inlineStr">
         <is>
-          <t>https://eol.org/pages/51845162</t>
-        </is>
-      </c>
-      <c r="CX15" t="inlineStr"/>
+          <t>https://eol.org/pages/596922</t>
+        </is>
+      </c>
+      <c r="CX15" t="n">
+        <v>51089</v>
+      </c>
       <c r="CY15" t="inlineStr">
         <is>
-          <t xml:space="preserve">कबाबचीनी </t>
+          <t>जावित्री</t>
         </is>
       </c>
       <c r="CZ15" t="inlineStr">
         <is>
-          <t>kabābchīnī</t>
+          <t>jāvitrī</t>
         </is>
       </c>
       <c r="DA15" t="inlineStr">
         <is>
-          <t>Chinese-cubeb</t>
+          <t>?</t>
         </is>
       </c>
       <c r="DB15" t="inlineStr"/>
       <c r="DC15" t="inlineStr">
         <is>
-          <t>kemukus</t>
+          <t>bunga pala</t>
         </is>
       </c>
       <c r="DD15" t="inlineStr">
         <is>
-          <t>کبابهٔ چینی‎</t>
+          <t>بسپاسه</t>
         </is>
       </c>
       <c r="DE15" t="inlineStr">
         <is>
-          <t>cubeb</t>
+          <t>mace</t>
         </is>
       </c>
       <c r="DF15" t="inlineStr">
         <is>
-          <t>https://partigabor.github.io/aromatica/items/cubeb</t>
+          <t>https://partigabor.github.io/aromatica/items/mace</t>
         </is>
       </c>
       <c r="DG15" t="inlineStr">
         <is>
-          <t>2557647</t>
+          <t>2500629</t>
         </is>
       </c>
       <c r="DH15" t="inlineStr">
         <is>
-          <t>681071-1</t>
+          <t>586076-1</t>
         </is>
       </c>
       <c r="DI15" t="inlineStr">
@@ -8314,19 +8332,19 @@
       </c>
       <c r="DK15" t="inlineStr">
         <is>
-          <t>Piperaceae</t>
+          <t>Myristicaceae</t>
         </is>
       </c>
       <c r="DL15" t="inlineStr"/>
       <c r="DM15" t="inlineStr">
         <is>
-          <t>Piper</t>
+          <t>Myristica</t>
         </is>
       </c>
       <c r="DN15" t="inlineStr"/>
       <c r="DO15" t="inlineStr">
         <is>
-          <t>cubeba</t>
+          <t>fragrans</t>
         </is>
       </c>
       <c r="DP15" t="inlineStr"/>
@@ -8334,32 +8352,36 @@
       <c r="DR15" t="inlineStr"/>
       <c r="DS15" t="inlineStr">
         <is>
-          <t>L.f.</t>
+          <t>Houtt.</t>
         </is>
       </c>
       <c r="DT15" t="inlineStr"/>
       <c r="DU15" t="inlineStr">
         <is>
-          <t>Suppl. Pl.</t>
+          <t>Nat. Hist.</t>
         </is>
       </c>
       <c r="DV15" t="inlineStr">
         <is>
-          <t>: 90</t>
+          <t xml:space="preserve"> 2(3): 333</t>
         </is>
       </c>
       <c r="DW15" t="inlineStr">
         <is>
-          <t>(1782)</t>
+          <t>(1774)</t>
         </is>
       </c>
       <c r="DX15" t="inlineStr"/>
       <c r="DY15" t="inlineStr">
         <is>
-          <t>Indo-China to Malesia</t>
-        </is>
-      </c>
-      <c r="DZ15" t="inlineStr"/>
+          <t>Maluku (Banda Is.)</t>
+        </is>
+      </c>
+      <c r="DZ15" t="inlineStr">
+        <is>
+          <t>tree</t>
+        </is>
+      </c>
       <c r="EA15" t="inlineStr">
         <is>
           <t>wet tropical</t>
@@ -8367,7 +8389,7 @@
       </c>
       <c r="EB15" t="inlineStr">
         <is>
-          <t>2557647</t>
+          <t>2500629</t>
         </is>
       </c>
       <c r="EC15" t="inlineStr"/>
@@ -8375,12 +8397,12 @@
       <c r="EE15" t="inlineStr"/>
       <c r="EF15" t="inlineStr">
         <is>
-          <t>2555110</t>
+          <t>2500594</t>
         </is>
       </c>
       <c r="EG15" t="inlineStr">
         <is>
-          <t>681071-1</t>
+          <t>586076-1</t>
         </is>
       </c>
       <c r="EH15" t="inlineStr"/>
@@ -8391,23 +8413,27 @@
       </c>
       <c r="EJ15" t="inlineStr">
         <is>
-          <t>https://powo.science.kew.org/taxon/681071-1</t>
+          <t>https://powo.science.kew.org/taxon/586076-1</t>
         </is>
       </c>
       <c r="EK15" t="inlineStr">
         <is>
-          <t>Cambodia, Myanmar, Vietnam, Borneo, Lesser Sunda Is., Malaya, Maluku, Sulawesi, Sumatera</t>
-        </is>
-      </c>
-      <c r="EL15" t="inlineStr"/>
+          <t>Maluku</t>
+        </is>
+      </c>
+      <c r="EL15" t="inlineStr">
+        <is>
+          <t>Gulf of Guinea Is., Comoros, Mauritius, Réunion, China South-Central, China Southeast, Taiwan, Assam, Bangladesh, Laos, Thailand, Vietnam, Jawa, Philippines, Samoa</t>
+        </is>
+      </c>
       <c r="EM15" t="inlineStr">
         <is>
-          <t>Indo-China, Malesia</t>
+          <t>Malesia</t>
         </is>
       </c>
       <c r="EN15" t="inlineStr">
         <is>
-          <t>ASIA-TROPICAL</t>
+          <t>Asia-Tropical</t>
         </is>
       </c>
     </row>
@@ -8418,7 +8444,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -8426,30 +8452,38 @@
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>false peppers</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>mace</t>
+          <t>long pepper</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>the aril (seed-covering) of the nutmeg</t>
+          <t>the spike-like cluster of fruits of Piper longum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>nutmeg</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>pepper; cubeb</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Java long pepper</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr">
         <is>
           <t>vanwyk_culinary_2014</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>1</v>
@@ -8460,32 +8494,40 @@
       <c r="N16" t="n">
         <v>1</v>
       </c>
-      <c r="O16" t="inlineStr"/>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr"/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
       <c r="S16" t="n">
         <v>6</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>Myristica fragrans</t>
+          <t>Piper longum</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>Houtt.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>P. retrofactum Vahl</t>
+        </is>
+      </c>
       <c r="Y16" t="inlineStr">
         <is>
           <t>spice</t>
@@ -8493,37 +8535,33 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>culinary</t>
+          <t>culinary; medicinal</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>https://en.wikipedia.org/wiki/Nutmeg</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>https://www.britannica.com/topic/mace-spice</t>
-        </is>
-      </c>
+          <t>https://en.wikipedia.org/wiki/Long_pepper</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>nutmeg tree</t>
+          <t>long pepper plant</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>mace</t>
+          <t>Indian long pepper; pippali; pipalli</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>mace</t>
+          <t>Indian long pepper; pippali; pipalli</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>Mace</t>
+          <t>Long pepper</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr"/>
@@ -8535,7 +8573,7 @@
       <c r="AM16" t="inlineStr"/>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>mace; basbas; roudoukoupi</t>
+          <t>long pepper; darfilfil; biba</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr"/>
@@ -8546,24 +8584,24 @@
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>aril</t>
+          <t>fruit</t>
         </is>
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>Moluccas (Indonesia)</t>
+          <t>E. Himalaya to S. China; Indo-China; India</t>
         </is>
       </c>
       <c r="AS16" t="inlineStr"/>
       <c r="AT16" t="n">
-        <v>-5</v>
+        <v>25</v>
       </c>
       <c r="AU16" t="n">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="AV16" t="inlineStr">
         <is>
-          <t>Banda Islands</t>
+          <t>Varanasi</t>
         </is>
       </c>
       <c r="AW16" t="inlineStr">
@@ -8573,108 +8611,80 @@
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Grenada; Indonesia</t>
+          <t>India; Indonesia; Thailand</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr">
         <is>
-          <t>crimson red aril whn fresh, pale yellow when dried</t>
+          <t>green to red when ripe, dark brown when dried</t>
         </is>
       </c>
       <c r="AZ16" t="inlineStr">
         <is>
-          <t>sweet, bitter, salty</t>
+          <t>pungent, peppery</t>
         </is>
       </c>
       <c r="BA16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="BB16" t="inlineStr">
         <is>
-          <t>confectionary; peptic ulcers</t>
-        </is>
-      </c>
-      <c r="BC16" t="inlineStr">
-        <is>
-          <t>Köhler's Medizinal-Pflanzen</t>
-        </is>
-      </c>
-      <c r="BD16" t="inlineStr">
-        <is>
-          <t>II 132</t>
-        </is>
-      </c>
-      <c r="BE16" t="inlineStr">
-        <is>
-          <t>koehler_1887_koehler</t>
-        </is>
-      </c>
-      <c r="BF16" t="inlineStr">
-        <is>
-          <t>https://www.biodiversitylibrary.org/item/10837#page/609/mode/1up</t>
-        </is>
-      </c>
+          <t>South and Souteast Asian cuisine; Ayurveda and TCM</t>
+        </is>
+      </c>
+      <c r="BC16" t="inlineStr"/>
+      <c r="BD16" t="inlineStr"/>
+      <c r="BE16" t="inlineStr"/>
+      <c r="BF16" t="inlineStr"/>
       <c r="BG16" t="inlineStr"/>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>nutmeg.n.01</t>
-        </is>
-      </c>
-      <c r="BI16" t="inlineStr">
-        <is>
-          <t>mace.n.03</t>
-        </is>
-      </c>
+          <t>long_pepper.n.01</t>
+        </is>
+      </c>
+      <c r="BI16" t="inlineStr"/>
       <c r="BJ16" t="inlineStr"/>
       <c r="BK16" t="inlineStr">
         <is>
-          <t>mace</t>
+          <t>long pepper</t>
         </is>
       </c>
       <c r="BL16" t="inlineStr"/>
       <c r="BM16" t="inlineStr">
         <is>
-          <t>بسباسة</t>
+          <t>دارفلفل</t>
         </is>
       </c>
       <c r="BN16" t="inlineStr">
         <is>
-          <t>basbāsa</t>
+          <t>dārfilfil</t>
         </is>
       </c>
       <c r="BO16" t="inlineStr"/>
-      <c r="BP16" t="inlineStr">
-        <is>
-          <t>*qishrat jawz al-ṭīb* [the peel of the fragrant nut] قشرة جوز الطيب</t>
-        </is>
-      </c>
+      <c r="BP16" t="inlineStr"/>
       <c r="BQ16" t="inlineStr">
         <is>
-          <t>肉豆蔻皮</t>
+          <t>蓽撥</t>
         </is>
       </c>
       <c r="BR16" t="inlineStr">
         <is>
-          <t>ròudòukòupí</t>
-        </is>
-      </c>
-      <c r="BS16" t="inlineStr">
-        <is>
-          <t>flesh-bean-cardamom-skin</t>
-        </is>
-      </c>
+          <t>bìbō</t>
+        </is>
+      </c>
+      <c r="BS16" t="inlineStr"/>
       <c r="BT16" t="inlineStr"/>
       <c r="BU16" t="inlineStr"/>
       <c r="BV16" t="inlineStr">
         <is>
-          <t>szerecsendió-virág</t>
+          <t>hosszú bors</t>
         </is>
       </c>
       <c r="BW16" t="inlineStr">
         <is>
-          <t>Saracen nut flower</t>
+          <t>long-pepper</t>
         </is>
       </c>
       <c r="BX16" t="inlineStr"/>
@@ -8686,82 +8696,128 @@
       <c r="CD16" t="inlineStr"/>
       <c r="CE16" t="inlineStr">
         <is>
-          <t>Arillus Myristicae</t>
-        </is>
-      </c>
-      <c r="CF16" t="inlineStr"/>
-      <c r="CG16" t="inlineStr"/>
+          <t>Fructus Piperis Longi; Piperis Longi Fructus</t>
+        </is>
+      </c>
+      <c r="CF16" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG16" t="inlineStr">
+        <is>
+          <t>polyu-tcm</t>
+        </is>
+      </c>
       <c r="CH16" t="inlineStr"/>
-      <c r="CI16" t="inlineStr"/>
-      <c r="CJ16" t="inlineStr"/>
+      <c r="CI16" t="inlineStr">
+        <is>
+          <t>蓽苃</t>
+        </is>
+      </c>
+      <c r="CJ16" t="inlineStr">
+        <is>
+          <t>bìbá</t>
+        </is>
+      </c>
       <c r="CK16" t="inlineStr">
         <is>
-          <t>Nutmeg</t>
-        </is>
-      </c>
-      <c r="CL16" t="inlineStr"/>
-      <c r="CM16" t="inlineStr"/>
-      <c r="CN16" t="inlineStr"/>
-      <c r="CO16" t="inlineStr"/>
+          <t>Long Pepper</t>
+        </is>
+      </c>
+      <c r="CL16" t="inlineStr">
+        <is>
+          <t>Dried nearly ripe fruit-spike of Piper longum L. (Fam. Piperaceae)</t>
+        </is>
+      </c>
+      <c r="CM16" t="inlineStr">
+        <is>
+          <t>Interior-warming medicinal</t>
+        </is>
+      </c>
+      <c r="CN16" t="inlineStr">
+        <is>
+          <t>bitter; hot</t>
+        </is>
+      </c>
+      <c r="CO16" t="inlineStr">
+        <is>
+          <t>Stomach, Large intestine</t>
+        </is>
+      </c>
       <c r="CP16" t="inlineStr"/>
       <c r="CQ16" t="inlineStr"/>
-      <c r="CR16" t="inlineStr"/>
+      <c r="CR16" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
       <c r="CS16" t="inlineStr">
         <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="CT16" t="inlineStr"/>
+          <t>973</t>
+        </is>
+      </c>
+      <c r="CT16" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
       <c r="CU16" t="inlineStr">
         <is>
-          <t>https://www.gbif.org/species/5406817</t>
+          <t>https://www.gbif.org/species/3086338</t>
         </is>
       </c>
       <c r="CV16" t="inlineStr">
         <is>
-          <t>https://tropicos.org/name/21800077</t>
+          <t>https://tropicos.org/name/25000012</t>
         </is>
       </c>
       <c r="CW16" t="inlineStr">
         <is>
-          <t>https://eol.org/pages/596922</t>
+          <t>https://eol.org/pages/489436</t>
         </is>
       </c>
       <c r="CX16" t="n">
-        <v>51089</v>
+        <v>49511</v>
       </c>
       <c r="CY16" t="inlineStr">
         <is>
-          <t>जावित्री</t>
+          <t xml:space="preserve">पिप्पली </t>
         </is>
       </c>
       <c r="CZ16" t="inlineStr">
         <is>
-          <t>jāvitrī</t>
+          <t>pippalī</t>
         </is>
       </c>
       <c r="DA16" t="inlineStr"/>
       <c r="DB16" t="inlineStr"/>
-      <c r="DC16" t="inlineStr"/>
-      <c r="DD16" t="inlineStr"/>
+      <c r="DC16" t="inlineStr">
+        <is>
+          <t>cabe jawa</t>
+        </is>
+      </c>
+      <c r="DD16" t="inlineStr">
+        <is>
+          <t>فلفل بلند</t>
+        </is>
+      </c>
       <c r="DE16" t="inlineStr">
         <is>
-          <t>mace</t>
+          <t>long_pepper</t>
         </is>
       </c>
       <c r="DF16" t="inlineStr">
         <is>
-          <t>https://partigabor.github.io/aromatica/items/mace</t>
+          <t>https://partigabor.github.io/aromatica/items/long_pepper</t>
         </is>
       </c>
       <c r="DG16" t="inlineStr">
         <is>
-          <t>2500629</t>
+          <t>2568895</t>
         </is>
       </c>
       <c r="DH16" t="inlineStr">
         <is>
-          <t>586076-1</t>
+          <t>682031-1</t>
         </is>
       </c>
       <c r="DI16" t="inlineStr">
@@ -8776,19 +8832,19 @@
       </c>
       <c r="DK16" t="inlineStr">
         <is>
-          <t>Myristicaceae</t>
+          <t>Piperaceae</t>
         </is>
       </c>
       <c r="DL16" t="inlineStr"/>
       <c r="DM16" t="inlineStr">
         <is>
-          <t>Myristica</t>
+          <t>Piper</t>
         </is>
       </c>
       <c r="DN16" t="inlineStr"/>
       <c r="DO16" t="inlineStr">
         <is>
-          <t>fragrans</t>
+          <t>longum</t>
         </is>
       </c>
       <c r="DP16" t="inlineStr"/>
@@ -8796,44 +8852,44 @@
       <c r="DR16" t="inlineStr"/>
       <c r="DS16" t="inlineStr">
         <is>
-          <t>Houtt.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="DT16" t="inlineStr"/>
       <c r="DU16" t="inlineStr">
         <is>
-          <t>Nat. Hist.</t>
+          <t>Sp. Pl.</t>
         </is>
       </c>
       <c r="DV16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2(3): 333</t>
+          <t>: 29</t>
         </is>
       </c>
       <c r="DW16" t="inlineStr">
         <is>
-          <t>(1774)</t>
+          <t>(1753)</t>
         </is>
       </c>
       <c r="DX16" t="inlineStr"/>
       <c r="DY16" t="inlineStr">
         <is>
-          <t>Maluku (Banda Is.)</t>
+          <t>E. Himalaya to China (S. Yunnan) and Indo-China</t>
         </is>
       </c>
       <c r="DZ16" t="inlineStr">
         <is>
-          <t>tree</t>
+          <t>climbing perennial or subshrub</t>
         </is>
       </c>
       <c r="EA16" t="inlineStr">
         <is>
-          <t>wet tropical</t>
+          <t>temperate</t>
         </is>
       </c>
       <c r="EB16" t="inlineStr">
         <is>
-          <t>2500629</t>
+          <t>2568895</t>
         </is>
       </c>
       <c r="EC16" t="inlineStr"/>
@@ -8841,12 +8897,12 @@
       <c r="EE16" t="inlineStr"/>
       <c r="EF16" t="inlineStr">
         <is>
-          <t>2500594</t>
+          <t>2555110</t>
         </is>
       </c>
       <c r="EG16" t="inlineStr">
         <is>
-          <t>586076-1</t>
+          <t>682031-1</t>
         </is>
       </c>
       <c r="EH16" t="inlineStr"/>
@@ -8857,27 +8913,27 @@
       </c>
       <c r="EJ16" t="inlineStr">
         <is>
-          <t>https://powo.science.kew.org/taxon/586076-1</t>
+          <t>https://powo.science.kew.org/taxon/682031-1</t>
         </is>
       </c>
       <c r="EK16" t="inlineStr">
         <is>
-          <t>Maluku</t>
+          <t>China South-Central, Assam, Bangladesh, East Himalaya, Cambodia, Laos, Myanmar, Nicobar Is., Thailand, Vietnam</t>
         </is>
       </c>
       <c r="EL16" t="inlineStr">
         <is>
-          <t>Gulf of Guinea Is., Comoros, Mauritius, Réunion, China South-Central, China Southeast, Taiwan, Assam, Bangladesh, Laos, Thailand, Vietnam, Jawa, Philippines, Samoa</t>
+          <t>Hainan, China Southeast, India, Nepal, Sri Lanka, Malaya, Philippines</t>
         </is>
       </c>
       <c r="EM16" t="inlineStr">
         <is>
-          <t>Malesia</t>
+          <t>China, Indian Subcontinent, Indo-China</t>
         </is>
       </c>
       <c r="EN16" t="inlineStr">
         <is>
-          <t>ASIA-TROPICAL</t>
+          <t>Asia-Temperate, Asia-Tropical</t>
         </is>
       </c>
     </row>
@@ -8888,7 +8944,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -8898,27 +8954,27 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>false peppers</t>
+          <t>commodities</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>long pepper</t>
+          <t>coffee</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>the spike-like cluster of fruits of Piper longum</t>
+          <t>the roasted and ground seeds of African shrubs, most typically of *Coffea arabica* and *robusta*,  infused to maked a beverage</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>pepper; cubeb</t>
+          <t>robusta coffee</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Java long pepper</t>
+          <t>sugar</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -8926,8 +8982,12 @@
           <t>vanwyk_culinary_2014</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -8935,21 +8995,25 @@
         <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="R17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>Piper longum</t>
+          <t>Coffea arabica</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
@@ -8961,43 +9025,47 @@
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr">
         <is>
-          <t>P. retrofactum Vahl</t>
+          <t>C. canephora var. robusta</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>commodity</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>culinary; medicinal</t>
+          <t>recreational</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>https://en.wikipedia.org/wiki/Long_pepper</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr"/>
+          <t>https://en.wikipedia.org/wiki/Coffee</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>https://www.britannica.com/topic/coffee</t>
+        </is>
+      </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>long pepper plant</t>
+          <t>coffee plant</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>Indian long pepper; pippali; pipalli</t>
+          <t>coffee beans; Arabian coffee; Arabica coffee</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>Indian long pepper; pippali; pipalli</t>
+          <t>coffee; Arabian coffee</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>Long pepper</t>
+          <t>Coffee, Arabica coffee</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr"/>
@@ -9009,10 +9077,14 @@
       <c r="AM17" t="inlineStr"/>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>long pepper; darfilfil; biba</t>
-        </is>
-      </c>
-      <c r="AO17" t="inlineStr"/>
+          <t>coffee</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>https://en.wiktionary.org/wiki/coffee</t>
+        </is>
+      </c>
       <c r="AP17" t="inlineStr">
         <is>
           <t>Plantae</t>
@@ -9020,212 +9092,208 @@
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>fruit</t>
+          <t>seed</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>E. Himalaya to S. China; Indo-China; India</t>
+          <t>NE Afr (Ethiopia)</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr"/>
       <c r="AT17" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="AU17" t="n">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>Varanasi</t>
-        </is>
-      </c>
-      <c r="AW17" t="inlineStr">
-        <is>
-          <t>Asia</t>
-        </is>
-      </c>
+          <t>Ethiopia</t>
+        </is>
+      </c>
+      <c r="AW17" t="inlineStr"/>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>India; Indonesia; Thailand</t>
+          <t>Brazil; Colombia; Indonesia; Vietnam; Ethiopia</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>green to red when ripe, dark brown when dried</t>
-        </is>
-      </c>
-      <c r="AZ17" t="inlineStr">
-        <is>
-          <t>pungent, peppery</t>
-        </is>
-      </c>
-      <c r="BA17" t="inlineStr">
-        <is>
-          <t>4-9</t>
-        </is>
-      </c>
-      <c r="BB17" t="inlineStr">
-        <is>
-          <t>South and Souteast Asian cuisine; Ayurveda and TCM</t>
-        </is>
-      </c>
-      <c r="BC17" t="inlineStr"/>
-      <c r="BD17" t="inlineStr"/>
-      <c r="BE17" t="inlineStr"/>
-      <c r="BF17" t="inlineStr"/>
+          <t>brown; coffee colour</t>
+        </is>
+      </c>
+      <c r="AZ17" t="inlineStr"/>
+      <c r="BA17" t="inlineStr"/>
+      <c r="BB17" t="inlineStr"/>
+      <c r="BC17" t="inlineStr">
+        <is>
+          <t>Köhler's Medizinal-Pflanzen</t>
+        </is>
+      </c>
+      <c r="BD17" t="inlineStr">
+        <is>
+          <t>II 106</t>
+        </is>
+      </c>
+      <c r="BE17" t="inlineStr">
+        <is>
+          <t>koehler_1887_koehler</t>
+        </is>
+      </c>
+      <c r="BF17" t="inlineStr">
+        <is>
+          <t>https://www.biodiversitylibrary.org/item/10837#page/555/mode/1up</t>
+        </is>
+      </c>
       <c r="BG17" t="inlineStr"/>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>long_pepper.n.01</t>
-        </is>
-      </c>
-      <c r="BI17" t="inlineStr"/>
-      <c r="BJ17" t="inlineStr"/>
+          <t>coffee.n.02</t>
+        </is>
+      </c>
+      <c r="BI17" t="inlineStr">
+        <is>
+          <t>coffee.n.03</t>
+        </is>
+      </c>
+      <c r="BJ17" t="inlineStr">
+        <is>
+          <t>coffee.n.01</t>
+        </is>
+      </c>
       <c r="BK17" t="inlineStr">
         <is>
-          <t>long pepper</t>
+          <t>coffee</t>
         </is>
       </c>
       <c r="BL17" t="inlineStr"/>
       <c r="BM17" t="inlineStr">
         <is>
-          <t>دارفلفل</t>
+          <t>قهوة</t>
         </is>
       </c>
       <c r="BN17" t="inlineStr">
         <is>
-          <t>dārfilfil</t>
+          <t>qahwa</t>
         </is>
       </c>
       <c r="BO17" t="inlineStr"/>
-      <c r="BP17" t="inlineStr"/>
+      <c r="BP17" t="inlineStr">
+        <is>
+          <t>*bunn* بن</t>
+        </is>
+      </c>
       <c r="BQ17" t="inlineStr">
         <is>
-          <t>蓽撥</t>
+          <t>咖啡</t>
         </is>
       </c>
       <c r="BR17" t="inlineStr">
         <is>
-          <t>bìbō</t>
+          <t>kāfēi</t>
         </is>
       </c>
       <c r="BS17" t="inlineStr"/>
-      <c r="BT17" t="inlineStr"/>
+      <c r="BT17" t="inlineStr">
+        <is>
+          <t>咖啡豆 kāfēidòu [coffee-bean]</t>
+        </is>
+      </c>
       <c r="BU17" t="inlineStr"/>
       <c r="BV17" t="inlineStr">
         <is>
-          <t>hosszú bors</t>
-        </is>
-      </c>
-      <c r="BW17" t="inlineStr">
-        <is>
-          <t>long-pepper</t>
-        </is>
-      </c>
-      <c r="BX17" t="inlineStr"/>
+          <t>kávé</t>
+        </is>
+      </c>
+      <c r="BW17" t="inlineStr"/>
+      <c r="BX17" t="inlineStr">
+        <is>
+          <t>kávébab</t>
+        </is>
+      </c>
       <c r="BY17" t="inlineStr"/>
       <c r="BZ17" t="inlineStr"/>
       <c r="CA17" t="inlineStr"/>
       <c r="CB17" t="inlineStr"/>
       <c r="CC17" t="inlineStr"/>
       <c r="CD17" t="inlineStr"/>
-      <c r="CE17" t="inlineStr">
-        <is>
-          <t>Fructus Piperis Longi; Piperis Longi Fructus</t>
-        </is>
-      </c>
-      <c r="CF17" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG17" t="inlineStr">
-        <is>
-          <t>polyu-tcm</t>
-        </is>
-      </c>
+      <c r="CE17" t="inlineStr"/>
+      <c r="CF17" t="inlineStr"/>
+      <c r="CG17" t="inlineStr"/>
       <c r="CH17" t="inlineStr"/>
-      <c r="CI17" t="inlineStr">
-        <is>
-          <t>蓽苃</t>
-        </is>
-      </c>
-      <c r="CJ17" t="inlineStr">
-        <is>
-          <t>bìbá</t>
-        </is>
-      </c>
-      <c r="CK17" t="inlineStr">
-        <is>
-          <t>Long Pepper</t>
-        </is>
-      </c>
-      <c r="CL17" t="inlineStr">
-        <is>
-          <t>Dried nearly ripe fruit-spike of Piper longum L. (Fam. Piperaceae)</t>
-        </is>
-      </c>
-      <c r="CM17" t="inlineStr">
-        <is>
-          <t>Interior-warming medicinal</t>
-        </is>
-      </c>
-      <c r="CN17" t="inlineStr">
-        <is>
-          <t>bitter; hot</t>
-        </is>
-      </c>
-      <c r="CO17" t="inlineStr">
-        <is>
-          <t>Stomach, Large intestine</t>
-        </is>
-      </c>
+      <c r="CI17" t="inlineStr"/>
+      <c r="CJ17" t="inlineStr"/>
+      <c r="CK17" t="inlineStr"/>
+      <c r="CL17" t="inlineStr"/>
+      <c r="CM17" t="inlineStr"/>
+      <c r="CN17" t="inlineStr"/>
+      <c r="CO17" t="inlineStr"/>
       <c r="CP17" t="inlineStr"/>
       <c r="CQ17" t="inlineStr"/>
-      <c r="CR17" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="CS17" t="inlineStr">
-        <is>
-          <t>973</t>
-        </is>
-      </c>
-      <c r="CT17" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="CU17" t="inlineStr"/>
-      <c r="CV17" t="inlineStr"/>
-      <c r="CW17" t="inlineStr"/>
-      <c r="CX17" t="n">
-        <v>49511</v>
-      </c>
-      <c r="CY17" t="inlineStr"/>
-      <c r="CZ17" t="inlineStr"/>
+      <c r="CR17" t="inlineStr"/>
+      <c r="CS17" t="inlineStr"/>
+      <c r="CT17" t="inlineStr"/>
+      <c r="CU17" t="inlineStr">
+        <is>
+          <t>https://www.gbif.org/species/2895345</t>
+        </is>
+      </c>
+      <c r="CV17" t="inlineStr">
+        <is>
+          <t>https://tropicos.org/name/27900016</t>
+        </is>
+      </c>
+      <c r="CW17" t="inlineStr">
+        <is>
+          <t>https://eol.org/pages/1109554</t>
+        </is>
+      </c>
+      <c r="CX17" t="inlineStr"/>
+      <c r="CY17" t="inlineStr">
+        <is>
+          <t>कॉफी</t>
+        </is>
+      </c>
+      <c r="CZ17" t="inlineStr">
+        <is>
+          <t>kofī</t>
+        </is>
+      </c>
       <c r="DA17" t="inlineStr"/>
-      <c r="DB17" t="inlineStr"/>
-      <c r="DC17" t="inlineStr"/>
-      <c r="DD17" t="inlineStr"/>
+      <c r="DB17" t="inlineStr">
+        <is>
+          <t>qahvaa</t>
+        </is>
+      </c>
+      <c r="DC17" t="inlineStr">
+        <is>
+          <t>kopi</t>
+        </is>
+      </c>
+      <c r="DD17" t="inlineStr">
+        <is>
+          <t>قهوه عربی</t>
+        </is>
+      </c>
       <c r="DE17" t="inlineStr">
         <is>
-          <t>long_pepper</t>
+          <t>coffee</t>
         </is>
       </c>
       <c r="DF17" t="inlineStr">
         <is>
-          <t>https://partigabor.github.io/aromatica/items/long_pepper</t>
+          <t>https://partigabor.github.io/aromatica/items/coffee</t>
         </is>
       </c>
       <c r="DG17" t="inlineStr">
         <is>
-          <t>2568895</t>
+          <t>45400</t>
         </is>
       </c>
       <c r="DH17" t="inlineStr">
         <is>
-          <t>682031-1</t>
+          <t>747038-1</t>
         </is>
       </c>
       <c r="DI17" t="inlineStr">
@@ -9240,19 +9308,19 @@
       </c>
       <c r="DK17" t="inlineStr">
         <is>
-          <t>Piperaceae</t>
+          <t>Rubiaceae</t>
         </is>
       </c>
       <c r="DL17" t="inlineStr"/>
       <c r="DM17" t="inlineStr">
         <is>
-          <t>Piper</t>
+          <t>Coffea</t>
         </is>
       </c>
       <c r="DN17" t="inlineStr"/>
       <c r="DO17" t="inlineStr">
         <is>
-          <t>longum</t>
+          <t>arabica</t>
         </is>
       </c>
       <c r="DP17" t="inlineStr"/>
@@ -9271,7 +9339,7 @@
       </c>
       <c r="DV17" t="inlineStr">
         <is>
-          <t>: 29</t>
+          <t>: 172</t>
         </is>
       </c>
       <c r="DW17" t="inlineStr">
@@ -9282,22 +9350,22 @@
       <c r="DX17" t="inlineStr"/>
       <c r="DY17" t="inlineStr">
         <is>
-          <t>E. Himalaya to China (S. Yunnan) and Indo-China</t>
+          <t>E. South Sudan, SW. Ethiopia, N. Kenya (Mt. Marsibit)</t>
         </is>
       </c>
       <c r="DZ17" t="inlineStr">
         <is>
-          <t>climbing perennial or subshrub</t>
+          <t>shrub or tree</t>
         </is>
       </c>
       <c r="EA17" t="inlineStr">
         <is>
-          <t>temperate</t>
+          <t>seasonally dry tropical</t>
         </is>
       </c>
       <c r="EB17" t="inlineStr">
         <is>
-          <t>2568895</t>
+          <t>45400</t>
         </is>
       </c>
       <c r="EC17" t="inlineStr"/>
@@ -9305,43 +9373,43 @@
       <c r="EE17" t="inlineStr"/>
       <c r="EF17" t="inlineStr">
         <is>
-          <t>2555110</t>
+          <t>45380</t>
         </is>
       </c>
       <c r="EG17" t="inlineStr">
         <is>
-          <t>682031-1</t>
+          <t>747038-1</t>
         </is>
       </c>
       <c r="EH17" t="inlineStr"/>
       <c r="EI17" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="EJ17" t="inlineStr">
         <is>
-          <t>https://powo.science.kew.org/taxon/682031-1</t>
+          <t>https://powo.science.kew.org/taxon/747038-1</t>
         </is>
       </c>
       <c r="EK17" t="inlineStr">
         <is>
-          <t>China South-Central, Assam, Bangladesh, East Himalaya, Cambodia, Laos, Myanmar, Nicobar Is., Thailand, Vietnam</t>
+          <t>Ethiopia, Sudan, Kenya</t>
         </is>
       </c>
       <c r="EL17" t="inlineStr">
         <is>
-          <t>Hainan, China Southeast, India, Nepal, Sri Lanka, Malaya, Philippines</t>
+          <t>Guinea-Bissau, Guinea, Congo, Gabon, Gulf of Guinea Is., Rwanda, Malawi, Ascension, St.Helena, Comoros, China South-Central, Hainan, China Southeast, Ogasawara-shoto, Taiwan, Bangladesh, Andaman Is., Myanmar, Borneo, Lesser Sunda Is., Bismarck Archipelago, Norfolk Is., Fiji, New Caledonia, Samoa, Vanuatu, Cook Is., Easter Is., Marquesas, Society Is., Tuamotu, Tubuai Is., Caroline Is., Marianas, Marshall Is., Hawaii, Mexico Central, Mexico Southwest, Mexico Southeast, Belize, Costa Rica, Central American Pac, El Salvador, Guatemala, Honduras, Nicaragua, Panamá, Bermuda, Cuba, Dominican Republic, Haiti, Jamaica, Leeward Is., Puerto Rico, Trinidad-Tobago, Windward Is., Venezuela, Bolivia, Colombia, Ecuador, Galápagos, Peru, Brazil West-Central, Brazil Northeast, Brazil Southeast, Brazil North, Brazil South</t>
         </is>
       </c>
       <c r="EM17" t="inlineStr">
         <is>
-          <t>China, Indian Subcontinent, Indo-China</t>
+          <t>Northeast Tropical Africa, East Tropical Africa</t>
         </is>
       </c>
       <c r="EN17" t="inlineStr">
         <is>
-          <t>ASIA-TEMPERATE, ASIA-TROPICAL</t>
+          <t>Africa</t>
         </is>
       </c>
     </row>
@@ -9352,48 +9420,68 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>41</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
+        <v>63</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>commodities</t>
-        </is>
-      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>coffee</t>
+          <t>cumin</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>The roasted seeds -- called coffee beans -- of African shrubs, most typically Coffea arabica and Coffea robusta, used to prepare beverages.</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
+          <t>the dried seeds of a West Asian flowering plant</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>caraway</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
           <t>vanwyk_culinary_2014</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
       <c r="N18" t="n">
         <v>1</v>
       </c>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>Coffea arabica</t>
+          <t>Cuminum cyminum</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
@@ -9403,62 +9491,66 @@
       </c>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>C. canephora var. robusta</t>
-        </is>
-      </c>
+      <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>commodity</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>beverage</t>
+          <t>culinary</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>https://en.wikipedia.org/wiki/Coffee</t>
+          <t>https://en.wikipedia.org/wiki/Cumin</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>https://www.britannica.com/topic/coffee</t>
+          <t>https://www.britannica.com/plant/cumin</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>coffee plant</t>
+          <t>cumin</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>coffee beans; Arabian coffee</t>
+          <t>brown cumin</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>coffee; Arabian coffee</t>
-        </is>
-      </c>
-      <c r="AF18" t="inlineStr"/>
+          <t>cumin</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>Cumin</t>
+        </is>
+      </c>
       <c r="AG18" t="inlineStr"/>
       <c r="AH18" t="inlineStr"/>
       <c r="AI18" t="inlineStr"/>
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
       <c r="AL18" t="inlineStr"/>
-      <c r="AM18" t="inlineStr"/>
+      <c r="AM18" t="inlineStr">
+        <is>
+          <t>cumin, brown</t>
+        </is>
+      </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>coffee</t>
+          <t>cumin; kammun; ziran</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>https://en.wiktionary.org/wiki/coffee</t>
+          <t>https://en.wiktionary.org/wiki/cumin</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
@@ -9468,36 +9560,56 @@
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>seed</t>
+          <t>fruit</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>NE Afr (Ethiopia)</t>
+          <t>S. Europe; W. &amp; C. Asia; India</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr"/>
       <c r="AT18" t="n">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="AU18" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>Ethiopia</t>
-        </is>
-      </c>
-      <c r="AW18" t="inlineStr"/>
-      <c r="AX18" t="inlineStr"/>
+          <t>Tehran</t>
+        </is>
+      </c>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>India; Iran; Lebanon</t>
+        </is>
+      </c>
       <c r="AY18" t="inlineStr">
         <is>
-          <t>brown</t>
-        </is>
-      </c>
-      <c r="AZ18" t="inlineStr"/>
-      <c r="BA18" t="inlineStr"/>
-      <c r="BB18" t="inlineStr"/>
+          <t>light brown</t>
+        </is>
+      </c>
+      <c r="AZ18" t="inlineStr">
+        <is>
+          <t>peppery, aromatic</t>
+        </is>
+      </c>
+      <c r="BA18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BB18" t="inlineStr">
+        <is>
+          <t>curries, breads; colic</t>
+        </is>
+      </c>
       <c r="BC18" t="inlineStr">
         <is>
           <t>Köhler's Medizinal-Pflanzen</t>
@@ -9505,7 +9617,7 @@
       </c>
       <c r="BD18" t="inlineStr">
         <is>
-          <t>II 106</t>
+          <t>III 23</t>
         </is>
       </c>
       <c r="BE18" t="inlineStr">
@@ -9515,78 +9627,78 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>https://www.biodiversitylibrary.org/item/10837#page/555/mode/1up</t>
+          <t>https://www.biodiversitylibrary.org/item/10838#page/421/mode/1up</t>
         </is>
       </c>
       <c r="BG18" t="inlineStr"/>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>coffee.n.02</t>
+          <t>cumin.n.01</t>
         </is>
       </c>
       <c r="BI18" t="inlineStr">
         <is>
-          <t>coffee.n.03</t>
-        </is>
-      </c>
-      <c r="BJ18" t="inlineStr">
-        <is>
-          <t>coffee.n.01</t>
-        </is>
-      </c>
+          <t>cumin.n.02</t>
+        </is>
+      </c>
+      <c r="BJ18" t="inlineStr"/>
       <c r="BK18" t="inlineStr">
         <is>
-          <t>coffee</t>
+          <t>cumin</t>
         </is>
       </c>
       <c r="BL18" t="inlineStr"/>
       <c r="BM18" t="inlineStr">
         <is>
-          <t>قهوة</t>
+          <t xml:space="preserve">كمون </t>
         </is>
       </c>
       <c r="BN18" t="inlineStr">
         <is>
-          <t>qahwa</t>
+          <t>kammūn</t>
         </is>
       </c>
       <c r="BO18" t="inlineStr"/>
-      <c r="BP18" t="inlineStr">
-        <is>
-          <t>*bunn* بن</t>
-        </is>
-      </c>
+      <c r="BP18" t="inlineStr"/>
       <c r="BQ18" t="inlineStr">
         <is>
-          <t>咖啡</t>
+          <t>孜然</t>
         </is>
       </c>
       <c r="BR18" t="inlineStr">
         <is>
-          <t>kāfēi</t>
+          <t>zī​rán</t>
         </is>
       </c>
       <c r="BS18" t="inlineStr"/>
-      <c r="BT18" t="inlineStr">
-        <is>
-          <t>咖啡豆 kāfēidòu [coffee-bean]</t>
-        </is>
-      </c>
+      <c r="BT18" t="inlineStr"/>
       <c r="BU18" t="inlineStr"/>
       <c r="BV18" t="inlineStr">
         <is>
-          <t>kávé</t>
-        </is>
-      </c>
-      <c r="BW18" t="inlineStr"/>
+          <t>római kömény</t>
+        </is>
+      </c>
+      <c r="BW18" t="inlineStr">
+        <is>
+          <t>Roman cumin</t>
+        </is>
+      </c>
       <c r="BX18" t="inlineStr"/>
-      <c r="BY18" t="inlineStr"/>
+      <c r="BY18" t="inlineStr">
+        <is>
+          <t>egyiptomi kömény [Egyiptian cumin]</t>
+        </is>
+      </c>
       <c r="BZ18" t="inlineStr"/>
       <c r="CA18" t="inlineStr"/>
       <c r="CB18" t="inlineStr"/>
       <c r="CC18" t="inlineStr"/>
       <c r="CD18" t="inlineStr"/>
-      <c r="CE18" t="inlineStr"/>
+      <c r="CE18" t="inlineStr">
+        <is>
+          <t>Fructus Cumini</t>
+        </is>
+      </c>
       <c r="CF18" t="inlineStr"/>
       <c r="CG18" t="inlineStr"/>
       <c r="CH18" t="inlineStr"/>
@@ -9602,34 +9714,56 @@
       <c r="CR18" t="inlineStr"/>
       <c r="CS18" t="inlineStr"/>
       <c r="CT18" t="inlineStr"/>
-      <c r="CU18" t="inlineStr"/>
+      <c r="CU18" t="inlineStr">
+        <is>
+          <t>https://www.gbif.org/species/3034775</t>
+        </is>
+      </c>
       <c r="CV18" t="inlineStr"/>
-      <c r="CW18" t="inlineStr"/>
-      <c r="CX18" t="inlineStr"/>
-      <c r="CY18" t="inlineStr"/>
-      <c r="CZ18" t="inlineStr"/>
+      <c r="CW18" t="inlineStr">
+        <is>
+          <t>https://eol.org/pages/488085</t>
+        </is>
+      </c>
+      <c r="CX18" t="n">
+        <v>52462</v>
+      </c>
+      <c r="CY18" t="inlineStr">
+        <is>
+          <t>जीरा</t>
+        </is>
+      </c>
+      <c r="CZ18" t="inlineStr">
+        <is>
+          <t>jīrā</t>
+        </is>
+      </c>
       <c r="DA18" t="inlineStr"/>
       <c r="DB18" t="inlineStr"/>
-      <c r="DC18" t="inlineStr"/>
+      <c r="DC18" t="inlineStr">
+        <is>
+          <t>jintan putih</t>
+        </is>
+      </c>
       <c r="DD18" t="inlineStr"/>
       <c r="DE18" t="inlineStr">
         <is>
-          <t>coffee</t>
+          <t>cumin</t>
         </is>
       </c>
       <c r="DF18" t="inlineStr">
         <is>
-          <t>https://partigabor.github.io/aromatica/items/coffee</t>
+          <t>https://partigabor.github.io/aromatica/items/cumin</t>
         </is>
       </c>
       <c r="DG18" t="inlineStr">
         <is>
-          <t>45400</t>
+          <t>2747364</t>
         </is>
       </c>
       <c r="DH18" t="inlineStr">
         <is>
-          <t>747038-1</t>
+          <t>840882-1</t>
         </is>
       </c>
       <c r="DI18" t="inlineStr">
@@ -9644,19 +9778,19 @@
       </c>
       <c r="DK18" t="inlineStr">
         <is>
-          <t>Rubiaceae</t>
+          <t>Apiaceae</t>
         </is>
       </c>
       <c r="DL18" t="inlineStr"/>
       <c r="DM18" t="inlineStr">
         <is>
-          <t>Coffea</t>
+          <t>Cuminum</t>
         </is>
       </c>
       <c r="DN18" t="inlineStr"/>
       <c r="DO18" t="inlineStr">
         <is>
-          <t>arabica</t>
+          <t>cyminum</t>
         </is>
       </c>
       <c r="DP18" t="inlineStr"/>
@@ -9675,7 +9809,7 @@
       </c>
       <c r="DV18" t="inlineStr">
         <is>
-          <t>: 172</t>
+          <t>: 254</t>
         </is>
       </c>
       <c r="DW18" t="inlineStr">
@@ -9686,22 +9820,22 @@
       <c r="DX18" t="inlineStr"/>
       <c r="DY18" t="inlineStr">
         <is>
-          <t>E. South Sudan, SW. Ethiopia, N. Kenya (Mt. Marsibit)</t>
+          <t>Iraq to Afghanistan</t>
         </is>
       </c>
       <c r="DZ18" t="inlineStr">
         <is>
-          <t>shrub or tree</t>
+          <t>annual</t>
         </is>
       </c>
       <c r="EA18" t="inlineStr">
         <is>
-          <t>seasonally dry tropical</t>
+          <t>subtropical</t>
         </is>
       </c>
       <c r="EB18" t="inlineStr">
         <is>
-          <t>45400</t>
+          <t>2747364</t>
         </is>
       </c>
       <c r="EC18" t="inlineStr"/>
@@ -9709,43 +9843,43 @@
       <c r="EE18" t="inlineStr"/>
       <c r="EF18" t="inlineStr">
         <is>
-          <t>45380</t>
+          <t>2747357</t>
         </is>
       </c>
       <c r="EG18" t="inlineStr">
         <is>
-          <t>747038-1</t>
+          <t>840882-1</t>
         </is>
       </c>
       <c r="EH18" t="inlineStr"/>
       <c r="EI18" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="EJ18" t="inlineStr">
         <is>
-          <t>https://powo.science.kew.org/taxon/747038-1</t>
+          <t>https://powo.science.kew.org/taxon/840882-1</t>
         </is>
       </c>
       <c r="EK18" t="inlineStr">
         <is>
-          <t>Ethiopia, Sudan, Kenya</t>
+          <t>Afghanistan, Iran, Iraq</t>
         </is>
       </c>
       <c r="EL18" t="inlineStr">
         <is>
-          <t>Guinea-Bissau, Guinea, Congo, Gabon, Gulf of Guinea Is., Rwanda, Malawi, Ascension, St.Helena, Comoros, China South-Central, Hainan, China Southeast, Ogasawara-shoto, Taiwan, Bangladesh, Andaman Is., Myanmar, Borneo, Lesser Sunda Is., Bismarck Archipelago, Norfolk Is., Fiji, New Caledonia, Samoa, Vanuatu, Cook Is., Easter Is., Marquesas, Society Is., Tuamotu, Tubuai Is., Caroline Is., Marianas, Marshall Is., Hawaii, Mexico Central, Mexico Southwest, Mexico Southeast, Belize, Costa Rica, Central American Pac, El Salvador, Guatemala, Honduras, Nicaragua, Panamá, Bermuda, Cuba, Dominican Republic, Haiti, Jamaica, Leeward Is., Puerto Rico, Trinidad-Tobago, Windward Is., Venezuela, Bolivia, Colombia, Ecuador, Galápagos, Peru, Brazil West-Central, Brazil Northeast, Brazil Southeast, Brazil North, Brazil South</t>
+          <t>France, Spain, Bulgaria, Sicilia, Algeria, Libya, Morocco, Tunisia, Benin, Eritrea, Kazakhstan, Uzbekistan, Transcaucasus, Lebanon-Syria, Saudi Arabia, Xinjiang, Bangladesh, East Himalaya, India, Pakistan, Andaman Is., Laos, Nicobar Is., Massachusetts, Texas, Mexico Northeast</t>
         </is>
       </c>
       <c r="EM18" t="inlineStr">
         <is>
-          <t>Northeast Tropical Africa, East Tropical Africa</t>
+          <t>Western Asia</t>
         </is>
       </c>
       <c r="EN18" t="inlineStr">
         <is>
-          <t>AFRICA</t>
+          <t>Asia-Temperate</t>
         </is>
       </c>
     </row>

--- a/database/checking.xlsx
+++ b/database/checking.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EN2"/>
+  <dimension ref="A1:EO22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,104 +456,104 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>powo</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>taxon_name</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>taxon_authors</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>species_syn</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>species_alt</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>group</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>item</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>related</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>also</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>source</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>petruzzello</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hill</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>dalby</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>vanwyk</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>anderson</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>katzer</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>ucla</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>polyu</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>freq</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>taxon_name</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>taxon_authors</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>subspecies</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>species_syn</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>species_alt</t>
-        </is>
-      </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>category</t>
@@ -566,590 +566,595 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
+          <t>comment</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>kingdom</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
           <t>wikipedia</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>britannica</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>common_names</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>wyk_name</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>dalby_name</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>hill_name</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>anderson_name</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>katzer_name</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>amar_name</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>hu_name</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>wiki_name</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>other_name</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>etymologies</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>wiktionary</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>plant name</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>common_names</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>wyk name</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>dalby name</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>hill name</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>anderson name</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>katzer name</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>amar name</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>hu name</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>wiki_name</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>other name</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>etymologies</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>wiktionary</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>kingdom</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>part</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>region_of_origin</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>origin dalby</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>lat</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>lon</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>location</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>macroarea</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>cultivation</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>color</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>taste_smell</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>heat</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>major_uses</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>ill_source</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>ill_page</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>ill_key</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>ill_link</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>other_links</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>wn_plant</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>wn</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>wn_comment</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>en_alt</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>Arabic</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>ar</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>ar_literal</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>ar_alt</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>Chinese</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>zh</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>zh_literal</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>zh_alt</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>zh_notes</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>Hungarian</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>hu_literal</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>hu_alt</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>hu_notes</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>Cantonese</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>yu</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>yu literal</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>notes</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>operative</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>pharmaceutical</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>tcm</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
-        <is>
-          <t>tcm db</t>
-        </is>
-      </c>
       <c r="CH1" s="1" t="inlineStr">
         <is>
-          <t>tcm link</t>
+          <t>tcm_db</t>
         </is>
       </c>
       <c r="CI1" s="1" t="inlineStr">
         <is>
-          <t>tcm name</t>
+          <t>tcm_url</t>
         </is>
       </c>
       <c r="CJ1" s="1" t="inlineStr">
         <is>
-          <t>tcm pinyin</t>
+          <t>tcm_zh</t>
         </is>
       </c>
       <c r="CK1" s="1" t="inlineStr">
         <is>
-          <t>tcm en</t>
+          <t>tcm_pinyin</t>
         </is>
       </c>
       <c r="CL1" s="1" t="inlineStr">
         <is>
-          <t>tcm desc</t>
+          <t>tcm_en</t>
         </is>
       </c>
       <c r="CM1" s="1" t="inlineStr">
         <is>
-          <t>medicinal group</t>
+          <t>tcm_desc</t>
         </is>
       </c>
       <c r="CN1" s="1" t="inlineStr">
         <is>
-          <t>nature and flavors</t>
+          <t>medicinal_group</t>
         </is>
       </c>
       <c r="CO1" s="1" t="inlineStr">
         <is>
-          <t>meridian affinity</t>
+          <t>nature_and_flavors</t>
         </is>
       </c>
       <c r="CP1" s="1" t="inlineStr">
         <is>
+          <t>meridian_affinity</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
           <t>action</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="inlineStr">
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>foc</t>
         </is>
       </c>
-      <c r="CR1" s="1" t="inlineStr">
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>hu_history_1990</t>
         </is>
       </c>
-      <c r="CS1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>year recorded in TCM</t>
         </is>
       </c>
-      <c r="CT1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>ayurveda</t>
         </is>
       </c>
-      <c r="CU1" s="1" t="inlineStr">
+      <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>gbif</t>
         </is>
       </c>
-      <c r="CV1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>trop</t>
         </is>
       </c>
-      <c r="CW1" s="1" t="inlineStr">
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>eol</t>
         </is>
       </c>
-      <c r="CX1" s="1" t="inlineStr">
+      <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>ncbi</t>
         </is>
       </c>
-      <c r="CY1" s="1" t="inlineStr">
+      <c r="CZ1" s="1" t="inlineStr">
         <is>
           <t>Hindi</t>
         </is>
       </c>
-      <c r="CZ1" s="1" t="inlineStr">
+      <c r="DA1" s="1" t="inlineStr">
         <is>
           <t>hi</t>
         </is>
       </c>
-      <c r="DA1" s="1" t="inlineStr">
+      <c r="DB1" s="1" t="inlineStr">
         <is>
           <t>hi literal</t>
         </is>
       </c>
-      <c r="DB1" s="1" t="inlineStr">
+      <c r="DC1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Hi alt </t>
         </is>
       </c>
-      <c r="DC1" s="1" t="inlineStr">
+      <c r="DD1" s="1" t="inlineStr">
         <is>
           <t>Indonesian</t>
         </is>
       </c>
-      <c r="DD1" s="1" t="inlineStr">
+      <c r="DE1" s="1" t="inlineStr">
         <is>
           <t>Persian</t>
         </is>
       </c>
-      <c r="DE1" s="1" t="inlineStr">
+      <c r="DF1" s="1" t="inlineStr">
         <is>
           <t>key</t>
         </is>
       </c>
-      <c r="DF1" s="1" t="inlineStr">
+      <c r="DG1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="DG1" s="1" t="inlineStr">
+      <c r="DH1" s="1" t="inlineStr">
         <is>
           <t>plant_name_id</t>
         </is>
       </c>
-      <c r="DH1" s="1" t="inlineStr">
+      <c r="DI1" s="1" t="inlineStr">
         <is>
           <t>ipni_id</t>
         </is>
       </c>
-      <c r="DI1" s="1" t="inlineStr">
+      <c r="DJ1" s="1" t="inlineStr">
         <is>
           <t>taxon_rank</t>
         </is>
       </c>
-      <c r="DJ1" s="1" t="inlineStr">
+      <c r="DK1" s="1" t="inlineStr">
         <is>
           <t>taxon_status</t>
         </is>
       </c>
-      <c r="DK1" s="1" t="inlineStr">
+      <c r="DL1" s="1" t="inlineStr">
         <is>
           <t>family</t>
         </is>
       </c>
-      <c r="DL1" s="1" t="inlineStr">
+      <c r="DM1" s="1" t="inlineStr">
         <is>
           <t>genus_hybrid</t>
         </is>
       </c>
-      <c r="DM1" s="1" t="inlineStr">
+      <c r="DN1" s="1" t="inlineStr">
         <is>
           <t>genus</t>
         </is>
       </c>
-      <c r="DN1" s="1" t="inlineStr">
+      <c r="DO1" s="1" t="inlineStr">
         <is>
           <t>species_hybrid</t>
         </is>
       </c>
-      <c r="DO1" s="1" t="inlineStr">
+      <c r="DP1" s="1" t="inlineStr">
         <is>
           <t>species</t>
         </is>
       </c>
-      <c r="DP1" s="1" t="inlineStr">
+      <c r="DQ1" s="1" t="inlineStr">
         <is>
           <t>infraspecific_rank</t>
         </is>
       </c>
-      <c r="DQ1" s="1" t="inlineStr">
+      <c r="DR1" s="1" t="inlineStr">
         <is>
           <t>infraspecies</t>
         </is>
       </c>
-      <c r="DR1" s="1" t="inlineStr">
+      <c r="DS1" s="1" t="inlineStr">
         <is>
           <t>parenthetical_author</t>
         </is>
       </c>
-      <c r="DS1" s="1" t="inlineStr">
+      <c r="DT1" s="1" t="inlineStr">
         <is>
           <t>primary_author</t>
         </is>
       </c>
-      <c r="DT1" s="1" t="inlineStr">
+      <c r="DU1" s="1" t="inlineStr">
         <is>
           <t>publication_author</t>
         </is>
       </c>
-      <c r="DU1" s="1" t="inlineStr">
+      <c r="DV1" s="1" t="inlineStr">
         <is>
           <t>place_of_publication</t>
         </is>
       </c>
-      <c r="DV1" s="1" t="inlineStr">
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>volume_and_page</t>
         </is>
       </c>
-      <c r="DW1" s="1" t="inlineStr">
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>first_published</t>
         </is>
       </c>
-      <c r="DX1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>nomenclatural_remarks</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>geographic_area</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>lifeform_description</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>climate_description</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>accepted_plant_name_id</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>basionym_plant_name_id</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>replaced_synonym_author</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>homotypic_synonym</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>parent_plant_name_id</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>powo_id</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>hybrid_formula</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>reviewed</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>powo_url</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>native</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>introduced</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>regions</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>continents</t>
         </is>
@@ -1162,86 +1167,92 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>https://powo.science.kew.org/taxon/796556-1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Elettaria cardamomum</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>(L.) Maton</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Amomum cardamomum L.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>cardamoms</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>cardamom</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>the bright-green seed pods of an Indian plant; fruit of Elettaria cardamomum</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>the green seed pods of an Indian plant</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
         <is>
           <t>Bastard cardamom; Bengal cardamom; Cambodian cardamom; Cameroon cardamom; Ethiopian cardamom; Kepulaga; Madagascar cardamom; Nepaul cardamom</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>vanwyk_culinary_2014</t>
-        </is>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1</v>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>vanwyk_2014_culinary</t>
+        </is>
       </c>
       <c r="P2" t="n">
         <v>1</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="n">
         <v>7</v>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>Elettaria cardamomum</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>(L.) Maton</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>Amomum cardamomum L.</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr">
         <is>
           <t>spice</t>
@@ -1252,244 +1263,242 @@
           <t>culinary; medicinal</t>
         </is>
       </c>
-      <c r="AA2" t="inlineStr">
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Plantae</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>fruit &amp; seed</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
         <is>
           <t>https://en.wikipedia.org/wiki/Cardamom</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>https://www.britannica.com/plant/cardamom</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>true cardamom</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t xml:space="preserve">cardamom, -mon, -mum; green cardamom; true cardamom </t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>cardamom</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>Cardamom</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="inlineStr"/>
       <c r="AM2" t="inlineStr"/>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>cardamom; amomum; hal; qaqulla; doukou</t>
-        </is>
-      </c>
+      <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>Plantae</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>fruit (seed pod)</t>
-        </is>
-      </c>
+          <t>cardamom; amomum; hal; qaqulla; doukou</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr"/>
       <c r="AR2" t="inlineStr">
         <is>
+          <t>true cardamom</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
           <t>Kerala, S. India; southern Asia</t>
         </is>
       </c>
-      <c r="AS2" t="inlineStr"/>
-      <c r="AT2" t="n">
+      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" t="n">
         <v>10</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AV2" t="n">
         <v>77</v>
       </c>
-      <c r="AV2" t="inlineStr">
+      <c r="AW2" t="inlineStr">
         <is>
           <t>Kerala</t>
         </is>
       </c>
-      <c r="AW2" t="inlineStr">
+      <c r="AX2" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
       </c>
-      <c r="AX2" t="inlineStr">
+      <c r="AY2" t="inlineStr">
         <is>
           <t>Guatemala; India; Sri Lanka; Tanzania; Papua New Guinea</t>
         </is>
       </c>
-      <c r="AY2" t="inlineStr">
+      <c r="AZ2" t="inlineStr">
         <is>
           <t>green seed pods, brown seeds</t>
         </is>
       </c>
-      <c r="AZ2" t="inlineStr">
+      <c r="BA2" t="inlineStr">
         <is>
           <t>pungent, eucalyptus-like</t>
         </is>
       </c>
-      <c r="BA2" t="inlineStr">
+      <c r="BB2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="BB2" t="inlineStr">
+      <c r="BC2" t="inlineStr">
         <is>
           <t>desserts, coffees, curries</t>
         </is>
       </c>
-      <c r="BC2" t="inlineStr">
+      <c r="BD2" t="inlineStr">
         <is>
           <t>Köhler's Medizinal-Pflanzen</t>
         </is>
       </c>
-      <c r="BD2" t="inlineStr">
+      <c r="BE2" t="inlineStr">
         <is>
           <t>II 186</t>
         </is>
       </c>
-      <c r="BE2" t="inlineStr">
+      <c r="BF2" t="inlineStr">
         <is>
           <t>koehler_1887_koehler</t>
         </is>
       </c>
-      <c r="BF2" t="inlineStr">
+      <c r="BG2" t="inlineStr">
         <is>
           <t>https://www.biodiversitylibrary.org/item/10837#page/721/mode/1up</t>
         </is>
       </c>
-      <c r="BG2" t="inlineStr"/>
-      <c r="BH2" t="inlineStr">
+      <c r="BH2" t="inlineStr"/>
+      <c r="BI2" t="inlineStr">
         <is>
           <t>cardamom.n.01</t>
         </is>
       </c>
-      <c r="BI2" t="inlineStr">
+      <c r="BJ2" t="inlineStr">
         <is>
           <t>cardamom.n.02</t>
         </is>
       </c>
-      <c r="BJ2" t="inlineStr"/>
-      <c r="BK2" t="inlineStr">
+      <c r="BK2" t="inlineStr"/>
+      <c r="BL2" t="inlineStr">
         <is>
           <t>cardamom</t>
         </is>
       </c>
-      <c r="BL2" t="inlineStr">
+      <c r="BM2" t="inlineStr">
         <is>
           <t>true cardamom; green cardamom</t>
         </is>
       </c>
-      <c r="BM2" t="inlineStr">
+      <c r="BN2" t="inlineStr">
         <is>
           <t>هال</t>
         </is>
       </c>
-      <c r="BN2" t="inlineStr">
+      <c r="BO2" t="inlineStr">
         <is>
           <t>hāl</t>
         </is>
       </c>
-      <c r="BO2" t="inlineStr"/>
-      <c r="BP2" t="inlineStr">
+      <c r="BP2" t="inlineStr"/>
+      <c r="BQ2" t="inlineStr">
         <is>
           <t>هيل *hayl*</t>
         </is>
       </c>
-      <c r="BQ2" t="inlineStr">
+      <c r="BR2" t="inlineStr">
         <is>
           <t>小豆蔻</t>
         </is>
       </c>
-      <c r="BR2" t="inlineStr">
+      <c r="BS2" t="inlineStr">
         <is>
           <t>xiǎodòukòu</t>
         </is>
       </c>
-      <c r="BS2" t="inlineStr">
+      <c r="BT2" t="inlineStr">
         <is>
           <t>little-bean-cardamom</t>
         </is>
       </c>
-      <c r="BT2" t="inlineStr">
-        <is>
-          <t>豆蔻 [bean-cardamom]; 綠豆蔻 [green-bean-cardamom]</t>
-        </is>
-      </c>
       <c r="BU2" t="inlineStr">
         <is>
+          <t>綠豆蔻 [green-bean-cardamom]</t>
+        </is>
+      </c>
+      <c r="BV2" t="inlineStr">
+        <is>
           <t>荳蔻</t>
         </is>
       </c>
-      <c r="BV2" t="inlineStr">
+      <c r="BW2" t="inlineStr">
         <is>
           <t>kardamom</t>
         </is>
       </c>
-      <c r="BW2" t="inlineStr"/>
       <c r="BX2" t="inlineStr"/>
       <c r="BY2" t="inlineStr"/>
-      <c r="BZ2" t="inlineStr">
+      <c r="BZ2" t="inlineStr"/>
+      <c r="CA2" t="inlineStr">
         <is>
           <t>綠荳蔻</t>
         </is>
       </c>
-      <c r="CA2" t="inlineStr">
+      <c r="CB2" t="inlineStr">
         <is>
           <t>luk6 dau6 kau3</t>
         </is>
       </c>
-      <c r="CB2" t="inlineStr">
+      <c r="CC2" t="inlineStr">
         <is>
           <t>green-cardamom</t>
         </is>
       </c>
-      <c r="CC2" t="inlineStr"/>
       <c r="CD2" t="inlineStr"/>
-      <c r="CE2" t="inlineStr">
-        <is>
-          <t>Fructus Cardamomi</t>
-        </is>
-      </c>
-      <c r="CF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG2" t="inlineStr">
+      <c r="CE2" t="inlineStr"/>
+      <c r="CF2" t="inlineStr">
+        <is>
+          <t>Cardamomi Fructus</t>
+        </is>
+      </c>
+      <c r="CG2" t="inlineStr"/>
+      <c r="CH2" t="inlineStr">
         <is>
           <t>?</t>
         </is>
       </c>
-      <c r="CH2" t="inlineStr"/>
-      <c r="CI2" t="inlineStr">
+      <c r="CI2" t="inlineStr"/>
+      <c r="CJ2" t="inlineStr">
         <is>
           <t>小豆蔻</t>
         </is>
       </c>
-      <c r="CJ2" t="inlineStr">
+      <c r="CK2" t="inlineStr">
         <is>
           <t>xiǎo​dòu​kòu</t>
         </is>
       </c>
-      <c r="CK2" t="inlineStr">
+      <c r="CL2" t="inlineStr">
         <is>
           <t>Cardamom</t>
         </is>
       </c>
-      <c r="CL2" t="inlineStr"/>
       <c r="CM2" t="inlineStr"/>
       <c r="CN2" t="inlineStr"/>
       <c r="CO2" t="inlineStr"/>
@@ -1498,186 +1507,7789 @@
       <c r="CR2" t="inlineStr"/>
       <c r="CS2" t="inlineStr"/>
       <c r="CT2" t="inlineStr"/>
-      <c r="CU2" t="inlineStr">
+      <c r="CU2" t="inlineStr"/>
+      <c r="CV2" t="inlineStr">
         <is>
           <t>https://www.gbif.org/species/2759871</t>
         </is>
       </c>
-      <c r="CV2" t="inlineStr">
+      <c r="CW2" t="inlineStr">
         <is>
           <t>https://tropicos.org/name/34500572</t>
         </is>
       </c>
-      <c r="CW2" t="inlineStr">
+      <c r="CX2" t="inlineStr">
         <is>
           <t>https://eol.org/pages/1120064</t>
         </is>
       </c>
-      <c r="CX2" t="n">
+      <c r="CY2" t="n">
         <v>105181</v>
       </c>
-      <c r="CY2" t="inlineStr">
+      <c r="CZ2" t="inlineStr">
         <is>
           <t xml:space="preserve">इलायची </t>
         </is>
       </c>
-      <c r="CZ2" t="inlineStr">
+      <c r="DA2" t="inlineStr">
         <is>
           <t>ilāychī</t>
         </is>
       </c>
-      <c r="DA2" t="inlineStr"/>
       <c r="DB2" t="inlineStr"/>
-      <c r="DC2" t="inlineStr">
+      <c r="DC2" t="inlineStr"/>
+      <c r="DD2" t="inlineStr">
         <is>
           <t>kapulaga seberang</t>
         </is>
       </c>
-      <c r="DD2" t="inlineStr">
+      <c r="DE2" t="inlineStr">
         <is>
           <t>هل سبز</t>
         </is>
       </c>
-      <c r="DE2" t="inlineStr">
+      <c r="DF2" t="inlineStr">
         <is>
           <t>cardamom</t>
         </is>
       </c>
-      <c r="DF2" t="inlineStr">
+      <c r="DG2" t="inlineStr">
         <is>
           <t>https://partigabor.github.io/aromatica/items/cardamom</t>
         </is>
       </c>
-      <c r="DG2" t="inlineStr">
+      <c r="DH2" t="inlineStr">
         <is>
           <t>243056</t>
         </is>
       </c>
-      <c r="DH2" t="inlineStr">
+      <c r="DI2" t="inlineStr">
         <is>
           <t>796556-1</t>
         </is>
       </c>
-      <c r="DI2" t="inlineStr">
+      <c r="DJ2" t="inlineStr">
         <is>
           <t>Species</t>
         </is>
       </c>
-      <c r="DJ2" t="inlineStr">
+      <c r="DK2" t="inlineStr">
         <is>
           <t>Accepted</t>
         </is>
       </c>
-      <c r="DK2" t="inlineStr">
+      <c r="DL2" t="inlineStr">
         <is>
           <t>Zingiberaceae</t>
         </is>
       </c>
-      <c r="DL2" t="inlineStr"/>
-      <c r="DM2" t="inlineStr">
+      <c r="DM2" t="inlineStr"/>
+      <c r="DN2" t="inlineStr">
         <is>
           <t>Elettaria</t>
         </is>
       </c>
-      <c r="DN2" t="inlineStr"/>
-      <c r="DO2" t="inlineStr">
+      <c r="DO2" t="inlineStr"/>
+      <c r="DP2" t="inlineStr">
         <is>
           <t>cardamomum</t>
         </is>
       </c>
-      <c r="DP2" t="inlineStr"/>
       <c r="DQ2" t="inlineStr"/>
-      <c r="DR2" t="inlineStr">
+      <c r="DR2" t="inlineStr"/>
+      <c r="DS2" t="inlineStr">
         <is>
           <t>L.</t>
         </is>
       </c>
-      <c r="DS2" t="inlineStr">
+      <c r="DT2" t="inlineStr">
         <is>
           <t>Maton</t>
         </is>
       </c>
-      <c r="DT2" t="inlineStr"/>
-      <c r="DU2" t="inlineStr">
+      <c r="DU2" t="inlineStr"/>
+      <c r="DV2" t="inlineStr">
         <is>
           <t>Trans. Linn. Soc. London</t>
         </is>
       </c>
-      <c r="DV2" t="inlineStr">
+      <c r="DW2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 10: 254</t>
         </is>
       </c>
-      <c r="DW2" t="inlineStr">
+      <c r="DX2" t="inlineStr">
         <is>
           <t>(1811)</t>
         </is>
       </c>
-      <c r="DX2" t="inlineStr"/>
-      <c r="DY2" t="inlineStr">
+      <c r="DY2" t="inlineStr"/>
+      <c r="DZ2" t="inlineStr">
         <is>
           <t>SW. India</t>
         </is>
       </c>
-      <c r="DZ2" t="inlineStr">
+      <c r="EA2" t="inlineStr">
         <is>
           <t>rhizomatous geophyte</t>
         </is>
       </c>
-      <c r="EA2" t="inlineStr">
+      <c r="EB2" t="inlineStr">
         <is>
           <t>seasonally dry tropical</t>
         </is>
       </c>
-      <c r="EB2" t="inlineStr">
+      <c r="EC2" t="inlineStr">
         <is>
           <t>243056</t>
         </is>
       </c>
-      <c r="EC2" t="inlineStr">
+      <c r="ED2" t="inlineStr">
         <is>
           <t>219209</t>
         </is>
       </c>
-      <c r="ED2" t="inlineStr"/>
       <c r="EE2" t="inlineStr"/>
-      <c r="EF2" t="inlineStr">
+      <c r="EF2" t="inlineStr"/>
+      <c r="EG2" t="inlineStr">
         <is>
           <t>243049</t>
         </is>
       </c>
-      <c r="EG2" t="inlineStr">
+      <c r="EH2" t="inlineStr">
         <is>
           <t>796556-1</t>
         </is>
       </c>
-      <c r="EH2" t="inlineStr"/>
-      <c r="EI2" t="inlineStr">
+      <c r="EI2" t="inlineStr"/>
+      <c r="EJ2" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="EJ2" t="inlineStr">
+      <c r="EK2" t="inlineStr">
         <is>
           <t>https://powo.science.kew.org/taxon/796556-1</t>
         </is>
       </c>
-      <c r="EK2" t="inlineStr">
+      <c r="EL2" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="EL2" t="inlineStr">
+      <c r="EM2" t="inlineStr">
         <is>
           <t>Réunion, Bangladesh, Cambodia, Thailand, Vietnam, Lesser Sunda Is., Costa Rica, Trinidad-Tobago</t>
         </is>
       </c>
-      <c r="EM2" t="inlineStr">
+      <c r="EN2" t="inlineStr">
         <is>
           <t>Indian Subcontinent</t>
         </is>
       </c>
-      <c r="EN2" t="inlineStr">
+      <c r="EO2" t="inlineStr">
+        <is>
+          <t>Asia-Tropical</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>52</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://powo.science.kew.org/taxon/872166-1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Amomum subulatum</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Roxb.</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>cardamoms</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>black cardamom</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>the dark brown, smoked seed pods of a Himalayan plant</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>vanwyk_2014_culinary</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>culinary; medicinal</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Plantae</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>fruit &amp; seed</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Black_cardamom</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>black cardamom; brown cardamom; greater cardamom; Indian cardamom; Indian black cardamom; Nepal cardamom; Nepaul cardamom; Nepalese cardamom; Bengal cardamom; big cardamom; hill cardamon; winged cardamom; fake cardamom; false cardamom; amomum in Classical texts</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>brown cardamom; greater cardamom; Indian cardamom; Nepal cardamom; Indian black cardamom; Bengal cardamom; big cardamom; hill cardamon; winged cardamom; fake cardamom; false cardamom</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>Nepaul cardamom; Bengal cardamom; greater cardamom; amomum in Classical texts</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>Brown cardamom, Nepalese cardamom; False cardamom; Winged cardamom</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>black cardamom</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>kakola local name near Eastern Tibet</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>Himalayas</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AU3" t="n">
+        <v>28</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>85</v>
+      </c>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>Kathmandu</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>Himalayas</t>
+        </is>
+      </c>
+      <c r="AZ3" t="inlineStr">
+        <is>
+          <t>brown</t>
+        </is>
+      </c>
+      <c r="BA3" t="inlineStr">
+        <is>
+          <t>smoky</t>
+        </is>
+      </c>
+      <c r="BB3" t="inlineStr"/>
+      <c r="BC3" t="inlineStr"/>
+      <c r="BD3" t="inlineStr">
+        <is>
+          <t>Roxburgh's Plants of the coast of Coromandel</t>
+        </is>
+      </c>
+      <c r="BE3" t="inlineStr">
+        <is>
+          <t>III 277</t>
+        </is>
+      </c>
+      <c r="BF3" t="inlineStr">
+        <is>
+          <t>roxburgh_1819_plants</t>
+        </is>
+      </c>
+      <c r="BG3" t="inlineStr">
+        <is>
+          <t>https://www.biodiversitylibrary.org/item/9713#page/126/mode/1up</t>
+        </is>
+      </c>
+      <c r="BH3" t="inlineStr">
+        <is>
+          <t>https://tropical.theferns.info/viewtropical.php?id=Amomum+subulatum</t>
+        </is>
+      </c>
+      <c r="BI3" t="inlineStr"/>
+      <c r="BJ3" t="inlineStr"/>
+      <c r="BK3" t="inlineStr"/>
+      <c r="BL3" t="inlineStr">
+        <is>
+          <t>black cardamom</t>
+        </is>
+      </c>
+      <c r="BM3" t="inlineStr"/>
+      <c r="BN3" t="inlineStr">
+        <is>
+          <t>قاقلة</t>
+        </is>
+      </c>
+      <c r="BO3" t="inlineStr">
+        <is>
+          <t>qāqulla</t>
+        </is>
+      </c>
+      <c r="BP3" t="inlineStr"/>
+      <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>香豆蔻</t>
+        </is>
+      </c>
+      <c r="BS3" t="inlineStr">
+        <is>
+          <t>xiāngdòukòu</t>
+        </is>
+      </c>
+      <c r="BT3" t="inlineStr">
+        <is>
+          <t>fragrant-cardamom</t>
+        </is>
+      </c>
+      <c r="BU3" t="inlineStr">
+        <is>
+          <t>嘎哥拉 *gāgēlā*</t>
+        </is>
+      </c>
+      <c r="BV3" t="inlineStr"/>
+      <c r="BW3" t="inlineStr">
+        <is>
+          <t>fekete kardamom</t>
+        </is>
+      </c>
+      <c r="BX3" t="inlineStr">
+        <is>
+          <t>black cardamom</t>
+        </is>
+      </c>
+      <c r="BY3" t="inlineStr"/>
+      <c r="BZ3" t="inlineStr"/>
+      <c r="CA3" t="inlineStr">
+        <is>
+          <t>荳蔻（黑色）</t>
+        </is>
+      </c>
+      <c r="CB3" t="inlineStr"/>
+      <c r="CC3" t="inlineStr"/>
+      <c r="CD3" t="inlineStr"/>
+      <c r="CE3" t="inlineStr"/>
+      <c r="CF3" t="inlineStr"/>
+      <c r="CG3" t="inlineStr"/>
+      <c r="CH3" t="inlineStr"/>
+      <c r="CI3" t="inlineStr"/>
+      <c r="CJ3" t="inlineStr"/>
+      <c r="CK3" t="inlineStr"/>
+      <c r="CL3" t="inlineStr"/>
+      <c r="CM3" t="inlineStr"/>
+      <c r="CN3" t="inlineStr"/>
+      <c r="CO3" t="inlineStr"/>
+      <c r="CP3" t="inlineStr"/>
+      <c r="CQ3" t="inlineStr"/>
+      <c r="CR3" t="inlineStr">
+        <is>
+          <t>http://www.efloras.org/florataxon.aspx?flora_id=2&amp;taxon_id=200028341</t>
+        </is>
+      </c>
+      <c r="CS3" t="inlineStr"/>
+      <c r="CT3" t="inlineStr"/>
+      <c r="CU3" t="inlineStr"/>
+      <c r="CV3" t="inlineStr">
+        <is>
+          <t>https://www.gbif.org/species/5301632</t>
+        </is>
+      </c>
+      <c r="CW3" t="inlineStr"/>
+      <c r="CX3" t="inlineStr">
+        <is>
+          <t>https://eol.org/pages/1126561</t>
+        </is>
+      </c>
+      <c r="CY3" t="inlineStr"/>
+      <c r="CZ3" t="inlineStr">
+        <is>
+          <t>बड़ी इलाइची</t>
+        </is>
+      </c>
+      <c r="DA3" t="inlineStr">
+        <is>
+          <t>baḍī ilāicī</t>
+        </is>
+      </c>
+      <c r="DB3" t="inlineStr"/>
+      <c r="DC3" t="inlineStr"/>
+      <c r="DD3" t="inlineStr"/>
+      <c r="DE3" t="inlineStr"/>
+      <c r="DF3" t="inlineStr">
+        <is>
+          <t>black_cardamom</t>
+        </is>
+      </c>
+      <c r="DG3" t="inlineStr">
+        <is>
+          <t>https://partigabor.github.io/aromatica/items/black_cardamom</t>
+        </is>
+      </c>
+      <c r="DH3" t="inlineStr">
+        <is>
+          <t>219503</t>
+        </is>
+      </c>
+      <c r="DI3" t="inlineStr">
+        <is>
+          <t>872166-1</t>
+        </is>
+      </c>
+      <c r="DJ3" t="inlineStr">
+        <is>
+          <t>Species</t>
+        </is>
+      </c>
+      <c r="DK3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="DL3" t="inlineStr">
+        <is>
+          <t>Zingiberaceae</t>
+        </is>
+      </c>
+      <c r="DM3" t="inlineStr"/>
+      <c r="DN3" t="inlineStr">
+        <is>
+          <t>Amomum</t>
+        </is>
+      </c>
+      <c r="DO3" t="inlineStr"/>
+      <c r="DP3" t="inlineStr">
+        <is>
+          <t>subulatum</t>
+        </is>
+      </c>
+      <c r="DQ3" t="inlineStr"/>
+      <c r="DR3" t="inlineStr"/>
+      <c r="DS3" t="inlineStr"/>
+      <c r="DT3" t="inlineStr">
+        <is>
+          <t>Roxb.</t>
+        </is>
+      </c>
+      <c r="DU3" t="inlineStr"/>
+      <c r="DV3" t="inlineStr">
+        <is>
+          <t>Fl. Ind.</t>
+        </is>
+      </c>
+      <c r="DW3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1: 43</t>
+        </is>
+      </c>
+      <c r="DX3" t="inlineStr">
+        <is>
+          <t>(1820)</t>
+        </is>
+      </c>
+      <c r="DY3" t="inlineStr"/>
+      <c r="DZ3" t="inlineStr">
+        <is>
+          <t>Nepal to C. China</t>
+        </is>
+      </c>
+      <c r="EA3" t="inlineStr">
+        <is>
+          <t>rhizomatous geophyte</t>
+        </is>
+      </c>
+      <c r="EB3" t="inlineStr">
+        <is>
+          <t>wet tropical</t>
+        </is>
+      </c>
+      <c r="EC3" t="inlineStr">
+        <is>
+          <t>219503</t>
+        </is>
+      </c>
+      <c r="ED3" t="inlineStr"/>
+      <c r="EE3" t="inlineStr"/>
+      <c r="EF3" t="inlineStr"/>
+      <c r="EG3" t="inlineStr">
+        <is>
+          <t>219155</t>
+        </is>
+      </c>
+      <c r="EH3" t="inlineStr">
+        <is>
+          <t>872166-1</t>
+        </is>
+      </c>
+      <c r="EI3" t="inlineStr"/>
+      <c r="EJ3" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="EK3" t="inlineStr">
+        <is>
+          <t>https://powo.science.kew.org/taxon/872166-1</t>
+        </is>
+      </c>
+      <c r="EL3" t="inlineStr">
+        <is>
+          <t>China South-Central, China Southeast, Tibet, Assam, Bangladesh, East Himalaya, India, Nepal, Myanmar</t>
+        </is>
+      </c>
+      <c r="EM3" t="inlineStr"/>
+      <c r="EN3" t="inlineStr">
+        <is>
+          <t>China, Indian Subcontinent, Indo-China</t>
+        </is>
+      </c>
+      <c r="EO3" t="inlineStr">
+        <is>
+          <t>Asia-Temperate, Asia-Tropical</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>43</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://powo.science.kew.org/taxon/77178198-1</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Lanxangia tsao-ko</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>(Crevost &amp; Lemarié) M.F.Newman &amp; Skornick.</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Amomum hongtsaoko Liang et Fang; Amomum tsao-ko/Amomum tsok-ko Crevost et Lemaire</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>cardamoms</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>tsaoko</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>the dark brown fruits of Lanxangia tsao-ko from Yunnan, tsaoko</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>vanwyk_2014_culinary</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>culinary; medicinal</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Plantae</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>fruit &amp; seed</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>tsaoko; tsao-ko cardamom; large cardamom; caoguo; Yunnan cardamom</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>tsao-ko cardamom; large cardamom</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>caoguo {polyu}</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>102</v>
+      </c>
+      <c r="AW4" t="inlineStr"/>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="AZ4" t="inlineStr">
+        <is>
+          <t>brown</t>
+        </is>
+      </c>
+      <c r="BA4" t="inlineStr"/>
+      <c r="BB4" t="inlineStr"/>
+      <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="inlineStr"/>
+      <c r="BE4" t="inlineStr"/>
+      <c r="BF4" t="inlineStr"/>
+      <c r="BG4" t="inlineStr"/>
+      <c r="BH4" t="inlineStr"/>
+      <c r="BI4" t="inlineStr"/>
+      <c r="BJ4" t="inlineStr"/>
+      <c r="BK4" t="inlineStr"/>
+      <c r="BL4" t="inlineStr">
+        <is>
+          <t>tsaoko</t>
+        </is>
+      </c>
+      <c r="BM4" t="inlineStr"/>
+      <c r="BN4" t="inlineStr"/>
+      <c r="BO4" t="inlineStr"/>
+      <c r="BP4" t="inlineStr"/>
+      <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>草果</t>
+        </is>
+      </c>
+      <c r="BS4" t="inlineStr">
+        <is>
+          <t>cǎoguǒ</t>
+        </is>
+      </c>
+      <c r="BT4" t="inlineStr">
+        <is>
+          <t>herb-fruit</t>
+        </is>
+      </c>
+      <c r="BU4" t="inlineStr"/>
+      <c r="BV4" t="inlineStr"/>
+      <c r="BW4" t="inlineStr"/>
+      <c r="BX4" t="inlineStr"/>
+      <c r="BY4" t="inlineStr"/>
+      <c r="BZ4" t="inlineStr"/>
+      <c r="CA4" t="inlineStr"/>
+      <c r="CB4" t="inlineStr"/>
+      <c r="CC4" t="inlineStr"/>
+      <c r="CD4" t="inlineStr"/>
+      <c r="CE4" t="inlineStr"/>
+      <c r="CF4" t="inlineStr">
+        <is>
+          <t>Tsaoko Fructus</t>
+        </is>
+      </c>
+      <c r="CG4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH4" t="inlineStr">
+        <is>
+          <t>polyu-tcm</t>
+        </is>
+      </c>
+      <c r="CI4" t="inlineStr">
+        <is>
+          <t>https://herbaltcm.sn.polyu.edu.hk/herbal/caoguo</t>
+        </is>
+      </c>
+      <c r="CJ4" t="inlineStr">
+        <is>
+          <t>草果</t>
+        </is>
+      </c>
+      <c r="CK4" t="inlineStr">
+        <is>
+          <t>cǎoguǒ</t>
+        </is>
+      </c>
+      <c r="CL4" t="inlineStr">
+        <is>
+          <t>Caoguo</t>
+        </is>
+      </c>
+      <c r="CM4" t="inlineStr">
+        <is>
+          <t>Dried ripe fruit of Amomum tsok-ko Crevost et Lemaire (Fam. Zingiberaceae)</t>
+        </is>
+      </c>
+      <c r="CN4" t="inlineStr">
+        <is>
+          <t>Dampness-resolving medicinal</t>
+        </is>
+      </c>
+      <c r="CO4" t="inlineStr">
+        <is>
+          <t>pungent; warm</t>
+        </is>
+      </c>
+      <c r="CP4" t="inlineStr">
+        <is>
+          <t>Spleen, Stomach</t>
+        </is>
+      </c>
+      <c r="CQ4" t="inlineStr">
+        <is>
+          <t>To dry cold-damp and warm the middle-enerqizer, dispel phlegm and cure malaria</t>
+        </is>
+      </c>
+      <c r="CR4" t="inlineStr">
+        <is>
+          <t>http://www.efloras.org/florataxon.aspx?flora_id=2&amp;taxon_id=240001100</t>
+        </is>
+      </c>
+      <c r="CS4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="CT4" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="CU4" t="inlineStr"/>
+      <c r="CV4" t="inlineStr"/>
+      <c r="CW4" t="inlineStr"/>
+      <c r="CX4" t="inlineStr"/>
+      <c r="CY4" t="inlineStr"/>
+      <c r="CZ4" t="inlineStr"/>
+      <c r="DA4" t="inlineStr"/>
+      <c r="DB4" t="inlineStr"/>
+      <c r="DC4" t="inlineStr"/>
+      <c r="DD4" t="inlineStr"/>
+      <c r="DE4" t="inlineStr"/>
+      <c r="DF4" t="inlineStr">
+        <is>
+          <t>tsaoko</t>
+        </is>
+      </c>
+      <c r="DG4" t="inlineStr">
+        <is>
+          <t>https://partigabor.github.io/aromatica/items/tsaoko</t>
+        </is>
+      </c>
+      <c r="DH4" t="inlineStr"/>
+      <c r="DI4" t="inlineStr"/>
+      <c r="DJ4" t="inlineStr"/>
+      <c r="DK4" t="inlineStr"/>
+      <c r="DL4" t="inlineStr"/>
+      <c r="DM4" t="inlineStr"/>
+      <c r="DN4" t="inlineStr"/>
+      <c r="DO4" t="inlineStr"/>
+      <c r="DP4" t="inlineStr"/>
+      <c r="DQ4" t="inlineStr"/>
+      <c r="DR4" t="inlineStr"/>
+      <c r="DS4" t="inlineStr"/>
+      <c r="DT4" t="inlineStr"/>
+      <c r="DU4" t="inlineStr"/>
+      <c r="DV4" t="inlineStr"/>
+      <c r="DW4" t="inlineStr"/>
+      <c r="DX4" t="inlineStr"/>
+      <c r="DY4" t="inlineStr"/>
+      <c r="DZ4" t="inlineStr"/>
+      <c r="EA4" t="inlineStr"/>
+      <c r="EB4" t="inlineStr"/>
+      <c r="EC4" t="inlineStr"/>
+      <c r="ED4" t="inlineStr"/>
+      <c r="EE4" t="inlineStr"/>
+      <c r="EF4" t="inlineStr"/>
+      <c r="EG4" t="inlineStr"/>
+      <c r="EH4" t="inlineStr"/>
+      <c r="EI4" t="inlineStr"/>
+      <c r="EJ4" t="inlineStr"/>
+      <c r="EK4" t="inlineStr"/>
+      <c r="EL4" t="inlineStr"/>
+      <c r="EM4" t="inlineStr"/>
+      <c r="EN4" t="inlineStr"/>
+      <c r="EO4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>31</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://powo.science.kew.org/taxon/795288-1</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Alpinia hainanensis</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>K.Schum.</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Alpinia katsumadai Hayata</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>cardamoms</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>katsumada galangal seed</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>the light brown, brain-shaped fruits of Alpinia hainanensis used in TCM</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>polyu_2022_chinese</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="n">
+        <v>1</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>medicinal</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Plantae</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>fruit &amp; seed</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>https://zh.wikipedia.org/wiki/%E8%8D%89%E8%B1%86%E8%94%BB</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>katsumada galangal seed</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>Katsumada Galangal Seed {polyu}</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>海南山姜</t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>S. China; Vietnam</t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="inlineStr"/>
+      <c r="AV5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr"/>
+      <c r="AX5" t="inlineStr"/>
+      <c r="AY5" t="inlineStr"/>
+      <c r="AZ5" t="inlineStr"/>
+      <c r="BA5" t="inlineStr"/>
+      <c r="BB5" t="inlineStr"/>
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="inlineStr"/>
+      <c r="BE5" t="inlineStr"/>
+      <c r="BF5" t="inlineStr"/>
+      <c r="BG5" t="inlineStr"/>
+      <c r="BH5" t="inlineStr"/>
+      <c r="BI5" t="inlineStr"/>
+      <c r="BJ5" t="inlineStr"/>
+      <c r="BK5" t="inlineStr"/>
+      <c r="BL5" t="inlineStr"/>
+      <c r="BM5" t="inlineStr"/>
+      <c r="BN5" t="inlineStr"/>
+      <c r="BO5" t="inlineStr"/>
+      <c r="BP5" t="inlineStr"/>
+      <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>草豆蔻</t>
+        </is>
+      </c>
+      <c r="BS5" t="inlineStr">
+        <is>
+          <t>cǎodòukòu</t>
+        </is>
+      </c>
+      <c r="BT5" t="inlineStr">
+        <is>
+          <t>herb-cardamom</t>
+        </is>
+      </c>
+      <c r="BU5" t="inlineStr"/>
+      <c r="BV5" t="inlineStr"/>
+      <c r="BW5" t="inlineStr"/>
+      <c r="BX5" t="inlineStr"/>
+      <c r="BY5" t="inlineStr"/>
+      <c r="BZ5" t="inlineStr"/>
+      <c r="CA5" t="inlineStr"/>
+      <c r="CB5" t="inlineStr"/>
+      <c r="CC5" t="inlineStr"/>
+      <c r="CD5" t="inlineStr"/>
+      <c r="CE5" t="inlineStr"/>
+      <c r="CF5" t="inlineStr">
+        <is>
+          <t>Alpiniae Katsumdai Semen</t>
+        </is>
+      </c>
+      <c r="CG5" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH5" t="inlineStr">
+        <is>
+          <t>polyu-tcm</t>
+        </is>
+      </c>
+      <c r="CI5" t="inlineStr">
+        <is>
+          <t>https://herbaltcm.sn.polyu.edu.hk/en/herbal/katsumada-galangal-seed</t>
+        </is>
+      </c>
+      <c r="CJ5" t="inlineStr">
+        <is>
+          <t>草豆蔻</t>
+        </is>
+      </c>
+      <c r="CK5" t="inlineStr">
+        <is>
+          <t>cǎodòukòu</t>
+        </is>
+      </c>
+      <c r="CL5" t="inlineStr">
+        <is>
+          <t>Katsumada Galangal Seed</t>
+        </is>
+      </c>
+      <c r="CM5" t="inlineStr">
+        <is>
+          <t>Dried almost ripe seed of Alpinia katsumadai Hayata (Fam. Zingiberaceae)</t>
+        </is>
+      </c>
+      <c r="CN5" t="inlineStr">
+        <is>
+          <t>Dampness-resolving medicinal</t>
+        </is>
+      </c>
+      <c r="CO5" t="inlineStr">
+        <is>
+          <t>pungent; warm</t>
+        </is>
+      </c>
+      <c r="CP5" t="inlineStr">
+        <is>
+          <t>Spleen, Stomach</t>
+        </is>
+      </c>
+      <c r="CQ5" t="inlineStr">
+        <is>
+          <t>To remove damp, invigorate the spleen function, warm the stomach and arrest vomiting</t>
+        </is>
+      </c>
+      <c r="CR5" t="inlineStr">
+        <is>
+          <t>http://www.efloras.org/florataxon.aspx?flora_id=2&amp;taxon_id=200028274</t>
+        </is>
+      </c>
+      <c r="CS5" t="inlineStr"/>
+      <c r="CT5" t="inlineStr"/>
+      <c r="CU5" t="inlineStr"/>
+      <c r="CV5" t="inlineStr"/>
+      <c r="CW5" t="inlineStr"/>
+      <c r="CX5" t="inlineStr"/>
+      <c r="CY5" t="inlineStr"/>
+      <c r="CZ5" t="inlineStr"/>
+      <c r="DA5" t="inlineStr"/>
+      <c r="DB5" t="inlineStr"/>
+      <c r="DC5" t="inlineStr"/>
+      <c r="DD5" t="inlineStr"/>
+      <c r="DE5" t="inlineStr"/>
+      <c r="DF5" t="inlineStr">
+        <is>
+          <t>katsumada_galangal_seed</t>
+        </is>
+      </c>
+      <c r="DG5" t="inlineStr">
+        <is>
+          <t>https://partigabor.github.io/aromatica/items/katsumada_galangal_seed</t>
+        </is>
+      </c>
+      <c r="DH5" t="inlineStr">
+        <is>
+          <t>218813</t>
+        </is>
+      </c>
+      <c r="DI5" t="inlineStr">
+        <is>
+          <t>795288-1</t>
+        </is>
+      </c>
+      <c r="DJ5" t="inlineStr">
+        <is>
+          <t>Species</t>
+        </is>
+      </c>
+      <c r="DK5" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="DL5" t="inlineStr">
+        <is>
+          <t>Zingiberaceae</t>
+        </is>
+      </c>
+      <c r="DM5" t="inlineStr"/>
+      <c r="DN5" t="inlineStr">
+        <is>
+          <t>Alpinia</t>
+        </is>
+      </c>
+      <c r="DO5" t="inlineStr"/>
+      <c r="DP5" t="inlineStr">
+        <is>
+          <t>hainanensis</t>
+        </is>
+      </c>
+      <c r="DQ5" t="inlineStr"/>
+      <c r="DR5" t="inlineStr"/>
+      <c r="DS5" t="inlineStr"/>
+      <c r="DT5" t="inlineStr">
+        <is>
+          <t>K.Schum.</t>
+        </is>
+      </c>
+      <c r="DU5" t="inlineStr">
+        <is>
+          <t>H.G.A.Engler (ed.)</t>
+        </is>
+      </c>
+      <c r="DV5" t="inlineStr">
+        <is>
+          <t>Pflanzenr.</t>
+        </is>
+      </c>
+      <c r="DW5" t="inlineStr">
+        <is>
+          <t>, IV, 46: 335</t>
+        </is>
+      </c>
+      <c r="DX5" t="inlineStr">
+        <is>
+          <t>(1904)</t>
+        </is>
+      </c>
+      <c r="DY5" t="inlineStr"/>
+      <c r="DZ5" t="inlineStr">
+        <is>
+          <t>SE. China to Vietnam</t>
+        </is>
+      </c>
+      <c r="EA5" t="inlineStr">
+        <is>
+          <t>rhizomatous geophyte</t>
+        </is>
+      </c>
+      <c r="EB5" t="inlineStr">
+        <is>
+          <t>wet tropical</t>
+        </is>
+      </c>
+      <c r="EC5" t="inlineStr">
+        <is>
+          <t>218813</t>
+        </is>
+      </c>
+      <c r="ED5" t="inlineStr"/>
+      <c r="EE5" t="inlineStr"/>
+      <c r="EF5" t="inlineStr"/>
+      <c r="EG5" t="inlineStr">
+        <is>
+          <t>218628</t>
+        </is>
+      </c>
+      <c r="EH5" t="inlineStr">
+        <is>
+          <t>795288-1</t>
+        </is>
+      </c>
+      <c r="EI5" t="inlineStr"/>
+      <c r="EJ5" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="EK5" t="inlineStr">
+        <is>
+          <t>https://powo.science.kew.org/taxon/795288-1</t>
+        </is>
+      </c>
+      <c r="EL5" t="inlineStr">
+        <is>
+          <t>Hainan, China Southeast, Vietnam</t>
+        </is>
+      </c>
+      <c r="EM5" t="inlineStr"/>
+      <c r="EN5" t="inlineStr">
+        <is>
+          <t>China, Indo-China</t>
+        </is>
+      </c>
+      <c r="EO5" t="inlineStr">
+        <is>
+          <t>Asia-Temperate, Asia-Tropical</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>43</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://powo.science.kew.org/taxon/795279-1</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Alpinia galanga</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>(L.) Willd.</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>cardamoms</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>greater galangal</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>the rhizomes of a tropical, medicinal plant; the seeds are used in TCM</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>vanwyk_2014_culinary</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W6" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>culinary; medicinal</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Plantae</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>rhizome; fruit</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>greater galangal; galangal; greater galanga; galanga; galingale; laos;lengkuas</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>galangal; greater galangal</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>Greater galanga, galanga, laos, lengkuas, +galingale</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>galingale</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>Trop As</t>
+        </is>
+      </c>
+      <c r="AT6" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="AU6" t="inlineStr"/>
+      <c r="AV6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr"/>
+      <c r="AX6" t="inlineStr"/>
+      <c r="AY6" t="inlineStr"/>
+      <c r="AZ6" t="inlineStr"/>
+      <c r="BA6" t="inlineStr">
+        <is>
+          <t>gingery, camphor-like</t>
+        </is>
+      </c>
+      <c r="BB6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BC6" t="inlineStr">
+        <is>
+          <t>Indonesian curries; anti-emetic</t>
+        </is>
+      </c>
+      <c r="BD6" t="inlineStr"/>
+      <c r="BE6" t="inlineStr"/>
+      <c r="BF6" t="inlineStr"/>
+      <c r="BG6" t="inlineStr"/>
+      <c r="BH6" t="inlineStr"/>
+      <c r="BI6" t="inlineStr"/>
+      <c r="BJ6" t="inlineStr"/>
+      <c r="BK6" t="inlineStr"/>
+      <c r="BL6" t="inlineStr"/>
+      <c r="BM6" t="inlineStr"/>
+      <c r="BN6" t="inlineStr">
+        <is>
+          <t>خولنجان</t>
+        </is>
+      </c>
+      <c r="BO6" t="inlineStr">
+        <is>
+          <t>khūlanjān, khawlanjān</t>
+        </is>
+      </c>
+      <c r="BP6" t="inlineStr">
+        <is>
+          <t>amar_arabian_2017</t>
+        </is>
+      </c>
+      <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>红豆蔻</t>
+        </is>
+      </c>
+      <c r="BS6" t="inlineStr">
+        <is>
+          <t>hóngdòukòu</t>
+        </is>
+      </c>
+      <c r="BT6" t="inlineStr">
+        <is>
+          <t>red-cardamom</t>
+        </is>
+      </c>
+      <c r="BU6" t="inlineStr"/>
+      <c r="BV6" t="inlineStr"/>
+      <c r="BW6" t="inlineStr"/>
+      <c r="BX6" t="inlineStr"/>
+      <c r="BY6" t="inlineStr"/>
+      <c r="BZ6" t="inlineStr"/>
+      <c r="CA6" t="inlineStr"/>
+      <c r="CB6" t="inlineStr"/>
+      <c r="CC6" t="inlineStr"/>
+      <c r="CD6" t="inlineStr"/>
+      <c r="CE6" t="inlineStr"/>
+      <c r="CF6" t="inlineStr">
+        <is>
+          <t>Galangae Fructus</t>
+        </is>
+      </c>
+      <c r="CG6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH6" t="inlineStr">
+        <is>
+          <t>polyu-tcm</t>
+        </is>
+      </c>
+      <c r="CI6" t="inlineStr">
+        <is>
+          <t>https://herbaltcm.sn.polyu.edu.hk/herbal/galangal-fruit</t>
+        </is>
+      </c>
+      <c r="CJ6" t="inlineStr">
+        <is>
+          <t>红豆蔻</t>
+        </is>
+      </c>
+      <c r="CK6" t="inlineStr">
+        <is>
+          <t>hóngdòukòu</t>
+        </is>
+      </c>
+      <c r="CL6" t="inlineStr">
+        <is>
+          <t>Galangal Fruit</t>
+        </is>
+      </c>
+      <c r="CM6" t="inlineStr">
+        <is>
+          <t>Dried ripe fruit of Alpinia galanga Willd. (Fam. Zingiberaceae)</t>
+        </is>
+      </c>
+      <c r="CN6" t="inlineStr">
+        <is>
+          <t>Dampness-resolving medicinal</t>
+        </is>
+      </c>
+      <c r="CO6" t="inlineStr">
+        <is>
+          <t>pungent; warm</t>
+        </is>
+      </c>
+      <c r="CP6" t="inlineStr">
+        <is>
+          <t>Spleen, Lung</t>
+        </is>
+      </c>
+      <c r="CQ6" t="inlineStr">
+        <is>
+          <t>To dispel damp-cold, invigorate the function of the spleen, and promote disgestion</t>
+        </is>
+      </c>
+      <c r="CR6" t="inlineStr">
+        <is>
+          <t>http://www.efloras.org/florataxon.aspx?flora_id=2&amp;taxon_id=200028269</t>
+        </is>
+      </c>
+      <c r="CS6" t="inlineStr"/>
+      <c r="CT6" t="inlineStr"/>
+      <c r="CU6" t="inlineStr"/>
+      <c r="CV6" t="inlineStr"/>
+      <c r="CW6" t="inlineStr"/>
+      <c r="CX6" t="inlineStr"/>
+      <c r="CY6" t="inlineStr"/>
+      <c r="CZ6" t="inlineStr"/>
+      <c r="DA6" t="inlineStr"/>
+      <c r="DB6" t="inlineStr"/>
+      <c r="DC6" t="inlineStr"/>
+      <c r="DD6" t="inlineStr"/>
+      <c r="DE6" t="inlineStr"/>
+      <c r="DF6" t="inlineStr">
+        <is>
+          <t>greater_galangal</t>
+        </is>
+      </c>
+      <c r="DG6" t="inlineStr">
+        <is>
+          <t>https://partigabor.github.io/aromatica/items/greater_galangal</t>
+        </is>
+      </c>
+      <c r="DH6" t="inlineStr">
+        <is>
+          <t>218790</t>
+        </is>
+      </c>
+      <c r="DI6" t="inlineStr">
+        <is>
+          <t>795279-1</t>
+        </is>
+      </c>
+      <c r="DJ6" t="inlineStr">
+        <is>
+          <t>Species</t>
+        </is>
+      </c>
+      <c r="DK6" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="DL6" t="inlineStr">
+        <is>
+          <t>Zingiberaceae</t>
+        </is>
+      </c>
+      <c r="DM6" t="inlineStr"/>
+      <c r="DN6" t="inlineStr">
+        <is>
+          <t>Alpinia</t>
+        </is>
+      </c>
+      <c r="DO6" t="inlineStr"/>
+      <c r="DP6" t="inlineStr">
+        <is>
+          <t>galanga</t>
+        </is>
+      </c>
+      <c r="DQ6" t="inlineStr"/>
+      <c r="DR6" t="inlineStr"/>
+      <c r="DS6" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="DT6" t="inlineStr">
+        <is>
+          <t>Willd.</t>
+        </is>
+      </c>
+      <c r="DU6" t="inlineStr"/>
+      <c r="DV6" t="inlineStr">
+        <is>
+          <t>Sp. Pl., ed. 4.</t>
+        </is>
+      </c>
+      <c r="DW6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1: 12</t>
+        </is>
+      </c>
+      <c r="DX6" t="inlineStr">
+        <is>
+          <t>(1797)</t>
+        </is>
+      </c>
+      <c r="DY6" t="inlineStr"/>
+      <c r="DZ6" t="inlineStr">
+        <is>
+          <t>S. China to W. &amp; C. Malesia</t>
+        </is>
+      </c>
+      <c r="EA6" t="inlineStr">
+        <is>
+          <t>rhizomatous geophyte</t>
+        </is>
+      </c>
+      <c r="EB6" t="inlineStr">
+        <is>
+          <t>wet tropical</t>
+        </is>
+      </c>
+      <c r="EC6" t="inlineStr">
+        <is>
+          <t>218790</t>
+        </is>
+      </c>
+      <c r="ED6" t="inlineStr">
+        <is>
+          <t>253319</t>
+        </is>
+      </c>
+      <c r="EE6" t="inlineStr"/>
+      <c r="EF6" t="inlineStr"/>
+      <c r="EG6" t="inlineStr">
+        <is>
+          <t>218628</t>
+        </is>
+      </c>
+      <c r="EH6" t="inlineStr">
+        <is>
+          <t>795279-1</t>
+        </is>
+      </c>
+      <c r="EI6" t="inlineStr"/>
+      <c r="EJ6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="EK6" t="inlineStr">
+        <is>
+          <t>https://powo.science.kew.org/taxon/795279-1</t>
+        </is>
+      </c>
+      <c r="EL6" t="inlineStr">
+        <is>
+          <t>China South-Central, Hainan, China Southeast, Assam, Bangladesh, Cambodia, Myanmar, Thailand, Vietnam, Borneo, Jawa, Malaya, Philippines, Sumatera</t>
+        </is>
+      </c>
+      <c r="EM6" t="inlineStr">
+        <is>
+          <t>Taiwan, India, Sri Lanka</t>
+        </is>
+      </c>
+      <c r="EN6" t="inlineStr">
+        <is>
+          <t>China, Indian Subcontinent, Indo-China, Malesia</t>
+        </is>
+      </c>
+      <c r="EO6" t="inlineStr">
+        <is>
+          <t>Asia-Temperate, Asia-Tropical</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>44</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://powo.science.kew.org/taxon/77178274-1</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Wurfbainia compacta</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>(Sol. ex Maton) Škorničk. &amp; A.D.Poulsen</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Amomum compactum Sol. ex Maton; Amomum kepulaga Sprague &amp; Burkill</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>cardamoms</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>kepulaga</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>the white fruits of Wurfbania compacta from Sumatra and Java</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>white cardamom</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>vanwyk_2014_culinary</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>culinary</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>*white cardamom* can also refer to the bleached fruits of green cardamom</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Plantae</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>fruit &amp; seed</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>kepulaga; Indonesian cardamom; round cardamom; Java round cardamom; Java white cardamom</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>Indonesian cardamom; round cardamom</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>Kepulaga, round cardamom, Siam cardamom</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>Java round cardamom {polyu}</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="inlineStr"/>
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>Sumatra to W. Jawa</t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AU7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>105</v>
+      </c>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Palembang</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+      <c r="AZ7" t="inlineStr">
+        <is>
+          <t>white</t>
+        </is>
+      </c>
+      <c r="BA7" t="inlineStr"/>
+      <c r="BB7" t="inlineStr"/>
+      <c r="BC7" t="inlineStr"/>
+      <c r="BD7" t="inlineStr"/>
+      <c r="BE7" t="inlineStr"/>
+      <c r="BF7" t="inlineStr"/>
+      <c r="BG7" t="inlineStr"/>
+      <c r="BH7" t="inlineStr"/>
+      <c r="BI7" t="inlineStr"/>
+      <c r="BJ7" t="inlineStr"/>
+      <c r="BK7" t="inlineStr"/>
+      <c r="BL7" t="inlineStr"/>
+      <c r="BM7" t="inlineStr"/>
+      <c r="BN7" t="inlineStr"/>
+      <c r="BO7" t="inlineStr"/>
+      <c r="BP7" t="inlineStr"/>
+      <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr">
+        <is>
+          <t>爪哇白豆蔻</t>
+        </is>
+      </c>
+      <c r="BS7" t="inlineStr">
+        <is>
+          <t>zhǎowā báidòukòu</t>
+        </is>
+      </c>
+      <c r="BT7" t="inlineStr">
+        <is>
+          <t>Java-white-cardamom</t>
+        </is>
+      </c>
+      <c r="BU7" t="inlineStr"/>
+      <c r="BV7" t="inlineStr"/>
+      <c r="BW7" t="inlineStr"/>
+      <c r="BX7" t="inlineStr"/>
+      <c r="BY7" t="inlineStr"/>
+      <c r="BZ7" t="inlineStr"/>
+      <c r="CA7" t="inlineStr"/>
+      <c r="CB7" t="inlineStr"/>
+      <c r="CC7" t="inlineStr"/>
+      <c r="CD7" t="inlineStr"/>
+      <c r="CE7" t="inlineStr"/>
+      <c r="CF7" t="inlineStr">
+        <is>
+          <t>Amomi Fructus Rotundus</t>
+        </is>
+      </c>
+      <c r="CG7" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH7" t="inlineStr">
+        <is>
+          <t>polyu-tcm</t>
+        </is>
+      </c>
+      <c r="CI7" t="inlineStr">
+        <is>
+          <t>https://herbaltcm.sn.polyu.edu.hk/herbal/round-cardamon-fruit</t>
+        </is>
+      </c>
+      <c r="CJ7" t="inlineStr">
+        <is>
+          <t>豆蔻</t>
+        </is>
+      </c>
+      <c r="CK7" t="inlineStr">
+        <is>
+          <t>dòukòu</t>
+        </is>
+      </c>
+      <c r="CL7" t="inlineStr">
+        <is>
+          <t>Round Cardamon Fruit</t>
+        </is>
+      </c>
+      <c r="CM7" t="inlineStr">
+        <is>
+          <t>Dried ripe fruit of Amomum kravanh Pierre ex Gagnep. or Amomum compactum Soland ex Maton (Fam. Zingiberaceae)</t>
+        </is>
+      </c>
+      <c r="CN7" t="inlineStr">
+        <is>
+          <t>Dampness-resolving medicinal</t>
+        </is>
+      </c>
+      <c r="CO7" t="inlineStr">
+        <is>
+          <t>pungent; warm</t>
+        </is>
+      </c>
+      <c r="CP7" t="inlineStr">
+        <is>
+          <t>Spleen, Lung, Stomach</t>
+        </is>
+      </c>
+      <c r="CQ7" t="inlineStr">
+        <is>
+          <t>To resolve damp, remove retained food, promote the flow of qi and warm the spleen and stomach topromote digestion</t>
+        </is>
+      </c>
+      <c r="CR7" t="inlineStr">
+        <is>
+          <t>http://www.efloras.org/florataxon.aspx?flora_id=2&amp;taxon_id=200028314</t>
+        </is>
+      </c>
+      <c r="CS7" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="CT7" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="CU7" t="inlineStr"/>
+      <c r="CV7" t="inlineStr"/>
+      <c r="CW7" t="inlineStr"/>
+      <c r="CX7" t="inlineStr"/>
+      <c r="CY7" t="inlineStr"/>
+      <c r="CZ7" t="inlineStr"/>
+      <c r="DA7" t="inlineStr"/>
+      <c r="DB7" t="inlineStr"/>
+      <c r="DC7" t="inlineStr"/>
+      <c r="DD7" t="inlineStr"/>
+      <c r="DE7" t="inlineStr"/>
+      <c r="DF7" t="inlineStr">
+        <is>
+          <t>kepulaga</t>
+        </is>
+      </c>
+      <c r="DG7" t="inlineStr">
+        <is>
+          <t>https://partigabor.github.io/aromatica/items/kepulaga</t>
+        </is>
+      </c>
+      <c r="DH7" t="inlineStr">
+        <is>
+          <t>532062</t>
+        </is>
+      </c>
+      <c r="DI7" t="inlineStr">
+        <is>
+          <t>77178274-1</t>
+        </is>
+      </c>
+      <c r="DJ7" t="inlineStr">
+        <is>
+          <t>Species</t>
+        </is>
+      </c>
+      <c r="DK7" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="DL7" t="inlineStr">
+        <is>
+          <t>Zingiberaceae</t>
+        </is>
+      </c>
+      <c r="DM7" t="inlineStr"/>
+      <c r="DN7" t="inlineStr">
+        <is>
+          <t>Wurfbainia</t>
+        </is>
+      </c>
+      <c r="DO7" t="inlineStr"/>
+      <c r="DP7" t="inlineStr">
+        <is>
+          <t>compacta</t>
+        </is>
+      </c>
+      <c r="DQ7" t="inlineStr"/>
+      <c r="DR7" t="inlineStr"/>
+      <c r="DS7" t="inlineStr">
+        <is>
+          <t>Sol. ex Maton</t>
+        </is>
+      </c>
+      <c r="DT7" t="inlineStr">
+        <is>
+          <t>Škorničk. &amp; A.D.Poulsen</t>
+        </is>
+      </c>
+      <c r="DU7" t="inlineStr"/>
+      <c r="DV7" t="inlineStr">
+        <is>
+          <t>Taxon</t>
+        </is>
+      </c>
+      <c r="DW7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 67: 29</t>
+        </is>
+      </c>
+      <c r="DX7" t="inlineStr">
+        <is>
+          <t>(2018)</t>
+        </is>
+      </c>
+      <c r="DY7" t="inlineStr"/>
+      <c r="DZ7" t="inlineStr">
+        <is>
+          <t>Sumatera to W. Jawa</t>
+        </is>
+      </c>
+      <c r="EA7" t="inlineStr">
+        <is>
+          <t>rhizomatous geophyte</t>
+        </is>
+      </c>
+      <c r="EB7" t="inlineStr">
+        <is>
+          <t>wet tropical</t>
+        </is>
+      </c>
+      <c r="EC7" t="inlineStr">
+        <is>
+          <t>532062</t>
+        </is>
+      </c>
+      <c r="ED7" t="inlineStr">
+        <is>
+          <t>219227</t>
+        </is>
+      </c>
+      <c r="EE7" t="inlineStr"/>
+      <c r="EF7" t="inlineStr"/>
+      <c r="EG7" t="inlineStr">
+        <is>
+          <t>272434</t>
+        </is>
+      </c>
+      <c r="EH7" t="inlineStr">
+        <is>
+          <t>77178274-1</t>
+        </is>
+      </c>
+      <c r="EI7" t="inlineStr"/>
+      <c r="EJ7" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="EK7" t="inlineStr">
+        <is>
+          <t>https://powo.science.kew.org/taxon/77178274-1</t>
+        </is>
+      </c>
+      <c r="EL7" t="inlineStr">
+        <is>
+          <t>Jawa, Sumatera</t>
+        </is>
+      </c>
+      <c r="EM7" t="inlineStr">
+        <is>
+          <t>China South-Central, Hainan, India, Lesser Sunda Is., Malaya</t>
+        </is>
+      </c>
+      <c r="EN7" t="inlineStr">
+        <is>
+          <t>Malesia</t>
+        </is>
+      </c>
+      <c r="EO7" t="inlineStr">
+        <is>
+          <t>Asia-Tropical</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>47</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://powo.science.kew.org/taxon/77178294-1</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Wurfbainia vera</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>(Blackw.) Škorničk. &amp; A.D.Poulsen</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Amomum krervanh Pierre &amp; Gagnep.; Amomum kravanh Pierre ex Gagnep.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>cardamoms</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Siam cardamom</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>the white fuits of Wurfbainia vera from Indochina</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Java white cardamom</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>vanwyk_2014_culinary</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>culinary; medicinal</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>the first plant species named by a woman</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Plantae</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>fruit &amp; seed</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Wurfbainia_vera</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>Cambodian cardamom; krervanh; Siam cardamom; Thai cardamom; round cardamom</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>Cambodian cardamom; krervanh; Siam cardamom</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>Siam cardamom; Cambodian cardamom</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>Thai cardamom; round cardamom</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="inlineStr">
+        <is>
+          <t>https://uses.plantnet-project.org/en/Amomum_krervanh_(PROSEA)</t>
+        </is>
+      </c>
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t>Trop. Asia; SEA; Indochina</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr">
+        <is>
+          <t>Indochina</t>
+        </is>
+      </c>
+      <c r="AU8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>105</v>
+      </c>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Phnom Penh</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+      <c r="AZ8" t="inlineStr">
+        <is>
+          <t>white</t>
+        </is>
+      </c>
+      <c r="BA8" t="inlineStr"/>
+      <c r="BB8" t="inlineStr"/>
+      <c r="BC8" t="inlineStr"/>
+      <c r="BD8" t="inlineStr"/>
+      <c r="BE8" t="inlineStr"/>
+      <c r="BF8" t="inlineStr"/>
+      <c r="BG8" t="inlineStr"/>
+      <c r="BH8" t="inlineStr"/>
+      <c r="BI8" t="inlineStr"/>
+      <c r="BJ8" t="inlineStr"/>
+      <c r="BK8" t="inlineStr"/>
+      <c r="BL8" t="inlineStr"/>
+      <c r="BM8" t="inlineStr"/>
+      <c r="BN8" t="inlineStr"/>
+      <c r="BO8" t="inlineStr"/>
+      <c r="BP8" t="inlineStr"/>
+      <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr">
+        <is>
+          <t>白豆蔻</t>
+        </is>
+      </c>
+      <c r="BS8" t="inlineStr">
+        <is>
+          <t>báidòukòu</t>
+        </is>
+      </c>
+      <c r="BT8" t="inlineStr">
+        <is>
+          <t>white-cardamom</t>
+        </is>
+      </c>
+      <c r="BU8" t="inlineStr">
+        <is>
+          <t>豆蔻 [bean-cardamom]</t>
+        </is>
+      </c>
+      <c r="BV8" t="inlineStr"/>
+      <c r="BW8" t="inlineStr"/>
+      <c r="BX8" t="inlineStr"/>
+      <c r="BY8" t="inlineStr"/>
+      <c r="BZ8" t="inlineStr"/>
+      <c r="CA8" t="inlineStr"/>
+      <c r="CB8" t="inlineStr"/>
+      <c r="CC8" t="inlineStr"/>
+      <c r="CD8" t="inlineStr">
+        <is>
+          <t>https://sys01.lib.hkbu.edu.hk/cmed/mmid/detail.php?qry=amomum&amp;sort=name_cht&amp;lang=eng&amp;page=1&amp;pid=B00174</t>
+        </is>
+      </c>
+      <c r="CE8" t="inlineStr"/>
+      <c r="CF8" t="inlineStr">
+        <is>
+          <t>Amomi Fructus Rotundus</t>
+        </is>
+      </c>
+      <c r="CG8" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH8" t="inlineStr">
+        <is>
+          <t>polyu-tcm</t>
+        </is>
+      </c>
+      <c r="CI8" t="inlineStr">
+        <is>
+          <t>https://herbaltcm.sn.polyu.edu.hk/herbal/round-cardamon-fruit</t>
+        </is>
+      </c>
+      <c r="CJ8" t="inlineStr">
+        <is>
+          <t>豆蔻</t>
+        </is>
+      </c>
+      <c r="CK8" t="inlineStr">
+        <is>
+          <t>dòukòu</t>
+        </is>
+      </c>
+      <c r="CL8" t="inlineStr">
+        <is>
+          <t>Round Cardamon Fruit</t>
+        </is>
+      </c>
+      <c r="CM8" t="inlineStr">
+        <is>
+          <t>Dried ripe fruit of Amomum kravanh Pierre ex Gagnep. or Amomum compactum Soland ex Maton (Fam. Zingiberaceae)</t>
+        </is>
+      </c>
+      <c r="CN8" t="inlineStr">
+        <is>
+          <t>Dampness-resolving medicinal</t>
+        </is>
+      </c>
+      <c r="CO8" t="inlineStr">
+        <is>
+          <t>pungent; warm</t>
+        </is>
+      </c>
+      <c r="CP8" t="inlineStr">
+        <is>
+          <t>Spleen, Lung, Stomach</t>
+        </is>
+      </c>
+      <c r="CQ8" t="inlineStr">
+        <is>
+          <t>To resolve damp, remove retained food, promote the flow of qi and warm the spleen and stomach topromote digestion</t>
+        </is>
+      </c>
+      <c r="CR8" t="inlineStr"/>
+      <c r="CS8" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="CT8" t="inlineStr">
+        <is>
+          <t>973</t>
+        </is>
+      </c>
+      <c r="CU8" t="inlineStr"/>
+      <c r="CV8" t="inlineStr"/>
+      <c r="CW8" t="inlineStr"/>
+      <c r="CX8" t="inlineStr"/>
+      <c r="CY8" t="inlineStr"/>
+      <c r="CZ8" t="inlineStr"/>
+      <c r="DA8" t="inlineStr"/>
+      <c r="DB8" t="inlineStr"/>
+      <c r="DC8" t="inlineStr"/>
+      <c r="DD8" t="inlineStr"/>
+      <c r="DE8" t="inlineStr"/>
+      <c r="DF8" t="inlineStr">
+        <is>
+          <t>siam_cardamom</t>
+        </is>
+      </c>
+      <c r="DG8" t="inlineStr">
+        <is>
+          <t>https://partigabor.github.io/aromatica/items/siam_cardamom</t>
+        </is>
+      </c>
+      <c r="DH8" t="inlineStr">
+        <is>
+          <t>532064</t>
+        </is>
+      </c>
+      <c r="DI8" t="inlineStr">
+        <is>
+          <t>77178294-1</t>
+        </is>
+      </c>
+      <c r="DJ8" t="inlineStr">
+        <is>
+          <t>Species</t>
+        </is>
+      </c>
+      <c r="DK8" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="DL8" t="inlineStr">
+        <is>
+          <t>Zingiberaceae</t>
+        </is>
+      </c>
+      <c r="DM8" t="inlineStr"/>
+      <c r="DN8" t="inlineStr">
+        <is>
+          <t>Wurfbainia</t>
+        </is>
+      </c>
+      <c r="DO8" t="inlineStr"/>
+      <c r="DP8" t="inlineStr">
+        <is>
+          <t>vera</t>
+        </is>
+      </c>
+      <c r="DQ8" t="inlineStr"/>
+      <c r="DR8" t="inlineStr"/>
+      <c r="DS8" t="inlineStr">
+        <is>
+          <t>Blackw.</t>
+        </is>
+      </c>
+      <c r="DT8" t="inlineStr">
+        <is>
+          <t>Škorničk. &amp; A.D.Poulsen</t>
+        </is>
+      </c>
+      <c r="DU8" t="inlineStr"/>
+      <c r="DV8" t="inlineStr">
+        <is>
+          <t>Taxon</t>
+        </is>
+      </c>
+      <c r="DW8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 67: 30</t>
+        </is>
+      </c>
+      <c r="DX8" t="inlineStr">
+        <is>
+          <t>(2018)</t>
+        </is>
+      </c>
+      <c r="DY8" t="inlineStr"/>
+      <c r="DZ8" t="inlineStr">
+        <is>
+          <t>S. Indo-China, Sumatera</t>
+        </is>
+      </c>
+      <c r="EA8" t="inlineStr">
+        <is>
+          <t>rhizomatous geophyte</t>
+        </is>
+      </c>
+      <c r="EB8" t="inlineStr">
+        <is>
+          <t>wet tropical</t>
+        </is>
+      </c>
+      <c r="EC8" t="inlineStr">
+        <is>
+          <t>532064</t>
+        </is>
+      </c>
+      <c r="ED8" t="inlineStr">
+        <is>
+          <t>466788</t>
+        </is>
+      </c>
+      <c r="EE8" t="inlineStr"/>
+      <c r="EF8" t="inlineStr"/>
+      <c r="EG8" t="inlineStr">
+        <is>
+          <t>272434</t>
+        </is>
+      </c>
+      <c r="EH8" t="inlineStr">
+        <is>
+          <t>77178294-1</t>
+        </is>
+      </c>
+      <c r="EI8" t="inlineStr"/>
+      <c r="EJ8" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="EK8" t="inlineStr">
+        <is>
+          <t>https://powo.science.kew.org/taxon/77178294-1</t>
+        </is>
+      </c>
+      <c r="EL8" t="inlineStr">
+        <is>
+          <t>Cambodia, Thailand, Vietnam, Sumatera</t>
+        </is>
+      </c>
+      <c r="EM8" t="inlineStr"/>
+      <c r="EN8" t="inlineStr">
+        <is>
+          <t>Indo-China, Malesia</t>
+        </is>
+      </c>
+      <c r="EO8" t="inlineStr">
+        <is>
+          <t>Asia-Tropical</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>33</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://powo.science.kew.org/taxon/77178295-1</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Wurfbainia villosa</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>(Lour.) Škorničk. &amp; A.D.Poulsen</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Amomum villosum Lour.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Wurfbainia villosa var. xanthioides (Wall. ex Baker) Škorničk. &amp; A.D.Poulsen syn. Amomum xanthioides Wall. ex Baker</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>cardamoms</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>wild Siamese cardamom</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>the fruits of Wurfbania villosa</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>vanwyk_2014_culinary</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>culinary; medicinal</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Plantae</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>fruit &amp; seed</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>Malabar cardamom; Tavoy cardamom; wild Siamese cardamom; bastard cardamom; bastard Siamese cardamom</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>Malabar cardamom; Tavoy cardamom; wild Siamese cardamom; Bastard cardamom; bastard Siamese cardamom; wild Siamese cardamom</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>Bastard cardamom</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="inlineStr"/>
+      <c r="AS9" t="inlineStr">
+        <is>
+          <t>As</t>
+        </is>
+      </c>
+      <c r="AT9" t="inlineStr">
+        <is>
+          <t>southeast Asia</t>
+        </is>
+      </c>
+      <c r="AU9" t="inlineStr"/>
+      <c r="AV9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr"/>
+      <c r="AX9" t="inlineStr"/>
+      <c r="AY9" t="inlineStr"/>
+      <c r="AZ9" t="inlineStr"/>
+      <c r="BA9" t="inlineStr"/>
+      <c r="BB9" t="inlineStr"/>
+      <c r="BC9" t="inlineStr"/>
+      <c r="BD9" t="inlineStr"/>
+      <c r="BE9" t="inlineStr"/>
+      <c r="BF9" t="inlineStr"/>
+      <c r="BG9" t="inlineStr"/>
+      <c r="BH9" t="inlineStr"/>
+      <c r="BI9" t="inlineStr"/>
+      <c r="BJ9" t="inlineStr"/>
+      <c r="BK9" t="inlineStr"/>
+      <c r="BL9" t="inlineStr"/>
+      <c r="BM9" t="inlineStr"/>
+      <c r="BN9" t="inlineStr"/>
+      <c r="BO9" t="inlineStr"/>
+      <c r="BP9" t="inlineStr"/>
+      <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr">
+        <is>
+          <t>砂仁</t>
+        </is>
+      </c>
+      <c r="BS9" t="inlineStr">
+        <is>
+          <t>shārén</t>
+        </is>
+      </c>
+      <c r="BT9" t="inlineStr">
+        <is>
+          <t>granule-kernel</t>
+        </is>
+      </c>
+      <c r="BU9" t="inlineStr"/>
+      <c r="BV9" t="inlineStr"/>
+      <c r="BW9" t="inlineStr"/>
+      <c r="BX9" t="inlineStr"/>
+      <c r="BY9" t="inlineStr"/>
+      <c r="BZ9" t="inlineStr"/>
+      <c r="CA9" t="inlineStr"/>
+      <c r="CB9" t="inlineStr"/>
+      <c r="CC9" t="inlineStr"/>
+      <c r="CD9" t="inlineStr"/>
+      <c r="CE9" t="inlineStr"/>
+      <c r="CF9" t="inlineStr">
+        <is>
+          <t>Amomi Fructus</t>
+        </is>
+      </c>
+      <c r="CG9" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH9" t="inlineStr">
+        <is>
+          <t>polyu-tcm</t>
+        </is>
+      </c>
+      <c r="CI9" t="inlineStr">
+        <is>
+          <t>https://herbaltcm.sn.polyu.edu.hk/herbal/villous-amomum-fruit</t>
+        </is>
+      </c>
+      <c r="CJ9" t="inlineStr">
+        <is>
+          <t>砂仁</t>
+        </is>
+      </c>
+      <c r="CK9" t="inlineStr">
+        <is>
+          <t>shārén</t>
+        </is>
+      </c>
+      <c r="CL9" t="inlineStr">
+        <is>
+          <t>Villous Amomum Fruit</t>
+        </is>
+      </c>
+      <c r="CM9" t="inlineStr">
+        <is>
+          <t>Dried ripe fruit of Amomum villosum Lour., Amomum villosum Lour. var . xanthioides T. L. Wu et Senjen or Amomum longiligulare T. L. Wu (Fam. Zingiberaceae)</t>
+        </is>
+      </c>
+      <c r="CN9" t="inlineStr">
+        <is>
+          <t>Dampness-resolving medicinal</t>
+        </is>
+      </c>
+      <c r="CO9" t="inlineStr">
+        <is>
+          <t>pungent; warm</t>
+        </is>
+      </c>
+      <c r="CP9" t="inlineStr">
+        <is>
+          <t>Spleen, Stomach, Kidney</t>
+        </is>
+      </c>
+      <c r="CQ9" t="inlineStr">
+        <is>
+          <t>To elimate damp and improve appetite, warm the spleen and check diarrhea, and prevent abortion</t>
+        </is>
+      </c>
+      <c r="CR9" t="inlineStr">
+        <is>
+          <t>http://www.efloras.org/florataxon.aspx?flora_id=2&amp;taxon_id=200028347</t>
+        </is>
+      </c>
+      <c r="CS9" t="inlineStr"/>
+      <c r="CT9" t="inlineStr"/>
+      <c r="CU9" t="inlineStr"/>
+      <c r="CV9" t="inlineStr"/>
+      <c r="CW9" t="inlineStr"/>
+      <c r="CX9" t="inlineStr"/>
+      <c r="CY9" t="inlineStr"/>
+      <c r="CZ9" t="inlineStr"/>
+      <c r="DA9" t="inlineStr"/>
+      <c r="DB9" t="inlineStr"/>
+      <c r="DC9" t="inlineStr"/>
+      <c r="DD9" t="inlineStr"/>
+      <c r="DE9" t="inlineStr"/>
+      <c r="DF9" t="inlineStr">
+        <is>
+          <t>wild_siamese_cardamom</t>
+        </is>
+      </c>
+      <c r="DG9" t="inlineStr">
+        <is>
+          <t>https://partigabor.github.io/aromatica/items/wild_siamese_cardamom</t>
+        </is>
+      </c>
+      <c r="DH9" t="inlineStr">
+        <is>
+          <t>532066</t>
+        </is>
+      </c>
+      <c r="DI9" t="inlineStr">
+        <is>
+          <t>77178295-1</t>
+        </is>
+      </c>
+      <c r="DJ9" t="inlineStr">
+        <is>
+          <t>Species</t>
+        </is>
+      </c>
+      <c r="DK9" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="DL9" t="inlineStr">
+        <is>
+          <t>Zingiberaceae</t>
+        </is>
+      </c>
+      <c r="DM9" t="inlineStr"/>
+      <c r="DN9" t="inlineStr">
+        <is>
+          <t>Wurfbainia</t>
+        </is>
+      </c>
+      <c r="DO9" t="inlineStr"/>
+      <c r="DP9" t="inlineStr">
+        <is>
+          <t>villosa</t>
+        </is>
+      </c>
+      <c r="DQ9" t="inlineStr"/>
+      <c r="DR9" t="inlineStr"/>
+      <c r="DS9" t="inlineStr">
+        <is>
+          <t>Lour.</t>
+        </is>
+      </c>
+      <c r="DT9" t="inlineStr">
+        <is>
+          <t>Škorničk. &amp; A.D.Poulsen</t>
+        </is>
+      </c>
+      <c r="DU9" t="inlineStr"/>
+      <c r="DV9" t="inlineStr">
+        <is>
+          <t>Taxon</t>
+        </is>
+      </c>
+      <c r="DW9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 67: 30</t>
+        </is>
+      </c>
+      <c r="DX9" t="inlineStr">
+        <is>
+          <t>(2018)</t>
+        </is>
+      </c>
+      <c r="DY9" t="inlineStr"/>
+      <c r="DZ9" t="inlineStr">
+        <is>
+          <t>Arunachal Pradesh to S. China and Indo-China</t>
+        </is>
+      </c>
+      <c r="EA9" t="inlineStr">
+        <is>
+          <t>rhizomatous geophyte</t>
+        </is>
+      </c>
+      <c r="EB9" t="inlineStr">
+        <is>
+          <t>wet tropical</t>
+        </is>
+      </c>
+      <c r="EC9" t="inlineStr">
+        <is>
+          <t>532066</t>
+        </is>
+      </c>
+      <c r="ED9" t="inlineStr">
+        <is>
+          <t>219541</t>
+        </is>
+      </c>
+      <c r="EE9" t="inlineStr"/>
+      <c r="EF9" t="inlineStr"/>
+      <c r="EG9" t="inlineStr">
+        <is>
+          <t>272434</t>
+        </is>
+      </c>
+      <c r="EH9" t="inlineStr">
+        <is>
+          <t>77178295-1</t>
+        </is>
+      </c>
+      <c r="EI9" t="inlineStr"/>
+      <c r="EJ9" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="EK9" t="inlineStr">
+        <is>
+          <t>https://powo.science.kew.org/taxon/77178295-1</t>
+        </is>
+      </c>
+      <c r="EL9" t="inlineStr">
+        <is>
+          <t>China South-Central, China Southeast, Bangladesh, East Himalaya, Cambodia, Laos, Myanmar, Thailand, Vietnam</t>
+        </is>
+      </c>
+      <c r="EM9" t="inlineStr"/>
+      <c r="EN9" t="inlineStr">
+        <is>
+          <t>China, Indian Subcontinent, Indo-China</t>
+        </is>
+      </c>
+      <c r="EO9" t="inlineStr">
+        <is>
+          <t>Asia-Temperate, Asia-Tropical</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>15</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://powo.science.kew.org/taxon/871826-1</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Aframomum alboviolaceum</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>(Ridl.) K.Schum.</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Aframomum macrospermum (Sm.) Burkill</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>cardamoms</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Cameroon cardamom</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>vanwyk_2014_culinary</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Plantae</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>leaf</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>https://ceb.wikipedia.org/wiki/Aframomum_alboviolaceum</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>Cameroon cardamom; Guinea cardamom</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>Cameroon cardamom; Guinea cardamom</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>Cameroon cardamom</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr"/>
+      <c r="AR10" t="inlineStr"/>
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t>Trop. C. Africa</t>
+        </is>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AU10" t="inlineStr"/>
+      <c r="AV10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr"/>
+      <c r="AX10" t="inlineStr"/>
+      <c r="AY10" t="inlineStr"/>
+      <c r="AZ10" t="inlineStr"/>
+      <c r="BA10" t="inlineStr"/>
+      <c r="BB10" t="inlineStr"/>
+      <c r="BC10" t="inlineStr"/>
+      <c r="BD10" t="inlineStr"/>
+      <c r="BE10" t="inlineStr"/>
+      <c r="BF10" t="inlineStr"/>
+      <c r="BG10" t="inlineStr"/>
+      <c r="BH10" t="inlineStr"/>
+      <c r="BI10" t="inlineStr"/>
+      <c r="BJ10" t="inlineStr"/>
+      <c r="BK10" t="inlineStr"/>
+      <c r="BL10" t="inlineStr"/>
+      <c r="BM10" t="inlineStr"/>
+      <c r="BN10" t="inlineStr"/>
+      <c r="BO10" t="inlineStr"/>
+      <c r="BP10" t="inlineStr"/>
+      <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
+      <c r="BS10" t="inlineStr"/>
+      <c r="BT10" t="inlineStr"/>
+      <c r="BU10" t="inlineStr"/>
+      <c r="BV10" t="inlineStr"/>
+      <c r="BW10" t="inlineStr"/>
+      <c r="BX10" t="inlineStr"/>
+      <c r="BY10" t="inlineStr"/>
+      <c r="BZ10" t="inlineStr"/>
+      <c r="CA10" t="inlineStr"/>
+      <c r="CB10" t="inlineStr"/>
+      <c r="CC10" t="inlineStr"/>
+      <c r="CD10" t="inlineStr"/>
+      <c r="CE10" t="inlineStr"/>
+      <c r="CF10" t="inlineStr"/>
+      <c r="CG10" t="inlineStr"/>
+      <c r="CH10" t="inlineStr"/>
+      <c r="CI10" t="inlineStr"/>
+      <c r="CJ10" t="inlineStr"/>
+      <c r="CK10" t="inlineStr"/>
+      <c r="CL10" t="inlineStr"/>
+      <c r="CM10" t="inlineStr"/>
+      <c r="CN10" t="inlineStr"/>
+      <c r="CO10" t="inlineStr"/>
+      <c r="CP10" t="inlineStr"/>
+      <c r="CQ10" t="inlineStr"/>
+      <c r="CR10" t="inlineStr"/>
+      <c r="CS10" t="inlineStr"/>
+      <c r="CT10" t="inlineStr"/>
+      <c r="CU10" t="inlineStr"/>
+      <c r="CV10" t="inlineStr"/>
+      <c r="CW10" t="inlineStr"/>
+      <c r="CX10" t="inlineStr"/>
+      <c r="CY10" t="inlineStr"/>
+      <c r="CZ10" t="inlineStr"/>
+      <c r="DA10" t="inlineStr"/>
+      <c r="DB10" t="inlineStr"/>
+      <c r="DC10" t="inlineStr"/>
+      <c r="DD10" t="inlineStr"/>
+      <c r="DE10" t="inlineStr"/>
+      <c r="DF10" t="inlineStr">
+        <is>
+          <t>cameroon_cardamom</t>
+        </is>
+      </c>
+      <c r="DG10" t="inlineStr">
+        <is>
+          <t>https://partigabor.github.io/aromatica/items/cameroon_cardamom</t>
+        </is>
+      </c>
+      <c r="DH10" t="inlineStr">
+        <is>
+          <t>218347</t>
+        </is>
+      </c>
+      <c r="DI10" t="inlineStr">
+        <is>
+          <t>871826-1</t>
+        </is>
+      </c>
+      <c r="DJ10" t="inlineStr">
+        <is>
+          <t>Species</t>
+        </is>
+      </c>
+      <c r="DK10" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="DL10" t="inlineStr">
+        <is>
+          <t>Zingiberaceae</t>
+        </is>
+      </c>
+      <c r="DM10" t="inlineStr"/>
+      <c r="DN10" t="inlineStr">
+        <is>
+          <t>Aframomum</t>
+        </is>
+      </c>
+      <c r="DO10" t="inlineStr"/>
+      <c r="DP10" t="inlineStr">
+        <is>
+          <t>alboviolaceum</t>
+        </is>
+      </c>
+      <c r="DQ10" t="inlineStr"/>
+      <c r="DR10" t="inlineStr"/>
+      <c r="DS10" t="inlineStr">
+        <is>
+          <t>Ridl.</t>
+        </is>
+      </c>
+      <c r="DT10" t="inlineStr">
+        <is>
+          <t>K.Schum.</t>
+        </is>
+      </c>
+      <c r="DU10" t="inlineStr">
+        <is>
+          <t>H.G.A.Engler (ed.)</t>
+        </is>
+      </c>
+      <c r="DV10" t="inlineStr">
+        <is>
+          <t>Pflanzenr.</t>
+        </is>
+      </c>
+      <c r="DW10" t="inlineStr">
+        <is>
+          <t>, IV, 46: 207</t>
+        </is>
+      </c>
+      <c r="DX10" t="inlineStr">
+        <is>
+          <t>(1904)</t>
+        </is>
+      </c>
+      <c r="DY10" t="inlineStr"/>
+      <c r="DZ10" t="inlineStr">
+        <is>
+          <t>Trop. Africa</t>
+        </is>
+      </c>
+      <c r="EA10" t="inlineStr">
+        <is>
+          <t>rhizomatous geophyte</t>
+        </is>
+      </c>
+      <c r="EB10" t="inlineStr">
+        <is>
+          <t>seasonally dry tropical</t>
+        </is>
+      </c>
+      <c r="EC10" t="inlineStr">
+        <is>
+          <t>218347</t>
+        </is>
+      </c>
+      <c r="ED10" t="inlineStr">
+        <is>
+          <t>219166</t>
+        </is>
+      </c>
+      <c r="EE10" t="inlineStr"/>
+      <c r="EF10" t="inlineStr"/>
+      <c r="EG10" t="inlineStr">
+        <is>
+          <t>218345</t>
+        </is>
+      </c>
+      <c r="EH10" t="inlineStr">
+        <is>
+          <t>871826-1</t>
+        </is>
+      </c>
+      <c r="EI10" t="inlineStr"/>
+      <c r="EJ10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="EK10" t="inlineStr">
+        <is>
+          <t>https://powo.science.kew.org/taxon/871826-1</t>
+        </is>
+      </c>
+      <c r="EL10" t="inlineStr">
+        <is>
+          <t>Benin, Burkina, Ghana, Guinea-Bissau, Guinea, Ivory Coast, Liberia, Nigeria, Senegal, Sierra Leone, Togo, Burundi, Cabinda, Central African Repu, Cameroon, Congo, Equatorial Guinea, Gabon, Gulf of Guinea Is., Rwanda, Zaïre, Ethiopia, Sudan, Kenya, Tanzania, Uganda, Angola, Malawi, Mozambique, Zambia, Zimbabwe</t>
+        </is>
+      </c>
+      <c r="EM10" t="inlineStr"/>
+      <c r="EN10" t="inlineStr">
+        <is>
+          <t>West Tropical Africa, West-Central Tropical Africa, Northeast Tropical Africa, East Tropical Africa, South Tropical Africa</t>
+        </is>
+      </c>
+      <c r="EO10" t="inlineStr">
+        <is>
+          <t>Africa</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>15</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://powo.science.kew.org/taxon/871829-1</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Aframomum angustifolium</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>(Sonn.) K.Schum.</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>cardamoms</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Madagascar cardamom</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>vanwyk_2014_culinary</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Plantae</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>seed</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Aframomum_angustifolium</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>Madagascar cardamom</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>Madagascar cardamom</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>Madagascar cardamom</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="inlineStr"/>
+      <c r="AS11" t="inlineStr">
+        <is>
+          <t>Madagascar</t>
+        </is>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AU11" t="inlineStr"/>
+      <c r="AV11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr"/>
+      <c r="AX11" t="inlineStr"/>
+      <c r="AY11" t="inlineStr"/>
+      <c r="AZ11" t="inlineStr"/>
+      <c r="BA11" t="inlineStr"/>
+      <c r="BB11" t="inlineStr"/>
+      <c r="BC11" t="inlineStr"/>
+      <c r="BD11" t="inlineStr"/>
+      <c r="BE11" t="inlineStr"/>
+      <c r="BF11" t="inlineStr"/>
+      <c r="BG11" t="inlineStr"/>
+      <c r="BH11" t="inlineStr"/>
+      <c r="BI11" t="inlineStr"/>
+      <c r="BJ11" t="inlineStr"/>
+      <c r="BK11" t="inlineStr"/>
+      <c r="BL11" t="inlineStr"/>
+      <c r="BM11" t="inlineStr"/>
+      <c r="BN11" t="inlineStr"/>
+      <c r="BO11" t="inlineStr"/>
+      <c r="BP11" t="inlineStr"/>
+      <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
+      <c r="BS11" t="inlineStr"/>
+      <c r="BT11" t="inlineStr"/>
+      <c r="BU11" t="inlineStr"/>
+      <c r="BV11" t="inlineStr"/>
+      <c r="BW11" t="inlineStr"/>
+      <c r="BX11" t="inlineStr"/>
+      <c r="BY11" t="inlineStr"/>
+      <c r="BZ11" t="inlineStr"/>
+      <c r="CA11" t="inlineStr"/>
+      <c r="CB11" t="inlineStr"/>
+      <c r="CC11" t="inlineStr"/>
+      <c r="CD11" t="inlineStr"/>
+      <c r="CE11" t="inlineStr"/>
+      <c r="CF11" t="inlineStr"/>
+      <c r="CG11" t="inlineStr"/>
+      <c r="CH11" t="inlineStr"/>
+      <c r="CI11" t="inlineStr"/>
+      <c r="CJ11" t="inlineStr"/>
+      <c r="CK11" t="inlineStr"/>
+      <c r="CL11" t="inlineStr"/>
+      <c r="CM11" t="inlineStr"/>
+      <c r="CN11" t="inlineStr"/>
+      <c r="CO11" t="inlineStr"/>
+      <c r="CP11" t="inlineStr"/>
+      <c r="CQ11" t="inlineStr"/>
+      <c r="CR11" t="inlineStr"/>
+      <c r="CS11" t="inlineStr"/>
+      <c r="CT11" t="inlineStr"/>
+      <c r="CU11" t="inlineStr"/>
+      <c r="CV11" t="inlineStr"/>
+      <c r="CW11" t="inlineStr"/>
+      <c r="CX11" t="inlineStr"/>
+      <c r="CY11" t="inlineStr"/>
+      <c r="CZ11" t="inlineStr"/>
+      <c r="DA11" t="inlineStr"/>
+      <c r="DB11" t="inlineStr"/>
+      <c r="DC11" t="inlineStr"/>
+      <c r="DD11" t="inlineStr"/>
+      <c r="DE11" t="inlineStr"/>
+      <c r="DF11" t="inlineStr">
+        <is>
+          <t>madagascar_cardamom</t>
+        </is>
+      </c>
+      <c r="DG11" t="inlineStr">
+        <is>
+          <t>https://partigabor.github.io/aromatica/items/madagascar_cardamom</t>
+        </is>
+      </c>
+      <c r="DH11" t="inlineStr">
+        <is>
+          <t>218350</t>
+        </is>
+      </c>
+      <c r="DI11" t="inlineStr">
+        <is>
+          <t>871829-1</t>
+        </is>
+      </c>
+      <c r="DJ11" t="inlineStr">
+        <is>
+          <t>Species</t>
+        </is>
+      </c>
+      <c r="DK11" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="DL11" t="inlineStr">
+        <is>
+          <t>Zingiberaceae</t>
+        </is>
+      </c>
+      <c r="DM11" t="inlineStr"/>
+      <c r="DN11" t="inlineStr">
+        <is>
+          <t>Aframomum</t>
+        </is>
+      </c>
+      <c r="DO11" t="inlineStr"/>
+      <c r="DP11" t="inlineStr">
+        <is>
+          <t>angustifolium</t>
+        </is>
+      </c>
+      <c r="DQ11" t="inlineStr"/>
+      <c r="DR11" t="inlineStr"/>
+      <c r="DS11" t="inlineStr">
+        <is>
+          <t>Sonn.</t>
+        </is>
+      </c>
+      <c r="DT11" t="inlineStr">
+        <is>
+          <t>K.Schum.</t>
+        </is>
+      </c>
+      <c r="DU11" t="inlineStr">
+        <is>
+          <t>H.G.A.Engler (ed.)</t>
+        </is>
+      </c>
+      <c r="DV11" t="inlineStr">
+        <is>
+          <t>Pflanzenr.</t>
+        </is>
+      </c>
+      <c r="DW11" t="inlineStr">
+        <is>
+          <t>, IV, 46: 218</t>
+        </is>
+      </c>
+      <c r="DX11" t="inlineStr">
+        <is>
+          <t>(1904)</t>
+        </is>
+      </c>
+      <c r="DY11" t="inlineStr"/>
+      <c r="DZ11" t="inlineStr">
+        <is>
+          <t>Trop. Africa, Madagascar</t>
+        </is>
+      </c>
+      <c r="EA11" t="inlineStr">
+        <is>
+          <t>rhizomatous geophyte</t>
+        </is>
+      </c>
+      <c r="EB11" t="inlineStr">
+        <is>
+          <t>seasonally dry tropical</t>
+        </is>
+      </c>
+      <c r="EC11" t="inlineStr">
+        <is>
+          <t>218350</t>
+        </is>
+      </c>
+      <c r="ED11" t="inlineStr">
+        <is>
+          <t>219172</t>
+        </is>
+      </c>
+      <c r="EE11" t="inlineStr"/>
+      <c r="EF11" t="inlineStr"/>
+      <c r="EG11" t="inlineStr">
+        <is>
+          <t>218345</t>
+        </is>
+      </c>
+      <c r="EH11" t="inlineStr">
+        <is>
+          <t>871829-1</t>
+        </is>
+      </c>
+      <c r="EI11" t="inlineStr"/>
+      <c r="EJ11" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="EK11" t="inlineStr">
+        <is>
+          <t>https://powo.science.kew.org/taxon/871829-1</t>
+        </is>
+      </c>
+      <c r="EL11" t="inlineStr">
+        <is>
+          <t>Benin, Ghana, Guinea, Ivory Coast, Nigeria, Togo, Burundi, Central African Repu, Cameroon, Congo, Equatorial Guinea, Gabon, Gulf of Guinea Is., Rwanda, Zaïre, Ethiopia, Sudan, Kenya, Tanzania, Uganda, Angola, Malawi, Mozambique, Zambia, Zimbabwe, Madagascar</t>
+        </is>
+      </c>
+      <c r="EM11" t="inlineStr">
+        <is>
+          <t>Mauritius, Seychelles</t>
+        </is>
+      </c>
+      <c r="EN11" t="inlineStr">
+        <is>
+          <t>West Tropical Africa, West-Central Tropical Africa, Northeast Tropical Africa, East Tropical Africa, South Tropical Africa, Western Indian Ocean</t>
+        </is>
+      </c>
+      <c r="EO11" t="inlineStr">
+        <is>
+          <t>Africa</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://powo.science.kew.org/taxon/871837-1</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Aframomum cereum</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>(Hook.f.) K.Schum.</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Aframomum sceptrum (Oliv. &amp; D.Hanb.) K.Schum.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>cardamoms</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>black amomum</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>vanwyk_2014_culinary</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>leaf</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>black amomum</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>black amomum</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr"/>
+      <c r="AO12" t="inlineStr"/>
+      <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr"/>
+      <c r="AR12" t="inlineStr"/>
+      <c r="AS12" t="inlineStr">
+        <is>
+          <t>W Afr</t>
+        </is>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AU12" t="inlineStr"/>
+      <c r="AV12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr"/>
+      <c r="AX12" t="inlineStr"/>
+      <c r="AY12" t="inlineStr"/>
+      <c r="AZ12" t="inlineStr"/>
+      <c r="BA12" t="inlineStr"/>
+      <c r="BB12" t="inlineStr"/>
+      <c r="BC12" t="inlineStr"/>
+      <c r="BD12" t="inlineStr"/>
+      <c r="BE12" t="inlineStr"/>
+      <c r="BF12" t="inlineStr"/>
+      <c r="BG12" t="inlineStr"/>
+      <c r="BH12" t="inlineStr"/>
+      <c r="BI12" t="inlineStr"/>
+      <c r="BJ12" t="inlineStr"/>
+      <c r="BK12" t="inlineStr"/>
+      <c r="BL12" t="inlineStr"/>
+      <c r="BM12" t="inlineStr"/>
+      <c r="BN12" t="inlineStr"/>
+      <c r="BO12" t="inlineStr"/>
+      <c r="BP12" t="inlineStr"/>
+      <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
+      <c r="BS12" t="inlineStr"/>
+      <c r="BT12" t="inlineStr"/>
+      <c r="BU12" t="inlineStr"/>
+      <c r="BV12" t="inlineStr"/>
+      <c r="BW12" t="inlineStr"/>
+      <c r="BX12" t="inlineStr"/>
+      <c r="BY12" t="inlineStr"/>
+      <c r="BZ12" t="inlineStr"/>
+      <c r="CA12" t="inlineStr"/>
+      <c r="CB12" t="inlineStr"/>
+      <c r="CC12" t="inlineStr"/>
+      <c r="CD12" t="inlineStr"/>
+      <c r="CE12" t="inlineStr"/>
+      <c r="CF12" t="inlineStr"/>
+      <c r="CG12" t="inlineStr"/>
+      <c r="CH12" t="inlineStr"/>
+      <c r="CI12" t="inlineStr"/>
+      <c r="CJ12" t="inlineStr"/>
+      <c r="CK12" t="inlineStr"/>
+      <c r="CL12" t="inlineStr"/>
+      <c r="CM12" t="inlineStr"/>
+      <c r="CN12" t="inlineStr"/>
+      <c r="CO12" t="inlineStr"/>
+      <c r="CP12" t="inlineStr"/>
+      <c r="CQ12" t="inlineStr"/>
+      <c r="CR12" t="inlineStr"/>
+      <c r="CS12" t="inlineStr"/>
+      <c r="CT12" t="inlineStr"/>
+      <c r="CU12" t="inlineStr"/>
+      <c r="CV12" t="inlineStr"/>
+      <c r="CW12" t="inlineStr"/>
+      <c r="CX12" t="inlineStr"/>
+      <c r="CY12" t="inlineStr"/>
+      <c r="CZ12" t="inlineStr"/>
+      <c r="DA12" t="inlineStr"/>
+      <c r="DB12" t="inlineStr"/>
+      <c r="DC12" t="inlineStr"/>
+      <c r="DD12" t="inlineStr"/>
+      <c r="DE12" t="inlineStr"/>
+      <c r="DF12" t="inlineStr">
+        <is>
+          <t>black_amomum</t>
+        </is>
+      </c>
+      <c r="DG12" t="inlineStr">
+        <is>
+          <t>https://partigabor.github.io/aromatica/items/black_amomum</t>
+        </is>
+      </c>
+      <c r="DH12" t="inlineStr">
+        <is>
+          <t>218357</t>
+        </is>
+      </c>
+      <c r="DI12" t="inlineStr">
+        <is>
+          <t>871837-1</t>
+        </is>
+      </c>
+      <c r="DJ12" t="inlineStr">
+        <is>
+          <t>Species</t>
+        </is>
+      </c>
+      <c r="DK12" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="DL12" t="inlineStr">
+        <is>
+          <t>Zingiberaceae</t>
+        </is>
+      </c>
+      <c r="DM12" t="inlineStr"/>
+      <c r="DN12" t="inlineStr">
+        <is>
+          <t>Aframomum</t>
+        </is>
+      </c>
+      <c r="DO12" t="inlineStr"/>
+      <c r="DP12" t="inlineStr">
+        <is>
+          <t>cereum</t>
+        </is>
+      </c>
+      <c r="DQ12" t="inlineStr"/>
+      <c r="DR12" t="inlineStr"/>
+      <c r="DS12" t="inlineStr">
+        <is>
+          <t>Hook.f.</t>
+        </is>
+      </c>
+      <c r="DT12" t="inlineStr">
+        <is>
+          <t>K.Schum.</t>
+        </is>
+      </c>
+      <c r="DU12" t="inlineStr">
+        <is>
+          <t>H.G.A.Engler (ed.)</t>
+        </is>
+      </c>
+      <c r="DV12" t="inlineStr">
+        <is>
+          <t>Pflanzenr.</t>
+        </is>
+      </c>
+      <c r="DW12" t="inlineStr">
+        <is>
+          <t>, IV, 46: 210</t>
+        </is>
+      </c>
+      <c r="DX12" t="inlineStr">
+        <is>
+          <t>(1904)</t>
+        </is>
+      </c>
+      <c r="DY12" t="inlineStr"/>
+      <c r="DZ12" t="inlineStr">
+        <is>
+          <t>W. Trop. Africa to NW. Angola</t>
+        </is>
+      </c>
+      <c r="EA12" t="inlineStr">
+        <is>
+          <t>rhizomatous geophyte</t>
+        </is>
+      </c>
+      <c r="EB12" t="inlineStr">
+        <is>
+          <t>seasonally dry tropical</t>
+        </is>
+      </c>
+      <c r="EC12" t="inlineStr">
+        <is>
+          <t>218357</t>
+        </is>
+      </c>
+      <c r="ED12" t="inlineStr">
+        <is>
+          <t>219214</t>
+        </is>
+      </c>
+      <c r="EE12" t="inlineStr"/>
+      <c r="EF12" t="inlineStr"/>
+      <c r="EG12" t="inlineStr">
+        <is>
+          <t>218345</t>
+        </is>
+      </c>
+      <c r="EH12" t="inlineStr">
+        <is>
+          <t>871837-1</t>
+        </is>
+      </c>
+      <c r="EI12" t="inlineStr"/>
+      <c r="EJ12" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="EK12" t="inlineStr">
+        <is>
+          <t>https://powo.science.kew.org/taxon/871837-1</t>
+        </is>
+      </c>
+      <c r="EL12" t="inlineStr">
+        <is>
+          <t>Benin, Burkina, Ghana, Guinea-Bissau, Guinea, Ivory Coast, Liberia, Nigeria, Sierra Leone, Togo, Central African Repu, Cameroon, Congo, Equatorial Guinea, Gabon, Zaïre, Angola</t>
+        </is>
+      </c>
+      <c r="EM12" t="inlineStr"/>
+      <c r="EN12" t="inlineStr">
+        <is>
+          <t>West Tropical Africa, West-Central Tropical Africa, South Tropical Africa</t>
+        </is>
+      </c>
+      <c r="EO12" t="inlineStr">
+        <is>
+          <t>Africa</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://powo.science.kew.org/taxon/908251-1</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Aframomum corrorima</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>(A.Braun) P.C.M.Jansen</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Amomum korarima J.Pereira</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>cardamoms</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Ethiopian cardamom</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>vanwyk_2014_culinary</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>Plantae</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>seed</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>Ethiopian cardamom; korarima; korarima cardamom</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>Ethiopian cardamom; korarima</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>Ethiopian cardamom, Korarima cardamom</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr"/>
+      <c r="AO13" t="inlineStr"/>
+      <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr"/>
+      <c r="AR13" t="inlineStr"/>
+      <c r="AS13" t="inlineStr">
+        <is>
+          <t>Trop NE Afr</t>
+        </is>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AU13" t="inlineStr"/>
+      <c r="AV13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr"/>
+      <c r="AX13" t="inlineStr"/>
+      <c r="AY13" t="inlineStr"/>
+      <c r="AZ13" t="inlineStr"/>
+      <c r="BA13" t="inlineStr"/>
+      <c r="BB13" t="inlineStr"/>
+      <c r="BC13" t="inlineStr"/>
+      <c r="BD13" t="inlineStr"/>
+      <c r="BE13" t="inlineStr"/>
+      <c r="BF13" t="inlineStr"/>
+      <c r="BG13" t="inlineStr"/>
+      <c r="BH13" t="inlineStr"/>
+      <c r="BI13" t="inlineStr"/>
+      <c r="BJ13" t="inlineStr"/>
+      <c r="BK13" t="inlineStr"/>
+      <c r="BL13" t="inlineStr"/>
+      <c r="BM13" t="inlineStr"/>
+      <c r="BN13" t="inlineStr"/>
+      <c r="BO13" t="inlineStr"/>
+      <c r="BP13" t="inlineStr"/>
+      <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
+      <c r="BS13" t="inlineStr"/>
+      <c r="BT13" t="inlineStr"/>
+      <c r="BU13" t="inlineStr"/>
+      <c r="BV13" t="inlineStr"/>
+      <c r="BW13" t="inlineStr"/>
+      <c r="BX13" t="inlineStr"/>
+      <c r="BY13" t="inlineStr"/>
+      <c r="BZ13" t="inlineStr"/>
+      <c r="CA13" t="inlineStr"/>
+      <c r="CB13" t="inlineStr"/>
+      <c r="CC13" t="inlineStr"/>
+      <c r="CD13" t="inlineStr"/>
+      <c r="CE13" t="inlineStr"/>
+      <c r="CF13" t="inlineStr"/>
+      <c r="CG13" t="inlineStr"/>
+      <c r="CH13" t="inlineStr"/>
+      <c r="CI13" t="inlineStr"/>
+      <c r="CJ13" t="inlineStr"/>
+      <c r="CK13" t="inlineStr"/>
+      <c r="CL13" t="inlineStr"/>
+      <c r="CM13" t="inlineStr"/>
+      <c r="CN13" t="inlineStr"/>
+      <c r="CO13" t="inlineStr"/>
+      <c r="CP13" t="inlineStr"/>
+      <c r="CQ13" t="inlineStr"/>
+      <c r="CR13" t="inlineStr"/>
+      <c r="CS13" t="inlineStr"/>
+      <c r="CT13" t="inlineStr"/>
+      <c r="CU13" t="inlineStr"/>
+      <c r="CV13" t="inlineStr"/>
+      <c r="CW13" t="inlineStr"/>
+      <c r="CX13" t="inlineStr"/>
+      <c r="CY13" t="inlineStr"/>
+      <c r="CZ13" t="inlineStr"/>
+      <c r="DA13" t="inlineStr"/>
+      <c r="DB13" t="inlineStr"/>
+      <c r="DC13" t="inlineStr"/>
+      <c r="DD13" t="inlineStr"/>
+      <c r="DE13" t="inlineStr"/>
+      <c r="DF13" t="inlineStr">
+        <is>
+          <t>ethiopian_cardamom</t>
+        </is>
+      </c>
+      <c r="DG13" t="inlineStr">
+        <is>
+          <t>https://partigabor.github.io/aromatica/items/ethiopian_cardamom</t>
+        </is>
+      </c>
+      <c r="DH13" t="inlineStr">
+        <is>
+          <t>218363</t>
+        </is>
+      </c>
+      <c r="DI13" t="inlineStr">
+        <is>
+          <t>908251-1</t>
+        </is>
+      </c>
+      <c r="DJ13" t="inlineStr">
+        <is>
+          <t>Species</t>
+        </is>
+      </c>
+      <c r="DK13" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="DL13" t="inlineStr">
+        <is>
+          <t>Zingiberaceae</t>
+        </is>
+      </c>
+      <c r="DM13" t="inlineStr"/>
+      <c r="DN13" t="inlineStr">
+        <is>
+          <t>Aframomum</t>
+        </is>
+      </c>
+      <c r="DO13" t="inlineStr"/>
+      <c r="DP13" t="inlineStr">
+        <is>
+          <t>corrorima</t>
+        </is>
+      </c>
+      <c r="DQ13" t="inlineStr"/>
+      <c r="DR13" t="inlineStr"/>
+      <c r="DS13" t="inlineStr">
+        <is>
+          <t>A.Braun</t>
+        </is>
+      </c>
+      <c r="DT13" t="inlineStr">
+        <is>
+          <t>P.C.M.Jansen</t>
+        </is>
+      </c>
+      <c r="DU13" t="inlineStr"/>
+      <c r="DV13" t="inlineStr">
+        <is>
+          <t>Agric. Res. Rep. Center Agric. Publishing Doc.</t>
+        </is>
+      </c>
+      <c r="DW13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1981: 906</t>
+        </is>
+      </c>
+      <c r="DX13" t="inlineStr">
+        <is>
+          <t>(1981)</t>
+        </is>
+      </c>
+      <c r="DY13" t="inlineStr"/>
+      <c r="DZ13" t="inlineStr">
+        <is>
+          <t>Ethiopia to Burundi and NE. Tanzania</t>
+        </is>
+      </c>
+      <c r="EA13" t="inlineStr">
+        <is>
+          <t>rhizomatous geophyte</t>
+        </is>
+      </c>
+      <c r="EB13" t="inlineStr">
+        <is>
+          <t>seasonally dry tropical</t>
+        </is>
+      </c>
+      <c r="EC13" t="inlineStr">
+        <is>
+          <t>218363</t>
+        </is>
+      </c>
+      <c r="ED13" t="inlineStr">
+        <is>
+          <t>460236</t>
+        </is>
+      </c>
+      <c r="EE13" t="inlineStr"/>
+      <c r="EF13" t="inlineStr"/>
+      <c r="EG13" t="inlineStr">
+        <is>
+          <t>218345</t>
+        </is>
+      </c>
+      <c r="EH13" t="inlineStr">
+        <is>
+          <t>908251-1</t>
+        </is>
+      </c>
+      <c r="EI13" t="inlineStr"/>
+      <c r="EJ13" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="EK13" t="inlineStr">
+        <is>
+          <t>https://powo.science.kew.org/taxon/908251-1</t>
+        </is>
+      </c>
+      <c r="EL13" t="inlineStr">
+        <is>
+          <t>Burundi, Ethiopia, Kenya, Tanzania, Uganda</t>
+        </is>
+      </c>
+      <c r="EM13" t="inlineStr"/>
+      <c r="EN13" t="inlineStr">
+        <is>
+          <t>West-Central Tropical Africa, Northeast Tropical Africa, East Tropical Africa</t>
+        </is>
+      </c>
+      <c r="EO13" t="inlineStr">
+        <is>
+          <t>Africa</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>14</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://powo.science.kew.org/taxon/871846-1</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Aframomum daniellii</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>(Hook.f.) K.Schum.</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Aframomum hanburyi K.Schum.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>cardamoms</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>bastard Melegueta</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>vanwyk_2014_culinary</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>Plantae</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>seed</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>bastard Melegueta; Cameroon cardamom</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>bastard Melegueta; Cameroon cardamom</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>Cameroon cardamom</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr"/>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>African cardamom (Wikipedia)</t>
+        </is>
+      </c>
+      <c r="AP14" t="inlineStr"/>
+      <c r="AQ14" t="inlineStr"/>
+      <c r="AR14" t="inlineStr"/>
+      <c r="AS14" t="inlineStr">
+        <is>
+          <t>Trop W Afr</t>
+        </is>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AU14" t="inlineStr"/>
+      <c r="AV14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr"/>
+      <c r="AX14" t="inlineStr"/>
+      <c r="AY14" t="inlineStr"/>
+      <c r="AZ14" t="inlineStr"/>
+      <c r="BA14" t="inlineStr"/>
+      <c r="BB14" t="inlineStr"/>
+      <c r="BC14" t="inlineStr"/>
+      <c r="BD14" t="inlineStr"/>
+      <c r="BE14" t="inlineStr"/>
+      <c r="BF14" t="inlineStr"/>
+      <c r="BG14" t="inlineStr"/>
+      <c r="BH14" t="inlineStr"/>
+      <c r="BI14" t="inlineStr"/>
+      <c r="BJ14" t="inlineStr"/>
+      <c r="BK14" t="inlineStr"/>
+      <c r="BL14" t="inlineStr"/>
+      <c r="BM14" t="inlineStr"/>
+      <c r="BN14" t="inlineStr"/>
+      <c r="BO14" t="inlineStr"/>
+      <c r="BP14" t="inlineStr"/>
+      <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
+      <c r="BS14" t="inlineStr"/>
+      <c r="BT14" t="inlineStr"/>
+      <c r="BU14" t="inlineStr"/>
+      <c r="BV14" t="inlineStr"/>
+      <c r="BW14" t="inlineStr"/>
+      <c r="BX14" t="inlineStr"/>
+      <c r="BY14" t="inlineStr"/>
+      <c r="BZ14" t="inlineStr"/>
+      <c r="CA14" t="inlineStr"/>
+      <c r="CB14" t="inlineStr"/>
+      <c r="CC14" t="inlineStr"/>
+      <c r="CD14" t="inlineStr"/>
+      <c r="CE14" t="inlineStr"/>
+      <c r="CF14" t="inlineStr"/>
+      <c r="CG14" t="inlineStr"/>
+      <c r="CH14" t="inlineStr"/>
+      <c r="CI14" t="inlineStr"/>
+      <c r="CJ14" t="inlineStr"/>
+      <c r="CK14" t="inlineStr"/>
+      <c r="CL14" t="inlineStr"/>
+      <c r="CM14" t="inlineStr"/>
+      <c r="CN14" t="inlineStr"/>
+      <c r="CO14" t="inlineStr"/>
+      <c r="CP14" t="inlineStr"/>
+      <c r="CQ14" t="inlineStr"/>
+      <c r="CR14" t="inlineStr"/>
+      <c r="CS14" t="inlineStr"/>
+      <c r="CT14" t="inlineStr"/>
+      <c r="CU14" t="inlineStr"/>
+      <c r="CV14" t="inlineStr"/>
+      <c r="CW14" t="inlineStr"/>
+      <c r="CX14" t="inlineStr"/>
+      <c r="CY14" t="inlineStr"/>
+      <c r="CZ14" t="inlineStr"/>
+      <c r="DA14" t="inlineStr"/>
+      <c r="DB14" t="inlineStr"/>
+      <c r="DC14" t="inlineStr"/>
+      <c r="DD14" t="inlineStr"/>
+      <c r="DE14" t="inlineStr"/>
+      <c r="DF14" t="inlineStr">
+        <is>
+          <t>bastard_melegueta</t>
+        </is>
+      </c>
+      <c r="DG14" t="inlineStr">
+        <is>
+          <t>https://partigabor.github.io/aromatica/items/bastard_melegueta</t>
+        </is>
+      </c>
+      <c r="DH14" t="inlineStr">
+        <is>
+          <t>218368</t>
+        </is>
+      </c>
+      <c r="DI14" t="inlineStr">
+        <is>
+          <t>871846-1</t>
+        </is>
+      </c>
+      <c r="DJ14" t="inlineStr">
+        <is>
+          <t>Species</t>
+        </is>
+      </c>
+      <c r="DK14" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="DL14" t="inlineStr">
+        <is>
+          <t>Zingiberaceae</t>
+        </is>
+      </c>
+      <c r="DM14" t="inlineStr"/>
+      <c r="DN14" t="inlineStr">
+        <is>
+          <t>Aframomum</t>
+        </is>
+      </c>
+      <c r="DO14" t="inlineStr"/>
+      <c r="DP14" t="inlineStr">
+        <is>
+          <t>daniellii</t>
+        </is>
+      </c>
+      <c r="DQ14" t="inlineStr"/>
+      <c r="DR14" t="inlineStr"/>
+      <c r="DS14" t="inlineStr">
+        <is>
+          <t>Hook.f.</t>
+        </is>
+      </c>
+      <c r="DT14" t="inlineStr">
+        <is>
+          <t>K.Schum.</t>
+        </is>
+      </c>
+      <c r="DU14" t="inlineStr">
+        <is>
+          <t>H.G.A.Engler (ed.)</t>
+        </is>
+      </c>
+      <c r="DV14" t="inlineStr">
+        <is>
+          <t>Pflanzenr.</t>
+        </is>
+      </c>
+      <c r="DW14" t="inlineStr">
+        <is>
+          <t>, IV, 46: 218</t>
+        </is>
+      </c>
+      <c r="DX14" t="inlineStr">
+        <is>
+          <t>(1904)</t>
+        </is>
+      </c>
+      <c r="DY14" t="inlineStr"/>
+      <c r="DZ14" t="inlineStr">
+        <is>
+          <t>SE. Nigeria to SW. Kenya and Angola</t>
+        </is>
+      </c>
+      <c r="EA14" t="inlineStr">
+        <is>
+          <t>rhizomatous geophyte</t>
+        </is>
+      </c>
+      <c r="EB14" t="inlineStr">
+        <is>
+          <t>wet tropical</t>
+        </is>
+      </c>
+      <c r="EC14" t="inlineStr">
+        <is>
+          <t>218368</t>
+        </is>
+      </c>
+      <c r="ED14" t="inlineStr">
+        <is>
+          <t>219241</t>
+        </is>
+      </c>
+      <c r="EE14" t="inlineStr"/>
+      <c r="EF14" t="inlineStr"/>
+      <c r="EG14" t="inlineStr">
+        <is>
+          <t>218345</t>
+        </is>
+      </c>
+      <c r="EH14" t="inlineStr">
+        <is>
+          <t>871846-1</t>
+        </is>
+      </c>
+      <c r="EI14" t="inlineStr"/>
+      <c r="EJ14" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="EK14" t="inlineStr">
+        <is>
+          <t>https://powo.science.kew.org/taxon/871846-1</t>
+        </is>
+      </c>
+      <c r="EL14" t="inlineStr">
+        <is>
+          <t>Nigeria, Central African Repu, Cameroon, Congo, Equatorial Guinea, Gabon, Gulf of Guinea Is., Kenya, Uganda, Angola</t>
+        </is>
+      </c>
+      <c r="EM14" t="inlineStr"/>
+      <c r="EN14" t="inlineStr">
+        <is>
+          <t>West Tropical Africa, West-Central Tropical Africa, East Tropical Africa, South Tropical Africa</t>
+        </is>
+      </c>
+      <c r="EO14" t="inlineStr">
+        <is>
+          <t>Africa</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>23</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://powo.science.kew.org/taxon/795283-1</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Alpinia globosa</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>(Lour.) Horan.</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Amomum globosum Lour.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>cardamoms</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>round Chinese cardamom</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>the small round compact fruits of Alpinia globosa</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>vanwyk_2014_culinary</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>culinary</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>rare</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Plantae</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>fruit &amp; seed</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>round Chinese cardamom; Chinese cardamom; round China cardamom</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>round Chinese cardamom</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>Chinese cardamom</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>round China cardamom</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr"/>
+      <c r="AP15" t="inlineStr"/>
+      <c r="AQ15" t="inlineStr"/>
+      <c r="AR15" t="inlineStr"/>
+      <c r="AS15" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="AT15" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="AU15" t="inlineStr"/>
+      <c r="AV15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr"/>
+      <c r="AX15" t="inlineStr"/>
+      <c r="AY15" t="inlineStr"/>
+      <c r="AZ15" t="inlineStr"/>
+      <c r="BA15" t="inlineStr"/>
+      <c r="BB15" t="inlineStr"/>
+      <c r="BC15" t="inlineStr"/>
+      <c r="BD15" t="inlineStr"/>
+      <c r="BE15" t="inlineStr"/>
+      <c r="BF15" t="inlineStr"/>
+      <c r="BG15" t="inlineStr"/>
+      <c r="BH15" t="inlineStr"/>
+      <c r="BI15" t="inlineStr"/>
+      <c r="BJ15" t="inlineStr"/>
+      <c r="BK15" t="inlineStr"/>
+      <c r="BL15" t="inlineStr"/>
+      <c r="BM15" t="inlineStr"/>
+      <c r="BN15" t="inlineStr"/>
+      <c r="BO15" t="inlineStr"/>
+      <c r="BP15" t="inlineStr"/>
+      <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr">
+        <is>
+          <t>脆果山姜</t>
+        </is>
+      </c>
+      <c r="BS15" t="inlineStr">
+        <is>
+          <t>cuìguǒshānjiāng</t>
+        </is>
+      </c>
+      <c r="BT15" t="inlineStr">
+        <is>
+          <t>brittle-fruit-mountain-ginger</t>
+        </is>
+      </c>
+      <c r="BU15" t="inlineStr"/>
+      <c r="BV15" t="inlineStr"/>
+      <c r="BW15" t="inlineStr"/>
+      <c r="BX15" t="inlineStr"/>
+      <c r="BY15" t="inlineStr"/>
+      <c r="BZ15" t="inlineStr"/>
+      <c r="CA15" t="inlineStr"/>
+      <c r="CB15" t="inlineStr"/>
+      <c r="CC15" t="inlineStr"/>
+      <c r="CD15" t="inlineStr"/>
+      <c r="CE15" t="inlineStr"/>
+      <c r="CF15" t="inlineStr"/>
+      <c r="CG15" t="inlineStr"/>
+      <c r="CH15" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="CI15" t="inlineStr"/>
+      <c r="CJ15" t="inlineStr"/>
+      <c r="CK15" t="inlineStr"/>
+      <c r="CL15" t="inlineStr"/>
+      <c r="CM15" t="inlineStr"/>
+      <c r="CN15" t="inlineStr"/>
+      <c r="CO15" t="inlineStr"/>
+      <c r="CP15" t="inlineStr"/>
+      <c r="CQ15" t="inlineStr"/>
+      <c r="CR15" t="inlineStr">
+        <is>
+          <t>http://www.efloras.org/florataxon.aspx?flora_id=2&amp;taxon_id=200028270</t>
+        </is>
+      </c>
+      <c r="CS15" t="inlineStr"/>
+      <c r="CT15" t="inlineStr"/>
+      <c r="CU15" t="inlineStr"/>
+      <c r="CV15" t="inlineStr"/>
+      <c r="CW15" t="inlineStr"/>
+      <c r="CX15" t="inlineStr"/>
+      <c r="CY15" t="inlineStr"/>
+      <c r="CZ15" t="inlineStr"/>
+      <c r="DA15" t="inlineStr"/>
+      <c r="DB15" t="inlineStr"/>
+      <c r="DC15" t="inlineStr"/>
+      <c r="DD15" t="inlineStr"/>
+      <c r="DE15" t="inlineStr"/>
+      <c r="DF15" t="inlineStr">
+        <is>
+          <t>round_chinese_cardamom</t>
+        </is>
+      </c>
+      <c r="DG15" t="inlineStr">
+        <is>
+          <t>https://partigabor.github.io/aromatica/items/round_chinese_cardamom</t>
+        </is>
+      </c>
+      <c r="DH15" t="inlineStr">
+        <is>
+          <t>218801</t>
+        </is>
+      </c>
+      <c r="DI15" t="inlineStr">
+        <is>
+          <t>795283-1</t>
+        </is>
+      </c>
+      <c r="DJ15" t="inlineStr">
+        <is>
+          <t>Species</t>
+        </is>
+      </c>
+      <c r="DK15" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="DL15" t="inlineStr">
+        <is>
+          <t>Zingiberaceae</t>
+        </is>
+      </c>
+      <c r="DM15" t="inlineStr"/>
+      <c r="DN15" t="inlineStr">
+        <is>
+          <t>Alpinia</t>
+        </is>
+      </c>
+      <c r="DO15" t="inlineStr"/>
+      <c r="DP15" t="inlineStr">
+        <is>
+          <t>globosa</t>
+        </is>
+      </c>
+      <c r="DQ15" t="inlineStr"/>
+      <c r="DR15" t="inlineStr"/>
+      <c r="DS15" t="inlineStr">
+        <is>
+          <t>Lour.</t>
+        </is>
+      </c>
+      <c r="DT15" t="inlineStr">
+        <is>
+          <t>Horan.</t>
+        </is>
+      </c>
+      <c r="DU15" t="inlineStr"/>
+      <c r="DV15" t="inlineStr">
+        <is>
+          <t>Prodr. Monogr. Scitam.</t>
+        </is>
+      </c>
+      <c r="DW15" t="inlineStr">
+        <is>
+          <t>: 34</t>
+        </is>
+      </c>
+      <c r="DX15" t="inlineStr">
+        <is>
+          <t>(1862)</t>
+        </is>
+      </c>
+      <c r="DY15" t="inlineStr"/>
+      <c r="DZ15" t="inlineStr">
+        <is>
+          <t>China (S. Yunnan) to Vietnam</t>
+        </is>
+      </c>
+      <c r="EA15" t="inlineStr">
+        <is>
+          <t>rhizomatous geophyte</t>
+        </is>
+      </c>
+      <c r="EB15" t="inlineStr">
+        <is>
+          <t>wet tropical</t>
+        </is>
+      </c>
+      <c r="EC15" t="inlineStr">
+        <is>
+          <t>218801</t>
+        </is>
+      </c>
+      <c r="ED15" t="inlineStr">
+        <is>
+          <t>219286</t>
+        </is>
+      </c>
+      <c r="EE15" t="inlineStr"/>
+      <c r="EF15" t="inlineStr"/>
+      <c r="EG15" t="inlineStr">
+        <is>
+          <t>218628</t>
+        </is>
+      </c>
+      <c r="EH15" t="inlineStr">
+        <is>
+          <t>795283-1</t>
+        </is>
+      </c>
+      <c r="EI15" t="inlineStr"/>
+      <c r="EJ15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="EK15" t="inlineStr">
+        <is>
+          <t>https://powo.science.kew.org/taxon/795283-1</t>
+        </is>
+      </c>
+      <c r="EL15" t="inlineStr">
+        <is>
+          <t>China South-Central, Vietnam</t>
+        </is>
+      </c>
+      <c r="EM15" t="inlineStr"/>
+      <c r="EN15" t="inlineStr">
+        <is>
+          <t>China, Indo-China</t>
+        </is>
+      </c>
+      <c r="EO15" t="inlineStr">
+        <is>
+          <t>Asia-Temperate, Asia-Tropical</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://powo.science.kew.org/taxon/795588-1</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Amomum maximum</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Roxb.</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>cardamoms</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Java cardamom</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>vanwyk_2014_culinary</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>culinary; ornamental</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>Plantae</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>fruit &amp; seed</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>Java cardamom</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>Java cardamom</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr"/>
+      <c r="AO16" t="inlineStr"/>
+      <c r="AP16" t="inlineStr"/>
+      <c r="AQ16" t="inlineStr"/>
+      <c r="AR16" t="inlineStr"/>
+      <c r="AS16" t="inlineStr">
+        <is>
+          <t>Trop As</t>
+        </is>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AU16" t="inlineStr"/>
+      <c r="AV16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr"/>
+      <c r="AX16" t="inlineStr"/>
+      <c r="AY16" t="inlineStr"/>
+      <c r="AZ16" t="inlineStr"/>
+      <c r="BA16" t="inlineStr"/>
+      <c r="BB16" t="inlineStr"/>
+      <c r="BC16" t="inlineStr"/>
+      <c r="BD16" t="inlineStr"/>
+      <c r="BE16" t="inlineStr"/>
+      <c r="BF16" t="inlineStr"/>
+      <c r="BG16" t="inlineStr"/>
+      <c r="BH16" t="inlineStr"/>
+      <c r="BI16" t="inlineStr"/>
+      <c r="BJ16" t="inlineStr"/>
+      <c r="BK16" t="inlineStr"/>
+      <c r="BL16" t="inlineStr"/>
+      <c r="BM16" t="inlineStr"/>
+      <c r="BN16" t="inlineStr"/>
+      <c r="BO16" t="inlineStr"/>
+      <c r="BP16" t="inlineStr"/>
+      <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
+      <c r="BS16" t="inlineStr"/>
+      <c r="BT16" t="inlineStr"/>
+      <c r="BU16" t="inlineStr"/>
+      <c r="BV16" t="inlineStr"/>
+      <c r="BW16" t="inlineStr"/>
+      <c r="BX16" t="inlineStr"/>
+      <c r="BY16" t="inlineStr"/>
+      <c r="BZ16" t="inlineStr"/>
+      <c r="CA16" t="inlineStr"/>
+      <c r="CB16" t="inlineStr"/>
+      <c r="CC16" t="inlineStr"/>
+      <c r="CD16" t="inlineStr"/>
+      <c r="CE16" t="inlineStr"/>
+      <c r="CF16" t="inlineStr"/>
+      <c r="CG16" t="inlineStr"/>
+      <c r="CH16" t="inlineStr"/>
+      <c r="CI16" t="inlineStr"/>
+      <c r="CJ16" t="inlineStr"/>
+      <c r="CK16" t="inlineStr"/>
+      <c r="CL16" t="inlineStr"/>
+      <c r="CM16" t="inlineStr"/>
+      <c r="CN16" t="inlineStr"/>
+      <c r="CO16" t="inlineStr"/>
+      <c r="CP16" t="inlineStr"/>
+      <c r="CQ16" t="inlineStr"/>
+      <c r="CR16" t="inlineStr"/>
+      <c r="CS16" t="inlineStr"/>
+      <c r="CT16" t="inlineStr"/>
+      <c r="CU16" t="inlineStr"/>
+      <c r="CV16" t="inlineStr"/>
+      <c r="CW16" t="inlineStr"/>
+      <c r="CX16" t="inlineStr"/>
+      <c r="CY16" t="inlineStr"/>
+      <c r="CZ16" t="inlineStr"/>
+      <c r="DA16" t="inlineStr"/>
+      <c r="DB16" t="inlineStr"/>
+      <c r="DC16" t="inlineStr"/>
+      <c r="DD16" t="inlineStr"/>
+      <c r="DE16" t="inlineStr"/>
+      <c r="DF16" t="inlineStr">
+        <is>
+          <t>java_cardamom</t>
+        </is>
+      </c>
+      <c r="DG16" t="inlineStr">
+        <is>
+          <t>https://partigabor.github.io/aromatica/items/java_cardamom</t>
+        </is>
+      </c>
+      <c r="DH16" t="inlineStr">
+        <is>
+          <t>219379</t>
+        </is>
+      </c>
+      <c r="DI16" t="inlineStr">
+        <is>
+          <t>795588-1</t>
+        </is>
+      </c>
+      <c r="DJ16" t="inlineStr">
+        <is>
+          <t>Species</t>
+        </is>
+      </c>
+      <c r="DK16" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="DL16" t="inlineStr">
+        <is>
+          <t>Zingiberaceae</t>
+        </is>
+      </c>
+      <c r="DM16" t="inlineStr"/>
+      <c r="DN16" t="inlineStr">
+        <is>
+          <t>Amomum</t>
+        </is>
+      </c>
+      <c r="DO16" t="inlineStr"/>
+      <c r="DP16" t="inlineStr">
+        <is>
+          <t>maximum</t>
+        </is>
+      </c>
+      <c r="DQ16" t="inlineStr"/>
+      <c r="DR16" t="inlineStr"/>
+      <c r="DS16" t="inlineStr"/>
+      <c r="DT16" t="inlineStr">
+        <is>
+          <t>Roxb.</t>
+        </is>
+      </c>
+      <c r="DU16" t="inlineStr"/>
+      <c r="DV16" t="inlineStr">
+        <is>
+          <t>Asiat. Res.</t>
+        </is>
+      </c>
+      <c r="DW16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11: 344</t>
+        </is>
+      </c>
+      <c r="DX16" t="inlineStr">
+        <is>
+          <t>(1810)</t>
+        </is>
+      </c>
+      <c r="DY16" t="inlineStr"/>
+      <c r="DZ16" t="inlineStr">
+        <is>
+          <t>Trop. &amp; Subtrop. Asia</t>
+        </is>
+      </c>
+      <c r="EA16" t="inlineStr">
+        <is>
+          <t>rhizomatous geophyte</t>
+        </is>
+      </c>
+      <c r="EB16" t="inlineStr">
+        <is>
+          <t>wet tropical</t>
+        </is>
+      </c>
+      <c r="EC16" t="inlineStr">
+        <is>
+          <t>219379</t>
+        </is>
+      </c>
+      <c r="ED16" t="inlineStr"/>
+      <c r="EE16" t="inlineStr"/>
+      <c r="EF16" t="inlineStr"/>
+      <c r="EG16" t="inlineStr">
+        <is>
+          <t>219155</t>
+        </is>
+      </c>
+      <c r="EH16" t="inlineStr">
+        <is>
+          <t>795588-1</t>
+        </is>
+      </c>
+      <c r="EI16" t="inlineStr"/>
+      <c r="EJ16" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="EK16" t="inlineStr">
+        <is>
+          <t>https://powo.science.kew.org/taxon/795588-1</t>
+        </is>
+      </c>
+      <c r="EL16" t="inlineStr">
+        <is>
+          <t>China South-Central, China Southeast, Tibet, Assam, Bangladesh, East Himalaya, India, Nepal, Sri Lanka, Andaman Is., Laos, Myanmar, Thailand, Vietnam, Jawa, Lesser Sunda Is., Sumatera, New Guinea</t>
+        </is>
+      </c>
+      <c r="EM16" t="inlineStr"/>
+      <c r="EN16" t="inlineStr">
+        <is>
+          <t>China, Indian Subcontinent, Indo-China, Malesia, Papuasia</t>
+        </is>
+      </c>
+      <c r="EO16" t="inlineStr">
+        <is>
+          <t>Asia-Temperate, Asia-Tropical</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>14</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://powo.science.kew.org/taxon/797036-1</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Hornstedtia costata</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>(Roxb.) K.Schum.</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Amomum costatum (Roxb.) Benth. ex Baker</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>cardamoms</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Chinese black cardamom</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>the dark seed pods of Hornstedtia costata, similar to tsaoko</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>vanwyk_2014_culinary</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>culinary</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>Plantae</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>fruit &amp; seed</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>Chinese black cardamom</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>Chinese black cardamom</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr"/>
+      <c r="AI17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="inlineStr"/>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr"/>
+      <c r="AO17" t="inlineStr"/>
+      <c r="AP17" t="inlineStr"/>
+      <c r="AQ17" t="inlineStr"/>
+      <c r="AR17" t="inlineStr"/>
+      <c r="AS17" t="inlineStr">
+        <is>
+          <t>E As</t>
+        </is>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AU17" t="inlineStr"/>
+      <c r="AV17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr"/>
+      <c r="AX17" t="inlineStr"/>
+      <c r="AY17" t="inlineStr"/>
+      <c r="AZ17" t="inlineStr"/>
+      <c r="BA17" t="inlineStr"/>
+      <c r="BB17" t="inlineStr"/>
+      <c r="BC17" t="inlineStr"/>
+      <c r="BD17" t="inlineStr"/>
+      <c r="BE17" t="inlineStr"/>
+      <c r="BF17" t="inlineStr"/>
+      <c r="BG17" t="inlineStr"/>
+      <c r="BH17" t="inlineStr"/>
+      <c r="BI17" t="inlineStr"/>
+      <c r="BJ17" t="inlineStr"/>
+      <c r="BK17" t="inlineStr"/>
+      <c r="BL17" t="inlineStr"/>
+      <c r="BM17" t="inlineStr"/>
+      <c r="BN17" t="inlineStr"/>
+      <c r="BO17" t="inlineStr"/>
+      <c r="BP17" t="inlineStr"/>
+      <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
+      <c r="BS17" t="inlineStr"/>
+      <c r="BT17" t="inlineStr"/>
+      <c r="BU17" t="inlineStr"/>
+      <c r="BV17" t="inlineStr"/>
+      <c r="BW17" t="inlineStr"/>
+      <c r="BX17" t="inlineStr"/>
+      <c r="BY17" t="inlineStr"/>
+      <c r="BZ17" t="inlineStr"/>
+      <c r="CA17" t="inlineStr"/>
+      <c r="CB17" t="inlineStr"/>
+      <c r="CC17" t="inlineStr"/>
+      <c r="CD17" t="inlineStr"/>
+      <c r="CE17" t="inlineStr"/>
+      <c r="CF17" t="inlineStr"/>
+      <c r="CG17" t="inlineStr"/>
+      <c r="CH17" t="inlineStr"/>
+      <c r="CI17" t="inlineStr"/>
+      <c r="CJ17" t="inlineStr"/>
+      <c r="CK17" t="inlineStr"/>
+      <c r="CL17" t="inlineStr"/>
+      <c r="CM17" t="inlineStr"/>
+      <c r="CN17" t="inlineStr"/>
+      <c r="CO17" t="inlineStr"/>
+      <c r="CP17" t="inlineStr"/>
+      <c r="CQ17" t="inlineStr"/>
+      <c r="CR17" t="inlineStr"/>
+      <c r="CS17" t="inlineStr"/>
+      <c r="CT17" t="inlineStr"/>
+      <c r="CU17" t="inlineStr"/>
+      <c r="CV17" t="inlineStr"/>
+      <c r="CW17" t="inlineStr"/>
+      <c r="CX17" t="inlineStr"/>
+      <c r="CY17" t="inlineStr"/>
+      <c r="CZ17" t="inlineStr"/>
+      <c r="DA17" t="inlineStr"/>
+      <c r="DB17" t="inlineStr"/>
+      <c r="DC17" t="inlineStr"/>
+      <c r="DD17" t="inlineStr"/>
+      <c r="DE17" t="inlineStr"/>
+      <c r="DF17" t="inlineStr">
+        <is>
+          <t>chinese_black_cardamom</t>
+        </is>
+      </c>
+      <c r="DG17" t="inlineStr">
+        <is>
+          <t>https://partigabor.github.io/aromatica/items/chinese_black_cardamom</t>
+        </is>
+      </c>
+      <c r="DH17" t="inlineStr">
+        <is>
+          <t>249309</t>
+        </is>
+      </c>
+      <c r="DI17" t="inlineStr">
+        <is>
+          <t>797036-1</t>
+        </is>
+      </c>
+      <c r="DJ17" t="inlineStr">
+        <is>
+          <t>Species</t>
+        </is>
+      </c>
+      <c r="DK17" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="DL17" t="inlineStr">
+        <is>
+          <t>Zingiberaceae</t>
+        </is>
+      </c>
+      <c r="DM17" t="inlineStr"/>
+      <c r="DN17" t="inlineStr">
+        <is>
+          <t>Hornstedtia</t>
+        </is>
+      </c>
+      <c r="DO17" t="inlineStr"/>
+      <c r="DP17" t="inlineStr">
+        <is>
+          <t>costata</t>
+        </is>
+      </c>
+      <c r="DQ17" t="inlineStr"/>
+      <c r="DR17" t="inlineStr"/>
+      <c r="DS17" t="inlineStr">
+        <is>
+          <t>Roxb.</t>
+        </is>
+      </c>
+      <c r="DT17" t="inlineStr">
+        <is>
+          <t>K.Schum.</t>
+        </is>
+      </c>
+      <c r="DU17" t="inlineStr">
+        <is>
+          <t>H.G.A.Engler (ed.)</t>
+        </is>
+      </c>
+      <c r="DV17" t="inlineStr">
+        <is>
+          <t>Pflanzenr.</t>
+        </is>
+      </c>
+      <c r="DW17" t="inlineStr">
+        <is>
+          <t>, IV, 46: 198</t>
+        </is>
+      </c>
+      <c r="DX17" t="inlineStr">
+        <is>
+          <t>(1904)</t>
+        </is>
+      </c>
+      <c r="DY17" t="inlineStr"/>
+      <c r="DZ17" t="inlineStr">
+        <is>
+          <t>E. Himalaya to Bangladesh</t>
+        </is>
+      </c>
+      <c r="EA17" t="inlineStr">
+        <is>
+          <t>perennial or rhizomatous geophyte</t>
+        </is>
+      </c>
+      <c r="EB17" t="inlineStr">
+        <is>
+          <t>subtropical</t>
+        </is>
+      </c>
+      <c r="EC17" t="inlineStr">
+        <is>
+          <t>249309</t>
+        </is>
+      </c>
+      <c r="ED17" t="inlineStr">
+        <is>
+          <t>218735</t>
+        </is>
+      </c>
+      <c r="EE17" t="inlineStr"/>
+      <c r="EF17" t="inlineStr"/>
+      <c r="EG17" t="inlineStr">
+        <is>
+          <t>249298</t>
+        </is>
+      </c>
+      <c r="EH17" t="inlineStr">
+        <is>
+          <t>797036-1</t>
+        </is>
+      </c>
+      <c r="EI17" t="inlineStr"/>
+      <c r="EJ17" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="EK17" t="inlineStr">
+        <is>
+          <t>https://powo.science.kew.org/taxon/797036-1</t>
+        </is>
+      </c>
+      <c r="EL17" t="inlineStr">
+        <is>
+          <t>Assam, Bangladesh, East Himalaya</t>
+        </is>
+      </c>
+      <c r="EM17" t="inlineStr"/>
+      <c r="EN17" t="inlineStr">
+        <is>
+          <t>Indian Subcontinent</t>
+        </is>
+      </c>
+      <c r="EO17" t="inlineStr">
+        <is>
+          <t>Asia-Tropical</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>23</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://powo.science.kew.org/taxon/77178270-1</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Wurfbainia aromatica</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>(Roxb.) Škorničk. &amp; A.D.Poulsen</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Amomum aromaticum Roxb.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>cardamoms</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Bengal cardamom</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>the smoked, brown fruits of Wurfbania aromatica, similar to tsaoko</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>vanwyk_2014_culinary</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>culinary</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>Plantae</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>fruit &amp; seed</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>Bengal cardamom; Nepal cardamom; large cardamom</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>Bengal cardamom; Nepal cardamom; large cardamom</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>Bengal cardamom</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="inlineStr"/>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr"/>
+      <c r="AO18" t="inlineStr"/>
+      <c r="AP18" t="inlineStr"/>
+      <c r="AQ18" t="inlineStr"/>
+      <c r="AR18" t="inlineStr"/>
+      <c r="AS18" t="inlineStr">
+        <is>
+          <t>N Ind; Bangl; Nepal; eastern Himalayas</t>
+        </is>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AU18" t="n">
+        <v>24</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>90</v>
+      </c>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Dhaka</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr">
+        <is>
+          <t>Vietnam?</t>
+        </is>
+      </c>
+      <c r="AZ18" t="inlineStr">
+        <is>
+          <t>brown</t>
+        </is>
+      </c>
+      <c r="BA18" t="inlineStr"/>
+      <c r="BB18" t="inlineStr"/>
+      <c r="BC18" t="inlineStr"/>
+      <c r="BD18" t="inlineStr"/>
+      <c r="BE18" t="inlineStr"/>
+      <c r="BF18" t="inlineStr"/>
+      <c r="BG18" t="inlineStr"/>
+      <c r="BH18" t="inlineStr"/>
+      <c r="BI18" t="inlineStr"/>
+      <c r="BJ18" t="inlineStr"/>
+      <c r="BK18" t="inlineStr"/>
+      <c r="BL18" t="inlineStr"/>
+      <c r="BM18" t="inlineStr"/>
+      <c r="BN18" t="inlineStr"/>
+      <c r="BO18" t="inlineStr"/>
+      <c r="BP18" t="inlineStr"/>
+      <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
+      <c r="BS18" t="inlineStr"/>
+      <c r="BT18" t="inlineStr"/>
+      <c r="BU18" t="inlineStr"/>
+      <c r="BV18" t="inlineStr"/>
+      <c r="BW18" t="inlineStr"/>
+      <c r="BX18" t="inlineStr"/>
+      <c r="BY18" t="inlineStr"/>
+      <c r="BZ18" t="inlineStr"/>
+      <c r="CA18" t="inlineStr"/>
+      <c r="CB18" t="inlineStr"/>
+      <c r="CC18" t="inlineStr"/>
+      <c r="CD18" t="inlineStr"/>
+      <c r="CE18" t="inlineStr"/>
+      <c r="CF18" t="inlineStr"/>
+      <c r="CG18" t="inlineStr"/>
+      <c r="CH18" t="inlineStr"/>
+      <c r="CI18" t="inlineStr"/>
+      <c r="CJ18" t="inlineStr"/>
+      <c r="CK18" t="inlineStr"/>
+      <c r="CL18" t="inlineStr"/>
+      <c r="CM18" t="inlineStr"/>
+      <c r="CN18" t="inlineStr"/>
+      <c r="CO18" t="inlineStr"/>
+      <c r="CP18" t="inlineStr"/>
+      <c r="CQ18" t="inlineStr"/>
+      <c r="CR18" t="inlineStr"/>
+      <c r="CS18" t="inlineStr"/>
+      <c r="CT18" t="inlineStr"/>
+      <c r="CU18" t="inlineStr"/>
+      <c r="CV18" t="inlineStr"/>
+      <c r="CW18" t="inlineStr"/>
+      <c r="CX18" t="inlineStr"/>
+      <c r="CY18" t="inlineStr"/>
+      <c r="CZ18" t="inlineStr"/>
+      <c r="DA18" t="inlineStr"/>
+      <c r="DB18" t="inlineStr"/>
+      <c r="DC18" t="inlineStr"/>
+      <c r="DD18" t="inlineStr"/>
+      <c r="DE18" t="inlineStr"/>
+      <c r="DF18" t="inlineStr">
+        <is>
+          <t>bengal_cardamom</t>
+        </is>
+      </c>
+      <c r="DG18" t="inlineStr">
+        <is>
+          <t>https://partigabor.github.io/aromatica/items/bengal_cardamom</t>
+        </is>
+      </c>
+      <c r="DH18" t="inlineStr">
+        <is>
+          <t>532076</t>
+        </is>
+      </c>
+      <c r="DI18" t="inlineStr">
+        <is>
+          <t>77178270-1</t>
+        </is>
+      </c>
+      <c r="DJ18" t="inlineStr">
+        <is>
+          <t>Species</t>
+        </is>
+      </c>
+      <c r="DK18" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="DL18" t="inlineStr">
+        <is>
+          <t>Zingiberaceae</t>
+        </is>
+      </c>
+      <c r="DM18" t="inlineStr"/>
+      <c r="DN18" t="inlineStr">
+        <is>
+          <t>Wurfbainia</t>
+        </is>
+      </c>
+      <c r="DO18" t="inlineStr"/>
+      <c r="DP18" t="inlineStr">
+        <is>
+          <t>aromatica</t>
+        </is>
+      </c>
+      <c r="DQ18" t="inlineStr"/>
+      <c r="DR18" t="inlineStr"/>
+      <c r="DS18" t="inlineStr">
+        <is>
+          <t>Roxb.</t>
+        </is>
+      </c>
+      <c r="DT18" t="inlineStr">
+        <is>
+          <t>Škorničk. &amp; A.D.Poulsen</t>
+        </is>
+      </c>
+      <c r="DU18" t="inlineStr"/>
+      <c r="DV18" t="inlineStr">
+        <is>
+          <t>Taxon</t>
+        </is>
+      </c>
+      <c r="DW18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 67: 28</t>
+        </is>
+      </c>
+      <c r="DX18" t="inlineStr">
+        <is>
+          <t>(2018)</t>
+        </is>
+      </c>
+      <c r="DY18" t="inlineStr"/>
+      <c r="DZ18" t="inlineStr">
+        <is>
+          <t>Nepal to Bangladesh</t>
+        </is>
+      </c>
+      <c r="EA18" t="inlineStr">
+        <is>
+          <t>rhizomatous geophyte</t>
+        </is>
+      </c>
+      <c r="EB18" t="inlineStr">
+        <is>
+          <t>wet tropical</t>
+        </is>
+      </c>
+      <c r="EC18" t="inlineStr">
+        <is>
+          <t>532076</t>
+        </is>
+      </c>
+      <c r="ED18" t="inlineStr">
+        <is>
+          <t>219182</t>
+        </is>
+      </c>
+      <c r="EE18" t="inlineStr"/>
+      <c r="EF18" t="inlineStr"/>
+      <c r="EG18" t="inlineStr">
+        <is>
+          <t>272434</t>
+        </is>
+      </c>
+      <c r="EH18" t="inlineStr">
+        <is>
+          <t>77178270-1</t>
+        </is>
+      </c>
+      <c r="EI18" t="inlineStr"/>
+      <c r="EJ18" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="EK18" t="inlineStr">
+        <is>
+          <t>https://powo.science.kew.org/taxon/77178270-1</t>
+        </is>
+      </c>
+      <c r="EL18" t="inlineStr">
+        <is>
+          <t>Assam, Bangladesh, East Himalaya, Nepal</t>
+        </is>
+      </c>
+      <c r="EM18" t="inlineStr"/>
+      <c r="EN18" t="inlineStr">
+        <is>
+          <t>Indian Subcontinent</t>
+        </is>
+      </c>
+      <c r="EO18" t="inlineStr">
+        <is>
+          <t>Asia-Tropical</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://powo.science.kew.org/taxon/871850-1</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Aframomum exscapum</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>(Sims) Hepper</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>cardamoms; false peppers</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>alligator pepper</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>vanwyk_2014_culinary</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>seed</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>alligator pepper; *grains of paradise; mbongo spice; hepper pepper</t>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>alligator pepper; grains of paradise</t>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="inlineStr"/>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr"/>
+      <c r="AO19" t="inlineStr"/>
+      <c r="AP19" t="inlineStr"/>
+      <c r="AQ19" t="inlineStr"/>
+      <c r="AR19" t="inlineStr"/>
+      <c r="AS19" t="inlineStr">
+        <is>
+          <t>Trop W Afr</t>
+        </is>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AU19" t="inlineStr"/>
+      <c r="AV19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr"/>
+      <c r="AX19" t="inlineStr"/>
+      <c r="AY19" t="inlineStr"/>
+      <c r="AZ19" t="inlineStr"/>
+      <c r="BA19" t="inlineStr"/>
+      <c r="BB19" t="inlineStr"/>
+      <c r="BC19" t="inlineStr"/>
+      <c r="BD19" t="inlineStr"/>
+      <c r="BE19" t="inlineStr"/>
+      <c r="BF19" t="inlineStr"/>
+      <c r="BG19" t="inlineStr"/>
+      <c r="BH19" t="inlineStr"/>
+      <c r="BI19" t="inlineStr"/>
+      <c r="BJ19" t="inlineStr"/>
+      <c r="BK19" t="inlineStr"/>
+      <c r="BL19" t="inlineStr"/>
+      <c r="BM19" t="inlineStr"/>
+      <c r="BN19" t="inlineStr"/>
+      <c r="BO19" t="inlineStr"/>
+      <c r="BP19" t="inlineStr"/>
+      <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
+      <c r="BS19" t="inlineStr"/>
+      <c r="BT19" t="inlineStr"/>
+      <c r="BU19" t="inlineStr"/>
+      <c r="BV19" t="inlineStr"/>
+      <c r="BW19" t="inlineStr"/>
+      <c r="BX19" t="inlineStr"/>
+      <c r="BY19" t="inlineStr"/>
+      <c r="BZ19" t="inlineStr"/>
+      <c r="CA19" t="inlineStr"/>
+      <c r="CB19" t="inlineStr"/>
+      <c r="CC19" t="inlineStr"/>
+      <c r="CD19" t="inlineStr"/>
+      <c r="CE19" t="inlineStr"/>
+      <c r="CF19" t="inlineStr"/>
+      <c r="CG19" t="inlineStr"/>
+      <c r="CH19" t="inlineStr"/>
+      <c r="CI19" t="inlineStr"/>
+      <c r="CJ19" t="inlineStr"/>
+      <c r="CK19" t="inlineStr"/>
+      <c r="CL19" t="inlineStr"/>
+      <c r="CM19" t="inlineStr"/>
+      <c r="CN19" t="inlineStr"/>
+      <c r="CO19" t="inlineStr"/>
+      <c r="CP19" t="inlineStr"/>
+      <c r="CQ19" t="inlineStr"/>
+      <c r="CR19" t="inlineStr"/>
+      <c r="CS19" t="inlineStr"/>
+      <c r="CT19" t="inlineStr"/>
+      <c r="CU19" t="inlineStr"/>
+      <c r="CV19" t="inlineStr"/>
+      <c r="CW19" t="inlineStr"/>
+      <c r="CX19" t="inlineStr"/>
+      <c r="CY19" t="inlineStr"/>
+      <c r="CZ19" t="inlineStr"/>
+      <c r="DA19" t="inlineStr"/>
+      <c r="DB19" t="inlineStr"/>
+      <c r="DC19" t="inlineStr"/>
+      <c r="DD19" t="inlineStr"/>
+      <c r="DE19" t="inlineStr"/>
+      <c r="DF19" t="inlineStr">
+        <is>
+          <t>alligator_pepper</t>
+        </is>
+      </c>
+      <c r="DG19" t="inlineStr">
+        <is>
+          <t>https://partigabor.github.io/aromatica/items/alligator_pepper</t>
+        </is>
+      </c>
+      <c r="DH19" t="inlineStr">
+        <is>
+          <t>218372</t>
+        </is>
+      </c>
+      <c r="DI19" t="inlineStr">
+        <is>
+          <t>871850-1</t>
+        </is>
+      </c>
+      <c r="DJ19" t="inlineStr">
+        <is>
+          <t>Species</t>
+        </is>
+      </c>
+      <c r="DK19" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="DL19" t="inlineStr">
+        <is>
+          <t>Zingiberaceae</t>
+        </is>
+      </c>
+      <c r="DM19" t="inlineStr"/>
+      <c r="DN19" t="inlineStr">
+        <is>
+          <t>Aframomum</t>
+        </is>
+      </c>
+      <c r="DO19" t="inlineStr"/>
+      <c r="DP19" t="inlineStr">
+        <is>
+          <t>exscapum</t>
+        </is>
+      </c>
+      <c r="DQ19" t="inlineStr"/>
+      <c r="DR19" t="inlineStr"/>
+      <c r="DS19" t="inlineStr">
+        <is>
+          <t>Sims</t>
+        </is>
+      </c>
+      <c r="DT19" t="inlineStr">
+        <is>
+          <t>Hepper</t>
+        </is>
+      </c>
+      <c r="DU19" t="inlineStr"/>
+      <c r="DV19" t="inlineStr">
+        <is>
+          <t>Kew Bull.</t>
+        </is>
+      </c>
+      <c r="DW19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 21: 133</t>
+        </is>
+      </c>
+      <c r="DX19" t="inlineStr">
+        <is>
+          <t>(1967)</t>
+        </is>
+      </c>
+      <c r="DY19" t="inlineStr"/>
+      <c r="DZ19" t="inlineStr">
+        <is>
+          <t>Guinea to W. Ivory Coast</t>
+        </is>
+      </c>
+      <c r="EA19" t="inlineStr">
+        <is>
+          <t>perennial</t>
+        </is>
+      </c>
+      <c r="EB19" t="inlineStr">
+        <is>
+          <t>seasonally dry tropical</t>
+        </is>
+      </c>
+      <c r="EC19" t="inlineStr">
+        <is>
+          <t>218372</t>
+        </is>
+      </c>
+      <c r="ED19" t="inlineStr">
+        <is>
+          <t>219264</t>
+        </is>
+      </c>
+      <c r="EE19" t="inlineStr"/>
+      <c r="EF19" t="inlineStr"/>
+      <c r="EG19" t="inlineStr">
+        <is>
+          <t>218345</t>
+        </is>
+      </c>
+      <c r="EH19" t="inlineStr">
+        <is>
+          <t>871850-1</t>
+        </is>
+      </c>
+      <c r="EI19" t="inlineStr"/>
+      <c r="EJ19" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="EK19" t="inlineStr">
+        <is>
+          <t>https://powo.science.kew.org/taxon/871850-1</t>
+        </is>
+      </c>
+      <c r="EL19" t="inlineStr">
+        <is>
+          <t>Guinea, Ivory Coast, Liberia, Sierra Leone</t>
+        </is>
+      </c>
+      <c r="EM19" t="inlineStr">
+        <is>
+          <t>Windward Is.</t>
+        </is>
+      </c>
+      <c r="EN19" t="inlineStr">
+        <is>
+          <t>West Tropical Africa</t>
+        </is>
+      </c>
+      <c r="EO19" t="inlineStr">
+        <is>
+          <t>Africa</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>29</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://powo.science.kew.org/taxon/871877-1</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Aframomum melegueta</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>K.Schum.</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aframomum grana-paradisi (L.) K.Schum. </t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>cardamoms; false peppers</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>grains of paradise</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>vanwyk_2014_culinary</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Plantae</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>seed</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Aframomum_melegueta</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>grains of paradise; melegueta pepper;  *alligator pepper; Guinea grains; Guinea pepper; ossame; fom wisa</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>Melegueta pepper; grains of paradise; alligator pepper</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>Grains of Paradise, Guinea grains, *Guinea pepper, *Melegueta pepper</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="inlineStr"/>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="inlineStr"/>
+      <c r="AP20" t="inlineStr"/>
+      <c r="AQ20" t="inlineStr"/>
+      <c r="AR20" t="inlineStr"/>
+      <c r="AS20" t="inlineStr">
+        <is>
+          <t>Trop W Afr</t>
+        </is>
+      </c>
+      <c r="AT20" t="inlineStr">
+        <is>
+          <t>west Africa</t>
+        </is>
+      </c>
+      <c r="AU20" t="inlineStr"/>
+      <c r="AV20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr"/>
+      <c r="AX20" t="inlineStr"/>
+      <c r="AY20" t="inlineStr"/>
+      <c r="AZ20" t="inlineStr"/>
+      <c r="BA20" t="inlineStr">
+        <is>
+          <t>peppery</t>
+        </is>
+      </c>
+      <c r="BB20" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BC20" t="inlineStr">
+        <is>
+          <t>as for pepper; liquors</t>
+        </is>
+      </c>
+      <c r="BD20" t="inlineStr"/>
+      <c r="BE20" t="inlineStr"/>
+      <c r="BF20" t="inlineStr"/>
+      <c r="BG20" t="inlineStr"/>
+      <c r="BH20" t="inlineStr"/>
+      <c r="BI20" t="inlineStr"/>
+      <c r="BJ20" t="inlineStr"/>
+      <c r="BK20" t="inlineStr"/>
+      <c r="BL20" t="inlineStr"/>
+      <c r="BM20" t="inlineStr"/>
+      <c r="BN20" t="inlineStr"/>
+      <c r="BO20" t="inlineStr"/>
+      <c r="BP20" t="inlineStr"/>
+      <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr">
+        <is>
+          <t>天堂椒</t>
+        </is>
+      </c>
+      <c r="BS20" t="inlineStr">
+        <is>
+          <t>tiān​táng​jiāo</t>
+        </is>
+      </c>
+      <c r="BT20" t="inlineStr">
+        <is>
+          <t>paradise-pepper</t>
+        </is>
+      </c>
+      <c r="BU20" t="inlineStr">
+        <is>
+          <t>天堂椒; 天堂的種子; 非洲豆蔻; 椒蔻; 畿內亞胡椒; 天堂椒; 樂園籽; 梅萊蓋塔胡椒</t>
+        </is>
+      </c>
+      <c r="BV20" t="inlineStr"/>
+      <c r="BW20" t="inlineStr"/>
+      <c r="BX20" t="inlineStr">
+        <is>
+          <t>malagétabors; édenmag; paradicsmag; guineai bors</t>
+        </is>
+      </c>
+      <c r="BY20" t="inlineStr"/>
+      <c r="BZ20" t="inlineStr"/>
+      <c r="CA20" t="inlineStr"/>
+      <c r="CB20" t="inlineStr"/>
+      <c r="CC20" t="inlineStr"/>
+      <c r="CD20" t="inlineStr"/>
+      <c r="CE20" t="inlineStr"/>
+      <c r="CF20" t="inlineStr"/>
+      <c r="CG20" t="inlineStr"/>
+      <c r="CH20" t="inlineStr"/>
+      <c r="CI20" t="inlineStr"/>
+      <c r="CJ20" t="inlineStr"/>
+      <c r="CK20" t="inlineStr"/>
+      <c r="CL20" t="inlineStr">
+        <is>
+          <t>Grana paradisi</t>
+        </is>
+      </c>
+      <c r="CM20" t="inlineStr"/>
+      <c r="CN20" t="inlineStr"/>
+      <c r="CO20" t="inlineStr"/>
+      <c r="CP20" t="inlineStr"/>
+      <c r="CQ20" t="inlineStr"/>
+      <c r="CR20" t="inlineStr"/>
+      <c r="CS20" t="inlineStr"/>
+      <c r="CT20" t="inlineStr"/>
+      <c r="CU20" t="inlineStr"/>
+      <c r="CV20" t="inlineStr">
+        <is>
+          <t>http://www.theplantlist.org/tpl1.1/record/kew-218399</t>
+        </is>
+      </c>
+      <c r="CW20" t="inlineStr"/>
+      <c r="CX20" t="inlineStr"/>
+      <c r="CY20" t="n">
+        <v>637930</v>
+      </c>
+      <c r="CZ20" t="inlineStr"/>
+      <c r="DA20" t="inlineStr"/>
+      <c r="DB20" t="inlineStr"/>
+      <c r="DC20" t="inlineStr"/>
+      <c r="DD20" t="inlineStr"/>
+      <c r="DE20" t="inlineStr"/>
+      <c r="DF20" t="inlineStr">
+        <is>
+          <t>grains_of_paradise</t>
+        </is>
+      </c>
+      <c r="DG20" t="inlineStr">
+        <is>
+          <t>https://partigabor.github.io/aromatica/items/grains_of_paradise</t>
+        </is>
+      </c>
+      <c r="DH20" t="inlineStr">
+        <is>
+          <t>218399</t>
+        </is>
+      </c>
+      <c r="DI20" t="inlineStr">
+        <is>
+          <t>871877-1</t>
+        </is>
+      </c>
+      <c r="DJ20" t="inlineStr">
+        <is>
+          <t>Species</t>
+        </is>
+      </c>
+      <c r="DK20" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="DL20" t="inlineStr">
+        <is>
+          <t>Zingiberaceae</t>
+        </is>
+      </c>
+      <c r="DM20" t="inlineStr"/>
+      <c r="DN20" t="inlineStr">
+        <is>
+          <t>Aframomum</t>
+        </is>
+      </c>
+      <c r="DO20" t="inlineStr"/>
+      <c r="DP20" t="inlineStr">
+        <is>
+          <t>melegueta</t>
+        </is>
+      </c>
+      <c r="DQ20" t="inlineStr"/>
+      <c r="DR20" t="inlineStr"/>
+      <c r="DS20" t="inlineStr"/>
+      <c r="DT20" t="inlineStr">
+        <is>
+          <t>K.Schum.</t>
+        </is>
+      </c>
+      <c r="DU20" t="inlineStr">
+        <is>
+          <t>H.G.A.Engler (ed.)</t>
+        </is>
+      </c>
+      <c r="DV20" t="inlineStr">
+        <is>
+          <t>Pflanzenr.</t>
+        </is>
+      </c>
+      <c r="DW20" t="inlineStr">
+        <is>
+          <t>, IV, 46: 204</t>
+        </is>
+      </c>
+      <c r="DX20" t="inlineStr">
+        <is>
+          <t>(1904)</t>
+        </is>
+      </c>
+      <c r="DY20" t="inlineStr"/>
+      <c r="DZ20" t="inlineStr">
+        <is>
+          <t>W. Trop. Africa to Angola</t>
+        </is>
+      </c>
+      <c r="EA20" t="inlineStr">
+        <is>
+          <t>rhizomatous geophyte</t>
+        </is>
+      </c>
+      <c r="EB20" t="inlineStr">
+        <is>
+          <t>seasonally dry tropical</t>
+        </is>
+      </c>
+      <c r="EC20" t="inlineStr">
+        <is>
+          <t>218399</t>
+        </is>
+      </c>
+      <c r="ED20" t="inlineStr">
+        <is>
+          <t>219382</t>
+        </is>
+      </c>
+      <c r="EE20" t="inlineStr">
+        <is>
+          <t>Roscoe</t>
+        </is>
+      </c>
+      <c r="EF20" t="inlineStr"/>
+      <c r="EG20" t="inlineStr">
+        <is>
+          <t>218345</t>
+        </is>
+      </c>
+      <c r="EH20" t="inlineStr">
+        <is>
+          <t>871877-1</t>
+        </is>
+      </c>
+      <c r="EI20" t="inlineStr"/>
+      <c r="EJ20" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="EK20" t="inlineStr">
+        <is>
+          <t>https://powo.science.kew.org/taxon/871877-1</t>
+        </is>
+      </c>
+      <c r="EL20" t="inlineStr">
+        <is>
+          <t>Benin, Gambia, Ghana, Guinea, Ivory Coast, Liberia, Nigeria, Sierra Leone, Togo, Cameroon, Congo, Equatorial Guinea, Gabon, Gulf of Guinea Is., Zaïre, Angola</t>
+        </is>
+      </c>
+      <c r="EM20" t="inlineStr">
+        <is>
+          <t>Trinidad-Tobago, Windward Is., French Guiana, Guyana</t>
+        </is>
+      </c>
+      <c r="EN20" t="inlineStr">
+        <is>
+          <t>West Tropical Africa, West-Central Tropical Africa, South Tropical Africa</t>
+        </is>
+      </c>
+      <c r="EO20" t="inlineStr">
+        <is>
+          <t>Africa</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>72</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Myristica fragrans</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Houtt.</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>nutmeg</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>the seed of a peach-like fruit of the nutmeg tree of the Moluccas, Indonesia</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>mace</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>vanwyk_2014_culinary</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W21" t="n">
+        <v>1</v>
+      </c>
+      <c r="X21" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>culinary; medicinal</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>Plantae</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>seed</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Nutmeg#Mace</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>https://www.britannica.com/topic/nutmeg</t>
+        </is>
+      </c>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>nutmeg</t>
+        </is>
+      </c>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>nutmeg</t>
+        </is>
+      </c>
+      <c r="AH21" t="inlineStr"/>
+      <c r="AI21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="inlineStr"/>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="inlineStr"/>
+      <c r="AP21" t="inlineStr">
+        <is>
+          <t>nutmeg; jawz al-tib; roudoukou</t>
+        </is>
+      </c>
+      <c r="AQ21" t="inlineStr"/>
+      <c r="AR21" t="inlineStr">
+        <is>
+          <t>nutmeg tree</t>
+        </is>
+      </c>
+      <c r="AS21" t="inlineStr">
+        <is>
+          <t>Moluccas (Indonesia)</t>
+        </is>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AU21" t="n">
+        <v>-4</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>129</v>
+      </c>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr">
+        <is>
+          <t>Grenada; Indonesia</t>
+        </is>
+      </c>
+      <c r="AZ21" t="inlineStr">
+        <is>
+          <t>pale brown nut, dark when powdered</t>
+        </is>
+      </c>
+      <c r="BA21" t="inlineStr">
+        <is>
+          <t>sweet, warm, nutty</t>
+        </is>
+      </c>
+      <c r="BB21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BC21" t="inlineStr">
+        <is>
+          <t>desserts, eggnog; diahrrhea</t>
+        </is>
+      </c>
+      <c r="BD21" t="inlineStr">
+        <is>
+          <t>Köhler's Medizinal-Pflanzen</t>
+        </is>
+      </c>
+      <c r="BE21" t="inlineStr">
+        <is>
+          <t>II 132</t>
+        </is>
+      </c>
+      <c r="BF21" t="inlineStr">
+        <is>
+          <t>koehler_1887_koehler</t>
+        </is>
+      </c>
+      <c r="BG21" t="inlineStr">
+        <is>
+          <t>https://www.biodiversitylibrary.org/item/10837#page/609/mode/1up</t>
+        </is>
+      </c>
+      <c r="BH21" t="inlineStr"/>
+      <c r="BI21" t="inlineStr">
+        <is>
+          <t>nutmeg.n.01</t>
+        </is>
+      </c>
+      <c r="BJ21" t="inlineStr">
+        <is>
+          <t>nutmeg.n.02</t>
+        </is>
+      </c>
+      <c r="BK21" t="inlineStr"/>
+      <c r="BL21" t="inlineStr">
+        <is>
+          <t>nutmeg</t>
+        </is>
+      </c>
+      <c r="BM21" t="inlineStr"/>
+      <c r="BN21" t="inlineStr">
+        <is>
+          <t>جوز الطيب</t>
+        </is>
+      </c>
+      <c r="BO21" t="inlineStr">
+        <is>
+          <t>jawz al-ṭīb</t>
+        </is>
+      </c>
+      <c r="BP21" t="inlineStr">
+        <is>
+          <t>fragrant nut</t>
+        </is>
+      </c>
+      <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr">
+        <is>
+          <t>肉豆蔻</t>
+        </is>
+      </c>
+      <c r="BS21" t="inlineStr">
+        <is>
+          <t>ròudòukòu</t>
+        </is>
+      </c>
+      <c r="BT21" t="inlineStr">
+        <is>
+          <t>flesh-bean-cardamom</t>
+        </is>
+      </c>
+      <c r="BU21" t="inlineStr"/>
+      <c r="BV21" t="inlineStr"/>
+      <c r="BW21" t="inlineStr">
+        <is>
+          <t>szerecsendió</t>
+        </is>
+      </c>
+      <c r="BX21" t="inlineStr">
+        <is>
+          <t>Saracen nut</t>
+        </is>
+      </c>
+      <c r="BY21" t="inlineStr">
+        <is>
+          <t>muskátdió [musk-nut]; mácisdió [mace-nut]</t>
+        </is>
+      </c>
+      <c r="BZ21" t="inlineStr"/>
+      <c r="CA21" t="inlineStr"/>
+      <c r="CB21" t="inlineStr"/>
+      <c r="CC21" t="inlineStr"/>
+      <c r="CD21" t="inlineStr"/>
+      <c r="CE21" t="inlineStr"/>
+      <c r="CF21" t="inlineStr">
+        <is>
+          <t>Semen Myristicae; Myristicae Semen</t>
+        </is>
+      </c>
+      <c r="CG21" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH21" t="inlineStr">
+        <is>
+          <t>polyu-tcm</t>
+        </is>
+      </c>
+      <c r="CI21" t="inlineStr">
+        <is>
+          <t>https://herbaltcm.sn.polyu.edu.hk/herbal/nutmeg</t>
+        </is>
+      </c>
+      <c r="CJ21" t="inlineStr">
+        <is>
+          <t>肉豆蔻</t>
+        </is>
+      </c>
+      <c r="CK21" t="inlineStr">
+        <is>
+          <t>ròudòukòu</t>
+        </is>
+      </c>
+      <c r="CL21" t="inlineStr">
+        <is>
+          <t>Nutmeg</t>
+        </is>
+      </c>
+      <c r="CM21" t="inlineStr">
+        <is>
+          <t>Dried kernel of Myristica fragrans Houtt. (Fam. Myrisyicaceae)</t>
+        </is>
+      </c>
+      <c r="CN21" t="inlineStr">
+        <is>
+          <t>Astringent medicinal</t>
+        </is>
+      </c>
+      <c r="CO21" t="inlineStr">
+        <is>
+          <t>pungent; warm</t>
+        </is>
+      </c>
+      <c r="CP21" t="inlineStr">
+        <is>
+          <t>Spleen, Stomach, Large intestine</t>
+        </is>
+      </c>
+      <c r="CQ21" t="inlineStr">
+        <is>
+          <t>To warm the middle and promote the flow of qi, and astringe the intestines and check diarrhea</t>
+        </is>
+      </c>
+      <c r="CR21" t="inlineStr"/>
+      <c r="CS21" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="CT21" t="inlineStr">
+        <is>
+          <t>973</t>
+        </is>
+      </c>
+      <c r="CU21" t="inlineStr"/>
+      <c r="CV21" t="inlineStr">
+        <is>
+          <t>https://www.gbif.org/species/5406817</t>
+        </is>
+      </c>
+      <c r="CW21" t="inlineStr">
+        <is>
+          <t>https://tropicos.org/name/21800077</t>
+        </is>
+      </c>
+      <c r="CX21" t="inlineStr">
+        <is>
+          <t>https://eol.org/pages/596922</t>
+        </is>
+      </c>
+      <c r="CY21" t="n">
+        <v>51089</v>
+      </c>
+      <c r="CZ21" t="inlineStr">
+        <is>
+          <t>जायफल</t>
+        </is>
+      </c>
+      <c r="DA21" t="inlineStr">
+        <is>
+          <t>jāyaphal</t>
+        </is>
+      </c>
+      <c r="DB21" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="DC21" t="inlineStr"/>
+      <c r="DD21" t="inlineStr">
+        <is>
+          <t>pala</t>
+        </is>
+      </c>
+      <c r="DE21" t="inlineStr">
+        <is>
+          <t>جوز هندی</t>
+        </is>
+      </c>
+      <c r="DF21" t="inlineStr">
+        <is>
+          <t>nutmeg</t>
+        </is>
+      </c>
+      <c r="DG21" t="inlineStr">
+        <is>
+          <t>https://partigabor.github.io/aromatica/items/nutmeg</t>
+        </is>
+      </c>
+      <c r="DH21" t="inlineStr">
+        <is>
+          <t>2500629</t>
+        </is>
+      </c>
+      <c r="DI21" t="inlineStr">
+        <is>
+          <t>586076-1</t>
+        </is>
+      </c>
+      <c r="DJ21" t="inlineStr">
+        <is>
+          <t>Species</t>
+        </is>
+      </c>
+      <c r="DK21" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="DL21" t="inlineStr">
+        <is>
+          <t>Myristicaceae</t>
+        </is>
+      </c>
+      <c r="DM21" t="inlineStr"/>
+      <c r="DN21" t="inlineStr">
+        <is>
+          <t>Myristica</t>
+        </is>
+      </c>
+      <c r="DO21" t="inlineStr"/>
+      <c r="DP21" t="inlineStr">
+        <is>
+          <t>fragrans</t>
+        </is>
+      </c>
+      <c r="DQ21" t="inlineStr"/>
+      <c r="DR21" t="inlineStr"/>
+      <c r="DS21" t="inlineStr"/>
+      <c r="DT21" t="inlineStr">
+        <is>
+          <t>Houtt.</t>
+        </is>
+      </c>
+      <c r="DU21" t="inlineStr"/>
+      <c r="DV21" t="inlineStr">
+        <is>
+          <t>Nat. Hist.</t>
+        </is>
+      </c>
+      <c r="DW21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2(3): 333</t>
+        </is>
+      </c>
+      <c r="DX21" t="inlineStr">
+        <is>
+          <t>(1774)</t>
+        </is>
+      </c>
+      <c r="DY21" t="inlineStr"/>
+      <c r="DZ21" t="inlineStr">
+        <is>
+          <t>Maluku (Banda Is.)</t>
+        </is>
+      </c>
+      <c r="EA21" t="inlineStr">
+        <is>
+          <t>tree</t>
+        </is>
+      </c>
+      <c r="EB21" t="inlineStr">
+        <is>
+          <t>wet tropical</t>
+        </is>
+      </c>
+      <c r="EC21" t="inlineStr">
+        <is>
+          <t>2500629</t>
+        </is>
+      </c>
+      <c r="ED21" t="inlineStr"/>
+      <c r="EE21" t="inlineStr"/>
+      <c r="EF21" t="inlineStr"/>
+      <c r="EG21" t="inlineStr">
+        <is>
+          <t>2500594</t>
+        </is>
+      </c>
+      <c r="EH21" t="inlineStr">
+        <is>
+          <t>586076-1</t>
+        </is>
+      </c>
+      <c r="EI21" t="inlineStr"/>
+      <c r="EJ21" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="EK21" t="inlineStr">
+        <is>
+          <t>https://powo.science.kew.org/taxon/586076-1</t>
+        </is>
+      </c>
+      <c r="EL21" t="inlineStr">
+        <is>
+          <t>Maluku</t>
+        </is>
+      </c>
+      <c r="EM21" t="inlineStr">
+        <is>
+          <t>Gulf of Guinea Is., Comoros, Mauritius, Réunion, China South-Central, China Southeast, Taiwan, Assam, Bangladesh, Laos, Thailand, Vietnam, Jawa, Philippines, Samoa</t>
+        </is>
+      </c>
+      <c r="EN21" t="inlineStr">
+        <is>
+          <t>Malesia</t>
+        </is>
+      </c>
+      <c r="EO21" t="inlineStr">
+        <is>
+          <t>Asia-Tropical</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>61</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Myristica fragrans</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Houtt.</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>mace</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>the aril (seed-covering) of the nutmeg</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>nutmeg</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>vanwyk_2014_culinary</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>culinary</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>Plantae</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>aril</t>
+        </is>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Nutmeg</t>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>https://www.britannica.com/topic/mace-spice</t>
+        </is>
+      </c>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>mace</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>mace</t>
+        </is>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>Mace</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="inlineStr"/>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr"/>
+      <c r="AO22" t="inlineStr"/>
+      <c r="AP22" t="inlineStr">
+        <is>
+          <t>mace; basbas; roudoukoupi</t>
+        </is>
+      </c>
+      <c r="AQ22" t="inlineStr"/>
+      <c r="AR22" t="inlineStr">
+        <is>
+          <t>nutmeg tree</t>
+        </is>
+      </c>
+      <c r="AS22" t="inlineStr">
+        <is>
+          <t>Moluccas (Indonesia)</t>
+        </is>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AU22" t="n">
+        <v>-5</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>130</v>
+      </c>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Banda Islands</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr">
+        <is>
+          <t>Grenada; Indonesia</t>
+        </is>
+      </c>
+      <c r="AZ22" t="inlineStr">
+        <is>
+          <t>crimson red aril whn fresh, pale yellow when dried</t>
+        </is>
+      </c>
+      <c r="BA22" t="inlineStr">
+        <is>
+          <t>sweet, bitter, salty</t>
+        </is>
+      </c>
+      <c r="BB22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BC22" t="inlineStr">
+        <is>
+          <t>confectionary; peptic ulcers</t>
+        </is>
+      </c>
+      <c r="BD22" t="inlineStr">
+        <is>
+          <t>Köhler's Medizinal-Pflanzen</t>
+        </is>
+      </c>
+      <c r="BE22" t="inlineStr">
+        <is>
+          <t>II 132</t>
+        </is>
+      </c>
+      <c r="BF22" t="inlineStr">
+        <is>
+          <t>koehler_1887_koehler</t>
+        </is>
+      </c>
+      <c r="BG22" t="inlineStr">
+        <is>
+          <t>https://www.biodiversitylibrary.org/item/10837#page/609/mode/1up</t>
+        </is>
+      </c>
+      <c r="BH22" t="inlineStr"/>
+      <c r="BI22" t="inlineStr">
+        <is>
+          <t>nutmeg.n.01</t>
+        </is>
+      </c>
+      <c r="BJ22" t="inlineStr">
+        <is>
+          <t>mace.n.03</t>
+        </is>
+      </c>
+      <c r="BK22" t="inlineStr"/>
+      <c r="BL22" t="inlineStr">
+        <is>
+          <t>mace</t>
+        </is>
+      </c>
+      <c r="BM22" t="inlineStr"/>
+      <c r="BN22" t="inlineStr">
+        <is>
+          <t>بسباسة</t>
+        </is>
+      </c>
+      <c r="BO22" t="inlineStr">
+        <is>
+          <t>basbāsa</t>
+        </is>
+      </c>
+      <c r="BP22" t="inlineStr"/>
+      <c r="BQ22" t="inlineStr">
+        <is>
+          <t>*qishrat jawz al-ṭīb* [the peel of the fragrant nut] قشرة جوز الطيب</t>
+        </is>
+      </c>
+      <c r="BR22" t="inlineStr">
+        <is>
+          <t>肉豆蔻皮</t>
+        </is>
+      </c>
+      <c r="BS22" t="inlineStr">
+        <is>
+          <t>ròudòukòupí</t>
+        </is>
+      </c>
+      <c r="BT22" t="inlineStr">
+        <is>
+          <t>flesh-bean-cardamom-skin</t>
+        </is>
+      </c>
+      <c r="BU22" t="inlineStr"/>
+      <c r="BV22" t="inlineStr"/>
+      <c r="BW22" t="inlineStr">
+        <is>
+          <t>szerecsendió-virág</t>
+        </is>
+      </c>
+      <c r="BX22" t="inlineStr">
+        <is>
+          <t>Saracen nut flower</t>
+        </is>
+      </c>
+      <c r="BY22" t="inlineStr"/>
+      <c r="BZ22" t="inlineStr"/>
+      <c r="CA22" t="inlineStr"/>
+      <c r="CB22" t="inlineStr"/>
+      <c r="CC22" t="inlineStr"/>
+      <c r="CD22" t="inlineStr"/>
+      <c r="CE22" t="inlineStr"/>
+      <c r="CF22" t="inlineStr">
+        <is>
+          <t>Arillus Myristicae</t>
+        </is>
+      </c>
+      <c r="CG22" t="inlineStr"/>
+      <c r="CH22" t="inlineStr"/>
+      <c r="CI22" t="inlineStr"/>
+      <c r="CJ22" t="inlineStr"/>
+      <c r="CK22" t="inlineStr"/>
+      <c r="CL22" t="inlineStr">
+        <is>
+          <t>Nutmeg</t>
+        </is>
+      </c>
+      <c r="CM22" t="inlineStr"/>
+      <c r="CN22" t="inlineStr"/>
+      <c r="CO22" t="inlineStr"/>
+      <c r="CP22" t="inlineStr"/>
+      <c r="CQ22" t="inlineStr"/>
+      <c r="CR22" t="inlineStr"/>
+      <c r="CS22" t="inlineStr"/>
+      <c r="CT22" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="CU22" t="inlineStr"/>
+      <c r="CV22" t="inlineStr">
+        <is>
+          <t>https://www.gbif.org/species/5406817</t>
+        </is>
+      </c>
+      <c r="CW22" t="inlineStr">
+        <is>
+          <t>https://tropicos.org/name/21800077</t>
+        </is>
+      </c>
+      <c r="CX22" t="inlineStr">
+        <is>
+          <t>https://eol.org/pages/596922</t>
+        </is>
+      </c>
+      <c r="CY22" t="n">
+        <v>51089</v>
+      </c>
+      <c r="CZ22" t="inlineStr">
+        <is>
+          <t>जावित्री</t>
+        </is>
+      </c>
+      <c r="DA22" t="inlineStr">
+        <is>
+          <t>jāvitrī</t>
+        </is>
+      </c>
+      <c r="DB22" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="DC22" t="inlineStr"/>
+      <c r="DD22" t="inlineStr">
+        <is>
+          <t>bunga pala</t>
+        </is>
+      </c>
+      <c r="DE22" t="inlineStr">
+        <is>
+          <t>بسپاسه</t>
+        </is>
+      </c>
+      <c r="DF22" t="inlineStr">
+        <is>
+          <t>mace</t>
+        </is>
+      </c>
+      <c r="DG22" t="inlineStr">
+        <is>
+          <t>https://partigabor.github.io/aromatica/items/mace</t>
+        </is>
+      </c>
+      <c r="DH22" t="inlineStr">
+        <is>
+          <t>2500629</t>
+        </is>
+      </c>
+      <c r="DI22" t="inlineStr">
+        <is>
+          <t>586076-1</t>
+        </is>
+      </c>
+      <c r="DJ22" t="inlineStr">
+        <is>
+          <t>Species</t>
+        </is>
+      </c>
+      <c r="DK22" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="DL22" t="inlineStr">
+        <is>
+          <t>Myristicaceae</t>
+        </is>
+      </c>
+      <c r="DM22" t="inlineStr"/>
+      <c r="DN22" t="inlineStr">
+        <is>
+          <t>Myristica</t>
+        </is>
+      </c>
+      <c r="DO22" t="inlineStr"/>
+      <c r="DP22" t="inlineStr">
+        <is>
+          <t>fragrans</t>
+        </is>
+      </c>
+      <c r="DQ22" t="inlineStr"/>
+      <c r="DR22" t="inlineStr"/>
+      <c r="DS22" t="inlineStr"/>
+      <c r="DT22" t="inlineStr">
+        <is>
+          <t>Houtt.</t>
+        </is>
+      </c>
+      <c r="DU22" t="inlineStr"/>
+      <c r="DV22" t="inlineStr">
+        <is>
+          <t>Nat. Hist.</t>
+        </is>
+      </c>
+      <c r="DW22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2(3): 333</t>
+        </is>
+      </c>
+      <c r="DX22" t="inlineStr">
+        <is>
+          <t>(1774)</t>
+        </is>
+      </c>
+      <c r="DY22" t="inlineStr"/>
+      <c r="DZ22" t="inlineStr">
+        <is>
+          <t>Maluku (Banda Is.)</t>
+        </is>
+      </c>
+      <c r="EA22" t="inlineStr">
+        <is>
+          <t>tree</t>
+        </is>
+      </c>
+      <c r="EB22" t="inlineStr">
+        <is>
+          <t>wet tropical</t>
+        </is>
+      </c>
+      <c r="EC22" t="inlineStr">
+        <is>
+          <t>2500629</t>
+        </is>
+      </c>
+      <c r="ED22" t="inlineStr"/>
+      <c r="EE22" t="inlineStr"/>
+      <c r="EF22" t="inlineStr"/>
+      <c r="EG22" t="inlineStr">
+        <is>
+          <t>2500594</t>
+        </is>
+      </c>
+      <c r="EH22" t="inlineStr">
+        <is>
+          <t>586076-1</t>
+        </is>
+      </c>
+      <c r="EI22" t="inlineStr"/>
+      <c r="EJ22" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="EK22" t="inlineStr">
+        <is>
+          <t>https://powo.science.kew.org/taxon/586076-1</t>
+        </is>
+      </c>
+      <c r="EL22" t="inlineStr">
+        <is>
+          <t>Maluku</t>
+        </is>
+      </c>
+      <c r="EM22" t="inlineStr">
+        <is>
+          <t>Gulf of Guinea Is., Comoros, Mauritius, Réunion, China South-Central, China Southeast, Taiwan, Assam, Bangladesh, Laos, Thailand, Vietnam, Jawa, Philippines, Samoa</t>
+        </is>
+      </c>
+      <c r="EN22" t="inlineStr">
+        <is>
+          <t>Malesia</t>
+        </is>
+      </c>
+      <c r="EO22" t="inlineStr">
         <is>
           <t>Asia-Tropical</t>
         </is>

--- a/database/checking.xlsx
+++ b/database/checking.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EO22"/>
+  <dimension ref="A1:EO15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2149,7 +2149,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -2158,27 +2158,27 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://powo.science.kew.org/taxon/77178198-1</t>
+          <t>https://powo.science.kew.org/taxon/795288-1</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lanxangia tsao-ko</t>
+          <t>Alpinia hainanensis</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>(Crevost &amp; Lemarié) M.F.Newman &amp; Skornick.</t>
+          <t>K.Schum.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Amomum hongtsaoko Liang et Fang; Amomum tsao-ko/Amomum tsok-ko Crevost et Lemaire</t>
+          <t>Alpinia katsumadai Hayata</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -2189,27 +2189,25 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>tsaoko</t>
+          <t>katsumada galangal seed</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>the dark brown fruits of Lanxangia tsao-ko from Yunnan, tsaoko</t>
+          <t>the light brown, brain-shaped fruits of Alpinia hainanensis used in TCM</t>
         </is>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>vanwyk_2014_culinary</t>
+          <t>polyu_2022_chinese</t>
         </is>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
-        <v>1</v>
-      </c>
+      <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
@@ -2217,7 +2215,7 @@
         <v>1</v>
       </c>
       <c r="X4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
@@ -2226,7 +2224,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>culinary; medicinal</t>
+          <t>medicinal</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr"/>
@@ -2240,18 +2238,18 @@
           <t>fruit &amp; seed</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>https://zh.wikipedia.org/wiki/%E8%8D%89%E8%B1%86%E8%94%BB</t>
+        </is>
+      </c>
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>tsaoko; tsao-ko cardamom; large cardamom; caoguo; Yunnan cardamom</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>tsao-ko cardamom; large cardamom</t>
-        </is>
-      </c>
+          <t>katsumada galangal seed</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="inlineStr"/>
       <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr"/>
@@ -2261,40 +2259,28 @@
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>caoguo {polyu}</t>
+          <t>Katsumada Galangal Seed {polyu}</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr"/>
       <c r="AQ4" t="inlineStr"/>
-      <c r="AR4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>海南山姜</t>
+        </is>
+      </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>Yunnan</t>
+          <t>S. China; Vietnam</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
-      <c r="AU4" t="n">
-        <v>25</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>102</v>
-      </c>
+      <c r="AU4" t="inlineStr"/>
+      <c r="AV4" t="inlineStr"/>
       <c r="AW4" t="inlineStr"/>
-      <c r="AX4" t="inlineStr">
-        <is>
-          <t>Asia</t>
-        </is>
-      </c>
-      <c r="AY4" t="inlineStr">
-        <is>
-          <t>China</t>
-        </is>
-      </c>
-      <c r="AZ4" t="inlineStr">
-        <is>
-          <t>brown</t>
-        </is>
-      </c>
+      <c r="AX4" t="inlineStr"/>
+      <c r="AY4" t="inlineStr"/>
+      <c r="AZ4" t="inlineStr"/>
       <c r="BA4" t="inlineStr"/>
       <c r="BB4" t="inlineStr"/>
       <c r="BC4" t="inlineStr"/>
@@ -2306,11 +2292,7 @@
       <c r="BI4" t="inlineStr"/>
       <c r="BJ4" t="inlineStr"/>
       <c r="BK4" t="inlineStr"/>
-      <c r="BL4" t="inlineStr">
-        <is>
-          <t>tsaoko</t>
-        </is>
-      </c>
+      <c r="BL4" t="inlineStr"/>
       <c r="BM4" t="inlineStr"/>
       <c r="BN4" t="inlineStr"/>
       <c r="BO4" t="inlineStr"/>
@@ -2318,17 +2300,17 @@
       <c r="BQ4" t="inlineStr"/>
       <c r="BR4" t="inlineStr">
         <is>
-          <t>草果</t>
+          <t>草豆蔻</t>
         </is>
       </c>
       <c r="BS4" t="inlineStr">
         <is>
-          <t>cǎoguǒ</t>
+          <t>cǎodòukòu</t>
         </is>
       </c>
       <c r="BT4" t="inlineStr">
         <is>
-          <t>herb-fruit</t>
+          <t>herb-cardamom</t>
         </is>
       </c>
       <c r="BU4" t="inlineStr"/>
@@ -2344,7 +2326,7 @@
       <c r="CE4" t="inlineStr"/>
       <c r="CF4" t="inlineStr">
         <is>
-          <t>Tsaoko Fructus</t>
+          <t>Alpiniae Katsumdai Semen</t>
         </is>
       </c>
       <c r="CG4" t="n">
@@ -2357,27 +2339,27 @@
       </c>
       <c r="CI4" t="inlineStr">
         <is>
-          <t>https://herbaltcm.sn.polyu.edu.hk/herbal/caoguo</t>
+          <t>https://herbaltcm.sn.polyu.edu.hk/en/herbal/katsumada-galangal-seed</t>
         </is>
       </c>
       <c r="CJ4" t="inlineStr">
         <is>
-          <t>草果</t>
+          <t>草豆蔻</t>
         </is>
       </c>
       <c r="CK4" t="inlineStr">
         <is>
-          <t>cǎoguǒ</t>
+          <t>cǎodòukòu</t>
         </is>
       </c>
       <c r="CL4" t="inlineStr">
         <is>
-          <t>Caoguo</t>
+          <t>Katsumada Galangal Seed</t>
         </is>
       </c>
       <c r="CM4" t="inlineStr">
         <is>
-          <t>Dried ripe fruit of Amomum tsok-ko Crevost et Lemaire (Fam. Zingiberaceae)</t>
+          <t>Dried almost ripe seed of Alpinia katsumadai Hayata (Fam. Zingiberaceae)</t>
         </is>
       </c>
       <c r="CN4" t="inlineStr">
@@ -2397,24 +2379,16 @@
       </c>
       <c r="CQ4" t="inlineStr">
         <is>
-          <t>To dry cold-damp and warm the middle-enerqizer, dispel phlegm and cure malaria</t>
+          <t>To remove damp, invigorate the spleen function, warm the stomach and arrest vomiting</t>
         </is>
       </c>
       <c r="CR4" t="inlineStr">
         <is>
-          <t>http://www.efloras.org/florataxon.aspx?flora_id=2&amp;taxon_id=240001100</t>
-        </is>
-      </c>
-      <c r="CS4" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="CT4" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
+          <t>http://www.efloras.org/florataxon.aspx?flora_id=2&amp;taxon_id=200028274</t>
+        </is>
+      </c>
+      <c r="CS4" t="inlineStr"/>
+      <c r="CT4" t="inlineStr"/>
       <c r="CU4" t="inlineStr"/>
       <c r="CV4" t="inlineStr"/>
       <c r="CW4" t="inlineStr"/>
@@ -2428,48 +2402,140 @@
       <c r="DE4" t="inlineStr"/>
       <c r="DF4" t="inlineStr">
         <is>
-          <t>tsaoko</t>
+          <t>katsumada_galangal_seed</t>
         </is>
       </c>
       <c r="DG4" t="inlineStr">
         <is>
-          <t>https://partigabor.github.io/aromatica/items/tsaoko</t>
-        </is>
-      </c>
-      <c r="DH4" t="inlineStr"/>
-      <c r="DI4" t="inlineStr"/>
-      <c r="DJ4" t="inlineStr"/>
-      <c r="DK4" t="inlineStr"/>
-      <c r="DL4" t="inlineStr"/>
+          <t>https://partigabor.github.io/aromatica/items/katsumada_galangal_seed</t>
+        </is>
+      </c>
+      <c r="DH4" t="inlineStr">
+        <is>
+          <t>218813</t>
+        </is>
+      </c>
+      <c r="DI4" t="inlineStr">
+        <is>
+          <t>795288-1</t>
+        </is>
+      </c>
+      <c r="DJ4" t="inlineStr">
+        <is>
+          <t>Species</t>
+        </is>
+      </c>
+      <c r="DK4" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="DL4" t="inlineStr">
+        <is>
+          <t>Zingiberaceae</t>
+        </is>
+      </c>
       <c r="DM4" t="inlineStr"/>
-      <c r="DN4" t="inlineStr"/>
+      <c r="DN4" t="inlineStr">
+        <is>
+          <t>Alpinia</t>
+        </is>
+      </c>
       <c r="DO4" t="inlineStr"/>
-      <c r="DP4" t="inlineStr"/>
+      <c r="DP4" t="inlineStr">
+        <is>
+          <t>hainanensis</t>
+        </is>
+      </c>
       <c r="DQ4" t="inlineStr"/>
       <c r="DR4" t="inlineStr"/>
       <c r="DS4" t="inlineStr"/>
-      <c r="DT4" t="inlineStr"/>
-      <c r="DU4" t="inlineStr"/>
-      <c r="DV4" t="inlineStr"/>
-      <c r="DW4" t="inlineStr"/>
-      <c r="DX4" t="inlineStr"/>
+      <c r="DT4" t="inlineStr">
+        <is>
+          <t>K.Schum.</t>
+        </is>
+      </c>
+      <c r="DU4" t="inlineStr">
+        <is>
+          <t>H.G.A.Engler (ed.)</t>
+        </is>
+      </c>
+      <c r="DV4" t="inlineStr">
+        <is>
+          <t>Pflanzenr.</t>
+        </is>
+      </c>
+      <c r="DW4" t="inlineStr">
+        <is>
+          <t>, IV, 46: 335</t>
+        </is>
+      </c>
+      <c r="DX4" t="inlineStr">
+        <is>
+          <t>(1904)</t>
+        </is>
+      </c>
       <c r="DY4" t="inlineStr"/>
-      <c r="DZ4" t="inlineStr"/>
-      <c r="EA4" t="inlineStr"/>
-      <c r="EB4" t="inlineStr"/>
-      <c r="EC4" t="inlineStr"/>
+      <c r="DZ4" t="inlineStr">
+        <is>
+          <t>SE. China to Vietnam</t>
+        </is>
+      </c>
+      <c r="EA4" t="inlineStr">
+        <is>
+          <t>rhizomatous geophyte</t>
+        </is>
+      </c>
+      <c r="EB4" t="inlineStr">
+        <is>
+          <t>wet tropical</t>
+        </is>
+      </c>
+      <c r="EC4" t="inlineStr">
+        <is>
+          <t>218813</t>
+        </is>
+      </c>
       <c r="ED4" t="inlineStr"/>
       <c r="EE4" t="inlineStr"/>
       <c r="EF4" t="inlineStr"/>
-      <c r="EG4" t="inlineStr"/>
-      <c r="EH4" t="inlineStr"/>
+      <c r="EG4" t="inlineStr">
+        <is>
+          <t>218628</t>
+        </is>
+      </c>
+      <c r="EH4" t="inlineStr">
+        <is>
+          <t>795288-1</t>
+        </is>
+      </c>
       <c r="EI4" t="inlineStr"/>
-      <c r="EJ4" t="inlineStr"/>
-      <c r="EK4" t="inlineStr"/>
-      <c r="EL4" t="inlineStr"/>
+      <c r="EJ4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="EK4" t="inlineStr">
+        <is>
+          <t>https://powo.science.kew.org/taxon/795288-1</t>
+        </is>
+      </c>
+      <c r="EL4" t="inlineStr">
+        <is>
+          <t>Hainan, China Southeast, Vietnam</t>
+        </is>
+      </c>
       <c r="EM4" t="inlineStr"/>
-      <c r="EN4" t="inlineStr"/>
-      <c r="EO4" t="inlineStr"/>
+      <c r="EN4" t="inlineStr">
+        <is>
+          <t>China, Indo-China</t>
+        </is>
+      </c>
+      <c r="EO4" t="inlineStr">
+        <is>
+          <t>Asia-Temperate, Asia-Tropical</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2478,7 +2544,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -2487,27 +2553,27 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://powo.science.kew.org/taxon/795288-1</t>
+          <t>https://powo.science.kew.org/taxon/77178198-1</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Alpinia hainanensis</t>
+          <t>Lanxangia tsao-ko</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>K.Schum.</t>
+          <t>(Crevost &amp; Lemarié) M.F.Newman &amp; Skornick.</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Alpinia katsumadai Hayata</t>
+          <t>Amomum hongtsaoko Liang et Fang; Amomum tsao-ko/Amomum tsok-ko Crevost et Lemaire</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -2518,25 +2584,27 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>katsumada galangal seed</t>
+          <t>tsaoko</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>the light brown, brain-shaped fruits of Alpinia hainanensis used in TCM</t>
+          <t>the dark brown fruits of Lanxangia tsao-ko from Yunnan, tsaoko</t>
         </is>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>polyu_2022_chinese</t>
+          <t>vanwyk_2014_culinary</t>
         </is>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
@@ -2544,7 +2612,7 @@
         <v>1</v>
       </c>
       <c r="X5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
@@ -2553,7 +2621,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>medicinal</t>
+          <t>culinary; medicinal</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr"/>
@@ -2567,18 +2635,18 @@
           <t>fruit &amp; seed</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>https://zh.wikipedia.org/wiki/%E8%8D%89%E8%B1%86%E8%94%BB</t>
-        </is>
-      </c>
+      <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>katsumada galangal seed</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr"/>
+          <t>tsaoko; tsao-ko cardamom; large cardamom; caoguo; Yunnan cardamom</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>tsao-ko cardamom; large cardamom</t>
+        </is>
+      </c>
       <c r="AH5" t="inlineStr"/>
       <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="inlineStr"/>
@@ -2588,28 +2656,40 @@
       <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>Katsumada Galangal Seed {polyu}</t>
+          <t>caoguo {polyu}</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr"/>
       <c r="AQ5" t="inlineStr"/>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>海南山姜</t>
-        </is>
-      </c>
+      <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>S. China; Vietnam</t>
+          <t>Yunnan</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
-      <c r="AU5" t="inlineStr"/>
-      <c r="AV5" t="inlineStr"/>
+      <c r="AU5" t="n">
+        <v>25</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>102</v>
+      </c>
       <c r="AW5" t="inlineStr"/>
-      <c r="AX5" t="inlineStr"/>
-      <c r="AY5" t="inlineStr"/>
-      <c r="AZ5" t="inlineStr"/>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="AZ5" t="inlineStr">
+        <is>
+          <t>brown</t>
+        </is>
+      </c>
       <c r="BA5" t="inlineStr"/>
       <c r="BB5" t="inlineStr"/>
       <c r="BC5" t="inlineStr"/>
@@ -2621,7 +2701,11 @@
       <c r="BI5" t="inlineStr"/>
       <c r="BJ5" t="inlineStr"/>
       <c r="BK5" t="inlineStr"/>
-      <c r="BL5" t="inlineStr"/>
+      <c r="BL5" t="inlineStr">
+        <is>
+          <t>tsaoko</t>
+        </is>
+      </c>
       <c r="BM5" t="inlineStr"/>
       <c r="BN5" t="inlineStr"/>
       <c r="BO5" t="inlineStr"/>
@@ -2629,17 +2713,17 @@
       <c r="BQ5" t="inlineStr"/>
       <c r="BR5" t="inlineStr">
         <is>
-          <t>草豆蔻</t>
+          <t>草果</t>
         </is>
       </c>
       <c r="BS5" t="inlineStr">
         <is>
-          <t>cǎodòukòu</t>
+          <t>cǎoguǒ</t>
         </is>
       </c>
       <c r="BT5" t="inlineStr">
         <is>
-          <t>herb-cardamom</t>
+          <t>herb-fruit</t>
         </is>
       </c>
       <c r="BU5" t="inlineStr"/>
@@ -2655,7 +2739,7 @@
       <c r="CE5" t="inlineStr"/>
       <c r="CF5" t="inlineStr">
         <is>
-          <t>Alpiniae Katsumdai Semen</t>
+          <t>Tsaoko Fructus</t>
         </is>
       </c>
       <c r="CG5" t="n">
@@ -2668,27 +2752,27 @@
       </c>
       <c r="CI5" t="inlineStr">
         <is>
-          <t>https://herbaltcm.sn.polyu.edu.hk/en/herbal/katsumada-galangal-seed</t>
+          <t>https://herbaltcm.sn.polyu.edu.hk/herbal/caoguo</t>
         </is>
       </c>
       <c r="CJ5" t="inlineStr">
         <is>
-          <t>草豆蔻</t>
+          <t>草果</t>
         </is>
       </c>
       <c r="CK5" t="inlineStr">
         <is>
-          <t>cǎodòukòu</t>
+          <t>cǎoguǒ</t>
         </is>
       </c>
       <c r="CL5" t="inlineStr">
         <is>
-          <t>Katsumada Galangal Seed</t>
+          <t>Caoguo</t>
         </is>
       </c>
       <c r="CM5" t="inlineStr">
         <is>
-          <t>Dried almost ripe seed of Alpinia katsumadai Hayata (Fam. Zingiberaceae)</t>
+          <t>Dried ripe fruit of Amomum tsok-ko Crevost et Lemaire (Fam. Zingiberaceae)</t>
         </is>
       </c>
       <c r="CN5" t="inlineStr">
@@ -2708,16 +2792,24 @@
       </c>
       <c r="CQ5" t="inlineStr">
         <is>
-          <t>To remove damp, invigorate the spleen function, warm the stomach and arrest vomiting</t>
+          <t>To dry cold-damp and warm the middle-enerqizer, dispel phlegm and cure malaria</t>
         </is>
       </c>
       <c r="CR5" t="inlineStr">
         <is>
-          <t>http://www.efloras.org/florataxon.aspx?flora_id=2&amp;taxon_id=200028274</t>
-        </is>
-      </c>
-      <c r="CS5" t="inlineStr"/>
-      <c r="CT5" t="inlineStr"/>
+          <t>http://www.efloras.org/florataxon.aspx?flora_id=2&amp;taxon_id=240001100</t>
+        </is>
+      </c>
+      <c r="CS5" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="CT5" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
       <c r="CU5" t="inlineStr"/>
       <c r="CV5" t="inlineStr"/>
       <c r="CW5" t="inlineStr"/>
@@ -2731,140 +2823,48 @@
       <c r="DE5" t="inlineStr"/>
       <c r="DF5" t="inlineStr">
         <is>
-          <t>katsumada_galangal_seed</t>
+          <t>tsaoko</t>
         </is>
       </c>
       <c r="DG5" t="inlineStr">
         <is>
-          <t>https://partigabor.github.io/aromatica/items/katsumada_galangal_seed</t>
-        </is>
-      </c>
-      <c r="DH5" t="inlineStr">
-        <is>
-          <t>218813</t>
-        </is>
-      </c>
-      <c r="DI5" t="inlineStr">
-        <is>
-          <t>795288-1</t>
-        </is>
-      </c>
-      <c r="DJ5" t="inlineStr">
-        <is>
-          <t>Species</t>
-        </is>
-      </c>
-      <c r="DK5" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="DL5" t="inlineStr">
-        <is>
-          <t>Zingiberaceae</t>
-        </is>
-      </c>
+          <t>https://partigabor.github.io/aromatica/items/tsaoko</t>
+        </is>
+      </c>
+      <c r="DH5" t="inlineStr"/>
+      <c r="DI5" t="inlineStr"/>
+      <c r="DJ5" t="inlineStr"/>
+      <c r="DK5" t="inlineStr"/>
+      <c r="DL5" t="inlineStr"/>
       <c r="DM5" t="inlineStr"/>
-      <c r="DN5" t="inlineStr">
-        <is>
-          <t>Alpinia</t>
-        </is>
-      </c>
+      <c r="DN5" t="inlineStr"/>
       <c r="DO5" t="inlineStr"/>
-      <c r="DP5" t="inlineStr">
-        <is>
-          <t>hainanensis</t>
-        </is>
-      </c>
+      <c r="DP5" t="inlineStr"/>
       <c r="DQ5" t="inlineStr"/>
       <c r="DR5" t="inlineStr"/>
       <c r="DS5" t="inlineStr"/>
-      <c r="DT5" t="inlineStr">
-        <is>
-          <t>K.Schum.</t>
-        </is>
-      </c>
-      <c r="DU5" t="inlineStr">
-        <is>
-          <t>H.G.A.Engler (ed.)</t>
-        </is>
-      </c>
-      <c r="DV5" t="inlineStr">
-        <is>
-          <t>Pflanzenr.</t>
-        </is>
-      </c>
-      <c r="DW5" t="inlineStr">
-        <is>
-          <t>, IV, 46: 335</t>
-        </is>
-      </c>
-      <c r="DX5" t="inlineStr">
-        <is>
-          <t>(1904)</t>
-        </is>
-      </c>
+      <c r="DT5" t="inlineStr"/>
+      <c r="DU5" t="inlineStr"/>
+      <c r="DV5" t="inlineStr"/>
+      <c r="DW5" t="inlineStr"/>
+      <c r="DX5" t="inlineStr"/>
       <c r="DY5" t="inlineStr"/>
-      <c r="DZ5" t="inlineStr">
-        <is>
-          <t>SE. China to Vietnam</t>
-        </is>
-      </c>
-      <c r="EA5" t="inlineStr">
-        <is>
-          <t>rhizomatous geophyte</t>
-        </is>
-      </c>
-      <c r="EB5" t="inlineStr">
-        <is>
-          <t>wet tropical</t>
-        </is>
-      </c>
-      <c r="EC5" t="inlineStr">
-        <is>
-          <t>218813</t>
-        </is>
-      </c>
+      <c r="DZ5" t="inlineStr"/>
+      <c r="EA5" t="inlineStr"/>
+      <c r="EB5" t="inlineStr"/>
+      <c r="EC5" t="inlineStr"/>
       <c r="ED5" t="inlineStr"/>
       <c r="EE5" t="inlineStr"/>
       <c r="EF5" t="inlineStr"/>
-      <c r="EG5" t="inlineStr">
-        <is>
-          <t>218628</t>
-        </is>
-      </c>
-      <c r="EH5" t="inlineStr">
-        <is>
-          <t>795288-1</t>
-        </is>
-      </c>
+      <c r="EG5" t="inlineStr"/>
+      <c r="EH5" t="inlineStr"/>
       <c r="EI5" t="inlineStr"/>
-      <c r="EJ5" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="EK5" t="inlineStr">
-        <is>
-          <t>https://powo.science.kew.org/taxon/795288-1</t>
-        </is>
-      </c>
-      <c r="EL5" t="inlineStr">
-        <is>
-          <t>Hainan, China Southeast, Vietnam</t>
-        </is>
-      </c>
+      <c r="EJ5" t="inlineStr"/>
+      <c r="EK5" t="inlineStr"/>
+      <c r="EL5" t="inlineStr"/>
       <c r="EM5" t="inlineStr"/>
-      <c r="EN5" t="inlineStr">
-        <is>
-          <t>China, Indo-China</t>
-        </is>
-      </c>
-      <c r="EO5" t="inlineStr">
-        <is>
-          <t>Asia-Temperate, Asia-Tropical</t>
-        </is>
-      </c>
+      <c r="EN5" t="inlineStr"/>
+      <c r="EO5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -3321,27 +3321,27 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://powo.science.kew.org/taxon/77178274-1</t>
+          <t>https://powo.science.kew.org/taxon/77178294-1</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Wurfbainia compacta</t>
+          <t>Wurfbainia vera</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>(Sol. ex Maton) Škorničk. &amp; A.D.Poulsen</t>
+          <t>(Blackw.) Škorničk. &amp; A.D.Poulsen</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Amomum compactum Sol. ex Maton; Amomum kepulaga Sprague &amp; Burkill</t>
+          <t>Amomum krervanh Pierre &amp; Gagnep.; Amomum kravanh Pierre ex Gagnep.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -3352,17 +3352,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>kepulaga</t>
+          <t>Siam cardamom</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>the white fruits of Wurfbania compacta from Sumatra and Java</t>
+          <t>the white fuits of Wurfbainia vera from Indochina</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>white cardamom</t>
+          <t>Java white cardamom</t>
         </is>
       </c>
       <c r="N7" t="inlineStr"/>
@@ -3372,7 +3372,9 @@
         </is>
       </c>
       <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
       <c r="R7" t="n">
         <v>1</v>
       </c>
@@ -3382,9 +3384,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
-      <c r="W7" t="n">
-        <v>1</v>
-      </c>
+      <c r="W7" t="inlineStr"/>
       <c r="X7" t="n">
         <v>3</v>
       </c>
@@ -3395,12 +3395,12 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>culinary</t>
+          <t>culinary; medicinal</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>*white cardamom* can also refer to the bleached fruits of green cardamom</t>
+          <t>the first plant species named by a woman</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -3413,52 +3413,64 @@
           <t>fruit &amp; seed</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Wurfbainia_vera</t>
+        </is>
+      </c>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>kepulaga; Indonesian cardamom; round cardamom; Java round cardamom; Java white cardamom</t>
+          <t>Cambodian cardamom; krervanh; Siam cardamom; Thai cardamom; round cardamom</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>Indonesian cardamom; round cardamom</t>
+          <t>Cambodian cardamom; krervanh; Siam cardamom</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>Kepulaga, round cardamom, Siam cardamom</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr"/>
+          <t>Siam cardamom; Cambodian cardamom</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>Thai cardamom; round cardamom</t>
+        </is>
+      </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="inlineStr"/>
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr"/>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>Java round cardamom {polyu}</t>
-        </is>
-      </c>
+      <c r="AO7" t="inlineStr"/>
       <c r="AP7" t="inlineStr"/>
       <c r="AQ7" t="inlineStr"/>
-      <c r="AR7" t="inlineStr"/>
+      <c r="AR7" t="inlineStr">
+        <is>
+          <t>https://uses.plantnet-project.org/en/Amomum_krervanh_(PROSEA)</t>
+        </is>
+      </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>Sumatra to W. Jawa</t>
-        </is>
-      </c>
-      <c r="AT7" t="inlineStr"/>
+          <t>Trop. Asia; SEA; Indochina</t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr">
+        <is>
+          <t>Indochina</t>
+        </is>
+      </c>
       <c r="AU7" t="n">
-        <v>-3</v>
+        <v>12</v>
       </c>
       <c r="AV7" t="n">
         <v>105</v>
       </c>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Palembang</t>
+          <t>Phnom Penh</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
@@ -3491,20 +3503,24 @@
       <c r="BQ7" t="inlineStr"/>
       <c r="BR7" t="inlineStr">
         <is>
-          <t>爪哇白豆蔻</t>
+          <t>白豆蔻</t>
         </is>
       </c>
       <c r="BS7" t="inlineStr">
         <is>
-          <t>zhǎowā báidòukòu</t>
+          <t>báidòukòu</t>
         </is>
       </c>
       <c r="BT7" t="inlineStr">
         <is>
-          <t>Java-white-cardamom</t>
-        </is>
-      </c>
-      <c r="BU7" t="inlineStr"/>
+          <t>white-cardamom</t>
+        </is>
+      </c>
+      <c r="BU7" t="inlineStr">
+        <is>
+          <t>豆蔻 [bean-cardamom]</t>
+        </is>
+      </c>
       <c r="BV7" t="inlineStr"/>
       <c r="BW7" t="inlineStr"/>
       <c r="BX7" t="inlineStr"/>
@@ -3513,7 +3529,11 @@
       <c r="CA7" t="inlineStr"/>
       <c r="CB7" t="inlineStr"/>
       <c r="CC7" t="inlineStr"/>
-      <c r="CD7" t="inlineStr"/>
+      <c r="CD7" t="inlineStr">
+        <is>
+          <t>https://sys01.lib.hkbu.edu.hk/cmed/mmid/detail.php?qry=amomum&amp;sort=name_cht&amp;lang=eng&amp;page=1&amp;pid=B00174</t>
+        </is>
+      </c>
       <c r="CE7" t="inlineStr"/>
       <c r="CF7" t="inlineStr">
         <is>
@@ -3573,19 +3593,15 @@
           <t>To resolve damp, remove retained food, promote the flow of qi and warm the spleen and stomach topromote digestion</t>
         </is>
       </c>
-      <c r="CR7" t="inlineStr">
-        <is>
-          <t>http://www.efloras.org/florataxon.aspx?flora_id=2&amp;taxon_id=200028314</t>
-        </is>
-      </c>
+      <c r="CR7" t="inlineStr"/>
       <c r="CS7" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="CT7" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>973</t>
         </is>
       </c>
       <c r="CU7" t="inlineStr"/>
@@ -3601,22 +3617,22 @@
       <c r="DE7" t="inlineStr"/>
       <c r="DF7" t="inlineStr">
         <is>
-          <t>kepulaga</t>
+          <t>siam_cardamom</t>
         </is>
       </c>
       <c r="DG7" t="inlineStr">
         <is>
-          <t>https://partigabor.github.io/aromatica/items/kepulaga</t>
+          <t>https://partigabor.github.io/aromatica/items/siam_cardamom</t>
         </is>
       </c>
       <c r="DH7" t="inlineStr">
         <is>
-          <t>532062</t>
+          <t>532064</t>
         </is>
       </c>
       <c r="DI7" t="inlineStr">
         <is>
-          <t>77178274-1</t>
+          <t>77178294-1</t>
         </is>
       </c>
       <c r="DJ7" t="inlineStr">
@@ -3643,14 +3659,14 @@
       <c r="DO7" t="inlineStr"/>
       <c r="DP7" t="inlineStr">
         <is>
-          <t>compacta</t>
+          <t>vera</t>
         </is>
       </c>
       <c r="DQ7" t="inlineStr"/>
       <c r="DR7" t="inlineStr"/>
       <c r="DS7" t="inlineStr">
         <is>
-          <t>Sol. ex Maton</t>
+          <t>Blackw.</t>
         </is>
       </c>
       <c r="DT7" t="inlineStr">
@@ -3666,7 +3682,7 @@
       </c>
       <c r="DW7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 67: 29</t>
+          <t xml:space="preserve"> 67: 30</t>
         </is>
       </c>
       <c r="DX7" t="inlineStr">
@@ -3677,7 +3693,7 @@
       <c r="DY7" t="inlineStr"/>
       <c r="DZ7" t="inlineStr">
         <is>
-          <t>Sumatera to W. Jawa</t>
+          <t>S. Indo-China, Sumatera</t>
         </is>
       </c>
       <c r="EA7" t="inlineStr">
@@ -3692,12 +3708,12 @@
       </c>
       <c r="EC7" t="inlineStr">
         <is>
-          <t>532062</t>
+          <t>532064</t>
         </is>
       </c>
       <c r="ED7" t="inlineStr">
         <is>
-          <t>219227</t>
+          <t>466788</t>
         </is>
       </c>
       <c r="EE7" t="inlineStr"/>
@@ -3709,7 +3725,7 @@
       </c>
       <c r="EH7" t="inlineStr">
         <is>
-          <t>77178274-1</t>
+          <t>77178294-1</t>
         </is>
       </c>
       <c r="EI7" t="inlineStr"/>
@@ -3720,22 +3736,18 @@
       </c>
       <c r="EK7" t="inlineStr">
         <is>
-          <t>https://powo.science.kew.org/taxon/77178274-1</t>
+          <t>https://powo.science.kew.org/taxon/77178294-1</t>
         </is>
       </c>
       <c r="EL7" t="inlineStr">
         <is>
-          <t>Jawa, Sumatera</t>
-        </is>
-      </c>
-      <c r="EM7" t="inlineStr">
-        <is>
-          <t>China South-Central, Hainan, India, Lesser Sunda Is., Malaya</t>
-        </is>
-      </c>
+          <t>Cambodia, Thailand, Vietnam, Sumatera</t>
+        </is>
+      </c>
+      <c r="EM7" t="inlineStr"/>
       <c r="EN7" t="inlineStr">
         <is>
-          <t>Malesia</t>
+          <t>Indo-China, Malesia</t>
         </is>
       </c>
       <c r="EO7" t="inlineStr">
@@ -3751,7 +3763,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -3760,27 +3772,27 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://powo.science.kew.org/taxon/77178294-1</t>
+          <t>https://powo.science.kew.org/taxon/77178274-1</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Wurfbainia vera</t>
+          <t>Wurfbainia compacta</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>(Blackw.) Škorničk. &amp; A.D.Poulsen</t>
+          <t>(Sol. ex Maton) Škorničk. &amp; A.D.Poulsen</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Amomum krervanh Pierre &amp; Gagnep.; Amomum kravanh Pierre ex Gagnep.</t>
+          <t>Amomum compactum Sol. ex Maton; Amomum kepulaga Sprague &amp; Burkill</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -3791,17 +3803,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Siam cardamom</t>
+          <t>kepulaga</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>the white fuits of Wurfbainia vera from Indochina</t>
+          <t>the white fruits of Wurfbania compacta from Sumatra and Java</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Java white cardamom</t>
+          <t>white cardamom</t>
         </is>
       </c>
       <c r="N8" t="inlineStr"/>
@@ -3811,9 +3823,7 @@
         </is>
       </c>
       <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q8" t="inlineStr"/>
       <c r="R8" t="n">
         <v>1</v>
       </c>
@@ -3823,7 +3833,9 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
+      <c r="W8" t="n">
+        <v>1</v>
+      </c>
       <c r="X8" t="n">
         <v>3</v>
       </c>
@@ -3834,12 +3846,12 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>culinary; medicinal</t>
+          <t>culinary</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>the first plant species named by a woman</t>
+          <t>*white cardamom* can also refer to the bleached fruits of green cardamom</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -3852,64 +3864,52 @@
           <t>fruit &amp; seed</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>https://en.wikipedia.org/wiki/Wurfbainia_vera</t>
-        </is>
-      </c>
+      <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>Cambodian cardamom; krervanh; Siam cardamom; Thai cardamom; round cardamom</t>
+          <t>kepulaga; Indonesian cardamom; round cardamom; Java round cardamom; Java white cardamom</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>Cambodian cardamom; krervanh; Siam cardamom</t>
+          <t>Indonesian cardamom; round cardamom</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>Siam cardamom; Cambodian cardamom</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>Thai cardamom; round cardamom</t>
-        </is>
-      </c>
+          <t>Kepulaga, round cardamom, Siam cardamom</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr"/>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="inlineStr"/>
       <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr"/>
-      <c r="AO8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>Java round cardamom {polyu}</t>
+        </is>
+      </c>
       <c r="AP8" t="inlineStr"/>
       <c r="AQ8" t="inlineStr"/>
-      <c r="AR8" t="inlineStr">
-        <is>
-          <t>https://uses.plantnet-project.org/en/Amomum_krervanh_(PROSEA)</t>
-        </is>
-      </c>
+      <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>Trop. Asia; SEA; Indochina</t>
-        </is>
-      </c>
-      <c r="AT8" t="inlineStr">
-        <is>
-          <t>Indochina</t>
-        </is>
-      </c>
+          <t>Sumatra to W. Jawa</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr"/>
       <c r="AU8" t="n">
-        <v>12</v>
+        <v>-3</v>
       </c>
       <c r="AV8" t="n">
         <v>105</v>
       </c>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Phnom Penh</t>
+          <t>Palembang</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
@@ -3942,24 +3942,20 @@
       <c r="BQ8" t="inlineStr"/>
       <c r="BR8" t="inlineStr">
         <is>
-          <t>白豆蔻</t>
+          <t>爪哇白豆蔻</t>
         </is>
       </c>
       <c r="BS8" t="inlineStr">
         <is>
-          <t>báidòukòu</t>
+          <t>zhǎowā báidòukòu</t>
         </is>
       </c>
       <c r="BT8" t="inlineStr">
         <is>
-          <t>white-cardamom</t>
-        </is>
-      </c>
-      <c r="BU8" t="inlineStr">
-        <is>
-          <t>豆蔻 [bean-cardamom]</t>
-        </is>
-      </c>
+          <t>Java-white-cardamom</t>
+        </is>
+      </c>
+      <c r="BU8" t="inlineStr"/>
       <c r="BV8" t="inlineStr"/>
       <c r="BW8" t="inlineStr"/>
       <c r="BX8" t="inlineStr"/>
@@ -3968,11 +3964,7 @@
       <c r="CA8" t="inlineStr"/>
       <c r="CB8" t="inlineStr"/>
       <c r="CC8" t="inlineStr"/>
-      <c r="CD8" t="inlineStr">
-        <is>
-          <t>https://sys01.lib.hkbu.edu.hk/cmed/mmid/detail.php?qry=amomum&amp;sort=name_cht&amp;lang=eng&amp;page=1&amp;pid=B00174</t>
-        </is>
-      </c>
+      <c r="CD8" t="inlineStr"/>
       <c r="CE8" t="inlineStr"/>
       <c r="CF8" t="inlineStr">
         <is>
@@ -4032,15 +4024,19 @@
           <t>To resolve damp, remove retained food, promote the flow of qi and warm the spleen and stomach topromote digestion</t>
         </is>
       </c>
-      <c r="CR8" t="inlineStr"/>
+      <c r="CR8" t="inlineStr">
+        <is>
+          <t>http://www.efloras.org/florataxon.aspx?flora_id=2&amp;taxon_id=200028314</t>
+        </is>
+      </c>
       <c r="CS8" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="CT8" t="inlineStr">
         <is>
-          <t>973</t>
+          <t>?</t>
         </is>
       </c>
       <c r="CU8" t="inlineStr"/>
@@ -4056,22 +4052,22 @@
       <c r="DE8" t="inlineStr"/>
       <c r="DF8" t="inlineStr">
         <is>
-          <t>siam_cardamom</t>
+          <t>kepulaga</t>
         </is>
       </c>
       <c r="DG8" t="inlineStr">
         <is>
-          <t>https://partigabor.github.io/aromatica/items/siam_cardamom</t>
+          <t>https://partigabor.github.io/aromatica/items/kepulaga</t>
         </is>
       </c>
       <c r="DH8" t="inlineStr">
         <is>
-          <t>532064</t>
+          <t>532062</t>
         </is>
       </c>
       <c r="DI8" t="inlineStr">
         <is>
-          <t>77178294-1</t>
+          <t>77178274-1</t>
         </is>
       </c>
       <c r="DJ8" t="inlineStr">
@@ -4098,14 +4094,14 @@
       <c r="DO8" t="inlineStr"/>
       <c r="DP8" t="inlineStr">
         <is>
-          <t>vera</t>
+          <t>compacta</t>
         </is>
       </c>
       <c r="DQ8" t="inlineStr"/>
       <c r="DR8" t="inlineStr"/>
       <c r="DS8" t="inlineStr">
         <is>
-          <t>Blackw.</t>
+          <t>Sol. ex Maton</t>
         </is>
       </c>
       <c r="DT8" t="inlineStr">
@@ -4121,7 +4117,7 @@
       </c>
       <c r="DW8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 67: 30</t>
+          <t xml:space="preserve"> 67: 29</t>
         </is>
       </c>
       <c r="DX8" t="inlineStr">
@@ -4132,7 +4128,7 @@
       <c r="DY8" t="inlineStr"/>
       <c r="DZ8" t="inlineStr">
         <is>
-          <t>S. Indo-China, Sumatera</t>
+          <t>Sumatera to W. Jawa</t>
         </is>
       </c>
       <c r="EA8" t="inlineStr">
@@ -4147,12 +4143,12 @@
       </c>
       <c r="EC8" t="inlineStr">
         <is>
-          <t>532064</t>
+          <t>532062</t>
         </is>
       </c>
       <c r="ED8" t="inlineStr">
         <is>
-          <t>466788</t>
+          <t>219227</t>
         </is>
       </c>
       <c r="EE8" t="inlineStr"/>
@@ -4164,7 +4160,7 @@
       </c>
       <c r="EH8" t="inlineStr">
         <is>
-          <t>77178294-1</t>
+          <t>77178274-1</t>
         </is>
       </c>
       <c r="EI8" t="inlineStr"/>
@@ -4175,18 +4171,22 @@
       </c>
       <c r="EK8" t="inlineStr">
         <is>
-          <t>https://powo.science.kew.org/taxon/77178294-1</t>
+          <t>https://powo.science.kew.org/taxon/77178274-1</t>
         </is>
       </c>
       <c r="EL8" t="inlineStr">
         <is>
-          <t>Cambodia, Thailand, Vietnam, Sumatera</t>
-        </is>
-      </c>
-      <c r="EM8" t="inlineStr"/>
+          <t>Jawa, Sumatera</t>
+        </is>
+      </c>
+      <c r="EM8" t="inlineStr">
+        <is>
+          <t>China South-Central, Hainan, India, Lesser Sunda Is., Malaya</t>
+        </is>
+      </c>
       <c r="EN8" t="inlineStr">
         <is>
-          <t>Indo-China, Malesia</t>
+          <t>Malesia</t>
         </is>
       </c>
       <c r="EO8" t="inlineStr">
@@ -4609,7 +4609,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -4619,22 +4619,22 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://powo.science.kew.org/taxon/871826-1</t>
+          <t>https://powo.science.kew.org/taxon/795283-1</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Aframomum alboviolaceum</t>
+          <t>Alpinia globosa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>(Ridl.) K.Schum.</t>
+          <t>(Lour.) Horan.</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aframomum macrospermum (Sm.) Burkill</t>
+          <t>Amomum globosum Lour.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -4645,10 +4645,14 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Cameroon cardamom</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr"/>
+          <t>round Chinese cardamom</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>the small round compact fruits of Alpinia globosa</t>
+        </is>
+      </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
@@ -4676,8 +4680,16 @@
           <t>spice</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>culinary</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>rare</t>
+        </is>
+      </c>
       <c r="AB10" t="inlineStr">
         <is>
           <t>Plantae</t>
@@ -4685,28 +4697,24 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>leaf</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>https://ceb.wikipedia.org/wiki/Aframomum_alboviolaceum</t>
-        </is>
-      </c>
+          <t>fruit &amp; seed</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>Cameroon cardamom; Guinea cardamom</t>
+          <t>round Chinese cardamom; Chinese cardamom; round China cardamom</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>Cameroon cardamom; Guinea cardamom</t>
+          <t>round Chinese cardamom</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>Cameroon cardamom</t>
+          <t>Chinese cardamom</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr"/>
@@ -4714,17 +4722,25 @@
       <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="inlineStr"/>
       <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>round China cardamom</t>
+        </is>
+      </c>
       <c r="AO10" t="inlineStr"/>
       <c r="AP10" t="inlineStr"/>
       <c r="AQ10" t="inlineStr"/>
       <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>Trop. C. Africa</t>
-        </is>
-      </c>
-      <c r="AT10" t="inlineStr"/>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="AT10" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
       <c r="AU10" t="inlineStr"/>
       <c r="AV10" t="inlineStr"/>
       <c r="AW10" t="inlineStr"/>
@@ -4748,9 +4764,21 @@
       <c r="BO10" t="inlineStr"/>
       <c r="BP10" t="inlineStr"/>
       <c r="BQ10" t="inlineStr"/>
-      <c r="BR10" t="inlineStr"/>
-      <c r="BS10" t="inlineStr"/>
-      <c r="BT10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr">
+        <is>
+          <t>脆果山姜</t>
+        </is>
+      </c>
+      <c r="BS10" t="inlineStr">
+        <is>
+          <t>cuìguǒshānjiāng</t>
+        </is>
+      </c>
+      <c r="BT10" t="inlineStr">
+        <is>
+          <t>brittle-fruit-mountain-ginger</t>
+        </is>
+      </c>
       <c r="BU10" t="inlineStr"/>
       <c r="BV10" t="inlineStr"/>
       <c r="BW10" t="inlineStr"/>
@@ -4764,7 +4792,11 @@
       <c r="CE10" t="inlineStr"/>
       <c r="CF10" t="inlineStr"/>
       <c r="CG10" t="inlineStr"/>
-      <c r="CH10" t="inlineStr"/>
+      <c r="CH10" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
       <c r="CI10" t="inlineStr"/>
       <c r="CJ10" t="inlineStr"/>
       <c r="CK10" t="inlineStr"/>
@@ -4774,7 +4806,11 @@
       <c r="CO10" t="inlineStr"/>
       <c r="CP10" t="inlineStr"/>
       <c r="CQ10" t="inlineStr"/>
-      <c r="CR10" t="inlineStr"/>
+      <c r="CR10" t="inlineStr">
+        <is>
+          <t>http://www.efloras.org/florataxon.aspx?flora_id=2&amp;taxon_id=200028270</t>
+        </is>
+      </c>
       <c r="CS10" t="inlineStr"/>
       <c r="CT10" t="inlineStr"/>
       <c r="CU10" t="inlineStr"/>
@@ -4790,22 +4826,22 @@
       <c r="DE10" t="inlineStr"/>
       <c r="DF10" t="inlineStr">
         <is>
-          <t>cameroon_cardamom</t>
+          <t>round_chinese_cardamom</t>
         </is>
       </c>
       <c r="DG10" t="inlineStr">
         <is>
-          <t>https://partigabor.github.io/aromatica/items/cameroon_cardamom</t>
+          <t>https://partigabor.github.io/aromatica/items/round_chinese_cardamom</t>
         </is>
       </c>
       <c r="DH10" t="inlineStr">
         <is>
-          <t>218347</t>
+          <t>218801</t>
         </is>
       </c>
       <c r="DI10" t="inlineStr">
         <is>
-          <t>871826-1</t>
+          <t>795283-1</t>
         </is>
       </c>
       <c r="DJ10" t="inlineStr">
@@ -4826,51 +4862,47 @@
       <c r="DM10" t="inlineStr"/>
       <c r="DN10" t="inlineStr">
         <is>
-          <t>Aframomum</t>
+          <t>Alpinia</t>
         </is>
       </c>
       <c r="DO10" t="inlineStr"/>
       <c r="DP10" t="inlineStr">
         <is>
-          <t>alboviolaceum</t>
+          <t>globosa</t>
         </is>
       </c>
       <c r="DQ10" t="inlineStr"/>
       <c r="DR10" t="inlineStr"/>
       <c r="DS10" t="inlineStr">
         <is>
-          <t>Ridl.</t>
+          <t>Lour.</t>
         </is>
       </c>
       <c r="DT10" t="inlineStr">
         <is>
-          <t>K.Schum.</t>
-        </is>
-      </c>
-      <c r="DU10" t="inlineStr">
-        <is>
-          <t>H.G.A.Engler (ed.)</t>
-        </is>
-      </c>
+          <t>Horan.</t>
+        </is>
+      </c>
+      <c r="DU10" t="inlineStr"/>
       <c r="DV10" t="inlineStr">
         <is>
-          <t>Pflanzenr.</t>
+          <t>Prodr. Monogr. Scitam.</t>
         </is>
       </c>
       <c r="DW10" t="inlineStr">
         <is>
-          <t>, IV, 46: 207</t>
+          <t>: 34</t>
         </is>
       </c>
       <c r="DX10" t="inlineStr">
         <is>
-          <t>(1904)</t>
+          <t>(1862)</t>
         </is>
       </c>
       <c r="DY10" t="inlineStr"/>
       <c r="DZ10" t="inlineStr">
         <is>
-          <t>Trop. Africa</t>
+          <t>China (S. Yunnan) to Vietnam</t>
         </is>
       </c>
       <c r="EA10" t="inlineStr">
@@ -4880,29 +4912,29 @@
       </c>
       <c r="EB10" t="inlineStr">
         <is>
-          <t>seasonally dry tropical</t>
+          <t>wet tropical</t>
         </is>
       </c>
       <c r="EC10" t="inlineStr">
         <is>
-          <t>218347</t>
+          <t>218801</t>
         </is>
       </c>
       <c r="ED10" t="inlineStr">
         <is>
-          <t>219166</t>
+          <t>219286</t>
         </is>
       </c>
       <c r="EE10" t="inlineStr"/>
       <c r="EF10" t="inlineStr"/>
       <c r="EG10" t="inlineStr">
         <is>
-          <t>218345</t>
+          <t>218628</t>
         </is>
       </c>
       <c r="EH10" t="inlineStr">
         <is>
-          <t>871826-1</t>
+          <t>795283-1</t>
         </is>
       </c>
       <c r="EI10" t="inlineStr"/>
@@ -4913,23 +4945,23 @@
       </c>
       <c r="EK10" t="inlineStr">
         <is>
-          <t>https://powo.science.kew.org/taxon/871826-1</t>
+          <t>https://powo.science.kew.org/taxon/795283-1</t>
         </is>
       </c>
       <c r="EL10" t="inlineStr">
         <is>
-          <t>Benin, Burkina, Ghana, Guinea-Bissau, Guinea, Ivory Coast, Liberia, Nigeria, Senegal, Sierra Leone, Togo, Burundi, Cabinda, Central African Repu, Cameroon, Congo, Equatorial Guinea, Gabon, Gulf of Guinea Is., Rwanda, Zaïre, Ethiopia, Sudan, Kenya, Tanzania, Uganda, Angola, Malawi, Mozambique, Zambia, Zimbabwe</t>
+          <t>China South-Central, Vietnam</t>
         </is>
       </c>
       <c r="EM10" t="inlineStr"/>
       <c r="EN10" t="inlineStr">
         <is>
-          <t>West Tropical Africa, West-Central Tropical Africa, Northeast Tropical Africa, East Tropical Africa, South Tropical Africa</t>
+          <t>China, Indo-China</t>
         </is>
       </c>
       <c r="EO10" t="inlineStr">
         <is>
-          <t>Africa</t>
+          <t>Asia-Temperate, Asia-Tropical</t>
         </is>
       </c>
     </row>
@@ -4940,7 +4972,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -4950,17 +4982,17 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://powo.science.kew.org/taxon/871829-1</t>
+          <t>https://powo.science.kew.org/taxon/795588-1</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Aframomum angustifolium</t>
+          <t>Amomum maximum</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>(Sonn.) K.Schum.</t>
+          <t>Roxb.</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
@@ -4972,7 +5004,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Madagascar cardamom</t>
+          <t>Java cardamom</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -4985,9 +5017,7 @@
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="n">
-        <v>1</v>
-      </c>
+      <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
         <v>1</v>
       </c>
@@ -4996,14 +5026,18 @@
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
           <t>spice</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>culinary; ornamental</t>
+        </is>
+      </c>
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr">
         <is>
@@ -5012,30 +5046,22 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>seed</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>https://en.wikipedia.org/wiki/Aframomum_angustifolium</t>
-        </is>
-      </c>
+          <t>fruit &amp; seed</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>Madagascar cardamom</t>
+          <t>Java cardamom</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>Madagascar cardamom</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>Madagascar cardamom</t>
-        </is>
-      </c>
+          <t>Java cardamom</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="inlineStr"/>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
@@ -5048,7 +5074,7 @@
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Trop As</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -5117,22 +5143,22 @@
       <c r="DE11" t="inlineStr"/>
       <c r="DF11" t="inlineStr">
         <is>
-          <t>madagascar_cardamom</t>
+          <t>java_cardamom</t>
         </is>
       </c>
       <c r="DG11" t="inlineStr">
         <is>
-          <t>https://partigabor.github.io/aromatica/items/madagascar_cardamom</t>
+          <t>https://partigabor.github.io/aromatica/items/java_cardamom</t>
         </is>
       </c>
       <c r="DH11" t="inlineStr">
         <is>
-          <t>218350</t>
+          <t>219379</t>
         </is>
       </c>
       <c r="DI11" t="inlineStr">
         <is>
-          <t>871829-1</t>
+          <t>795588-1</t>
         </is>
       </c>
       <c r="DJ11" t="inlineStr">
@@ -5153,51 +5179,43 @@
       <c r="DM11" t="inlineStr"/>
       <c r="DN11" t="inlineStr">
         <is>
-          <t>Aframomum</t>
+          <t>Amomum</t>
         </is>
       </c>
       <c r="DO11" t="inlineStr"/>
       <c r="DP11" t="inlineStr">
         <is>
-          <t>angustifolium</t>
+          <t>maximum</t>
         </is>
       </c>
       <c r="DQ11" t="inlineStr"/>
       <c r="DR11" t="inlineStr"/>
-      <c r="DS11" t="inlineStr">
-        <is>
-          <t>Sonn.</t>
-        </is>
-      </c>
+      <c r="DS11" t="inlineStr"/>
       <c r="DT11" t="inlineStr">
         <is>
-          <t>K.Schum.</t>
-        </is>
-      </c>
-      <c r="DU11" t="inlineStr">
-        <is>
-          <t>H.G.A.Engler (ed.)</t>
-        </is>
-      </c>
+          <t>Roxb.</t>
+        </is>
+      </c>
+      <c r="DU11" t="inlineStr"/>
       <c r="DV11" t="inlineStr">
         <is>
-          <t>Pflanzenr.</t>
+          <t>Asiat. Res.</t>
         </is>
       </c>
       <c r="DW11" t="inlineStr">
         <is>
-          <t>, IV, 46: 218</t>
+          <t xml:space="preserve"> 11: 344</t>
         </is>
       </c>
       <c r="DX11" t="inlineStr">
         <is>
-          <t>(1904)</t>
+          <t>(1810)</t>
         </is>
       </c>
       <c r="DY11" t="inlineStr"/>
       <c r="DZ11" t="inlineStr">
         <is>
-          <t>Trop. Africa, Madagascar</t>
+          <t>Trop. &amp; Subtrop. Asia</t>
         </is>
       </c>
       <c r="EA11" t="inlineStr">
@@ -5207,29 +5225,25 @@
       </c>
       <c r="EB11" t="inlineStr">
         <is>
-          <t>seasonally dry tropical</t>
+          <t>wet tropical</t>
         </is>
       </c>
       <c r="EC11" t="inlineStr">
         <is>
-          <t>218350</t>
-        </is>
-      </c>
-      <c r="ED11" t="inlineStr">
-        <is>
-          <t>219172</t>
-        </is>
-      </c>
+          <t>219379</t>
+        </is>
+      </c>
+      <c r="ED11" t="inlineStr"/>
       <c r="EE11" t="inlineStr"/>
       <c r="EF11" t="inlineStr"/>
       <c r="EG11" t="inlineStr">
         <is>
-          <t>218345</t>
+          <t>219155</t>
         </is>
       </c>
       <c r="EH11" t="inlineStr">
         <is>
-          <t>871829-1</t>
+          <t>795588-1</t>
         </is>
       </c>
       <c r="EI11" t="inlineStr"/>
@@ -5240,27 +5254,23 @@
       </c>
       <c r="EK11" t="inlineStr">
         <is>
-          <t>https://powo.science.kew.org/taxon/871829-1</t>
+          <t>https://powo.science.kew.org/taxon/795588-1</t>
         </is>
       </c>
       <c r="EL11" t="inlineStr">
         <is>
-          <t>Benin, Ghana, Guinea, Ivory Coast, Nigeria, Togo, Burundi, Central African Repu, Cameroon, Congo, Equatorial Guinea, Gabon, Gulf of Guinea Is., Rwanda, Zaïre, Ethiopia, Sudan, Kenya, Tanzania, Uganda, Angola, Malawi, Mozambique, Zambia, Zimbabwe, Madagascar</t>
-        </is>
-      </c>
-      <c r="EM11" t="inlineStr">
-        <is>
-          <t>Mauritius, Seychelles</t>
-        </is>
-      </c>
+          <t>China South-Central, China Southeast, Tibet, Assam, Bangladesh, East Himalaya, India, Nepal, Sri Lanka, Andaman Is., Laos, Myanmar, Thailand, Vietnam, Jawa, Lesser Sunda Is., Sumatera, New Guinea</t>
+        </is>
+      </c>
+      <c r="EM11" t="inlineStr"/>
       <c r="EN11" t="inlineStr">
         <is>
-          <t>West Tropical Africa, West-Central Tropical Africa, Northeast Tropical Africa, East Tropical Africa, South Tropical Africa, Western Indian Ocean</t>
+          <t>China, Indian Subcontinent, Indo-China, Malesia, Papuasia</t>
         </is>
       </c>
       <c r="EO11" t="inlineStr">
         <is>
-          <t>Africa</t>
+          <t>Asia-Temperate, Asia-Tropical</t>
         </is>
       </c>
     </row>
@@ -5271,7 +5281,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -5281,22 +5291,22 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://powo.science.kew.org/taxon/871837-1</t>
+          <t>https://powo.science.kew.org/taxon/797036-1</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Aframomum cereum</t>
+          <t>Hornstedtia costata</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>(Hook.f.) K.Schum.</t>
+          <t>(Roxb.) K.Schum.</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aframomum sceptrum (Oliv. &amp; D.Hanb.) K.Schum.</t>
+          <t>Amomum costatum (Roxb.) Benth. ex Baker</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -5307,10 +5317,14 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>black amomum</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr"/>
+          <t>Chinese black cardamom</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>the dark seed pods of Hornstedtia costata, similar to tsaoko</t>
+        </is>
+      </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
@@ -5331,25 +5345,37 @@
       <c r="X12" t="n">
         <v>1</v>
       </c>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>culinary</t>
+        </is>
+      </c>
       <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Plantae</t>
+        </is>
+      </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>leaf</t>
+          <t>fruit &amp; seed</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="inlineStr"/>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>black amomum</t>
+          <t>Chinese black cardamom</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>black amomum</t>
+          <t>Chinese black cardamom</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr"/>
@@ -5365,7 +5391,7 @@
       <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>W Afr</t>
+          <t>E As</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -5434,22 +5460,22 @@
       <c r="DE12" t="inlineStr"/>
       <c r="DF12" t="inlineStr">
         <is>
-          <t>black_amomum</t>
+          <t>chinese_black_cardamom</t>
         </is>
       </c>
       <c r="DG12" t="inlineStr">
         <is>
-          <t>https://partigabor.github.io/aromatica/items/black_amomum</t>
+          <t>https://partigabor.github.io/aromatica/items/chinese_black_cardamom</t>
         </is>
       </c>
       <c r="DH12" t="inlineStr">
         <is>
-          <t>218357</t>
+          <t>249309</t>
         </is>
       </c>
       <c r="DI12" t="inlineStr">
         <is>
-          <t>871837-1</t>
+          <t>797036-1</t>
         </is>
       </c>
       <c r="DJ12" t="inlineStr">
@@ -5470,20 +5496,20 @@
       <c r="DM12" t="inlineStr"/>
       <c r="DN12" t="inlineStr">
         <is>
-          <t>Aframomum</t>
+          <t>Hornstedtia</t>
         </is>
       </c>
       <c r="DO12" t="inlineStr"/>
       <c r="DP12" t="inlineStr">
         <is>
-          <t>cereum</t>
+          <t>costata</t>
         </is>
       </c>
       <c r="DQ12" t="inlineStr"/>
       <c r="DR12" t="inlineStr"/>
       <c r="DS12" t="inlineStr">
         <is>
-          <t>Hook.f.</t>
+          <t>Roxb.</t>
         </is>
       </c>
       <c r="DT12" t="inlineStr">
@@ -5503,7 +5529,7 @@
       </c>
       <c r="DW12" t="inlineStr">
         <is>
-          <t>, IV, 46: 210</t>
+          <t>, IV, 46: 198</t>
         </is>
       </c>
       <c r="DX12" t="inlineStr">
@@ -5514,39 +5540,39 @@
       <c r="DY12" t="inlineStr"/>
       <c r="DZ12" t="inlineStr">
         <is>
-          <t>W. Trop. Africa to NW. Angola</t>
+          <t>E. Himalaya to Bangladesh</t>
         </is>
       </c>
       <c r="EA12" t="inlineStr">
         <is>
-          <t>rhizomatous geophyte</t>
+          <t>perennial or rhizomatous geophyte</t>
         </is>
       </c>
       <c r="EB12" t="inlineStr">
         <is>
-          <t>seasonally dry tropical</t>
+          <t>subtropical</t>
         </is>
       </c>
       <c r="EC12" t="inlineStr">
         <is>
-          <t>218357</t>
+          <t>249309</t>
         </is>
       </c>
       <c r="ED12" t="inlineStr">
         <is>
-          <t>219214</t>
+          <t>218735</t>
         </is>
       </c>
       <c r="EE12" t="inlineStr"/>
       <c r="EF12" t="inlineStr"/>
       <c r="EG12" t="inlineStr">
         <is>
-          <t>218345</t>
+          <t>249298</t>
         </is>
       </c>
       <c r="EH12" t="inlineStr">
         <is>
-          <t>871837-1</t>
+          <t>797036-1</t>
         </is>
       </c>
       <c r="EI12" t="inlineStr"/>
@@ -5557,23 +5583,23 @@
       </c>
       <c r="EK12" t="inlineStr">
         <is>
-          <t>https://powo.science.kew.org/taxon/871837-1</t>
+          <t>https://powo.science.kew.org/taxon/797036-1</t>
         </is>
       </c>
       <c r="EL12" t="inlineStr">
         <is>
-          <t>Benin, Burkina, Ghana, Guinea-Bissau, Guinea, Ivory Coast, Liberia, Nigeria, Sierra Leone, Togo, Central African Repu, Cameroon, Congo, Equatorial Guinea, Gabon, Zaïre, Angola</t>
+          <t>Assam, Bangladesh, East Himalaya</t>
         </is>
       </c>
       <c r="EM12" t="inlineStr"/>
       <c r="EN12" t="inlineStr">
         <is>
-          <t>West Tropical Africa, West-Central Tropical Africa, South Tropical Africa</t>
+          <t>Indian Subcontinent</t>
         </is>
       </c>
       <c r="EO12" t="inlineStr">
         <is>
-          <t>Africa</t>
+          <t>Asia-Tropical</t>
         </is>
       </c>
     </row>
@@ -5584,7 +5610,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -5594,22 +5620,22 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://powo.science.kew.org/taxon/908251-1</t>
+          <t>https://powo.science.kew.org/taxon/77178270-1</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Aframomum corrorima</t>
+          <t>Wurfbainia aromatica</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>(A.Braun) P.C.M.Jansen</t>
+          <t>(Roxb.) Škorničk. &amp; A.D.Poulsen</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Amomum korarima J.Pereira</t>
+          <t>Amomum aromaticum Roxb.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -5620,10 +5646,14 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Ethiopian cardamom</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr"/>
+          <t>Bengal cardamom</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>the smoked, brown fruits of Wurfbania aromatica, similar to tsaoko</t>
+        </is>
+      </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
@@ -5651,7 +5681,11 @@
           <t>spice</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>culinary</t>
+        </is>
+      </c>
       <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="inlineStr">
         <is>
@@ -5660,24 +5694,24 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>seed</t>
+          <t>fruit &amp; seed</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>Ethiopian cardamom; korarima; korarima cardamom</t>
+          <t>Bengal cardamom; Nepal cardamom; large cardamom</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>Ethiopian cardamom; korarima</t>
+          <t>Bengal cardamom; Nepal cardamom; large cardamom</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>Ethiopian cardamom, Korarima cardamom</t>
+          <t>Bengal cardamom</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr"/>
@@ -5692,16 +5726,36 @@
       <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="inlineStr">
         <is>
-          <t>Trop NE Afr</t>
+          <t>N Ind; Bangl; Nepal; eastern Himalayas</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
-      <c r="AU13" t="inlineStr"/>
-      <c r="AV13" t="inlineStr"/>
-      <c r="AW13" t="inlineStr"/>
-      <c r="AX13" t="inlineStr"/>
-      <c r="AY13" t="inlineStr"/>
-      <c r="AZ13" t="inlineStr"/>
+      <c r="AU13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>90</v>
+      </c>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Dhaka</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr">
+        <is>
+          <t>Vietnam?</t>
+        </is>
+      </c>
+      <c r="AZ13" t="inlineStr">
+        <is>
+          <t>brown</t>
+        </is>
+      </c>
       <c r="BA13" t="inlineStr"/>
       <c r="BB13" t="inlineStr"/>
       <c r="BC13" t="inlineStr"/>
@@ -5761,22 +5815,22 @@
       <c r="DE13" t="inlineStr"/>
       <c r="DF13" t="inlineStr">
         <is>
-          <t>ethiopian_cardamom</t>
+          <t>bengal_cardamom</t>
         </is>
       </c>
       <c r="DG13" t="inlineStr">
         <is>
-          <t>https://partigabor.github.io/aromatica/items/ethiopian_cardamom</t>
+          <t>https://partigabor.github.io/aromatica/items/bengal_cardamom</t>
         </is>
       </c>
       <c r="DH13" t="inlineStr">
         <is>
-          <t>218363</t>
+          <t>532076</t>
         </is>
       </c>
       <c r="DI13" t="inlineStr">
         <is>
-          <t>908251-1</t>
+          <t>77178270-1</t>
         </is>
       </c>
       <c r="DJ13" t="inlineStr">
@@ -5797,47 +5851,47 @@
       <c r="DM13" t="inlineStr"/>
       <c r="DN13" t="inlineStr">
         <is>
-          <t>Aframomum</t>
+          <t>Wurfbainia</t>
         </is>
       </c>
       <c r="DO13" t="inlineStr"/>
       <c r="DP13" t="inlineStr">
         <is>
-          <t>corrorima</t>
+          <t>aromatica</t>
         </is>
       </c>
       <c r="DQ13" t="inlineStr"/>
       <c r="DR13" t="inlineStr"/>
       <c r="DS13" t="inlineStr">
         <is>
-          <t>A.Braun</t>
+          <t>Roxb.</t>
         </is>
       </c>
       <c r="DT13" t="inlineStr">
         <is>
-          <t>P.C.M.Jansen</t>
+          <t>Škorničk. &amp; A.D.Poulsen</t>
         </is>
       </c>
       <c r="DU13" t="inlineStr"/>
       <c r="DV13" t="inlineStr">
         <is>
-          <t>Agric. Res. Rep. Center Agric. Publishing Doc.</t>
+          <t>Taxon</t>
         </is>
       </c>
       <c r="DW13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1981: 906</t>
+          <t xml:space="preserve"> 67: 28</t>
         </is>
       </c>
       <c r="DX13" t="inlineStr">
         <is>
-          <t>(1981)</t>
+          <t>(2018)</t>
         </is>
       </c>
       <c r="DY13" t="inlineStr"/>
       <c r="DZ13" t="inlineStr">
         <is>
-          <t>Ethiopia to Burundi and NE. Tanzania</t>
+          <t>Nepal to Bangladesh</t>
         </is>
       </c>
       <c r="EA13" t="inlineStr">
@@ -5847,29 +5901,29 @@
       </c>
       <c r="EB13" t="inlineStr">
         <is>
-          <t>seasonally dry tropical</t>
+          <t>wet tropical</t>
         </is>
       </c>
       <c r="EC13" t="inlineStr">
         <is>
-          <t>218363</t>
+          <t>532076</t>
         </is>
       </c>
       <c r="ED13" t="inlineStr">
         <is>
-          <t>460236</t>
+          <t>219182</t>
         </is>
       </c>
       <c r="EE13" t="inlineStr"/>
       <c r="EF13" t="inlineStr"/>
       <c r="EG13" t="inlineStr">
         <is>
-          <t>218345</t>
+          <t>272434</t>
         </is>
       </c>
       <c r="EH13" t="inlineStr">
         <is>
-          <t>908251-1</t>
+          <t>77178270-1</t>
         </is>
       </c>
       <c r="EI13" t="inlineStr"/>
@@ -5880,23 +5934,23 @@
       </c>
       <c r="EK13" t="inlineStr">
         <is>
-          <t>https://powo.science.kew.org/taxon/908251-1</t>
+          <t>https://powo.science.kew.org/taxon/77178270-1</t>
         </is>
       </c>
       <c r="EL13" t="inlineStr">
         <is>
-          <t>Burundi, Ethiopia, Kenya, Tanzania, Uganda</t>
+          <t>Assam, Bangladesh, East Himalaya, Nepal</t>
         </is>
       </c>
       <c r="EM13" t="inlineStr"/>
       <c r="EN13" t="inlineStr">
         <is>
-          <t>West-Central Tropical Africa, Northeast Tropical Africa, East Tropical Africa</t>
+          <t>Indian Subcontinent</t>
         </is>
       </c>
       <c r="EO13" t="inlineStr">
         <is>
-          <t>Africa</t>
+          <t>Asia-Tropical</t>
         </is>
       </c>
     </row>
@@ -5907,7 +5961,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -5915,64 +5969,80 @@
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>https://powo.science.kew.org/taxon/871846-1</t>
-        </is>
-      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Aframomum daniellii</t>
+          <t>Myristica fragrans</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>(Hook.f.) K.Schum.</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Aframomum hanburyi K.Schum.</t>
-        </is>
-      </c>
+          <t>Houtt.</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>cardamoms</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>bastard Melegueta</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
+          <t>nutmeg</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>the seed of a peach-like fruit of the nutmeg tree of the Moluccas, Indonesia</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>mace</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
           <t>vanwyk_2014_culinary</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1</v>
+      </c>
       <c r="S14" t="n">
         <v>1</v>
       </c>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
+      <c r="T14" t="n">
+        <v>1</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W14" t="n">
+        <v>1</v>
+      </c>
       <c r="X14" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
           <t>spice</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>culinary; medicinal</t>
+        </is>
+      </c>
       <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="inlineStr">
         <is>
@@ -5984,124 +6054,316 @@
           <t>seed</t>
         </is>
       </c>
-      <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Nutmeg#Mace</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>https://www.britannica.com/topic/nutmeg</t>
+        </is>
+      </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>bastard Melegueta; Cameroon cardamom</t>
+          <t>nutmeg</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>bastard Melegueta; Cameroon cardamom</t>
-        </is>
-      </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>Cameroon cardamom</t>
-        </is>
-      </c>
+          <t>nutmeg</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr"/>
       <c r="AI14" t="inlineStr"/>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
       <c r="AL14" t="inlineStr"/>
       <c r="AM14" t="inlineStr"/>
       <c r="AN14" t="inlineStr"/>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>African cardamom (Wikipedia)</t>
-        </is>
-      </c>
-      <c r="AP14" t="inlineStr"/>
+      <c r="AO14" t="inlineStr"/>
+      <c r="AP14" t="inlineStr">
+        <is>
+          <t>nutmeg; jawz al-tib; roudoukou</t>
+        </is>
+      </c>
       <c r="AQ14" t="inlineStr"/>
-      <c r="AR14" t="inlineStr"/>
+      <c r="AR14" t="inlineStr">
+        <is>
+          <t>nutmeg tree</t>
+        </is>
+      </c>
       <c r="AS14" t="inlineStr">
         <is>
-          <t>Trop W Afr</t>
+          <t>Moluccas (Indonesia)</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
-      <c r="AU14" t="inlineStr"/>
-      <c r="AV14" t="inlineStr"/>
-      <c r="AW14" t="inlineStr"/>
-      <c r="AX14" t="inlineStr"/>
-      <c r="AY14" t="inlineStr"/>
-      <c r="AZ14" t="inlineStr"/>
-      <c r="BA14" t="inlineStr"/>
-      <c r="BB14" t="inlineStr"/>
-      <c r="BC14" t="inlineStr"/>
-      <c r="BD14" t="inlineStr"/>
-      <c r="BE14" t="inlineStr"/>
-      <c r="BF14" t="inlineStr"/>
-      <c r="BG14" t="inlineStr"/>
+      <c r="AU14" t="n">
+        <v>-4</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>129</v>
+      </c>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr">
+        <is>
+          <t>Grenada; Indonesia</t>
+        </is>
+      </c>
+      <c r="AZ14" t="inlineStr">
+        <is>
+          <t>pale brown nut, dark when powdered</t>
+        </is>
+      </c>
+      <c r="BA14" t="inlineStr">
+        <is>
+          <t>sweet, warm, nutty</t>
+        </is>
+      </c>
+      <c r="BB14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BC14" t="inlineStr">
+        <is>
+          <t>desserts, eggnog; diahrrhea</t>
+        </is>
+      </c>
+      <c r="BD14" t="inlineStr">
+        <is>
+          <t>Köhler's Medizinal-Pflanzen</t>
+        </is>
+      </c>
+      <c r="BE14" t="inlineStr">
+        <is>
+          <t>II 132</t>
+        </is>
+      </c>
+      <c r="BF14" t="inlineStr">
+        <is>
+          <t>koehler_1887_koehler</t>
+        </is>
+      </c>
+      <c r="BG14" t="inlineStr">
+        <is>
+          <t>https://www.biodiversitylibrary.org/item/10837#page/609/mode/1up</t>
+        </is>
+      </c>
       <c r="BH14" t="inlineStr"/>
-      <c r="BI14" t="inlineStr"/>
-      <c r="BJ14" t="inlineStr"/>
+      <c r="BI14" t="inlineStr">
+        <is>
+          <t>nutmeg.n.01</t>
+        </is>
+      </c>
+      <c r="BJ14" t="inlineStr">
+        <is>
+          <t>nutmeg.n.02</t>
+        </is>
+      </c>
       <c r="BK14" t="inlineStr"/>
-      <c r="BL14" t="inlineStr"/>
+      <c r="BL14" t="inlineStr">
+        <is>
+          <t>nutmeg</t>
+        </is>
+      </c>
       <c r="BM14" t="inlineStr"/>
-      <c r="BN14" t="inlineStr"/>
-      <c r="BO14" t="inlineStr"/>
-      <c r="BP14" t="inlineStr"/>
+      <c r="BN14" t="inlineStr">
+        <is>
+          <t>جوز الطيب</t>
+        </is>
+      </c>
+      <c r="BO14" t="inlineStr">
+        <is>
+          <t>jawz al-ṭīb</t>
+        </is>
+      </c>
+      <c r="BP14" t="inlineStr">
+        <is>
+          <t>fragrant nut</t>
+        </is>
+      </c>
       <c r="BQ14" t="inlineStr"/>
-      <c r="BR14" t="inlineStr"/>
-      <c r="BS14" t="inlineStr"/>
-      <c r="BT14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr">
+        <is>
+          <t>肉豆蔻</t>
+        </is>
+      </c>
+      <c r="BS14" t="inlineStr">
+        <is>
+          <t>ròudòukòu</t>
+        </is>
+      </c>
+      <c r="BT14" t="inlineStr">
+        <is>
+          <t>flesh-bean-cardamom</t>
+        </is>
+      </c>
       <c r="BU14" t="inlineStr"/>
       <c r="BV14" t="inlineStr"/>
-      <c r="BW14" t="inlineStr"/>
-      <c r="BX14" t="inlineStr"/>
-      <c r="BY14" t="inlineStr"/>
+      <c r="BW14" t="inlineStr">
+        <is>
+          <t>szerecsendió</t>
+        </is>
+      </c>
+      <c r="BX14" t="inlineStr">
+        <is>
+          <t>Saracen nut</t>
+        </is>
+      </c>
+      <c r="BY14" t="inlineStr">
+        <is>
+          <t>muskátdió [musk-nut]; mácisdió [mace-nut]</t>
+        </is>
+      </c>
       <c r="BZ14" t="inlineStr"/>
       <c r="CA14" t="inlineStr"/>
       <c r="CB14" t="inlineStr"/>
       <c r="CC14" t="inlineStr"/>
       <c r="CD14" t="inlineStr"/>
       <c r="CE14" t="inlineStr"/>
-      <c r="CF14" t="inlineStr"/>
-      <c r="CG14" t="inlineStr"/>
-      <c r="CH14" t="inlineStr"/>
-      <c r="CI14" t="inlineStr"/>
-      <c r="CJ14" t="inlineStr"/>
-      <c r="CK14" t="inlineStr"/>
-      <c r="CL14" t="inlineStr"/>
-      <c r="CM14" t="inlineStr"/>
-      <c r="CN14" t="inlineStr"/>
-      <c r="CO14" t="inlineStr"/>
-      <c r="CP14" t="inlineStr"/>
-      <c r="CQ14" t="inlineStr"/>
+      <c r="CF14" t="inlineStr">
+        <is>
+          <t>Semen Myristicae; Myristicae Semen</t>
+        </is>
+      </c>
+      <c r="CG14" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH14" t="inlineStr">
+        <is>
+          <t>polyu-tcm</t>
+        </is>
+      </c>
+      <c r="CI14" t="inlineStr">
+        <is>
+          <t>https://herbaltcm.sn.polyu.edu.hk/herbal/nutmeg</t>
+        </is>
+      </c>
+      <c r="CJ14" t="inlineStr">
+        <is>
+          <t>肉豆蔻</t>
+        </is>
+      </c>
+      <c r="CK14" t="inlineStr">
+        <is>
+          <t>ròudòukòu</t>
+        </is>
+      </c>
+      <c r="CL14" t="inlineStr">
+        <is>
+          <t>Nutmeg</t>
+        </is>
+      </c>
+      <c r="CM14" t="inlineStr">
+        <is>
+          <t>Dried kernel of Myristica fragrans Houtt. (Fam. Myrisyicaceae)</t>
+        </is>
+      </c>
+      <c r="CN14" t="inlineStr">
+        <is>
+          <t>Astringent medicinal</t>
+        </is>
+      </c>
+      <c r="CO14" t="inlineStr">
+        <is>
+          <t>pungent; warm</t>
+        </is>
+      </c>
+      <c r="CP14" t="inlineStr">
+        <is>
+          <t>Spleen, Stomach, Large intestine</t>
+        </is>
+      </c>
+      <c r="CQ14" t="inlineStr">
+        <is>
+          <t>To warm the middle and promote the flow of qi, and astringe the intestines and check diarrhea</t>
+        </is>
+      </c>
       <c r="CR14" t="inlineStr"/>
-      <c r="CS14" t="inlineStr"/>
-      <c r="CT14" t="inlineStr"/>
+      <c r="CS14" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="CT14" t="inlineStr">
+        <is>
+          <t>973</t>
+        </is>
+      </c>
       <c r="CU14" t="inlineStr"/>
-      <c r="CV14" t="inlineStr"/>
-      <c r="CW14" t="inlineStr"/>
-      <c r="CX14" t="inlineStr"/>
-      <c r="CY14" t="inlineStr"/>
-      <c r="CZ14" t="inlineStr"/>
-      <c r="DA14" t="inlineStr"/>
-      <c r="DB14" t="inlineStr"/>
+      <c r="CV14" t="inlineStr">
+        <is>
+          <t>https://www.gbif.org/species/5406817</t>
+        </is>
+      </c>
+      <c r="CW14" t="inlineStr">
+        <is>
+          <t>https://tropicos.org/name/21800077</t>
+        </is>
+      </c>
+      <c r="CX14" t="inlineStr">
+        <is>
+          <t>https://eol.org/pages/596922</t>
+        </is>
+      </c>
+      <c r="CY14" t="n">
+        <v>51089</v>
+      </c>
+      <c r="CZ14" t="inlineStr">
+        <is>
+          <t>जायफल</t>
+        </is>
+      </c>
+      <c r="DA14" t="inlineStr">
+        <is>
+          <t>jāyaphal</t>
+        </is>
+      </c>
+      <c r="DB14" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
       <c r="DC14" t="inlineStr"/>
-      <c r="DD14" t="inlineStr"/>
-      <c r="DE14" t="inlineStr"/>
+      <c r="DD14" t="inlineStr">
+        <is>
+          <t>pala</t>
+        </is>
+      </c>
+      <c r="DE14" t="inlineStr">
+        <is>
+          <t>جوز هندی</t>
+        </is>
+      </c>
       <c r="DF14" t="inlineStr">
         <is>
-          <t>bastard_melegueta</t>
+          <t>nutmeg</t>
         </is>
       </c>
       <c r="DG14" t="inlineStr">
         <is>
-          <t>https://partigabor.github.io/aromatica/items/bastard_melegueta</t>
+          <t>https://partigabor.github.io/aromatica/items/nutmeg</t>
         </is>
       </c>
       <c r="DH14" t="inlineStr">
         <is>
-          <t>218368</t>
+          <t>2500629</t>
         </is>
       </c>
       <c r="DI14" t="inlineStr">
         <is>
-          <t>871846-1</t>
+          <t>586076-1</t>
         </is>
       </c>
       <c r="DJ14" t="inlineStr">
@@ -6116,62 +6378,54 @@
       </c>
       <c r="DL14" t="inlineStr">
         <is>
-          <t>Zingiberaceae</t>
+          <t>Myristicaceae</t>
         </is>
       </c>
       <c r="DM14" t="inlineStr"/>
       <c r="DN14" t="inlineStr">
         <is>
-          <t>Aframomum</t>
+          <t>Myristica</t>
         </is>
       </c>
       <c r="DO14" t="inlineStr"/>
       <c r="DP14" t="inlineStr">
         <is>
-          <t>daniellii</t>
+          <t>fragrans</t>
         </is>
       </c>
       <c r="DQ14" t="inlineStr"/>
       <c r="DR14" t="inlineStr"/>
-      <c r="DS14" t="inlineStr">
-        <is>
-          <t>Hook.f.</t>
-        </is>
-      </c>
+      <c r="DS14" t="inlineStr"/>
       <c r="DT14" t="inlineStr">
         <is>
-          <t>K.Schum.</t>
-        </is>
-      </c>
-      <c r="DU14" t="inlineStr">
-        <is>
-          <t>H.G.A.Engler (ed.)</t>
-        </is>
-      </c>
+          <t>Houtt.</t>
+        </is>
+      </c>
+      <c r="DU14" t="inlineStr"/>
       <c r="DV14" t="inlineStr">
         <is>
-          <t>Pflanzenr.</t>
+          <t>Nat. Hist.</t>
         </is>
       </c>
       <c r="DW14" t="inlineStr">
         <is>
-          <t>, IV, 46: 218</t>
+          <t xml:space="preserve"> 2(3): 333</t>
         </is>
       </c>
       <c r="DX14" t="inlineStr">
         <is>
-          <t>(1904)</t>
+          <t>(1774)</t>
         </is>
       </c>
       <c r="DY14" t="inlineStr"/>
       <c r="DZ14" t="inlineStr">
         <is>
-          <t>SE. Nigeria to SW. Kenya and Angola</t>
+          <t>Maluku (Banda Is.)</t>
         </is>
       </c>
       <c r="EA14" t="inlineStr">
         <is>
-          <t>rhizomatous geophyte</t>
+          <t>tree</t>
         </is>
       </c>
       <c r="EB14" t="inlineStr">
@@ -6181,51 +6435,51 @@
       </c>
       <c r="EC14" t="inlineStr">
         <is>
-          <t>218368</t>
-        </is>
-      </c>
-      <c r="ED14" t="inlineStr">
-        <is>
-          <t>219241</t>
-        </is>
-      </c>
+          <t>2500629</t>
+        </is>
+      </c>
+      <c r="ED14" t="inlineStr"/>
       <c r="EE14" t="inlineStr"/>
       <c r="EF14" t="inlineStr"/>
       <c r="EG14" t="inlineStr">
         <is>
-          <t>218345</t>
+          <t>2500594</t>
         </is>
       </c>
       <c r="EH14" t="inlineStr">
         <is>
-          <t>871846-1</t>
+          <t>586076-1</t>
         </is>
       </c>
       <c r="EI14" t="inlineStr"/>
       <c r="EJ14" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="EK14" t="inlineStr">
         <is>
-          <t>https://powo.science.kew.org/taxon/871846-1</t>
+          <t>https://powo.science.kew.org/taxon/586076-1</t>
         </is>
       </c>
       <c r="EL14" t="inlineStr">
         <is>
-          <t>Nigeria, Central African Repu, Cameroon, Congo, Equatorial Guinea, Gabon, Gulf of Guinea Is., Kenya, Uganda, Angola</t>
-        </is>
-      </c>
-      <c r="EM14" t="inlineStr"/>
+          <t>Maluku</t>
+        </is>
+      </c>
+      <c r="EM14" t="inlineStr">
+        <is>
+          <t>Gulf of Guinea Is., Comoros, Mauritius, Réunion, China South-Central, China Southeast, Taiwan, Assam, Bangladesh, Laos, Thailand, Vietnam, Jawa, Philippines, Samoa</t>
+        </is>
+      </c>
       <c r="EN14" t="inlineStr">
         <is>
-          <t>West Tropical Africa, West-Central Tropical Africa, East Tropical Africa, South Tropical Africa</t>
+          <t>Malesia</t>
         </is>
       </c>
       <c r="EO14" t="inlineStr">
         <is>
-          <t>Africa</t>
+          <t>Asia-Tropical</t>
         </is>
       </c>
     </row>
@@ -6236,7 +6490,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -6244,63 +6498,69 @@
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>https://powo.science.kew.org/taxon/795283-1</t>
-        </is>
-      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Alpinia globosa</t>
+          <t>Myristica fragrans</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>(Lour.) Horan.</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Amomum globosum Lour.</t>
-        </is>
-      </c>
+          <t>Houtt.</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>cardamoms</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>round Chinese cardamom</t>
+          <t>mace</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>the small round compact fruits of Alpinia globosa</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr"/>
+          <t>the aril (seed-covering) of the nutmeg</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>nutmeg</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
           <t>vanwyk_2014_culinary</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
       <c r="R15" t="n">
         <v>1</v>
       </c>
       <c r="S15" t="n">
         <v>1</v>
       </c>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
+      <c r="T15" t="n">
+        <v>1</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
       <c r="X15" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
@@ -6312,11 +6572,7 @@
           <t>culinary</t>
         </is>
       </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>rare</t>
-        </is>
-      </c>
+      <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="inlineStr">
         <is>
           <t>Plantae</t>
@@ -6324,24 +6580,32 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>fruit &amp; seed</t>
-        </is>
-      </c>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
+          <t>aril</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Nutmeg</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>https://www.britannica.com/topic/mace-spice</t>
+        </is>
+      </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>round Chinese cardamom; Chinese cardamom; round China cardamom</t>
+          <t>mace</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>round Chinese cardamom</t>
+          <t>mace</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>Chinese cardamom</t>
+          <t>Mace</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr"/>
@@ -6349,67 +6613,147 @@
       <c r="AK15" t="inlineStr"/>
       <c r="AL15" t="inlineStr"/>
       <c r="AM15" t="inlineStr"/>
-      <c r="AN15" t="inlineStr">
-        <is>
-          <t>round China cardamom</t>
-        </is>
-      </c>
+      <c r="AN15" t="inlineStr"/>
       <c r="AO15" t="inlineStr"/>
-      <c r="AP15" t="inlineStr"/>
+      <c r="AP15" t="inlineStr">
+        <is>
+          <t>mace; basbas; roudoukoupi</t>
+        </is>
+      </c>
       <c r="AQ15" t="inlineStr"/>
-      <c r="AR15" t="inlineStr"/>
+      <c r="AR15" t="inlineStr">
+        <is>
+          <t>nutmeg tree</t>
+        </is>
+      </c>
       <c r="AS15" t="inlineStr">
         <is>
-          <t>China</t>
-        </is>
-      </c>
-      <c r="AT15" t="inlineStr">
-        <is>
-          <t>China</t>
-        </is>
-      </c>
-      <c r="AU15" t="inlineStr"/>
-      <c r="AV15" t="inlineStr"/>
-      <c r="AW15" t="inlineStr"/>
-      <c r="AX15" t="inlineStr"/>
-      <c r="AY15" t="inlineStr"/>
-      <c r="AZ15" t="inlineStr"/>
-      <c r="BA15" t="inlineStr"/>
-      <c r="BB15" t="inlineStr"/>
-      <c r="BC15" t="inlineStr"/>
-      <c r="BD15" t="inlineStr"/>
-      <c r="BE15" t="inlineStr"/>
-      <c r="BF15" t="inlineStr"/>
-      <c r="BG15" t="inlineStr"/>
+          <t>Moluccas (Indonesia)</t>
+        </is>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AU15" t="n">
+        <v>-5</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>130</v>
+      </c>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Banda Islands</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr">
+        <is>
+          <t>Grenada; Indonesia</t>
+        </is>
+      </c>
+      <c r="AZ15" t="inlineStr">
+        <is>
+          <t>crimson red aril whn fresh, pale yellow when dried</t>
+        </is>
+      </c>
+      <c r="BA15" t="inlineStr">
+        <is>
+          <t>sweet, bitter, salty</t>
+        </is>
+      </c>
+      <c r="BB15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BC15" t="inlineStr">
+        <is>
+          <t>confectionary; peptic ulcers</t>
+        </is>
+      </c>
+      <c r="BD15" t="inlineStr">
+        <is>
+          <t>Köhler's Medizinal-Pflanzen</t>
+        </is>
+      </c>
+      <c r="BE15" t="inlineStr">
+        <is>
+          <t>II 132</t>
+        </is>
+      </c>
+      <c r="BF15" t="inlineStr">
+        <is>
+          <t>koehler_1887_koehler</t>
+        </is>
+      </c>
+      <c r="BG15" t="inlineStr">
+        <is>
+          <t>https://www.biodiversitylibrary.org/item/10837#page/609/mode/1up</t>
+        </is>
+      </c>
       <c r="BH15" t="inlineStr"/>
-      <c r="BI15" t="inlineStr"/>
-      <c r="BJ15" t="inlineStr"/>
+      <c r="BI15" t="inlineStr">
+        <is>
+          <t>nutmeg.n.01</t>
+        </is>
+      </c>
+      <c r="BJ15" t="inlineStr">
+        <is>
+          <t>mace.n.03</t>
+        </is>
+      </c>
       <c r="BK15" t="inlineStr"/>
-      <c r="BL15" t="inlineStr"/>
+      <c r="BL15" t="inlineStr">
+        <is>
+          <t>mace</t>
+        </is>
+      </c>
       <c r="BM15" t="inlineStr"/>
-      <c r="BN15" t="inlineStr"/>
-      <c r="BO15" t="inlineStr"/>
+      <c r="BN15" t="inlineStr">
+        <is>
+          <t>بسباسة</t>
+        </is>
+      </c>
+      <c r="BO15" t="inlineStr">
+        <is>
+          <t>basbāsa</t>
+        </is>
+      </c>
       <c r="BP15" t="inlineStr"/>
-      <c r="BQ15" t="inlineStr"/>
+      <c r="BQ15" t="inlineStr">
+        <is>
+          <t>*qishrat jawz al-ṭīb* [the peel of the fragrant nut] قشرة جوز الطيب</t>
+        </is>
+      </c>
       <c r="BR15" t="inlineStr">
         <is>
-          <t>脆果山姜</t>
+          <t>肉豆蔻皮</t>
         </is>
       </c>
       <c r="BS15" t="inlineStr">
         <is>
-          <t>cuìguǒshānjiāng</t>
+          <t>ròudòukòupí</t>
         </is>
       </c>
       <c r="BT15" t="inlineStr">
         <is>
-          <t>brittle-fruit-mountain-ginger</t>
+          <t>flesh-bean-cardamom-skin</t>
         </is>
       </c>
       <c r="BU15" t="inlineStr"/>
       <c r="BV15" t="inlineStr"/>
-      <c r="BW15" t="inlineStr"/>
-      <c r="BX15" t="inlineStr"/>
+      <c r="BW15" t="inlineStr">
+        <is>
+          <t>szerecsendió-virág</t>
+        </is>
+      </c>
+      <c r="BX15" t="inlineStr">
+        <is>
+          <t>Saracen nut flower</t>
+        </is>
+      </c>
       <c r="BY15" t="inlineStr"/>
       <c r="BZ15" t="inlineStr"/>
       <c r="CA15" t="inlineStr"/>
@@ -6417,58 +6761,96 @@
       <c r="CC15" t="inlineStr"/>
       <c r="CD15" t="inlineStr"/>
       <c r="CE15" t="inlineStr"/>
-      <c r="CF15" t="inlineStr"/>
+      <c r="CF15" t="inlineStr">
+        <is>
+          <t>Arillus Myristicae</t>
+        </is>
+      </c>
       <c r="CG15" t="inlineStr"/>
-      <c r="CH15" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
+      <c r="CH15" t="inlineStr"/>
       <c r="CI15" t="inlineStr"/>
       <c r="CJ15" t="inlineStr"/>
       <c r="CK15" t="inlineStr"/>
-      <c r="CL15" t="inlineStr"/>
+      <c r="CL15" t="inlineStr">
+        <is>
+          <t>Nutmeg</t>
+        </is>
+      </c>
       <c r="CM15" t="inlineStr"/>
       <c r="CN15" t="inlineStr"/>
       <c r="CO15" t="inlineStr"/>
       <c r="CP15" t="inlineStr"/>
       <c r="CQ15" t="inlineStr"/>
-      <c r="CR15" t="inlineStr">
-        <is>
-          <t>http://www.efloras.org/florataxon.aspx?flora_id=2&amp;taxon_id=200028270</t>
-        </is>
-      </c>
+      <c r="CR15" t="inlineStr"/>
       <c r="CS15" t="inlineStr"/>
-      <c r="CT15" t="inlineStr"/>
+      <c r="CT15" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
       <c r="CU15" t="inlineStr"/>
-      <c r="CV15" t="inlineStr"/>
-      <c r="CW15" t="inlineStr"/>
-      <c r="CX15" t="inlineStr"/>
-      <c r="CY15" t="inlineStr"/>
-      <c r="CZ15" t="inlineStr"/>
-      <c r="DA15" t="inlineStr"/>
-      <c r="DB15" t="inlineStr"/>
+      <c r="CV15" t="inlineStr">
+        <is>
+          <t>https://www.gbif.org/species/5406817</t>
+        </is>
+      </c>
+      <c r="CW15" t="inlineStr">
+        <is>
+          <t>https://tropicos.org/name/21800077</t>
+        </is>
+      </c>
+      <c r="CX15" t="inlineStr">
+        <is>
+          <t>https://eol.org/pages/596922</t>
+        </is>
+      </c>
+      <c r="CY15" t="n">
+        <v>51089</v>
+      </c>
+      <c r="CZ15" t="inlineStr">
+        <is>
+          <t>जावित्री</t>
+        </is>
+      </c>
+      <c r="DA15" t="inlineStr">
+        <is>
+          <t>jāvitrī</t>
+        </is>
+      </c>
+      <c r="DB15" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
       <c r="DC15" t="inlineStr"/>
-      <c r="DD15" t="inlineStr"/>
-      <c r="DE15" t="inlineStr"/>
+      <c r="DD15" t="inlineStr">
+        <is>
+          <t>bunga pala</t>
+        </is>
+      </c>
+      <c r="DE15" t="inlineStr">
+        <is>
+          <t>بسپاسه</t>
+        </is>
+      </c>
       <c r="DF15" t="inlineStr">
         <is>
-          <t>round_chinese_cardamom</t>
+          <t>mace</t>
         </is>
       </c>
       <c r="DG15" t="inlineStr">
         <is>
-          <t>https://partigabor.github.io/aromatica/items/round_chinese_cardamom</t>
+          <t>https://partigabor.github.io/aromatica/items/mace</t>
         </is>
       </c>
       <c r="DH15" t="inlineStr">
         <is>
-          <t>218801</t>
+          <t>2500629</t>
         </is>
       </c>
       <c r="DI15" t="inlineStr">
         <is>
-          <t>795283-1</t>
+          <t>586076-1</t>
         </is>
       </c>
       <c r="DJ15" t="inlineStr">
@@ -6483,58 +6865,54 @@
       </c>
       <c r="DL15" t="inlineStr">
         <is>
-          <t>Zingiberaceae</t>
+          <t>Myristicaceae</t>
         </is>
       </c>
       <c r="DM15" t="inlineStr"/>
       <c r="DN15" t="inlineStr">
         <is>
-          <t>Alpinia</t>
+          <t>Myristica</t>
         </is>
       </c>
       <c r="DO15" t="inlineStr"/>
       <c r="DP15" t="inlineStr">
         <is>
-          <t>globosa</t>
+          <t>fragrans</t>
         </is>
       </c>
       <c r="DQ15" t="inlineStr"/>
       <c r="DR15" t="inlineStr"/>
-      <c r="DS15" t="inlineStr">
-        <is>
-          <t>Lour.</t>
-        </is>
-      </c>
+      <c r="DS15" t="inlineStr"/>
       <c r="DT15" t="inlineStr">
         <is>
-          <t>Horan.</t>
+          <t>Houtt.</t>
         </is>
       </c>
       <c r="DU15" t="inlineStr"/>
       <c r="DV15" t="inlineStr">
         <is>
-          <t>Prodr. Monogr. Scitam.</t>
+          <t>Nat. Hist.</t>
         </is>
       </c>
       <c r="DW15" t="inlineStr">
         <is>
-          <t>: 34</t>
+          <t xml:space="preserve"> 2(3): 333</t>
         </is>
       </c>
       <c r="DX15" t="inlineStr">
         <is>
-          <t>(1862)</t>
+          <t>(1774)</t>
         </is>
       </c>
       <c r="DY15" t="inlineStr"/>
       <c r="DZ15" t="inlineStr">
         <is>
-          <t>China (S. Yunnan) to Vietnam</t>
+          <t>Maluku (Banda Is.)</t>
         </is>
       </c>
       <c r="EA15" t="inlineStr">
         <is>
-          <t>rhizomatous geophyte</t>
+          <t>tree</t>
         </is>
       </c>
       <c r="EB15" t="inlineStr">
@@ -6544,2752 +6922,49 @@
       </c>
       <c r="EC15" t="inlineStr">
         <is>
-          <t>218801</t>
-        </is>
-      </c>
-      <c r="ED15" t="inlineStr">
-        <is>
-          <t>219286</t>
-        </is>
-      </c>
+          <t>2500629</t>
+        </is>
+      </c>
+      <c r="ED15" t="inlineStr"/>
       <c r="EE15" t="inlineStr"/>
       <c r="EF15" t="inlineStr"/>
       <c r="EG15" t="inlineStr">
         <is>
-          <t>218628</t>
+          <t>2500594</t>
         </is>
       </c>
       <c r="EH15" t="inlineStr">
         <is>
-          <t>795283-1</t>
+          <t>586076-1</t>
         </is>
       </c>
       <c r="EI15" t="inlineStr"/>
       <c r="EJ15" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="EK15" t="inlineStr">
         <is>
-          <t>https://powo.science.kew.org/taxon/795283-1</t>
+          <t>https://powo.science.kew.org/taxon/586076-1</t>
         </is>
       </c>
       <c r="EL15" t="inlineStr">
         <is>
-          <t>China South-Central, Vietnam</t>
-        </is>
-      </c>
-      <c r="EM15" t="inlineStr"/>
+          <t>Maluku</t>
+        </is>
+      </c>
+      <c r="EM15" t="inlineStr">
+        <is>
+          <t>Gulf of Guinea Is., Comoros, Mauritius, Réunion, China South-Central, China Southeast, Taiwan, Assam, Bangladesh, Laos, Thailand, Vietnam, Jawa, Philippines, Samoa</t>
+        </is>
+      </c>
       <c r="EN15" t="inlineStr">
         <is>
-          <t>China, Indo-China</t>
+          <t>Malesia</t>
         </is>
       </c>
       <c r="EO15" t="inlineStr">
-        <is>
-          <t>Asia-Temperate, Asia-Tropical</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>https://powo.science.kew.org/taxon/795588-1</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Amomum maximum</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Roxb.</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>cardamoms</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>Java cardamom</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>vanwyk_2014_culinary</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
-        <v>1</v>
-      </c>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>spice</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>culinary; ornamental</t>
-        </is>
-      </c>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>Plantae</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>fruit &amp; seed</t>
-        </is>
-      </c>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr">
-        <is>
-          <t>Java cardamom</t>
-        </is>
-      </c>
-      <c r="AG16" t="inlineStr">
-        <is>
-          <t>Java cardamom</t>
-        </is>
-      </c>
-      <c r="AH16" t="inlineStr"/>
-      <c r="AI16" t="inlineStr"/>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
-      <c r="AL16" t="inlineStr"/>
-      <c r="AM16" t="inlineStr"/>
-      <c r="AN16" t="inlineStr"/>
-      <c r="AO16" t="inlineStr"/>
-      <c r="AP16" t="inlineStr"/>
-      <c r="AQ16" t="inlineStr"/>
-      <c r="AR16" t="inlineStr"/>
-      <c r="AS16" t="inlineStr">
-        <is>
-          <t>Trop As</t>
-        </is>
-      </c>
-      <c r="AT16" t="inlineStr"/>
-      <c r="AU16" t="inlineStr"/>
-      <c r="AV16" t="inlineStr"/>
-      <c r="AW16" t="inlineStr"/>
-      <c r="AX16" t="inlineStr"/>
-      <c r="AY16" t="inlineStr"/>
-      <c r="AZ16" t="inlineStr"/>
-      <c r="BA16" t="inlineStr"/>
-      <c r="BB16" t="inlineStr"/>
-      <c r="BC16" t="inlineStr"/>
-      <c r="BD16" t="inlineStr"/>
-      <c r="BE16" t="inlineStr"/>
-      <c r="BF16" t="inlineStr"/>
-      <c r="BG16" t="inlineStr"/>
-      <c r="BH16" t="inlineStr"/>
-      <c r="BI16" t="inlineStr"/>
-      <c r="BJ16" t="inlineStr"/>
-      <c r="BK16" t="inlineStr"/>
-      <c r="BL16" t="inlineStr"/>
-      <c r="BM16" t="inlineStr"/>
-      <c r="BN16" t="inlineStr"/>
-      <c r="BO16" t="inlineStr"/>
-      <c r="BP16" t="inlineStr"/>
-      <c r="BQ16" t="inlineStr"/>
-      <c r="BR16" t="inlineStr"/>
-      <c r="BS16" t="inlineStr"/>
-      <c r="BT16" t="inlineStr"/>
-      <c r="BU16" t="inlineStr"/>
-      <c r="BV16" t="inlineStr"/>
-      <c r="BW16" t="inlineStr"/>
-      <c r="BX16" t="inlineStr"/>
-      <c r="BY16" t="inlineStr"/>
-      <c r="BZ16" t="inlineStr"/>
-      <c r="CA16" t="inlineStr"/>
-      <c r="CB16" t="inlineStr"/>
-      <c r="CC16" t="inlineStr"/>
-      <c r="CD16" t="inlineStr"/>
-      <c r="CE16" t="inlineStr"/>
-      <c r="CF16" t="inlineStr"/>
-      <c r="CG16" t="inlineStr"/>
-      <c r="CH16" t="inlineStr"/>
-      <c r="CI16" t="inlineStr"/>
-      <c r="CJ16" t="inlineStr"/>
-      <c r="CK16" t="inlineStr"/>
-      <c r="CL16" t="inlineStr"/>
-      <c r="CM16" t="inlineStr"/>
-      <c r="CN16" t="inlineStr"/>
-      <c r="CO16" t="inlineStr"/>
-      <c r="CP16" t="inlineStr"/>
-      <c r="CQ16" t="inlineStr"/>
-      <c r="CR16" t="inlineStr"/>
-      <c r="CS16" t="inlineStr"/>
-      <c r="CT16" t="inlineStr"/>
-      <c r="CU16" t="inlineStr"/>
-      <c r="CV16" t="inlineStr"/>
-      <c r="CW16" t="inlineStr"/>
-      <c r="CX16" t="inlineStr"/>
-      <c r="CY16" t="inlineStr"/>
-      <c r="CZ16" t="inlineStr"/>
-      <c r="DA16" t="inlineStr"/>
-      <c r="DB16" t="inlineStr"/>
-      <c r="DC16" t="inlineStr"/>
-      <c r="DD16" t="inlineStr"/>
-      <c r="DE16" t="inlineStr"/>
-      <c r="DF16" t="inlineStr">
-        <is>
-          <t>java_cardamom</t>
-        </is>
-      </c>
-      <c r="DG16" t="inlineStr">
-        <is>
-          <t>https://partigabor.github.io/aromatica/items/java_cardamom</t>
-        </is>
-      </c>
-      <c r="DH16" t="inlineStr">
-        <is>
-          <t>219379</t>
-        </is>
-      </c>
-      <c r="DI16" t="inlineStr">
-        <is>
-          <t>795588-1</t>
-        </is>
-      </c>
-      <c r="DJ16" t="inlineStr">
-        <is>
-          <t>Species</t>
-        </is>
-      </c>
-      <c r="DK16" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="DL16" t="inlineStr">
-        <is>
-          <t>Zingiberaceae</t>
-        </is>
-      </c>
-      <c r="DM16" t="inlineStr"/>
-      <c r="DN16" t="inlineStr">
-        <is>
-          <t>Amomum</t>
-        </is>
-      </c>
-      <c r="DO16" t="inlineStr"/>
-      <c r="DP16" t="inlineStr">
-        <is>
-          <t>maximum</t>
-        </is>
-      </c>
-      <c r="DQ16" t="inlineStr"/>
-      <c r="DR16" t="inlineStr"/>
-      <c r="DS16" t="inlineStr"/>
-      <c r="DT16" t="inlineStr">
-        <is>
-          <t>Roxb.</t>
-        </is>
-      </c>
-      <c r="DU16" t="inlineStr"/>
-      <c r="DV16" t="inlineStr">
-        <is>
-          <t>Asiat. Res.</t>
-        </is>
-      </c>
-      <c r="DW16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 11: 344</t>
-        </is>
-      </c>
-      <c r="DX16" t="inlineStr">
-        <is>
-          <t>(1810)</t>
-        </is>
-      </c>
-      <c r="DY16" t="inlineStr"/>
-      <c r="DZ16" t="inlineStr">
-        <is>
-          <t>Trop. &amp; Subtrop. Asia</t>
-        </is>
-      </c>
-      <c r="EA16" t="inlineStr">
-        <is>
-          <t>rhizomatous geophyte</t>
-        </is>
-      </c>
-      <c r="EB16" t="inlineStr">
-        <is>
-          <t>wet tropical</t>
-        </is>
-      </c>
-      <c r="EC16" t="inlineStr">
-        <is>
-          <t>219379</t>
-        </is>
-      </c>
-      <c r="ED16" t="inlineStr"/>
-      <c r="EE16" t="inlineStr"/>
-      <c r="EF16" t="inlineStr"/>
-      <c r="EG16" t="inlineStr">
-        <is>
-          <t>219155</t>
-        </is>
-      </c>
-      <c r="EH16" t="inlineStr">
-        <is>
-          <t>795588-1</t>
-        </is>
-      </c>
-      <c r="EI16" t="inlineStr"/>
-      <c r="EJ16" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="EK16" t="inlineStr">
-        <is>
-          <t>https://powo.science.kew.org/taxon/795588-1</t>
-        </is>
-      </c>
-      <c r="EL16" t="inlineStr">
-        <is>
-          <t>China South-Central, China Southeast, Tibet, Assam, Bangladesh, East Himalaya, India, Nepal, Sri Lanka, Andaman Is., Laos, Myanmar, Thailand, Vietnam, Jawa, Lesser Sunda Is., Sumatera, New Guinea</t>
-        </is>
-      </c>
-      <c r="EM16" t="inlineStr"/>
-      <c r="EN16" t="inlineStr">
-        <is>
-          <t>China, Indian Subcontinent, Indo-China, Malesia, Papuasia</t>
-        </is>
-      </c>
-      <c r="EO16" t="inlineStr">
-        <is>
-          <t>Asia-Temperate, Asia-Tropical</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>14</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>https://powo.science.kew.org/taxon/797036-1</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Hornstedtia costata</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>(Roxb.) K.Schum.</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Amomum costatum (Roxb.) Benth. ex Baker</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>cardamoms</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Chinese black cardamom</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>the dark seed pods of Hornstedtia costata, similar to tsaoko</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>vanwyk_2014_culinary</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
-        <v>1</v>
-      </c>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>spice</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>culinary</t>
-        </is>
-      </c>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>Plantae</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>fruit &amp; seed</t>
-        </is>
-      </c>
-      <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="inlineStr"/>
-      <c r="AF17" t="inlineStr">
-        <is>
-          <t>Chinese black cardamom</t>
-        </is>
-      </c>
-      <c r="AG17" t="inlineStr">
-        <is>
-          <t>Chinese black cardamom</t>
-        </is>
-      </c>
-      <c r="AH17" t="inlineStr"/>
-      <c r="AI17" t="inlineStr"/>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
-      <c r="AL17" t="inlineStr"/>
-      <c r="AM17" t="inlineStr"/>
-      <c r="AN17" t="inlineStr"/>
-      <c r="AO17" t="inlineStr"/>
-      <c r="AP17" t="inlineStr"/>
-      <c r="AQ17" t="inlineStr"/>
-      <c r="AR17" t="inlineStr"/>
-      <c r="AS17" t="inlineStr">
-        <is>
-          <t>E As</t>
-        </is>
-      </c>
-      <c r="AT17" t="inlineStr"/>
-      <c r="AU17" t="inlineStr"/>
-      <c r="AV17" t="inlineStr"/>
-      <c r="AW17" t="inlineStr"/>
-      <c r="AX17" t="inlineStr"/>
-      <c r="AY17" t="inlineStr"/>
-      <c r="AZ17" t="inlineStr"/>
-      <c r="BA17" t="inlineStr"/>
-      <c r="BB17" t="inlineStr"/>
-      <c r="BC17" t="inlineStr"/>
-      <c r="BD17" t="inlineStr"/>
-      <c r="BE17" t="inlineStr"/>
-      <c r="BF17" t="inlineStr"/>
-      <c r="BG17" t="inlineStr"/>
-      <c r="BH17" t="inlineStr"/>
-      <c r="BI17" t="inlineStr"/>
-      <c r="BJ17" t="inlineStr"/>
-      <c r="BK17" t="inlineStr"/>
-      <c r="BL17" t="inlineStr"/>
-      <c r="BM17" t="inlineStr"/>
-      <c r="BN17" t="inlineStr"/>
-      <c r="BO17" t="inlineStr"/>
-      <c r="BP17" t="inlineStr"/>
-      <c r="BQ17" t="inlineStr"/>
-      <c r="BR17" t="inlineStr"/>
-      <c r="BS17" t="inlineStr"/>
-      <c r="BT17" t="inlineStr"/>
-      <c r="BU17" t="inlineStr"/>
-      <c r="BV17" t="inlineStr"/>
-      <c r="BW17" t="inlineStr"/>
-      <c r="BX17" t="inlineStr"/>
-      <c r="BY17" t="inlineStr"/>
-      <c r="BZ17" t="inlineStr"/>
-      <c r="CA17" t="inlineStr"/>
-      <c r="CB17" t="inlineStr"/>
-      <c r="CC17" t="inlineStr"/>
-      <c r="CD17" t="inlineStr"/>
-      <c r="CE17" t="inlineStr"/>
-      <c r="CF17" t="inlineStr"/>
-      <c r="CG17" t="inlineStr"/>
-      <c r="CH17" t="inlineStr"/>
-      <c r="CI17" t="inlineStr"/>
-      <c r="CJ17" t="inlineStr"/>
-      <c r="CK17" t="inlineStr"/>
-      <c r="CL17" t="inlineStr"/>
-      <c r="CM17" t="inlineStr"/>
-      <c r="CN17" t="inlineStr"/>
-      <c r="CO17" t="inlineStr"/>
-      <c r="CP17" t="inlineStr"/>
-      <c r="CQ17" t="inlineStr"/>
-      <c r="CR17" t="inlineStr"/>
-      <c r="CS17" t="inlineStr"/>
-      <c r="CT17" t="inlineStr"/>
-      <c r="CU17" t="inlineStr"/>
-      <c r="CV17" t="inlineStr"/>
-      <c r="CW17" t="inlineStr"/>
-      <c r="CX17" t="inlineStr"/>
-      <c r="CY17" t="inlineStr"/>
-      <c r="CZ17" t="inlineStr"/>
-      <c r="DA17" t="inlineStr"/>
-      <c r="DB17" t="inlineStr"/>
-      <c r="DC17" t="inlineStr"/>
-      <c r="DD17" t="inlineStr"/>
-      <c r="DE17" t="inlineStr"/>
-      <c r="DF17" t="inlineStr">
-        <is>
-          <t>chinese_black_cardamom</t>
-        </is>
-      </c>
-      <c r="DG17" t="inlineStr">
-        <is>
-          <t>https://partigabor.github.io/aromatica/items/chinese_black_cardamom</t>
-        </is>
-      </c>
-      <c r="DH17" t="inlineStr">
-        <is>
-          <t>249309</t>
-        </is>
-      </c>
-      <c r="DI17" t="inlineStr">
-        <is>
-          <t>797036-1</t>
-        </is>
-      </c>
-      <c r="DJ17" t="inlineStr">
-        <is>
-          <t>Species</t>
-        </is>
-      </c>
-      <c r="DK17" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="DL17" t="inlineStr">
-        <is>
-          <t>Zingiberaceae</t>
-        </is>
-      </c>
-      <c r="DM17" t="inlineStr"/>
-      <c r="DN17" t="inlineStr">
-        <is>
-          <t>Hornstedtia</t>
-        </is>
-      </c>
-      <c r="DO17" t="inlineStr"/>
-      <c r="DP17" t="inlineStr">
-        <is>
-          <t>costata</t>
-        </is>
-      </c>
-      <c r="DQ17" t="inlineStr"/>
-      <c r="DR17" t="inlineStr"/>
-      <c r="DS17" t="inlineStr">
-        <is>
-          <t>Roxb.</t>
-        </is>
-      </c>
-      <c r="DT17" t="inlineStr">
-        <is>
-          <t>K.Schum.</t>
-        </is>
-      </c>
-      <c r="DU17" t="inlineStr">
-        <is>
-          <t>H.G.A.Engler (ed.)</t>
-        </is>
-      </c>
-      <c r="DV17" t="inlineStr">
-        <is>
-          <t>Pflanzenr.</t>
-        </is>
-      </c>
-      <c r="DW17" t="inlineStr">
-        <is>
-          <t>, IV, 46: 198</t>
-        </is>
-      </c>
-      <c r="DX17" t="inlineStr">
-        <is>
-          <t>(1904)</t>
-        </is>
-      </c>
-      <c r="DY17" t="inlineStr"/>
-      <c r="DZ17" t="inlineStr">
-        <is>
-          <t>E. Himalaya to Bangladesh</t>
-        </is>
-      </c>
-      <c r="EA17" t="inlineStr">
-        <is>
-          <t>perennial or rhizomatous geophyte</t>
-        </is>
-      </c>
-      <c r="EB17" t="inlineStr">
-        <is>
-          <t>subtropical</t>
-        </is>
-      </c>
-      <c r="EC17" t="inlineStr">
-        <is>
-          <t>249309</t>
-        </is>
-      </c>
-      <c r="ED17" t="inlineStr">
-        <is>
-          <t>218735</t>
-        </is>
-      </c>
-      <c r="EE17" t="inlineStr"/>
-      <c r="EF17" t="inlineStr"/>
-      <c r="EG17" t="inlineStr">
-        <is>
-          <t>249298</t>
-        </is>
-      </c>
-      <c r="EH17" t="inlineStr">
-        <is>
-          <t>797036-1</t>
-        </is>
-      </c>
-      <c r="EI17" t="inlineStr"/>
-      <c r="EJ17" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="EK17" t="inlineStr">
-        <is>
-          <t>https://powo.science.kew.org/taxon/797036-1</t>
-        </is>
-      </c>
-      <c r="EL17" t="inlineStr">
-        <is>
-          <t>Assam, Bangladesh, East Himalaya</t>
-        </is>
-      </c>
-      <c r="EM17" t="inlineStr"/>
-      <c r="EN17" t="inlineStr">
-        <is>
-          <t>Indian Subcontinent</t>
-        </is>
-      </c>
-      <c r="EO17" t="inlineStr">
-        <is>
-          <t>Asia-Tropical</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>23</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>https://powo.science.kew.org/taxon/77178270-1</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Wurfbainia aromatica</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>(Roxb.) Škorničk. &amp; A.D.Poulsen</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Amomum aromaticum Roxb.</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>cardamoms</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Bengal cardamom</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>the smoked, brown fruits of Wurfbania aromatica, similar to tsaoko</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>vanwyk_2014_culinary</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="n">
-        <v>1</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1</v>
-      </c>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>spice</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>culinary</t>
-        </is>
-      </c>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>Plantae</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>fruit &amp; seed</t>
-        </is>
-      </c>
-      <c r="AD18" t="inlineStr"/>
-      <c r="AE18" t="inlineStr"/>
-      <c r="AF18" t="inlineStr">
-        <is>
-          <t>Bengal cardamom; Nepal cardamom; large cardamom</t>
-        </is>
-      </c>
-      <c r="AG18" t="inlineStr">
-        <is>
-          <t>Bengal cardamom; Nepal cardamom; large cardamom</t>
-        </is>
-      </c>
-      <c r="AH18" t="inlineStr">
-        <is>
-          <t>Bengal cardamom</t>
-        </is>
-      </c>
-      <c r="AI18" t="inlineStr"/>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
-      <c r="AL18" t="inlineStr"/>
-      <c r="AM18" t="inlineStr"/>
-      <c r="AN18" t="inlineStr"/>
-      <c r="AO18" t="inlineStr"/>
-      <c r="AP18" t="inlineStr"/>
-      <c r="AQ18" t="inlineStr"/>
-      <c r="AR18" t="inlineStr"/>
-      <c r="AS18" t="inlineStr">
-        <is>
-          <t>N Ind; Bangl; Nepal; eastern Himalayas</t>
-        </is>
-      </c>
-      <c r="AT18" t="inlineStr"/>
-      <c r="AU18" t="n">
-        <v>24</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>90</v>
-      </c>
-      <c r="AW18" t="inlineStr">
-        <is>
-          <t>Dhaka</t>
-        </is>
-      </c>
-      <c r="AX18" t="inlineStr">
-        <is>
-          <t>Asia</t>
-        </is>
-      </c>
-      <c r="AY18" t="inlineStr">
-        <is>
-          <t>Vietnam?</t>
-        </is>
-      </c>
-      <c r="AZ18" t="inlineStr">
-        <is>
-          <t>brown</t>
-        </is>
-      </c>
-      <c r="BA18" t="inlineStr"/>
-      <c r="BB18" t="inlineStr"/>
-      <c r="BC18" t="inlineStr"/>
-      <c r="BD18" t="inlineStr"/>
-      <c r="BE18" t="inlineStr"/>
-      <c r="BF18" t="inlineStr"/>
-      <c r="BG18" t="inlineStr"/>
-      <c r="BH18" t="inlineStr"/>
-      <c r="BI18" t="inlineStr"/>
-      <c r="BJ18" t="inlineStr"/>
-      <c r="BK18" t="inlineStr"/>
-      <c r="BL18" t="inlineStr"/>
-      <c r="BM18" t="inlineStr"/>
-      <c r="BN18" t="inlineStr"/>
-      <c r="BO18" t="inlineStr"/>
-      <c r="BP18" t="inlineStr"/>
-      <c r="BQ18" t="inlineStr"/>
-      <c r="BR18" t="inlineStr"/>
-      <c r="BS18" t="inlineStr"/>
-      <c r="BT18" t="inlineStr"/>
-      <c r="BU18" t="inlineStr"/>
-      <c r="BV18" t="inlineStr"/>
-      <c r="BW18" t="inlineStr"/>
-      <c r="BX18" t="inlineStr"/>
-      <c r="BY18" t="inlineStr"/>
-      <c r="BZ18" t="inlineStr"/>
-      <c r="CA18" t="inlineStr"/>
-      <c r="CB18" t="inlineStr"/>
-      <c r="CC18" t="inlineStr"/>
-      <c r="CD18" t="inlineStr"/>
-      <c r="CE18" t="inlineStr"/>
-      <c r="CF18" t="inlineStr"/>
-      <c r="CG18" t="inlineStr"/>
-      <c r="CH18" t="inlineStr"/>
-      <c r="CI18" t="inlineStr"/>
-      <c r="CJ18" t="inlineStr"/>
-      <c r="CK18" t="inlineStr"/>
-      <c r="CL18" t="inlineStr"/>
-      <c r="CM18" t="inlineStr"/>
-      <c r="CN18" t="inlineStr"/>
-      <c r="CO18" t="inlineStr"/>
-      <c r="CP18" t="inlineStr"/>
-      <c r="CQ18" t="inlineStr"/>
-      <c r="CR18" t="inlineStr"/>
-      <c r="CS18" t="inlineStr"/>
-      <c r="CT18" t="inlineStr"/>
-      <c r="CU18" t="inlineStr"/>
-      <c r="CV18" t="inlineStr"/>
-      <c r="CW18" t="inlineStr"/>
-      <c r="CX18" t="inlineStr"/>
-      <c r="CY18" t="inlineStr"/>
-      <c r="CZ18" t="inlineStr"/>
-      <c r="DA18" t="inlineStr"/>
-      <c r="DB18" t="inlineStr"/>
-      <c r="DC18" t="inlineStr"/>
-      <c r="DD18" t="inlineStr"/>
-      <c r="DE18" t="inlineStr"/>
-      <c r="DF18" t="inlineStr">
-        <is>
-          <t>bengal_cardamom</t>
-        </is>
-      </c>
-      <c r="DG18" t="inlineStr">
-        <is>
-          <t>https://partigabor.github.io/aromatica/items/bengal_cardamom</t>
-        </is>
-      </c>
-      <c r="DH18" t="inlineStr">
-        <is>
-          <t>532076</t>
-        </is>
-      </c>
-      <c r="DI18" t="inlineStr">
-        <is>
-          <t>77178270-1</t>
-        </is>
-      </c>
-      <c r="DJ18" t="inlineStr">
-        <is>
-          <t>Species</t>
-        </is>
-      </c>
-      <c r="DK18" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="DL18" t="inlineStr">
-        <is>
-          <t>Zingiberaceae</t>
-        </is>
-      </c>
-      <c r="DM18" t="inlineStr"/>
-      <c r="DN18" t="inlineStr">
-        <is>
-          <t>Wurfbainia</t>
-        </is>
-      </c>
-      <c r="DO18" t="inlineStr"/>
-      <c r="DP18" t="inlineStr">
-        <is>
-          <t>aromatica</t>
-        </is>
-      </c>
-      <c r="DQ18" t="inlineStr"/>
-      <c r="DR18" t="inlineStr"/>
-      <c r="DS18" t="inlineStr">
-        <is>
-          <t>Roxb.</t>
-        </is>
-      </c>
-      <c r="DT18" t="inlineStr">
-        <is>
-          <t>Škorničk. &amp; A.D.Poulsen</t>
-        </is>
-      </c>
-      <c r="DU18" t="inlineStr"/>
-      <c r="DV18" t="inlineStr">
-        <is>
-          <t>Taxon</t>
-        </is>
-      </c>
-      <c r="DW18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 67: 28</t>
-        </is>
-      </c>
-      <c r="DX18" t="inlineStr">
-        <is>
-          <t>(2018)</t>
-        </is>
-      </c>
-      <c r="DY18" t="inlineStr"/>
-      <c r="DZ18" t="inlineStr">
-        <is>
-          <t>Nepal to Bangladesh</t>
-        </is>
-      </c>
-      <c r="EA18" t="inlineStr">
-        <is>
-          <t>rhizomatous geophyte</t>
-        </is>
-      </c>
-      <c r="EB18" t="inlineStr">
-        <is>
-          <t>wet tropical</t>
-        </is>
-      </c>
-      <c r="EC18" t="inlineStr">
-        <is>
-          <t>532076</t>
-        </is>
-      </c>
-      <c r="ED18" t="inlineStr">
-        <is>
-          <t>219182</t>
-        </is>
-      </c>
-      <c r="EE18" t="inlineStr"/>
-      <c r="EF18" t="inlineStr"/>
-      <c r="EG18" t="inlineStr">
-        <is>
-          <t>272434</t>
-        </is>
-      </c>
-      <c r="EH18" t="inlineStr">
-        <is>
-          <t>77178270-1</t>
-        </is>
-      </c>
-      <c r="EI18" t="inlineStr"/>
-      <c r="EJ18" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="EK18" t="inlineStr">
-        <is>
-          <t>https://powo.science.kew.org/taxon/77178270-1</t>
-        </is>
-      </c>
-      <c r="EL18" t="inlineStr">
-        <is>
-          <t>Assam, Bangladesh, East Himalaya, Nepal</t>
-        </is>
-      </c>
-      <c r="EM18" t="inlineStr"/>
-      <c r="EN18" t="inlineStr">
-        <is>
-          <t>Indian Subcontinent</t>
-        </is>
-      </c>
-      <c r="EO18" t="inlineStr">
-        <is>
-          <t>Asia-Tropical</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>10</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>https://powo.science.kew.org/taxon/871850-1</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Aframomum exscapum</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>(Sims) Hepper</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>cardamoms; false peppers</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>alligator pepper</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>vanwyk_2014_culinary</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
-        <v>1</v>
-      </c>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>seed</t>
-        </is>
-      </c>
-      <c r="AD19" t="inlineStr"/>
-      <c r="AE19" t="inlineStr"/>
-      <c r="AF19" t="inlineStr">
-        <is>
-          <t>alligator pepper; *grains of paradise; mbongo spice; hepper pepper</t>
-        </is>
-      </c>
-      <c r="AG19" t="inlineStr">
-        <is>
-          <t>alligator pepper; grains of paradise</t>
-        </is>
-      </c>
-      <c r="AH19" t="inlineStr"/>
-      <c r="AI19" t="inlineStr"/>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
-      <c r="AL19" t="inlineStr"/>
-      <c r="AM19" t="inlineStr"/>
-      <c r="AN19" t="inlineStr"/>
-      <c r="AO19" t="inlineStr"/>
-      <c r="AP19" t="inlineStr"/>
-      <c r="AQ19" t="inlineStr"/>
-      <c r="AR19" t="inlineStr"/>
-      <c r="AS19" t="inlineStr">
-        <is>
-          <t>Trop W Afr</t>
-        </is>
-      </c>
-      <c r="AT19" t="inlineStr"/>
-      <c r="AU19" t="inlineStr"/>
-      <c r="AV19" t="inlineStr"/>
-      <c r="AW19" t="inlineStr"/>
-      <c r="AX19" t="inlineStr"/>
-      <c r="AY19" t="inlineStr"/>
-      <c r="AZ19" t="inlineStr"/>
-      <c r="BA19" t="inlineStr"/>
-      <c r="BB19" t="inlineStr"/>
-      <c r="BC19" t="inlineStr"/>
-      <c r="BD19" t="inlineStr"/>
-      <c r="BE19" t="inlineStr"/>
-      <c r="BF19" t="inlineStr"/>
-      <c r="BG19" t="inlineStr"/>
-      <c r="BH19" t="inlineStr"/>
-      <c r="BI19" t="inlineStr"/>
-      <c r="BJ19" t="inlineStr"/>
-      <c r="BK19" t="inlineStr"/>
-      <c r="BL19" t="inlineStr"/>
-      <c r="BM19" t="inlineStr"/>
-      <c r="BN19" t="inlineStr"/>
-      <c r="BO19" t="inlineStr"/>
-      <c r="BP19" t="inlineStr"/>
-      <c r="BQ19" t="inlineStr"/>
-      <c r="BR19" t="inlineStr"/>
-      <c r="BS19" t="inlineStr"/>
-      <c r="BT19" t="inlineStr"/>
-      <c r="BU19" t="inlineStr"/>
-      <c r="BV19" t="inlineStr"/>
-      <c r="BW19" t="inlineStr"/>
-      <c r="BX19" t="inlineStr"/>
-      <c r="BY19" t="inlineStr"/>
-      <c r="BZ19" t="inlineStr"/>
-      <c r="CA19" t="inlineStr"/>
-      <c r="CB19" t="inlineStr"/>
-      <c r="CC19" t="inlineStr"/>
-      <c r="CD19" t="inlineStr"/>
-      <c r="CE19" t="inlineStr"/>
-      <c r="CF19" t="inlineStr"/>
-      <c r="CG19" t="inlineStr"/>
-      <c r="CH19" t="inlineStr"/>
-      <c r="CI19" t="inlineStr"/>
-      <c r="CJ19" t="inlineStr"/>
-      <c r="CK19" t="inlineStr"/>
-      <c r="CL19" t="inlineStr"/>
-      <c r="CM19" t="inlineStr"/>
-      <c r="CN19" t="inlineStr"/>
-      <c r="CO19" t="inlineStr"/>
-      <c r="CP19" t="inlineStr"/>
-      <c r="CQ19" t="inlineStr"/>
-      <c r="CR19" t="inlineStr"/>
-      <c r="CS19" t="inlineStr"/>
-      <c r="CT19" t="inlineStr"/>
-      <c r="CU19" t="inlineStr"/>
-      <c r="CV19" t="inlineStr"/>
-      <c r="CW19" t="inlineStr"/>
-      <c r="CX19" t="inlineStr"/>
-      <c r="CY19" t="inlineStr"/>
-      <c r="CZ19" t="inlineStr"/>
-      <c r="DA19" t="inlineStr"/>
-      <c r="DB19" t="inlineStr"/>
-      <c r="DC19" t="inlineStr"/>
-      <c r="DD19" t="inlineStr"/>
-      <c r="DE19" t="inlineStr"/>
-      <c r="DF19" t="inlineStr">
-        <is>
-          <t>alligator_pepper</t>
-        </is>
-      </c>
-      <c r="DG19" t="inlineStr">
-        <is>
-          <t>https://partigabor.github.io/aromatica/items/alligator_pepper</t>
-        </is>
-      </c>
-      <c r="DH19" t="inlineStr">
-        <is>
-          <t>218372</t>
-        </is>
-      </c>
-      <c r="DI19" t="inlineStr">
-        <is>
-          <t>871850-1</t>
-        </is>
-      </c>
-      <c r="DJ19" t="inlineStr">
-        <is>
-          <t>Species</t>
-        </is>
-      </c>
-      <c r="DK19" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="DL19" t="inlineStr">
-        <is>
-          <t>Zingiberaceae</t>
-        </is>
-      </c>
-      <c r="DM19" t="inlineStr"/>
-      <c r="DN19" t="inlineStr">
-        <is>
-          <t>Aframomum</t>
-        </is>
-      </c>
-      <c r="DO19" t="inlineStr"/>
-      <c r="DP19" t="inlineStr">
-        <is>
-          <t>exscapum</t>
-        </is>
-      </c>
-      <c r="DQ19" t="inlineStr"/>
-      <c r="DR19" t="inlineStr"/>
-      <c r="DS19" t="inlineStr">
-        <is>
-          <t>Sims</t>
-        </is>
-      </c>
-      <c r="DT19" t="inlineStr">
-        <is>
-          <t>Hepper</t>
-        </is>
-      </c>
-      <c r="DU19" t="inlineStr"/>
-      <c r="DV19" t="inlineStr">
-        <is>
-          <t>Kew Bull.</t>
-        </is>
-      </c>
-      <c r="DW19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 21: 133</t>
-        </is>
-      </c>
-      <c r="DX19" t="inlineStr">
-        <is>
-          <t>(1967)</t>
-        </is>
-      </c>
-      <c r="DY19" t="inlineStr"/>
-      <c r="DZ19" t="inlineStr">
-        <is>
-          <t>Guinea to W. Ivory Coast</t>
-        </is>
-      </c>
-      <c r="EA19" t="inlineStr">
-        <is>
-          <t>perennial</t>
-        </is>
-      </c>
-      <c r="EB19" t="inlineStr">
-        <is>
-          <t>seasonally dry tropical</t>
-        </is>
-      </c>
-      <c r="EC19" t="inlineStr">
-        <is>
-          <t>218372</t>
-        </is>
-      </c>
-      <c r="ED19" t="inlineStr">
-        <is>
-          <t>219264</t>
-        </is>
-      </c>
-      <c r="EE19" t="inlineStr"/>
-      <c r="EF19" t="inlineStr"/>
-      <c r="EG19" t="inlineStr">
-        <is>
-          <t>218345</t>
-        </is>
-      </c>
-      <c r="EH19" t="inlineStr">
-        <is>
-          <t>871850-1</t>
-        </is>
-      </c>
-      <c r="EI19" t="inlineStr"/>
-      <c r="EJ19" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="EK19" t="inlineStr">
-        <is>
-          <t>https://powo.science.kew.org/taxon/871850-1</t>
-        </is>
-      </c>
-      <c r="EL19" t="inlineStr">
-        <is>
-          <t>Guinea, Ivory Coast, Liberia, Sierra Leone</t>
-        </is>
-      </c>
-      <c r="EM19" t="inlineStr">
-        <is>
-          <t>Windward Is.</t>
-        </is>
-      </c>
-      <c r="EN19" t="inlineStr">
-        <is>
-          <t>West Tropical Africa</t>
-        </is>
-      </c>
-      <c r="EO19" t="inlineStr">
-        <is>
-          <t>Africa</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>29</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>https://powo.science.kew.org/taxon/871877-1</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Aframomum melegueta</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>K.Schum.</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aframomum grana-paradisi (L.) K.Schum. </t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>cardamoms; false peppers</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>grains of paradise</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>vanwyk_2014_culinary</t>
-        </is>
-      </c>
-      <c r="P20" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="n">
-        <v>1</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1</v>
-      </c>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="n">
-        <v>1</v>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>spice</t>
-        </is>
-      </c>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>Plantae</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>seed</t>
-        </is>
-      </c>
-      <c r="AD20" t="inlineStr">
-        <is>
-          <t>https://en.wikipedia.org/wiki/Aframomum_melegueta</t>
-        </is>
-      </c>
-      <c r="AE20" t="inlineStr"/>
-      <c r="AF20" t="inlineStr">
-        <is>
-          <t>grains of paradise; melegueta pepper;  *alligator pepper; Guinea grains; Guinea pepper; ossame; fom wisa</t>
-        </is>
-      </c>
-      <c r="AG20" t="inlineStr">
-        <is>
-          <t>Melegueta pepper; grains of paradise; alligator pepper</t>
-        </is>
-      </c>
-      <c r="AH20" t="inlineStr">
-        <is>
-          <t>Grains of Paradise, Guinea grains, *Guinea pepper, *Melegueta pepper</t>
-        </is>
-      </c>
-      <c r="AI20" t="inlineStr"/>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
-      <c r="AL20" t="inlineStr"/>
-      <c r="AM20" t="inlineStr"/>
-      <c r="AN20" t="inlineStr"/>
-      <c r="AO20" t="inlineStr"/>
-      <c r="AP20" t="inlineStr"/>
-      <c r="AQ20" t="inlineStr"/>
-      <c r="AR20" t="inlineStr"/>
-      <c r="AS20" t="inlineStr">
-        <is>
-          <t>Trop W Afr</t>
-        </is>
-      </c>
-      <c r="AT20" t="inlineStr">
-        <is>
-          <t>west Africa</t>
-        </is>
-      </c>
-      <c r="AU20" t="inlineStr"/>
-      <c r="AV20" t="inlineStr"/>
-      <c r="AW20" t="inlineStr"/>
-      <c r="AX20" t="inlineStr"/>
-      <c r="AY20" t="inlineStr"/>
-      <c r="AZ20" t="inlineStr"/>
-      <c r="BA20" t="inlineStr">
-        <is>
-          <t>peppery</t>
-        </is>
-      </c>
-      <c r="BB20" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="BC20" t="inlineStr">
-        <is>
-          <t>as for pepper; liquors</t>
-        </is>
-      </c>
-      <c r="BD20" t="inlineStr"/>
-      <c r="BE20" t="inlineStr"/>
-      <c r="BF20" t="inlineStr"/>
-      <c r="BG20" t="inlineStr"/>
-      <c r="BH20" t="inlineStr"/>
-      <c r="BI20" t="inlineStr"/>
-      <c r="BJ20" t="inlineStr"/>
-      <c r="BK20" t="inlineStr"/>
-      <c r="BL20" t="inlineStr"/>
-      <c r="BM20" t="inlineStr"/>
-      <c r="BN20" t="inlineStr"/>
-      <c r="BO20" t="inlineStr"/>
-      <c r="BP20" t="inlineStr"/>
-      <c r="BQ20" t="inlineStr"/>
-      <c r="BR20" t="inlineStr">
-        <is>
-          <t>天堂椒</t>
-        </is>
-      </c>
-      <c r="BS20" t="inlineStr">
-        <is>
-          <t>tiān​táng​jiāo</t>
-        </is>
-      </c>
-      <c r="BT20" t="inlineStr">
-        <is>
-          <t>paradise-pepper</t>
-        </is>
-      </c>
-      <c r="BU20" t="inlineStr">
-        <is>
-          <t>天堂椒; 天堂的種子; 非洲豆蔻; 椒蔻; 畿內亞胡椒; 天堂椒; 樂園籽; 梅萊蓋塔胡椒</t>
-        </is>
-      </c>
-      <c r="BV20" t="inlineStr"/>
-      <c r="BW20" t="inlineStr"/>
-      <c r="BX20" t="inlineStr">
-        <is>
-          <t>malagétabors; édenmag; paradicsmag; guineai bors</t>
-        </is>
-      </c>
-      <c r="BY20" t="inlineStr"/>
-      <c r="BZ20" t="inlineStr"/>
-      <c r="CA20" t="inlineStr"/>
-      <c r="CB20" t="inlineStr"/>
-      <c r="CC20" t="inlineStr"/>
-      <c r="CD20" t="inlineStr"/>
-      <c r="CE20" t="inlineStr"/>
-      <c r="CF20" t="inlineStr"/>
-      <c r="CG20" t="inlineStr"/>
-      <c r="CH20" t="inlineStr"/>
-      <c r="CI20" t="inlineStr"/>
-      <c r="CJ20" t="inlineStr"/>
-      <c r="CK20" t="inlineStr"/>
-      <c r="CL20" t="inlineStr">
-        <is>
-          <t>Grana paradisi</t>
-        </is>
-      </c>
-      <c r="CM20" t="inlineStr"/>
-      <c r="CN20" t="inlineStr"/>
-      <c r="CO20" t="inlineStr"/>
-      <c r="CP20" t="inlineStr"/>
-      <c r="CQ20" t="inlineStr"/>
-      <c r="CR20" t="inlineStr"/>
-      <c r="CS20" t="inlineStr"/>
-      <c r="CT20" t="inlineStr"/>
-      <c r="CU20" t="inlineStr"/>
-      <c r="CV20" t="inlineStr">
-        <is>
-          <t>http://www.theplantlist.org/tpl1.1/record/kew-218399</t>
-        </is>
-      </c>
-      <c r="CW20" t="inlineStr"/>
-      <c r="CX20" t="inlineStr"/>
-      <c r="CY20" t="n">
-        <v>637930</v>
-      </c>
-      <c r="CZ20" t="inlineStr"/>
-      <c r="DA20" t="inlineStr"/>
-      <c r="DB20" t="inlineStr"/>
-      <c r="DC20" t="inlineStr"/>
-      <c r="DD20" t="inlineStr"/>
-      <c r="DE20" t="inlineStr"/>
-      <c r="DF20" t="inlineStr">
-        <is>
-          <t>grains_of_paradise</t>
-        </is>
-      </c>
-      <c r="DG20" t="inlineStr">
-        <is>
-          <t>https://partigabor.github.io/aromatica/items/grains_of_paradise</t>
-        </is>
-      </c>
-      <c r="DH20" t="inlineStr">
-        <is>
-          <t>218399</t>
-        </is>
-      </c>
-      <c r="DI20" t="inlineStr">
-        <is>
-          <t>871877-1</t>
-        </is>
-      </c>
-      <c r="DJ20" t="inlineStr">
-        <is>
-          <t>Species</t>
-        </is>
-      </c>
-      <c r="DK20" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="DL20" t="inlineStr">
-        <is>
-          <t>Zingiberaceae</t>
-        </is>
-      </c>
-      <c r="DM20" t="inlineStr"/>
-      <c r="DN20" t="inlineStr">
-        <is>
-          <t>Aframomum</t>
-        </is>
-      </c>
-      <c r="DO20" t="inlineStr"/>
-      <c r="DP20" t="inlineStr">
-        <is>
-          <t>melegueta</t>
-        </is>
-      </c>
-      <c r="DQ20" t="inlineStr"/>
-      <c r="DR20" t="inlineStr"/>
-      <c r="DS20" t="inlineStr"/>
-      <c r="DT20" t="inlineStr">
-        <is>
-          <t>K.Schum.</t>
-        </is>
-      </c>
-      <c r="DU20" t="inlineStr">
-        <is>
-          <t>H.G.A.Engler (ed.)</t>
-        </is>
-      </c>
-      <c r="DV20" t="inlineStr">
-        <is>
-          <t>Pflanzenr.</t>
-        </is>
-      </c>
-      <c r="DW20" t="inlineStr">
-        <is>
-          <t>, IV, 46: 204</t>
-        </is>
-      </c>
-      <c r="DX20" t="inlineStr">
-        <is>
-          <t>(1904)</t>
-        </is>
-      </c>
-      <c r="DY20" t="inlineStr"/>
-      <c r="DZ20" t="inlineStr">
-        <is>
-          <t>W. Trop. Africa to Angola</t>
-        </is>
-      </c>
-      <c r="EA20" t="inlineStr">
-        <is>
-          <t>rhizomatous geophyte</t>
-        </is>
-      </c>
-      <c r="EB20" t="inlineStr">
-        <is>
-          <t>seasonally dry tropical</t>
-        </is>
-      </c>
-      <c r="EC20" t="inlineStr">
-        <is>
-          <t>218399</t>
-        </is>
-      </c>
-      <c r="ED20" t="inlineStr">
-        <is>
-          <t>219382</t>
-        </is>
-      </c>
-      <c r="EE20" t="inlineStr">
-        <is>
-          <t>Roscoe</t>
-        </is>
-      </c>
-      <c r="EF20" t="inlineStr"/>
-      <c r="EG20" t="inlineStr">
-        <is>
-          <t>218345</t>
-        </is>
-      </c>
-      <c r="EH20" t="inlineStr">
-        <is>
-          <t>871877-1</t>
-        </is>
-      </c>
-      <c r="EI20" t="inlineStr"/>
-      <c r="EJ20" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="EK20" t="inlineStr">
-        <is>
-          <t>https://powo.science.kew.org/taxon/871877-1</t>
-        </is>
-      </c>
-      <c r="EL20" t="inlineStr">
-        <is>
-          <t>Benin, Gambia, Ghana, Guinea, Ivory Coast, Liberia, Nigeria, Sierra Leone, Togo, Cameroon, Congo, Equatorial Guinea, Gabon, Gulf of Guinea Is., Zaïre, Angola</t>
-        </is>
-      </c>
-      <c r="EM20" t="inlineStr">
-        <is>
-          <t>Trinidad-Tobago, Windward Is., French Guiana, Guyana</t>
-        </is>
-      </c>
-      <c r="EN20" t="inlineStr">
-        <is>
-          <t>West Tropical Africa, West-Central Tropical Africa, South Tropical Africa</t>
-        </is>
-      </c>
-      <c r="EO20" t="inlineStr">
-        <is>
-          <t>Africa</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>72</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Myristica fragrans</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Houtt.</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>nutmeg</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>the seed of a peach-like fruit of the nutmeg tree of the Moluccas, Indonesia</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>mace</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>vanwyk_2014_culinary</t>
-        </is>
-      </c>
-      <c r="P21" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1</v>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W21" t="n">
-        <v>1</v>
-      </c>
-      <c r="X21" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>spice</t>
-        </is>
-      </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>culinary; medicinal</t>
-        </is>
-      </c>
-      <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>Plantae</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>seed</t>
-        </is>
-      </c>
-      <c r="AD21" t="inlineStr">
-        <is>
-          <t>https://en.wikipedia.org/wiki/Nutmeg#Mace</t>
-        </is>
-      </c>
-      <c r="AE21" t="inlineStr">
-        <is>
-          <t>https://www.britannica.com/topic/nutmeg</t>
-        </is>
-      </c>
-      <c r="AF21" t="inlineStr">
-        <is>
-          <t>nutmeg</t>
-        </is>
-      </c>
-      <c r="AG21" t="inlineStr">
-        <is>
-          <t>nutmeg</t>
-        </is>
-      </c>
-      <c r="AH21" t="inlineStr"/>
-      <c r="AI21" t="inlineStr"/>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr"/>
-      <c r="AL21" t="inlineStr"/>
-      <c r="AM21" t="inlineStr"/>
-      <c r="AN21" t="inlineStr"/>
-      <c r="AO21" t="inlineStr"/>
-      <c r="AP21" t="inlineStr">
-        <is>
-          <t>nutmeg; jawz al-tib; roudoukou</t>
-        </is>
-      </c>
-      <c r="AQ21" t="inlineStr"/>
-      <c r="AR21" t="inlineStr">
-        <is>
-          <t>nutmeg tree</t>
-        </is>
-      </c>
-      <c r="AS21" t="inlineStr">
-        <is>
-          <t>Moluccas (Indonesia)</t>
-        </is>
-      </c>
-      <c r="AT21" t="inlineStr"/>
-      <c r="AU21" t="n">
-        <v>-4</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>129</v>
-      </c>
-      <c r="AW21" t="inlineStr">
-        <is>
-          <t>Run</t>
-        </is>
-      </c>
-      <c r="AX21" t="inlineStr">
-        <is>
-          <t>Asia</t>
-        </is>
-      </c>
-      <c r="AY21" t="inlineStr">
-        <is>
-          <t>Grenada; Indonesia</t>
-        </is>
-      </c>
-      <c r="AZ21" t="inlineStr">
-        <is>
-          <t>pale brown nut, dark when powdered</t>
-        </is>
-      </c>
-      <c r="BA21" t="inlineStr">
-        <is>
-          <t>sweet, warm, nutty</t>
-        </is>
-      </c>
-      <c r="BB21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BC21" t="inlineStr">
-        <is>
-          <t>desserts, eggnog; diahrrhea</t>
-        </is>
-      </c>
-      <c r="BD21" t="inlineStr">
-        <is>
-          <t>Köhler's Medizinal-Pflanzen</t>
-        </is>
-      </c>
-      <c r="BE21" t="inlineStr">
-        <is>
-          <t>II 132</t>
-        </is>
-      </c>
-      <c r="BF21" t="inlineStr">
-        <is>
-          <t>koehler_1887_koehler</t>
-        </is>
-      </c>
-      <c r="BG21" t="inlineStr">
-        <is>
-          <t>https://www.biodiversitylibrary.org/item/10837#page/609/mode/1up</t>
-        </is>
-      </c>
-      <c r="BH21" t="inlineStr"/>
-      <c r="BI21" t="inlineStr">
-        <is>
-          <t>nutmeg.n.01</t>
-        </is>
-      </c>
-      <c r="BJ21" t="inlineStr">
-        <is>
-          <t>nutmeg.n.02</t>
-        </is>
-      </c>
-      <c r="BK21" t="inlineStr"/>
-      <c r="BL21" t="inlineStr">
-        <is>
-          <t>nutmeg</t>
-        </is>
-      </c>
-      <c r="BM21" t="inlineStr"/>
-      <c r="BN21" t="inlineStr">
-        <is>
-          <t>جوز الطيب</t>
-        </is>
-      </c>
-      <c r="BO21" t="inlineStr">
-        <is>
-          <t>jawz al-ṭīb</t>
-        </is>
-      </c>
-      <c r="BP21" t="inlineStr">
-        <is>
-          <t>fragrant nut</t>
-        </is>
-      </c>
-      <c r="BQ21" t="inlineStr"/>
-      <c r="BR21" t="inlineStr">
-        <is>
-          <t>肉豆蔻</t>
-        </is>
-      </c>
-      <c r="BS21" t="inlineStr">
-        <is>
-          <t>ròudòukòu</t>
-        </is>
-      </c>
-      <c r="BT21" t="inlineStr">
-        <is>
-          <t>flesh-bean-cardamom</t>
-        </is>
-      </c>
-      <c r="BU21" t="inlineStr"/>
-      <c r="BV21" t="inlineStr"/>
-      <c r="BW21" t="inlineStr">
-        <is>
-          <t>szerecsendió</t>
-        </is>
-      </c>
-      <c r="BX21" t="inlineStr">
-        <is>
-          <t>Saracen nut</t>
-        </is>
-      </c>
-      <c r="BY21" t="inlineStr">
-        <is>
-          <t>muskátdió [musk-nut]; mácisdió [mace-nut]</t>
-        </is>
-      </c>
-      <c r="BZ21" t="inlineStr"/>
-      <c r="CA21" t="inlineStr"/>
-      <c r="CB21" t="inlineStr"/>
-      <c r="CC21" t="inlineStr"/>
-      <c r="CD21" t="inlineStr"/>
-      <c r="CE21" t="inlineStr"/>
-      <c r="CF21" t="inlineStr">
-        <is>
-          <t>Semen Myristicae; Myristicae Semen</t>
-        </is>
-      </c>
-      <c r="CG21" t="n">
-        <v>1</v>
-      </c>
-      <c r="CH21" t="inlineStr">
-        <is>
-          <t>polyu-tcm</t>
-        </is>
-      </c>
-      <c r="CI21" t="inlineStr">
-        <is>
-          <t>https://herbaltcm.sn.polyu.edu.hk/herbal/nutmeg</t>
-        </is>
-      </c>
-      <c r="CJ21" t="inlineStr">
-        <is>
-          <t>肉豆蔻</t>
-        </is>
-      </c>
-      <c r="CK21" t="inlineStr">
-        <is>
-          <t>ròudòukòu</t>
-        </is>
-      </c>
-      <c r="CL21" t="inlineStr">
-        <is>
-          <t>Nutmeg</t>
-        </is>
-      </c>
-      <c r="CM21" t="inlineStr">
-        <is>
-          <t>Dried kernel of Myristica fragrans Houtt. (Fam. Myrisyicaceae)</t>
-        </is>
-      </c>
-      <c r="CN21" t="inlineStr">
-        <is>
-          <t>Astringent medicinal</t>
-        </is>
-      </c>
-      <c r="CO21" t="inlineStr">
-        <is>
-          <t>pungent; warm</t>
-        </is>
-      </c>
-      <c r="CP21" t="inlineStr">
-        <is>
-          <t>Spleen, Stomach, Large intestine</t>
-        </is>
-      </c>
-      <c r="CQ21" t="inlineStr">
-        <is>
-          <t>To warm the middle and promote the flow of qi, and astringe the intestines and check diarrhea</t>
-        </is>
-      </c>
-      <c r="CR21" t="inlineStr"/>
-      <c r="CS21" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="CT21" t="inlineStr">
-        <is>
-          <t>973</t>
-        </is>
-      </c>
-      <c r="CU21" t="inlineStr"/>
-      <c r="CV21" t="inlineStr">
-        <is>
-          <t>https://www.gbif.org/species/5406817</t>
-        </is>
-      </c>
-      <c r="CW21" t="inlineStr">
-        <is>
-          <t>https://tropicos.org/name/21800077</t>
-        </is>
-      </c>
-      <c r="CX21" t="inlineStr">
-        <is>
-          <t>https://eol.org/pages/596922</t>
-        </is>
-      </c>
-      <c r="CY21" t="n">
-        <v>51089</v>
-      </c>
-      <c r="CZ21" t="inlineStr">
-        <is>
-          <t>जायफल</t>
-        </is>
-      </c>
-      <c r="DA21" t="inlineStr">
-        <is>
-          <t>jāyaphal</t>
-        </is>
-      </c>
-      <c r="DB21" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="DC21" t="inlineStr"/>
-      <c r="DD21" t="inlineStr">
-        <is>
-          <t>pala</t>
-        </is>
-      </c>
-      <c r="DE21" t="inlineStr">
-        <is>
-          <t>جوز هندی</t>
-        </is>
-      </c>
-      <c r="DF21" t="inlineStr">
-        <is>
-          <t>nutmeg</t>
-        </is>
-      </c>
-      <c r="DG21" t="inlineStr">
-        <is>
-          <t>https://partigabor.github.io/aromatica/items/nutmeg</t>
-        </is>
-      </c>
-      <c r="DH21" t="inlineStr">
-        <is>
-          <t>2500629</t>
-        </is>
-      </c>
-      <c r="DI21" t="inlineStr">
-        <is>
-          <t>586076-1</t>
-        </is>
-      </c>
-      <c r="DJ21" t="inlineStr">
-        <is>
-          <t>Species</t>
-        </is>
-      </c>
-      <c r="DK21" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="DL21" t="inlineStr">
-        <is>
-          <t>Myristicaceae</t>
-        </is>
-      </c>
-      <c r="DM21" t="inlineStr"/>
-      <c r="DN21" t="inlineStr">
-        <is>
-          <t>Myristica</t>
-        </is>
-      </c>
-      <c r="DO21" t="inlineStr"/>
-      <c r="DP21" t="inlineStr">
-        <is>
-          <t>fragrans</t>
-        </is>
-      </c>
-      <c r="DQ21" t="inlineStr"/>
-      <c r="DR21" t="inlineStr"/>
-      <c r="DS21" t="inlineStr"/>
-      <c r="DT21" t="inlineStr">
-        <is>
-          <t>Houtt.</t>
-        </is>
-      </c>
-      <c r="DU21" t="inlineStr"/>
-      <c r="DV21" t="inlineStr">
-        <is>
-          <t>Nat. Hist.</t>
-        </is>
-      </c>
-      <c r="DW21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2(3): 333</t>
-        </is>
-      </c>
-      <c r="DX21" t="inlineStr">
-        <is>
-          <t>(1774)</t>
-        </is>
-      </c>
-      <c r="DY21" t="inlineStr"/>
-      <c r="DZ21" t="inlineStr">
-        <is>
-          <t>Maluku (Banda Is.)</t>
-        </is>
-      </c>
-      <c r="EA21" t="inlineStr">
-        <is>
-          <t>tree</t>
-        </is>
-      </c>
-      <c r="EB21" t="inlineStr">
-        <is>
-          <t>wet tropical</t>
-        </is>
-      </c>
-      <c r="EC21" t="inlineStr">
-        <is>
-          <t>2500629</t>
-        </is>
-      </c>
-      <c r="ED21" t="inlineStr"/>
-      <c r="EE21" t="inlineStr"/>
-      <c r="EF21" t="inlineStr"/>
-      <c r="EG21" t="inlineStr">
-        <is>
-          <t>2500594</t>
-        </is>
-      </c>
-      <c r="EH21" t="inlineStr">
-        <is>
-          <t>586076-1</t>
-        </is>
-      </c>
-      <c r="EI21" t="inlineStr"/>
-      <c r="EJ21" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="EK21" t="inlineStr">
-        <is>
-          <t>https://powo.science.kew.org/taxon/586076-1</t>
-        </is>
-      </c>
-      <c r="EL21" t="inlineStr">
-        <is>
-          <t>Maluku</t>
-        </is>
-      </c>
-      <c r="EM21" t="inlineStr">
-        <is>
-          <t>Gulf of Guinea Is., Comoros, Mauritius, Réunion, China South-Central, China Southeast, Taiwan, Assam, Bangladesh, Laos, Thailand, Vietnam, Jawa, Philippines, Samoa</t>
-        </is>
-      </c>
-      <c r="EN21" t="inlineStr">
-        <is>
-          <t>Malesia</t>
-        </is>
-      </c>
-      <c r="EO21" t="inlineStr">
-        <is>
-          <t>Asia-Tropical</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>61</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Myristica fragrans</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Houtt.</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>mace</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>the aril (seed-covering) of the nutmeg</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>nutmeg</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>vanwyk_2014_culinary</t>
-        </is>
-      </c>
-      <c r="P22" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1</v>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t>spice</t>
-        </is>
-      </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>culinary</t>
-        </is>
-      </c>
-      <c r="AA22" t="inlineStr"/>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>Plantae</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>aril</t>
-        </is>
-      </c>
-      <c r="AD22" t="inlineStr">
-        <is>
-          <t>https://en.wikipedia.org/wiki/Nutmeg</t>
-        </is>
-      </c>
-      <c r="AE22" t="inlineStr">
-        <is>
-          <t>https://www.britannica.com/topic/mace-spice</t>
-        </is>
-      </c>
-      <c r="AF22" t="inlineStr">
-        <is>
-          <t>mace</t>
-        </is>
-      </c>
-      <c r="AG22" t="inlineStr">
-        <is>
-          <t>mace</t>
-        </is>
-      </c>
-      <c r="AH22" t="inlineStr">
-        <is>
-          <t>Mace</t>
-        </is>
-      </c>
-      <c r="AI22" t="inlineStr"/>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
-      <c r="AL22" t="inlineStr"/>
-      <c r="AM22" t="inlineStr"/>
-      <c r="AN22" t="inlineStr"/>
-      <c r="AO22" t="inlineStr"/>
-      <c r="AP22" t="inlineStr">
-        <is>
-          <t>mace; basbas; roudoukoupi</t>
-        </is>
-      </c>
-      <c r="AQ22" t="inlineStr"/>
-      <c r="AR22" t="inlineStr">
-        <is>
-          <t>nutmeg tree</t>
-        </is>
-      </c>
-      <c r="AS22" t="inlineStr">
-        <is>
-          <t>Moluccas (Indonesia)</t>
-        </is>
-      </c>
-      <c r="AT22" t="inlineStr"/>
-      <c r="AU22" t="n">
-        <v>-5</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>130</v>
-      </c>
-      <c r="AW22" t="inlineStr">
-        <is>
-          <t>Banda Islands</t>
-        </is>
-      </c>
-      <c r="AX22" t="inlineStr">
-        <is>
-          <t>Asia</t>
-        </is>
-      </c>
-      <c r="AY22" t="inlineStr">
-        <is>
-          <t>Grenada; Indonesia</t>
-        </is>
-      </c>
-      <c r="AZ22" t="inlineStr">
-        <is>
-          <t>crimson red aril whn fresh, pale yellow when dried</t>
-        </is>
-      </c>
-      <c r="BA22" t="inlineStr">
-        <is>
-          <t>sweet, bitter, salty</t>
-        </is>
-      </c>
-      <c r="BB22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BC22" t="inlineStr">
-        <is>
-          <t>confectionary; peptic ulcers</t>
-        </is>
-      </c>
-      <c r="BD22" t="inlineStr">
-        <is>
-          <t>Köhler's Medizinal-Pflanzen</t>
-        </is>
-      </c>
-      <c r="BE22" t="inlineStr">
-        <is>
-          <t>II 132</t>
-        </is>
-      </c>
-      <c r="BF22" t="inlineStr">
-        <is>
-          <t>koehler_1887_koehler</t>
-        </is>
-      </c>
-      <c r="BG22" t="inlineStr">
-        <is>
-          <t>https://www.biodiversitylibrary.org/item/10837#page/609/mode/1up</t>
-        </is>
-      </c>
-      <c r="BH22" t="inlineStr"/>
-      <c r="BI22" t="inlineStr">
-        <is>
-          <t>nutmeg.n.01</t>
-        </is>
-      </c>
-      <c r="BJ22" t="inlineStr">
-        <is>
-          <t>mace.n.03</t>
-        </is>
-      </c>
-      <c r="BK22" t="inlineStr"/>
-      <c r="BL22" t="inlineStr">
-        <is>
-          <t>mace</t>
-        </is>
-      </c>
-      <c r="BM22" t="inlineStr"/>
-      <c r="BN22" t="inlineStr">
-        <is>
-          <t>بسباسة</t>
-        </is>
-      </c>
-      <c r="BO22" t="inlineStr">
-        <is>
-          <t>basbāsa</t>
-        </is>
-      </c>
-      <c r="BP22" t="inlineStr"/>
-      <c r="BQ22" t="inlineStr">
-        <is>
-          <t>*qishrat jawz al-ṭīb* [the peel of the fragrant nut] قشرة جوز الطيب</t>
-        </is>
-      </c>
-      <c r="BR22" t="inlineStr">
-        <is>
-          <t>肉豆蔻皮</t>
-        </is>
-      </c>
-      <c r="BS22" t="inlineStr">
-        <is>
-          <t>ròudòukòupí</t>
-        </is>
-      </c>
-      <c r="BT22" t="inlineStr">
-        <is>
-          <t>flesh-bean-cardamom-skin</t>
-        </is>
-      </c>
-      <c r="BU22" t="inlineStr"/>
-      <c r="BV22" t="inlineStr"/>
-      <c r="BW22" t="inlineStr">
-        <is>
-          <t>szerecsendió-virág</t>
-        </is>
-      </c>
-      <c r="BX22" t="inlineStr">
-        <is>
-          <t>Saracen nut flower</t>
-        </is>
-      </c>
-      <c r="BY22" t="inlineStr"/>
-      <c r="BZ22" t="inlineStr"/>
-      <c r="CA22" t="inlineStr"/>
-      <c r="CB22" t="inlineStr"/>
-      <c r="CC22" t="inlineStr"/>
-      <c r="CD22" t="inlineStr"/>
-      <c r="CE22" t="inlineStr"/>
-      <c r="CF22" t="inlineStr">
-        <is>
-          <t>Arillus Myristicae</t>
-        </is>
-      </c>
-      <c r="CG22" t="inlineStr"/>
-      <c r="CH22" t="inlineStr"/>
-      <c r="CI22" t="inlineStr"/>
-      <c r="CJ22" t="inlineStr"/>
-      <c r="CK22" t="inlineStr"/>
-      <c r="CL22" t="inlineStr">
-        <is>
-          <t>Nutmeg</t>
-        </is>
-      </c>
-      <c r="CM22" t="inlineStr"/>
-      <c r="CN22" t="inlineStr"/>
-      <c r="CO22" t="inlineStr"/>
-      <c r="CP22" t="inlineStr"/>
-      <c r="CQ22" t="inlineStr"/>
-      <c r="CR22" t="inlineStr"/>
-      <c r="CS22" t="inlineStr"/>
-      <c r="CT22" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="CU22" t="inlineStr"/>
-      <c r="CV22" t="inlineStr">
-        <is>
-          <t>https://www.gbif.org/species/5406817</t>
-        </is>
-      </c>
-      <c r="CW22" t="inlineStr">
-        <is>
-          <t>https://tropicos.org/name/21800077</t>
-        </is>
-      </c>
-      <c r="CX22" t="inlineStr">
-        <is>
-          <t>https://eol.org/pages/596922</t>
-        </is>
-      </c>
-      <c r="CY22" t="n">
-        <v>51089</v>
-      </c>
-      <c r="CZ22" t="inlineStr">
-        <is>
-          <t>जावित्री</t>
-        </is>
-      </c>
-      <c r="DA22" t="inlineStr">
-        <is>
-          <t>jāvitrī</t>
-        </is>
-      </c>
-      <c r="DB22" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="DC22" t="inlineStr"/>
-      <c r="DD22" t="inlineStr">
-        <is>
-          <t>bunga pala</t>
-        </is>
-      </c>
-      <c r="DE22" t="inlineStr">
-        <is>
-          <t>بسپاسه</t>
-        </is>
-      </c>
-      <c r="DF22" t="inlineStr">
-        <is>
-          <t>mace</t>
-        </is>
-      </c>
-      <c r="DG22" t="inlineStr">
-        <is>
-          <t>https://partigabor.github.io/aromatica/items/mace</t>
-        </is>
-      </c>
-      <c r="DH22" t="inlineStr">
-        <is>
-          <t>2500629</t>
-        </is>
-      </c>
-      <c r="DI22" t="inlineStr">
-        <is>
-          <t>586076-1</t>
-        </is>
-      </c>
-      <c r="DJ22" t="inlineStr">
-        <is>
-          <t>Species</t>
-        </is>
-      </c>
-      <c r="DK22" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="DL22" t="inlineStr">
-        <is>
-          <t>Myristicaceae</t>
-        </is>
-      </c>
-      <c r="DM22" t="inlineStr"/>
-      <c r="DN22" t="inlineStr">
-        <is>
-          <t>Myristica</t>
-        </is>
-      </c>
-      <c r="DO22" t="inlineStr"/>
-      <c r="DP22" t="inlineStr">
-        <is>
-          <t>fragrans</t>
-        </is>
-      </c>
-      <c r="DQ22" t="inlineStr"/>
-      <c r="DR22" t="inlineStr"/>
-      <c r="DS22" t="inlineStr"/>
-      <c r="DT22" t="inlineStr">
-        <is>
-          <t>Houtt.</t>
-        </is>
-      </c>
-      <c r="DU22" t="inlineStr"/>
-      <c r="DV22" t="inlineStr">
-        <is>
-          <t>Nat. Hist.</t>
-        </is>
-      </c>
-      <c r="DW22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2(3): 333</t>
-        </is>
-      </c>
-      <c r="DX22" t="inlineStr">
-        <is>
-          <t>(1774)</t>
-        </is>
-      </c>
-      <c r="DY22" t="inlineStr"/>
-      <c r="DZ22" t="inlineStr">
-        <is>
-          <t>Maluku (Banda Is.)</t>
-        </is>
-      </c>
-      <c r="EA22" t="inlineStr">
-        <is>
-          <t>tree</t>
-        </is>
-      </c>
-      <c r="EB22" t="inlineStr">
-        <is>
-          <t>wet tropical</t>
-        </is>
-      </c>
-      <c r="EC22" t="inlineStr">
-        <is>
-          <t>2500629</t>
-        </is>
-      </c>
-      <c r="ED22" t="inlineStr"/>
-      <c r="EE22" t="inlineStr"/>
-      <c r="EF22" t="inlineStr"/>
-      <c r="EG22" t="inlineStr">
-        <is>
-          <t>2500594</t>
-        </is>
-      </c>
-      <c r="EH22" t="inlineStr">
-        <is>
-          <t>586076-1</t>
-        </is>
-      </c>
-      <c r="EI22" t="inlineStr"/>
-      <c r="EJ22" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="EK22" t="inlineStr">
-        <is>
-          <t>https://powo.science.kew.org/taxon/586076-1</t>
-        </is>
-      </c>
-      <c r="EL22" t="inlineStr">
-        <is>
-          <t>Maluku</t>
-        </is>
-      </c>
-      <c r="EM22" t="inlineStr">
-        <is>
-          <t>Gulf of Guinea Is., Comoros, Mauritius, Réunion, China South-Central, China Southeast, Taiwan, Assam, Bangladesh, Laos, Thailand, Vietnam, Jawa, Philippines, Samoa</t>
-        </is>
-      </c>
-      <c r="EN22" t="inlineStr">
-        <is>
-          <t>Malesia</t>
-        </is>
-      </c>
-      <c r="EO22" t="inlineStr">
         <is>
           <t>Asia-Tropical</t>
         </is>

--- a/database/checking.xlsx
+++ b/database/checking.xlsx
@@ -4202,7 +4202,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -4336,8 +4336,12 @@
           <t>southeast Asia</t>
         </is>
       </c>
-      <c r="AU9" t="inlineStr"/>
-      <c r="AV9" t="inlineStr"/>
+      <c r="AU9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>100</v>
+      </c>
       <c r="AW9" t="inlineStr"/>
       <c r="AX9" t="inlineStr"/>
       <c r="AY9" t="inlineStr"/>
@@ -5281,7 +5285,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -5395,9 +5399,17 @@
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
-      <c r="AU12" t="inlineStr"/>
-      <c r="AV12" t="inlineStr"/>
-      <c r="AW12" t="inlineStr"/>
+      <c r="AU12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>103</v>
+      </c>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
       <c r="AX12" t="inlineStr"/>
       <c r="AY12" t="inlineStr"/>
       <c r="AZ12" t="inlineStr"/>
@@ -5969,7 +5981,11 @@
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://powo.science.kew.org/taxon/586076-1</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>Myristica fragrans</t>
@@ -6498,7 +6514,11 @@
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://powo.science.kew.org/taxon/586076-1</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>Myristica fragrans</t>

--- a/database/checking.xlsx
+++ b/database/checking.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EO2"/>
+  <dimension ref="A1:EO3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1681,6 +1681,487 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>62</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Piper cubeba</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>L.f.</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cubeba officinalis Miq.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>false peppers</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>cubeb</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>the dried berries of a Southeast Asian plant resembling black pepper, but with a small stalk attached</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>pepper</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Ashanti pepper</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>vanwyk_2014_culinary</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>spice</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>culinary; distillery; medicinal; perfumery</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Plantae</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>unripe fruit</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Piper_cubeba</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>cubeb pepper; tailed pepper; Java pepper</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>cubeb pepper; tailed pepper; Java pepper</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>Cubebs</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>cubeb</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>cubeb</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>https://en.wiktionary.org/wiki/cubeb</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t>cubeb; tailed pepper</t>
+        </is>
+      </c>
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>Southeast Asia</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>Sumatra</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="AZ3" t="inlineStr">
+        <is>
+          <t>dark brown to black</t>
+        </is>
+      </c>
+      <c r="BA3" t="inlineStr">
+        <is>
+          <t>pungent, camphor-like, peppery</t>
+        </is>
+      </c>
+      <c r="BB3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="BC3" t="inlineStr">
+        <is>
+          <t>gins; cooking; anti-asthma, diuretic</t>
+        </is>
+      </c>
+      <c r="BD3" t="inlineStr">
+        <is>
+          <t>Köhler's Medizinal-Pflanzen (1887)</t>
+        </is>
+      </c>
+      <c r="BE3" t="inlineStr">
+        <is>
+          <t>II 103</t>
+        </is>
+      </c>
+      <c r="BF3" t="inlineStr">
+        <is>
+          <t>koehler_1887_koehler</t>
+        </is>
+      </c>
+      <c r="BG3" t="inlineStr">
+        <is>
+          <t>https://www.biodiversitylibrary.org/item/10837#page/549/mode/1up</t>
+        </is>
+      </c>
+      <c r="BH3" t="inlineStr"/>
+      <c r="BI3" t="inlineStr">
+        <is>
+          <t>cubeb.n.02</t>
+        </is>
+      </c>
+      <c r="BJ3" t="inlineStr">
+        <is>
+          <t>cubeb.n.01</t>
+        </is>
+      </c>
+      <c r="BK3" t="inlineStr"/>
+      <c r="BL3" t="inlineStr">
+        <is>
+          <t>cubeb</t>
+        </is>
+      </c>
+      <c r="BM3" t="inlineStr"/>
+      <c r="BN3" t="inlineStr">
+        <is>
+          <t>كبابة</t>
+        </is>
+      </c>
+      <c r="BO3" t="inlineStr">
+        <is>
+          <t>kabāba, kubāba</t>
+        </is>
+      </c>
+      <c r="BP3" t="inlineStr"/>
+      <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>蓽澄茄</t>
+        </is>
+      </c>
+      <c r="BS3" t="inlineStr">
+        <is>
+          <t>bìchéngqié</t>
+        </is>
+      </c>
+      <c r="BT3" t="inlineStr"/>
+      <c r="BU3" t="inlineStr">
+        <is>
+          <t>尾胡椒</t>
+        </is>
+      </c>
+      <c r="BV3" t="inlineStr">
+        <is>
+          <t>https://en.wiktionary.org/wiki/%E8%93%BD%E6%BE%84%E8%8C%84</t>
+        </is>
+      </c>
+      <c r="BW3" t="inlineStr">
+        <is>
+          <t>kubébabors</t>
+        </is>
+      </c>
+      <c r="BX3" t="inlineStr">
+        <is>
+          <t>cubeba-pepper</t>
+        </is>
+      </c>
+      <c r="BY3" t="inlineStr">
+        <is>
+          <t>jávai bors [Javanese pepper]</t>
+        </is>
+      </c>
+      <c r="BZ3" t="inlineStr"/>
+      <c r="CA3" t="inlineStr"/>
+      <c r="CB3" t="inlineStr"/>
+      <c r="CC3" t="inlineStr"/>
+      <c r="CD3" t="inlineStr"/>
+      <c r="CE3" t="inlineStr"/>
+      <c r="CF3" t="inlineStr"/>
+      <c r="CG3" t="inlineStr"/>
+      <c r="CH3" t="inlineStr"/>
+      <c r="CI3" t="inlineStr"/>
+      <c r="CJ3" t="inlineStr"/>
+      <c r="CK3" t="inlineStr"/>
+      <c r="CL3" t="inlineStr"/>
+      <c r="CM3" t="inlineStr"/>
+      <c r="CN3" t="inlineStr"/>
+      <c r="CO3" t="inlineStr"/>
+      <c r="CP3" t="inlineStr"/>
+      <c r="CQ3" t="inlineStr"/>
+      <c r="CR3" t="inlineStr"/>
+      <c r="CS3" t="inlineStr"/>
+      <c r="CT3" t="inlineStr"/>
+      <c r="CU3" t="inlineStr"/>
+      <c r="CV3" t="inlineStr">
+        <is>
+          <t>https://www.gbif.org/species/7606629</t>
+        </is>
+      </c>
+      <c r="CW3" t="inlineStr">
+        <is>
+          <t>http://legacy.tropicos.org/Name/25002639</t>
+        </is>
+      </c>
+      <c r="CX3" t="inlineStr">
+        <is>
+          <t>https://eol.org/pages/51845162</t>
+        </is>
+      </c>
+      <c r="CY3" t="inlineStr"/>
+      <c r="CZ3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">कबाबचीनी </t>
+        </is>
+      </c>
+      <c r="DA3" t="inlineStr">
+        <is>
+          <t>kabābchīnī</t>
+        </is>
+      </c>
+      <c r="DB3" t="inlineStr">
+        <is>
+          <t>Chinese-cubeb</t>
+        </is>
+      </c>
+      <c r="DC3" t="inlineStr"/>
+      <c r="DD3" t="inlineStr">
+        <is>
+          <t>kemukus</t>
+        </is>
+      </c>
+      <c r="DE3" t="inlineStr">
+        <is>
+          <t>کبابهٔ چینی‎</t>
+        </is>
+      </c>
+      <c r="DF3" t="inlineStr">
+        <is>
+          <t>cubeb</t>
+        </is>
+      </c>
+      <c r="DG3" t="inlineStr">
+        <is>
+          <t>https://partigabor.github.io/aromatica/items/cubeb</t>
+        </is>
+      </c>
+      <c r="DH3" t="inlineStr">
+        <is>
+          <t>2557647</t>
+        </is>
+      </c>
+      <c r="DI3" t="inlineStr">
+        <is>
+          <t>681071-1</t>
+        </is>
+      </c>
+      <c r="DJ3" t="inlineStr">
+        <is>
+          <t>Species</t>
+        </is>
+      </c>
+      <c r="DK3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="DL3" t="inlineStr">
+        <is>
+          <t>Piperaceae</t>
+        </is>
+      </c>
+      <c r="DM3" t="inlineStr"/>
+      <c r="DN3" t="inlineStr">
+        <is>
+          <t>Piper</t>
+        </is>
+      </c>
+      <c r="DO3" t="inlineStr"/>
+      <c r="DP3" t="inlineStr">
+        <is>
+          <t>cubeba</t>
+        </is>
+      </c>
+      <c r="DQ3" t="inlineStr"/>
+      <c r="DR3" t="inlineStr"/>
+      <c r="DS3" t="inlineStr"/>
+      <c r="DT3" t="inlineStr">
+        <is>
+          <t>L.f.</t>
+        </is>
+      </c>
+      <c r="DU3" t="inlineStr"/>
+      <c r="DV3" t="inlineStr">
+        <is>
+          <t>Suppl. Pl.</t>
+        </is>
+      </c>
+      <c r="DW3" t="inlineStr">
+        <is>
+          <t>: 90</t>
+        </is>
+      </c>
+      <c r="DX3" t="inlineStr">
+        <is>
+          <t>(1782)</t>
+        </is>
+      </c>
+      <c r="DY3" t="inlineStr"/>
+      <c r="DZ3" t="inlineStr">
+        <is>
+          <t>Indo-China to Malesia</t>
+        </is>
+      </c>
+      <c r="EA3" t="inlineStr"/>
+      <c r="EB3" t="inlineStr">
+        <is>
+          <t>wet tropical</t>
+        </is>
+      </c>
+      <c r="EC3" t="inlineStr">
+        <is>
+          <t>2557647</t>
+        </is>
+      </c>
+      <c r="ED3" t="inlineStr"/>
+      <c r="EE3" t="inlineStr"/>
+      <c r="EF3" t="inlineStr"/>
+      <c r="EG3" t="inlineStr">
+        <is>
+          <t>2555110</t>
+        </is>
+      </c>
+      <c r="EH3" t="inlineStr">
+        <is>
+          <t>681071-1</t>
+        </is>
+      </c>
+      <c r="EI3" t="inlineStr"/>
+      <c r="EJ3" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="EK3" t="inlineStr">
+        <is>
+          <t>https://powo.science.kew.org/taxon/681071-1</t>
+        </is>
+      </c>
+      <c r="EL3" t="inlineStr">
+        <is>
+          <t>Cambodia, Myanmar, Vietnam, Borneo, Lesser Sunda Is., Malaya, Maluku, Sulawesi, Sumatera</t>
+        </is>
+      </c>
+      <c r="EM3" t="inlineStr"/>
+      <c r="EN3" t="inlineStr">
+        <is>
+          <t>Indo-China, Malesia</t>
+        </is>
+      </c>
+      <c r="EO3" t="inlineStr">
+        <is>
+          <t>Asia-Tropical</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/checking.xlsx
+++ b/database/checking.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EO3"/>
+  <dimension ref="A1:EO2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>do</t>
+          <t>done</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -471,12 +471,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>species_syn</t>
+          <t>taxon_syn</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>species_alt</t>
+          <t>taxon_alt</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="CT1" s="1" t="inlineStr">
         <is>
-          <t>year recorded in TCM</t>
+          <t>year_in_tcm</t>
         </is>
       </c>
       <c r="CU1" s="1" t="inlineStr">
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1175,7 +1175,11 @@
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://powo.science.kew.org/taxon/196799-2</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>Pimenta dioica</t>
@@ -1192,7 +1196,11 @@
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>false peppers</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr">
         <is>
           <t>allspice</t>
@@ -1313,7 +1321,11 @@
           <t>allspice; pimento; fulful ifranji; duoxiangguo</t>
         </is>
       </c>
-      <c r="AQ2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>https://en.wiktionary.org/wiki/allspice</t>
+        </is>
+      </c>
       <c r="AR2" t="inlineStr">
         <is>
           <t>allspice tree</t>
@@ -1466,7 +1478,7 @@
       <c r="CC2" t="inlineStr"/>
       <c r="CD2" t="inlineStr">
         <is>
-          <t>West Indies; Greater Antilles;  fruit of Pimenta dioica</t>
+          <t>West Indies; Greater Antilles</t>
         </is>
       </c>
       <c r="CE2" t="inlineStr">
@@ -1516,12 +1528,12 @@
       </c>
       <c r="CZ2" t="inlineStr">
         <is>
-          <t>गंधद्रव्य?</t>
+          <t>गंधद्रव्य</t>
         </is>
       </c>
       <c r="DA2" t="inlineStr">
         <is>
-          <t>gandhadravya?</t>
+          <t>gandhadravya</t>
         </is>
       </c>
       <c r="DB2" t="inlineStr"/>
@@ -1678,487 +1690,6 @@
       <c r="EO2" t="inlineStr">
         <is>
           <t>Northern America, Southern America</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>62</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Piper cubeba</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>L.f.</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Cubeba officinalis Miq.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>false peppers</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>cubeb</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>the dried berries of a Southeast Asian plant resembling black pepper, but with a small stalk attached</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>pepper</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Ashanti pepper</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>vanwyk_2014_culinary</t>
-        </is>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>spice</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>culinary; distillery; medicinal; perfumery</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>Plantae</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>unripe fruit</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>https://en.wikipedia.org/wiki/Piper_cubeba</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>cubeb pepper; tailed pepper; Java pepper</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>cubeb pepper; tailed pepper; Java pepper</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>Cubebs</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="inlineStr"/>
-      <c r="AN3" t="inlineStr"/>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>cubeb</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>cubeb</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>https://en.wiktionary.org/wiki/cubeb</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>cubeb; tailed pepper</t>
-        </is>
-      </c>
-      <c r="AS3" t="inlineStr">
-        <is>
-          <t>Southeast Asia</t>
-        </is>
-      </c>
-      <c r="AT3" t="inlineStr"/>
-      <c r="AU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW3" t="inlineStr">
-        <is>
-          <t>Sumatra</t>
-        </is>
-      </c>
-      <c r="AX3" t="inlineStr">
-        <is>
-          <t>Asia</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr">
-        <is>
-          <t>Indonesia</t>
-        </is>
-      </c>
-      <c r="AZ3" t="inlineStr">
-        <is>
-          <t>dark brown to black</t>
-        </is>
-      </c>
-      <c r="BA3" t="inlineStr">
-        <is>
-          <t>pungent, camphor-like, peppery</t>
-        </is>
-      </c>
-      <c r="BB3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="BC3" t="inlineStr">
-        <is>
-          <t>gins; cooking; anti-asthma, diuretic</t>
-        </is>
-      </c>
-      <c r="BD3" t="inlineStr">
-        <is>
-          <t>Köhler's Medizinal-Pflanzen (1887)</t>
-        </is>
-      </c>
-      <c r="BE3" t="inlineStr">
-        <is>
-          <t>II 103</t>
-        </is>
-      </c>
-      <c r="BF3" t="inlineStr">
-        <is>
-          <t>koehler_1887_koehler</t>
-        </is>
-      </c>
-      <c r="BG3" t="inlineStr">
-        <is>
-          <t>https://www.biodiversitylibrary.org/item/10837#page/549/mode/1up</t>
-        </is>
-      </c>
-      <c r="BH3" t="inlineStr"/>
-      <c r="BI3" t="inlineStr">
-        <is>
-          <t>cubeb.n.02</t>
-        </is>
-      </c>
-      <c r="BJ3" t="inlineStr">
-        <is>
-          <t>cubeb.n.01</t>
-        </is>
-      </c>
-      <c r="BK3" t="inlineStr"/>
-      <c r="BL3" t="inlineStr">
-        <is>
-          <t>cubeb</t>
-        </is>
-      </c>
-      <c r="BM3" t="inlineStr"/>
-      <c r="BN3" t="inlineStr">
-        <is>
-          <t>كبابة</t>
-        </is>
-      </c>
-      <c r="BO3" t="inlineStr">
-        <is>
-          <t>kabāba, kubāba</t>
-        </is>
-      </c>
-      <c r="BP3" t="inlineStr"/>
-      <c r="BQ3" t="inlineStr"/>
-      <c r="BR3" t="inlineStr">
-        <is>
-          <t>蓽澄茄</t>
-        </is>
-      </c>
-      <c r="BS3" t="inlineStr">
-        <is>
-          <t>bìchéngqié</t>
-        </is>
-      </c>
-      <c r="BT3" t="inlineStr"/>
-      <c r="BU3" t="inlineStr">
-        <is>
-          <t>尾胡椒</t>
-        </is>
-      </c>
-      <c r="BV3" t="inlineStr">
-        <is>
-          <t>https://en.wiktionary.org/wiki/%E8%93%BD%E6%BE%84%E8%8C%84</t>
-        </is>
-      </c>
-      <c r="BW3" t="inlineStr">
-        <is>
-          <t>kubébabors</t>
-        </is>
-      </c>
-      <c r="BX3" t="inlineStr">
-        <is>
-          <t>cubeba-pepper</t>
-        </is>
-      </c>
-      <c r="BY3" t="inlineStr">
-        <is>
-          <t>jávai bors [Javanese pepper]</t>
-        </is>
-      </c>
-      <c r="BZ3" t="inlineStr"/>
-      <c r="CA3" t="inlineStr"/>
-      <c r="CB3" t="inlineStr"/>
-      <c r="CC3" t="inlineStr"/>
-      <c r="CD3" t="inlineStr"/>
-      <c r="CE3" t="inlineStr"/>
-      <c r="CF3" t="inlineStr"/>
-      <c r="CG3" t="inlineStr"/>
-      <c r="CH3" t="inlineStr"/>
-      <c r="CI3" t="inlineStr"/>
-      <c r="CJ3" t="inlineStr"/>
-      <c r="CK3" t="inlineStr"/>
-      <c r="CL3" t="inlineStr"/>
-      <c r="CM3" t="inlineStr"/>
-      <c r="CN3" t="inlineStr"/>
-      <c r="CO3" t="inlineStr"/>
-      <c r="CP3" t="inlineStr"/>
-      <c r="CQ3" t="inlineStr"/>
-      <c r="CR3" t="inlineStr"/>
-      <c r="CS3" t="inlineStr"/>
-      <c r="CT3" t="inlineStr"/>
-      <c r="CU3" t="inlineStr"/>
-      <c r="CV3" t="inlineStr">
-        <is>
-          <t>https://www.gbif.org/species/7606629</t>
-        </is>
-      </c>
-      <c r="CW3" t="inlineStr">
-        <is>
-          <t>http://legacy.tropicos.org/Name/25002639</t>
-        </is>
-      </c>
-      <c r="CX3" t="inlineStr">
-        <is>
-          <t>https://eol.org/pages/51845162</t>
-        </is>
-      </c>
-      <c r="CY3" t="inlineStr"/>
-      <c r="CZ3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">कबाबचीनी </t>
-        </is>
-      </c>
-      <c r="DA3" t="inlineStr">
-        <is>
-          <t>kabābchīnī</t>
-        </is>
-      </c>
-      <c r="DB3" t="inlineStr">
-        <is>
-          <t>Chinese-cubeb</t>
-        </is>
-      </c>
-      <c r="DC3" t="inlineStr"/>
-      <c r="DD3" t="inlineStr">
-        <is>
-          <t>kemukus</t>
-        </is>
-      </c>
-      <c r="DE3" t="inlineStr">
-        <is>
-          <t>کبابهٔ چینی‎</t>
-        </is>
-      </c>
-      <c r="DF3" t="inlineStr">
-        <is>
-          <t>cubeb</t>
-        </is>
-      </c>
-      <c r="DG3" t="inlineStr">
-        <is>
-          <t>https://partigabor.github.io/aromatica/items/cubeb</t>
-        </is>
-      </c>
-      <c r="DH3" t="inlineStr">
-        <is>
-          <t>2557647</t>
-        </is>
-      </c>
-      <c r="DI3" t="inlineStr">
-        <is>
-          <t>681071-1</t>
-        </is>
-      </c>
-      <c r="DJ3" t="inlineStr">
-        <is>
-          <t>Species</t>
-        </is>
-      </c>
-      <c r="DK3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="DL3" t="inlineStr">
-        <is>
-          <t>Piperaceae</t>
-        </is>
-      </c>
-      <c r="DM3" t="inlineStr"/>
-      <c r="DN3" t="inlineStr">
-        <is>
-          <t>Piper</t>
-        </is>
-      </c>
-      <c r="DO3" t="inlineStr"/>
-      <c r="DP3" t="inlineStr">
-        <is>
-          <t>cubeba</t>
-        </is>
-      </c>
-      <c r="DQ3" t="inlineStr"/>
-      <c r="DR3" t="inlineStr"/>
-      <c r="DS3" t="inlineStr"/>
-      <c r="DT3" t="inlineStr">
-        <is>
-          <t>L.f.</t>
-        </is>
-      </c>
-      <c r="DU3" t="inlineStr"/>
-      <c r="DV3" t="inlineStr">
-        <is>
-          <t>Suppl. Pl.</t>
-        </is>
-      </c>
-      <c r="DW3" t="inlineStr">
-        <is>
-          <t>: 90</t>
-        </is>
-      </c>
-      <c r="DX3" t="inlineStr">
-        <is>
-          <t>(1782)</t>
-        </is>
-      </c>
-      <c r="DY3" t="inlineStr"/>
-      <c r="DZ3" t="inlineStr">
-        <is>
-          <t>Indo-China to Malesia</t>
-        </is>
-      </c>
-      <c r="EA3" t="inlineStr"/>
-      <c r="EB3" t="inlineStr">
-        <is>
-          <t>wet tropical</t>
-        </is>
-      </c>
-      <c r="EC3" t="inlineStr">
-        <is>
-          <t>2557647</t>
-        </is>
-      </c>
-      <c r="ED3" t="inlineStr"/>
-      <c r="EE3" t="inlineStr"/>
-      <c r="EF3" t="inlineStr"/>
-      <c r="EG3" t="inlineStr">
-        <is>
-          <t>2555110</t>
-        </is>
-      </c>
-      <c r="EH3" t="inlineStr">
-        <is>
-          <t>681071-1</t>
-        </is>
-      </c>
-      <c r="EI3" t="inlineStr"/>
-      <c r="EJ3" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="EK3" t="inlineStr">
-        <is>
-          <t>https://powo.science.kew.org/taxon/681071-1</t>
-        </is>
-      </c>
-      <c r="EL3" t="inlineStr">
-        <is>
-          <t>Cambodia, Myanmar, Vietnam, Borneo, Lesser Sunda Is., Malaya, Maluku, Sulawesi, Sumatera</t>
-        </is>
-      </c>
-      <c r="EM3" t="inlineStr"/>
-      <c r="EN3" t="inlineStr">
-        <is>
-          <t>Indo-China, Malesia</t>
-        </is>
-      </c>
-      <c r="EO3" t="inlineStr">
-        <is>
-          <t>Asia-Tropical</t>
         </is>
       </c>
     </row>
